--- a/Testing/Test Cases/TAWA_TestCases.xlsx
+++ b/Testing/Test Cases/TAWA_TestCases.xlsx
@@ -4,17 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Regestiration" sheetId="1" r:id="rId1"/>
+    <sheet name="Login" sheetId="2" r:id="rId2"/>
+    <sheet name="Logout" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="10">
   <si>
     <t>ID</t>
   </si>
@@ -432,8 +434,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -485,4 +487,122 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.7109375" customWidth="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="3" max="3" width="57.140625" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" customWidth="1"/>
+    <col min="5" max="5" width="62.28515625" customWidth="1"/>
+    <col min="6" max="6" width="46.5703125" customWidth="1"/>
+    <col min="7" max="7" width="21.85546875" customWidth="1"/>
+    <col min="8" max="8" width="20.140625" customWidth="1"/>
+    <col min="9" max="9" width="25.28515625" customWidth="1"/>
+    <col min="10" max="10" width="18.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:I1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.28515625" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" customWidth="1"/>
+    <col min="3" max="3" width="48.140625" customWidth="1"/>
+    <col min="4" max="4" width="22" customWidth="1"/>
+    <col min="5" max="5" width="51.140625" customWidth="1"/>
+    <col min="6" max="6" width="33.140625" customWidth="1"/>
+    <col min="7" max="7" width="23.140625" customWidth="1"/>
+    <col min="8" max="8" width="19.42578125" customWidth="1"/>
+    <col min="9" max="9" width="33.42578125" customWidth="1"/>
+    <col min="10" max="10" width="39.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Testing/Test Cases/TAWA_TestCases.xlsx
+++ b/Testing/Test Cases/TAWA_TestCases.xlsx
@@ -16,14 +16,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="10">
   <si>
     <t>ID</t>
   </si>
   <si>
-    <t>Critical</t>
-  </si>
-  <si>
     <t>Title</t>
   </si>
   <si>
@@ -46,6 +43,9 @@
   </si>
   <si>
     <t>Actual Results</t>
+  </si>
+  <si>
+    <t>TAWA_Logout_001</t>
   </si>
 </sst>
 </file>
@@ -432,31 +432,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.85546875" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" customWidth="1"/>
-    <col min="3" max="3" width="51.140625" customWidth="1"/>
-    <col min="4" max="4" width="26" customWidth="1"/>
-    <col min="5" max="5" width="56.7109375" customWidth="1"/>
-    <col min="6" max="6" width="28.28515625" customWidth="1"/>
-    <col min="7" max="7" width="25.42578125" customWidth="1"/>
-    <col min="8" max="8" width="26.42578125" customWidth="1"/>
-    <col min="9" max="9" width="24" customWidth="1"/>
-    <col min="10" max="10" width="31.85546875" customWidth="1"/>
+    <col min="2" max="2" width="51.140625" customWidth="1"/>
+    <col min="3" max="3" width="26" customWidth="1"/>
+    <col min="4" max="4" width="56.7109375" customWidth="1"/>
+    <col min="5" max="5" width="28.28515625" customWidth="1"/>
+    <col min="6" max="6" width="25.42578125" customWidth="1"/>
+    <col min="7" max="7" width="26.42578125" customWidth="1"/>
+    <col min="8" max="8" width="24" customWidth="1"/>
+    <col min="9" max="9" width="31.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -468,20 +467,17 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -491,31 +487,30 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.7109375" customWidth="1"/>
-    <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="57.140625" customWidth="1"/>
-    <col min="4" max="4" width="23.42578125" customWidth="1"/>
-    <col min="5" max="5" width="62.28515625" customWidth="1"/>
-    <col min="6" max="6" width="46.5703125" customWidth="1"/>
-    <col min="7" max="7" width="21.85546875" customWidth="1"/>
-    <col min="8" max="8" width="20.140625" customWidth="1"/>
-    <col min="9" max="9" width="25.28515625" customWidth="1"/>
-    <col min="10" max="10" width="18.7109375" customWidth="1"/>
+    <col min="2" max="2" width="57.140625" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" customWidth="1"/>
+    <col min="4" max="4" width="62.28515625" customWidth="1"/>
+    <col min="5" max="5" width="46.5703125" customWidth="1"/>
+    <col min="6" max="6" width="21.85546875" customWidth="1"/>
+    <col min="7" max="7" width="20.140625" customWidth="1"/>
+    <col min="8" max="8" width="25.28515625" customWidth="1"/>
+    <col min="9" max="9" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -527,20 +522,17 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -550,31 +542,30 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.28515625" customWidth="1"/>
-    <col min="2" max="2" width="24.42578125" customWidth="1"/>
-    <col min="3" max="3" width="48.140625" customWidth="1"/>
-    <col min="4" max="4" width="22" customWidth="1"/>
-    <col min="5" max="5" width="51.140625" customWidth="1"/>
-    <col min="6" max="6" width="33.140625" customWidth="1"/>
-    <col min="7" max="7" width="23.140625" customWidth="1"/>
-    <col min="8" max="8" width="19.42578125" customWidth="1"/>
-    <col min="9" max="9" width="33.42578125" customWidth="1"/>
-    <col min="10" max="10" width="39.42578125" customWidth="1"/>
+    <col min="2" max="2" width="48.140625" customWidth="1"/>
+    <col min="3" max="3" width="22" customWidth="1"/>
+    <col min="4" max="4" width="51.140625" customWidth="1"/>
+    <col min="5" max="5" width="33.140625" customWidth="1"/>
+    <col min="6" max="6" width="23.140625" customWidth="1"/>
+    <col min="7" max="7" width="19.42578125" customWidth="1"/>
+    <col min="8" max="8" width="33.42578125" customWidth="1"/>
+    <col min="9" max="9" width="39.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -586,19 +577,21 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>9</v>
       </c>
     </row>

--- a/Testing/Test Cases/TAWA_TestCases.xlsx
+++ b/Testing/Test Cases/TAWA_TestCases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Regestiration" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="12">
   <si>
     <t>ID</t>
   </si>
@@ -46,6 +46,12 @@
   </si>
   <si>
     <t>TAWA_Logout_001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that </t>
+  </si>
+  <si>
+    <t>Precondition</t>
   </si>
 </sst>
 </file>
@@ -432,26 +438,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:J1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.85546875" customWidth="1"/>
     <col min="2" max="2" width="51.140625" customWidth="1"/>
-    <col min="3" max="3" width="26" customWidth="1"/>
-    <col min="4" max="4" width="56.7109375" customWidth="1"/>
-    <col min="5" max="5" width="28.28515625" customWidth="1"/>
-    <col min="6" max="6" width="25.42578125" customWidth="1"/>
-    <col min="7" max="7" width="26.42578125" customWidth="1"/>
-    <col min="8" max="8" width="24" customWidth="1"/>
-    <col min="9" max="9" width="31.85546875" customWidth="1"/>
+    <col min="3" max="4" width="26" customWidth="1"/>
+    <col min="5" max="5" width="56.7109375" customWidth="1"/>
+    <col min="6" max="6" width="28.28515625" customWidth="1"/>
+    <col min="7" max="7" width="25.42578125" customWidth="1"/>
+    <col min="8" max="8" width="26.42578125" customWidth="1"/>
+    <col min="9" max="9" width="24" customWidth="1"/>
+    <col min="10" max="10" width="31.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -462,21 +468,24 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -487,26 +496,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.7109375" customWidth="1"/>
     <col min="2" max="2" width="57.140625" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" customWidth="1"/>
-    <col min="4" max="4" width="62.28515625" customWidth="1"/>
-    <col min="5" max="5" width="46.5703125" customWidth="1"/>
-    <col min="6" max="6" width="21.85546875" customWidth="1"/>
-    <col min="7" max="7" width="20.140625" customWidth="1"/>
-    <col min="8" max="8" width="25.28515625" customWidth="1"/>
-    <col min="9" max="9" width="18.7109375" customWidth="1"/>
+    <col min="3" max="4" width="23.42578125" customWidth="1"/>
+    <col min="5" max="5" width="62.28515625" customWidth="1"/>
+    <col min="6" max="6" width="46.5703125" customWidth="1"/>
+    <col min="7" max="7" width="21.85546875" customWidth="1"/>
+    <col min="8" max="8" width="20.140625" customWidth="1"/>
+    <col min="9" max="9" width="25.28515625" customWidth="1"/>
+    <col min="10" max="10" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -517,21 +526,24 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -542,26 +554,26 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.28515625" customWidth="1"/>
     <col min="2" max="2" width="48.140625" customWidth="1"/>
-    <col min="3" max="3" width="22" customWidth="1"/>
-    <col min="4" max="4" width="51.140625" customWidth="1"/>
-    <col min="5" max="5" width="33.140625" customWidth="1"/>
-    <col min="6" max="6" width="23.140625" customWidth="1"/>
-    <col min="7" max="7" width="19.42578125" customWidth="1"/>
-    <col min="8" max="8" width="33.42578125" customWidth="1"/>
-    <col min="9" max="9" width="39.42578125" customWidth="1"/>
+    <col min="3" max="4" width="22" customWidth="1"/>
+    <col min="5" max="5" width="51.140625" customWidth="1"/>
+    <col min="6" max="6" width="33.140625" customWidth="1"/>
+    <col min="7" max="7" width="23.140625" customWidth="1"/>
+    <col min="8" max="8" width="19.42578125" customWidth="1"/>
+    <col min="9" max="9" width="33.42578125" customWidth="1"/>
+    <col min="10" max="10" width="39.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -572,27 +584,33 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Testing/Test Cases/TAWA_TestCases.xlsx
+++ b/Testing/Test Cases/TAWA_TestCases.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="20">
   <si>
     <t>ID</t>
   </si>
@@ -52,6 +52,30 @@
   </si>
   <si>
     <t>Precondition</t>
+  </si>
+  <si>
+    <t>Verify functionality of Logout link for user</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>User shall be logged in</t>
+  </si>
+  <si>
+    <t>1-Click on "Logout" link in page Header</t>
+  </si>
+  <si>
+    <t>User shall be log out and redirected to Home Page</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>TAWA_Logout_002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify functionality of Logout link for </t>
   </si>
 </sst>
 </file>
@@ -123,7 +147,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -133,6 +157,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -438,21 +465,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.85546875" customWidth="1"/>
     <col min="2" max="2" width="51.140625" customWidth="1"/>
-    <col min="3" max="4" width="26" customWidth="1"/>
+    <col min="3" max="3" width="26" style="4" customWidth="1"/>
+    <col min="4" max="4" width="26" customWidth="1"/>
     <col min="5" max="5" width="56.7109375" customWidth="1"/>
-    <col min="6" max="6" width="28.28515625" customWidth="1"/>
-    <col min="7" max="7" width="25.42578125" customWidth="1"/>
-    <col min="8" max="8" width="26.42578125" customWidth="1"/>
+    <col min="6" max="6" width="50.5703125" customWidth="1"/>
+    <col min="7" max="7" width="25.42578125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="26.42578125" style="4" customWidth="1"/>
     <col min="9" max="9" width="24" customWidth="1"/>
     <col min="10" max="10" width="31.85546875" customWidth="1"/>
   </cols>
@@ -487,6 +515,37 @@
       </c>
       <c r="J1" s="3" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Testing/Test Cases/TAWA_TestCases.xlsx
+++ b/Testing/Test Cases/TAWA_TestCases.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="25">
   <si>
     <t>ID</t>
   </si>
@@ -63,19 +63,34 @@
     <t>User shall be logged in</t>
   </si>
   <si>
-    <t>1-Click on "Logout" link in page Header</t>
-  </si>
-  <si>
-    <t>User shall be log out and redirected to Home Page</t>
-  </si>
-  <si>
-    <t>High</t>
-  </si>
-  <si>
     <t>TAWA_Logout_002</t>
   </si>
   <si>
-    <t xml:space="preserve">Verify functionality of Logout link for </t>
+    <t>Verify functionality of Logout link for admin</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>Admin shall be logged in</t>
+  </si>
+  <si>
+    <t>1-Click on "Logout" link in page Header in Admin page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-Click on "Logout" link in page Header </t>
+  </si>
+  <si>
+    <t>Admin shall be logged out and redirected to Home Page</t>
+  </si>
+  <si>
+    <t>User shall be logged out and redirected to Home Page</t>
+  </si>
+  <si>
+    <t>Crirical</t>
+  </si>
+  <si>
+    <t>Critical</t>
   </si>
 </sst>
 </file>
@@ -467,8 +482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -531,21 +546,36 @@
         <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="B3" t="s">
+      <c r="E3" t="s">
         <v>19</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Testing/Test Cases/TAWA_TestCases.xlsx
+++ b/Testing/Test Cases/TAWA_TestCases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Regestiration" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="63">
   <si>
     <t>ID</t>
   </si>
@@ -48,9 +48,6 @@
     <t>TAWA_Logout_001</t>
   </si>
   <si>
-    <t xml:space="preserve">Verify that </t>
-  </si>
-  <si>
     <t>Precondition</t>
   </si>
   <si>
@@ -91,6 +88,146 @@
   </si>
   <si>
     <t>Critical</t>
+  </si>
+  <si>
+    <t>TAWA_Login_001</t>
+  </si>
+  <si>
+    <t>User shall have valid account</t>
+  </si>
+  <si>
+    <t>Test Date</t>
+  </si>
+  <si>
+    <t>User shall be logged in and redirected to Home Page</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>TAWA_Login_002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate signup link functionality </t>
+  </si>
+  <si>
+    <t>User,Admin</t>
+  </si>
+  <si>
+    <t>user shall be redirected to Signup page</t>
+  </si>
+  <si>
+    <t>User,Admin,Guest</t>
+  </si>
+  <si>
+    <t>TAWA_Login_003</t>
+  </si>
+  <si>
+    <t>TAWA_Login_004</t>
+  </si>
+  <si>
+    <t>TAWA_Login_005</t>
+  </si>
+  <si>
+    <t>TAWA_Login_006</t>
+  </si>
+  <si>
+    <t>TAWA_Login_007</t>
+  </si>
+  <si>
+    <t>TAWA_Login_008</t>
+  </si>
+  <si>
+    <t>TAWA_Login_009</t>
+  </si>
+  <si>
+    <t>TAWA_Login_010</t>
+  </si>
+  <si>
+    <t>Validate login button functionality with valid user input</t>
+  </si>
+  <si>
+    <t>Admin shall have valid account</t>
+  </si>
+  <si>
+    <t>User shall be logged in and redirected to Admin Page</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Validate login button functionality with valid admin input</t>
+  </si>
+  <si>
+    <t>Validate login button functionality with invalid user input</t>
+  </si>
+  <si>
+    <t>User shall be stay at Login page andd error message with"" shall be appeared</t>
+  </si>
+  <si>
+    <t>Validate login button functionality with invalid admin input</t>
+  </si>
+  <si>
+    <t>Admin shall be stay at Login page andd error message with"" shall be appeared</t>
+  </si>
+  <si>
+    <t>Check Mandatory Fields</t>
+  </si>
+  <si>
+    <t>1-Open TAWA Website.
+2-Click on login link in page Header.
+3-Enter  invalid user name.
+4-Enter invalid password.
+5-Click on "login" button.</t>
+  </si>
+  <si>
+    <t>1-Open TAWA Website.
+2-Click on login link in page Header.
+3-Enter  valid user name.
+4-Enter valid password.
+5-Click on "login" button.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-Open TAWA Website.
+2-Click on login link in page Header.
+3-Click on Signup link.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-Open TAWA Website.
+2-Click on login link in page Header.
+3-Leave all fields empty.
+4-Click on "login"button.
+</t>
+  </si>
+  <si>
+    <t>Designed by</t>
+  </si>
+  <si>
+    <t>Nesma Bahgat</t>
+  </si>
+  <si>
+    <t>An error message shall be appeared with""</t>
+  </si>
+  <si>
+    <t>Validate login with valid user name and invalid password</t>
+  </si>
+  <si>
+    <t>1-Open TAWA Website.
+2-Click on login link in page Header.
+3-Enter  valid user name.
+4-Enter invalid password.
+5-Click on "login" button.</t>
+  </si>
+  <si>
+    <t>Validate login with invalid user name and valid password</t>
+  </si>
+  <si>
+    <t>1-Open TAWA Website.
+2-Click on login link in page Header.
+3-Enter invalid user name.
+4-Enter valid password.
+5-Click on "login" button.</t>
   </si>
 </sst>
 </file>
@@ -162,7 +299,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -175,6 +312,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -480,10 +626,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -511,7 +657,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -530,52 +676,6 @@
       </c>
       <c r="J1" s="3" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -585,26 +685,30 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" customWidth="1"/>
-    <col min="2" max="2" width="57.140625" customWidth="1"/>
-    <col min="3" max="4" width="23.42578125" customWidth="1"/>
-    <col min="5" max="5" width="62.28515625" customWidth="1"/>
-    <col min="6" max="6" width="46.5703125" customWidth="1"/>
-    <col min="7" max="7" width="21.85546875" customWidth="1"/>
-    <col min="8" max="8" width="20.140625" customWidth="1"/>
-    <col min="9" max="9" width="25.28515625" customWidth="1"/>
-    <col min="10" max="10" width="18.7109375" customWidth="1"/>
+    <col min="1" max="1" width="25.7109375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="57.140625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="62.28515625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="25.7109375" style="5" customWidth="1"/>
+    <col min="7" max="7" width="46.5703125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="21.85546875" style="7" customWidth="1"/>
+    <col min="9" max="9" width="20.140625" style="7" customWidth="1"/>
+    <col min="10" max="10" width="25.28515625" style="5" customWidth="1"/>
+    <col min="11" max="11" width="18.7109375" style="5" customWidth="1"/>
+    <col min="12" max="12" width="28" style="5" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -615,25 +719,264 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="6" t="s">
         <v>8</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -643,10 +986,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="A2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -673,7 +1016,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -699,8 +1042,48 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="4"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Testing/Test Cases/TAWA_TestCases.xlsx
+++ b/Testing/Test Cases/TAWA_TestCases.xlsx
@@ -12,11 +12,12 @@
     <sheet name="Logout" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="203">
   <si>
     <t>ID</t>
   </si>
@@ -162,16 +163,7 @@
     <t>Validate login button functionality with invalid user input</t>
   </si>
   <si>
-    <t>User shall be stay at Login page andd error message with"" shall be appeared</t>
-  </si>
-  <si>
     <t>Validate login button functionality with invalid admin input</t>
-  </si>
-  <si>
-    <t>Admin shall be stay at Login page andd error message with"" shall be appeared</t>
-  </si>
-  <si>
-    <t>Check Mandatory Fields</t>
   </si>
   <si>
     <t>1-Open TAWA Website.
@@ -207,9 +199,6 @@
     <t>Nesma Bahgat</t>
   </si>
   <si>
-    <t>An error message shall be appeared with""</t>
-  </si>
-  <si>
     <t>Validate login with valid user name and invalid password</t>
   </si>
   <si>
@@ -228,13 +217,685 @@
 3-Enter invalid user name.
 4-Enter valid password.
 5-Click on "login" button.</t>
+  </si>
+  <si>
+    <t>Reviewed By</t>
+  </si>
+  <si>
+    <t>User shall be stay at Login page andd error message with"The data entered were invalid, please re-enter your data" shall be appeared</t>
+  </si>
+  <si>
+    <t>Admin shall be stay at Login page andd error message with"The data entered were invalid, please re-enter your data" shall be appeared</t>
+  </si>
+  <si>
+    <t>An error message shall be appeared with"The data entered were invalid, please re-enter your data"</t>
+  </si>
+  <si>
+    <t>TAWA_SignUp_001</t>
+  </si>
+  <si>
+    <t>TAWA_SignUp_002</t>
+  </si>
+  <si>
+    <t>TAWA_SignUp_003</t>
+  </si>
+  <si>
+    <t>TAWA_SignUp_004</t>
+  </si>
+  <si>
+    <t>TAWA_SignUp_005</t>
+  </si>
+  <si>
+    <t>TAWA_SignUp_006</t>
+  </si>
+  <si>
+    <t>TAWA_SignUp_007</t>
+  </si>
+  <si>
+    <t>TAWA_SignUp_008</t>
+  </si>
+  <si>
+    <t>TAWA_SignUp_009</t>
+  </si>
+  <si>
+    <t>TAWA_SignUp_010</t>
+  </si>
+  <si>
+    <t>TAWA_SignUp_011</t>
+  </si>
+  <si>
+    <t>Check Mandatory fields</t>
+  </si>
+  <si>
+    <t>Guest,admin,User</t>
+  </si>
+  <si>
+    <t>Validate login with empty fields</t>
+  </si>
+  <si>
+    <t>Validate "signup" link functionality</t>
+  </si>
+  <si>
+    <t>1-Open TAWA Website.
+2-Click on signup link in page Header.
+3-Click on "login" link.</t>
+  </si>
+  <si>
+    <t>User shall be redirected to login page.</t>
+  </si>
+  <si>
+    <t>1-Open TAWA Website.
+2-Click on signup link in page Header.
+3-Choose "User"Radio buton.
+4-Enter Full name woth length &gt; 24 char.
+5-Enter all reset fields with valid data.
+6-Click on "SignUp" button.</t>
+  </si>
+  <si>
+    <t>Check length of full name field</t>
+  </si>
+  <si>
+    <t>Verify Full name field accepts characters</t>
+  </si>
+  <si>
+    <t>1-Open TAWA Website.
+2-Click on signup link in page Header.
+3-Choose "User"Radio buton.
+4-Enter full name with characters only.
+5-Enter all reset fields with valid data.
+6-Click on "SignUp" button.</t>
+  </si>
+  <si>
+    <t>Verify Full name field accepts characters and spaces</t>
+  </si>
+  <si>
+    <t>1-Open TAWA Website.
+2-Click on signup link in page Header.
+3-Choose "User"Radio buton.
+4-Enter full name with characters and spaces only.
+5-Enter all reset fields with valid data.
+6-Click on "SignUp" button.</t>
+  </si>
+  <si>
+    <t>Verify Full name field accepts characters and spaces only</t>
+  </si>
+  <si>
+    <t>1-Open TAWA Website.
+2-Click on signup link in page Header.
+3-choose "User" radio button.
+4-Leave all fields empty.
+5-Click on "SignUp" button.</t>
+  </si>
+  <si>
+    <t>1-Open TAWA Website.
+2-Click on signup link in page Header.
+3-Choose "User"Radio buton.
+4-Enter full name with characters ,spaces and numbers/special characters.
+5-Enter all reset fields with valid data.
+6-Click on "SignUp" button.</t>
+  </si>
+  <si>
+    <t>An error message should appear with "The data entered were invalid, Please re-enter your data"</t>
+  </si>
+  <si>
+    <t>An error message shall appear with "The data entered were invalid, Please re-enter your data".</t>
+  </si>
+  <si>
+    <t>Check length of User name field</t>
+  </si>
+  <si>
+    <t>1-Open TAWA Website.
+2-Click on signup link in page Header.
+3-Choose "User"Radio buton.
+4-Enter User name woth length &gt; 14 char.
+5-Enter all reset fields with valid data.
+6-Click on "SignUp" button.</t>
+  </si>
+  <si>
+    <t>1-Open TAWA Website.
+2-Click on signup link in page Header.
+3-Choose "User"Radio buton.
+4-Enter User name with characters ,spaces and numbers/special characters.
+5-Enter all reset fields with valid data.
+6-Click on "SignUp" button.</t>
+  </si>
+  <si>
+    <t>Verify User name field does not accept spaces</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify uniqueness of User name field </t>
+  </si>
+  <si>
+    <t>1-Open TAWA Website.
+2-Click on signup link in page Header.
+3-Choose "User"Radio buton.
+4-Enter User name already exist.
+5-Enter all reset fields with valid data.
+6-Click on "SignUp" button.</t>
+  </si>
+  <si>
+    <t>An error message should appear with "This username is already reserved. Please enter a different username"</t>
+  </si>
+  <si>
+    <t>TAWA_SignUp_012</t>
+  </si>
+  <si>
+    <t>TAWA_SignUp_013</t>
+  </si>
+  <si>
+    <t>TAWA_SignUp_014</t>
+  </si>
+  <si>
+    <t>TAWA_SignUp_015</t>
+  </si>
+  <si>
+    <t>TAWA_SignUp_016</t>
+  </si>
+  <si>
+    <t>TAWA_SignUp_017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Check length of email field</t>
+  </si>
+  <si>
+    <t>1-Open TAWA Website.
+2-Click on signup link in page Header.
+3-Choose "User"Radio buton.
+4-Enter email with length &gt; 24 char.
+5-Enter all reset fields with valid data.
+6-Click on "SignUp" button.</t>
+  </si>
+  <si>
+    <t>Validate email field without @ character</t>
+  </si>
+  <si>
+    <t>1-Open TAWA Website.
+2-Click on signup link in page Header.
+3-Choose "User"Radio buton.
+4-Enter email without @ char.
+5-Enter all reset fields with valid data.
+6-Click on "SignUp" button.</t>
+  </si>
+  <si>
+    <t>Validate email field without . character</t>
+  </si>
+  <si>
+    <t>1-Open TAWA Website.
+2-Click on signup link in page Header.
+3-Choose "User"Radio buton.
+4-Enter email without . char.
+5-Enter all reset fields with valid data.
+6-Click on "SignUp" button.</t>
+  </si>
+  <si>
+    <t>1-Open TAWA Website.
+2-Click on signup link in page Header.
+3-Choose "User"Radio buton.
+4-Enter valid email.
+5-Enter all reset fields with valid data.
+6-Click on "SignUp" button.</t>
+  </si>
+  <si>
+    <t>Check length of phone field</t>
+  </si>
+  <si>
+    <t>1-Open TAWA Website.
+2-Click on signup link in page Header.
+3-Choose "User"Radio buton.
+4-Enter phone number &gt; 20 number.
+5-Enter all reset fields with valid data.
+6-Click on "SignUp" button.</t>
+  </si>
+  <si>
+    <t>1-Open TAWA Website.
+2-Click on signup link in page Header.
+3-Choose "User"Radio buton.
+4-Enter valid phone number (numbers only).
+5-Enter all reset fields with valid data.
+6-Click on "SignUp" button.</t>
+  </si>
+  <si>
+    <t>verify phone field does not accept characters</t>
+  </si>
+  <si>
+    <t>1-Open TAWA Website.
+2-Click on signup link in page Header.
+3-Choose "User"Radio buton.
+4-Enter phone number with numbers and characters.
+5-Enter all reset fields with valid data.
+6-Click on "SignUp" button.</t>
+  </si>
+  <si>
+    <t>verify phone field does not accept spaces.</t>
+  </si>
+  <si>
+    <t>1-Open TAWA Website.
+2-Click on signup link in page Header.
+3-Choose "User"Radio buton.
+4-Enter phone number with numbers and spaces.
+5-Enter all reset fields with valid data.
+6-Click on "SignUp" button.</t>
+  </si>
+  <si>
+    <t>verify phone field does not accept special character.</t>
+  </si>
+  <si>
+    <t>1-Open TAWA Website.
+2-Click on signup link in page Header.
+3-Choose "User"Radio buton.
+4-Enter phone number with numbers and special characters.
+5-Enter all reset fields with valid data.
+6-Click on "SignUp" button.</t>
+  </si>
+  <si>
+    <t>TAWA_SignUp_018</t>
+  </si>
+  <si>
+    <t>TAWA_SignUp_019</t>
+  </si>
+  <si>
+    <t>Verify valid  phone number</t>
+  </si>
+  <si>
+    <t>Verify valid email in email field</t>
+  </si>
+  <si>
+    <t>Verify valid User name which accepts characters, numbers and special character.</t>
+  </si>
+  <si>
+    <t>Verify password less than 8 characters</t>
+  </si>
+  <si>
+    <t>1-Open TAWA Website.
+2-Click on signup link in page Header.
+3-Choose "User"Radio buton.
+4-Enterpassword less than 8 characters.
+5-Enter all reset fields with valid data.
+6-Click on "SignUp" button.</t>
+  </si>
+  <si>
+    <t>an error message preventing leaving page with "Password must contain number, special characterm upper case, lower case and more than 8 characters.</t>
+  </si>
+  <si>
+    <t>Verify password with characters only</t>
+  </si>
+  <si>
+    <t>1-Open TAWA Website.
+2-Click on signup link in page Header.
+3-Choose "User"Radio buton.
+4-Enter password with characters only.
+5-Enter all reset fields with valid data.
+6-Click on "SignUp" button.</t>
+  </si>
+  <si>
+    <t>Verify password with special characters only</t>
+  </si>
+  <si>
+    <t>1-Open TAWA Website.
+2-Click on signup link in page Header.
+3-Choose "User"Radio buton.
+4-Enter password with special characters only.
+5-Enter all reset fields with valid data.
+6-Click on "SignUp" button.</t>
+  </si>
+  <si>
+    <t>Verify password combination of characters, special character, lower case, upper case and more than 8 characters.</t>
+  </si>
+  <si>
+    <t>1-Open TAWA Website.
+2-Click on signup link in page Header.
+3-Choose "User"Radio buton.
+4-Enter valid password ,combination of characters, special character, lower case, upper case and more than 8 characters.
+5-Enter all reset fields with valid data.
+6-Click on "SignUp" button.</t>
+  </si>
+  <si>
+    <t>TAWA_SignUp_020</t>
+  </si>
+  <si>
+    <t>TAWA_SignUp_021</t>
+  </si>
+  <si>
+    <t>TAWA_SignUp_022</t>
+  </si>
+  <si>
+    <t>TAWA_SignUp_023</t>
+  </si>
+  <si>
+    <t>TAWA_SignUp_024</t>
+  </si>
+  <si>
+    <t>TAWA_SignUp_025</t>
+  </si>
+  <si>
+    <t>Verify Password shall be masked</t>
+  </si>
+  <si>
+    <t>1-Open TAWA Website.
+2-Click on signup link in page Header.
+3-Choose "User"Radio buton.
+4-Enter password.</t>
+  </si>
+  <si>
+    <t>The password shall be masked.</t>
+  </si>
+  <si>
+    <t>Confirm a valid password</t>
+  </si>
+  <si>
+    <t>Verify a confirm password with wrong mismatch</t>
+  </si>
+  <si>
+    <t>1-Open TAWA Website.
+2-Click on signup link in page Header.
+3-Choose "User"Radio buton.
+4-Enter password that match password field .
+5-Enter all reset fields with valid data.
+6-Click on "SignUp" button.</t>
+  </si>
+  <si>
+    <t>1-Open TAWA Website.
+2-Click on signup link in page Header.
+3-Choose "User"Radio buton.
+4-Enter password does not match password field.
+5-Enter all reset fields with valid data.
+6-Click on "SignUp" button.</t>
+  </si>
+  <si>
+    <t>TAWA_SignUp_026</t>
+  </si>
+  <si>
+    <t>TAWA_SignUp_027</t>
+  </si>
+  <si>
+    <t>TAWA_SignUp_028</t>
+  </si>
+  <si>
+    <t>TAWA_SignUp_029</t>
+  </si>
+  <si>
+    <t>TAWA_SignUp_030</t>
+  </si>
+  <si>
+    <t>TAWA_SignUp_031</t>
+  </si>
+  <si>
+    <t>TAWA_SignUp_032</t>
+  </si>
+  <si>
+    <t>TAWA_SignUp_033</t>
+  </si>
+  <si>
+    <t>TAWA_SignUp_034</t>
+  </si>
+  <si>
+    <t>TAWA_SignUp_035</t>
+  </si>
+  <si>
+    <t>TAWA_SignUp_036</t>
+  </si>
+  <si>
+    <t>TAWA_SignUp_037</t>
+  </si>
+  <si>
+    <t>TAWA_SignUp_038</t>
+  </si>
+  <si>
+    <t>TAWA_SignUp_039</t>
+  </si>
+  <si>
+    <t>TAWA_SignUp_040</t>
+  </si>
+  <si>
+    <t>TAWA_SignUp_041</t>
+  </si>
+  <si>
+    <t>TAWA_SignUp_042</t>
+  </si>
+  <si>
+    <t>TAWA_SignUp_043</t>
+  </si>
+  <si>
+    <t>TAWA_SignUp_044</t>
+  </si>
+  <si>
+    <t>TAWA_SignUp_045</t>
+  </si>
+  <si>
+    <t>TAWA_SignUp_046</t>
+  </si>
+  <si>
+    <t>TAWA_SignUp_047</t>
+  </si>
+  <si>
+    <t>TAWA_SignUp_048</t>
+  </si>
+  <si>
+    <t>TAWA_SignUp_049</t>
+  </si>
+  <si>
+    <t>TAWA_SignUp_050</t>
+  </si>
+  <si>
+    <t>TAWA_SignUp_051</t>
+  </si>
+  <si>
+    <t>The user shall sign up successfully and message appear with " Congratulations! A new account has been created successfully", then user shall redirected to Login page.</t>
+  </si>
+  <si>
+    <t>The user shall sign up successfully and message appear with " Congratulations! A new account has been created successfully", then user shall redirected to login page.</t>
+  </si>
+  <si>
+    <t>1-Open TAWA Website.
+2-Click on signup link in page Header.
+3-choose "Admin" radio button.
+4-Leave all fields empty.
+5-Click on "SignUp" button.</t>
+  </si>
+  <si>
+    <t>1-Open TAWA Website.
+2-Click on signup link in page Header.
+3-choose "Admin" radio button.
+4-Enter Full name woth length &gt; 24 char.
+5-Enter all reset fields with valid data.
+6-Click on "SignUp" button.</t>
+  </si>
+  <si>
+    <t>1-Open TAWA Website.
+2-Click on signup link in page Header.
+3-choose "Admin" radio button.
+4-Enter full name with characters only.
+5-Enter all reset fields with valid data.
+6-Click on "SignUp" button.</t>
+  </si>
+  <si>
+    <t>1-Open TAWA Website.
+2-Click on signup link in page Header.
+3-choose "Admin" radio button.
+4-Enter full name with characters and spaces only.
+5-Enter all reset fields with valid data.
+6-Click on "SignUp" button.</t>
+  </si>
+  <si>
+    <t>1-Open TAWA Website.
+2-Click on signup link in page Header.
+3-choose "Admin" radio button.
+4-Enter full name with characters ,spaces and numbers/special characters.
+5-Enter all reset fields with valid data.
+6-Click on "SignUp" button.</t>
+  </si>
+  <si>
+    <t>1-Open TAWA Website.
+2-Click on signup link in page Header.
+3-choose "Admin" radio button.
+4-Enter User name woth length &gt; 14 char.
+5-Enter all reset fields with valid data.
+6-Click on "SignUp" button.</t>
+  </si>
+  <si>
+    <t>1-Open TAWA Website.
+2-Click on signup link in page Header.
+3-choose "Admin" radio button.
+4-Enter User name with characters ,spaces and numbers/special characters.
+5-Enter all reset fields with valid data.
+6-Click on "SignUp" button.</t>
+  </si>
+  <si>
+    <t>1-Open TAWA Website.
+2-Click on signup link in page Header.
+3-choose "Admin" radio button.
+4-Enter User name already exist.
+5-Enter all reset fields with valid data.
+6-Click on "SignUp" button.</t>
+  </si>
+  <si>
+    <t>1-Open TAWA Website.
+2-Click on signup link in page Header.
+3-choose "Admin" radio button.
+4-Enter email with length &gt; 24 char.
+5-Enter all reset fields with valid data.
+6-Click on "SignUp" button.</t>
+  </si>
+  <si>
+    <t>1-Open TAWA Website.
+2-Click on signup link in page Header.
+3-choose "Admin" radio button.
+4-Enter email without @ char.
+5-Enter all reset fields with valid data.
+6-Click on "SignUp" button.</t>
+  </si>
+  <si>
+    <t>1-Open TAWA Website.
+2-Click on signup link in page Header.
+3-choose "Admin" radio button.
+4-Enter email without . char.
+5-Enter all reset fields with valid data.
+6-Click on "SignUp" button.</t>
+  </si>
+  <si>
+    <t>1-Open TAWA Website.
+2-Click on signup link in page Header.
+3-choose "Admin" radio button.
+4-Enter valid email.
+5-Enter all reset fields with valid data.
+6-Click on "SignUp" button.</t>
+  </si>
+  <si>
+    <t>1-Open TAWA Website.
+2-Click on signup link in page Header.
+3-choose "Admin" radio button.
+4-Enter valid phone number (numbers only).
+5-Enter all reset fields with valid data.
+6-Click on "SignUp" button.</t>
+  </si>
+  <si>
+    <t>1-Open TAWA Website.
+2-Click on signup link in page Header.
+3-choose "Admin" radio button.
+4-Enter phone number &gt; 20 number.
+5-Enter all reset fields with valid data.
+6-Click on "SignUp" button.</t>
+  </si>
+  <si>
+    <t>1-Open TAWA Website.
+2-Click on signup link in page Header.
+3-choose "Admin" radio button.
+4-Enter phone number with numbers and characters.
+5-Enter all reset fields with valid data.
+6-Click on "SignUp" button.</t>
+  </si>
+  <si>
+    <t>1-Open TAWA Website.
+2-Click on signup link in page Header.
+3-choose "Admin" radio button.
+4-Enter phone number with numbers and spaces.
+5-Enter all reset fields with valid data.
+6-Click on "SignUp" button.</t>
+  </si>
+  <si>
+    <t>1-Open TAWA Website.
+2-Click on signup link in page Header.
+3-choose "Admin" radio button.
+4-Enter phone number with numbers and special characters.
+5-Enter all reset fields with valid data.
+6-Click on "SignUp" button.</t>
+  </si>
+  <si>
+    <t>1-Open TAWA Website.
+2-Click on signup link in page Header.
+3-choose "Admin" radio button.
+4-Enterpassword less than 8 characters.
+5-Enter all reset fields with valid data.
+6-Click on "SignUp" button.</t>
+  </si>
+  <si>
+    <t>1-Open TAWA Website.
+2-Click on signup link in page Header.
+3-choose "Admin" radio button.
+4-Enter password with characters only.
+5-Enter all reset fields with valid data.
+6-Click on "SignUp" button.</t>
+  </si>
+  <si>
+    <t>1-Open TAWA Website.
+2-Click on signup link in page Header.
+3-choose "Admin" radio button.
+4-Enter password with special characters only.
+5-Enter all reset fields with valid data.
+6-Click on "SignUp" button.</t>
+  </si>
+  <si>
+    <t>1-Open TAWA Website.
+2-Click on signup link in page Header.
+3-choose "Admin" radio button.
+4-Enter valid password ,combination of characters, special character, lower case, upper case and more than 8 characters.
+5-Enter all reset fields with valid data.
+6-Click on "SignUp" button.</t>
+  </si>
+  <si>
+    <t>1-Open TAWA Website.
+2-Click on signup link in page Header.
+3-choose "Admin" radio button.
+4-Enter password.</t>
+  </si>
+  <si>
+    <t>1-Open TAWA Website.
+2-Click on signup link in page Header.
+3-choose "Admin" radio button.
+4-Enter password that match password field .
+5-Enter all reset fields with valid data.
+6-Click on "SignUp" button.</t>
+  </si>
+  <si>
+    <t>1-Open TAWA Website.
+2-Click on signup link in page Header.
+3-choose "Admin" radio button.
+4-Enter password does not match password field.
+5-Enter all reset fields with valid data.
+6-Click on "SignUp" button.</t>
+  </si>
+  <si>
+    <t>TAWA_SignUp_052</t>
+  </si>
+  <si>
+    <t>Verify no chosenn for radio buttons</t>
+  </si>
+  <si>
+    <t>User/Admin</t>
+  </si>
+  <si>
+    <t>1-Open TAWA Website.
+2-Click on signup link in page Header.
+3-Leave radio button empty.
+4-Enter valid inputs in all fields.
+5-Click on "SignUp" button.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -257,8 +918,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -268,6 +935,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -299,7 +972,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -320,6 +993,17 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -626,27 +1310,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:M55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="A67" sqref="A67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.85546875" customWidth="1"/>
-    <col min="2" max="2" width="51.140625" customWidth="1"/>
-    <col min="3" max="3" width="26" style="4" customWidth="1"/>
-    <col min="4" max="4" width="26" customWidth="1"/>
-    <col min="5" max="5" width="56.7109375" customWidth="1"/>
-    <col min="6" max="6" width="50.5703125" customWidth="1"/>
-    <col min="7" max="7" width="25.42578125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="26.42578125" style="4" customWidth="1"/>
-    <col min="9" max="9" width="24" customWidth="1"/>
-    <col min="10" max="10" width="31.85546875" customWidth="1"/>
+    <col min="1" max="1" width="24.85546875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="51.140625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="26" style="7" customWidth="1"/>
+    <col min="4" max="4" width="26" style="5" customWidth="1"/>
+    <col min="5" max="5" width="56.7109375" style="5" customWidth="1"/>
+    <col min="6" max="6" width="31.28515625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="50.5703125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="25.42578125" style="7" customWidth="1"/>
+    <col min="9" max="9" width="26.42578125" style="7" customWidth="1"/>
+    <col min="10" max="10" width="24" style="5" customWidth="1"/>
+    <col min="11" max="11" width="31.85546875" style="5" customWidth="1"/>
+    <col min="12" max="12" width="23" style="5" customWidth="1"/>
+    <col min="13" max="13" width="19" style="5" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -663,32 +1351,1094 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="6" t="s">
         <v>8</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="90.75" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="F11" s="8"/>
+      <c r="G11" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="L15" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="L16" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="L18" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="L19" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="L20" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="L21" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="L22" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="L23" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="L24" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="L25" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="L26" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="L27" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+    </row>
+    <row r="29" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="L29" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="L30" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="L31" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="L32" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="L33" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="L34" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="L35" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="L36" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="90.75" x14ac:dyDescent="0.3">
+      <c r="A37" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="F37" s="8"/>
+      <c r="G37" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="L37" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="L38" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="L39" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="L40" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="L41" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="L42" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="L43" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="L44" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="A45" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="L45" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="L46" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="L47" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="A48" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="L48" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="A49" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="G49" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="L49" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="G50" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="L50" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A51" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="G51" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="L51" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="A52" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="L52" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="A53" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="G53" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="L53" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C54" s="12"/>
+      <c r="H54" s="12"/>
+      <c r="I54" s="12"/>
+    </row>
+    <row r="55" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="A55" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="G55" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="L55" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -705,10 +2455,11 @@
     <col min="10" max="10" width="25.28515625" style="5" customWidth="1"/>
     <col min="11" max="11" width="18.7109375" style="5" customWidth="1"/>
     <col min="12" max="12" width="28" style="5" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="5"/>
+    <col min="13" max="13" width="31.140625" style="5" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -743,10 +2494,13 @@
         <v>8</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>24</v>
       </c>
@@ -757,7 +2511,7 @@
         <v>33</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>32</v>
@@ -766,10 +2520,10 @@
         <v>45</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>29</v>
       </c>
@@ -783,7 +2537,7 @@
         <v>25</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>27</v>
@@ -792,10 +2546,10 @@
         <v>28</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>34</v>
       </c>
@@ -809,7 +2563,7 @@
         <v>43</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>44</v>
@@ -818,10 +2572,10 @@
         <v>28</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>35</v>
       </c>
@@ -832,151 +2586,151 @@
         <v>12</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="H5" s="7" t="s">
         <v>28</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>36</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>52</v>
-      </c>
       <c r="G6" s="5" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="H6" s="7" t="s">
         <v>28</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>37</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>31</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>38</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="H8" s="7" t="s">
         <v>28</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>39</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>16</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="H9" s="7" t="s">
         <v>28</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>40</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E10" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G10" s="5" t="s">
         <v>62</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>58</v>
       </c>
       <c r="H10" s="7" t="s">
         <v>28</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>41</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>16</v>
       </c>
       <c r="E11" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G11" s="5" t="s">
         <v>62</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>58</v>
       </c>
       <c r="H11" s="7" t="s">
         <v>28</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -986,10 +2740,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD3"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -997,15 +2751,17 @@
     <col min="1" max="1" width="29.28515625" customWidth="1"/>
     <col min="2" max="2" width="48.140625" customWidth="1"/>
     <col min="3" max="4" width="22" customWidth="1"/>
-    <col min="5" max="5" width="51.140625" customWidth="1"/>
-    <col min="6" max="6" width="33.140625" customWidth="1"/>
-    <col min="7" max="7" width="23.140625" customWidth="1"/>
-    <col min="8" max="8" width="19.42578125" customWidth="1"/>
-    <col min="9" max="9" width="33.42578125" customWidth="1"/>
-    <col min="10" max="10" width="39.42578125" customWidth="1"/>
+    <col min="5" max="6" width="51.140625" customWidth="1"/>
+    <col min="7" max="7" width="33.140625" customWidth="1"/>
+    <col min="8" max="8" width="23.140625" customWidth="1"/>
+    <col min="9" max="9" width="19.42578125" customWidth="1"/>
+    <col min="10" max="10" width="33.42578125" customWidth="1"/>
+    <col min="11" max="11" width="39.42578125" customWidth="1"/>
+    <col min="12" max="12" width="28" style="5" customWidth="1"/>
+    <col min="13" max="13" width="31.140625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1022,22 +2778,31 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L1" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -1053,15 +2818,18 @@
       <c r="E2" t="s">
         <v>19</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="4"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I2" s="4"/>
+      <c r="L2" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -1077,13 +2845,25 @@
       <c r="E3" t="s">
         <v>18</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="L3" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F15" s="9"/>
+    </row>
+    <row r="16" spans="1:13" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="F16" s="10"/>
+    </row>
+    <row r="17" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F17" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Testing/Test Cases/TAWA_TestCases.xlsx
+++ b/Testing/Test Cases/TAWA_TestCases.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Regestiration" sheetId="1" r:id="rId1"/>
     <sheet name="Login" sheetId="2" r:id="rId2"/>
-    <sheet name="Logout" sheetId="3" r:id="rId3"/>
+    <sheet name="AdminPage" sheetId="4" r:id="rId3"/>
+    <sheet name="Logout" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="206">
   <si>
     <t>ID</t>
   </si>
@@ -889,6 +889,15 @@
 3-Leave radio button empty.
 4-Enter valid inputs in all fields.
 5-Click on "SignUp" button.</t>
+  </si>
+  <si>
+    <t>Bug ID</t>
+  </si>
+  <si>
+    <t>Severity</t>
+  </si>
+  <si>
+    <t>TAWA_Admin_001</t>
   </si>
 </sst>
 </file>
@@ -2437,8 +2446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2739,6 +2748,82 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.7109375" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" customWidth="1"/>
+    <col min="4" max="4" width="24.140625" customWidth="1"/>
+    <col min="5" max="5" width="26.140625" customWidth="1"/>
+    <col min="6" max="6" width="24.28515625" customWidth="1"/>
+    <col min="7" max="7" width="31.85546875" customWidth="1"/>
+    <col min="8" max="8" width="24.7109375" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" customWidth="1"/>
+    <col min="10" max="10" width="15.5703125" customWidth="1"/>
+    <col min="11" max="11" width="18.28515625" customWidth="1"/>
+    <col min="12" max="12" width="29" customWidth="1"/>
+    <col min="13" max="13" width="20.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" s="5" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M17"/>
   <sheetViews>

--- a/Testing/Test Cases/TAWA_TestCases.xlsx
+++ b/Testing/Test Cases/TAWA_TestCases.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="262">
   <si>
     <t>ID</t>
   </si>
@@ -898,6 +898,174 @@
   </si>
   <si>
     <t>TAWA_Admin_001</t>
+  </si>
+  <si>
+    <t>TAWA_SRS_FR_055</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> After login as an admin The admin shall be able to add users.</t>
+  </si>
+  <si>
+    <t>TAWA_SRS_FR_056</t>
+  </si>
+  <si>
+    <t>The admin clicks on the ‘add user’ button in the home page to navigate to a ‘add user’ form.</t>
+  </si>
+  <si>
+    <t>TAWA_SRS_FR_081</t>
+  </si>
+  <si>
+    <t>The ‘add user’ form shall be contain ‘add’ button.</t>
+  </si>
+  <si>
+    <t>TAWA_SRS_FR_082</t>
+  </si>
+  <si>
+    <t>The ‘add’ button shall be clickable only after filling all fields.</t>
+  </si>
+  <si>
+    <t>TAWA_SRS_FR_083</t>
+  </si>
+  <si>
+    <t>The admin clicks on ‘add’ button to submit the form.</t>
+  </si>
+  <si>
+    <t>TAWA_SRS_FR_084</t>
+  </si>
+  <si>
+    <t>The added user shall be didn’t exist in the database before add him.</t>
+  </si>
+  <si>
+    <t>TAWA_SRS_FR_085</t>
+  </si>
+  <si>
+    <t>If the user exist in the database shall display error message says ‘This username is already reserved, Please enter a different username’.</t>
+  </si>
+  <si>
+    <t>TAWA_SRS_FR_086</t>
+  </si>
+  <si>
+    <t>If the user added successfully shall display successful message says ‘Congratulations!  A new account has been created successfully’ .</t>
+  </si>
+  <si>
+    <t>TAWA_SRS_FR_087</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> After login as an admin The admin shall be able to delete users.</t>
+  </si>
+  <si>
+    <t>TAWA_SRS_FR_088</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The admin clicks on the ‘delete’ button to specific user in the page listed all users.</t>
+  </si>
+  <si>
+    <t>TAWA_SRS_FR_089</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The user shall be exist in the page listed all users.</t>
+  </si>
+  <si>
+    <t>TAWA_SRS_FR_090</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> After clicking on ‘delete’ button shall display message says ‘Are you sure to delete this user?’. </t>
+  </si>
+  <si>
+    <t>TAWA_SRS_FR_091</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> After message displayed if user choose ‘yes’ the user shall be delete from the system.</t>
+  </si>
+  <si>
+    <t>TAWA_SRS_FR_092</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> After message displayed if user choose ‘No’ the user shall not be delete from the system.</t>
+  </si>
+  <si>
+    <t>TAWA_SRS_FR_140</t>
+  </si>
+  <si>
+    <t>TAWA_SRS_FR_141</t>
+  </si>
+  <si>
+    <t>TAWA_SRS_FR_142</t>
+  </si>
+  <si>
+    <t>TAWA_SRS_FR_143</t>
+  </si>
+  <si>
+    <t>TAWA_SRS_FR_144</t>
+  </si>
+  <si>
+    <t>The ‘Admin’ shall be able to view all users.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Each user in the listing page shall have ‘Delete’ button.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Each user in the listing page shall have ‘Edit’ button.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The ‘Delete’ button shall be clickable.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The ‘Edit’ button shall be clickable.</t>
+  </si>
+  <si>
+    <t>TAWA_Admin_002</t>
+  </si>
+  <si>
+    <t>TAWA_Admin_003</t>
+  </si>
+  <si>
+    <t>TAWA_Admin_004</t>
+  </si>
+  <si>
+    <t>TAWA_Admin_005</t>
+  </si>
+  <si>
+    <t>TAWA_Admin_006</t>
+  </si>
+  <si>
+    <t>TAWA_Admin_007</t>
+  </si>
+  <si>
+    <t>TAWA_Admin_008</t>
+  </si>
+  <si>
+    <t>TAWA_Admin_009</t>
+  </si>
+  <si>
+    <t>TAWA_Admin_010</t>
+  </si>
+  <si>
+    <t>TAWA_Admin_011</t>
+  </si>
+  <si>
+    <t>TAWA_Admin_012</t>
+  </si>
+  <si>
+    <t>TAWA_Admin_013</t>
+  </si>
+  <si>
+    <t>TAWA_Admin_014</t>
+  </si>
+  <si>
+    <t>TAWA_Admin_015</t>
+  </si>
+  <si>
+    <t>TAWA_Admin_016</t>
+  </si>
+  <si>
+    <t>TAWA_Admin_017</t>
+  </si>
+  <si>
+    <t>TAWA_Admin_018</t>
+  </si>
+  <si>
+    <t>TAWA_Admin_019</t>
   </si>
 </sst>
 </file>
@@ -934,7 +1102,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -950,6 +1118,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -981,7 +1155,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1015,6 +1189,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2749,77 +2925,342 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" customWidth="1"/>
-    <col min="2" max="2" width="22.5703125" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" customWidth="1"/>
-    <col min="4" max="4" width="24.140625" customWidth="1"/>
-    <col min="5" max="5" width="26.140625" customWidth="1"/>
-    <col min="6" max="6" width="24.28515625" customWidth="1"/>
-    <col min="7" max="7" width="31.85546875" customWidth="1"/>
-    <col min="8" max="8" width="24.7109375" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" customWidth="1"/>
-    <col min="10" max="10" width="15.5703125" customWidth="1"/>
-    <col min="11" max="11" width="18.28515625" customWidth="1"/>
-    <col min="12" max="12" width="29" customWidth="1"/>
-    <col min="13" max="13" width="20.85546875" customWidth="1"/>
+    <col min="1" max="1" width="18.5703125" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1"/>
+    <col min="5" max="5" width="21" customWidth="1"/>
+    <col min="6" max="6" width="26.140625" customWidth="1"/>
+    <col min="7" max="7" width="17" customWidth="1"/>
+    <col min="8" max="8" width="37.7109375" customWidth="1"/>
+    <col min="9" max="9" width="24.7109375" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" customWidth="1"/>
+    <col min="11" max="11" width="15.5703125" customWidth="1"/>
+    <col min="12" max="12" width="18.28515625" customWidth="1"/>
+    <col min="13" max="13" width="29" customWidth="1"/>
+    <col min="14" max="14" width="20.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="5" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:14" s="5" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B2" t="s">
         <v>205</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>208</v>
+      </c>
+      <c r="B3" t="s">
+        <v>244</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>210</v>
+      </c>
+      <c r="B4" t="s">
+        <v>245</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>212</v>
+      </c>
+      <c r="B5" t="s">
+        <v>246</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>214</v>
+      </c>
+      <c r="B6" t="s">
+        <v>247</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>216</v>
+      </c>
+      <c r="B7" t="s">
+        <v>248</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>218</v>
+      </c>
+      <c r="B8" t="s">
+        <v>249</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>220</v>
+      </c>
+      <c r="B9" t="s">
+        <v>250</v>
+      </c>
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>222</v>
+      </c>
+      <c r="B11" t="s">
+        <v>251</v>
+      </c>
+      <c r="D11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>224</v>
+      </c>
+      <c r="B12" t="s">
+        <v>252</v>
+      </c>
+      <c r="D12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>226</v>
+      </c>
+      <c r="B13" t="s">
+        <v>253</v>
+      </c>
+      <c r="D13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>228</v>
+      </c>
+      <c r="B14" t="s">
+        <v>254</v>
+      </c>
+      <c r="D14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>230</v>
+      </c>
+      <c r="B15" t="s">
+        <v>255</v>
+      </c>
+      <c r="D15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>232</v>
+      </c>
+      <c r="B16" t="s">
+        <v>256</v>
+      </c>
+      <c r="D16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>234</v>
+      </c>
+      <c r="B18" t="s">
+        <v>257</v>
+      </c>
+      <c r="D18" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>235</v>
+      </c>
+      <c r="B19" t="s">
+        <v>258</v>
+      </c>
+      <c r="D19" t="s">
+        <v>16</v>
+      </c>
+      <c r="H19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>236</v>
+      </c>
+      <c r="B20" t="s">
+        <v>259</v>
+      </c>
+      <c r="D20" t="s">
+        <v>16</v>
+      </c>
+      <c r="H20" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>237</v>
+      </c>
+      <c r="B21" t="s">
+        <v>260</v>
+      </c>
+      <c r="D21" t="s">
+        <v>16</v>
+      </c>
+      <c r="H21" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>238</v>
+      </c>
+      <c r="B22" t="s">
+        <v>261</v>
+      </c>
+      <c r="D22" t="s">
+        <v>16</v>
+      </c>
+      <c r="H22" t="s">
+        <v>243</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Testing/Test Cases/TAWA_TestCases.xlsx
+++ b/Testing/Test Cases/TAWA_TestCases.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="281">
   <si>
     <t>ID</t>
   </si>
@@ -903,21 +903,12 @@
     <t>TAWA_SRS_FR_055</t>
   </si>
   <si>
-    <t xml:space="preserve"> After login as an admin The admin shall be able to add users.</t>
-  </si>
-  <si>
     <t>TAWA_SRS_FR_056</t>
   </si>
   <si>
-    <t>The admin clicks on the ‘add user’ button in the home page to navigate to a ‘add user’ form.</t>
-  </si>
-  <si>
     <t>TAWA_SRS_FR_081</t>
   </si>
   <si>
-    <t>The ‘add user’ form shall be contain ‘add’ button.</t>
-  </si>
-  <si>
     <t>TAWA_SRS_FR_082</t>
   </si>
   <si>
@@ -927,15 +918,9 @@
     <t>TAWA_SRS_FR_083</t>
   </si>
   <si>
-    <t>The admin clicks on ‘add’ button to submit the form.</t>
-  </si>
-  <si>
     <t>TAWA_SRS_FR_084</t>
   </si>
   <si>
-    <t>The added user shall be didn’t exist in the database before add him.</t>
-  </si>
-  <si>
     <t>TAWA_SRS_FR_085</t>
   </si>
   <si>
@@ -957,15 +942,9 @@
     <t>TAWA_SRS_FR_088</t>
   </si>
   <si>
-    <t xml:space="preserve"> The admin clicks on the ‘delete’ button to specific user in the page listed all users.</t>
-  </si>
-  <si>
     <t>TAWA_SRS_FR_089</t>
   </si>
   <si>
-    <t xml:space="preserve"> The user shall be exist in the page listed all users.</t>
-  </si>
-  <si>
     <t>TAWA_SRS_FR_090</t>
   </si>
   <si>
@@ -1066,6 +1045,93 @@
   </si>
   <si>
     <t>TAWA_Admin_019</t>
+  </si>
+  <si>
+    <t>Asmaa Hamdy</t>
+  </si>
+  <si>
+    <t>1-Go to (Travel-Adviser-Web-Application/UI/Log-Reg-UI/login.php)
+2- Enter Admin Credentials (username: asmaaadmin password:1234)</t>
+  </si>
+  <si>
+    <t>The admin shall be able to add users.
+The user is added to the database</t>
+  </si>
+  <si>
+    <t>The admin is redirected  to a ‘add user’ form.</t>
+  </si>
+  <si>
+    <t>1-Press Add a new user
+2- Fill the data of the regiteration form
+3- Press submit</t>
+  </si>
+  <si>
+    <t>Press Add a new user</t>
+  </si>
+  <si>
+    <t>The ‘add user’ form shall contain ‘add’ button.</t>
+  </si>
+  <si>
+    <t>The added user shall not exist in the database before adding him.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The admin clicks on the ‘delete’ button to delete specific user in the page listed all users.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The user shall  exist in the page listed all users.</t>
+  </si>
+  <si>
+    <t>Failed</t>
+  </si>
+  <si>
+    <t>Passed</t>
+  </si>
+  <si>
+    <t>TAWA_Admin_Bug_004</t>
+  </si>
+  <si>
+    <t>TAWA_Admin_Bug_007</t>
+  </si>
+  <si>
+    <t>TAWA_Admin_Bug_012</t>
+  </si>
+  <si>
+    <t>TAWA_Admin_Bug_013</t>
+  </si>
+  <si>
+    <t>TAWA_Admin_Bug_014</t>
+  </si>
+  <si>
+    <t>TAWA_Admin_Bug_016</t>
+  </si>
+  <si>
+    <t>TAWA_Admin_Bug_017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The user is added to the database </t>
+  </si>
+  <si>
+    <t xml:space="preserve">View the Add button
+</t>
+  </si>
+  <si>
+    <t>1-Press Add a new user
+2- Leave the data of the regiteration form empty
+3- View the Add Button</t>
+  </si>
+  <si>
+    <t>The Button is clickable while the fields are empty</t>
+  </si>
+  <si>
+    <t>1-Press Add a new user
+2- Fill the data of the registeration form 
+3- Press Add</t>
+  </si>
+  <si>
+    <t>The form is submitted and user is added to DB</t>
+  </si>
+  <si>
+    <t>click on ‘add’ button to submit the form.</t>
   </si>
 </sst>
 </file>
@@ -1102,7 +1168,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1124,6 +1190,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1155,7 +1233,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1191,6 +1269,14 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2925,10 +3011,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N22"/>
+  <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2936,20 +3022,19 @@
     <col min="1" max="1" width="18.5703125" customWidth="1"/>
     <col min="2" max="2" width="18.28515625" customWidth="1"/>
     <col min="3" max="3" width="22.5703125" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" customWidth="1"/>
-    <col min="5" max="5" width="21" customWidth="1"/>
-    <col min="6" max="6" width="26.140625" customWidth="1"/>
-    <col min="7" max="7" width="17" customWidth="1"/>
-    <col min="8" max="8" width="37.7109375" customWidth="1"/>
-    <col min="9" max="9" width="24.7109375" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" customWidth="1"/>
-    <col min="11" max="11" width="15.5703125" customWidth="1"/>
-    <col min="12" max="12" width="18.28515625" customWidth="1"/>
-    <col min="13" max="13" width="29" customWidth="1"/>
-    <col min="14" max="14" width="20.85546875" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" customWidth="1"/>
+    <col min="5" max="5" width="30.5703125" customWidth="1"/>
+    <col min="6" max="6" width="34.42578125" customWidth="1"/>
+    <col min="7" max="7" width="41.42578125" customWidth="1"/>
+    <col min="8" max="8" width="39.28515625" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" customWidth="1"/>
+    <col min="10" max="10" width="21.42578125" customWidth="1"/>
+    <col min="11" max="11" width="18.28515625" customWidth="1"/>
+    <col min="12" max="12" width="29" customWidth="1"/>
+    <col min="13" max="13" width="20.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="5" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="5" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2966,296 +3051,473 @@
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="J1" s="6" t="s">
+        <v>203</v>
+      </c>
       <c r="K1" s="6" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>204</v>
+        <v>53</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="N1" s="6" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:13" s="15" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
         <v>206</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="15" t="s">
         <v>205</v>
       </c>
-      <c r="D2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="D2" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>256</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>257</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>274</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="L2" s="15" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" s="15" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B3" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>256</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>260</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>258</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>258</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="L3" s="15" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" s="15" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
         <v>208</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>256</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>275</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>261</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>261</v>
+      </c>
+      <c r="I4" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="L4" s="15" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" s="17" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>239</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>256</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>276</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="I5" s="17" t="s">
+        <v>265</v>
+      </c>
+      <c r="J5" s="17" t="s">
+        <v>267</v>
+      </c>
+      <c r="L5" s="17" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" s="15" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>256</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>279</v>
+      </c>
+      <c r="I6" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="L6" s="15" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>262</v>
+      </c>
+      <c r="I7" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="L7" s="15" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>242</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="I8" s="17" t="s">
+        <v>265</v>
+      </c>
+      <c r="J8" s="17" t="s">
+        <v>268</v>
+      </c>
+      <c r="L8" s="17" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>243</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="I9" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="L9" s="15" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="B11" s="15" t="s">
         <v>244</v>
       </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>210</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="D11" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="I11" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="L11" s="15" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="B12" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>212</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="D12" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="I12" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="L12" s="15" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="B13" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="D5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>214</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="D13" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="I13" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="L13" s="15" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="17" t="s">
+        <v>221</v>
+      </c>
+      <c r="B14" s="17" t="s">
         <v>247</v>
       </c>
-      <c r="D6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>216</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="D14" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" s="17" t="s">
+        <v>222</v>
+      </c>
+      <c r="I14" s="17" t="s">
+        <v>265</v>
+      </c>
+      <c r="J14" s="17" t="s">
+        <v>269</v>
+      </c>
+      <c r="L14" s="17" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="B15" s="17" t="s">
         <v>248</v>
       </c>
-      <c r="D7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>218</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="D15" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="I15" s="17" t="s">
+        <v>265</v>
+      </c>
+      <c r="J15" s="17" t="s">
+        <v>270</v>
+      </c>
+      <c r="L15" s="17" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="B16" s="17" t="s">
         <v>249</v>
       </c>
-      <c r="D8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>220</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="D16" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" s="17" t="s">
+        <v>226</v>
+      </c>
+      <c r="I16" s="17" t="s">
+        <v>265</v>
+      </c>
+      <c r="J16" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="L16" s="17" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="B18" s="15" t="s">
         <v>250</v>
       </c>
-      <c r="D9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>222</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="D18" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="I18" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="L18" s="15" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="17" t="s">
+        <v>228</v>
+      </c>
+      <c r="B19" s="17" t="s">
         <v>251</v>
       </c>
-      <c r="D11" t="s">
-        <v>16</v>
-      </c>
-      <c r="H11" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>224</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="D19" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G19" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="I19" s="17" t="s">
+        <v>265</v>
+      </c>
+      <c r="J19" s="17" t="s">
+        <v>272</v>
+      </c>
+      <c r="L19" s="17" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="B20" s="17" t="s">
         <v>252</v>
       </c>
-      <c r="D12" t="s">
-        <v>16</v>
-      </c>
-      <c r="H12" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>226</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="D20" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" s="17" t="s">
+        <v>234</v>
+      </c>
+      <c r="I20" s="17" t="s">
+        <v>265</v>
+      </c>
+      <c r="J20" s="17" t="s">
+        <v>273</v>
+      </c>
+      <c r="L20" s="17" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="B21" s="15" t="s">
         <v>253</v>
       </c>
-      <c r="D13" t="s">
-        <v>16</v>
-      </c>
-      <c r="H13" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>228</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="D21" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="G21" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="I21" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="L21" s="15" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="B22" s="15" t="s">
         <v>254</v>
       </c>
-      <c r="D14" t="s">
-        <v>16</v>
-      </c>
-      <c r="H14" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>230</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="D22" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="G22" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="I22" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="L22" s="15" t="s">
         <v>255</v>
-      </c>
-      <c r="D15" t="s">
-        <v>16</v>
-      </c>
-      <c r="H15" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>232</v>
-      </c>
-      <c r="B16" t="s">
-        <v>256</v>
-      </c>
-      <c r="D16" t="s">
-        <v>16</v>
-      </c>
-      <c r="H16" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>234</v>
-      </c>
-      <c r="B18" t="s">
-        <v>257</v>
-      </c>
-      <c r="D18" t="s">
-        <v>16</v>
-      </c>
-      <c r="H18" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>235</v>
-      </c>
-      <c r="B19" t="s">
-        <v>258</v>
-      </c>
-      <c r="D19" t="s">
-        <v>16</v>
-      </c>
-      <c r="H19" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>236</v>
-      </c>
-      <c r="B20" t="s">
-        <v>259</v>
-      </c>
-      <c r="D20" t="s">
-        <v>16</v>
-      </c>
-      <c r="H20" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>237</v>
-      </c>
-      <c r="B21" t="s">
-        <v>260</v>
-      </c>
-      <c r="D21" t="s">
-        <v>16</v>
-      </c>
-      <c r="H21" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>238</v>
-      </c>
-      <c r="B22" t="s">
-        <v>261</v>
-      </c>
-      <c r="D22" t="s">
-        <v>16</v>
-      </c>
-      <c r="H22" t="s">
-        <v>243</v>
       </c>
     </row>
   </sheetData>

--- a/Testing/Test Cases/TAWA_TestCases.xlsx
+++ b/Testing/Test Cases/TAWA_TestCases.xlsx
@@ -4,20 +4,22 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Regestiration" sheetId="1" r:id="rId1"/>
-    <sheet name="Login" sheetId="2" r:id="rId2"/>
-    <sheet name="AdminPage" sheetId="4" r:id="rId3"/>
-    <sheet name="Logout" sheetId="3" r:id="rId4"/>
+    <sheet name="ReservedTrips" sheetId="6" r:id="rId1"/>
+    <sheet name="Regestiration" sheetId="1" r:id="rId2"/>
+    <sheet name="Login" sheetId="2" r:id="rId3"/>
+    <sheet name="AdminPage" sheetId="4" r:id="rId4"/>
+    <sheet name="Booking" sheetId="5" r:id="rId5"/>
+    <sheet name="Logout" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="281">
   <si>
     <t>ID</t>
   </si>
@@ -1581,31 +1583,105 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="5"/>
+  </sheetPr>
+  <dimension ref="A1:M1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M55"/>
   <sheetViews>
-    <sheetView topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="A67" sqref="A67"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection sqref="A1:M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.85546875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="51.140625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="24.88671875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="51.109375" style="5" customWidth="1"/>
     <col min="3" max="3" width="26" style="7" customWidth="1"/>
     <col min="4" max="4" width="26" style="5" customWidth="1"/>
-    <col min="5" max="5" width="56.7109375" style="5" customWidth="1"/>
-    <col min="6" max="6" width="31.28515625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="50.5703125" style="5" customWidth="1"/>
-    <col min="8" max="8" width="25.42578125" style="7" customWidth="1"/>
-    <col min="9" max="9" width="26.42578125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="56.6640625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="31.33203125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="50.5546875" style="5" customWidth="1"/>
+    <col min="8" max="8" width="25.44140625" style="7" customWidth="1"/>
+    <col min="9" max="9" width="26.44140625" style="7" customWidth="1"/>
     <col min="10" max="10" width="24" style="5" customWidth="1"/>
-    <col min="11" max="11" width="31.85546875" style="5" customWidth="1"/>
+    <col min="11" max="11" width="31.88671875" style="5" customWidth="1"/>
     <col min="12" max="12" width="23" style="5" customWidth="1"/>
     <col min="13" max="13" width="19" style="5" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="5"/>
+    <col min="14" max="16384" width="9.109375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1646,7 +1722,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>63</v>
       </c>
@@ -1666,7 +1742,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="72" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>64</v>
       </c>
@@ -1686,7 +1762,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>65</v>
       </c>
@@ -1706,7 +1782,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>66</v>
       </c>
@@ -1726,7 +1802,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>67</v>
       </c>
@@ -1746,7 +1822,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>68</v>
       </c>
@@ -1766,7 +1842,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>69</v>
       </c>
@@ -1786,7 +1862,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>70</v>
       </c>
@@ -1806,7 +1882,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>71</v>
       </c>
@@ -1826,7 +1902,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="90.75" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" ht="87" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>72</v>
       </c>
@@ -1847,7 +1923,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>73</v>
       </c>
@@ -1867,7 +1943,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>98</v>
       </c>
@@ -1887,7 +1963,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>99</v>
       </c>
@@ -1907,7 +1983,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>100</v>
       </c>
@@ -1927,7 +2003,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>101</v>
       </c>
@@ -1947,7 +2023,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>102</v>
       </c>
@@ -1967,7 +2043,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>103</v>
       </c>
@@ -1987,7 +2063,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>120</v>
       </c>
@@ -2007,7 +2083,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>121</v>
       </c>
@@ -2027,7 +2103,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>134</v>
       </c>
@@ -2047,7 +2123,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>135</v>
       </c>
@@ -2067,7 +2143,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>136</v>
       </c>
@@ -2087,7 +2163,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>137</v>
       </c>
@@ -2107,7 +2183,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>138</v>
       </c>
@@ -2127,7 +2203,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>139</v>
       </c>
@@ -2147,7 +2223,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>147</v>
       </c>
@@ -2167,12 +2243,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="12"/>
       <c r="H28" s="12"/>
       <c r="I28" s="12"/>
     </row>
-    <row r="29" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>148</v>
       </c>
@@ -2192,7 +2268,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>149</v>
       </c>
@@ -2212,7 +2288,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
         <v>150</v>
       </c>
@@ -2232,7 +2308,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
         <v>151</v>
       </c>
@@ -2252,7 +2328,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
         <v>152</v>
       </c>
@@ -2272,7 +2348,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
         <v>153</v>
       </c>
@@ -2292,7 +2368,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
         <v>154</v>
       </c>
@@ -2312,7 +2388,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
         <v>155</v>
       </c>
@@ -2332,7 +2408,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="90.75" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" ht="87" x14ac:dyDescent="0.35">
       <c r="A37" s="5" t="s">
         <v>156</v>
       </c>
@@ -2353,7 +2429,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
         <v>157</v>
       </c>
@@ -2373,7 +2449,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
         <v>158</v>
       </c>
@@ -2393,7 +2469,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
         <v>159</v>
       </c>
@@ -2413,7 +2489,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
         <v>160</v>
       </c>
@@ -2433,7 +2509,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
         <v>161</v>
       </c>
@@ -2453,7 +2529,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
         <v>162</v>
       </c>
@@ -2473,7 +2549,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
         <v>163</v>
       </c>
@@ -2493,7 +2569,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
         <v>164</v>
       </c>
@@ -2513,7 +2589,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
         <v>165</v>
       </c>
@@ -2533,7 +2609,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
         <v>166</v>
       </c>
@@ -2553,7 +2629,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
         <v>167</v>
       </c>
@@ -2573,7 +2649,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
         <v>168</v>
       </c>
@@ -2593,7 +2669,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
         <v>169</v>
       </c>
@@ -2613,7 +2689,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
         <v>170</v>
       </c>
@@ -2633,7 +2709,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
         <v>171</v>
       </c>
@@ -2653,7 +2729,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
         <v>172</v>
       </c>
@@ -2673,12 +2749,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="54" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="12"/>
       <c r="H54" s="12"/>
       <c r="I54" s="12"/>
     </row>
-    <row r="55" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
         <v>199</v>
       </c>
@@ -2704,33 +2780,33 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="57.140625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" style="7" customWidth="1"/>
-    <col min="4" max="4" width="23.42578125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="62.28515625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="25.7109375" style="5" customWidth="1"/>
-    <col min="7" max="7" width="46.5703125" style="5" customWidth="1"/>
-    <col min="8" max="8" width="21.85546875" style="7" customWidth="1"/>
-    <col min="9" max="9" width="20.140625" style="7" customWidth="1"/>
-    <col min="10" max="10" width="25.28515625" style="5" customWidth="1"/>
-    <col min="11" max="11" width="18.7109375" style="5" customWidth="1"/>
+    <col min="1" max="1" width="25.6640625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="57.109375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="23.44140625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="23.44140625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="62.33203125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="25.6640625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="46.5546875" style="5" customWidth="1"/>
+    <col min="8" max="8" width="21.88671875" style="7" customWidth="1"/>
+    <col min="9" max="9" width="20.109375" style="7" customWidth="1"/>
+    <col min="10" max="10" width="25.33203125" style="5" customWidth="1"/>
+    <col min="11" max="11" width="18.6640625" style="5" customWidth="1"/>
     <col min="12" max="12" width="28" style="5" customWidth="1"/>
-    <col min="13" max="13" width="31.140625" style="5" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="5"/>
+    <col min="13" max="13" width="31.109375" style="5" customWidth="1"/>
+    <col min="14" max="16384" width="9.109375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2771,7 +2847,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>24</v>
       </c>
@@ -2794,7 +2870,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="72" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>29</v>
       </c>
@@ -2820,7 +2896,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="72" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>34</v>
       </c>
@@ -2846,7 +2922,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>35</v>
       </c>
@@ -2869,7 +2945,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="72" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>36</v>
       </c>
@@ -2892,7 +2968,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="72" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>37</v>
       </c>
@@ -2912,7 +2988,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="72" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>38</v>
       </c>
@@ -2935,7 +3011,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="72" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>39</v>
       </c>
@@ -2958,7 +3034,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="72" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>40</v>
       </c>
@@ -2981,7 +3057,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="72" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>41</v>
       </c>
@@ -3009,32 +3085,30 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" customWidth="1"/>
-    <col min="3" max="3" width="22.5703125" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" customWidth="1"/>
-    <col min="5" max="5" width="30.5703125" customWidth="1"/>
-    <col min="6" max="6" width="34.42578125" customWidth="1"/>
-    <col min="7" max="7" width="41.42578125" customWidth="1"/>
-    <col min="8" max="8" width="39.28515625" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" customWidth="1"/>
-    <col min="10" max="10" width="21.42578125" customWidth="1"/>
-    <col min="11" max="11" width="18.28515625" customWidth="1"/>
+    <col min="1" max="1" width="18.5546875" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" customWidth="1"/>
+    <col min="3" max="3" width="22.5546875" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" customWidth="1"/>
+    <col min="5" max="5" width="30.5546875" customWidth="1"/>
+    <col min="6" max="6" width="34.44140625" customWidth="1"/>
+    <col min="7" max="7" width="41.44140625" customWidth="1"/>
+    <col min="8" max="8" width="39.33203125" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" customWidth="1"/>
+    <col min="10" max="10" width="21.44140625" customWidth="1"/>
+    <col min="11" max="11" width="18.33203125" customWidth="1"/>
     <col min="12" max="12" width="29" customWidth="1"/>
-    <col min="13" max="13" width="20.85546875" customWidth="1"/>
+    <col min="13" max="13" width="20.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="5" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="5" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3072,7 +3146,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="15" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" s="15" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>206</v>
       </c>
@@ -3101,7 +3175,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="15" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" s="15" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
         <v>207</v>
       </c>
@@ -3130,7 +3204,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="15" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" s="15" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
         <v>208</v>
       </c>
@@ -3159,7 +3233,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="17" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" s="17" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A5" s="17" t="s">
         <v>209</v>
       </c>
@@ -3191,7 +3265,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="15" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" s="15" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A6" s="15" t="s">
         <v>211</v>
       </c>
@@ -3220,7 +3294,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="s">
         <v>212</v>
       </c>
@@ -3240,7 +3314,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="17" t="s">
         <v>213</v>
       </c>
@@ -3263,7 +3337,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
         <v>215</v>
       </c>
@@ -3283,8 +3357,8 @@
         <v>255</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
         <v>217</v>
       </c>
@@ -3304,7 +3378,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
         <v>219</v>
       </c>
@@ -3324,7 +3398,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
         <v>220</v>
       </c>
@@ -3344,7 +3418,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="17" t="s">
         <v>221</v>
       </c>
@@ -3367,7 +3441,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="17" t="s">
         <v>223</v>
       </c>
@@ -3390,7 +3464,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="16" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="17" t="s">
         <v>225</v>
       </c>
@@ -3413,8 +3487,8 @@
         <v>255</v>
       </c>
     </row>
-    <row r="17" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="15" t="s">
         <v>227</v>
       </c>
@@ -3434,7 +3508,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="19" spans="1:12" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="17" t="s">
         <v>228</v>
       </c>
@@ -3457,7 +3531,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="20" spans="1:12" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="17" t="s">
         <v>229</v>
       </c>
@@ -3480,7 +3554,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="21" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="15" t="s">
         <v>230</v>
       </c>
@@ -3500,7 +3574,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="22" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="15" t="s">
         <v>231</v>
       </c>
@@ -3526,7 +3600,81 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="5"/>
+  </sheetPr>
+  <dimension ref="A1:M1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M17"/>
   <sheetViews>
@@ -3534,22 +3682,22 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.28515625" customWidth="1"/>
-    <col min="2" max="2" width="48.140625" customWidth="1"/>
+    <col min="1" max="1" width="29.33203125" customWidth="1"/>
+    <col min="2" max="2" width="48.109375" customWidth="1"/>
     <col min="3" max="4" width="22" customWidth="1"/>
-    <col min="5" max="6" width="51.140625" customWidth="1"/>
-    <col min="7" max="7" width="33.140625" customWidth="1"/>
-    <col min="8" max="8" width="23.140625" customWidth="1"/>
-    <col min="9" max="9" width="19.42578125" customWidth="1"/>
-    <col min="10" max="10" width="33.42578125" customWidth="1"/>
-    <col min="11" max="11" width="39.42578125" customWidth="1"/>
+    <col min="5" max="6" width="51.109375" customWidth="1"/>
+    <col min="7" max="7" width="33.109375" customWidth="1"/>
+    <col min="8" max="8" width="23.109375" customWidth="1"/>
+    <col min="9" max="9" width="19.44140625" customWidth="1"/>
+    <col min="10" max="10" width="33.44140625" customWidth="1"/>
+    <col min="11" max="11" width="39.44140625" customWidth="1"/>
     <col min="12" max="12" width="28" style="5" customWidth="1"/>
-    <col min="13" max="13" width="31.140625" style="5" customWidth="1"/>
+    <col min="13" max="13" width="31.109375" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3590,7 +3738,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -3617,7 +3765,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -3644,13 +3792,13 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="F15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="21" x14ac:dyDescent="0.3">
       <c r="F16" s="10"/>
     </row>
-    <row r="17" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F17" s="9"/>
     </row>
   </sheetData>

--- a/Testing/Test Cases/TAWA_TestCases.xlsx
+++ b/Testing/Test Cases/TAWA_TestCases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="ReservedTrips" sheetId="6" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="282">
   <si>
     <t>ID</t>
   </si>
@@ -1134,6 +1134,9 @@
   </si>
   <si>
     <t>click on ‘add’ button to submit the form.</t>
+  </si>
+  <si>
+    <t>Test Data</t>
   </si>
 </sst>
 </file>
@@ -1586,10 +1589,10 @@
   <sheetPr>
     <tabColor theme="5"/>
   </sheetPr>
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:N1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1598,18 +1601,19 @@
     <col min="2" max="2" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.21875" customWidth="1"/>
+    <col min="6" max="6" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1623,30 +1627,33 @@
         <v>10</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2784,7 +2791,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -3605,10 +3612,10 @@
   <sheetPr>
     <tabColor theme="5"/>
   </sheetPr>
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:N1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3617,18 +3624,19 @@
     <col min="2" max="2" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.21875" customWidth="1"/>
+    <col min="6" max="6" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3642,30 +3650,33 @@
         <v>10</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>59</v>
       </c>
     </row>

--- a/Testing/Test Cases/TAWA_TestCases.xlsx
+++ b/Testing/Test Cases/TAWA_TestCases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="ReservedTrips" sheetId="6" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="349">
   <si>
     <t>ID</t>
   </si>
@@ -1138,12 +1138,302 @@
   <si>
     <t>Test Data</t>
   </si>
+  <si>
+    <t>Attachments</t>
+  </si>
+  <si>
+    <t>TAWA_BOOKING_01</t>
+  </si>
+  <si>
+    <t>Validate the existence of fields</t>
+  </si>
+  <si>
+    <t>User must login with a valid account</t>
+  </si>
+  <si>
+    <t>Valid username: TAWA
+Valid Password: P@$$w0rd
+Valid db card number:
+01234567891012
+valid destination:Turkey
+valid flight number: 2409</t>
+  </si>
+  <si>
+    <t>1) Open Homepage
+2) Click on "Read More" button located beside any destination
+3) Click on "Book Now" button
+4) Check the existence of fields</t>
+  </si>
+  <si>
+    <t>Page shall contain fields:
+(See attachements)</t>
+  </si>
+  <si>
+    <t>Open</t>
+  </si>
+  <si>
+    <t>Mahmoud Yasser</t>
+  </si>
+  <si>
+    <t>img: https://ibb.co/ZSWGyKV</t>
+  </si>
+  <si>
+    <t>TAWA_BOOKING_02</t>
+  </si>
+  <si>
+    <t>Validate the options in "Level of services" list</t>
+  </si>
+  <si>
+    <t>1) Open Homepage
+2) Click on "Read More" button located beside any destination
+3) Click on "Book Now" button
+4) Click on "Level of services" dropdown list
+5) Check the list options</t>
+  </si>
+  <si>
+    <t>Dropdown list shall contain 
+‘Egypt Air’, ‘Fly Emirates’ , ‘Qatari Airways’
+ , ‘Turkish Airlines’, ‘Lufthansa’ 
+and ‘Air France’.</t>
+  </si>
+  <si>
+    <t>TAWA_BOOKING_03</t>
+  </si>
+  <si>
+    <t>Validate the options in "Payment Method" list</t>
+  </si>
+  <si>
+    <t>1) Open Homepage
+2) Click on "Read More" button located beside any destination
+3) Click on "Book Now" button
+4) Click on "Payment method" dropdown list
+5) Check the list options</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The ‘payment method’ dropdown list shall contain two methods ‘cash’ and ‘debit card’.</t>
+  </si>
+  <si>
+    <t>TAWA_BOOKING_04</t>
+  </si>
+  <si>
+    <t>Validate the appearance of "card number" text field</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Open Homepage
+2) Click on "Read More" button located beside any destination
+3) Click on "Book Now" button
+4) Click on "Payment method" dropdown list and choose debit card
+</t>
+  </si>
+  <si>
+    <t>the ‘card number’ text field shall 
+appear</t>
+  </si>
+  <si>
+    <t>TAWA_BOOKING_05</t>
+  </si>
+  <si>
+    <t>Validate the restriction on choosing Trip type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Open Homepage
+2) Click on "Read More" button located beside any destination
+3) Click on "Book Now" button
+4) Choose One trip type
+5) Try to choose the other type
+</t>
+  </si>
+  <si>
+    <t>User shall be able to choose one
+trip type.</t>
+  </si>
+  <si>
+    <t>TAWA_BOOKING_06</t>
+  </si>
+  <si>
+    <t>Validate the restriction on choosing Payment method</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Open Homepage
+2) Click on "Read More" button located beside any destination
+3) Click on "Book Now" button
+4) Choose One payment method
+5) Try to choose the other type
+</t>
+  </si>
+  <si>
+    <t>User shall be able to choose one
+payment method.</t>
+  </si>
+  <si>
+    <t>TAWA_BOOKING_07</t>
+  </si>
+  <si>
+    <t>Validate the user's ability to click button "book" 
+without filling any field</t>
+  </si>
+  <si>
+    <t>1) Open Homepage
+2) Click on "Read More" button located beside any destination
+3) Click on "Book Now" button
+4) Try click on "book" button</t>
+  </si>
+  <si>
+    <t>The "book" button shall not 
+be clickable</t>
+  </si>
+  <si>
+    <t>TAWA_BOOKING_08</t>
+  </si>
+  <si>
+    <t>Validate the user's ability to click button "book" 
+without completing all data fields</t>
+  </si>
+  <si>
+    <t>1) Open Homepage
+2) Click on "Read More" button located beside any destination
+3) Click on "Book Now" button
+4) Fill one field with any data
+5)Try click on "book" button</t>
+  </si>
+  <si>
+    <t>The ‘Book’ button shall be 
+clickable only after filling all data.</t>
+  </si>
+  <si>
+    <t>TAWA_BOOKING_09</t>
+  </si>
+  <si>
+    <t>Validate restriction on entering data in "NUMBER
+OF SEATS" field</t>
+  </si>
+  <si>
+    <t>1) Open Homepage
+2) Click on "Read More" button located beside any destination
+3) Click on "Book Now" button
+4) Enter letters in "Number of seats" field
+5) complete all other fields
+6) Click on "book" button</t>
+  </si>
+  <si>
+    <t>Error message shall appear saying that it's forbidden to enter any type of data but numbers in "number of seats" field</t>
+  </si>
+  <si>
+    <t>TAWA_BOOKING_10</t>
+  </si>
+  <si>
+    <t>Validate restriction on entering data in "FLIGHT NUMBER" field</t>
+  </si>
+  <si>
+    <t>1) Open Homepage
+2) Click on "Read More" button located beside any destination
+3) Click on "Book Now" button
+4) Enter letters in "flight number" field
+5) complete all other fields
+6) Click on "book" button</t>
+  </si>
+  <si>
+    <t>Error message shall appear saying that it's forbidden to enter any type of data but numbers in "flight number" field</t>
+  </si>
+  <si>
+    <t>TAWA_BOOKING_11</t>
+  </si>
+  <si>
+    <t>Validate restriction on entering data in "Debit card number" field</t>
+  </si>
+  <si>
+    <t>1) Open Homepage
+2) Click on "Read More" button located beside any destination
+3) Click on "Book Now" button
+4) Enter letters in "debit card number" field
+5) complete all other fields
+6) Click on "book" button</t>
+  </si>
+  <si>
+    <t>Error message shall appear saying that it's forbidden to enter any type of data but numbers in "debit card number" field</t>
+  </si>
+  <si>
+    <t>TAWA_BOOKING_12</t>
+  </si>
+  <si>
+    <t>Validate response from the website after booking</t>
+  </si>
+  <si>
+    <t>1) Open Homepage
+2) Click on "Read More" button located beside any destination
+3) Click on "Book Now" button
+4) Enter valid data and complete all fields
+5) Click on "book" button
+6) Check response from website</t>
+  </si>
+  <si>
+    <t>Message shall appear to user:
+See attachments</t>
+  </si>
+  <si>
+    <t>https://ibb.co/BVgnTfK</t>
+  </si>
+  <si>
+    <t>TAWA_BOOKING_13</t>
+  </si>
+  <si>
+    <t>Validate that user can book one flight</t>
+  </si>
+  <si>
+    <t>1) Open Homepage
+2) Click on "Read More" button located beside any destination
+3) Click on "Book Now" button
+4) Enter valid data and complete all fields
+5) Click on "book" button
+6) Check table Book in TAWA_DB</t>
+  </si>
+  <si>
+    <t>New row shall be added with 
+the data entered</t>
+  </si>
+  <si>
+    <t>TAWA_BOOKING_14</t>
+  </si>
+  <si>
+    <t>Validate that user can not book more than one flight</t>
+  </si>
+  <si>
+    <t>1) Open Homepage
+2) Click on "Read More" button located beside any destination
+3) Click on "Book Now" button
+4) Enter valid data and complete all fields
+5) Click on "book" button
+6) Repeat steps from 1 to 5</t>
+  </si>
+  <si>
+    <t>Error message shall appear saying
+that user has already booked one
+flight</t>
+  </si>
+  <si>
+    <t>TAWA_BOOKING_15</t>
+  </si>
+  <si>
+    <t>Validate that user can not book a flight for more than
+4 seats</t>
+  </si>
+  <si>
+    <t>1) Open Homepage
+2) Click on "Read More" button located beside any destination
+3) Click on "Book Now" button
+4) enter "5" IN "number of seats" field
+5) complete all fields and click book</t>
+  </si>
+  <si>
+    <t>Error message shall appear saying
+that user can not book more than 4 seats</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1169,6 +1459,12 @@
     <font>
       <sz val="14"/>
       <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -1211,7 +1507,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1234,11 +1530,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1281,6 +1592,24 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1591,7 +1920,7 @@
   </sheetPr>
   <dimension ref="A1:N1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
@@ -3612,73 +3941,593 @@
   <sheetPr>
     <tabColor theme="5"/>
   </sheetPr>
-  <dimension ref="A1:N1"/>
+  <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.21875" customWidth="1"/>
-    <col min="6" max="6" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.109375" style="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45" style="24" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.77734375" style="24" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.21875" style="24" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.6640625" style="24" customWidth="1"/>
+    <col min="6" max="6" width="29.33203125" style="24" customWidth="1"/>
+    <col min="7" max="7" width="15.109375" style="24" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27" style="24" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13" style="24" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.44140625" style="24" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="24" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.88671875" style="24" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.5546875" style="24" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.5546875" style="24" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.88671875" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:15" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="19" t="s">
         <v>281</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="20" t="s">
         <v>59</v>
       </c>
+      <c r="O1" s="20" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="137.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="21" t="s">
+        <v>283</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>284</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>285</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>286</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>287</v>
+      </c>
+      <c r="G2" s="21"/>
+      <c r="H2" s="22" t="s">
+        <v>288</v>
+      </c>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21" t="s">
+        <v>289</v>
+      </c>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21" t="s">
+        <v>290</v>
+      </c>
+      <c r="N2" s="21"/>
+      <c r="O2" s="24" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="21" t="s">
+        <v>292</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>293</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>285</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>286</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>294</v>
+      </c>
+      <c r="G3" s="21"/>
+      <c r="H3" s="22" t="s">
+        <v>295</v>
+      </c>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21" t="s">
+        <v>289</v>
+      </c>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21" t="s">
+        <v>290</v>
+      </c>
+      <c r="N3" s="21"/>
+    </row>
+    <row r="4" spans="1:15" ht="122.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="21" t="s">
+        <v>296</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>297</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>285</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>286</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>298</v>
+      </c>
+      <c r="G4" s="21"/>
+      <c r="H4" s="23" t="s">
+        <v>299</v>
+      </c>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21" t="s">
+        <v>289</v>
+      </c>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21" t="s">
+        <v>290</v>
+      </c>
+      <c r="N4" s="21"/>
+    </row>
+    <row r="5" spans="1:15" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="21" t="s">
+        <v>300</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>301</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>285</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>286</v>
+      </c>
+      <c r="F5" s="22" t="s">
+        <v>302</v>
+      </c>
+      <c r="G5" s="21"/>
+      <c r="H5" s="22" t="s">
+        <v>303</v>
+      </c>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21" t="s">
+        <v>289</v>
+      </c>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21" t="s">
+        <v>290</v>
+      </c>
+      <c r="N5" s="21"/>
+    </row>
+    <row r="6" spans="1:15" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="21" t="s">
+        <v>304</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>305</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>285</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>286</v>
+      </c>
+      <c r="F6" s="22" t="s">
+        <v>306</v>
+      </c>
+      <c r="G6" s="21"/>
+      <c r="H6" s="22" t="s">
+        <v>307</v>
+      </c>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21" t="s">
+        <v>289</v>
+      </c>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21" t="s">
+        <v>290</v>
+      </c>
+      <c r="N6" s="21"/>
+    </row>
+    <row r="7" spans="1:15" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>309</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>285</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>286</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>310</v>
+      </c>
+      <c r="G7" s="21"/>
+      <c r="H7" s="22" t="s">
+        <v>311</v>
+      </c>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21" t="s">
+        <v>289</v>
+      </c>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21" t="s">
+        <v>290</v>
+      </c>
+      <c r="N7" s="21"/>
+    </row>
+    <row r="8" spans="1:15" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A8" s="21" t="s">
+        <v>312</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>313</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>285</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>286</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>314</v>
+      </c>
+      <c r="G8" s="21"/>
+      <c r="H8" s="22" t="s">
+        <v>315</v>
+      </c>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21" t="s">
+        <v>289</v>
+      </c>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21" t="s">
+        <v>290</v>
+      </c>
+      <c r="N8" s="21"/>
+    </row>
+    <row r="9" spans="1:15" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A9" s="21" t="s">
+        <v>316</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>317</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>285</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>286</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>318</v>
+      </c>
+      <c r="G9" s="21"/>
+      <c r="H9" s="22" t="s">
+        <v>319</v>
+      </c>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21" t="s">
+        <v>289</v>
+      </c>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21" t="s">
+        <v>290</v>
+      </c>
+      <c r="N9" s="21"/>
+    </row>
+    <row r="10" spans="1:15" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>321</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>285</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>286</v>
+      </c>
+      <c r="F10" s="22" t="s">
+        <v>322</v>
+      </c>
+      <c r="G10" s="21"/>
+      <c r="H10" s="22" t="s">
+        <v>323</v>
+      </c>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21" t="s">
+        <v>289</v>
+      </c>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21" t="s">
+        <v>290</v>
+      </c>
+      <c r="N10" s="21"/>
+    </row>
+    <row r="11" spans="1:15" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="21" t="s">
+        <v>324</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>325</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>285</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>286</v>
+      </c>
+      <c r="F11" s="22" t="s">
+        <v>326</v>
+      </c>
+      <c r="G11" s="21"/>
+      <c r="H11" s="22" t="s">
+        <v>327</v>
+      </c>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21" t="s">
+        <v>289</v>
+      </c>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="21" t="s">
+        <v>290</v>
+      </c>
+      <c r="N11" s="21"/>
+    </row>
+    <row r="12" spans="1:15" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="21" t="s">
+        <v>328</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>329</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>285</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>286</v>
+      </c>
+      <c r="F12" s="22" t="s">
+        <v>330</v>
+      </c>
+      <c r="G12" s="21"/>
+      <c r="H12" s="22" t="s">
+        <v>331</v>
+      </c>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21" t="s">
+        <v>289</v>
+      </c>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="21" t="s">
+        <v>290</v>
+      </c>
+      <c r="N12" s="21"/>
+    </row>
+    <row r="13" spans="1:15" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="21" t="s">
+        <v>332</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>333</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>285</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>286</v>
+      </c>
+      <c r="F13" s="22" t="s">
+        <v>334</v>
+      </c>
+      <c r="G13" s="21"/>
+      <c r="H13" s="22" t="s">
+        <v>335</v>
+      </c>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21" t="s">
+        <v>289</v>
+      </c>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21" t="s">
+        <v>290</v>
+      </c>
+      <c r="N13" s="21"/>
+      <c r="O13" s="24" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="141" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="21" t="s">
+        <v>337</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>338</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>285</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>286</v>
+      </c>
+      <c r="F14" s="22" t="s">
+        <v>339</v>
+      </c>
+      <c r="G14" s="21"/>
+      <c r="H14" s="22" t="s">
+        <v>340</v>
+      </c>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21" t="s">
+        <v>289</v>
+      </c>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21" t="s">
+        <v>290</v>
+      </c>
+      <c r="N14" s="21"/>
+    </row>
+    <row r="15" spans="1:15" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="21" t="s">
+        <v>341</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>342</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>285</v>
+      </c>
+      <c r="E15" s="22" t="s">
+        <v>286</v>
+      </c>
+      <c r="F15" s="22" t="s">
+        <v>343</v>
+      </c>
+      <c r="G15" s="21"/>
+      <c r="H15" s="22" t="s">
+        <v>344</v>
+      </c>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21" t="s">
+        <v>289</v>
+      </c>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="21" t="s">
+        <v>290</v>
+      </c>
+      <c r="N15" s="21"/>
+    </row>
+    <row r="16" spans="1:15" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="21" t="s">
+        <v>345</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>346</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>285</v>
+      </c>
+      <c r="E16" s="22" t="s">
+        <v>286</v>
+      </c>
+      <c r="F16" s="22" t="s">
+        <v>347</v>
+      </c>
+      <c r="G16" s="21"/>
+      <c r="H16" s="22" t="s">
+        <v>348</v>
+      </c>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21" t="s">
+        <v>289</v>
+      </c>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="21" t="s">
+        <v>290</v>
+      </c>
+      <c r="N16" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Testing/Test Cases/TAWA_TestCases.xlsx
+++ b/Testing/Test Cases/TAWA_TestCases.xlsx
@@ -1433,7 +1433,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1459,12 +1459,6 @@
     <font>
       <sz val="14"/>
       <color rgb="FFFF0000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -1507,7 +1501,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1530,26 +1524,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1604,9 +1583,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3943,27 +3919,28 @@
   </sheetPr>
   <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" topLeftCell="E14" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.109375" style="24" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45" style="24" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.77734375" style="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.21875" style="24" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.6640625" style="24" customWidth="1"/>
-    <col min="6" max="6" width="29.33203125" style="24" customWidth="1"/>
-    <col min="7" max="7" width="15.109375" style="24" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27" style="24" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13" style="24" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.44140625" style="24" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" style="24" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.88671875" style="24" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.5546875" style="24" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.5546875" style="24" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.88671875" style="24"/>
+    <col min="1" max="1" width="18.109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45" style="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.77734375" style="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.21875" style="23" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.6640625" style="23" customWidth="1"/>
+    <col min="6" max="6" width="29.33203125" style="23" customWidth="1"/>
+    <col min="7" max="7" width="15.109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27" style="23" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13" style="23" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.44140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.88671875" style="23" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.5546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.5546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="25" style="23" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.88671875" style="23"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -4046,11 +4023,11 @@
         <v>290</v>
       </c>
       <c r="N2" s="21"/>
-      <c r="O2" s="24" t="s">
+      <c r="O2" s="23" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A3" s="21" t="s">
         <v>292</v>
       </c>
@@ -4084,7 +4061,7 @@
       </c>
       <c r="N3" s="21"/>
     </row>
-    <row r="4" spans="1:15" ht="122.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" ht="122.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="21" t="s">
         <v>296</v>
       </c>
@@ -4104,7 +4081,7 @@
         <v>298</v>
       </c>
       <c r="G4" s="21"/>
-      <c r="H4" s="23" t="s">
+      <c r="H4" s="22" t="s">
         <v>299</v>
       </c>
       <c r="I4" s="21"/>
@@ -4423,7 +4400,7 @@
         <v>290</v>
       </c>
       <c r="N13" s="21"/>
-      <c r="O13" s="24" t="s">
+      <c r="O13" s="23" t="s">
         <v>336</v>
       </c>
     </row>

--- a/Testing/Test Cases/TAWA_TestCases.xlsx
+++ b/Testing/Test Cases/TAWA_TestCases.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="353">
   <si>
     <t>ID</t>
   </si>
@@ -1427,6 +1427,27 @@
   <si>
     <t>Error message shall appear saying
 that user can not book more than 4 seats</t>
+  </si>
+  <si>
+    <t>Validate that trip appear in the "Reserved trips" page once
+user books it</t>
+  </si>
+  <si>
+    <t>TAWA_BOOKING_16</t>
+  </si>
+  <si>
+    <t>1) Open Homepage
+2) Click on "Read More" button located beside any destination
+3) Click on "Book Now" button
+4) Enter valid data and complete all fields
+5) Click on "book" button
+6) Open Homepage
+7) from navigation bar click on 'Reserved trips" button</t>
+  </si>
+  <si>
+    <t>a trip with the exact same data
+that user entered shall appear 
+in the page</t>
   </si>
 </sst>
 </file>
@@ -1528,7 +1549,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1586,6 +1607,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3917,16 +3941,16 @@
   <sheetPr>
     <tabColor theme="5"/>
   </sheetPr>
-  <dimension ref="A1:O16"/>
+  <dimension ref="A1:O17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E14" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="E16" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.109375" style="23" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45" style="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.77734375" style="23" customWidth="1"/>
     <col min="3" max="3" width="10.77734375" style="23" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.21875" style="23" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.6640625" style="23" customWidth="1"/>
@@ -4505,6 +4529,38 @@
         <v>290</v>
       </c>
       <c r="N16" s="21"/>
+    </row>
+    <row r="17" spans="1:13" ht="144" x14ac:dyDescent="0.3">
+      <c r="A17" s="21" t="s">
+        <v>350</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>349</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>285</v>
+      </c>
+      <c r="E17" s="22" t="s">
+        <v>286</v>
+      </c>
+      <c r="F17" s="22" t="s">
+        <v>351</v>
+      </c>
+      <c r="H17" s="24" t="s">
+        <v>352</v>
+      </c>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21" t="s">
+        <v>289</v>
+      </c>
+      <c r="K17" s="21"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="21" t="s">
+        <v>290</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Testing/Test Cases/TAWA_TestCases.xlsx
+++ b/Testing/Test Cases/TAWA_TestCases.xlsx
@@ -4,22 +4,23 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="ReservedTrips" sheetId="6" r:id="rId1"/>
-    <sheet name="Regestiration" sheetId="1" r:id="rId2"/>
+    <sheet name="Registeration" sheetId="1" r:id="rId2"/>
     <sheet name="Login" sheetId="2" r:id="rId3"/>
     <sheet name="AdminPage" sheetId="4" r:id="rId4"/>
-    <sheet name="Booking" sheetId="5" r:id="rId5"/>
-    <sheet name="Logout" sheetId="3" r:id="rId6"/>
+    <sheet name="Test-Data" sheetId="7" r:id="rId5"/>
+    <sheet name="Booking" sheetId="5" r:id="rId6"/>
+    <sheet name="Logout" sheetId="3" r:id="rId7"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="374">
   <si>
     <t>ID</t>
   </si>
@@ -920,30 +921,12 @@
     <t>TAWA_SRS_FR_083</t>
   </si>
   <si>
-    <t>TAWA_SRS_FR_084</t>
-  </si>
-  <si>
     <t>TAWA_SRS_FR_085</t>
   </si>
   <si>
-    <t>If the user exist in the database shall display error message says ‘This username is already reserved, Please enter a different username’.</t>
-  </si>
-  <si>
     <t>TAWA_SRS_FR_086</t>
   </si>
   <si>
-    <t>If the user added successfully shall display successful message says ‘Congratulations!  A new account has been created successfully’ .</t>
-  </si>
-  <si>
-    <t>TAWA_SRS_FR_087</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> After login as an admin The admin shall be able to delete users.</t>
-  </si>
-  <si>
-    <t>TAWA_SRS_FR_088</t>
-  </si>
-  <si>
     <t>TAWA_SRS_FR_089</t>
   </si>
   <si>
@@ -1007,9 +990,6 @@
     <t>TAWA_Admin_005</t>
   </si>
   <si>
-    <t>TAWA_Admin_006</t>
-  </si>
-  <si>
     <t>TAWA_Admin_007</t>
   </si>
   <si>
@@ -1022,9 +1002,6 @@
     <t>TAWA_Admin_010</t>
   </si>
   <si>
-    <t>TAWA_Admin_011</t>
-  </si>
-  <si>
     <t>TAWA_Admin_012</t>
   </si>
   <si>
@@ -1050,10 +1027,6 @@
   </si>
   <si>
     <t>Asmaa Hamdy</t>
-  </si>
-  <si>
-    <t>1-Go to (Travel-Adviser-Web-Application/UI/Log-Reg-UI/login.php)
-2- Enter Admin Credentials (username: asmaaadmin password:1234)</t>
   </si>
   <si>
     <t>The admin shall be able to add users.
@@ -1072,12 +1045,6 @@
   </si>
   <si>
     <t>The ‘add user’ form shall contain ‘add’ button.</t>
-  </si>
-  <si>
-    <t>The added user shall not exist in the database before adding him.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The admin clicks on the ‘delete’ button to delete specific user in the page listed all users.</t>
   </si>
   <si>
     <t xml:space="preserve"> The user shall  exist in the page listed all users.</t>
@@ -1449,12 +1416,125 @@
 that user entered shall appear 
 in the page</t>
   </si>
+  <si>
+    <t>1-Press Add a new user
+2- Fill the data of the registeration form with an existing username
+3- Press Add</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> error message says ‘This username is already reserved, Please enter a different username’.</t>
+  </si>
+  <si>
+    <t>The error message doesn't specify that the username already exists</t>
+  </si>
+  <si>
+    <t>1-Press Add a new user
+2- Fill the data of the registeration form with a new username
+3- Press Add</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> successful message says ‘Congratulations!  A new account has been created successfully’ .</t>
+  </si>
+  <si>
+    <t>successful message says ‘Congratulations!  A new account has been created successfully’ .</t>
+  </si>
+  <si>
+    <t>The admin shall be able to delete users.</t>
+  </si>
+  <si>
+    <t>User is deleted successfully from the database</t>
+  </si>
+  <si>
+    <t>TAWA_SRS_FR_087
+TAWA_SRS_FR_088</t>
+  </si>
+  <si>
+    <t>1- Type an existing username in the search bar
+2- Press search button</t>
+  </si>
+  <si>
+    <t>1- Type an existing username in the search bar
+2- Press delete</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The user is listed </t>
+  </si>
+  <si>
+    <t>No message is displayed</t>
+  </si>
+  <si>
+    <t>View the list of users</t>
+  </si>
+  <si>
+    <t>The ‘Admin’ is be able to view all users.</t>
+  </si>
+  <si>
+    <t>1- Type an existing username in the search bar
+2- Press search</t>
+  </si>
+  <si>
+    <t>1- Type an existing username in the search bar
+2-Press Search
+3- Press delete</t>
+  </si>
+  <si>
+    <t>Only one "Delete" button exists for all users</t>
+  </si>
+  <si>
+    <t>Only one "Edit" button exists for all users</t>
+  </si>
+  <si>
+    <t>1- Type an existing username in the search bar
+2- Press search
+3- Press Delete</t>
+  </si>
+  <si>
+    <t>1- Type an existing username in the search bar
+2- Press search
+3- Press Edit</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The ‘Delete’ button is clickable.</t>
+  </si>
+  <si>
+    <t>Valid Username for user</t>
+  </si>
+  <si>
+    <t>Valid Password for user</t>
+  </si>
+  <si>
+    <t>Valid Username for Admin</t>
+  </si>
+  <si>
+    <t>Valid Password for Admin</t>
+  </si>
+  <si>
+    <t>tawa</t>
+  </si>
+  <si>
+    <t>P@$$w0rd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-Go to (Travel-Adviser-Web-Application/UI/Log-Reg-UI/login.php)
+2- Enter Admin Credentials </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-Go to (Travel-Adviser-Web-Application/UI/Log-Reg-UI/login.php)
+2- Enter valid Admin Credentials </t>
+  </si>
+  <si>
+    <t>1-Go to (Travel-Adviser-Web-Application/UI/Log-Reg-UI/login.php)
+2- Enter valid Admin Credentials</t>
+  </si>
+  <si>
+    <t>asmaaadmin</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1482,6 +1562,14 @@
       <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="7">
@@ -1546,10 +1634,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1611,8 +1700,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1924,25 +2016,25 @@
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.21875" customWidth="1"/>
-    <col min="6" max="6" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.28515625" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="27" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1956,7 +2048,7 @@
         <v>10</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>3</v>
@@ -1995,29 +2087,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M55"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection sqref="A1:M1"/>
+    <sheetView topLeftCell="H24" workbookViewId="0">
+      <selection sqref="A1:M27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.88671875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="51.109375" style="5" customWidth="1"/>
+    <col min="1" max="1" width="24.85546875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="51.140625" style="5" customWidth="1"/>
     <col min="3" max="3" width="26" style="7" customWidth="1"/>
     <col min="4" max="4" width="26" style="5" customWidth="1"/>
-    <col min="5" max="5" width="56.6640625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="31.33203125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="50.5546875" style="5" customWidth="1"/>
-    <col min="8" max="8" width="25.44140625" style="7" customWidth="1"/>
-    <col min="9" max="9" width="26.44140625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="56.7109375" style="5" customWidth="1"/>
+    <col min="6" max="6" width="31.28515625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="50.5703125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="25.42578125" style="7" customWidth="1"/>
+    <col min="9" max="9" width="26.42578125" style="7" customWidth="1"/>
     <col min="10" max="10" width="24" style="5" customWidth="1"/>
-    <col min="11" max="11" width="31.88671875" style="5" customWidth="1"/>
+    <col min="11" max="11" width="31.85546875" style="5" customWidth="1"/>
     <col min="12" max="12" width="23" style="5" customWidth="1"/>
     <col min="13" max="13" width="19" style="5" customWidth="1"/>
-    <col min="14" max="16384" width="9.109375" style="5"/>
+    <col min="14" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2058,7 +2150,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>63</v>
       </c>
@@ -2078,7 +2170,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>64</v>
       </c>
@@ -2098,7 +2190,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>65</v>
       </c>
@@ -2118,7 +2210,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>66</v>
       </c>
@@ -2138,7 +2230,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>67</v>
       </c>
@@ -2158,7 +2250,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>68</v>
       </c>
@@ -2178,7 +2270,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>69</v>
       </c>
@@ -2198,7 +2290,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>70</v>
       </c>
@@ -2218,7 +2310,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>71</v>
       </c>
@@ -2238,7 +2330,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="87" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" ht="90.75" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>72</v>
       </c>
@@ -2259,7 +2351,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>73</v>
       </c>
@@ -2279,7 +2371,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>98</v>
       </c>
@@ -2299,7 +2391,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>99</v>
       </c>
@@ -2319,7 +2411,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>100</v>
       </c>
@@ -2339,7 +2431,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>101</v>
       </c>
@@ -2359,7 +2451,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>102</v>
       </c>
@@ -2379,7 +2471,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>103</v>
       </c>
@@ -2399,7 +2491,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>120</v>
       </c>
@@ -2419,7 +2511,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>121</v>
       </c>
@@ -2439,7 +2531,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>134</v>
       </c>
@@ -2459,7 +2551,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>135</v>
       </c>
@@ -2479,7 +2571,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>136</v>
       </c>
@@ -2499,7 +2591,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>137</v>
       </c>
@@ -2519,7 +2611,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>138</v>
       </c>
@@ -2539,7 +2631,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>139</v>
       </c>
@@ -2559,7 +2651,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>147</v>
       </c>
@@ -2579,12 +2671,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="12"/>
       <c r="H28" s="12"/>
       <c r="I28" s="12"/>
     </row>
-    <row r="29" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>148</v>
       </c>
@@ -2604,7 +2696,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>149</v>
       </c>
@@ -2624,7 +2716,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>150</v>
       </c>
@@ -2644,7 +2736,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>151</v>
       </c>
@@ -2664,7 +2756,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>152</v>
       </c>
@@ -2684,7 +2776,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>153</v>
       </c>
@@ -2704,7 +2796,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>154</v>
       </c>
@@ -2724,7 +2816,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>155</v>
       </c>
@@ -2744,7 +2836,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="87" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:12" ht="90.75" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
         <v>156</v>
       </c>
@@ -2765,7 +2857,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>157</v>
       </c>
@@ -2785,7 +2877,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>158</v>
       </c>
@@ -2805,7 +2897,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>159</v>
       </c>
@@ -2825,7 +2917,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>160</v>
       </c>
@@ -2845,7 +2937,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>161</v>
       </c>
@@ -2865,7 +2957,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>162</v>
       </c>
@@ -2885,7 +2977,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>163</v>
       </c>
@@ -2905,7 +2997,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>164</v>
       </c>
@@ -2925,7 +3017,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>165</v>
       </c>
@@ -2945,7 +3037,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>166</v>
       </c>
@@ -2965,7 +3057,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>167</v>
       </c>
@@ -2985,7 +3077,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>168</v>
       </c>
@@ -3005,7 +3097,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>169</v>
       </c>
@@ -3025,7 +3117,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>170</v>
       </c>
@@ -3045,7 +3137,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>171</v>
       </c>
@@ -3065,7 +3157,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>172</v>
       </c>
@@ -3085,12 +3177,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="54" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="12"/>
       <c r="H54" s="12"/>
       <c r="I54" s="12"/>
     </row>
-    <row r="55" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
         <v>199</v>
       </c>
@@ -3124,25 +3216,25 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.6640625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="57.109375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="23.44140625" style="7" customWidth="1"/>
-    <col min="4" max="4" width="23.44140625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="62.33203125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="25.6640625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="46.5546875" style="5" customWidth="1"/>
-    <col min="8" max="8" width="21.88671875" style="7" customWidth="1"/>
-    <col min="9" max="9" width="20.109375" style="7" customWidth="1"/>
-    <col min="10" max="10" width="25.33203125" style="5" customWidth="1"/>
-    <col min="11" max="11" width="18.6640625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="25.7109375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="57.140625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="62.28515625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="25.7109375" style="5" customWidth="1"/>
+    <col min="7" max="7" width="46.5703125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="21.85546875" style="7" customWidth="1"/>
+    <col min="9" max="9" width="20.140625" style="7" customWidth="1"/>
+    <col min="10" max="10" width="25.28515625" style="5" customWidth="1"/>
+    <col min="11" max="11" width="18.7109375" style="5" customWidth="1"/>
     <col min="12" max="12" width="28" style="5" customWidth="1"/>
-    <col min="13" max="13" width="31.109375" style="5" customWidth="1"/>
-    <col min="14" max="16384" width="9.109375" style="5"/>
+    <col min="13" max="13" width="31.140625" style="5" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3183,7 +3275,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>24</v>
       </c>
@@ -3206,7 +3298,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>29</v>
       </c>
@@ -3232,7 +3324,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>34</v>
       </c>
@@ -3258,7 +3350,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>35</v>
       </c>
@@ -3281,7 +3373,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>36</v>
       </c>
@@ -3304,7 +3396,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>37</v>
       </c>
@@ -3324,7 +3416,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>38</v>
       </c>
@@ -3347,7 +3439,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>39</v>
       </c>
@@ -3370,7 +3462,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>40</v>
       </c>
@@ -3393,7 +3485,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>41</v>
       </c>
@@ -3423,28 +3515,30 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M22"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5546875" customWidth="1"/>
-    <col min="2" max="2" width="18.33203125" customWidth="1"/>
-    <col min="3" max="3" width="22.5546875" customWidth="1"/>
-    <col min="4" max="4" width="9.109375" customWidth="1"/>
-    <col min="5" max="5" width="30.5546875" customWidth="1"/>
-    <col min="6" max="6" width="34.44140625" customWidth="1"/>
-    <col min="7" max="7" width="41.44140625" customWidth="1"/>
-    <col min="8" max="8" width="39.33203125" customWidth="1"/>
-    <col min="9" max="9" width="14.6640625" customWidth="1"/>
-    <col min="10" max="10" width="21.44140625" customWidth="1"/>
-    <col min="11" max="11" width="18.33203125" customWidth="1"/>
+    <col min="1" max="1" width="18.5703125" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" customWidth="1"/>
+    <col min="5" max="5" width="30.5703125" customWidth="1"/>
+    <col min="6" max="6" width="34.42578125" customWidth="1"/>
+    <col min="7" max="7" width="41.42578125" customWidth="1"/>
+    <col min="8" max="8" width="39.28515625" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" customWidth="1"/>
+    <col min="10" max="10" width="21.42578125" customWidth="1"/>
+    <col min="11" max="11" width="18.28515625" customWidth="1"/>
     <col min="12" max="12" width="29" customWidth="1"/>
-    <col min="13" max="13" width="20.88671875" customWidth="1"/>
+    <col min="13" max="13" width="20.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="5" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="5" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3482,7 +3576,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="15" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" s="15" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>206</v>
       </c>
@@ -3493,441 +3587,509 @@
         <v>16</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>256</v>
+        <v>370</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="I2" s="15" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="L2" s="15" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" s="15" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" s="15" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>207</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="D3" s="15" t="s">
         <v>16</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>256</v>
+        <v>372</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="H3" s="15" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="L3" s="15" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" s="15" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" s="15" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>208</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="D4" s="15" t="s">
         <v>16</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>256</v>
+        <v>371</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="H4" s="15" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="I4" s="15" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="L4" s="15" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" s="17" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" s="17" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>209</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D5" s="17" t="s">
         <v>16</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>256</v>
+        <v>372</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="G5" s="17" t="s">
         <v>210</v>
       </c>
       <c r="H5" s="17" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="I5" s="17" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="J5" s="17" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="L5" s="17" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" s="15" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" s="15" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>211</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D6" s="15" t="s">
         <v>16</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>256</v>
+        <v>372</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="I6" s="15" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="L6" s="15" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" s="17" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>372</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>342</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>343</v>
+      </c>
+      <c r="H7" s="17" t="s">
+        <v>344</v>
+      </c>
+      <c r="I7" s="17" t="s">
+        <v>254</v>
+      </c>
+      <c r="J7" s="17" t="s">
+        <v>257</v>
+      </c>
+      <c r="L7" s="17" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" s="15" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>372</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>345</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>346</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>347</v>
+      </c>
+      <c r="I8" s="15" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="15" t="s">
-        <v>212</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>241</v>
-      </c>
-      <c r="D7" s="15" t="s">
+      <c r="L8" s="15" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:13" s="15" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="16" t="s">
+        <v>350</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="D10" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="15" t="s">
-        <v>262</v>
-      </c>
-      <c r="I7" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="L7" s="15" t="s">
+      <c r="E10" s="16" t="s">
+        <v>372</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>352</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>348</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>349</v>
+      </c>
+      <c r="I10" s="15" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>242</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" s="17" t="s">
+      <c r="L10" s="15" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" s="15" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
         <v>214</v>
       </c>
-      <c r="I8" s="17" t="s">
-        <v>265</v>
-      </c>
-      <c r="J8" s="17" t="s">
-        <v>268</v>
-      </c>
-      <c r="L8" s="17" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="15" t="s">
-        <v>215</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>243</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" s="15" t="s">
-        <v>216</v>
-      </c>
-      <c r="I9" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="L9" s="15" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="15" t="s">
-        <v>217</v>
-      </c>
       <c r="B11" s="15" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="D11" s="15" t="s">
         <v>16</v>
       </c>
+      <c r="E11" s="16" t="s">
+        <v>372</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>351</v>
+      </c>
       <c r="G11" s="15" t="s">
+        <v>253</v>
+      </c>
+      <c r="H11" s="15" t="s">
+        <v>353</v>
+      </c>
+      <c r="I11" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="L11" s="15" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" s="17" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>239</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>372</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>358</v>
+      </c>
+      <c r="G12" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="H12" s="17" t="s">
+        <v>354</v>
+      </c>
+      <c r="I12" s="17" t="s">
+        <v>254</v>
+      </c>
+      <c r="J12" s="17" t="s">
+        <v>258</v>
+      </c>
+      <c r="L12" s="17" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" s="17" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A13" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>372</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>358</v>
+      </c>
+      <c r="G13" s="17" t="s">
         <v>218</v>
       </c>
-      <c r="I11" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="L11" s="15" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="15" t="s">
+      <c r="H13" s="17" t="s">
+        <v>354</v>
+      </c>
+      <c r="I13" s="17" t="s">
+        <v>254</v>
+      </c>
+      <c r="J13" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="L13" s="17" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" s="17" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A14" s="17" t="s">
         <v>219</v>
       </c>
-      <c r="B12" s="15" t="s">
-        <v>245</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="G12" s="15" t="s">
-        <v>263</v>
-      </c>
-      <c r="I12" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="L12" s="15" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="15" t="s">
-        <v>220</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>246</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" s="15" t="s">
-        <v>264</v>
-      </c>
-      <c r="I13" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="L13" s="15" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="17" t="s">
-        <v>221</v>
-      </c>
       <c r="B14" s="17" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="D14" s="17" t="s">
         <v>16</v>
       </c>
+      <c r="E14" s="18" t="s">
+        <v>372</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>358</v>
+      </c>
       <c r="G14" s="17" t="s">
+        <v>220</v>
+      </c>
+      <c r="H14" s="17" t="s">
+        <v>354</v>
+      </c>
+      <c r="I14" s="17" t="s">
+        <v>254</v>
+      </c>
+      <c r="J14" s="17" t="s">
+        <v>260</v>
+      </c>
+      <c r="L14" s="17" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:13" s="15" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A16" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>372</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>355</v>
+      </c>
+      <c r="G16" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="H16" s="15" t="s">
+        <v>356</v>
+      </c>
+      <c r="I16" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="L16" s="15" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" s="17" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A17" s="17" t="s">
         <v>222</v>
       </c>
-      <c r="I14" s="17" t="s">
-        <v>265</v>
-      </c>
-      <c r="J14" s="17" t="s">
-        <v>269</v>
-      </c>
-      <c r="L14" s="17" t="s">
+      <c r="B17" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>372</v>
+      </c>
+      <c r="F17" s="18" t="s">
+        <v>357</v>
+      </c>
+      <c r="G17" s="17" t="s">
+        <v>227</v>
+      </c>
+      <c r="H17" s="17" t="s">
+        <v>359</v>
+      </c>
+      <c r="I17" s="17" t="s">
+        <v>254</v>
+      </c>
+      <c r="J17" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="L17" s="17" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" s="17" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A18" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>244</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>372</v>
+      </c>
+      <c r="F18" s="18" t="s">
+        <v>357</v>
+      </c>
+      <c r="G18" s="17" t="s">
+        <v>228</v>
+      </c>
+      <c r="H18" s="17" t="s">
+        <v>360</v>
+      </c>
+      <c r="I18" s="17" t="s">
+        <v>254</v>
+      </c>
+      <c r="J18" s="17" t="s">
+        <v>262</v>
+      </c>
+      <c r="L18" s="17" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" s="15" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A19" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>372</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>361</v>
+      </c>
+      <c r="G19" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="H19" s="15" t="s">
+        <v>363</v>
+      </c>
+      <c r="I19" s="15" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="17" t="s">
-        <v>223</v>
-      </c>
-      <c r="B15" s="17" t="s">
-        <v>248</v>
-      </c>
-      <c r="D15" s="17" t="s">
+      <c r="L19" s="15" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" s="15" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A20" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="D20" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="G15" s="17" t="s">
-        <v>224</v>
-      </c>
-      <c r="I15" s="17" t="s">
-        <v>265</v>
-      </c>
-      <c r="J15" s="17" t="s">
-        <v>270</v>
-      </c>
-      <c r="L15" s="17" t="s">
+      <c r="E20" s="16" t="s">
+        <v>372</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>362</v>
+      </c>
+      <c r="G20" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="H20" s="15" t="s">
+        <v>363</v>
+      </c>
+      <c r="I20" s="15" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="17" t="s">
-        <v>225</v>
-      </c>
-      <c r="B16" s="17" t="s">
-        <v>249</v>
-      </c>
-      <c r="D16" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="G16" s="17" t="s">
-        <v>226</v>
-      </c>
-      <c r="I16" s="17" t="s">
-        <v>265</v>
-      </c>
-      <c r="J16" s="17" t="s">
-        <v>271</v>
-      </c>
-      <c r="L16" s="17" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="15" t="s">
-        <v>227</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>250</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="G18" s="15" t="s">
-        <v>232</v>
-      </c>
-      <c r="I18" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="L18" s="15" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="17" t="s">
-        <v>228</v>
-      </c>
-      <c r="B19" s="17" t="s">
-        <v>251</v>
-      </c>
-      <c r="D19" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="G19" s="17" t="s">
-        <v>233</v>
-      </c>
-      <c r="I19" s="17" t="s">
-        <v>265</v>
-      </c>
-      <c r="J19" s="17" t="s">
-        <v>272</v>
-      </c>
-      <c r="L19" s="17" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="17" t="s">
-        <v>229</v>
-      </c>
-      <c r="B20" s="17" t="s">
-        <v>252</v>
-      </c>
-      <c r="D20" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="G20" s="17" t="s">
-        <v>234</v>
-      </c>
-      <c r="I20" s="17" t="s">
-        <v>265</v>
-      </c>
-      <c r="J20" s="17" t="s">
-        <v>273</v>
-      </c>
-      <c r="L20" s="17" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="15" t="s">
-        <v>230</v>
-      </c>
-      <c r="B21" s="15" t="s">
-        <v>253</v>
-      </c>
-      <c r="D21" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="G21" s="15" t="s">
-        <v>235</v>
-      </c>
-      <c r="I21" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="L21" s="15" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="15" t="s">
-        <v>231</v>
-      </c>
-      <c r="B22" s="15" t="s">
-        <v>254</v>
-      </c>
-      <c r="D22" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="G22" s="15" t="s">
-        <v>236</v>
-      </c>
-      <c r="I22" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="L22" s="15" t="s">
-        <v>255</v>
+      <c r="L20" s="15" t="s">
+        <v>247</v>
       </c>
     </row>
   </sheetData>
@@ -3938,36 +4100,94 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.140625" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>365</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="26"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>366</v>
+      </c>
+      <c r="B4" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>367</v>
+      </c>
+      <c r="B5" s="25">
+        <v>1234</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B5" r:id="rId2" display="123Admin@Pass"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5"/>
   </sheetPr>
   <dimension ref="A1:O17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E16" workbookViewId="0">
+    <sheetView topLeftCell="E16" workbookViewId="0">
       <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.109375" style="23" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.77734375" style="23" customWidth="1"/>
-    <col min="3" max="3" width="10.77734375" style="23" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.21875" style="23" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.6640625" style="23" customWidth="1"/>
-    <col min="6" max="6" width="29.33203125" style="23" customWidth="1"/>
-    <col min="7" max="7" width="15.109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.7109375" style="23" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" style="23" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.7109375" style="23" customWidth="1"/>
+    <col min="6" max="6" width="29.28515625" style="23" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" style="23" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="27" style="23" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13" style="23" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.44140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" style="23" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.88671875" style="23" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.5546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.5546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" style="23" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.5703125" style="23" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="25" style="23" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.88671875" style="23"/>
+    <col min="16" max="16384" width="8.85546875" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -3981,7 +4201,7 @@
         <v>10</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="F1" s="19" t="s">
         <v>3</v>
@@ -4011,555 +4231,555 @@
         <v>59</v>
       </c>
       <c r="O1" s="20" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="137.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="137.44999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="C2" s="21" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="G2" s="21"/>
       <c r="H2" s="22" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="I2" s="21"/>
       <c r="J2" s="21" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="K2" s="21"/>
       <c r="L2" s="21"/>
       <c r="M2" s="21" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="N2" s="21"/>
       <c r="O2" s="23" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="100.8" x14ac:dyDescent="0.3">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="105" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="C3" s="21" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="G3" s="21"/>
       <c r="H3" s="22" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="I3" s="21"/>
       <c r="J3" s="21" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="K3" s="21"/>
       <c r="L3" s="21"/>
       <c r="M3" s="21" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="N3" s="21"/>
     </row>
-    <row r="4" spans="1:15" ht="122.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" ht="122.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="C4" s="21" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="F4" s="22" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="G4" s="21"/>
       <c r="H4" s="22" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="I4" s="21"/>
       <c r="J4" s="21" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="K4" s="21"/>
       <c r="L4" s="21"/>
       <c r="M4" s="21" t="s">
+        <v>279</v>
+      </c>
+      <c r="N4" s="21"/>
+    </row>
+    <row r="5" spans="1:15" ht="120" x14ac:dyDescent="0.25">
+      <c r="A5" s="21" t="s">
+        <v>289</v>
+      </c>
+      <c r="B5" s="21" t="s">
         <v>290</v>
-      </c>
-      <c r="N4" s="21"/>
-    </row>
-    <row r="5" spans="1:15" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="21" t="s">
-        <v>300</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>301</v>
       </c>
       <c r="C5" s="21" t="s">
         <v>12</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="F5" s="22" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="G5" s="21"/>
       <c r="H5" s="22" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="I5" s="21"/>
       <c r="J5" s="21" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="K5" s="21"/>
       <c r="L5" s="21"/>
       <c r="M5" s="21" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="N5" s="21"/>
     </row>
-    <row r="6" spans="1:15" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" ht="105" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="C6" s="21" t="s">
         <v>12</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="F6" s="22" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="G6" s="21"/>
       <c r="H6" s="22" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="I6" s="21"/>
       <c r="J6" s="21" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="K6" s="21"/>
       <c r="L6" s="21"/>
       <c r="M6" s="21" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="N6" s="21"/>
     </row>
-    <row r="7" spans="1:15" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" ht="120" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="C7" s="21" t="s">
         <v>12</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="F7" s="22" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="G7" s="21"/>
       <c r="H7" s="22" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="I7" s="21"/>
       <c r="J7" s="21" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="K7" s="21"/>
       <c r="L7" s="21"/>
       <c r="M7" s="21" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="N7" s="21"/>
     </row>
-    <row r="8" spans="1:15" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" ht="105" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="C8" s="21" t="s">
         <v>12</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="F8" s="22" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="G8" s="21"/>
       <c r="H8" s="22" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="I8" s="21"/>
       <c r="J8" s="21" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="K8" s="21"/>
       <c r="L8" s="21"/>
       <c r="M8" s="21" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="N8" s="21"/>
     </row>
-    <row r="9" spans="1:15" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" ht="105" x14ac:dyDescent="0.25">
       <c r="A9" s="21" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="C9" s="21" t="s">
         <v>12</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="F9" s="22" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="G9" s="21"/>
       <c r="H9" s="22" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="I9" s="21"/>
       <c r="J9" s="21" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="K9" s="21"/>
       <c r="L9" s="21"/>
       <c r="M9" s="21" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="N9" s="21"/>
     </row>
-    <row r="10" spans="1:15" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" ht="120" x14ac:dyDescent="0.25">
       <c r="A10" s="21" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="C10" s="21" t="s">
         <v>12</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="F10" s="22" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="G10" s="21"/>
       <c r="H10" s="22" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="I10" s="21"/>
       <c r="J10" s="21" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="K10" s="21"/>
       <c r="L10" s="21"/>
       <c r="M10" s="21" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="N10" s="21"/>
     </row>
-    <row r="11" spans="1:15" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" ht="120" x14ac:dyDescent="0.25">
       <c r="A11" s="21" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="C11" s="21" t="s">
         <v>12</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="E11" s="22" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="F11" s="22" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="G11" s="21"/>
       <c r="H11" s="22" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="I11" s="21"/>
       <c r="J11" s="21" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="K11" s="21"/>
       <c r="L11" s="21"/>
       <c r="M11" s="21" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="N11" s="21"/>
     </row>
-    <row r="12" spans="1:15" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" ht="120" x14ac:dyDescent="0.25">
       <c r="A12" s="21" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="C12" s="21" t="s">
         <v>12</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="E12" s="22" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="F12" s="22" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="G12" s="21"/>
       <c r="H12" s="22" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="I12" s="21"/>
       <c r="J12" s="21" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="K12" s="21"/>
       <c r="L12" s="21"/>
       <c r="M12" s="21" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="N12" s="21"/>
     </row>
-    <row r="13" spans="1:15" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" ht="135" x14ac:dyDescent="0.25">
       <c r="A13" s="21" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="C13" s="21" t="s">
         <v>12</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="E13" s="22" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="F13" s="22" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="G13" s="21"/>
       <c r="H13" s="22" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="I13" s="21"/>
       <c r="J13" s="21" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="K13" s="21"/>
       <c r="L13" s="21"/>
       <c r="M13" s="21" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="N13" s="21"/>
       <c r="O13" s="23" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" ht="141" customHeight="1" x14ac:dyDescent="0.3">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="141" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="21" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="C14" s="21" t="s">
         <v>12</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="E14" s="22" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="F14" s="22" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="G14" s="21"/>
       <c r="H14" s="22" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="I14" s="21"/>
       <c r="J14" s="21" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="K14" s="21"/>
       <c r="L14" s="21"/>
       <c r="M14" s="21" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="N14" s="21"/>
     </row>
-    <row r="15" spans="1:15" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" ht="120" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="C15" s="21" t="s">
         <v>12</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="E15" s="22" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="F15" s="22" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="G15" s="21"/>
       <c r="H15" s="22" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="I15" s="21"/>
       <c r="J15" s="21" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="K15" s="21"/>
       <c r="L15" s="21"/>
       <c r="M15" s="21" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="N15" s="21"/>
     </row>
-    <row r="16" spans="1:15" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" ht="120" x14ac:dyDescent="0.25">
       <c r="A16" s="21" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="C16" s="21" t="s">
         <v>12</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="E16" s="22" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="F16" s="22" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="G16" s="21"/>
       <c r="H16" s="22" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="I16" s="21"/>
       <c r="J16" s="21" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="K16" s="21"/>
       <c r="L16" s="21"/>
       <c r="M16" s="21" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="N16" s="21"/>
     </row>
-    <row r="17" spans="1:13" ht="144" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" ht="150" x14ac:dyDescent="0.25">
       <c r="A17" s="21" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="C17" s="21" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="E17" s="22" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="F17" s="22" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="H17" s="24" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="I17" s="21"/>
       <c r="J17" s="21" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="K17" s="21"/>
       <c r="L17" s="21"/>
       <c r="M17" s="21" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
     </row>
   </sheetData>
@@ -4567,7 +4787,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M17"/>
   <sheetViews>
@@ -4575,22 +4795,22 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.33203125" customWidth="1"/>
-    <col min="2" max="2" width="48.109375" customWidth="1"/>
+    <col min="1" max="1" width="29.28515625" customWidth="1"/>
+    <col min="2" max="2" width="48.140625" customWidth="1"/>
     <col min="3" max="4" width="22" customWidth="1"/>
-    <col min="5" max="6" width="51.109375" customWidth="1"/>
-    <col min="7" max="7" width="33.109375" customWidth="1"/>
-    <col min="8" max="8" width="23.109375" customWidth="1"/>
-    <col min="9" max="9" width="19.44140625" customWidth="1"/>
-    <col min="10" max="10" width="33.44140625" customWidth="1"/>
-    <col min="11" max="11" width="39.44140625" customWidth="1"/>
+    <col min="5" max="6" width="51.140625" customWidth="1"/>
+    <col min="7" max="7" width="33.140625" customWidth="1"/>
+    <col min="8" max="8" width="23.140625" customWidth="1"/>
+    <col min="9" max="9" width="19.42578125" customWidth="1"/>
+    <col min="10" max="10" width="33.42578125" customWidth="1"/>
+    <col min="11" max="11" width="39.42578125" customWidth="1"/>
     <col min="12" max="12" width="28" style="5" customWidth="1"/>
-    <col min="13" max="13" width="31.109375" style="5" customWidth="1"/>
+    <col min="13" max="13" width="31.140625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4631,7 +4851,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -4658,7 +4878,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -4685,13 +4905,13 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="21" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" ht="20.25" x14ac:dyDescent="0.25">
       <c r="F16" s="10"/>
     </row>
-    <row r="17" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F17" s="9"/>
     </row>
   </sheetData>

--- a/Testing/Test Cases/TAWA_TestCases.xlsx
+++ b/Testing/Test Cases/TAWA_TestCases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="ReservedTrips" sheetId="6" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="399">
   <si>
     <t>ID</t>
   </si>
@@ -1103,9 +1103,6 @@
     <t>click on ‘add’ button to submit the form.</t>
   </si>
   <si>
-    <t>Test Data</t>
-  </si>
-  <si>
     <t>Attachments</t>
   </si>
   <si>
@@ -1116,14 +1113,6 @@
   </si>
   <si>
     <t>User must login with a valid account</t>
-  </si>
-  <si>
-    <t>Valid username: TAWA
-Valid Password: P@$$w0rd
-Valid db card number:
-01234567891012
-valid destination:Turkey
-valid flight number: 2409</t>
   </si>
   <si>
     <t>1) Open Homepage
@@ -1394,10 +1383,6 @@
   <si>
     <t>Error message shall appear saying
 that user can not book more than 4 seats</t>
-  </si>
-  <si>
-    <t>Validate that trip appear in the "Reserved trips" page once
-user books it</t>
   </si>
   <si>
     <t>TAWA_BOOKING_16</t>
@@ -1528,6 +1513,120 @@
   </si>
   <si>
     <t>asmaaadmin</t>
+  </si>
+  <si>
+    <t>TAWA_RESERVED_01</t>
+  </si>
+  <si>
+    <t>Validate that user can go to "Reserved flights" page from home page</t>
+  </si>
+  <si>
+    <t>User must be logged in with
+a valid account and must book
+a flight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Open TAWA homepage
+2) From Navigation bar Click on "Reserved
+Flights" button
+</t>
+  </si>
+  <si>
+    <t>Reserved flights page shall load 
+successfully</t>
+  </si>
+  <si>
+    <t>TAWA_RESERVED_02</t>
+  </si>
+  <si>
+    <t>Validate that reserved flight page has no content if user
+hasn't book any flight yet.</t>
+  </si>
+  <si>
+    <t>User must be logged in with
+a valid account but hasn't book trips</t>
+  </si>
+  <si>
+    <t>1) Open TAWA homepage
+2) From Navigation bar Click on "Reserved
+Flights" button</t>
+  </si>
+  <si>
+    <t>Reserved flights shall has no content</t>
+  </si>
+  <si>
+    <t>TAWA_RESERVED_03</t>
+  </si>
+  <si>
+    <t>Validate that reserved flight page has information about
+the reserved flight for a user</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reserved flight page shall show :
+Flight Type 
+Airline 
+Service Level 
+Number of seats
+Payment Method 
+</t>
+  </si>
+  <si>
+    <t>TAWA_RESERVED_04</t>
+  </si>
+  <si>
+    <t>Validate that reserved flights page has a "cancel" button</t>
+  </si>
+  <si>
+    <t>reserved flights page shall
+has a "cancel" button</t>
+  </si>
+  <si>
+    <t>TAWA_RESERVED_05</t>
+  </si>
+  <si>
+    <t>Validate the functionality of cancel button</t>
+  </si>
+  <si>
+    <t>1) Open TAWA homepage
+2) From Navigation bar Click on "Reserved
+Flights" button
+3) Click on cancel button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flight shall be cancelled and a message
+shall appear saying: Your flight has been Cancelled
+</t>
+  </si>
+  <si>
+    <t>TAWA_RESERVED_06</t>
+  </si>
+  <si>
+    <t>Validate that there is an option for user to go to homepage after
+the cancellation of a flight</t>
+  </si>
+  <si>
+    <t>A blue button called" Go to Home Page"
+shall appear under the cancellation message</t>
+  </si>
+  <si>
+    <t>TAWA_RESERVED_07</t>
+  </si>
+  <si>
+    <t>Validate the functionality of "go to home page" button</t>
+  </si>
+  <si>
+    <t>1) Open TAWA homepage
+2) From Navigation bar Click on "Reserved
+Flights" button
+3) Click on cancel button
+4) click on "go to home page" button</t>
+  </si>
+  <si>
+    <t>User shall be redirected to homepage successfully</t>
+  </si>
+  <si>
+    <t>Validate that trip appear in the "Reserved flights" page once
+user books it</t>
   </si>
 </sst>
 </file>
@@ -2010,76 +2109,284 @@
   <sheetPr>
     <tabColor theme="5"/>
   </sheetPr>
-  <dimension ref="A1:N1"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.28515625" customWidth="1"/>
-    <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.88671875" customWidth="1"/>
+    <col min="5" max="5" width="36.88671875" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="42.21875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="27" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:14" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="E1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="F1" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="G1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="2" t="s">
+      <c r="H1" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="I1" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="J1" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="K1" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="L1" s="20" t="s">
         <v>59</v>
       </c>
+      <c r="M1" s="19"/>
+      <c r="N1" s="6"/>
+    </row>
+    <row r="2" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A2" s="21" t="s">
+        <v>371</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>372</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>373</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>374</v>
+      </c>
+      <c r="F2" s="21"/>
+      <c r="G2" s="22" t="s">
+        <v>375</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>276</v>
+      </c>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21" t="s">
+        <v>277</v>
+      </c>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+    </row>
+    <row r="3" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+      <c r="A3" s="21" t="s">
+        <v>376</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>377</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>378</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>379</v>
+      </c>
+      <c r="G3" s="21" t="s">
+        <v>380</v>
+      </c>
+      <c r="H3" s="21" t="s">
+        <v>276</v>
+      </c>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21" t="s">
+        <v>277</v>
+      </c>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+    </row>
+    <row r="4" spans="1:14" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="21" t="s">
+        <v>381</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>382</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>373</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>379</v>
+      </c>
+      <c r="G4" s="22" t="s">
+        <v>383</v>
+      </c>
+      <c r="H4" s="21" t="s">
+        <v>276</v>
+      </c>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21" t="s">
+        <v>277</v>
+      </c>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+    </row>
+    <row r="5" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="21" t="s">
+        <v>384</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>385</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>373</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>379</v>
+      </c>
+      <c r="G5" s="22" t="s">
+        <v>386</v>
+      </c>
+      <c r="H5" s="21" t="s">
+        <v>276</v>
+      </c>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21" t="s">
+        <v>277</v>
+      </c>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+    </row>
+    <row r="6" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="21" t="s">
+        <v>387</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>388</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>373</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>389</v>
+      </c>
+      <c r="G6" s="22" t="s">
+        <v>390</v>
+      </c>
+      <c r="H6" s="21" t="s">
+        <v>276</v>
+      </c>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21" t="s">
+        <v>277</v>
+      </c>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+    </row>
+    <row r="7" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="21" t="s">
+        <v>391</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>392</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>373</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>389</v>
+      </c>
+      <c r="G7" s="22" t="s">
+        <v>393</v>
+      </c>
+      <c r="H7" s="21" t="s">
+        <v>276</v>
+      </c>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21" t="s">
+        <v>277</v>
+      </c>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+    </row>
+    <row r="8" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+      <c r="A8" s="21" t="s">
+        <v>394</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>395</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>373</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>396</v>
+      </c>
+      <c r="G8" s="21" t="s">
+        <v>397</v>
+      </c>
+      <c r="H8" s="21" t="s">
+        <v>276</v>
+      </c>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21" t="s">
+        <v>277</v>
+      </c>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
@@ -2091,25 +2398,25 @@
       <selection sqref="A1:M27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.85546875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="51.140625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="24.88671875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="51.109375" style="5" customWidth="1"/>
     <col min="3" max="3" width="26" style="7" customWidth="1"/>
     <col min="4" max="4" width="26" style="5" customWidth="1"/>
-    <col min="5" max="5" width="56.7109375" style="5" customWidth="1"/>
-    <col min="6" max="6" width="31.28515625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="50.5703125" style="5" customWidth="1"/>
-    <col min="8" max="8" width="25.42578125" style="7" customWidth="1"/>
-    <col min="9" max="9" width="26.42578125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="56.6640625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="31.33203125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="50.5546875" style="5" customWidth="1"/>
+    <col min="8" max="8" width="25.44140625" style="7" customWidth="1"/>
+    <col min="9" max="9" width="26.44140625" style="7" customWidth="1"/>
     <col min="10" max="10" width="24" style="5" customWidth="1"/>
-    <col min="11" max="11" width="31.85546875" style="5" customWidth="1"/>
+    <col min="11" max="11" width="31.88671875" style="5" customWidth="1"/>
     <col min="12" max="12" width="23" style="5" customWidth="1"/>
     <col min="13" max="13" width="19" style="5" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="5"/>
+    <col min="14" max="16384" width="9.109375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2150,7 +2457,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>63</v>
       </c>
@@ -2170,7 +2477,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="72" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>64</v>
       </c>
@@ -2190,7 +2497,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>65</v>
       </c>
@@ -2210,7 +2517,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>66</v>
       </c>
@@ -2230,7 +2537,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>67</v>
       </c>
@@ -2250,7 +2557,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>68</v>
       </c>
@@ -2270,7 +2577,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>69</v>
       </c>
@@ -2290,7 +2597,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>70</v>
       </c>
@@ -2310,7 +2617,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>71</v>
       </c>
@@ -2330,7 +2637,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="90.75" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" ht="87" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>72</v>
       </c>
@@ -2351,7 +2658,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>73</v>
       </c>
@@ -2371,7 +2678,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>98</v>
       </c>
@@ -2391,7 +2698,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>99</v>
       </c>
@@ -2411,7 +2718,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>100</v>
       </c>
@@ -2431,7 +2738,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>101</v>
       </c>
@@ -2451,7 +2758,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>102</v>
       </c>
@@ -2471,7 +2778,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>103</v>
       </c>
@@ -2491,7 +2798,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>120</v>
       </c>
@@ -2511,7 +2818,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>121</v>
       </c>
@@ -2531,7 +2838,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>134</v>
       </c>
@@ -2551,7 +2858,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>135</v>
       </c>
@@ -2571,7 +2878,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>136</v>
       </c>
@@ -2591,7 +2898,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>137</v>
       </c>
@@ -2611,7 +2918,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>138</v>
       </c>
@@ -2631,7 +2938,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>139</v>
       </c>
@@ -2651,7 +2958,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>147</v>
       </c>
@@ -2671,12 +2978,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="12"/>
       <c r="H28" s="12"/>
       <c r="I28" s="12"/>
     </row>
-    <row r="29" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>148</v>
       </c>
@@ -2696,7 +3003,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>149</v>
       </c>
@@ -2716,7 +3023,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
         <v>150</v>
       </c>
@@ -2736,7 +3043,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
         <v>151</v>
       </c>
@@ -2756,7 +3063,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
         <v>152</v>
       </c>
@@ -2776,7 +3083,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
         <v>153</v>
       </c>
@@ -2796,7 +3103,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
         <v>154</v>
       </c>
@@ -2816,7 +3123,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
         <v>155</v>
       </c>
@@ -2836,7 +3143,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="90.75" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" ht="87" x14ac:dyDescent="0.35">
       <c r="A37" s="5" t="s">
         <v>156</v>
       </c>
@@ -2857,7 +3164,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
         <v>157</v>
       </c>
@@ -2877,7 +3184,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
         <v>158</v>
       </c>
@@ -2897,7 +3204,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
         <v>159</v>
       </c>
@@ -2917,7 +3224,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
         <v>160</v>
       </c>
@@ -2937,7 +3244,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
         <v>161</v>
       </c>
@@ -2957,7 +3264,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
         <v>162</v>
       </c>
@@ -2977,7 +3284,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
         <v>163</v>
       </c>
@@ -2997,7 +3304,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
         <v>164</v>
       </c>
@@ -3017,7 +3324,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
         <v>165</v>
       </c>
@@ -3037,7 +3344,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
         <v>166</v>
       </c>
@@ -3057,7 +3364,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
         <v>167</v>
       </c>
@@ -3077,7 +3384,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
         <v>168</v>
       </c>
@@ -3097,7 +3404,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
         <v>169</v>
       </c>
@@ -3117,7 +3424,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
         <v>170</v>
       </c>
@@ -3137,7 +3444,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
         <v>171</v>
       </c>
@@ -3157,7 +3464,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
         <v>172</v>
       </c>
@@ -3177,12 +3484,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="54" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="12"/>
       <c r="H54" s="12"/>
       <c r="I54" s="12"/>
     </row>
-    <row r="55" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
         <v>199</v>
       </c>
@@ -3216,25 +3523,25 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="57.140625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" style="7" customWidth="1"/>
-    <col min="4" max="4" width="23.42578125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="62.28515625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="25.7109375" style="5" customWidth="1"/>
-    <col min="7" max="7" width="46.5703125" style="5" customWidth="1"/>
-    <col min="8" max="8" width="21.85546875" style="7" customWidth="1"/>
-    <col min="9" max="9" width="20.140625" style="7" customWidth="1"/>
-    <col min="10" max="10" width="25.28515625" style="5" customWidth="1"/>
-    <col min="11" max="11" width="18.7109375" style="5" customWidth="1"/>
+    <col min="1" max="1" width="25.6640625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="57.109375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="23.44140625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="23.44140625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="62.33203125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="25.6640625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="46.5546875" style="5" customWidth="1"/>
+    <col min="8" max="8" width="21.88671875" style="7" customWidth="1"/>
+    <col min="9" max="9" width="20.109375" style="7" customWidth="1"/>
+    <col min="10" max="10" width="25.33203125" style="5" customWidth="1"/>
+    <col min="11" max="11" width="18.6640625" style="5" customWidth="1"/>
     <col min="12" max="12" width="28" style="5" customWidth="1"/>
-    <col min="13" max="13" width="31.140625" style="5" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="5"/>
+    <col min="13" max="13" width="31.109375" style="5" customWidth="1"/>
+    <col min="14" max="16384" width="9.109375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3275,7 +3582,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>24</v>
       </c>
@@ -3298,7 +3605,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="72" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>29</v>
       </c>
@@ -3324,7 +3631,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="72" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>34</v>
       </c>
@@ -3350,7 +3657,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>35</v>
       </c>
@@ -3373,7 +3680,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="72" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>36</v>
       </c>
@@ -3396,7 +3703,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="72" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>37</v>
       </c>
@@ -3416,7 +3723,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="72" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>38</v>
       </c>
@@ -3439,7 +3746,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="72" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>39</v>
       </c>
@@ -3462,7 +3769,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="72" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>40</v>
       </c>
@@ -3485,7 +3792,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="72" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>41</v>
       </c>
@@ -3517,28 +3824,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" customWidth="1"/>
-    <col min="3" max="3" width="22.5703125" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" customWidth="1"/>
-    <col min="5" max="5" width="30.5703125" customWidth="1"/>
-    <col min="6" max="6" width="34.42578125" customWidth="1"/>
-    <col min="7" max="7" width="41.42578125" customWidth="1"/>
-    <col min="8" max="8" width="39.28515625" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" customWidth="1"/>
-    <col min="10" max="10" width="21.42578125" customWidth="1"/>
-    <col min="11" max="11" width="18.28515625" customWidth="1"/>
+    <col min="1" max="1" width="18.5546875" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" customWidth="1"/>
+    <col min="3" max="3" width="22.5546875" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" customWidth="1"/>
+    <col min="5" max="5" width="30.5546875" customWidth="1"/>
+    <col min="6" max="6" width="34.44140625" customWidth="1"/>
+    <col min="7" max="7" width="41.44140625" customWidth="1"/>
+    <col min="8" max="8" width="39.33203125" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" customWidth="1"/>
+    <col min="10" max="10" width="21.44140625" customWidth="1"/>
+    <col min="11" max="11" width="18.33203125" customWidth="1"/>
     <col min="12" max="12" width="29" customWidth="1"/>
-    <col min="13" max="13" width="20.85546875" customWidth="1"/>
+    <col min="13" max="13" width="20.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="5" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="5" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3576,7 +3883,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="15" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" s="15" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>206</v>
       </c>
@@ -3587,7 +3894,7 @@
         <v>16</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="F2" s="16" t="s">
         <v>250</v>
@@ -3605,7 +3912,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="15" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" s="15" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
         <v>207</v>
       </c>
@@ -3616,7 +3923,7 @@
         <v>16</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="F3" s="16" t="s">
         <v>251</v>
@@ -3634,7 +3941,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="15" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" s="15" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
         <v>208</v>
       </c>
@@ -3645,7 +3952,7 @@
         <v>16</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="F4" s="16" t="s">
         <v>264</v>
@@ -3663,7 +3970,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="17" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" s="17" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A5" s="17" t="s">
         <v>209</v>
       </c>
@@ -3674,7 +3981,7 @@
         <v>16</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="F5" s="18" t="s">
         <v>265</v>
@@ -3695,7 +4002,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="15" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" s="15" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="15" t="s">
         <v>211</v>
       </c>
@@ -3706,7 +4013,7 @@
         <v>16</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="F6" s="16" t="s">
         <v>267</v>
@@ -3724,7 +4031,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="17" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" s="17" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="17" t="s">
         <v>212</v>
       </c>
@@ -3735,16 +4042,16 @@
         <v>16</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="G7" s="17" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="H7" s="17" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="I7" s="17" t="s">
         <v>254</v>
@@ -3756,7 +4063,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="15" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" s="15" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A8" s="15" t="s">
         <v>213</v>
       </c>
@@ -3767,16 +4074,16 @@
         <v>16</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="H8" s="15" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="I8" s="15" t="s">
         <v>255</v>
@@ -3785,10 +4092,10 @@
         <v>247</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:13" s="15" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:13" s="15" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10" s="16" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B10" s="15" t="s">
         <v>237</v>
@@ -3797,16 +4104,16 @@
         <v>16</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="H10" s="15" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="I10" s="15" t="s">
         <v>255</v>
@@ -3815,7 +4122,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="15" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" s="15" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
         <v>214</v>
       </c>
@@ -3826,16 +4133,16 @@
         <v>16</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="G11" s="15" t="s">
         <v>253</v>
       </c>
       <c r="H11" s="15" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="I11" s="15" t="s">
         <v>255</v>
@@ -3844,7 +4151,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="17" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" s="17" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A12" s="17" t="s">
         <v>215</v>
       </c>
@@ -3855,16 +4162,16 @@
         <v>16</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="F12" s="18" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="G12" s="17" t="s">
         <v>216</v>
       </c>
       <c r="H12" s="17" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="I12" s="17" t="s">
         <v>254</v>
@@ -3876,7 +4183,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="17" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" s="17" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A13" s="17" t="s">
         <v>217</v>
       </c>
@@ -3887,16 +4194,16 @@
         <v>16</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="F13" s="18" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="G13" s="17" t="s">
         <v>218</v>
       </c>
       <c r="H13" s="17" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="I13" s="17" t="s">
         <v>254</v>
@@ -3908,7 +4215,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="17" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" s="17" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A14" s="17" t="s">
         <v>219</v>
       </c>
@@ -3919,16 +4226,16 @@
         <v>16</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="F14" s="18" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="G14" s="17" t="s">
         <v>220</v>
       </c>
       <c r="H14" s="17" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="I14" s="17" t="s">
         <v>254</v>
@@ -3940,8 +4247,8 @@
         <v>247</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:13" s="15" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:13" s="15" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A16" s="15" t="s">
         <v>221</v>
       </c>
@@ -3952,16 +4259,16 @@
         <v>16</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="G16" s="15" t="s">
         <v>226</v>
       </c>
       <c r="H16" s="15" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="I16" s="15" t="s">
         <v>255</v>
@@ -3970,7 +4277,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="17" spans="1:12" s="17" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" s="17" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A17" s="17" t="s">
         <v>222</v>
       </c>
@@ -3981,16 +4288,16 @@
         <v>16</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="F17" s="18" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="G17" s="17" t="s">
         <v>227</v>
       </c>
       <c r="H17" s="17" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="I17" s="17" t="s">
         <v>254</v>
@@ -4002,7 +4309,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="18" spans="1:12" s="17" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" s="17" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A18" s="17" t="s">
         <v>223</v>
       </c>
@@ -4013,16 +4320,16 @@
         <v>16</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="F18" s="18" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="G18" s="17" t="s">
         <v>228</v>
       </c>
       <c r="H18" s="17" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="I18" s="17" t="s">
         <v>254</v>
@@ -4034,7 +4341,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="19" spans="1:12" s="15" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" s="15" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A19" s="15" t="s">
         <v>224</v>
       </c>
@@ -4045,16 +4352,16 @@
         <v>16</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="F19" s="16" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="G19" s="15" t="s">
         <v>229</v>
       </c>
       <c r="H19" s="15" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="I19" s="15" t="s">
         <v>255</v>
@@ -4063,7 +4370,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="20" spans="1:12" s="15" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" s="15" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A20" s="15" t="s">
         <v>225</v>
       </c>
@@ -4074,16 +4381,16 @@
         <v>16</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="G20" s="15" t="s">
         <v>230</v>
       </c>
       <c r="H20" s="15" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="I20" s="15" t="s">
         <v>255</v>
@@ -4106,42 +4413,42 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.140625" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" customWidth="1"/>
+    <col min="1" max="1" width="26.109375" customWidth="1"/>
+    <col min="2" max="2" width="17.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>362</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="26"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>363</v>
+      </c>
+      <c r="B4" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>364</v>
-      </c>
-      <c r="B1" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>365</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="26"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>366</v>
-      </c>
-      <c r="B4" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>367</v>
       </c>
       <c r="B5" s="25">
         <v>1234</v>
@@ -4163,31 +4470,28 @@
   </sheetPr>
   <dimension ref="A1:O17"/>
   <sheetViews>
-    <sheetView topLeftCell="E16" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:N17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.7109375" style="23" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="23" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.28515625" style="23" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.7109375" style="23" customWidth="1"/>
-    <col min="6" max="6" width="29.28515625" style="23" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27" style="23" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.6640625" style="23" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" style="23" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.88671875" style="23" customWidth="1"/>
+    <col min="6" max="6" width="29.33203125" style="23" customWidth="1"/>
+    <col min="7" max="8" width="27" style="23" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13" style="23" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.42578125" style="23" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.85546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="25" style="23" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.85546875" style="23"/>
+    <col min="10" max="10" width="9.109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="18.88671875" style="23" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.5546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="25" style="23" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.88671875" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -4201,586 +4505,552 @@
         <v>10</v>
       </c>
       <c r="E1" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="M1" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="N1" s="20" t="s">
         <v>270</v>
       </c>
-      <c r="F1" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="H1" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="M1" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="N1" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="O1" s="20" t="s">
+      <c r="O1" s="19"/>
+    </row>
+    <row r="2" spans="1:15" ht="72" x14ac:dyDescent="0.3">
+      <c r="A2" s="21" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" ht="137.44999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+      <c r="B2" s="21" t="s">
         <v>272</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="C2" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="22" t="s">
         <v>273</v>
       </c>
-      <c r="C2" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="22" t="s">
+      <c r="E2" s="22" t="s">
         <v>274</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="F2" s="21"/>
+      <c r="G2" s="22" t="s">
         <v>275</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="H2" s="21"/>
+      <c r="I2" s="21" t="s">
         <v>276</v>
       </c>
-      <c r="G2" s="21"/>
-      <c r="H2" s="22" t="s">
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21" t="s">
         <v>277</v>
       </c>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21" t="s">
+      <c r="M2" s="21"/>
+      <c r="N2" s="23" t="s">
         <v>278</v>
       </c>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21" t="s">
+      <c r="O2" s="22"/>
+    </row>
+    <row r="3" spans="1:15" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="21" t="s">
         <v>279</v>
       </c>
-      <c r="N2" s="21"/>
-      <c r="O2" s="23" t="s">
+      <c r="B3" s="21" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" ht="105" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
+      <c r="C3" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>273</v>
+      </c>
+      <c r="E3" s="22" t="s">
         <v>281</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="F3" s="21"/>
+      <c r="G3" s="22" t="s">
         <v>282</v>
       </c>
-      <c r="C3" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="22" t="s">
-        <v>274</v>
-      </c>
-      <c r="E3" s="22" t="s">
-        <v>275</v>
-      </c>
-      <c r="F3" s="22" t="s">
+      <c r="H3" s="21"/>
+      <c r="I3" s="21" t="s">
+        <v>276</v>
+      </c>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21" t="s">
+        <v>277</v>
+      </c>
+      <c r="M3" s="21"/>
+      <c r="O3" s="22"/>
+    </row>
+    <row r="4" spans="1:15" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="21" t="s">
         <v>283</v>
       </c>
-      <c r="G3" s="21"/>
-      <c r="H3" s="22" t="s">
+      <c r="B4" s="21" t="s">
         <v>284</v>
       </c>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21" t="s">
-        <v>278</v>
-      </c>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21" t="s">
-        <v>279</v>
-      </c>
-      <c r="N3" s="21"/>
-    </row>
-    <row r="4" spans="1:15" ht="122.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
+      <c r="C4" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>273</v>
+      </c>
+      <c r="E4" s="22" t="s">
         <v>285</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="F4" s="21"/>
+      <c r="G4" s="22" t="s">
         <v>286</v>
       </c>
-      <c r="C4" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="22" t="s">
-        <v>274</v>
-      </c>
-      <c r="E4" s="22" t="s">
-        <v>275</v>
-      </c>
-      <c r="F4" s="22" t="s">
+      <c r="H4" s="21"/>
+      <c r="I4" s="21" t="s">
+        <v>276</v>
+      </c>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21" t="s">
+        <v>277</v>
+      </c>
+      <c r="M4" s="21"/>
+      <c r="O4" s="22"/>
+    </row>
+    <row r="5" spans="1:15" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="21" t="s">
         <v>287</v>
       </c>
-      <c r="G4" s="21"/>
-      <c r="H4" s="22" t="s">
+      <c r="B5" s="21" t="s">
         <v>288</v>
       </c>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21" t="s">
-        <v>278</v>
-      </c>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21" t="s">
-        <v>279</v>
-      </c>
-      <c r="N4" s="21"/>
-    </row>
-    <row r="5" spans="1:15" ht="120" x14ac:dyDescent="0.25">
-      <c r="A5" s="21" t="s">
+      <c r="C5" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>273</v>
+      </c>
+      <c r="E5" s="22" t="s">
         <v>289</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="F5" s="21"/>
+      <c r="G5" s="22" t="s">
         <v>290</v>
       </c>
-      <c r="C5" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="22" t="s">
-        <v>274</v>
-      </c>
-      <c r="E5" s="22" t="s">
-        <v>275</v>
-      </c>
-      <c r="F5" s="22" t="s">
+      <c r="H5" s="21"/>
+      <c r="I5" s="21" t="s">
+        <v>276</v>
+      </c>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21" t="s">
+        <v>277</v>
+      </c>
+      <c r="M5" s="21"/>
+      <c r="O5" s="22"/>
+    </row>
+    <row r="6" spans="1:15" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="21" t="s">
         <v>291</v>
       </c>
-      <c r="G5" s="21"/>
-      <c r="H5" s="22" t="s">
+      <c r="B6" s="21" t="s">
         <v>292</v>
       </c>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21" t="s">
-        <v>278</v>
-      </c>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21" t="s">
-        <v>279</v>
-      </c>
-      <c r="N5" s="21"/>
-    </row>
-    <row r="6" spans="1:15" ht="105" x14ac:dyDescent="0.25">
-      <c r="A6" s="21" t="s">
+      <c r="C6" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>273</v>
+      </c>
+      <c r="E6" s="22" t="s">
         <v>293</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="F6" s="21"/>
+      <c r="G6" s="22" t="s">
         <v>294</v>
       </c>
-      <c r="C6" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="22" t="s">
-        <v>274</v>
-      </c>
-      <c r="E6" s="22" t="s">
-        <v>275</v>
-      </c>
-      <c r="F6" s="22" t="s">
+      <c r="H6" s="21"/>
+      <c r="I6" s="21" t="s">
+        <v>276</v>
+      </c>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21" t="s">
+        <v>277</v>
+      </c>
+      <c r="M6" s="21"/>
+      <c r="O6" s="22"/>
+    </row>
+    <row r="7" spans="1:15" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A7" s="21" t="s">
         <v>295</v>
       </c>
-      <c r="G6" s="21"/>
-      <c r="H6" s="22" t="s">
+      <c r="B7" s="21" t="s">
         <v>296</v>
       </c>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21" t="s">
-        <v>278</v>
-      </c>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="21" t="s">
-        <v>279</v>
-      </c>
-      <c r="N6" s="21"/>
-    </row>
-    <row r="7" spans="1:15" ht="120" x14ac:dyDescent="0.25">
-      <c r="A7" s="21" t="s">
+      <c r="C7" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>273</v>
+      </c>
+      <c r="E7" s="22" t="s">
         <v>297</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="F7" s="21"/>
+      <c r="G7" s="22" t="s">
         <v>298</v>
       </c>
-      <c r="C7" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="22" t="s">
-        <v>274</v>
-      </c>
-      <c r="E7" s="22" t="s">
-        <v>275</v>
-      </c>
-      <c r="F7" s="22" t="s">
+      <c r="H7" s="21"/>
+      <c r="I7" s="21" t="s">
+        <v>276</v>
+      </c>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21" t="s">
+        <v>277</v>
+      </c>
+      <c r="M7" s="21"/>
+      <c r="O7" s="22"/>
+    </row>
+    <row r="8" spans="1:15" ht="72" x14ac:dyDescent="0.3">
+      <c r="A8" s="21" t="s">
         <v>299</v>
       </c>
-      <c r="G7" s="21"/>
-      <c r="H7" s="22" t="s">
+      <c r="B8" s="22" t="s">
         <v>300</v>
       </c>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21" t="s">
-        <v>278</v>
-      </c>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21" t="s">
-        <v>279</v>
-      </c>
-      <c r="N7" s="21"/>
-    </row>
-    <row r="8" spans="1:15" ht="105" x14ac:dyDescent="0.25">
-      <c r="A8" s="21" t="s">
+      <c r="C8" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>273</v>
+      </c>
+      <c r="E8" s="22" t="s">
         <v>301</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="F8" s="21"/>
+      <c r="G8" s="22" t="s">
         <v>302</v>
       </c>
-      <c r="C8" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="22" t="s">
-        <v>274</v>
-      </c>
-      <c r="E8" s="22" t="s">
-        <v>275</v>
-      </c>
-      <c r="F8" s="22" t="s">
+      <c r="H8" s="21"/>
+      <c r="I8" s="21" t="s">
+        <v>276</v>
+      </c>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21" t="s">
+        <v>277</v>
+      </c>
+      <c r="M8" s="21"/>
+      <c r="O8" s="22"/>
+    </row>
+    <row r="9" spans="1:15" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A9" s="21" t="s">
         <v>303</v>
       </c>
-      <c r="G8" s="21"/>
-      <c r="H8" s="22" t="s">
+      <c r="B9" s="22" t="s">
         <v>304</v>
       </c>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21" t="s">
-        <v>278</v>
-      </c>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="21" t="s">
-        <v>279</v>
-      </c>
-      <c r="N8" s="21"/>
-    </row>
-    <row r="9" spans="1:15" ht="105" x14ac:dyDescent="0.25">
-      <c r="A9" s="21" t="s">
+      <c r="C9" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>273</v>
+      </c>
+      <c r="E9" s="22" t="s">
         <v>305</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="F9" s="21"/>
+      <c r="G9" s="22" t="s">
         <v>306</v>
       </c>
-      <c r="C9" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="22" t="s">
-        <v>274</v>
-      </c>
-      <c r="E9" s="22" t="s">
-        <v>275</v>
-      </c>
-      <c r="F9" s="22" t="s">
+      <c r="H9" s="21"/>
+      <c r="I9" s="21" t="s">
+        <v>276</v>
+      </c>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21" t="s">
+        <v>277</v>
+      </c>
+      <c r="M9" s="21"/>
+      <c r="O9" s="22"/>
+    </row>
+    <row r="10" spans="1:15" ht="144" x14ac:dyDescent="0.3">
+      <c r="A10" s="21" t="s">
         <v>307</v>
       </c>
-      <c r="G9" s="21"/>
-      <c r="H9" s="22" t="s">
+      <c r="B10" s="22" t="s">
         <v>308</v>
       </c>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21" t="s">
-        <v>278</v>
-      </c>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="21" t="s">
-        <v>279</v>
-      </c>
-      <c r="N9" s="21"/>
-    </row>
-    <row r="10" spans="1:15" ht="120" x14ac:dyDescent="0.25">
-      <c r="A10" s="21" t="s">
+      <c r="C10" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>273</v>
+      </c>
+      <c r="E10" s="22" t="s">
         <v>309</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="F10" s="21"/>
+      <c r="G10" s="22" t="s">
         <v>310</v>
       </c>
-      <c r="C10" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="22" t="s">
-        <v>274</v>
-      </c>
-      <c r="E10" s="22" t="s">
-        <v>275</v>
-      </c>
-      <c r="F10" s="22" t="s">
+      <c r="H10" s="21"/>
+      <c r="I10" s="21" t="s">
+        <v>276</v>
+      </c>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21" t="s">
+        <v>277</v>
+      </c>
+      <c r="M10" s="21"/>
+      <c r="O10" s="22"/>
+    </row>
+    <row r="11" spans="1:15" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="21" t="s">
         <v>311</v>
       </c>
-      <c r="G10" s="21"/>
-      <c r="H10" s="22" t="s">
+      <c r="B11" s="22" t="s">
         <v>312</v>
       </c>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21" t="s">
-        <v>278</v>
-      </c>
-      <c r="K10" s="21"/>
-      <c r="L10" s="21"/>
-      <c r="M10" s="21" t="s">
-        <v>279</v>
-      </c>
-      <c r="N10" s="21"/>
-    </row>
-    <row r="11" spans="1:15" ht="120" x14ac:dyDescent="0.25">
-      <c r="A11" s="21" t="s">
+      <c r="C11" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>273</v>
+      </c>
+      <c r="E11" s="22" t="s">
         <v>313</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="F11" s="21"/>
+      <c r="G11" s="22" t="s">
         <v>314</v>
       </c>
-      <c r="C11" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="22" t="s">
-        <v>274</v>
-      </c>
-      <c r="E11" s="22" t="s">
-        <v>275</v>
-      </c>
-      <c r="F11" s="22" t="s">
+      <c r="H11" s="21"/>
+      <c r="I11" s="21" t="s">
+        <v>276</v>
+      </c>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21" t="s">
+        <v>277</v>
+      </c>
+      <c r="M11" s="21"/>
+      <c r="O11" s="22"/>
+    </row>
+    <row r="12" spans="1:15" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="21" t="s">
         <v>315</v>
       </c>
-      <c r="G11" s="21"/>
-      <c r="H11" s="22" t="s">
+      <c r="B12" s="22" t="s">
         <v>316</v>
       </c>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21" t="s">
-        <v>278</v>
-      </c>
-      <c r="K11" s="21"/>
-      <c r="L11" s="21"/>
-      <c r="M11" s="21" t="s">
-        <v>279</v>
-      </c>
-      <c r="N11" s="21"/>
-    </row>
-    <row r="12" spans="1:15" ht="120" x14ac:dyDescent="0.25">
-      <c r="A12" s="21" t="s">
+      <c r="C12" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>273</v>
+      </c>
+      <c r="E12" s="22" t="s">
         <v>317</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="F12" s="21"/>
+      <c r="G12" s="22" t="s">
         <v>318</v>
       </c>
-      <c r="C12" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="22" t="s">
-        <v>274</v>
-      </c>
-      <c r="E12" s="22" t="s">
-        <v>275</v>
-      </c>
-      <c r="F12" s="22" t="s">
+      <c r="H12" s="21"/>
+      <c r="I12" s="21" t="s">
+        <v>276</v>
+      </c>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21" t="s">
+        <v>277</v>
+      </c>
+      <c r="M12" s="21"/>
+      <c r="O12" s="22"/>
+    </row>
+    <row r="13" spans="1:15" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A13" s="21" t="s">
         <v>319</v>
       </c>
-      <c r="G12" s="21"/>
-      <c r="H12" s="22" t="s">
+      <c r="B13" s="21" t="s">
         <v>320</v>
       </c>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21" t="s">
-        <v>278</v>
-      </c>
-      <c r="K12" s="21"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="21" t="s">
-        <v>279</v>
-      </c>
-      <c r="N12" s="21"/>
-    </row>
-    <row r="13" spans="1:15" ht="135" x14ac:dyDescent="0.25">
-      <c r="A13" s="21" t="s">
+      <c r="C13" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>273</v>
+      </c>
+      <c r="E13" s="22" t="s">
         <v>321</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="F13" s="21"/>
+      <c r="G13" s="22" t="s">
         <v>322</v>
       </c>
-      <c r="C13" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="22" t="s">
-        <v>274</v>
-      </c>
-      <c r="E13" s="22" t="s">
-        <v>275</v>
-      </c>
-      <c r="F13" s="22" t="s">
+      <c r="H13" s="21"/>
+      <c r="I13" s="21" t="s">
+        <v>276</v>
+      </c>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21" t="s">
+        <v>277</v>
+      </c>
+      <c r="M13" s="21"/>
+      <c r="N13" s="23" t="s">
         <v>323</v>
       </c>
-      <c r="G13" s="21"/>
-      <c r="H13" s="22" t="s">
+      <c r="O13" s="22"/>
+    </row>
+    <row r="14" spans="1:15" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="21" t="s">
         <v>324</v>
       </c>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21" t="s">
-        <v>278</v>
-      </c>
-      <c r="K13" s="21"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="21" t="s">
-        <v>279</v>
-      </c>
-      <c r="N13" s="21"/>
-      <c r="O13" s="23" t="s">
+      <c r="B14" s="21" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" ht="141" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="21" t="s">
+      <c r="C14" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>273</v>
+      </c>
+      <c r="E14" s="22" t="s">
         <v>326</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="F14" s="21"/>
+      <c r="G14" s="22" t="s">
         <v>327</v>
       </c>
-      <c r="C14" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="22" t="s">
-        <v>274</v>
-      </c>
-      <c r="E14" s="22" t="s">
-        <v>275</v>
-      </c>
-      <c r="F14" s="22" t="s">
+      <c r="H14" s="21"/>
+      <c r="I14" s="21" t="s">
+        <v>276</v>
+      </c>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21" t="s">
+        <v>277</v>
+      </c>
+      <c r="M14" s="21"/>
+      <c r="O14" s="22"/>
+    </row>
+    <row r="15" spans="1:15" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="21" t="s">
         <v>328</v>
       </c>
-      <c r="G14" s="21"/>
-      <c r="H14" s="22" t="s">
+      <c r="B15" s="21" t="s">
         <v>329</v>
       </c>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21" t="s">
-        <v>278</v>
-      </c>
-      <c r="K14" s="21"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="21" t="s">
-        <v>279</v>
-      </c>
-      <c r="N14" s="21"/>
-    </row>
-    <row r="15" spans="1:15" ht="120" x14ac:dyDescent="0.25">
-      <c r="A15" s="21" t="s">
+      <c r="C15" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>273</v>
+      </c>
+      <c r="E15" s="22" t="s">
         <v>330</v>
       </c>
-      <c r="B15" s="21" t="s">
+      <c r="F15" s="21"/>
+      <c r="G15" s="22" t="s">
         <v>331</v>
       </c>
-      <c r="C15" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="22" t="s">
-        <v>274</v>
-      </c>
-      <c r="E15" s="22" t="s">
-        <v>275</v>
-      </c>
-      <c r="F15" s="22" t="s">
+      <c r="H15" s="21"/>
+      <c r="I15" s="21" t="s">
+        <v>276</v>
+      </c>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21" t="s">
+        <v>277</v>
+      </c>
+      <c r="M15" s="21"/>
+      <c r="O15" s="22"/>
+    </row>
+    <row r="16" spans="1:15" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="21" t="s">
         <v>332</v>
       </c>
-      <c r="G15" s="21"/>
-      <c r="H15" s="22" t="s">
+      <c r="B16" s="22" t="s">
         <v>333</v>
       </c>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21" t="s">
-        <v>278</v>
-      </c>
-      <c r="K15" s="21"/>
-      <c r="L15" s="21"/>
-      <c r="M15" s="21" t="s">
-        <v>279</v>
-      </c>
-      <c r="N15" s="21"/>
-    </row>
-    <row r="16" spans="1:15" ht="120" x14ac:dyDescent="0.25">
-      <c r="A16" s="21" t="s">
+      <c r="C16" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>273</v>
+      </c>
+      <c r="E16" s="22" t="s">
         <v>334</v>
       </c>
-      <c r="B16" s="22" t="s">
+      <c r="F16" s="21"/>
+      <c r="G16" s="22" t="s">
         <v>335</v>
       </c>
-      <c r="C16" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="22" t="s">
-        <v>274</v>
-      </c>
-      <c r="E16" s="22" t="s">
-        <v>275</v>
-      </c>
-      <c r="F16" s="22" t="s">
+      <c r="H16" s="21"/>
+      <c r="I16" s="21" t="s">
+        <v>276</v>
+      </c>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21" t="s">
+        <v>277</v>
+      </c>
+      <c r="M16" s="21"/>
+      <c r="O16" s="22"/>
+    </row>
+    <row r="17" spans="1:15" ht="144" x14ac:dyDescent="0.3">
+      <c r="A17" s="21" t="s">
         <v>336</v>
       </c>
-      <c r="G16" s="21"/>
-      <c r="H16" s="22" t="s">
+      <c r="B17" s="22" t="s">
+        <v>398</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>273</v>
+      </c>
+      <c r="E17" s="22" t="s">
         <v>337</v>
       </c>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21" t="s">
-        <v>278</v>
-      </c>
-      <c r="K16" s="21"/>
-      <c r="L16" s="21"/>
-      <c r="M16" s="21" t="s">
-        <v>279</v>
-      </c>
-      <c r="N16" s="21"/>
-    </row>
-    <row r="17" spans="1:13" ht="150" x14ac:dyDescent="0.25">
-      <c r="A17" s="21" t="s">
-        <v>339</v>
-      </c>
-      <c r="B17" s="22" t="s">
+      <c r="G17" s="24" t="s">
         <v>338</v>
       </c>
-      <c r="C17" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="22" t="s">
-        <v>274</v>
-      </c>
-      <c r="E17" s="22" t="s">
-        <v>275</v>
-      </c>
-      <c r="F17" s="22" t="s">
-        <v>340</v>
-      </c>
-      <c r="H17" s="24" t="s">
-        <v>341</v>
-      </c>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21" t="s">
-        <v>278</v>
-      </c>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21" t="s">
+        <v>276</v>
+      </c>
+      <c r="J17" s="21"/>
       <c r="K17" s="21"/>
-      <c r="L17" s="21"/>
-      <c r="M17" s="21" t="s">
-        <v>279</v>
-      </c>
+      <c r="L17" s="21" t="s">
+        <v>277</v>
+      </c>
+      <c r="O17" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4795,22 +5065,22 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.28515625" customWidth="1"/>
-    <col min="2" max="2" width="48.140625" customWidth="1"/>
+    <col min="1" max="1" width="29.33203125" customWidth="1"/>
+    <col min="2" max="2" width="48.109375" customWidth="1"/>
     <col min="3" max="4" width="22" customWidth="1"/>
-    <col min="5" max="6" width="51.140625" customWidth="1"/>
-    <col min="7" max="7" width="33.140625" customWidth="1"/>
-    <col min="8" max="8" width="23.140625" customWidth="1"/>
-    <col min="9" max="9" width="19.42578125" customWidth="1"/>
-    <col min="10" max="10" width="33.42578125" customWidth="1"/>
-    <col min="11" max="11" width="39.42578125" customWidth="1"/>
+    <col min="5" max="6" width="51.109375" customWidth="1"/>
+    <col min="7" max="7" width="33.109375" customWidth="1"/>
+    <col min="8" max="8" width="23.109375" customWidth="1"/>
+    <col min="9" max="9" width="19.44140625" customWidth="1"/>
+    <col min="10" max="10" width="33.44140625" customWidth="1"/>
+    <col min="11" max="11" width="39.44140625" customWidth="1"/>
     <col min="12" max="12" width="28" style="5" customWidth="1"/>
-    <col min="13" max="13" width="31.140625" style="5" customWidth="1"/>
+    <col min="13" max="13" width="31.109375" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4851,7 +5121,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -4878,7 +5148,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -4905,13 +5175,13 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="F15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="21" x14ac:dyDescent="0.3">
       <c r="F16" s="10"/>
     </row>
-    <row r="17" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F17" s="9"/>
     </row>
   </sheetData>

--- a/Testing/Test Cases/TAWA_TestCases.xlsx
+++ b/Testing/Test Cases/TAWA_TestCases.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="403">
   <si>
     <t>ID</t>
   </si>
@@ -1135,16 +1135,6 @@
   </si>
   <si>
     <t>TAWA_BOOKING_02</t>
-  </si>
-  <si>
-    <t>Validate the options in "Level of services" list</t>
-  </si>
-  <si>
-    <t>1) Open Homepage
-2) Click on "Read More" button located beside any destination
-3) Click on "Book Now" button
-4) Click on "Level of services" dropdown list
-5) Check the list options</t>
   </si>
   <si>
     <t>Dropdown list shall contain 
@@ -1627,6 +1617,32 @@
   <si>
     <t>Validate that trip appear in the "Reserved flights" page once
 user books it</t>
+  </si>
+  <si>
+    <t>Validate the options in "different airlins" list</t>
+  </si>
+  <si>
+    <t>1) Open Homepage
+2) Click on "Read More" button located beside any destination
+3) Click on "Book Now" button
+4) Click on "different airlines" dropdown list
+5) Check the list options</t>
+  </si>
+  <si>
+    <t>TAWA_BOOKING_17</t>
+  </si>
+  <si>
+    <t>Validate the options in "level of serives" list</t>
+  </si>
+  <si>
+    <t>1) Open Homepage
+2) Click on "Read More" button located beside any destination
+3) Click on "Book Now" button
+4) Click on "level of serives" dropdown list
+5) Check the list options</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The ‘Level of services’ shall be ‘Economy’ , ‘Business’ or ‘Luxurious’.</t>
   </si>
 </sst>
 </file>
@@ -2175,23 +2191,23 @@
     </row>
     <row r="2" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
+        <v>369</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>370</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="22" t="s">
         <v>371</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="E2" s="22" t="s">
         <v>372</v>
-      </c>
-      <c r="C2" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="22" t="s">
-        <v>373</v>
-      </c>
-      <c r="E2" s="22" t="s">
-        <v>374</v>
       </c>
       <c r="F2" s="21"/>
       <c r="G2" s="22" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="H2" s="21" t="s">
         <v>276</v>
@@ -2206,22 +2222,22 @@
     </row>
     <row r="3" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A3" s="21" t="s">
+        <v>374</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>375</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="22" t="s">
         <v>376</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="E3" s="22" t="s">
         <v>377</v>
       </c>
-      <c r="C3" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="22" t="s">
+      <c r="G3" s="21" t="s">
         <v>378</v>
-      </c>
-      <c r="E3" s="22" t="s">
-        <v>379</v>
-      </c>
-      <c r="G3" s="21" t="s">
-        <v>380</v>
       </c>
       <c r="H3" s="21" t="s">
         <v>276</v>
@@ -2236,22 +2252,22 @@
     </row>
     <row r="4" spans="1:14" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A4" s="21" t="s">
+        <v>379</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>380</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>371</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>377</v>
+      </c>
+      <c r="G4" s="22" t="s">
         <v>381</v>
-      </c>
-      <c r="B4" s="22" t="s">
-        <v>382</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="22" t="s">
-        <v>373</v>
-      </c>
-      <c r="E4" s="22" t="s">
-        <v>379</v>
-      </c>
-      <c r="G4" s="22" t="s">
-        <v>383</v>
       </c>
       <c r="H4" s="21" t="s">
         <v>276</v>
@@ -2266,22 +2282,22 @@
     </row>
     <row r="5" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="21" t="s">
+        <v>382</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>383</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>371</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>377</v>
+      </c>
+      <c r="G5" s="22" t="s">
         <v>384</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>385</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="22" t="s">
-        <v>373</v>
-      </c>
-      <c r="E5" s="22" t="s">
-        <v>379</v>
-      </c>
-      <c r="G5" s="22" t="s">
-        <v>386</v>
       </c>
       <c r="H5" s="21" t="s">
         <v>276</v>
@@ -2296,22 +2312,22 @@
     </row>
     <row r="6" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="21" t="s">
+        <v>385</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>386</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>371</v>
+      </c>
+      <c r="E6" s="22" t="s">
         <v>387</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="G6" s="22" t="s">
         <v>388</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="22" t="s">
-        <v>373</v>
-      </c>
-      <c r="E6" s="22" t="s">
-        <v>389</v>
-      </c>
-      <c r="G6" s="22" t="s">
-        <v>390</v>
       </c>
       <c r="H6" s="21" t="s">
         <v>276</v>
@@ -2326,22 +2342,22 @@
     </row>
     <row r="7" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="21" t="s">
+        <v>389</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>390</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>371</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>387</v>
+      </c>
+      <c r="G7" s="22" t="s">
         <v>391</v>
-      </c>
-      <c r="B7" s="22" t="s">
-        <v>392</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="22" t="s">
-        <v>373</v>
-      </c>
-      <c r="E7" s="22" t="s">
-        <v>389</v>
-      </c>
-      <c r="G7" s="22" t="s">
-        <v>393</v>
       </c>
       <c r="H7" s="21" t="s">
         <v>276</v>
@@ -2356,22 +2372,22 @@
     </row>
     <row r="8" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A8" s="21" t="s">
+        <v>392</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>393</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>371</v>
+      </c>
+      <c r="E8" s="22" t="s">
         <v>394</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="G8" s="21" t="s">
         <v>395</v>
-      </c>
-      <c r="C8" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="22" t="s">
-        <v>373</v>
-      </c>
-      <c r="E8" s="22" t="s">
-        <v>396</v>
-      </c>
-      <c r="G8" s="21" t="s">
-        <v>397</v>
       </c>
       <c r="H8" s="21" t="s">
         <v>276</v>
@@ -3894,7 +3910,7 @@
         <v>16</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F2" s="16" t="s">
         <v>250</v>
@@ -3923,7 +3939,7 @@
         <v>16</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F3" s="16" t="s">
         <v>251</v>
@@ -3952,7 +3968,7 @@
         <v>16</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F4" s="16" t="s">
         <v>264</v>
@@ -3981,7 +3997,7 @@
         <v>16</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F5" s="18" t="s">
         <v>265</v>
@@ -4013,7 +4029,7 @@
         <v>16</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F6" s="16" t="s">
         <v>267</v>
@@ -4042,16 +4058,16 @@
         <v>16</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F7" s="18" t="s">
+        <v>337</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>338</v>
+      </c>
+      <c r="H7" s="17" t="s">
         <v>339</v>
-      </c>
-      <c r="G7" s="17" t="s">
-        <v>340</v>
-      </c>
-      <c r="H7" s="17" t="s">
-        <v>341</v>
       </c>
       <c r="I7" s="17" t="s">
         <v>254</v>
@@ -4074,16 +4090,16 @@
         <v>16</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F8" s="16" t="s">
+        <v>340</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>341</v>
+      </c>
+      <c r="H8" s="15" t="s">
         <v>342</v>
-      </c>
-      <c r="G8" s="15" t="s">
-        <v>343</v>
-      </c>
-      <c r="H8" s="15" t="s">
-        <v>344</v>
       </c>
       <c r="I8" s="15" t="s">
         <v>255</v>
@@ -4095,7 +4111,7 @@
     <row r="9" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:13" s="15" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10" s="16" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B10" s="15" t="s">
         <v>237</v>
@@ -4104,16 +4120,16 @@
         <v>16</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="H10" s="15" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="I10" s="15" t="s">
         <v>255</v>
@@ -4133,16 +4149,16 @@
         <v>16</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="G11" s="15" t="s">
         <v>253</v>
       </c>
       <c r="H11" s="15" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="I11" s="15" t="s">
         <v>255</v>
@@ -4162,16 +4178,16 @@
         <v>16</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F12" s="18" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="G12" s="17" t="s">
         <v>216</v>
       </c>
       <c r="H12" s="17" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="I12" s="17" t="s">
         <v>254</v>
@@ -4194,16 +4210,16 @@
         <v>16</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F13" s="18" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="G13" s="17" t="s">
         <v>218</v>
       </c>
       <c r="H13" s="17" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="I13" s="17" t="s">
         <v>254</v>
@@ -4226,16 +4242,16 @@
         <v>16</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F14" s="18" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="G14" s="17" t="s">
         <v>220</v>
       </c>
       <c r="H14" s="17" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="I14" s="17" t="s">
         <v>254</v>
@@ -4259,16 +4275,16 @@
         <v>16</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G16" s="15" t="s">
         <v>226</v>
       </c>
       <c r="H16" s="15" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="I16" s="15" t="s">
         <v>255</v>
@@ -4288,16 +4304,16 @@
         <v>16</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F17" s="18" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="G17" s="17" t="s">
         <v>227</v>
       </c>
       <c r="H17" s="17" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="I17" s="17" t="s">
         <v>254</v>
@@ -4320,16 +4336,16 @@
         <v>16</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F18" s="18" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="G18" s="17" t="s">
         <v>228</v>
       </c>
       <c r="H18" s="17" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="I18" s="17" t="s">
         <v>254</v>
@@ -4352,16 +4368,16 @@
         <v>16</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F19" s="16" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G19" s="15" t="s">
         <v>229</v>
       </c>
       <c r="H19" s="15" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="I19" s="15" t="s">
         <v>255</v>
@@ -4381,16 +4397,16 @@
         <v>16</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="G20" s="15" t="s">
         <v>230</v>
       </c>
       <c r="H20" s="15" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="I20" s="15" t="s">
         <v>255</v>
@@ -4421,18 +4437,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="3" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -4440,15 +4456,15 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B4" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B5" s="25">
         <v>1234</v>
@@ -4468,10 +4484,10 @@
   <sheetPr>
     <tabColor theme="5"/>
   </sheetPr>
-  <dimension ref="A1:O17"/>
+  <dimension ref="A1:O18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:N17"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4576,7 +4592,7 @@
         <v>279</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>280</v>
+        <v>400</v>
       </c>
       <c r="C3" s="21" t="s">
         <v>12</v>
@@ -4585,11 +4601,11 @@
         <v>273</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>281</v>
+        <v>401</v>
       </c>
       <c r="F3" s="21"/>
       <c r="G3" s="22" t="s">
-        <v>282</v>
+        <v>402</v>
       </c>
       <c r="H3" s="21"/>
       <c r="I3" s="21" t="s">
@@ -4605,10 +4621,10 @@
     </row>
     <row r="4" spans="1:15" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A4" s="21" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>284</v>
+        <v>397</v>
       </c>
       <c r="C4" s="21" t="s">
         <v>12</v>
@@ -4617,11 +4633,11 @@
         <v>273</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>285</v>
+        <v>398</v>
       </c>
       <c r="F4" s="21"/>
       <c r="G4" s="22" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="H4" s="21"/>
       <c r="I4" s="21" t="s">
@@ -4637,10 +4653,10 @@
     </row>
     <row r="5" spans="1:15" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A5" s="21" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="C5" s="21" t="s">
         <v>12</v>
@@ -4649,11 +4665,11 @@
         <v>273</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="F5" s="21"/>
       <c r="G5" s="22" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="H5" s="21"/>
       <c r="I5" s="21" t="s">
@@ -4669,10 +4685,10 @@
     </row>
     <row r="6" spans="1:15" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A6" s="21" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="C6" s="21" t="s">
         <v>12</v>
@@ -4681,11 +4697,11 @@
         <v>273</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="F6" s="21"/>
       <c r="G6" s="22" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="H6" s="21"/>
       <c r="I6" s="21" t="s">
@@ -4699,12 +4715,12 @@
       <c r="M6" s="21"/>
       <c r="O6" s="22"/>
     </row>
-    <row r="7" spans="1:15" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A7" s="21" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="C7" s="21" t="s">
         <v>12</v>
@@ -4713,11 +4729,11 @@
         <v>273</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="F7" s="21"/>
       <c r="G7" s="22" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="H7" s="21"/>
       <c r="I7" s="21" t="s">
@@ -4731,12 +4747,12 @@
       <c r="M7" s="21"/>
       <c r="O7" s="22"/>
     </row>
-    <row r="8" spans="1:15" ht="72" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A8" s="21" t="s">
-        <v>299</v>
-      </c>
-      <c r="B8" s="22" t="s">
-        <v>300</v>
+        <v>297</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>294</v>
       </c>
       <c r="C8" s="21" t="s">
         <v>12</v>
@@ -4745,11 +4761,11 @@
         <v>273</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="F8" s="21"/>
       <c r="G8" s="22" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="H8" s="21"/>
       <c r="I8" s="21" t="s">
@@ -4763,12 +4779,12 @@
       <c r="M8" s="21"/>
       <c r="O8" s="22"/>
     </row>
-    <row r="9" spans="1:15" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" ht="72" x14ac:dyDescent="0.3">
       <c r="A9" s="21" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="C9" s="21" t="s">
         <v>12</v>
@@ -4777,11 +4793,11 @@
         <v>273</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="F9" s="21"/>
       <c r="G9" s="22" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="H9" s="21"/>
       <c r="I9" s="21" t="s">
@@ -4795,12 +4811,12 @@
       <c r="M9" s="21"/>
       <c r="O9" s="22"/>
     </row>
-    <row r="10" spans="1:15" ht="144" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A10" s="21" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="C10" s="21" t="s">
         <v>12</v>
@@ -4809,11 +4825,11 @@
         <v>273</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="F10" s="21"/>
       <c r="G10" s="22" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="H10" s="21"/>
       <c r="I10" s="21" t="s">
@@ -4829,10 +4845,10 @@
     </row>
     <row r="11" spans="1:15" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A11" s="21" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="C11" s="21" t="s">
         <v>12</v>
@@ -4841,11 +4857,11 @@
         <v>273</v>
       </c>
       <c r="E11" s="22" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="F11" s="21"/>
       <c r="G11" s="22" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="H11" s="21"/>
       <c r="I11" s="21" t="s">
@@ -4861,10 +4877,10 @@
     </row>
     <row r="12" spans="1:15" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A12" s="21" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="C12" s="21" t="s">
         <v>12</v>
@@ -4873,11 +4889,11 @@
         <v>273</v>
       </c>
       <c r="E12" s="22" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="F12" s="21"/>
       <c r="G12" s="22" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="H12" s="21"/>
       <c r="I12" s="21" t="s">
@@ -4891,12 +4907,12 @@
       <c r="M12" s="21"/>
       <c r="O12" s="22"/>
     </row>
-    <row r="13" spans="1:15" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A13" s="21" t="s">
-        <v>319</v>
-      </c>
-      <c r="B13" s="21" t="s">
-        <v>320</v>
+        <v>317</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>314</v>
       </c>
       <c r="C13" s="21" t="s">
         <v>12</v>
@@ -4905,11 +4921,11 @@
         <v>273</v>
       </c>
       <c r="E13" s="22" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="F13" s="21"/>
       <c r="G13" s="22" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="H13" s="21"/>
       <c r="I13" s="21" t="s">
@@ -4921,17 +4937,14 @@
         <v>277</v>
       </c>
       <c r="M13" s="21"/>
-      <c r="N13" s="23" t="s">
-        <v>323</v>
-      </c>
       <c r="O13" s="22"/>
     </row>
     <row r="14" spans="1:15" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A14" s="21" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="C14" s="21" t="s">
         <v>12</v>
@@ -4940,11 +4953,11 @@
         <v>273</v>
       </c>
       <c r="E14" s="22" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="F14" s="21"/>
       <c r="G14" s="22" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="H14" s="21"/>
       <c r="I14" s="21" t="s">
@@ -4956,14 +4969,17 @@
         <v>277</v>
       </c>
       <c r="M14" s="21"/>
+      <c r="N14" s="23" t="s">
+        <v>321</v>
+      </c>
       <c r="O14" s="22"/>
     </row>
     <row r="15" spans="1:15" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A15" s="21" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="C15" s="21" t="s">
         <v>12</v>
@@ -4972,11 +4988,11 @@
         <v>273</v>
       </c>
       <c r="E15" s="22" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="F15" s="21"/>
       <c r="G15" s="22" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="H15" s="21"/>
       <c r="I15" s="21" t="s">
@@ -4990,12 +5006,12 @@
       <c r="M15" s="21"/>
       <c r="O15" s="22"/>
     </row>
-    <row r="16" spans="1:15" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A16" s="21" t="s">
-        <v>332</v>
-      </c>
-      <c r="B16" s="22" t="s">
-        <v>333</v>
+        <v>330</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>327</v>
       </c>
       <c r="C16" s="21" t="s">
         <v>12</v>
@@ -5004,11 +5020,11 @@
         <v>273</v>
       </c>
       <c r="E16" s="22" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="F16" s="21"/>
       <c r="G16" s="22" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="H16" s="21"/>
       <c r="I16" s="21" t="s">
@@ -5022,12 +5038,12 @@
       <c r="M16" s="21"/>
       <c r="O16" s="22"/>
     </row>
-    <row r="17" spans="1:15" ht="144" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A17" s="21" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>398</v>
+        <v>331</v>
       </c>
       <c r="C17" s="21" t="s">
         <v>12</v>
@@ -5036,10 +5052,11 @@
         <v>273</v>
       </c>
       <c r="E17" s="22" t="s">
-        <v>337</v>
-      </c>
-      <c r="G17" s="24" t="s">
-        <v>338</v>
+        <v>332</v>
+      </c>
+      <c r="F17" s="21"/>
+      <c r="G17" s="22" t="s">
+        <v>333</v>
       </c>
       <c r="H17" s="21"/>
       <c r="I17" s="21" t="s">
@@ -5050,10 +5067,41 @@
       <c r="L17" s="21" t="s">
         <v>277</v>
       </c>
+      <c r="M17" s="21"/>
       <c r="O17" s="22"/>
+    </row>
+    <row r="18" spans="1:15" ht="144" x14ac:dyDescent="0.3">
+      <c r="A18" s="21" t="s">
+        <v>399</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>396</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>273</v>
+      </c>
+      <c r="E18" s="22" t="s">
+        <v>335</v>
+      </c>
+      <c r="G18" s="24" t="s">
+        <v>336</v>
+      </c>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21" t="s">
+        <v>276</v>
+      </c>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="21" t="s">
+        <v>277</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 

--- a/Testing/Test Cases/TAWA_TestCases.xlsx
+++ b/Testing/Test Cases/TAWA_TestCases.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="396">
   <si>
     <t>ID</t>
   </si>
@@ -1023,9 +1023,6 @@
     <t>TAWA_Admin_018</t>
   </si>
   <si>
-    <t>TAWA_Admin_019</t>
-  </si>
-  <si>
     <t>Asmaa Hamdy</t>
   </si>
   <si>
@@ -1060,21 +1057,6 @@
   </si>
   <si>
     <t>TAWA_Admin_Bug_007</t>
-  </si>
-  <si>
-    <t>TAWA_Admin_Bug_012</t>
-  </si>
-  <si>
-    <t>TAWA_Admin_Bug_013</t>
-  </si>
-  <si>
-    <t>TAWA_Admin_Bug_014</t>
-  </si>
-  <si>
-    <t>TAWA_Admin_Bug_016</t>
-  </si>
-  <si>
-    <t>TAWA_Admin_Bug_017</t>
   </si>
   <si>
     <t xml:space="preserve">The user is added to the database </t>
@@ -1528,6 +1510,91 @@
   </si>
   <si>
     <t>asmaaadmin</t>
+  </si>
+  <si>
+    <t>TAWA_Admin_006</t>
+  </si>
+  <si>
+    <t>TAWA_Admin_011</t>
+  </si>
+  <si>
+    <t>Validating Adding user functionality</t>
+  </si>
+  <si>
+    <t>Validating the redirection to the "Add User form" Page</t>
+  </si>
+  <si>
+    <t>Validating the existence of the Add button</t>
+  </si>
+  <si>
+    <t>Validating the clickability of the Add button</t>
+  </si>
+  <si>
+    <t>Validating the functionality of the add button</t>
+  </si>
+  <si>
+    <t>Validating the user message in case of adding an existing user</t>
+  </si>
+  <si>
+    <t>Validating the success message in case of adding a new user</t>
+  </si>
+  <si>
+    <t>Validating the delete functionality</t>
+  </si>
+  <si>
+    <t>Validating the confirmation message before deleting the user</t>
+  </si>
+  <si>
+    <t>Validating the functionality of the "yes" button in the confirmation message</t>
+  </si>
+  <si>
+    <t>Validating the functionality of the "No" button in the confirmation message</t>
+  </si>
+  <si>
+    <t>Validating the existence of the list of users in the admin page</t>
+  </si>
+  <si>
+    <t>Validating the existence of "delete" button for each user</t>
+  </si>
+  <si>
+    <t>Validating the existence of "Edit" button for each user</t>
+  </si>
+  <si>
+    <t>Validating the clickability of the "Delete" button</t>
+  </si>
+  <si>
+    <t>Validating the clickability of the "Edit" button</t>
+  </si>
+  <si>
+    <t>TAWA_Admin_Bug_001</t>
+  </si>
+  <si>
+    <t>TAWA_Admin_Bug_002</t>
+  </si>
+  <si>
+    <t>TAWA_Admin_Bug_005</t>
+  </si>
+  <si>
+    <t>TAWA_Admin_Bug_006</t>
+  </si>
+  <si>
+    <t>TAWA_Admin_Bug_003</t>
+  </si>
+  <si>
+    <t>Validating the search functionality in users page</t>
+  </si>
+  <si>
+    <t>Validating the search functionality in users page in searching for a user that doesn't exist</t>
+  </si>
+  <si>
+    <t>1- Type a not existing username in the search bar
+2- Press search button</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The user shall  not be listed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The user isn't listed </t>
   </si>
 </sst>
 </file>
@@ -2048,7 +2115,7 @@
         <v>10</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>3</v>
@@ -3515,10 +3582,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M20"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3529,7 +3596,7 @@
     <col min="4" max="4" width="9.140625" customWidth="1"/>
     <col min="5" max="5" width="30.5703125" customWidth="1"/>
     <col min="6" max="6" width="34.42578125" customWidth="1"/>
-    <col min="7" max="7" width="41.42578125" customWidth="1"/>
+    <col min="7" max="7" width="46.7109375" customWidth="1"/>
     <col min="8" max="8" width="39.28515625" customWidth="1"/>
     <col min="9" max="9" width="14.7109375" customWidth="1"/>
     <col min="10" max="10" width="21.42578125" customWidth="1"/>
@@ -3583,26 +3650,29 @@
       <c r="B2" s="15" t="s">
         <v>205</v>
       </c>
+      <c r="C2" s="15" t="s">
+        <v>370</v>
+      </c>
       <c r="D2" s="15" t="s">
         <v>16</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="I2" s="15" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="L2" s="15" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="3" spans="1:13" s="15" customFormat="1" ht="60" x14ac:dyDescent="0.25">
@@ -3612,26 +3682,29 @@
       <c r="B3" s="15" t="s">
         <v>231</v>
       </c>
+      <c r="C3" s="15" t="s">
+        <v>371</v>
+      </c>
       <c r="D3" s="15" t="s">
         <v>16</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H3" s="15" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="L3" s="15" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="4" spans="1:13" s="15" customFormat="1" ht="60" x14ac:dyDescent="0.25">
@@ -3641,26 +3714,29 @@
       <c r="B4" s="15" t="s">
         <v>232</v>
       </c>
+      <c r="C4" s="15" t="s">
+        <v>372</v>
+      </c>
       <c r="D4" s="15" t="s">
         <v>16</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H4" s="15" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I4" s="15" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="L4" s="15" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="5" spans="1:13" s="17" customFormat="1" ht="60" x14ac:dyDescent="0.25">
@@ -3670,29 +3746,32 @@
       <c r="B5" s="17" t="s">
         <v>233</v>
       </c>
+      <c r="C5" s="17" t="s">
+        <v>373</v>
+      </c>
       <c r="D5" s="17" t="s">
         <v>16</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="G5" s="17" t="s">
         <v>210</v>
       </c>
       <c r="H5" s="17" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="I5" s="17" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="J5" s="17" t="s">
-        <v>256</v>
+        <v>386</v>
       </c>
       <c r="L5" s="17" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="6" spans="1:13" s="15" customFormat="1" ht="60" x14ac:dyDescent="0.25">
@@ -3702,26 +3781,29 @@
       <c r="B6" s="15" t="s">
         <v>234</v>
       </c>
+      <c r="C6" s="15" t="s">
+        <v>374</v>
+      </c>
       <c r="D6" s="15" t="s">
         <v>16</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="I6" s="15" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="L6" s="15" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="7" spans="1:13" s="17" customFormat="1" ht="60" x14ac:dyDescent="0.25">
@@ -3729,31 +3811,34 @@
         <v>212</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>235</v>
+        <v>368</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>375</v>
       </c>
       <c r="D7" s="17" t="s">
         <v>16</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="G7" s="17" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="H7" s="17" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="I7" s="17" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="J7" s="17" t="s">
-        <v>257</v>
+        <v>387</v>
       </c>
       <c r="L7" s="17" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="8" spans="1:13" s="15" customFormat="1" ht="60" x14ac:dyDescent="0.25">
@@ -3761,58 +3846,64 @@
         <v>213</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>236</v>
+        <v>235</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>376</v>
       </c>
       <c r="D8" s="15" t="s">
         <v>16</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="H8" s="15" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="I8" s="15" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="L8" s="15" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="9" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:13" s="15" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>237</v>
+        <v>236</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>377</v>
       </c>
       <c r="D10" s="15" t="s">
         <v>16</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="H10" s="15" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="I10" s="15" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="L10" s="15" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="11" spans="1:13" s="15" customFormat="1" ht="60" x14ac:dyDescent="0.25">
@@ -3820,276 +3911,335 @@
         <v>214</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>238</v>
+        <v>237</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>391</v>
       </c>
       <c r="D11" s="15" t="s">
         <v>16</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H11" s="15" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="I11" s="15" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="L11" s="15" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" s="17" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A12" s="17" t="s">
-        <v>215</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>239</v>
-      </c>
-      <c r="D12" s="17" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" s="15" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>392</v>
+      </c>
+      <c r="D12" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="18" t="s">
-        <v>372</v>
-      </c>
-      <c r="F12" s="18" t="s">
-        <v>358</v>
-      </c>
-      <c r="G12" s="17" t="s">
-        <v>216</v>
-      </c>
-      <c r="H12" s="17" t="s">
-        <v>354</v>
-      </c>
-      <c r="I12" s="17" t="s">
+      <c r="E12" s="16" t="s">
+        <v>366</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>393</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>394</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>395</v>
+      </c>
+      <c r="I12" s="15" t="s">
         <v>254</v>
       </c>
-      <c r="J12" s="17" t="s">
-        <v>258</v>
-      </c>
-      <c r="L12" s="17" t="s">
-        <v>247</v>
+      <c r="L12" s="15" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="13" spans="1:13" s="17" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>240</v>
+        <v>369</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>378</v>
       </c>
       <c r="D13" s="17" t="s">
         <v>16</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="F13" s="18" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H13" s="17" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="I13" s="17" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="J13" s="17" t="s">
-        <v>259</v>
+        <v>390</v>
       </c>
       <c r="L13" s="17" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="14" spans="1:13" s="17" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>241</v>
+        <v>239</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>379</v>
       </c>
       <c r="D14" s="17" t="s">
         <v>16</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="F14" s="18" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="G14" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="H14" s="17" t="s">
+        <v>348</v>
+      </c>
+      <c r="I14" s="17" t="s">
+        <v>253</v>
+      </c>
+      <c r="J14" s="17" t="s">
+        <v>255</v>
+      </c>
+      <c r="L14" s="17" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" s="17" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A15" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>380</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>366</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>352</v>
+      </c>
+      <c r="G15" s="17" t="s">
         <v>220</v>
       </c>
-      <c r="H14" s="17" t="s">
-        <v>354</v>
-      </c>
-      <c r="I14" s="17" t="s">
+      <c r="H15" s="17" t="s">
+        <v>348</v>
+      </c>
+      <c r="I15" s="17" t="s">
+        <v>253</v>
+      </c>
+      <c r="J15" s="17" t="s">
+        <v>388</v>
+      </c>
+      <c r="L15" s="17" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="1:12" s="15" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>381</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>366</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>349</v>
+      </c>
+      <c r="G17" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="H17" s="15" t="s">
+        <v>350</v>
+      </c>
+      <c r="I17" s="15" t="s">
         <v>254</v>
       </c>
-      <c r="J14" s="17" t="s">
-        <v>260</v>
-      </c>
-      <c r="L14" s="17" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:13" s="15" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A16" s="15" t="s">
-        <v>221</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>242</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E16" s="16" t="s">
-        <v>372</v>
-      </c>
-      <c r="F16" s="15" t="s">
-        <v>355</v>
-      </c>
-      <c r="G16" s="15" t="s">
-        <v>226</v>
-      </c>
-      <c r="H16" s="15" t="s">
-        <v>356</v>
-      </c>
-      <c r="I16" s="15" t="s">
-        <v>255</v>
-      </c>
-      <c r="L16" s="15" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" s="17" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A17" s="17" t="s">
-        <v>222</v>
-      </c>
-      <c r="B17" s="17" t="s">
-        <v>243</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E17" s="18" t="s">
-        <v>372</v>
-      </c>
-      <c r="F17" s="18" t="s">
-        <v>357</v>
-      </c>
-      <c r="G17" s="17" t="s">
-        <v>227</v>
-      </c>
-      <c r="H17" s="17" t="s">
-        <v>359</v>
-      </c>
-      <c r="I17" s="17" t="s">
-        <v>254</v>
-      </c>
-      <c r="J17" s="17" t="s">
-        <v>261</v>
-      </c>
-      <c r="L17" s="17" t="s">
-        <v>247</v>
+      <c r="L17" s="15" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="18" spans="1:12" s="17" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>244</v>
+        <v>242</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>382</v>
       </c>
       <c r="D18" s="17" t="s">
         <v>16</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="F18" s="18" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="G18" s="17" t="s">
+        <v>227</v>
+      </c>
+      <c r="H18" s="17" t="s">
+        <v>353</v>
+      </c>
+      <c r="I18" s="17" t="s">
+        <v>253</v>
+      </c>
+      <c r="J18" s="17" t="s">
+        <v>389</v>
+      </c>
+      <c r="L18" s="17" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" s="17" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A19" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>383</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="18" t="s">
+        <v>366</v>
+      </c>
+      <c r="F19" s="18" t="s">
+        <v>351</v>
+      </c>
+      <c r="G19" s="17" t="s">
         <v>228</v>
       </c>
-      <c r="H18" s="17" t="s">
-        <v>360</v>
-      </c>
-      <c r="I18" s="17" t="s">
-        <v>254</v>
-      </c>
-      <c r="J18" s="17" t="s">
-        <v>262</v>
-      </c>
-      <c r="L18" s="17" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" s="15" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A19" s="15" t="s">
-        <v>224</v>
-      </c>
-      <c r="B19" s="15" t="s">
-        <v>245</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E19" s="16" t="s">
-        <v>372</v>
-      </c>
-      <c r="F19" s="16" t="s">
-        <v>361</v>
-      </c>
-      <c r="G19" s="15" t="s">
-        <v>229</v>
-      </c>
-      <c r="H19" s="15" t="s">
-        <v>363</v>
-      </c>
-      <c r="I19" s="15" t="s">
-        <v>255</v>
-      </c>
-      <c r="L19" s="15" t="s">
-        <v>247</v>
+      <c r="H19" s="17" t="s">
+        <v>354</v>
+      </c>
+      <c r="I19" s="17" t="s">
+        <v>253</v>
+      </c>
+      <c r="J19" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="L19" s="17" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="20" spans="1:12" s="15" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>246</v>
+        <v>244</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>384</v>
       </c>
       <c r="D20" s="15" t="s">
         <v>16</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="G20" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="H20" s="15" t="s">
+        <v>357</v>
+      </c>
+      <c r="I20" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="L20" s="15" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" s="15" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A21" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>385</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>366</v>
+      </c>
+      <c r="F21" s="16" t="s">
+        <v>356</v>
+      </c>
+      <c r="G21" s="15" t="s">
         <v>230</v>
       </c>
-      <c r="H20" s="15" t="s">
-        <v>363</v>
-      </c>
-      <c r="I20" s="15" t="s">
-        <v>255</v>
-      </c>
-      <c r="L20" s="15" t="s">
-        <v>247</v>
+      <c r="H21" s="15" t="s">
+        <v>357</v>
+      </c>
+      <c r="I21" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="L21" s="15" t="s">
+        <v>246</v>
       </c>
     </row>
   </sheetData>
@@ -4114,18 +4264,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="B1" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
     </row>
     <row r="3" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -4133,15 +4283,15 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="B4" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="B5" s="25">
         <v>1234</v>
@@ -4201,7 +4351,7 @@
         <v>10</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="F1" s="19" t="s">
         <v>3</v>
@@ -4231,555 +4381,555 @@
         <v>59</v>
       </c>
       <c r="O1" s="20" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="137.44999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="C2" s="21" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="G2" s="21"/>
       <c r="H2" s="22" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="I2" s="21"/>
       <c r="J2" s="21" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="K2" s="21"/>
       <c r="L2" s="21"/>
       <c r="M2" s="21" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="N2" s="21"/>
       <c r="O2" s="23" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="105" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="C3" s="21" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="G3" s="21"/>
       <c r="H3" s="22" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="I3" s="21"/>
       <c r="J3" s="21" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="K3" s="21"/>
       <c r="L3" s="21"/>
       <c r="M3" s="21" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="N3" s="21"/>
     </row>
     <row r="4" spans="1:15" ht="122.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="C4" s="21" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="F4" s="22" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="G4" s="21"/>
       <c r="H4" s="22" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="I4" s="21"/>
       <c r="J4" s="21" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="K4" s="21"/>
       <c r="L4" s="21"/>
       <c r="M4" s="21" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="N4" s="21"/>
     </row>
     <row r="5" spans="1:15" ht="120" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="C5" s="21" t="s">
         <v>12</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="F5" s="22" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="G5" s="21"/>
       <c r="H5" s="22" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="I5" s="21"/>
       <c r="J5" s="21" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="K5" s="21"/>
       <c r="L5" s="21"/>
       <c r="M5" s="21" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="N5" s="21"/>
     </row>
     <row r="6" spans="1:15" ht="105" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="C6" s="21" t="s">
         <v>12</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="F6" s="22" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="G6" s="21"/>
       <c r="H6" s="22" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="I6" s="21"/>
       <c r="J6" s="21" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="K6" s="21"/>
       <c r="L6" s="21"/>
       <c r="M6" s="21" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="N6" s="21"/>
     </row>
     <row r="7" spans="1:15" ht="120" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="C7" s="21" t="s">
         <v>12</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="F7" s="22" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="G7" s="21"/>
       <c r="H7" s="22" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="I7" s="21"/>
       <c r="J7" s="21" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="K7" s="21"/>
       <c r="L7" s="21"/>
       <c r="M7" s="21" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="N7" s="21"/>
     </row>
     <row r="8" spans="1:15" ht="105" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="C8" s="21" t="s">
         <v>12</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="F8" s="22" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="G8" s="21"/>
       <c r="H8" s="22" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="I8" s="21"/>
       <c r="J8" s="21" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="K8" s="21"/>
       <c r="L8" s="21"/>
       <c r="M8" s="21" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="N8" s="21"/>
     </row>
     <row r="9" spans="1:15" ht="105" x14ac:dyDescent="0.25">
       <c r="A9" s="21" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="C9" s="21" t="s">
         <v>12</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="F9" s="22" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="G9" s="21"/>
       <c r="H9" s="22" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="I9" s="21"/>
       <c r="J9" s="21" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="K9" s="21"/>
       <c r="L9" s="21"/>
       <c r="M9" s="21" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="N9" s="21"/>
     </row>
     <row r="10" spans="1:15" ht="120" x14ac:dyDescent="0.25">
       <c r="A10" s="21" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="C10" s="21" t="s">
         <v>12</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="F10" s="22" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="G10" s="21"/>
       <c r="H10" s="22" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="I10" s="21"/>
       <c r="J10" s="21" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="K10" s="21"/>
       <c r="L10" s="21"/>
       <c r="M10" s="21" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="N10" s="21"/>
     </row>
     <row r="11" spans="1:15" ht="120" x14ac:dyDescent="0.25">
       <c r="A11" s="21" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="C11" s="21" t="s">
         <v>12</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="E11" s="22" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="F11" s="22" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="G11" s="21"/>
       <c r="H11" s="22" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="I11" s="21"/>
       <c r="J11" s="21" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="K11" s="21"/>
       <c r="L11" s="21"/>
       <c r="M11" s="21" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="N11" s="21"/>
     </row>
     <row r="12" spans="1:15" ht="120" x14ac:dyDescent="0.25">
       <c r="A12" s="21" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="C12" s="21" t="s">
         <v>12</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="E12" s="22" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="F12" s="22" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="G12" s="21"/>
       <c r="H12" s="22" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="I12" s="21"/>
       <c r="J12" s="21" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="K12" s="21"/>
       <c r="L12" s="21"/>
       <c r="M12" s="21" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="N12" s="21"/>
     </row>
     <row r="13" spans="1:15" ht="135" x14ac:dyDescent="0.25">
       <c r="A13" s="21" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="C13" s="21" t="s">
         <v>12</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="E13" s="22" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="F13" s="22" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="G13" s="21"/>
       <c r="H13" s="22" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="I13" s="21"/>
       <c r="J13" s="21" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="K13" s="21"/>
       <c r="L13" s="21"/>
       <c r="M13" s="21" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="N13" s="21"/>
       <c r="O13" s="23" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="141" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="21" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="C14" s="21" t="s">
         <v>12</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="E14" s="22" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="F14" s="22" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="G14" s="21"/>
       <c r="H14" s="22" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="I14" s="21"/>
       <c r="J14" s="21" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="K14" s="21"/>
       <c r="L14" s="21"/>
       <c r="M14" s="21" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="N14" s="21"/>
     </row>
     <row r="15" spans="1:15" ht="120" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="C15" s="21" t="s">
         <v>12</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="E15" s="22" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="F15" s="22" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="G15" s="21"/>
       <c r="H15" s="22" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="I15" s="21"/>
       <c r="J15" s="21" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="K15" s="21"/>
       <c r="L15" s="21"/>
       <c r="M15" s="21" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="N15" s="21"/>
     </row>
     <row r="16" spans="1:15" ht="120" x14ac:dyDescent="0.25">
       <c r="A16" s="21" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="C16" s="21" t="s">
         <v>12</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="E16" s="22" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="F16" s="22" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="G16" s="21"/>
       <c r="H16" s="22" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="I16" s="21"/>
       <c r="J16" s="21" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="K16" s="21"/>
       <c r="L16" s="21"/>
       <c r="M16" s="21" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="N16" s="21"/>
     </row>
     <row r="17" spans="1:13" ht="150" x14ac:dyDescent="0.25">
       <c r="A17" s="21" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="C17" s="21" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="E17" s="22" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="F17" s="22" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="H17" s="24" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="I17" s="21"/>
       <c r="J17" s="21" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="K17" s="21"/>
       <c r="L17" s="21"/>
       <c r="M17" s="21" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
   </sheetData>

--- a/Testing/Test Cases/TAWA_TestCases.xlsx
+++ b/Testing/Test Cases/TAWA_TestCases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="ReservedTrips" sheetId="6" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="429">
   <si>
     <t>ID</t>
   </si>
@@ -1085,9 +1085,6 @@
     <t>click on ‘add’ button to submit the form.</t>
   </si>
   <si>
-    <t>Test Data</t>
-  </si>
-  <si>
     <t>Attachments</t>
   </si>
   <si>
@@ -1098,14 +1095,6 @@
   </si>
   <si>
     <t>User must login with a valid account</t>
-  </si>
-  <si>
-    <t>Valid username: TAWA
-Valid Password: P@$$w0rd
-Valid db card number:
-01234567891012
-valid destination:Turkey
-valid flight number: 2409</t>
   </si>
   <si>
     <t>1) Open Homepage
@@ -1128,16 +1117,6 @@
   </si>
   <si>
     <t>TAWA_BOOKING_02</t>
-  </si>
-  <si>
-    <t>Validate the options in "Level of services" list</t>
-  </si>
-  <si>
-    <t>1) Open Homepage
-2) Click on "Read More" button located beside any destination
-3) Click on "Book Now" button
-4) Click on "Level of services" dropdown list
-5) Check the list options</t>
   </si>
   <si>
     <t>Dropdown list shall contain 
@@ -1376,10 +1355,6 @@
   <si>
     <t>Error message shall appear saying
 that user can not book more than 4 seats</t>
-  </si>
-  <si>
-    <t>Validate that trip appear in the "Reserved trips" page once
-user books it</t>
   </si>
   <si>
     <t>TAWA_BOOKING_16</t>
@@ -1595,6 +1570,161 @@
   </si>
   <si>
     <t xml:space="preserve">The user isn't listed </t>
+  </si>
+  <si>
+    <t>Validate the options in "level of serives" list</t>
+  </si>
+  <si>
+    <t>1) Open Homepage
+2) Click on "Read More" button located beside any destination
+3) Click on "Book Now" button
+4) Click on "level of serives" dropdown list
+5) Check the list options</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The ‘Level of services’ shall be ‘Economy’ , ‘Business’ or ‘Luxurious’.</t>
+  </si>
+  <si>
+    <t>Validate the options in "different airlins" list</t>
+  </si>
+  <si>
+    <t>1) Open Homepage
+2) Click on "Read More" button located beside any destination
+3) Click on "Book Now" button
+4) Click on "different airlines" dropdown list
+5) Check the list options</t>
+  </si>
+  <si>
+    <t>TAWA_BOOKING_17</t>
+  </si>
+  <si>
+    <t>Validate that trip appear in the "Reserved flights" page once
+user books it</t>
+  </si>
+  <si>
+    <t>TAWA_BOOKING_18</t>
+  </si>
+  <si>
+    <t>Validate the options in "trip type" radio button</t>
+  </si>
+  <si>
+    <t>1) Open Homepage
+2) Click on "Read More" button located beside any destination
+3) Click on "Book Now" button
+4) Check the trip type options</t>
+  </si>
+  <si>
+    <t>The ‘trip type’ radio button shall contain two types ‘One-way’ and ‘Round-trip’.</t>
+  </si>
+  <si>
+    <t>TAWA_RESERVED_01</t>
+  </si>
+  <si>
+    <t>Validate that user can go to "Reserved flights" page from home page</t>
+  </si>
+  <si>
+    <t>User must be logged in with
+a valid account and must book
+a flight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Open TAWA homepage
+2) From Navigation bar Click on "Reserved
+Flights" button
+</t>
+  </si>
+  <si>
+    <t>Reserved flights page shall load 
+successfully</t>
+  </si>
+  <si>
+    <t>TAWA_RESERVED_02</t>
+  </si>
+  <si>
+    <t>Validate that reserved flight page has no content if user
+hasn't book any flight yet.</t>
+  </si>
+  <si>
+    <t>User must be logged in with
+a valid account but hasn't book trips</t>
+  </si>
+  <si>
+    <t>1) Open TAWA homepage
+2) From Navigation bar Click on "Reserved
+Flights" button</t>
+  </si>
+  <si>
+    <t>Reserved flights shall has no content</t>
+  </si>
+  <si>
+    <t>TAWA_RESERVED_03</t>
+  </si>
+  <si>
+    <t>Validate that reserved flight page has information about
+the reserved flight for a user</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reserved flight page shall show :
+Flight Type 
+Airline 
+Service Level 
+Number of seats
+Payment Method 
+</t>
+  </si>
+  <si>
+    <t>TAWA_RESERVED_04</t>
+  </si>
+  <si>
+    <t>Validate that reserved flights page has a "cancel" button</t>
+  </si>
+  <si>
+    <t>reserved flights page shall
+has a "cancel" button</t>
+  </si>
+  <si>
+    <t>TAWA_RESERVED_05</t>
+  </si>
+  <si>
+    <t>Validate the functionality of cancel button</t>
+  </si>
+  <si>
+    <t>1) Open TAWA homepage
+2) From Navigation bar Click on "Reserved
+Flights" button
+3) Click on cancel button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flight shall be cancelled and a message
+shall appear saying: Your flight has been Cancelled
+</t>
+  </si>
+  <si>
+    <t>TAWA_RESERVED_06</t>
+  </si>
+  <si>
+    <t>Validate that there is an option for user to go to homepage after
+the cancellation of a flight</t>
+  </si>
+  <si>
+    <t>A blue button called" Go to Home Page"
+shall appear under the cancellation message</t>
+  </si>
+  <si>
+    <t>TAWA_RESERVED_07</t>
+  </si>
+  <si>
+    <t>Validate the functionality of "go to home page" button</t>
+  </si>
+  <si>
+    <t>1) Open TAWA homepage
+2) From Navigation bar Click on "Reserved
+Flights" button
+3) Click on cancel button
+4) click on "go to home page" button</t>
+  </si>
+  <si>
+    <t>User shall be redirected to homepage successfully</t>
   </si>
 </sst>
 </file>
@@ -2077,73 +2207,280 @@
   <sheetPr>
     <tabColor theme="5"/>
   </sheetPr>
-  <dimension ref="A1:N1"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.28515625" customWidth="1"/>
-    <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.33203125" customWidth="1"/>
+    <col min="6" max="6" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="27" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:14" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="E1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="F1" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="G1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="2" t="s">
+      <c r="H1" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="I1" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="J1" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="K1" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="L1" s="20" t="s">
         <v>59</v>
       </c>
+      <c r="M1" s="19"/>
+      <c r="N1" s="6"/>
+    </row>
+    <row r="2" spans="1:14" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="21" t="s">
+        <v>402</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>403</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>404</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>405</v>
+      </c>
+      <c r="F2" s="21"/>
+      <c r="G2" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>270</v>
+      </c>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21" t="s">
+        <v>271</v>
+      </c>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+    </row>
+    <row r="3" spans="1:14" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="21" t="s">
+        <v>407</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>408</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>409</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>410</v>
+      </c>
+      <c r="G3" s="21" t="s">
+        <v>411</v>
+      </c>
+      <c r="H3" s="21" t="s">
+        <v>270</v>
+      </c>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21" t="s">
+        <v>271</v>
+      </c>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+    </row>
+    <row r="4" spans="1:14" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="21" t="s">
+        <v>412</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>413</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>404</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>410</v>
+      </c>
+      <c r="G4" s="22" t="s">
+        <v>414</v>
+      </c>
+      <c r="H4" s="21" t="s">
+        <v>270</v>
+      </c>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21" t="s">
+        <v>271</v>
+      </c>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+    </row>
+    <row r="5" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+      <c r="A5" s="21" t="s">
+        <v>415</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>416</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>404</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>410</v>
+      </c>
+      <c r="G5" s="22" t="s">
+        <v>417</v>
+      </c>
+      <c r="H5" s="21" t="s">
+        <v>270</v>
+      </c>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21" t="s">
+        <v>271</v>
+      </c>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+    </row>
+    <row r="6" spans="1:14" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="21" t="s">
+        <v>418</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>419</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>404</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>420</v>
+      </c>
+      <c r="G6" s="22" t="s">
+        <v>421</v>
+      </c>
+      <c r="H6" s="21" t="s">
+        <v>270</v>
+      </c>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21" t="s">
+        <v>271</v>
+      </c>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+    </row>
+    <row r="7" spans="1:14" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="21" t="s">
+        <v>422</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>423</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>404</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>420</v>
+      </c>
+      <c r="G7" s="22" t="s">
+        <v>424</v>
+      </c>
+      <c r="H7" s="21" t="s">
+        <v>270</v>
+      </c>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21" t="s">
+        <v>271</v>
+      </c>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+    </row>
+    <row r="8" spans="1:14" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="21" t="s">
+        <v>425</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>426</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>404</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>427</v>
+      </c>
+      <c r="G8" s="21" t="s">
+        <v>428</v>
+      </c>
+      <c r="H8" s="21" t="s">
+        <v>270</v>
+      </c>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21" t="s">
+        <v>271</v>
+      </c>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2158,25 +2495,25 @@
       <selection sqref="A1:M27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.85546875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="51.140625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="24.88671875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="51.109375" style="5" customWidth="1"/>
     <col min="3" max="3" width="26" style="7" customWidth="1"/>
     <col min="4" max="4" width="26" style="5" customWidth="1"/>
-    <col min="5" max="5" width="56.7109375" style="5" customWidth="1"/>
-    <col min="6" max="6" width="31.28515625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="50.5703125" style="5" customWidth="1"/>
-    <col min="8" max="8" width="25.42578125" style="7" customWidth="1"/>
-    <col min="9" max="9" width="26.42578125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="56.6640625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="31.33203125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="50.5546875" style="5" customWidth="1"/>
+    <col min="8" max="8" width="25.44140625" style="7" customWidth="1"/>
+    <col min="9" max="9" width="26.44140625" style="7" customWidth="1"/>
     <col min="10" max="10" width="24" style="5" customWidth="1"/>
-    <col min="11" max="11" width="31.85546875" style="5" customWidth="1"/>
+    <col min="11" max="11" width="31.88671875" style="5" customWidth="1"/>
     <col min="12" max="12" width="23" style="5" customWidth="1"/>
     <col min="13" max="13" width="19" style="5" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="5"/>
+    <col min="14" max="16384" width="9.109375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2217,7 +2554,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>63</v>
       </c>
@@ -2237,7 +2574,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="72" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>64</v>
       </c>
@@ -2257,7 +2594,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>65</v>
       </c>
@@ -2277,7 +2614,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>66</v>
       </c>
@@ -2297,7 +2634,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>67</v>
       </c>
@@ -2317,7 +2654,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>68</v>
       </c>
@@ -2337,7 +2674,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>69</v>
       </c>
@@ -2357,7 +2694,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>70</v>
       </c>
@@ -2377,7 +2714,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>71</v>
       </c>
@@ -2397,7 +2734,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="90.75" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" ht="87" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>72</v>
       </c>
@@ -2418,7 +2755,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>73</v>
       </c>
@@ -2438,7 +2775,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>98</v>
       </c>
@@ -2458,7 +2795,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>99</v>
       </c>
@@ -2478,7 +2815,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>100</v>
       </c>
@@ -2498,7 +2835,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>101</v>
       </c>
@@ -2518,7 +2855,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>102</v>
       </c>
@@ -2538,7 +2875,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>103</v>
       </c>
@@ -2558,7 +2895,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>120</v>
       </c>
@@ -2578,7 +2915,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>121</v>
       </c>
@@ -2598,7 +2935,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>134</v>
       </c>
@@ -2618,7 +2955,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>135</v>
       </c>
@@ -2638,7 +2975,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>136</v>
       </c>
@@ -2658,7 +2995,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>137</v>
       </c>
@@ -2678,7 +3015,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>138</v>
       </c>
@@ -2698,7 +3035,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>139</v>
       </c>
@@ -2718,7 +3055,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>147</v>
       </c>
@@ -2738,12 +3075,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="12"/>
       <c r="H28" s="12"/>
       <c r="I28" s="12"/>
     </row>
-    <row r="29" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>148</v>
       </c>
@@ -2763,7 +3100,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>149</v>
       </c>
@@ -2783,7 +3120,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
         <v>150</v>
       </c>
@@ -2803,7 +3140,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
         <v>151</v>
       </c>
@@ -2823,7 +3160,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
         <v>152</v>
       </c>
@@ -2843,7 +3180,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
         <v>153</v>
       </c>
@@ -2863,7 +3200,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
         <v>154</v>
       </c>
@@ -2883,7 +3220,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
         <v>155</v>
       </c>
@@ -2903,7 +3240,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="90.75" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" ht="87" x14ac:dyDescent="0.35">
       <c r="A37" s="5" t="s">
         <v>156</v>
       </c>
@@ -2924,7 +3261,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
         <v>157</v>
       </c>
@@ -2944,7 +3281,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
         <v>158</v>
       </c>
@@ -2964,7 +3301,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
         <v>159</v>
       </c>
@@ -2984,7 +3321,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
         <v>160</v>
       </c>
@@ -3004,7 +3341,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
         <v>161</v>
       </c>
@@ -3024,7 +3361,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
         <v>162</v>
       </c>
@@ -3044,7 +3381,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
         <v>163</v>
       </c>
@@ -3064,7 +3401,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
         <v>164</v>
       </c>
@@ -3084,7 +3421,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
         <v>165</v>
       </c>
@@ -3104,7 +3441,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
         <v>166</v>
       </c>
@@ -3124,7 +3461,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
         <v>167</v>
       </c>
@@ -3144,7 +3481,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
         <v>168</v>
       </c>
@@ -3164,7 +3501,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
         <v>169</v>
       </c>
@@ -3184,7 +3521,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
         <v>170</v>
       </c>
@@ -3204,7 +3541,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
         <v>171</v>
       </c>
@@ -3224,7 +3561,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
         <v>172</v>
       </c>
@@ -3244,12 +3581,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="54" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="12"/>
       <c r="H54" s="12"/>
       <c r="I54" s="12"/>
     </row>
-    <row r="55" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
         <v>199</v>
       </c>
@@ -3283,25 +3620,25 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="57.140625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" style="7" customWidth="1"/>
-    <col min="4" max="4" width="23.42578125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="62.28515625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="25.7109375" style="5" customWidth="1"/>
-    <col min="7" max="7" width="46.5703125" style="5" customWidth="1"/>
-    <col min="8" max="8" width="21.85546875" style="7" customWidth="1"/>
-    <col min="9" max="9" width="20.140625" style="7" customWidth="1"/>
-    <col min="10" max="10" width="25.28515625" style="5" customWidth="1"/>
-    <col min="11" max="11" width="18.7109375" style="5" customWidth="1"/>
+    <col min="1" max="1" width="25.6640625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="57.109375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="23.44140625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="23.44140625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="62.33203125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="25.6640625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="46.5546875" style="5" customWidth="1"/>
+    <col min="8" max="8" width="21.88671875" style="7" customWidth="1"/>
+    <col min="9" max="9" width="20.109375" style="7" customWidth="1"/>
+    <col min="10" max="10" width="25.33203125" style="5" customWidth="1"/>
+    <col min="11" max="11" width="18.6640625" style="5" customWidth="1"/>
     <col min="12" max="12" width="28" style="5" customWidth="1"/>
-    <col min="13" max="13" width="31.140625" style="5" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="5"/>
+    <col min="13" max="13" width="31.109375" style="5" customWidth="1"/>
+    <col min="14" max="16384" width="9.109375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3342,7 +3679,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>24</v>
       </c>
@@ -3365,7 +3702,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="72" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>29</v>
       </c>
@@ -3391,7 +3728,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="72" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>34</v>
       </c>
@@ -3417,7 +3754,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>35</v>
       </c>
@@ -3440,7 +3777,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="72" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>36</v>
       </c>
@@ -3463,7 +3800,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="72" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>37</v>
       </c>
@@ -3483,7 +3820,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="72" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>38</v>
       </c>
@@ -3506,7 +3843,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="72" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>39</v>
       </c>
@@ -3529,7 +3866,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="72" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>40</v>
       </c>
@@ -3552,7 +3889,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="72" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>41</v>
       </c>
@@ -3584,28 +3921,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+    <sheetView topLeftCell="A14" workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" customWidth="1"/>
-    <col min="3" max="3" width="22.5703125" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" customWidth="1"/>
-    <col min="5" max="5" width="30.5703125" customWidth="1"/>
-    <col min="6" max="6" width="34.42578125" customWidth="1"/>
-    <col min="7" max="7" width="46.7109375" customWidth="1"/>
-    <col min="8" max="8" width="39.28515625" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" customWidth="1"/>
-    <col min="10" max="10" width="21.42578125" customWidth="1"/>
-    <col min="11" max="11" width="18.28515625" customWidth="1"/>
+    <col min="1" max="1" width="18.5546875" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" customWidth="1"/>
+    <col min="3" max="3" width="22.5546875" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" customWidth="1"/>
+    <col min="5" max="5" width="30.5546875" customWidth="1"/>
+    <col min="6" max="6" width="34.44140625" customWidth="1"/>
+    <col min="7" max="7" width="46.6640625" customWidth="1"/>
+    <col min="8" max="8" width="39.33203125" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" customWidth="1"/>
+    <col min="10" max="10" width="21.44140625" customWidth="1"/>
+    <col min="11" max="11" width="18.33203125" customWidth="1"/>
     <col min="12" max="12" width="29" customWidth="1"/>
-    <col min="13" max="13" width="20.85546875" customWidth="1"/>
+    <col min="13" max="13" width="20.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="5" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="5" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3643,7 +3980,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="15" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" s="15" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>206</v>
       </c>
@@ -3651,13 +3988,13 @@
         <v>205</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>16</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="F2" s="16" t="s">
         <v>249</v>
@@ -3675,7 +4012,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="15" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" s="15" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
         <v>207</v>
       </c>
@@ -3683,13 +4020,13 @@
         <v>231</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="D3" s="15" t="s">
         <v>16</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="F3" s="16" t="s">
         <v>250</v>
@@ -3707,7 +4044,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="15" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" s="15" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
         <v>208</v>
       </c>
@@ -3715,13 +4052,13 @@
         <v>232</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="D4" s="15" t="s">
         <v>16</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="F4" s="16" t="s">
         <v>258</v>
@@ -3739,7 +4076,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="17" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" s="17" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A5" s="17" t="s">
         <v>209</v>
       </c>
@@ -3747,13 +4084,13 @@
         <v>233</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="D5" s="17" t="s">
         <v>16</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="F5" s="18" t="s">
         <v>259</v>
@@ -3768,13 +4105,13 @@
         <v>253</v>
       </c>
       <c r="J5" s="17" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="L5" s="17" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="15" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" s="15" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="15" t="s">
         <v>211</v>
       </c>
@@ -3782,13 +4119,13 @@
         <v>234</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="D6" s="15" t="s">
         <v>16</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="F6" s="16" t="s">
         <v>261</v>
@@ -3806,42 +4143,42 @@
         <v>246</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="17" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" s="17" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="17" t="s">
         <v>212</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="D7" s="17" t="s">
         <v>16</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="G7" s="17" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="H7" s="17" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="I7" s="17" t="s">
         <v>253</v>
       </c>
       <c r="J7" s="17" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="L7" s="17" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="15" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" s="15" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A8" s="15" t="s">
         <v>213</v>
       </c>
@@ -3849,22 +4186,22 @@
         <v>235</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="D8" s="15" t="s">
         <v>16</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="H8" s="15" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="I8" s="15" t="s">
         <v>254</v>
@@ -3873,31 +4210,31 @@
         <v>246</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:13" s="15" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:13" s="15" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10" s="16" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="B10" s="15" t="s">
         <v>236</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="D10" s="15" t="s">
         <v>16</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="H10" s="15" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="I10" s="15" t="s">
         <v>254</v>
@@ -3906,7 +4243,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="15" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" s="15" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
         <v>214</v>
       </c>
@@ -3914,22 +4251,22 @@
         <v>237</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="D11" s="15" t="s">
         <v>16</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="G11" s="15" t="s">
         <v>252</v>
       </c>
       <c r="H11" s="15" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="I11" s="15" t="s">
         <v>254</v>
@@ -3938,7 +4275,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="15" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" s="15" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
         <v>214</v>
       </c>
@@ -3946,22 +4283,22 @@
         <v>238</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="D12" s="15" t="s">
         <v>16</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="I12" s="15" t="s">
         <v>254</v>
@@ -3970,42 +4307,42 @@
         <v>246</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="17" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" s="17" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A13" s="17" t="s">
         <v>215</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="D13" s="17" t="s">
         <v>16</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="F13" s="18" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="G13" s="17" t="s">
         <v>216</v>
       </c>
       <c r="H13" s="17" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="I13" s="17" t="s">
         <v>253</v>
       </c>
       <c r="J13" s="17" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="L13" s="17" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="17" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" s="17" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A14" s="17" t="s">
         <v>217</v>
       </c>
@@ -4013,22 +4350,22 @@
         <v>239</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="D14" s="17" t="s">
         <v>16</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="F14" s="18" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="G14" s="17" t="s">
         <v>218</v>
       </c>
       <c r="H14" s="17" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="I14" s="17" t="s">
         <v>253</v>
@@ -4040,7 +4377,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="17" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" s="17" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A15" s="17" t="s">
         <v>219</v>
       </c>
@@ -4048,35 +4385,35 @@
         <v>240</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="D15" s="17" t="s">
         <v>16</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="F15" s="18" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="G15" s="17" t="s">
         <v>220</v>
       </c>
       <c r="H15" s="17" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="I15" s="17" t="s">
         <v>253</v>
       </c>
       <c r="J15" s="17" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="L15" s="17" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="16" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="1:12" s="15" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="1:12" s="15" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">
         <v>221</v>
       </c>
@@ -4084,22 +4421,22 @@
         <v>241</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="D17" s="15" t="s">
         <v>16</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="F17" s="15" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="G17" s="15" t="s">
         <v>226</v>
       </c>
       <c r="H17" s="15" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="I17" s="15" t="s">
         <v>254</v>
@@ -4108,7 +4445,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="18" spans="1:12" s="17" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" s="17" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A18" s="17" t="s">
         <v>222</v>
       </c>
@@ -4116,34 +4453,34 @@
         <v>242</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="D18" s="17" t="s">
         <v>16</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="F18" s="18" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="G18" s="17" t="s">
         <v>227</v>
       </c>
       <c r="H18" s="17" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="I18" s="17" t="s">
         <v>253</v>
       </c>
       <c r="J18" s="17" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="L18" s="17" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="19" spans="1:12" s="17" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" s="17" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A19" s="17" t="s">
         <v>223</v>
       </c>
@@ -4151,22 +4488,22 @@
         <v>243</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="D19" s="17" t="s">
         <v>16</v>
       </c>
       <c r="E19" s="18" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="G19" s="17" t="s">
         <v>228</v>
       </c>
       <c r="H19" s="17" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="I19" s="17" t="s">
         <v>253</v>
@@ -4178,7 +4515,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="20" spans="1:12" s="15" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" s="15" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A20" s="15" t="s">
         <v>224</v>
       </c>
@@ -4186,22 +4523,22 @@
         <v>244</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="D20" s="15" t="s">
         <v>16</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="G20" s="15" t="s">
         <v>229</v>
       </c>
       <c r="H20" s="15" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="I20" s="15" t="s">
         <v>254</v>
@@ -4210,7 +4547,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="21" spans="1:12" s="15" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" s="15" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A21" s="15" t="s">
         <v>225</v>
       </c>
@@ -4218,22 +4555,22 @@
         <v>245</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="D21" s="15" t="s">
         <v>16</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="F21" s="16" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G21" s="15" t="s">
         <v>230</v>
       </c>
       <c r="H21" s="15" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="I21" s="15" t="s">
         <v>254</v>
@@ -4256,42 +4593,42 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.140625" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" customWidth="1"/>
+    <col min="1" max="1" width="26.109375" customWidth="1"/>
+    <col min="2" max="2" width="17.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>354</v>
+      </c>
+      <c r="B2" s="25" t="s">
         <v>358</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="3" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="26"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>355</v>
+      </c>
+      <c r="B4" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>359</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="26"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>360</v>
-      </c>
-      <c r="B4" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="B5" s="25">
         <v>1234</v>
@@ -4311,33 +4648,32 @@
   <sheetPr>
     <tabColor theme="5"/>
   </sheetPr>
-  <dimension ref="A1:O17"/>
+  <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView topLeftCell="E16" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.7109375" style="23" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="23" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.28515625" style="23" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.7109375" style="23" customWidth="1"/>
-    <col min="6" max="6" width="29.28515625" style="23" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.6640625" style="23" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" style="23" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.6640625" style="23" customWidth="1"/>
+    <col min="6" max="6" width="29.33203125" style="23" customWidth="1"/>
+    <col min="7" max="7" width="15.109375" style="23" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="27" style="23" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13" style="23" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.42578125" style="23" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.85546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="25" style="23" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.85546875" style="23"/>
+    <col min="10" max="10" width="10.44140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.88671875" style="23" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.5546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.5546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="25" style="23" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.88671875" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -4351,586 +4687,601 @@
         <v>10</v>
       </c>
       <c r="E1" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="M1" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="N1" s="20" t="s">
         <v>264</v>
       </c>
-      <c r="F1" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="H1" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="M1" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="N1" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="O1" s="20" t="s">
+      <c r="O1" s="20"/>
+    </row>
+    <row r="2" spans="1:15" ht="137.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="21" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" ht="137.44999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+      <c r="B2" s="21" t="s">
         <v>266</v>
-      </c>
-      <c r="B2" s="21" t="s">
-        <v>267</v>
       </c>
       <c r="C2" s="21" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="22" t="s">
+        <v>267</v>
+      </c>
+      <c r="E2" s="22" t="s">
         <v>268</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="F2" s="21"/>
+      <c r="G2" s="22" t="s">
         <v>269</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="H2" s="21"/>
+      <c r="I2" s="21" t="s">
         <v>270</v>
       </c>
-      <c r="G2" s="21"/>
-      <c r="H2" s="22" t="s">
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21" t="s">
         <v>271</v>
       </c>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21" t="s">
+      <c r="M2" s="21"/>
+      <c r="N2" s="23" t="s">
         <v>272</v>
       </c>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21" t="s">
+    </row>
+    <row r="3" spans="1:15" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="21" t="s">
         <v>273</v>
       </c>
-      <c r="N2" s="21"/>
-      <c r="O2" s="23" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="105" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
-        <v>275</v>
-      </c>
       <c r="B3" s="21" t="s">
-        <v>276</v>
+        <v>391</v>
       </c>
       <c r="C3" s="21" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>269</v>
-      </c>
-      <c r="F3" s="22" t="s">
-        <v>277</v>
-      </c>
-      <c r="G3" s="21"/>
-      <c r="H3" s="22" t="s">
-        <v>278</v>
-      </c>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21" t="s">
-        <v>272</v>
-      </c>
+        <v>392</v>
+      </c>
+      <c r="F3" s="21"/>
+      <c r="G3" s="22" t="s">
+        <v>393</v>
+      </c>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21" t="s">
+        <v>270</v>
+      </c>
+      <c r="J3" s="21"/>
       <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21" t="s">
-        <v>273</v>
-      </c>
-      <c r="N3" s="21"/>
-    </row>
-    <row r="4" spans="1:15" ht="122.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L3" s="21" t="s">
+        <v>271</v>
+      </c>
+      <c r="M3" s="21"/>
+    </row>
+    <row r="4" spans="1:15" ht="122.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="21" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>280</v>
+        <v>394</v>
       </c>
       <c r="C4" s="21" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>269</v>
-      </c>
-      <c r="F4" s="22" t="s">
-        <v>281</v>
-      </c>
-      <c r="G4" s="21"/>
-      <c r="H4" s="22" t="s">
-        <v>282</v>
-      </c>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21" t="s">
-        <v>272</v>
-      </c>
+        <v>395</v>
+      </c>
+      <c r="F4" s="21"/>
+      <c r="G4" s="22" t="s">
+        <v>274</v>
+      </c>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21" t="s">
+        <v>270</v>
+      </c>
+      <c r="J4" s="21"/>
       <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21" t="s">
-        <v>273</v>
-      </c>
-      <c r="N4" s="21"/>
-    </row>
-    <row r="5" spans="1:15" ht="120" x14ac:dyDescent="0.25">
+      <c r="L4" s="21" t="s">
+        <v>271</v>
+      </c>
+      <c r="M4" s="21"/>
+    </row>
+    <row r="5" spans="1:15" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A5" s="21" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="C5" s="21" t="s">
         <v>12</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>269</v>
-      </c>
-      <c r="F5" s="22" t="s">
-        <v>285</v>
-      </c>
-      <c r="G5" s="21"/>
-      <c r="H5" s="22" t="s">
-        <v>286</v>
-      </c>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21" t="s">
-        <v>272</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="F5" s="21"/>
+      <c r="G5" s="22" t="s">
+        <v>278</v>
+      </c>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21" t="s">
+        <v>270</v>
+      </c>
+      <c r="J5" s="21"/>
       <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21" t="s">
-        <v>273</v>
-      </c>
-      <c r="N5" s="21"/>
-    </row>
-    <row r="6" spans="1:15" ht="105" x14ac:dyDescent="0.25">
+      <c r="L5" s="21" t="s">
+        <v>271</v>
+      </c>
+      <c r="M5" s="21"/>
+    </row>
+    <row r="6" spans="1:15" ht="144" x14ac:dyDescent="0.3">
       <c r="A6" s="21" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="C6" s="21" t="s">
         <v>12</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>269</v>
-      </c>
-      <c r="F6" s="22" t="s">
-        <v>289</v>
-      </c>
-      <c r="G6" s="21"/>
-      <c r="H6" s="22" t="s">
-        <v>290</v>
-      </c>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21" t="s">
-        <v>272</v>
-      </c>
+        <v>281</v>
+      </c>
+      <c r="F6" s="21"/>
+      <c r="G6" s="22" t="s">
+        <v>282</v>
+      </c>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21" t="s">
+        <v>270</v>
+      </c>
+      <c r="J6" s="21"/>
       <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="21" t="s">
-        <v>273</v>
-      </c>
-      <c r="N6" s="21"/>
-    </row>
-    <row r="7" spans="1:15" ht="120" x14ac:dyDescent="0.25">
+      <c r="L6" s="21" t="s">
+        <v>271</v>
+      </c>
+      <c r="M6" s="21"/>
+    </row>
+    <row r="7" spans="1:15" ht="144" x14ac:dyDescent="0.3">
       <c r="A7" s="21" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="C7" s="21" t="s">
         <v>12</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>269</v>
-      </c>
-      <c r="F7" s="22" t="s">
-        <v>293</v>
-      </c>
-      <c r="G7" s="21"/>
-      <c r="H7" s="22" t="s">
-        <v>294</v>
-      </c>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21" t="s">
-        <v>272</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="F7" s="21"/>
+      <c r="G7" s="22" t="s">
+        <v>286</v>
+      </c>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21" t="s">
+        <v>270</v>
+      </c>
+      <c r="J7" s="21"/>
       <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21" t="s">
-        <v>273</v>
-      </c>
-      <c r="N7" s="21"/>
-    </row>
-    <row r="8" spans="1:15" ht="105" x14ac:dyDescent="0.25">
+      <c r="L7" s="21" t="s">
+        <v>271</v>
+      </c>
+      <c r="M7" s="21"/>
+    </row>
+    <row r="8" spans="1:15" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A8" s="21" t="s">
-        <v>295</v>
-      </c>
-      <c r="B8" s="22" t="s">
-        <v>296</v>
+        <v>291</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>288</v>
       </c>
       <c r="C8" s="21" t="s">
         <v>12</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>269</v>
-      </c>
-      <c r="F8" s="22" t="s">
-        <v>297</v>
-      </c>
-      <c r="G8" s="21"/>
-      <c r="H8" s="22" t="s">
-        <v>298</v>
-      </c>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21" t="s">
-        <v>272</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="F8" s="21"/>
+      <c r="G8" s="22" t="s">
+        <v>290</v>
+      </c>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21" t="s">
+        <v>270</v>
+      </c>
+      <c r="J8" s="21"/>
       <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="21" t="s">
-        <v>273</v>
-      </c>
-      <c r="N8" s="21"/>
-    </row>
-    <row r="9" spans="1:15" ht="105" x14ac:dyDescent="0.25">
+      <c r="L8" s="21" t="s">
+        <v>271</v>
+      </c>
+      <c r="M8" s="21"/>
+    </row>
+    <row r="9" spans="1:15" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A9" s="21" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="C9" s="21" t="s">
         <v>12</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>269</v>
-      </c>
-      <c r="F9" s="22" t="s">
-        <v>301</v>
-      </c>
-      <c r="G9" s="21"/>
-      <c r="H9" s="22" t="s">
-        <v>302</v>
-      </c>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21" t="s">
-        <v>272</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="F9" s="21"/>
+      <c r="G9" s="22" t="s">
+        <v>294</v>
+      </c>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21" t="s">
+        <v>270</v>
+      </c>
+      <c r="J9" s="21"/>
       <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="21" t="s">
-        <v>273</v>
-      </c>
-      <c r="N9" s="21"/>
-    </row>
-    <row r="10" spans="1:15" ht="120" x14ac:dyDescent="0.25">
+      <c r="L9" s="21" t="s">
+        <v>271</v>
+      </c>
+      <c r="M9" s="21"/>
+    </row>
+    <row r="10" spans="1:15" ht="144" x14ac:dyDescent="0.3">
       <c r="A10" s="21" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="C10" s="21" t="s">
         <v>12</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>269</v>
-      </c>
-      <c r="F10" s="22" t="s">
-        <v>305</v>
-      </c>
-      <c r="G10" s="21"/>
-      <c r="H10" s="22" t="s">
-        <v>306</v>
-      </c>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21" t="s">
-        <v>272</v>
-      </c>
+        <v>297</v>
+      </c>
+      <c r="F10" s="21"/>
+      <c r="G10" s="22" t="s">
+        <v>298</v>
+      </c>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21" t="s">
+        <v>270</v>
+      </c>
+      <c r="J10" s="21"/>
       <c r="K10" s="21"/>
-      <c r="L10" s="21"/>
-      <c r="M10" s="21" t="s">
-        <v>273</v>
-      </c>
-      <c r="N10" s="21"/>
-    </row>
-    <row r="11" spans="1:15" ht="120" x14ac:dyDescent="0.25">
+      <c r="L10" s="21" t="s">
+        <v>271</v>
+      </c>
+      <c r="M10" s="21"/>
+    </row>
+    <row r="11" spans="1:15" ht="144" x14ac:dyDescent="0.3">
       <c r="A11" s="21" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="C11" s="21" t="s">
         <v>12</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E11" s="22" t="s">
-        <v>269</v>
-      </c>
-      <c r="F11" s="22" t="s">
-        <v>309</v>
-      </c>
-      <c r="G11" s="21"/>
-      <c r="H11" s="22" t="s">
-        <v>310</v>
-      </c>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21" t="s">
-        <v>272</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="F11" s="21"/>
+      <c r="G11" s="22" t="s">
+        <v>302</v>
+      </c>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21" t="s">
+        <v>270</v>
+      </c>
+      <c r="J11" s="21"/>
       <c r="K11" s="21"/>
-      <c r="L11" s="21"/>
-      <c r="M11" s="21" t="s">
-        <v>273</v>
-      </c>
-      <c r="N11" s="21"/>
-    </row>
-    <row r="12" spans="1:15" ht="120" x14ac:dyDescent="0.25">
+      <c r="L11" s="21" t="s">
+        <v>271</v>
+      </c>
+      <c r="M11" s="21"/>
+    </row>
+    <row r="12" spans="1:15" ht="144" x14ac:dyDescent="0.3">
       <c r="A12" s="21" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="C12" s="21" t="s">
         <v>12</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E12" s="22" t="s">
-        <v>269</v>
-      </c>
-      <c r="F12" s="22" t="s">
-        <v>313</v>
-      </c>
-      <c r="G12" s="21"/>
-      <c r="H12" s="22" t="s">
-        <v>314</v>
-      </c>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21" t="s">
-        <v>272</v>
-      </c>
+        <v>305</v>
+      </c>
+      <c r="F12" s="21"/>
+      <c r="G12" s="22" t="s">
+        <v>306</v>
+      </c>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21" t="s">
+        <v>270</v>
+      </c>
+      <c r="J12" s="21"/>
       <c r="K12" s="21"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="21" t="s">
-        <v>273</v>
-      </c>
-      <c r="N12" s="21"/>
-    </row>
-    <row r="13" spans="1:15" ht="135" x14ac:dyDescent="0.25">
+      <c r="L12" s="21" t="s">
+        <v>271</v>
+      </c>
+      <c r="M12" s="21"/>
+    </row>
+    <row r="13" spans="1:15" ht="144" x14ac:dyDescent="0.3">
       <c r="A13" s="21" t="s">
-        <v>315</v>
-      </c>
-      <c r="B13" s="21" t="s">
-        <v>316</v>
+        <v>311</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>308</v>
       </c>
       <c r="C13" s="21" t="s">
         <v>12</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E13" s="22" t="s">
-        <v>269</v>
-      </c>
-      <c r="F13" s="22" t="s">
-        <v>317</v>
-      </c>
-      <c r="G13" s="21"/>
-      <c r="H13" s="22" t="s">
-        <v>318</v>
-      </c>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21" t="s">
-        <v>272</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="F13" s="21"/>
+      <c r="G13" s="22" t="s">
+        <v>310</v>
+      </c>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21" t="s">
+        <v>270</v>
+      </c>
+      <c r="J13" s="21"/>
       <c r="K13" s="21"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="21" t="s">
-        <v>273</v>
-      </c>
-      <c r="N13" s="21"/>
+      <c r="L13" s="21" t="s">
+        <v>271</v>
+      </c>
+      <c r="M13" s="21"/>
       <c r="O13" s="23" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" ht="141" customHeight="1" x14ac:dyDescent="0.25">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="141" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="21" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="C14" s="21" t="s">
         <v>12</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E14" s="22" t="s">
-        <v>269</v>
-      </c>
-      <c r="F14" s="22" t="s">
-        <v>322</v>
-      </c>
-      <c r="G14" s="21"/>
-      <c r="H14" s="22" t="s">
-        <v>323</v>
-      </c>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21" t="s">
-        <v>272</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="F14" s="21"/>
+      <c r="G14" s="22" t="s">
+        <v>314</v>
+      </c>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21" t="s">
+        <v>270</v>
+      </c>
+      <c r="J14" s="21"/>
       <c r="K14" s="21"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="21" t="s">
-        <v>273</v>
-      </c>
-      <c r="N14" s="21"/>
-    </row>
-    <row r="15" spans="1:15" ht="120" x14ac:dyDescent="0.25">
+      <c r="L14" s="21" t="s">
+        <v>271</v>
+      </c>
+      <c r="M14" s="21"/>
+      <c r="N14" s="23" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A15" s="21" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="C15" s="21" t="s">
         <v>12</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E15" s="22" t="s">
-        <v>269</v>
-      </c>
-      <c r="F15" s="22" t="s">
-        <v>326</v>
-      </c>
-      <c r="G15" s="21"/>
-      <c r="H15" s="22" t="s">
-        <v>327</v>
-      </c>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21" t="s">
-        <v>272</v>
-      </c>
+        <v>318</v>
+      </c>
+      <c r="F15" s="21"/>
+      <c r="G15" s="22" t="s">
+        <v>319</v>
+      </c>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21" t="s">
+        <v>270</v>
+      </c>
+      <c r="J15" s="21"/>
       <c r="K15" s="21"/>
-      <c r="L15" s="21"/>
-      <c r="M15" s="21" t="s">
-        <v>273</v>
-      </c>
-      <c r="N15" s="21"/>
-    </row>
-    <row r="16" spans="1:15" ht="120" x14ac:dyDescent="0.25">
+      <c r="L15" s="21" t="s">
+        <v>271</v>
+      </c>
+      <c r="M15" s="21"/>
+    </row>
+    <row r="16" spans="1:15" ht="144" x14ac:dyDescent="0.3">
       <c r="A16" s="21" t="s">
-        <v>328</v>
-      </c>
-      <c r="B16" s="22" t="s">
-        <v>329</v>
+        <v>324</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>321</v>
       </c>
       <c r="C16" s="21" t="s">
         <v>12</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E16" s="22" t="s">
-        <v>269</v>
-      </c>
-      <c r="F16" s="22" t="s">
-        <v>330</v>
-      </c>
-      <c r="G16" s="21"/>
-      <c r="H16" s="22" t="s">
-        <v>331</v>
-      </c>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21" t="s">
-        <v>272</v>
-      </c>
+        <v>322</v>
+      </c>
+      <c r="F16" s="21"/>
+      <c r="G16" s="22" t="s">
+        <v>323</v>
+      </c>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21" t="s">
+        <v>270</v>
+      </c>
+      <c r="J16" s="21"/>
       <c r="K16" s="21"/>
-      <c r="L16" s="21"/>
-      <c r="M16" s="21" t="s">
-        <v>273</v>
-      </c>
-      <c r="N16" s="21"/>
-    </row>
-    <row r="17" spans="1:13" ht="150" x14ac:dyDescent="0.25">
+      <c r="L16" s="21" t="s">
+        <v>271</v>
+      </c>
+      <c r="M16" s="21"/>
+    </row>
+    <row r="17" spans="1:13" ht="144" x14ac:dyDescent="0.3">
       <c r="A17" s="21" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="C17" s="21" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E17" s="22" t="s">
-        <v>269</v>
-      </c>
-      <c r="F17" s="22" t="s">
-        <v>334</v>
-      </c>
-      <c r="H17" s="24" t="s">
-        <v>335</v>
-      </c>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21" t="s">
-        <v>272</v>
-      </c>
+        <v>326</v>
+      </c>
+      <c r="F17" s="21"/>
+      <c r="G17" s="22" t="s">
+        <v>327</v>
+      </c>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21" t="s">
+        <v>270</v>
+      </c>
+      <c r="J17" s="21"/>
       <c r="K17" s="21"/>
-      <c r="L17" s="21"/>
-      <c r="M17" s="21" t="s">
-        <v>273</v>
-      </c>
+      <c r="L17" s="21" t="s">
+        <v>271</v>
+      </c>
+      <c r="M17" s="21"/>
+    </row>
+    <row r="18" spans="1:13" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="21" t="s">
+        <v>396</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>397</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>267</v>
+      </c>
+      <c r="E18" s="22" t="s">
+        <v>329</v>
+      </c>
+      <c r="G18" s="24" t="s">
+        <v>330</v>
+      </c>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21" t="s">
+        <v>270</v>
+      </c>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="21" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A19" s="21" t="s">
+        <v>398</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>399</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>267</v>
+      </c>
+      <c r="E19" s="22" t="s">
+        <v>400</v>
+      </c>
+      <c r="F19" s="21"/>
+      <c r="G19" s="24" t="s">
+        <v>401</v>
+      </c>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21" t="s">
+        <v>270</v>
+      </c>
+      <c r="J19" s="21"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="21" t="s">
+        <v>271</v>
+      </c>
+      <c r="M19" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4945,22 +5296,22 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.28515625" customWidth="1"/>
-    <col min="2" max="2" width="48.140625" customWidth="1"/>
+    <col min="1" max="1" width="29.33203125" customWidth="1"/>
+    <col min="2" max="2" width="48.109375" customWidth="1"/>
     <col min="3" max="4" width="22" customWidth="1"/>
-    <col min="5" max="6" width="51.140625" customWidth="1"/>
-    <col min="7" max="7" width="33.140625" customWidth="1"/>
-    <col min="8" max="8" width="23.140625" customWidth="1"/>
-    <col min="9" max="9" width="19.42578125" customWidth="1"/>
-    <col min="10" max="10" width="33.42578125" customWidth="1"/>
-    <col min="11" max="11" width="39.42578125" customWidth="1"/>
+    <col min="5" max="6" width="51.109375" customWidth="1"/>
+    <col min="7" max="7" width="33.109375" customWidth="1"/>
+    <col min="8" max="8" width="23.109375" customWidth="1"/>
+    <col min="9" max="9" width="19.44140625" customWidth="1"/>
+    <col min="10" max="10" width="33.44140625" customWidth="1"/>
+    <col min="11" max="11" width="39.44140625" customWidth="1"/>
     <col min="12" max="12" width="28" style="5" customWidth="1"/>
-    <col min="13" max="13" width="31.140625" style="5" customWidth="1"/>
+    <col min="13" max="13" width="31.109375" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5001,7 +5352,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -5028,7 +5379,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -5055,13 +5406,13 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="F15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="21" x14ac:dyDescent="0.3">
       <c r="F16" s="10"/>
     </row>
-    <row r="17" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F17" s="9"/>
     </row>
   </sheetData>

--- a/Testing/Test Cases/TAWA_TestCases.xlsx
+++ b/Testing/Test Cases/TAWA_TestCases.xlsx
@@ -4,23 +4,25 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ReservedTrips" sheetId="6" r:id="rId1"/>
-    <sheet name="Registeration" sheetId="1" r:id="rId2"/>
-    <sheet name="Login" sheetId="2" r:id="rId3"/>
-    <sheet name="AdminPage" sheetId="4" r:id="rId4"/>
-    <sheet name="Test-Data" sheetId="7" r:id="rId5"/>
-    <sheet name="Booking" sheetId="5" r:id="rId6"/>
-    <sheet name="Logout" sheetId="3" r:id="rId7"/>
+    <sheet name="Home Page" sheetId="8" r:id="rId2"/>
+    <sheet name="Destination" sheetId="9" r:id="rId3"/>
+    <sheet name="Registeration" sheetId="1" r:id="rId4"/>
+    <sheet name="Login" sheetId="2" r:id="rId5"/>
+    <sheet name="AdminPage" sheetId="4" r:id="rId6"/>
+    <sheet name="Test-Data" sheetId="7" r:id="rId7"/>
+    <sheet name="Booking" sheetId="5" r:id="rId8"/>
+    <sheet name="Logout" sheetId="3" r:id="rId9"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1094" uniqueCount="548">
   <si>
     <t>ID</t>
   </si>
@@ -1726,12 +1728,508 @@
   <si>
     <t>User shall be redirected to homepage successfully</t>
   </si>
+  <si>
+    <t>SRS</t>
+  </si>
+  <si>
+    <t>TAWA_HomePage_001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">validate that the user after login will be able to view home page  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-go to the website url
+2-login with the mentioned account in the test data 
+3-validate that the user will be redirected to the home page </t>
+  </si>
+  <si>
+    <t>Valid user name:tawa
+Valid Password:P@$$w0rd</t>
+  </si>
+  <si>
+    <t>the user will be redirected to the
+ home page and will be able to
+ see the destinations and the top rated destination</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>Maysoon</t>
+  </si>
+  <si>
+    <t>TAWA_HomePage_002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">validate that the gues (unregistered )will be able to view home page  </t>
+  </si>
+  <si>
+    <t>Guest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-go to the website url
+2-validate that the guest will be redirected to the home page </t>
+  </si>
+  <si>
+    <t>the guest will be redirected to the
+ home page and will be able to
+ see the destinations and the top rated destination</t>
+  </si>
+  <si>
+    <t>TAWA_SRS_FR_001</t>
+  </si>
+  <si>
+    <t>TAWA_HomePage_003</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Validate that The homepage contains a ‘sign up’ button in the navigation bar.</t>
+  </si>
+  <si>
+    <t>Any</t>
+  </si>
+  <si>
+    <t>1-go to the website url
+2-the home page will open 
+3- check that the navigation bar has sign up button</t>
+  </si>
+  <si>
+    <t>the home page shall contain sign up button 
+in the navigation bar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">low </t>
+  </si>
+  <si>
+    <t>fail</t>
+  </si>
+  <si>
+    <t>the navigation bar is contained
+ signup link not button</t>
+  </si>
+  <si>
+    <t>TAWA_SRS_FR_002</t>
+  </si>
+  <si>
+    <t>TAWA_HomePage_004</t>
+  </si>
+  <si>
+    <t>Validate that the guest will be redircted to the sign up form when click on 
+the signup button in the navigation bar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-go to the website url
+2-the home page will open 
+3- check that the navigation bar has sign up button
+4-click on sign up </t>
+  </si>
+  <si>
+    <t xml:space="preserve">the user shall be redirected to the sign up form </t>
+  </si>
+  <si>
+    <t xml:space="preserve">the user has been redirected
+ to the sign up form </t>
+  </si>
+  <si>
+    <t>TAWA_HomePage_005</t>
+  </si>
+  <si>
+    <t>Validate what will happen when autherized user click on 
+the signup button in the navigation bar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">logined user </t>
+  </si>
+  <si>
+    <t>TAWA_SRS_FR_038</t>
+  </si>
+  <si>
+    <t>TAWA_HomePage_006</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Validate that The homepage contains a ‘login’ button in the navigation bar.</t>
+  </si>
+  <si>
+    <t>1-go to the website url
+2-the home page will open 
+3- check that the navigation bar has login button</t>
+  </si>
+  <si>
+    <t>the home page shall contain login button 
+in the navigation bar</t>
+  </si>
+  <si>
+    <t>the navigation bar is contained
+ login link not button</t>
+  </si>
+  <si>
+    <r>
+      <t>TAWA_SRS_FR_0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>95</t>
+    </r>
+  </si>
+  <si>
+    <t>TAWA_HomePage_007</t>
+  </si>
+  <si>
+    <t>validate that the home page  contains a photo gallery of the top travel destinations.</t>
+  </si>
+  <si>
+    <t>1-go to the website url
+2-the home page will open 
+3- check the  a photo gallery of the top travel destinations.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the home page shall  contain a photo gallery of
+ the top travel destinations. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">the home page doesn't contain
+ the photo gallery </t>
+  </si>
+  <si>
+    <r>
+      <t>TAWA_SRS_FR_096</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>TAWA_HomePage_008</t>
+  </si>
+  <si>
+    <t>validate that  The home page contains ‘Grid view’ button.</t>
+  </si>
+  <si>
+    <t>1-go to the website url
+2-the home page will open 
+3- check the The home page contains ‘Grid view’ button.</t>
+  </si>
+  <si>
+    <t>the home page shall  contain a grid view button</t>
+  </si>
+  <si>
+    <t>the grid view button is exsist</t>
+  </si>
+  <si>
+    <r>
+      <t>TAWA_SRS_FR_097</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>TAWA_HomePage_009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">validate that the grid view button in the home page is clickable and 
+ the distenations are affected </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+the page in the list view </t>
+  </si>
+  <si>
+    <t>1-go to the website url
+2-the home page will open 
+3-click on the grid view button</t>
+  </si>
+  <si>
+    <t>the displayed details will be changed from the
+ list view to the grid view</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the diestinations are displayed in 
+grid view instead of list view </t>
+  </si>
+  <si>
+    <r>
+      <t>TAWA_SRS_FR_098</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>TAWA_HomePage_010</t>
+  </si>
+  <si>
+    <t>validate that  The home page contains ‘list view’ button.</t>
+  </si>
+  <si>
+    <t>1-go to the website url
+2-the home page will open 
+3- check the The home page contains ‘list view’ button.</t>
+  </si>
+  <si>
+    <t>the home page shall  contain a list view button</t>
+  </si>
+  <si>
+    <t>the list view button is exsist</t>
+  </si>
+  <si>
+    <r>
+      <t>TAWA_SRS_FR_099</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>TAWA_HomePage_011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">validate that the list view button in the home page is clickable and 
+ the distenations are affected </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  
+the page in the grid view </t>
+  </si>
+  <si>
+    <t>1-go to the website url
+2-the home page will open 
+3-click on the list view button</t>
+  </si>
+  <si>
+    <t>the displayed details will be changed from the
+ list view to the list view</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the diestinations are displayed in 
+list view instead of list view </t>
+  </si>
+  <si>
+    <t>TAWA_HomePage_012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">validate that when click on the destination read more button the user 
+will redirected to the destination details page </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-go to the website url
+2-the home page will open 
+3-click on Read more button in the destinations </t>
+  </si>
+  <si>
+    <t xml:space="preserve">the user shall be redirected to the destination 
+details page </t>
+  </si>
+  <si>
+    <t xml:space="preserve">the user  redirected to the destination details page </t>
+  </si>
+  <si>
+    <t>TAWA_SRS_FR_107
+TAWA_SRS_FR_108</t>
+  </si>
+  <si>
+    <t>TAWA_HomePage_013</t>
+  </si>
+  <si>
+    <t>TAWA_SRS_FR_109</t>
+  </si>
+  <si>
+    <t>TAWA_Destination_001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">validate that destination details contains a list of avalibale places </t>
+  </si>
+  <si>
+    <t>User / Guest</t>
+  </si>
+  <si>
+    <t>1-go to the website url
+2-the home page will open 
+3-click on Read more button in the destinations 
+4- the user will be redirected to the destination detailes page
+5- check the avaibale places in this country</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the user will find a list 
+of available places </t>
+  </si>
+  <si>
+    <t>a list of available places are exsist in the page</t>
+  </si>
+  <si>
+    <t>TAWA_SRS_FR_110</t>
+  </si>
+  <si>
+    <t>TAWA_Destination_002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">validate that destination details contains a list of the best restaurants  </t>
+  </si>
+  <si>
+    <t>1-go to the website url
+2-the home page will open 
+3-click on Read more button in the destinations 
+4- the user will be redirected to the destination detailes page
+5- check the list of the best restaurants</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the user will find a list 
+of the best restaurants </t>
+  </si>
+  <si>
+    <t xml:space="preserve">there is no list of best restaurant </t>
+  </si>
+  <si>
+    <t>TAWA_SRS_FR_111</t>
+  </si>
+  <si>
+    <t>TAWA_Destination_003</t>
+  </si>
+  <si>
+    <t>validate that destination details contains a list of the available airlines</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>logged in user</t>
+  </si>
+  <si>
+    <t>1-go to the website url
+2-the home page will open 
+3-click on Read more button in the destinations 
+4- the user will be redirected to the destination detailes page
+5- check the list of the available airlines</t>
+  </si>
+  <si>
+    <t>there is no list of  available airlines</t>
+  </si>
+  <si>
+    <t>TAWA_SRS_FR_112
+TAWA_SRS_FR_117 
+TAWA_SRS_FR_118</t>
+  </si>
+  <si>
+    <t>TAWA_Destination_004</t>
+  </si>
+  <si>
+    <t>validate that The travel destination details shall be contains  the ‘rating &amp; feedback’ 
+of this destination.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-go to the website url
+2-the home page will open 
+3-click on Read more button in the destinations 
+4- the user will be redirected to the destination detailes page
+5- click in write feedback button </t>
+  </si>
+  <si>
+    <t>the user will be able redircted in the page that avle him to rate the destination and write his feedback</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the user is redirected </t>
+  </si>
+  <si>
+    <t>TAWA_SRS_FR_113</t>
+  </si>
+  <si>
+    <t>TAWA_Destination_005</t>
+  </si>
+  <si>
+    <t>validate that the page has book button</t>
+  </si>
+  <si>
+    <t>1-go to the website url
+2-the home page will open 
+3-click on Read more button in the destinations 
+4- the user will be redirected to the destination detailes page
+5- check if the book button is exsist</t>
+  </si>
+  <si>
+    <t>the page contains book button</t>
+  </si>
+  <si>
+    <t>the button is exsist</t>
+  </si>
+  <si>
+    <t>TAWA_SRS_FR_114
+TAWA_SRS_FR_115</t>
+  </si>
+  <si>
+    <t>TAWA_Destination_006</t>
+  </si>
+  <si>
+    <t>validate that the user will redirected to the booking 
+page when click on book button</t>
+  </si>
+  <si>
+    <t>1-go to the website url
+2-the home page will open 
+3-click on Read more button in the destinations 
+4- the user will be redirected to the destination detailes page
+5- click on the book button is exsist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the user will redirected to the booking page </t>
+  </si>
+  <si>
+    <t>TAWA_Destination_007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">validate that the unsigned user will not be 
+able to see the book or feedback buttons </t>
+  </si>
+  <si>
+    <t>guest</t>
+  </si>
+  <si>
+    <t>1-go to the website url
+2-the home page will open 
+3-click on Read more button in the destinations 
+4- the user will be redirected to the destination detailes page
+5- check book button
+6- check feedback button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">there is no buttons </t>
+  </si>
+  <si>
+    <t xml:space="preserve">buttons are exsisted </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1768,8 +2266,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1806,8 +2316,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1830,12 +2346,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1899,6 +2430,71 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2209,7 +2805,7 @@
   </sheetPr>
   <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
@@ -2488,6 +3084,845 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N14"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.88671875" customWidth="1"/>
+    <col min="2" max="2" width="22.5546875" customWidth="1"/>
+    <col min="3" max="3" width="28.5546875" customWidth="1"/>
+    <col min="4" max="4" width="22.44140625" customWidth="1"/>
+    <col min="5" max="5" width="26.88671875" customWidth="1"/>
+    <col min="6" max="6" width="28.33203125" customWidth="1"/>
+    <col min="7" max="7" width="30.21875" customWidth="1"/>
+    <col min="8" max="8" width="39.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.6640625" customWidth="1"/>
+    <col min="10" max="10" width="20.33203125" customWidth="1"/>
+    <col min="11" max="11" width="14" customWidth="1"/>
+    <col min="12" max="12" width="24.21875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.21875" customWidth="1"/>
+    <col min="14" max="14" width="17.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="43" customFormat="1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A1" s="30" t="s">
+        <v>429</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+      <c r="A2" s="27"/>
+      <c r="B2" s="27" t="s">
+        <v>430</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>431</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="28"/>
+      <c r="F2" s="29" t="s">
+        <v>432</v>
+      </c>
+      <c r="G2" s="29" t="s">
+        <v>433</v>
+      </c>
+      <c r="H2" s="30" t="s">
+        <v>434</v>
+      </c>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28" t="s">
+        <v>435</v>
+      </c>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28" t="s">
+        <v>436</v>
+      </c>
+      <c r="N2" s="27"/>
+    </row>
+    <row r="3" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="9"/>
+      <c r="B3" s="27" t="s">
+        <v>437</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>438</v>
+      </c>
+      <c r="D3" s="28" t="s">
+        <v>439</v>
+      </c>
+      <c r="E3" s="31"/>
+      <c r="F3" s="29" t="s">
+        <v>440</v>
+      </c>
+      <c r="G3" s="9"/>
+      <c r="H3" s="30" t="s">
+        <v>441</v>
+      </c>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="28" t="s">
+        <v>436</v>
+      </c>
+      <c r="N3" s="9"/>
+    </row>
+    <row r="4" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="32" t="s">
+        <v>442</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>443</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>444</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>445</v>
+      </c>
+      <c r="E4" s="31"/>
+      <c r="F4" s="29" t="s">
+        <v>446</v>
+      </c>
+      <c r="G4" s="29" t="s">
+        <v>433</v>
+      </c>
+      <c r="H4" s="30" t="s">
+        <v>447</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>448</v>
+      </c>
+      <c r="J4" s="28" t="s">
+        <v>449</v>
+      </c>
+      <c r="K4" s="28"/>
+      <c r="L4" s="30" t="s">
+        <v>450</v>
+      </c>
+      <c r="M4" s="28" t="s">
+        <v>436</v>
+      </c>
+      <c r="N4" s="9"/>
+    </row>
+    <row r="5" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+      <c r="A5" s="32" t="s">
+        <v>451</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>452</v>
+      </c>
+      <c r="C5" s="34" t="s">
+        <v>453</v>
+      </c>
+      <c r="D5" s="28" t="s">
+        <v>439</v>
+      </c>
+      <c r="E5" s="31"/>
+      <c r="F5" s="29" t="s">
+        <v>454</v>
+      </c>
+      <c r="G5" s="29"/>
+      <c r="H5" s="28" t="s">
+        <v>455</v>
+      </c>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28" t="s">
+        <v>435</v>
+      </c>
+      <c r="K5" s="28"/>
+      <c r="L5" s="30" t="s">
+        <v>456</v>
+      </c>
+      <c r="M5" s="28" t="s">
+        <v>436</v>
+      </c>
+      <c r="N5" s="9"/>
+    </row>
+    <row r="6" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+      <c r="A6" s="35" t="s">
+        <v>451</v>
+      </c>
+      <c r="B6" s="36" t="s">
+        <v>457</v>
+      </c>
+      <c r="C6" s="37" t="s">
+        <v>458</v>
+      </c>
+      <c r="D6" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="38" t="s">
+        <v>459</v>
+      </c>
+      <c r="F6" s="39" t="s">
+        <v>432</v>
+      </c>
+      <c r="G6" s="39" t="s">
+        <v>433</v>
+      </c>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="28" t="s">
+        <v>436</v>
+      </c>
+      <c r="N6" s="40"/>
+    </row>
+    <row r="7" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="32" t="s">
+        <v>460</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>461</v>
+      </c>
+      <c r="C7" s="33" t="s">
+        <v>462</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>439</v>
+      </c>
+      <c r="E7" s="31" t="s">
+        <v>459</v>
+      </c>
+      <c r="F7" s="29" t="s">
+        <v>463</v>
+      </c>
+      <c r="G7" s="9"/>
+      <c r="H7" s="30" t="s">
+        <v>464</v>
+      </c>
+      <c r="I7" s="28" t="s">
+        <v>448</v>
+      </c>
+      <c r="J7" s="28" t="s">
+        <v>449</v>
+      </c>
+      <c r="K7" s="28"/>
+      <c r="L7" s="30" t="s">
+        <v>465</v>
+      </c>
+      <c r="M7" s="28" t="s">
+        <v>436</v>
+      </c>
+      <c r="N7" s="9"/>
+    </row>
+    <row r="8" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="32" t="s">
+        <v>466</v>
+      </c>
+      <c r="B8" s="27" t="s">
+        <v>467</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>468</v>
+      </c>
+      <c r="D8" s="28" t="s">
+        <v>445</v>
+      </c>
+      <c r="E8" s="31"/>
+      <c r="F8" s="29" t="s">
+        <v>469</v>
+      </c>
+      <c r="G8" s="29" t="s">
+        <v>433</v>
+      </c>
+      <c r="H8" s="30" t="s">
+        <v>470</v>
+      </c>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28" t="s">
+        <v>449</v>
+      </c>
+      <c r="K8" s="28"/>
+      <c r="L8" s="30" t="s">
+        <v>471</v>
+      </c>
+      <c r="M8" s="28" t="s">
+        <v>436</v>
+      </c>
+      <c r="N8" s="9"/>
+    </row>
+    <row r="9" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="32" t="s">
+        <v>472</v>
+      </c>
+      <c r="B9" s="27" t="s">
+        <v>473</v>
+      </c>
+      <c r="C9" s="33" t="s">
+        <v>474</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>445</v>
+      </c>
+      <c r="E9" s="31"/>
+      <c r="F9" s="29" t="s">
+        <v>475</v>
+      </c>
+      <c r="G9" s="29" t="s">
+        <v>433</v>
+      </c>
+      <c r="H9" s="30" t="s">
+        <v>476</v>
+      </c>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28" t="s">
+        <v>435</v>
+      </c>
+      <c r="K9" s="28"/>
+      <c r="L9" s="28" t="s">
+        <v>477</v>
+      </c>
+      <c r="M9" s="28" t="s">
+        <v>436</v>
+      </c>
+      <c r="N9" s="9"/>
+    </row>
+    <row r="10" spans="1:14" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="32" t="s">
+        <v>478</v>
+      </c>
+      <c r="B10" s="27" t="s">
+        <v>479</v>
+      </c>
+      <c r="C10" s="34" t="s">
+        <v>480</v>
+      </c>
+      <c r="D10" s="28" t="s">
+        <v>445</v>
+      </c>
+      <c r="E10" s="41" t="s">
+        <v>481</v>
+      </c>
+      <c r="F10" s="29" t="s">
+        <v>482</v>
+      </c>
+      <c r="G10" s="29" t="s">
+        <v>433</v>
+      </c>
+      <c r="H10" s="30" t="s">
+        <v>483</v>
+      </c>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28" t="s">
+        <v>435</v>
+      </c>
+      <c r="K10" s="28"/>
+      <c r="L10" s="30" t="s">
+        <v>484</v>
+      </c>
+      <c r="M10" s="28" t="s">
+        <v>436</v>
+      </c>
+      <c r="N10" s="9"/>
+    </row>
+    <row r="11" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="32" t="s">
+        <v>485</v>
+      </c>
+      <c r="B11" s="27" t="s">
+        <v>486</v>
+      </c>
+      <c r="C11" s="33" t="s">
+        <v>487</v>
+      </c>
+      <c r="D11" s="28" t="s">
+        <v>445</v>
+      </c>
+      <c r="E11" s="31"/>
+      <c r="F11" s="29" t="s">
+        <v>488</v>
+      </c>
+      <c r="G11" s="29" t="s">
+        <v>433</v>
+      </c>
+      <c r="H11" s="30" t="s">
+        <v>489</v>
+      </c>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28" t="s">
+        <v>435</v>
+      </c>
+      <c r="K11" s="28"/>
+      <c r="L11" s="28" t="s">
+        <v>490</v>
+      </c>
+      <c r="M11" s="28" t="s">
+        <v>436</v>
+      </c>
+      <c r="N11" s="9"/>
+    </row>
+    <row r="12" spans="1:14" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="32" t="s">
+        <v>491</v>
+      </c>
+      <c r="B12" s="27" t="s">
+        <v>492</v>
+      </c>
+      <c r="C12" s="34" t="s">
+        <v>493</v>
+      </c>
+      <c r="D12" s="28" t="s">
+        <v>445</v>
+      </c>
+      <c r="E12" s="41" t="s">
+        <v>494</v>
+      </c>
+      <c r="F12" s="29" t="s">
+        <v>495</v>
+      </c>
+      <c r="G12" s="29" t="s">
+        <v>433</v>
+      </c>
+      <c r="H12" s="30" t="s">
+        <v>496</v>
+      </c>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28" t="s">
+        <v>435</v>
+      </c>
+      <c r="K12" s="28"/>
+      <c r="L12" s="30" t="s">
+        <v>497</v>
+      </c>
+      <c r="M12" s="28" t="s">
+        <v>436</v>
+      </c>
+      <c r="N12" s="9"/>
+    </row>
+    <row r="13" spans="1:14" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="9"/>
+      <c r="B13" s="27" t="s">
+        <v>498</v>
+      </c>
+      <c r="C13" s="34" t="s">
+        <v>499</v>
+      </c>
+      <c r="D13" s="28" t="s">
+        <v>445</v>
+      </c>
+      <c r="E13" s="31"/>
+      <c r="F13" s="29" t="s">
+        <v>500</v>
+      </c>
+      <c r="G13" s="29" t="s">
+        <v>433</v>
+      </c>
+      <c r="H13" s="30" t="s">
+        <v>501</v>
+      </c>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28" t="s">
+        <v>435</v>
+      </c>
+      <c r="K13" s="28"/>
+      <c r="L13" s="30" t="s">
+        <v>502</v>
+      </c>
+      <c r="M13" s="28" t="s">
+        <v>436</v>
+      </c>
+      <c r="N13" s="9"/>
+    </row>
+    <row r="14" spans="1:14" ht="94.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="42" t="s">
+        <v>503</v>
+      </c>
+      <c r="B14" s="27" t="s">
+        <v>504</v>
+      </c>
+      <c r="C14" s="34" t="s">
+        <v>499</v>
+      </c>
+      <c r="D14" s="28" t="s">
+        <v>445</v>
+      </c>
+      <c r="E14" s="31"/>
+      <c r="F14" s="29" t="s">
+        <v>500</v>
+      </c>
+      <c r="G14" s="29" t="s">
+        <v>433</v>
+      </c>
+      <c r="H14" s="30" t="s">
+        <v>501</v>
+      </c>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28" t="s">
+        <v>435</v>
+      </c>
+      <c r="K14" s="28"/>
+      <c r="L14" s="30" t="s">
+        <v>502</v>
+      </c>
+      <c r="M14" s="28" t="s">
+        <v>436</v>
+      </c>
+      <c r="N14" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="34.77734375" customWidth="1"/>
+    <col min="2" max="2" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="59.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.44140625" customWidth="1"/>
+    <col min="6" max="6" width="30.6640625" customWidth="1"/>
+    <col min="7" max="7" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.33203125" customWidth="1"/>
+    <col min="9" max="9" width="16.88671875" customWidth="1"/>
+    <col min="10" max="10" width="16.33203125" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="38.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="43" customFormat="1" ht="42.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="44"/>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="42" t="s">
+        <v>505</v>
+      </c>
+      <c r="B2" s="43" t="s">
+        <v>506</v>
+      </c>
+      <c r="C2" s="43" t="s">
+        <v>507</v>
+      </c>
+      <c r="D2" s="43" t="s">
+        <v>508</v>
+      </c>
+      <c r="E2" s="43"/>
+      <c r="F2" s="29" t="s">
+        <v>509</v>
+      </c>
+      <c r="G2" s="21"/>
+      <c r="H2" s="44" t="s">
+        <v>510</v>
+      </c>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43" t="s">
+        <v>435</v>
+      </c>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43" t="s">
+        <v>511</v>
+      </c>
+      <c r="M2" s="43" t="s">
+        <v>436</v>
+      </c>
+      <c r="N2" s="43"/>
+    </row>
+    <row r="3" spans="1:14" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="42" t="s">
+        <v>512</v>
+      </c>
+      <c r="B3" s="43" t="s">
+        <v>513</v>
+      </c>
+      <c r="C3" s="43" t="s">
+        <v>514</v>
+      </c>
+      <c r="D3" s="43" t="s">
+        <v>508</v>
+      </c>
+      <c r="E3" s="43"/>
+      <c r="F3" s="29" t="s">
+        <v>515</v>
+      </c>
+      <c r="H3" s="44" t="s">
+        <v>516</v>
+      </c>
+      <c r="J3" t="s">
+        <v>449</v>
+      </c>
+      <c r="L3" t="s">
+        <v>517</v>
+      </c>
+      <c r="M3" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="42" t="s">
+        <v>518</v>
+      </c>
+      <c r="B4" s="43" t="s">
+        <v>519</v>
+      </c>
+      <c r="C4" s="43" t="s">
+        <v>520</v>
+      </c>
+      <c r="D4" s="43" t="s">
+        <v>521</v>
+      </c>
+      <c r="E4" s="43" t="s">
+        <v>522</v>
+      </c>
+      <c r="F4" s="29" t="s">
+        <v>523</v>
+      </c>
+      <c r="G4" s="30" t="s">
+        <v>433</v>
+      </c>
+      <c r="H4" s="44" t="s">
+        <v>510</v>
+      </c>
+      <c r="J4" t="s">
+        <v>449</v>
+      </c>
+      <c r="L4" t="s">
+        <v>524</v>
+      </c>
+      <c r="M4" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="141" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="42" t="s">
+        <v>525</v>
+      </c>
+      <c r="B5" s="43" t="s">
+        <v>526</v>
+      </c>
+      <c r="C5" s="45" t="s">
+        <v>527</v>
+      </c>
+      <c r="D5" s="43" t="s">
+        <v>521</v>
+      </c>
+      <c r="E5" s="43" t="s">
+        <v>522</v>
+      </c>
+      <c r="F5" s="29" t="s">
+        <v>528</v>
+      </c>
+      <c r="G5" s="30" t="s">
+        <v>433</v>
+      </c>
+      <c r="H5" s="45" t="s">
+        <v>529</v>
+      </c>
+      <c r="J5" t="s">
+        <v>435</v>
+      </c>
+      <c r="L5" t="s">
+        <v>530</v>
+      </c>
+      <c r="M5" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="42" t="s">
+        <v>531</v>
+      </c>
+      <c r="B6" s="43" t="s">
+        <v>532</v>
+      </c>
+      <c r="C6" s="46" t="s">
+        <v>533</v>
+      </c>
+      <c r="D6" s="43" t="s">
+        <v>521</v>
+      </c>
+      <c r="E6" s="43" t="s">
+        <v>522</v>
+      </c>
+      <c r="F6" s="29" t="s">
+        <v>534</v>
+      </c>
+      <c r="G6" s="30" t="s">
+        <v>433</v>
+      </c>
+      <c r="H6" s="45" t="s">
+        <v>535</v>
+      </c>
+      <c r="J6" t="s">
+        <v>435</v>
+      </c>
+      <c r="L6" t="s">
+        <v>536</v>
+      </c>
+      <c r="M6" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="42" t="s">
+        <v>537</v>
+      </c>
+      <c r="B7" s="43" t="s">
+        <v>538</v>
+      </c>
+      <c r="C7" s="44" t="s">
+        <v>539</v>
+      </c>
+      <c r="D7" s="43" t="s">
+        <v>521</v>
+      </c>
+      <c r="E7" s="43" t="s">
+        <v>522</v>
+      </c>
+      <c r="F7" s="29" t="s">
+        <v>540</v>
+      </c>
+      <c r="G7" s="30" t="s">
+        <v>433</v>
+      </c>
+      <c r="H7" s="45" t="s">
+        <v>541</v>
+      </c>
+      <c r="J7" t="s">
+        <v>435</v>
+      </c>
+      <c r="L7" t="s">
+        <v>530</v>
+      </c>
+      <c r="M7" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="47"/>
+      <c r="B8" s="48" t="s">
+        <v>542</v>
+      </c>
+      <c r="C8" s="49" t="s">
+        <v>543</v>
+      </c>
+      <c r="D8" s="48" t="s">
+        <v>544</v>
+      </c>
+      <c r="E8" s="48"/>
+      <c r="F8" s="39" t="s">
+        <v>545</v>
+      </c>
+      <c r="G8" s="47"/>
+      <c r="H8" s="49" t="s">
+        <v>546</v>
+      </c>
+      <c r="I8" s="47"/>
+      <c r="J8" s="47" t="s">
+        <v>449</v>
+      </c>
+      <c r="K8" s="47"/>
+      <c r="L8" s="47" t="s">
+        <v>547</v>
+      </c>
+      <c r="M8" s="47" t="s">
+        <v>436</v>
+      </c>
+      <c r="N8" s="47"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M55"/>
   <sheetViews>
@@ -3612,7 +5047,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M11"/>
   <sheetViews>
@@ -3917,7 +5352,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M21"/>
   <sheetViews>
@@ -4585,7 +6020,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
@@ -4643,7 +6078,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5"/>
@@ -5288,7 +6723,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M17"/>
   <sheetViews>

--- a/Testing/Test Cases/TAWA_TestCases.xlsx
+++ b/Testing/Test Cases/TAWA_TestCases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="ReservedTrips" sheetId="6" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1094" uniqueCount="548">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1137" uniqueCount="544">
   <si>
     <t>ID</t>
   </si>
@@ -90,12 +90,6 @@
     <t>User shall be logged out and redirected to Home Page</t>
   </si>
   <si>
-    <t>Crirical</t>
-  </si>
-  <si>
-    <t>Critical</t>
-  </si>
-  <si>
     <t>TAWA_Login_001</t>
   </si>
   <si>
@@ -108,9 +102,6 @@
     <t>User shall be logged in and redirected to Home Page</t>
   </si>
   <si>
-    <t>High</t>
-  </si>
-  <si>
     <t>TAWA_Login_002</t>
   </si>
   <si>
@@ -157,9 +148,6 @@
   </si>
   <si>
     <t>User shall be logged in and redirected to Admin Page</t>
-  </si>
-  <si>
-    <t>Medium</t>
   </si>
   <si>
     <t>Validate login button functionality with valid admin input</t>
@@ -897,9 +885,6 @@
   </si>
   <si>
     <t>Bug ID</t>
-  </si>
-  <si>
-    <t>Severity</t>
   </si>
   <si>
     <t>TAWA_Admin_001</t>
@@ -2224,12 +2209,15 @@
   <si>
     <t xml:space="preserve">buttons are exsisted </t>
   </si>
+  <si>
+    <t>New</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2253,12 +2241,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color rgb="FFFF0000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
@@ -2279,7 +2261,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2289,12 +2271,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="-0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2364,9 +2340,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -2389,25 +2365,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2428,8 +2400,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2445,7 +2417,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2454,26 +2426,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2488,11 +2460,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2803,280 +2775,275 @@
   <sheetPr>
     <tabColor theme="5"/>
   </sheetPr>
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.33203125" customWidth="1"/>
-    <col min="6" max="6" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.28515625" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:13" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="G1" s="19" t="s">
+      <c r="F1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="G1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="H1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="20" t="s">
+      <c r="I1" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="L1" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="M1" s="19"/>
-      <c r="N1" s="6"/>
-    </row>
-    <row r="2" spans="1:14" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="21" t="s">
+      <c r="J1" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="K1" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1" s="17"/>
+      <c r="M1" s="6"/>
+    </row>
+    <row r="2" spans="1:13" ht="180" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
+        <v>397</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>398</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>399</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>400</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>401</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+    </row>
+    <row r="3" spans="1:13" ht="195" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
         <v>402</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B3" s="20" t="s">
         <v>403</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C3" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D3" s="20" t="s">
         <v>404</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E3" s="20" t="s">
         <v>405</v>
       </c>
-      <c r="F2" s="21"/>
-      <c r="G2" s="22" t="s">
+      <c r="F3" s="19" t="s">
         <v>406</v>
       </c>
-      <c r="H2" s="21" t="s">
-        <v>270</v>
-      </c>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21" t="s">
-        <v>271</v>
-      </c>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-    </row>
-    <row r="3" spans="1:14" ht="187.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="21" t="s">
+      <c r="G3" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+    </row>
+    <row r="4" spans="1:13" ht="210" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
         <v>407</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B4" s="20" t="s">
         <v>408</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C4" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D4" s="20" t="s">
+        <v>399</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>405</v>
+      </c>
+      <c r="F4" s="20" t="s">
         <v>409</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="G4" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+    </row>
+    <row r="5" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+      <c r="A5" s="19" t="s">
         <v>410</v>
       </c>
-      <c r="G3" s="21" t="s">
+      <c r="B5" s="19" t="s">
         <v>411</v>
       </c>
-      <c r="H3" s="21" t="s">
-        <v>270</v>
-      </c>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21" t="s">
-        <v>271</v>
-      </c>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
-    </row>
-    <row r="4" spans="1:14" ht="201.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="21" t="s">
+      <c r="C5" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>399</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>405</v>
+      </c>
+      <c r="F5" s="20" t="s">
         <v>412</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="G5" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+    </row>
+    <row r="6" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+      <c r="A6" s="19" t="s">
         <v>413</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="B6" s="19" t="s">
+        <v>414</v>
+      </c>
+      <c r="C6" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="22" t="s">
-        <v>404</v>
-      </c>
-      <c r="E4" s="22" t="s">
-        <v>410</v>
-      </c>
-      <c r="G4" s="22" t="s">
-        <v>414</v>
-      </c>
-      <c r="H4" s="21" t="s">
-        <v>270</v>
-      </c>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21" t="s">
-        <v>271</v>
-      </c>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
-    </row>
-    <row r="5" spans="1:14" ht="72" x14ac:dyDescent="0.3">
-      <c r="A5" s="21" t="s">
+      <c r="D6" s="20" t="s">
+        <v>399</v>
+      </c>
+      <c r="E6" s="20" t="s">
         <v>415</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="F6" s="20" t="s">
         <v>416</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="G6" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+    </row>
+    <row r="7" spans="1:13" ht="240" x14ac:dyDescent="0.25">
+      <c r="A7" s="19" t="s">
+        <v>417</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>418</v>
+      </c>
+      <c r="C7" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="22" t="s">
-        <v>404</v>
-      </c>
-      <c r="E5" s="22" t="s">
-        <v>410</v>
-      </c>
-      <c r="G5" s="22" t="s">
-        <v>417</v>
-      </c>
-      <c r="H5" s="21" t="s">
-        <v>270</v>
-      </c>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21" t="s">
-        <v>271</v>
-      </c>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
-    </row>
-    <row r="6" spans="1:14" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="21" t="s">
-        <v>418</v>
-      </c>
-      <c r="B6" s="21" t="s">
+      <c r="D7" s="20" t="s">
+        <v>399</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>415</v>
+      </c>
+      <c r="F7" s="20" t="s">
         <v>419</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="G7" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+    </row>
+    <row r="8" spans="1:13" ht="150" x14ac:dyDescent="0.25">
+      <c r="A8" s="19" t="s">
+        <v>420</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>421</v>
+      </c>
+      <c r="C8" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="22" t="s">
-        <v>404</v>
-      </c>
-      <c r="E6" s="22" t="s">
-        <v>420</v>
-      </c>
-      <c r="G6" s="22" t="s">
-        <v>421</v>
-      </c>
-      <c r="H6" s="21" t="s">
-        <v>270</v>
-      </c>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21" t="s">
-        <v>271</v>
-      </c>
-      <c r="L6" s="21"/>
-      <c r="M6" s="21"/>
-    </row>
-    <row r="7" spans="1:14" ht="187.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="21" t="s">
+      <c r="D8" s="20" t="s">
+        <v>399</v>
+      </c>
+      <c r="E8" s="20" t="s">
         <v>422</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="F8" s="19" t="s">
         <v>423</v>
       </c>
-      <c r="C7" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="22" t="s">
-        <v>404</v>
-      </c>
-      <c r="E7" s="22" t="s">
-        <v>420</v>
-      </c>
-      <c r="G7" s="22" t="s">
-        <v>424</v>
-      </c>
-      <c r="H7" s="21" t="s">
-        <v>270</v>
-      </c>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21" t="s">
-        <v>271</v>
-      </c>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21"/>
-    </row>
-    <row r="8" spans="1:14" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="21" t="s">
-        <v>425</v>
-      </c>
-      <c r="B8" s="21" t="s">
-        <v>426</v>
-      </c>
-      <c r="C8" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="22" t="s">
-        <v>404</v>
-      </c>
-      <c r="E8" s="22" t="s">
-        <v>427</v>
-      </c>
-      <c r="G8" s="21" t="s">
-        <v>428</v>
-      </c>
-      <c r="H8" s="21" t="s">
-        <v>270</v>
-      </c>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21" t="s">
-        <v>271</v>
-      </c>
-      <c r="L8" s="21"/>
-      <c r="M8" s="21"/>
+      <c r="G8" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3087,31 +3054,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N14"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.88671875" customWidth="1"/>
-    <col min="2" max="2" width="22.5546875" customWidth="1"/>
-    <col min="3" max="3" width="28.5546875" customWidth="1"/>
-    <col min="4" max="4" width="22.44140625" customWidth="1"/>
-    <col min="5" max="5" width="26.88671875" customWidth="1"/>
-    <col min="6" max="6" width="28.33203125" customWidth="1"/>
-    <col min="7" max="7" width="30.21875" customWidth="1"/>
-    <col min="8" max="8" width="39.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.6640625" customWidth="1"/>
-    <col min="10" max="10" width="20.33203125" customWidth="1"/>
+    <col min="1" max="1" width="22.85546875" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" customWidth="1"/>
+    <col min="3" max="3" width="28.5703125" customWidth="1"/>
+    <col min="4" max="4" width="22.42578125" customWidth="1"/>
+    <col min="5" max="5" width="26.85546875" customWidth="1"/>
+    <col min="6" max="6" width="28.28515625" customWidth="1"/>
+    <col min="7" max="7" width="30.28515625" customWidth="1"/>
+    <col min="8" max="8" width="39.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.7109375" customWidth="1"/>
+    <col min="10" max="10" width="20.28515625" customWidth="1"/>
     <col min="11" max="11" width="14" customWidth="1"/>
-    <col min="12" max="12" width="24.21875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.21875" customWidth="1"/>
-    <col min="14" max="14" width="17.6640625" customWidth="1"/>
+    <col min="12" max="12" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.28515625" customWidth="1"/>
+    <col min="14" max="14" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="43" customFormat="1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
-        <v>429</v>
+    <row r="1" spans="1:14" s="41" customFormat="1" ht="42" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
+        <v>424</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -3129,7 +3096,7 @@
         <v>3</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>4</v>
@@ -3147,467 +3114,467 @@
         <v>8</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="72" x14ac:dyDescent="0.3">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="90" x14ac:dyDescent="0.25">
+      <c r="A2" s="25"/>
+      <c r="B2" s="25" t="s">
+        <v>425</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>426</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="26"/>
+      <c r="F2" s="27" t="s">
+        <v>427</v>
+      </c>
+      <c r="G2" s="27" t="s">
+        <v>428</v>
+      </c>
+      <c r="H2" s="28" t="s">
+        <v>429</v>
+      </c>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26" t="s">
         <v>430</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26" t="s">
         <v>431</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="N2" s="25"/>
+    </row>
+    <row r="3" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="8"/>
+      <c r="B3" s="25" t="s">
+        <v>432</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>433</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>434</v>
+      </c>
+      <c r="E3" s="29"/>
+      <c r="F3" s="27" t="s">
+        <v>435</v>
+      </c>
+      <c r="G3" s="8"/>
+      <c r="H3" s="28" t="s">
+        <v>436</v>
+      </c>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26" t="s">
+        <v>431</v>
+      </c>
+      <c r="N3" s="8"/>
+    </row>
+    <row r="4" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="30" t="s">
+        <v>437</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>438</v>
+      </c>
+      <c r="C4" s="31" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>440</v>
+      </c>
+      <c r="E4" s="29"/>
+      <c r="F4" s="27" t="s">
+        <v>441</v>
+      </c>
+      <c r="G4" s="27" t="s">
+        <v>428</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>442</v>
+      </c>
+      <c r="I4" s="26" t="s">
+        <v>443</v>
+      </c>
+      <c r="J4" s="26" t="s">
+        <v>444</v>
+      </c>
+      <c r="K4" s="26"/>
+      <c r="L4" s="28" t="s">
+        <v>445</v>
+      </c>
+      <c r="M4" s="26" t="s">
+        <v>431</v>
+      </c>
+      <c r="N4" s="8"/>
+    </row>
+    <row r="5" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+      <c r="A5" s="30" t="s">
+        <v>446</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>447</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>448</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>434</v>
+      </c>
+      <c r="E5" s="29"/>
+      <c r="F5" s="27" t="s">
+        <v>449</v>
+      </c>
+      <c r="G5" s="27"/>
+      <c r="H5" s="26" t="s">
+        <v>450</v>
+      </c>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26" t="s">
+        <v>430</v>
+      </c>
+      <c r="K5" s="26"/>
+      <c r="L5" s="28" t="s">
+        <v>451</v>
+      </c>
+      <c r="M5" s="26" t="s">
+        <v>431</v>
+      </c>
+      <c r="N5" s="8"/>
+    </row>
+    <row r="6" spans="1:14" ht="90" x14ac:dyDescent="0.25">
+      <c r="A6" s="33" t="s">
+        <v>446</v>
+      </c>
+      <c r="B6" s="34" t="s">
+        <v>452</v>
+      </c>
+      <c r="C6" s="35" t="s">
+        <v>453</v>
+      </c>
+      <c r="D6" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="28"/>
-      <c r="F2" s="29" t="s">
-        <v>432</v>
-      </c>
-      <c r="G2" s="29" t="s">
-        <v>433</v>
-      </c>
-      <c r="H2" s="30" t="s">
+      <c r="E6" s="36" t="s">
+        <v>454</v>
+      </c>
+      <c r="F6" s="37" t="s">
+        <v>427</v>
+      </c>
+      <c r="G6" s="37" t="s">
+        <v>428</v>
+      </c>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="26" t="s">
+        <v>431</v>
+      </c>
+      <c r="N6" s="38"/>
+    </row>
+    <row r="7" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="30" t="s">
+        <v>455</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>456</v>
+      </c>
+      <c r="C7" s="31" t="s">
+        <v>457</v>
+      </c>
+      <c r="D7" s="26" t="s">
         <v>434</v>
       </c>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28" t="s">
-        <v>435</v>
-      </c>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28" t="s">
-        <v>436</v>
-      </c>
-      <c r="N2" s="27"/>
-    </row>
-    <row r="3" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="9"/>
-      <c r="B3" s="27" t="s">
-        <v>437</v>
-      </c>
-      <c r="C3" s="27" t="s">
-        <v>438</v>
-      </c>
-      <c r="D3" s="28" t="s">
-        <v>439</v>
-      </c>
-      <c r="E3" s="31"/>
-      <c r="F3" s="29" t="s">
+      <c r="E7" s="29" t="s">
+        <v>454</v>
+      </c>
+      <c r="F7" s="27" t="s">
+        <v>458</v>
+      </c>
+      <c r="G7" s="8"/>
+      <c r="H7" s="28" t="s">
+        <v>459</v>
+      </c>
+      <c r="I7" s="26" t="s">
+        <v>443</v>
+      </c>
+      <c r="J7" s="26" t="s">
+        <v>444</v>
+      </c>
+      <c r="K7" s="26"/>
+      <c r="L7" s="28" t="s">
+        <v>460</v>
+      </c>
+      <c r="M7" s="26" t="s">
+        <v>431</v>
+      </c>
+      <c r="N7" s="8"/>
+    </row>
+    <row r="8" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="30" t="s">
+        <v>461</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>462</v>
+      </c>
+      <c r="C8" s="31" t="s">
+        <v>463</v>
+      </c>
+      <c r="D8" s="26" t="s">
         <v>440</v>
       </c>
-      <c r="G3" s="9"/>
-      <c r="H3" s="30" t="s">
-        <v>441</v>
-      </c>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28"/>
-      <c r="M3" s="28" t="s">
-        <v>436</v>
-      </c>
-      <c r="N3" s="9"/>
-    </row>
-    <row r="4" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="32" t="s">
-        <v>442</v>
-      </c>
-      <c r="B4" s="27" t="s">
-        <v>443</v>
-      </c>
-      <c r="C4" s="33" t="s">
+      <c r="E8" s="29"/>
+      <c r="F8" s="27" t="s">
+        <v>464</v>
+      </c>
+      <c r="G8" s="27" t="s">
+        <v>428</v>
+      </c>
+      <c r="H8" s="28" t="s">
+        <v>465</v>
+      </c>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26" t="s">
         <v>444</v>
       </c>
-      <c r="D4" s="28" t="s">
-        <v>445</v>
-      </c>
-      <c r="E4" s="31"/>
-      <c r="F4" s="29" t="s">
-        <v>446</v>
-      </c>
-      <c r="G4" s="29" t="s">
-        <v>433</v>
-      </c>
-      <c r="H4" s="30" t="s">
-        <v>447</v>
-      </c>
-      <c r="I4" s="28" t="s">
-        <v>448</v>
-      </c>
-      <c r="J4" s="28" t="s">
-        <v>449</v>
-      </c>
-      <c r="K4" s="28"/>
-      <c r="L4" s="30" t="s">
-        <v>450</v>
-      </c>
-      <c r="M4" s="28" t="s">
-        <v>436</v>
-      </c>
-      <c r="N4" s="9"/>
-    </row>
-    <row r="5" spans="1:14" ht="72" x14ac:dyDescent="0.3">
-      <c r="A5" s="32" t="s">
-        <v>451</v>
-      </c>
-      <c r="B5" s="27" t="s">
-        <v>452</v>
-      </c>
-      <c r="C5" s="34" t="s">
-        <v>453</v>
-      </c>
-      <c r="D5" s="28" t="s">
-        <v>439</v>
-      </c>
-      <c r="E5" s="31"/>
-      <c r="F5" s="29" t="s">
-        <v>454</v>
-      </c>
-      <c r="G5" s="29"/>
-      <c r="H5" s="28" t="s">
-        <v>455</v>
-      </c>
-      <c r="I5" s="28"/>
-      <c r="J5" s="28" t="s">
-        <v>435</v>
-      </c>
-      <c r="K5" s="28"/>
-      <c r="L5" s="30" t="s">
-        <v>456</v>
-      </c>
-      <c r="M5" s="28" t="s">
-        <v>436</v>
-      </c>
-      <c r="N5" s="9"/>
-    </row>
-    <row r="6" spans="1:14" ht="72" x14ac:dyDescent="0.3">
-      <c r="A6" s="35" t="s">
-        <v>451</v>
-      </c>
-      <c r="B6" s="36" t="s">
-        <v>457</v>
-      </c>
-      <c r="C6" s="37" t="s">
-        <v>458</v>
-      </c>
-      <c r="D6" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="38" t="s">
-        <v>459</v>
-      </c>
-      <c r="F6" s="39" t="s">
-        <v>432</v>
-      </c>
-      <c r="G6" s="39" t="s">
-        <v>433</v>
-      </c>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="28" t="s">
-        <v>436</v>
-      </c>
-      <c r="N6" s="40"/>
-    </row>
-    <row r="7" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="32" t="s">
-        <v>460</v>
-      </c>
-      <c r="B7" s="27" t="s">
-        <v>461</v>
-      </c>
-      <c r="C7" s="33" t="s">
-        <v>462</v>
-      </c>
-      <c r="D7" s="28" t="s">
-        <v>439</v>
-      </c>
-      <c r="E7" s="31" t="s">
-        <v>459</v>
-      </c>
-      <c r="F7" s="29" t="s">
-        <v>463</v>
-      </c>
-      <c r="G7" s="9"/>
-      <c r="H7" s="30" t="s">
-        <v>464</v>
-      </c>
-      <c r="I7" s="28" t="s">
-        <v>448</v>
-      </c>
-      <c r="J7" s="28" t="s">
-        <v>449</v>
-      </c>
-      <c r="K7" s="28"/>
-      <c r="L7" s="30" t="s">
-        <v>465</v>
-      </c>
-      <c r="M7" s="28" t="s">
-        <v>436</v>
-      </c>
-      <c r="N7" s="9"/>
-    </row>
-    <row r="8" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="32" t="s">
+      <c r="K8" s="26"/>
+      <c r="L8" s="28" t="s">
         <v>466</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="M8" s="26" t="s">
+        <v>431</v>
+      </c>
+      <c r="N8" s="8"/>
+    </row>
+    <row r="9" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="30" t="s">
         <v>467</v>
       </c>
-      <c r="C8" s="33" t="s">
+      <c r="B9" s="25" t="s">
         <v>468</v>
       </c>
-      <c r="D8" s="28" t="s">
-        <v>445</v>
-      </c>
-      <c r="E8" s="31"/>
-      <c r="F8" s="29" t="s">
+      <c r="C9" s="31" t="s">
         <v>469</v>
       </c>
-      <c r="G8" s="29" t="s">
-        <v>433</v>
-      </c>
-      <c r="H8" s="30" t="s">
+      <c r="D9" s="26" t="s">
+        <v>440</v>
+      </c>
+      <c r="E9" s="29"/>
+      <c r="F9" s="27" t="s">
         <v>470</v>
       </c>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28" t="s">
-        <v>449</v>
-      </c>
-      <c r="K8" s="28"/>
-      <c r="L8" s="30" t="s">
+      <c r="G9" s="27" t="s">
+        <v>428</v>
+      </c>
+      <c r="H9" s="28" t="s">
         <v>471</v>
       </c>
-      <c r="M8" s="28" t="s">
-        <v>436</v>
-      </c>
-      <c r="N8" s="9"/>
-    </row>
-    <row r="9" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="32" t="s">
+      <c r="I9" s="26"/>
+      <c r="J9" s="26" t="s">
+        <v>430</v>
+      </c>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26" t="s">
         <v>472</v>
       </c>
-      <c r="B9" s="27" t="s">
+      <c r="M9" s="26" t="s">
+        <v>431</v>
+      </c>
+      <c r="N9" s="8"/>
+    </row>
+    <row r="10" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="30" t="s">
         <v>473</v>
       </c>
-      <c r="C9" s="33" t="s">
+      <c r="B10" s="25" t="s">
         <v>474</v>
       </c>
-      <c r="D9" s="28" t="s">
-        <v>445</v>
-      </c>
-      <c r="E9" s="31"/>
-      <c r="F9" s="29" t="s">
+      <c r="C10" s="32" t="s">
         <v>475</v>
       </c>
-      <c r="G9" s="29" t="s">
-        <v>433</v>
-      </c>
-      <c r="H9" s="30" t="s">
+      <c r="D10" s="26" t="s">
+        <v>440</v>
+      </c>
+      <c r="E10" s="39" t="s">
         <v>476</v>
       </c>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28" t="s">
-        <v>435</v>
-      </c>
-      <c r="K9" s="28"/>
-      <c r="L9" s="28" t="s">
+      <c r="F10" s="27" t="s">
         <v>477</v>
       </c>
-      <c r="M9" s="28" t="s">
-        <v>436</v>
-      </c>
-      <c r="N9" s="9"/>
-    </row>
-    <row r="10" spans="1:14" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="32" t="s">
+      <c r="G10" s="27" t="s">
+        <v>428</v>
+      </c>
+      <c r="H10" s="28" t="s">
         <v>478</v>
       </c>
-      <c r="B10" s="27" t="s">
+      <c r="I10" s="26"/>
+      <c r="J10" s="26" t="s">
+        <v>430</v>
+      </c>
+      <c r="K10" s="26"/>
+      <c r="L10" s="28" t="s">
         <v>479</v>
       </c>
-      <c r="C10" s="34" t="s">
+      <c r="M10" s="26" t="s">
+        <v>431</v>
+      </c>
+      <c r="N10" s="8"/>
+    </row>
+    <row r="11" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11" s="30" t="s">
         <v>480</v>
       </c>
-      <c r="D10" s="28" t="s">
-        <v>445</v>
-      </c>
-      <c r="E10" s="41" t="s">
+      <c r="B11" s="25" t="s">
         <v>481</v>
       </c>
-      <c r="F10" s="29" t="s">
+      <c r="C11" s="31" t="s">
         <v>482</v>
       </c>
-      <c r="G10" s="29" t="s">
-        <v>433</v>
-      </c>
-      <c r="H10" s="30" t="s">
+      <c r="D11" s="26" t="s">
+        <v>440</v>
+      </c>
+      <c r="E11" s="29"/>
+      <c r="F11" s="27" t="s">
         <v>483</v>
       </c>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28" t="s">
-        <v>435</v>
-      </c>
-      <c r="K10" s="28"/>
-      <c r="L10" s="30" t="s">
+      <c r="G11" s="27" t="s">
+        <v>428</v>
+      </c>
+      <c r="H11" s="28" t="s">
         <v>484</v>
       </c>
-      <c r="M10" s="28" t="s">
-        <v>436</v>
-      </c>
-      <c r="N10" s="9"/>
-    </row>
-    <row r="11" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="32" t="s">
+      <c r="I11" s="26"/>
+      <c r="J11" s="26" t="s">
+        <v>430</v>
+      </c>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26" t="s">
         <v>485</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="M11" s="26" t="s">
+        <v>431</v>
+      </c>
+      <c r="N11" s="8"/>
+    </row>
+    <row r="12" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12" s="30" t="s">
         <v>486</v>
       </c>
-      <c r="C11" s="33" t="s">
+      <c r="B12" s="25" t="s">
         <v>487</v>
       </c>
-      <c r="D11" s="28" t="s">
-        <v>445</v>
-      </c>
-      <c r="E11" s="31"/>
-      <c r="F11" s="29" t="s">
+      <c r="C12" s="32" t="s">
         <v>488</v>
       </c>
-      <c r="G11" s="29" t="s">
-        <v>433</v>
-      </c>
-      <c r="H11" s="30" t="s">
+      <c r="D12" s="26" t="s">
+        <v>440</v>
+      </c>
+      <c r="E12" s="39" t="s">
         <v>489</v>
       </c>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28" t="s">
-        <v>435</v>
-      </c>
-      <c r="K11" s="28"/>
-      <c r="L11" s="28" t="s">
+      <c r="F12" s="27" t="s">
         <v>490</v>
       </c>
-      <c r="M11" s="28" t="s">
-        <v>436</v>
-      </c>
-      <c r="N11" s="9"/>
-    </row>
-    <row r="12" spans="1:14" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="32" t="s">
+      <c r="G12" s="27" t="s">
+        <v>428</v>
+      </c>
+      <c r="H12" s="28" t="s">
         <v>491</v>
       </c>
-      <c r="B12" s="27" t="s">
+      <c r="I12" s="26"/>
+      <c r="J12" s="26" t="s">
+        <v>430</v>
+      </c>
+      <c r="K12" s="26"/>
+      <c r="L12" s="28" t="s">
         <v>492</v>
       </c>
-      <c r="C12" s="34" t="s">
+      <c r="M12" s="26" t="s">
+        <v>431</v>
+      </c>
+      <c r="N12" s="8"/>
+    </row>
+    <row r="13" spans="1:14" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="8"/>
+      <c r="B13" s="25" t="s">
         <v>493</v>
       </c>
-      <c r="D12" s="28" t="s">
-        <v>445</v>
-      </c>
-      <c r="E12" s="41" t="s">
+      <c r="C13" s="32" t="s">
         <v>494</v>
       </c>
-      <c r="F12" s="29" t="s">
+      <c r="D13" s="26" t="s">
+        <v>440</v>
+      </c>
+      <c r="E13" s="29"/>
+      <c r="F13" s="27" t="s">
         <v>495</v>
       </c>
-      <c r="G12" s="29" t="s">
-        <v>433</v>
-      </c>
-      <c r="H12" s="30" t="s">
+      <c r="G13" s="27" t="s">
+        <v>428</v>
+      </c>
+      <c r="H13" s="28" t="s">
         <v>496</v>
       </c>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28" t="s">
-        <v>435</v>
-      </c>
-      <c r="K12" s="28"/>
-      <c r="L12" s="30" t="s">
+      <c r="I13" s="26"/>
+      <c r="J13" s="26" t="s">
+        <v>430</v>
+      </c>
+      <c r="K13" s="26"/>
+      <c r="L13" s="28" t="s">
         <v>497</v>
       </c>
-      <c r="M12" s="28" t="s">
-        <v>436</v>
-      </c>
-      <c r="N12" s="9"/>
-    </row>
-    <row r="13" spans="1:14" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="9"/>
-      <c r="B13" s="27" t="s">
+      <c r="M13" s="26" t="s">
+        <v>431</v>
+      </c>
+      <c r="N13" s="8"/>
+    </row>
+    <row r="14" spans="1:14" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="40" t="s">
         <v>498</v>
       </c>
-      <c r="C13" s="34" t="s">
+      <c r="B14" s="25" t="s">
         <v>499</v>
       </c>
-      <c r="D13" s="28" t="s">
-        <v>445</v>
-      </c>
-      <c r="E13" s="31"/>
-      <c r="F13" s="29" t="s">
-        <v>500</v>
-      </c>
-      <c r="G13" s="29" t="s">
-        <v>433</v>
-      </c>
-      <c r="H13" s="30" t="s">
-        <v>501</v>
-      </c>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28" t="s">
-        <v>435</v>
-      </c>
-      <c r="K13" s="28"/>
-      <c r="L13" s="30" t="s">
-        <v>502</v>
-      </c>
-      <c r="M13" s="28" t="s">
-        <v>436</v>
-      </c>
-      <c r="N13" s="9"/>
-    </row>
-    <row r="14" spans="1:14" ht="94.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="42" t="s">
-        <v>503</v>
-      </c>
-      <c r="B14" s="27" t="s">
-        <v>504</v>
-      </c>
-      <c r="C14" s="34" t="s">
-        <v>499</v>
-      </c>
-      <c r="D14" s="28" t="s">
-        <v>445</v>
-      </c>
-      <c r="E14" s="31"/>
-      <c r="F14" s="29" t="s">
-        <v>500</v>
-      </c>
-      <c r="G14" s="29" t="s">
-        <v>433</v>
-      </c>
-      <c r="H14" s="30" t="s">
-        <v>501</v>
-      </c>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28" t="s">
-        <v>435</v>
-      </c>
-      <c r="K14" s="28"/>
-      <c r="L14" s="30" t="s">
-        <v>502</v>
-      </c>
-      <c r="M14" s="28" t="s">
-        <v>436</v>
-      </c>
-      <c r="N14" s="9"/>
+      <c r="C14" s="32" t="s">
+        <v>494</v>
+      </c>
+      <c r="D14" s="26" t="s">
+        <v>440</v>
+      </c>
+      <c r="E14" s="29"/>
+      <c r="F14" s="27" t="s">
+        <v>495</v>
+      </c>
+      <c r="G14" s="27" t="s">
+        <v>428</v>
+      </c>
+      <c r="H14" s="28" t="s">
+        <v>496</v>
+      </c>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26" t="s">
+        <v>430</v>
+      </c>
+      <c r="K14" s="26"/>
+      <c r="L14" s="28" t="s">
+        <v>497</v>
+      </c>
+      <c r="M14" s="26" t="s">
+        <v>431</v>
+      </c>
+      <c r="N14" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3618,29 +3585,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.77734375" customWidth="1"/>
-    <col min="2" max="2" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="59.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.44140625" customWidth="1"/>
-    <col min="6" max="6" width="30.6640625" customWidth="1"/>
-    <col min="7" max="7" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.33203125" customWidth="1"/>
-    <col min="9" max="9" width="16.88671875" customWidth="1"/>
-    <col min="10" max="10" width="16.33203125" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="38.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="59.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.42578125" customWidth="1"/>
+    <col min="6" max="6" width="30.7109375" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.28515625" customWidth="1"/>
+    <col min="9" max="9" width="16.85546875" customWidth="1"/>
+    <col min="10" max="10" width="16.28515625" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="38.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="43" customFormat="1" ht="42.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="44"/>
+    <row r="1" spans="1:14" s="41" customFormat="1" ht="42.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="42"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3657,7 +3624,7 @@
         <v>3</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>4</v>
@@ -3675,247 +3642,247 @@
         <v>8</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="42" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="40" t="s">
+        <v>500</v>
+      </c>
+      <c r="B2" s="41" t="s">
+        <v>501</v>
+      </c>
+      <c r="C2" s="41" t="s">
+        <v>502</v>
+      </c>
+      <c r="D2" s="41" t="s">
+        <v>503</v>
+      </c>
+      <c r="E2" s="41"/>
+      <c r="F2" s="27" t="s">
+        <v>504</v>
+      </c>
+      <c r="G2" s="19"/>
+      <c r="H2" s="42" t="s">
         <v>505</v>
       </c>
-      <c r="B2" s="43" t="s">
+      <c r="I2" s="41"/>
+      <c r="J2" s="41" t="s">
+        <v>430</v>
+      </c>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41" t="s">
         <v>506</v>
       </c>
-      <c r="C2" s="43" t="s">
+      <c r="M2" s="41" t="s">
+        <v>431</v>
+      </c>
+      <c r="N2" s="41"/>
+    </row>
+    <row r="3" spans="1:14" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="40" t="s">
         <v>507</v>
       </c>
-      <c r="D2" s="43" t="s">
+      <c r="B3" s="41" t="s">
         <v>508</v>
       </c>
-      <c r="E2" s="43"/>
-      <c r="F2" s="29" t="s">
+      <c r="C3" s="41" t="s">
         <v>509</v>
       </c>
-      <c r="G2" s="21"/>
-      <c r="H2" s="44" t="s">
+      <c r="D3" s="41" t="s">
+        <v>503</v>
+      </c>
+      <c r="E3" s="41"/>
+      <c r="F3" s="27" t="s">
         <v>510</v>
       </c>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43" t="s">
-        <v>435</v>
-      </c>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43" t="s">
+      <c r="H3" s="42" t="s">
         <v>511</v>
       </c>
-      <c r="M2" s="43" t="s">
-        <v>436</v>
-      </c>
-      <c r="N2" s="43"/>
-    </row>
-    <row r="3" spans="1:14" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="42" t="s">
+      <c r="J3" t="s">
+        <v>444</v>
+      </c>
+      <c r="L3" t="s">
         <v>512</v>
       </c>
-      <c r="B3" s="43" t="s">
+      <c r="M3" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="40" t="s">
         <v>513</v>
       </c>
-      <c r="C3" s="43" t="s">
+      <c r="B4" s="41" t="s">
         <v>514</v>
       </c>
-      <c r="D3" s="43" t="s">
-        <v>508</v>
-      </c>
-      <c r="E3" s="43"/>
-      <c r="F3" s="29" t="s">
+      <c r="C4" s="41" t="s">
         <v>515</v>
       </c>
-      <c r="H3" s="44" t="s">
+      <c r="D4" s="41" t="s">
         <v>516</v>
       </c>
-      <c r="J3" t="s">
-        <v>449</v>
-      </c>
-      <c r="L3" t="s">
+      <c r="E4" s="41" t="s">
         <v>517</v>
       </c>
-      <c r="M3" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="42" t="s">
+      <c r="F4" s="27" t="s">
         <v>518</v>
       </c>
-      <c r="B4" s="43" t="s">
+      <c r="G4" s="28" t="s">
+        <v>428</v>
+      </c>
+      <c r="H4" s="42" t="s">
+        <v>505</v>
+      </c>
+      <c r="J4" t="s">
+        <v>444</v>
+      </c>
+      <c r="L4" t="s">
         <v>519</v>
       </c>
-      <c r="C4" s="43" t="s">
+      <c r="M4" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="40" t="s">
         <v>520</v>
       </c>
-      <c r="D4" s="43" t="s">
+      <c r="B5" s="41" t="s">
         <v>521</v>
       </c>
-      <c r="E4" s="43" t="s">
+      <c r="C5" s="43" t="s">
         <v>522</v>
       </c>
-      <c r="F4" s="29" t="s">
+      <c r="D5" s="41" t="s">
+        <v>516</v>
+      </c>
+      <c r="E5" s="41" t="s">
+        <v>517</v>
+      </c>
+      <c r="F5" s="27" t="s">
         <v>523</v>
       </c>
-      <c r="G4" s="30" t="s">
-        <v>433</v>
-      </c>
-      <c r="H4" s="44" t="s">
-        <v>510</v>
-      </c>
-      <c r="J4" t="s">
-        <v>449</v>
-      </c>
-      <c r="L4" t="s">
+      <c r="G5" s="28" t="s">
+        <v>428</v>
+      </c>
+      <c r="H5" s="43" t="s">
         <v>524</v>
       </c>
-      <c r="M4" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="141" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="42" t="s">
+      <c r="J5" t="s">
+        <v>430</v>
+      </c>
+      <c r="L5" t="s">
         <v>525</v>
       </c>
-      <c r="B5" s="43" t="s">
+      <c r="M5" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="40" t="s">
         <v>526</v>
       </c>
-      <c r="C5" s="45" t="s">
+      <c r="B6" s="41" t="s">
         <v>527</v>
       </c>
-      <c r="D5" s="43" t="s">
-        <v>521</v>
-      </c>
-      <c r="E5" s="43" t="s">
-        <v>522</v>
-      </c>
-      <c r="F5" s="29" t="s">
+      <c r="C6" s="44" t="s">
         <v>528</v>
       </c>
-      <c r="G5" s="30" t="s">
-        <v>433</v>
-      </c>
-      <c r="H5" s="45" t="s">
+      <c r="D6" s="41" t="s">
+        <v>516</v>
+      </c>
+      <c r="E6" s="41" t="s">
+        <v>517</v>
+      </c>
+      <c r="F6" s="27" t="s">
         <v>529</v>
       </c>
-      <c r="J5" t="s">
-        <v>435</v>
-      </c>
-      <c r="L5" t="s">
+      <c r="G6" s="28" t="s">
+        <v>428</v>
+      </c>
+      <c r="H6" s="43" t="s">
         <v>530</v>
       </c>
-      <c r="M5" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="42" t="s">
+      <c r="J6" t="s">
+        <v>430</v>
+      </c>
+      <c r="L6" t="s">
         <v>531</v>
       </c>
-      <c r="B6" s="43" t="s">
+      <c r="M6" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="40" t="s">
         <v>532</v>
       </c>
-      <c r="C6" s="46" t="s">
+      <c r="B7" s="41" t="s">
         <v>533</v>
       </c>
-      <c r="D6" s="43" t="s">
-        <v>521</v>
-      </c>
-      <c r="E6" s="43" t="s">
-        <v>522</v>
-      </c>
-      <c r="F6" s="29" t="s">
+      <c r="C7" s="42" t="s">
         <v>534</v>
       </c>
-      <c r="G6" s="30" t="s">
-        <v>433</v>
-      </c>
-      <c r="H6" s="45" t="s">
+      <c r="D7" s="41" t="s">
+        <v>516</v>
+      </c>
+      <c r="E7" s="41" t="s">
+        <v>517</v>
+      </c>
+      <c r="F7" s="27" t="s">
         <v>535</v>
       </c>
-      <c r="J6" t="s">
-        <v>435</v>
-      </c>
-      <c r="L6" t="s">
+      <c r="G7" s="28" t="s">
+        <v>428</v>
+      </c>
+      <c r="H7" s="43" t="s">
         <v>536</v>
       </c>
-      <c r="M6" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="42" t="s">
+      <c r="J7" t="s">
+        <v>430</v>
+      </c>
+      <c r="L7" t="s">
+        <v>525</v>
+      </c>
+      <c r="M7" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="120" x14ac:dyDescent="0.25">
+      <c r="A8" s="45"/>
+      <c r="B8" s="46" t="s">
         <v>537</v>
       </c>
-      <c r="B7" s="43" t="s">
+      <c r="C8" s="47" t="s">
         <v>538</v>
       </c>
-      <c r="C7" s="44" t="s">
+      <c r="D8" s="46" t="s">
         <v>539</v>
       </c>
-      <c r="D7" s="43" t="s">
-        <v>521</v>
-      </c>
-      <c r="E7" s="43" t="s">
-        <v>522</v>
-      </c>
-      <c r="F7" s="29" t="s">
+      <c r="E8" s="46"/>
+      <c r="F8" s="37" t="s">
         <v>540</v>
       </c>
-      <c r="G7" s="30" t="s">
-        <v>433</v>
-      </c>
-      <c r="H7" s="45" t="s">
+      <c r="G8" s="45"/>
+      <c r="H8" s="47" t="s">
         <v>541</v>
       </c>
-      <c r="J7" t="s">
-        <v>435</v>
-      </c>
-      <c r="L7" t="s">
-        <v>530</v>
-      </c>
-      <c r="M7" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="47"/>
-      <c r="B8" s="48" t="s">
+      <c r="I8" s="45"/>
+      <c r="J8" s="45" t="s">
+        <v>444</v>
+      </c>
+      <c r="K8" s="45"/>
+      <c r="L8" s="45" t="s">
         <v>542</v>
       </c>
-      <c r="C8" s="49" t="s">
-        <v>543</v>
-      </c>
-      <c r="D8" s="48" t="s">
-        <v>544</v>
-      </c>
-      <c r="E8" s="48"/>
-      <c r="F8" s="39" t="s">
-        <v>545</v>
-      </c>
-      <c r="G8" s="47"/>
-      <c r="H8" s="49" t="s">
-        <v>546</v>
-      </c>
-      <c r="I8" s="47"/>
-      <c r="J8" s="47" t="s">
-        <v>449</v>
-      </c>
-      <c r="K8" s="47"/>
-      <c r="L8" s="47" t="s">
-        <v>547</v>
-      </c>
-      <c r="M8" s="47" t="s">
-        <v>436</v>
-      </c>
-      <c r="N8" s="47"/>
+      <c r="M8" s="45" t="s">
+        <v>431</v>
+      </c>
+      <c r="N8" s="45"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3924,31 +3891,29 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M55"/>
+  <dimension ref="A1:K55"/>
   <sheetViews>
-    <sheetView topLeftCell="H24" workbookViewId="0">
-      <selection sqref="A1:M27"/>
+    <sheetView tabSelected="1" topLeftCell="E52" workbookViewId="0">
+      <selection activeCell="G55" sqref="G55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.88671875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="51.109375" style="5" customWidth="1"/>
+    <col min="1" max="1" width="24.85546875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="51.140625" style="5" customWidth="1"/>
     <col min="3" max="3" width="26" style="7" customWidth="1"/>
     <col min="4" max="4" width="26" style="5" customWidth="1"/>
-    <col min="5" max="5" width="56.6640625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="31.33203125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="50.5546875" style="5" customWidth="1"/>
-    <col min="8" max="8" width="25.44140625" style="7" customWidth="1"/>
-    <col min="9" max="9" width="26.44140625" style="7" customWidth="1"/>
-    <col min="10" max="10" width="24" style="5" customWidth="1"/>
-    <col min="11" max="11" width="31.88671875" style="5" customWidth="1"/>
-    <col min="12" max="12" width="23" style="5" customWidth="1"/>
-    <col min="13" max="13" width="19" style="5" customWidth="1"/>
-    <col min="14" max="16384" width="9.109375" style="5"/>
+    <col min="5" max="5" width="56.7109375" style="5" customWidth="1"/>
+    <col min="6" max="6" width="50.5703125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="26.42578125" style="7" customWidth="1"/>
+    <col min="8" max="8" width="24" style="5" customWidth="1"/>
+    <col min="9" max="9" width="31.85546875" style="5" customWidth="1"/>
+    <col min="10" max="10" width="23" style="5" customWidth="1"/>
+    <col min="11" max="11" width="19" style="5" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3965,1080 +3930,1226 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="J1" s="6" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="M1" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>63</v>
-      </c>
       <c r="B2" s="5" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C2" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+      <c r="G2" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="L9" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="G10" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="L10" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="87" x14ac:dyDescent="0.35">
+      <c r="F10" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="F11" s="8"/>
-      <c r="G11" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="L11" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="L12" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
+        <v>101</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="L13" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="L14" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="L15" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="L16" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="L17" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="L18" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E19" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="G19" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="L19" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A20" s="5" t="s">
-        <v>121</v>
-      </c>
       <c r="B20" s="5" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="L20" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="L21" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+        <v>122</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="L22" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+        <v>125</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="G23" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="L23" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="F23" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="L24" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+        <v>129</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="J24" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="L25" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+        <v>137</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="J25" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B26" s="5" t="s">
         <v>139</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>143</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="L26" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+        <v>141</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="J26" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="L27" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C28" s="12"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
-    </row>
-    <row r="29" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+        <v>142</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="J27" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C28" s="10"/>
+      <c r="G28" s="10"/>
+    </row>
+    <row r="29" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>16</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="L29" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+        <v>171</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="J29" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>16</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="L30" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+        <v>172</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="J30" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>16</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="G31" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="L31" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+        <v>173</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="J31" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>16</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="G32" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="L32" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="F32" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="J32" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>16</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="G33" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="L33" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+        <v>175</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="J33" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>16</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="G34" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="L34" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
+        <v>176</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="J34" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>16</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="G35" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="L35" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
+        <v>177</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="J35" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C36" s="7" t="s">
         <v>16</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="G36" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="L36" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" ht="87" x14ac:dyDescent="0.35">
+        <v>177</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="J36" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C37" s="7" t="s">
         <v>16</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="F37" s="8"/>
-      <c r="G37" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="L37" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+        <v>178</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="J37" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C38" s="7" t="s">
         <v>16</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="G38" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="L38" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+        <v>179</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="J38" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C39" s="7" t="s">
         <v>16</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="G39" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="L39" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+        <v>180</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="J39" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>16</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="G40" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="L40" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+        <v>181</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="J40" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C41" s="7" t="s">
         <v>16</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="G41" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="L41" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+        <v>182</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="J41" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C42" s="7" t="s">
         <v>16</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="G42" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="L42" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="J42" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C43" s="7" t="s">
         <v>16</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="G43" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="L43" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+        <v>184</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="J43" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C44" s="7" t="s">
         <v>16</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="G44" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="L44" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="J44" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C45" s="7" t="s">
         <v>16</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="G45" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="L45" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+        <v>186</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="J45" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C46" s="7" t="s">
         <v>16</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="G46" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="L46" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+        <v>187</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="J46" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C47" s="7" t="s">
         <v>16</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="G47" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="L47" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+        <v>188</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="J47" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C48" s="7" t="s">
         <v>16</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="G48" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="L48" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+        <v>189</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="J48" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C49" s="7" t="s">
         <v>16</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="G49" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="L49" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
+        <v>190</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="J49" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C50" s="7" t="s">
         <v>16</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="G50" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="L50" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+        <v>191</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="J50" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C51" s="7" t="s">
         <v>16</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="G51" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="L51" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+        <v>192</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="J51" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C52" s="7" t="s">
         <v>16</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="G52" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="L52" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+        <v>193</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="G52" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="J52" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C53" s="7" t="s">
         <v>16</v>
       </c>
       <c r="E53" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G53" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="J53" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C54" s="10"/>
+      <c r="G54" s="10"/>
+    </row>
+    <row r="55" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A55" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="E55" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="G53" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="L53" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C54" s="12"/>
-      <c r="H54" s="12"/>
-      <c r="I54" s="12"/>
-    </row>
-    <row r="55" spans="1:12" ht="72" x14ac:dyDescent="0.3">
-      <c r="A55" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="B55" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="C55" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="E55" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="G55" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="L55" s="5" t="s">
-        <v>54</v>
+      <c r="F55" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G55" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="J55" s="5" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -5049,31 +5160,29 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="C8" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.6640625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="57.109375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="23.44140625" style="7" customWidth="1"/>
-    <col min="4" max="4" width="23.44140625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="62.33203125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="25.6640625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="46.5546875" style="5" customWidth="1"/>
-    <col min="8" max="8" width="21.88671875" style="7" customWidth="1"/>
-    <col min="9" max="9" width="20.109375" style="7" customWidth="1"/>
-    <col min="10" max="10" width="25.33203125" style="5" customWidth="1"/>
-    <col min="11" max="11" width="18.6640625" style="5" customWidth="1"/>
-    <col min="12" max="12" width="28" style="5" customWidth="1"/>
-    <col min="13" max="13" width="31.109375" style="5" customWidth="1"/>
-    <col min="14" max="16384" width="9.109375" style="5"/>
+    <col min="1" max="1" width="25.7109375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="57.140625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="62.28515625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="46.5703125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="20.140625" style="7" customWidth="1"/>
+    <col min="8" max="8" width="25.28515625" style="5" customWidth="1"/>
+    <col min="9" max="9" width="18.7109375" style="5" customWidth="1"/>
+    <col min="10" max="10" width="28" style="5" customWidth="1"/>
+    <col min="11" max="11" width="31.140625" style="5" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5090,261 +5199,258 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="72" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
-        <v>29</v>
-      </c>
       <c r="B3" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="G3" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="J3" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="G3" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>16</v>
       </c>
       <c r="D4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>43</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="72" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>47</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>16</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="H6" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="L6" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="72" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>31</v>
-      </c>
       <c r="E7" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>16</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L9" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E10" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F10" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="G10" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L10" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+      <c r="G10" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>16</v>
       </c>
       <c r="E11" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="G11" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L11" s="5" t="s">
-        <v>54</v>
+      <c r="G11" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -5354,30 +5460,29 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M21"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5546875" customWidth="1"/>
-    <col min="2" max="2" width="18.33203125" customWidth="1"/>
-    <col min="3" max="3" width="22.5546875" customWidth="1"/>
-    <col min="4" max="4" width="9.109375" customWidth="1"/>
-    <col min="5" max="5" width="30.5546875" customWidth="1"/>
-    <col min="6" max="6" width="34.44140625" customWidth="1"/>
-    <col min="7" max="7" width="46.6640625" customWidth="1"/>
-    <col min="8" max="8" width="39.33203125" customWidth="1"/>
-    <col min="9" max="9" width="14.6640625" customWidth="1"/>
-    <col min="10" max="10" width="21.44140625" customWidth="1"/>
-    <col min="11" max="11" width="18.33203125" customWidth="1"/>
-    <col min="12" max="12" width="29" customWidth="1"/>
-    <col min="13" max="13" width="20.88671875" customWidth="1"/>
+    <col min="1" max="1" width="18.5703125" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" customWidth="1"/>
+    <col min="5" max="5" width="30.5703125" customWidth="1"/>
+    <col min="6" max="6" width="34.42578125" customWidth="1"/>
+    <col min="7" max="7" width="46.7109375" customWidth="1"/>
+    <col min="8" max="8" width="39.28515625" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" customWidth="1"/>
+    <col min="10" max="10" width="21.42578125" customWidth="1"/>
+    <col min="11" max="11" width="29" customWidth="1"/>
+    <col min="12" max="12" width="20.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="5" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="5" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5403,615 +5508,612 @@
         <v>6</v>
       </c>
       <c r="J1" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="13" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>360</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>354</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>244</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>242</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="13" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>361</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>356</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>245</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="13" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
         <v>203</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="B4" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>362</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>355</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>253</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="K4" s="13" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="15" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
         <v>204</v>
       </c>
-      <c r="L1" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" s="15" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="s">
+      <c r="B5" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>363</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>356</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>254</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="I5" s="15" t="s">
+        <v>248</v>
+      </c>
+      <c r="J5" s="15" t="s">
+        <v>376</v>
+      </c>
+      <c r="K5" s="15" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="13" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="B2" s="15" t="s">
-        <v>205</v>
-      </c>
-      <c r="C2" s="15" t="s">
+      <c r="B6" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>364</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>356</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>256</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>257</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="K6" s="13" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="15" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>358</v>
+      </c>
+      <c r="C7" s="15" t="s">
         <v>365</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D7" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E7" s="16" t="s">
+        <v>356</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>326</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>327</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>328</v>
+      </c>
+      <c r="I7" s="15" t="s">
+        <v>248</v>
+      </c>
+      <c r="J7" s="15" t="s">
+        <v>377</v>
+      </c>
+      <c r="K7" s="15" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" s="13" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>366</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>356</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>330</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>331</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="K8" s="13" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:12" s="13" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>334</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>367</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>356</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>336</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>333</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="K10" s="13" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" s="13" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>381</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>356</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>335</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>247</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>337</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="K11" s="13" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" s="13" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>382</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>356</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>383</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>384</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>385</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="K12" s="13" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" s="15" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A13" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="B13" s="15" t="s">
         <v>359</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="C13" s="15" t="s">
+        <v>368</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>356</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>342</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="H13" s="15" t="s">
+        <v>338</v>
+      </c>
+      <c r="I13" s="15" t="s">
+        <v>248</v>
+      </c>
+      <c r="J13" s="15" t="s">
+        <v>380</v>
+      </c>
+      <c r="K13" s="15" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" s="15" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A14" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>369</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>356</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>342</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="H14" s="15" t="s">
+        <v>338</v>
+      </c>
+      <c r="I14" s="15" t="s">
+        <v>248</v>
+      </c>
+      <c r="J14" s="15" t="s">
+        <v>250</v>
+      </c>
+      <c r="K14" s="15" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" s="15" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A15" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>370</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>356</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>342</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="H15" s="15" t="s">
+        <v>338</v>
+      </c>
+      <c r="I15" s="15" t="s">
+        <v>248</v>
+      </c>
+      <c r="J15" s="15" t="s">
+        <v>378</v>
+      </c>
+      <c r="K15" s="15" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="1:11" s="13" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A17" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>371</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>356</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>339</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>340</v>
+      </c>
+      <c r="I17" s="13" t="s">
         <v>249</v>
       </c>
-      <c r="G2" s="16" t="s">
-        <v>247</v>
-      </c>
-      <c r="H2" s="15" t="s">
-        <v>257</v>
-      </c>
-      <c r="I2" s="15" t="s">
-        <v>254</v>
-      </c>
-      <c r="L2" s="15" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" s="15" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>231</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>366</v>
-      </c>
-      <c r="D3" s="15" t="s">
+      <c r="K17" s="13" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" s="15" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A18" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>372</v>
+      </c>
+      <c r="D18" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="16" t="s">
-        <v>361</v>
-      </c>
-      <c r="F3" s="16" t="s">
-        <v>250</v>
-      </c>
-      <c r="G3" s="15" t="s">
+      <c r="E18" s="16" t="s">
+        <v>356</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>341</v>
+      </c>
+      <c r="G18" s="15" t="s">
+        <v>222</v>
+      </c>
+      <c r="H18" s="15" t="s">
+        <v>343</v>
+      </c>
+      <c r="I18" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="J18" s="15" t="s">
+        <v>379</v>
+      </c>
+      <c r="K18" s="15" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" s="15" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A19" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>373</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>356</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>341</v>
+      </c>
+      <c r="G19" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="H19" s="15" t="s">
+        <v>344</v>
+      </c>
+      <c r="I19" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="I3" s="15" t="s">
-        <v>254</v>
-      </c>
-      <c r="L3" s="15" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" s="15" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="15" t="s">
-        <v>208</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>232</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>367</v>
-      </c>
-      <c r="D4" s="15" t="s">
+      <c r="J19" s="15" t="s">
+        <v>251</v>
+      </c>
+      <c r="K19" s="15" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" s="13" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A20" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>374</v>
+      </c>
+      <c r="D20" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="16" t="s">
-        <v>360</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>258</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>251</v>
-      </c>
-      <c r="H4" s="15" t="s">
-        <v>251</v>
-      </c>
-      <c r="I4" s="15" t="s">
-        <v>254</v>
-      </c>
-      <c r="L4" s="15" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" s="17" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="17" t="s">
-        <v>209</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>233</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>368</v>
-      </c>
-      <c r="D5" s="17" t="s">
+      <c r="E20" s="14" t="s">
+        <v>356</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>345</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="H20" s="13" t="s">
+        <v>347</v>
+      </c>
+      <c r="I20" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="K20" s="13" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" s="13" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A21" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>375</v>
+      </c>
+      <c r="D21" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="18" t="s">
-        <v>361</v>
-      </c>
-      <c r="F5" s="18" t="s">
-        <v>259</v>
-      </c>
-      <c r="G5" s="17" t="s">
-        <v>210</v>
-      </c>
-      <c r="H5" s="17" t="s">
-        <v>260</v>
-      </c>
-      <c r="I5" s="17" t="s">
-        <v>253</v>
-      </c>
-      <c r="J5" s="17" t="s">
-        <v>381</v>
-      </c>
-      <c r="L5" s="17" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" s="15" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="15" t="s">
-        <v>211</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>234</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>369</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>361</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>261</v>
-      </c>
-      <c r="G6" s="15" t="s">
-        <v>263</v>
-      </c>
-      <c r="H6" s="15" t="s">
-        <v>262</v>
-      </c>
-      <c r="I6" s="15" t="s">
-        <v>254</v>
-      </c>
-      <c r="L6" s="15" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" s="17" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="17" t="s">
-        <v>212</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>363</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>370</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="18" t="s">
-        <v>361</v>
-      </c>
-      <c r="F7" s="18" t="s">
-        <v>331</v>
-      </c>
-      <c r="G7" s="17" t="s">
-        <v>332</v>
-      </c>
-      <c r="H7" s="17" t="s">
-        <v>333</v>
-      </c>
-      <c r="I7" s="17" t="s">
-        <v>253</v>
-      </c>
-      <c r="J7" s="17" t="s">
-        <v>382</v>
-      </c>
-      <c r="L7" s="17" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" s="15" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="15" t="s">
-        <v>213</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>235</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>371</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>361</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>334</v>
-      </c>
-      <c r="G8" s="15" t="s">
-        <v>335</v>
-      </c>
-      <c r="H8" s="15" t="s">
-        <v>336</v>
-      </c>
-      <c r="I8" s="15" t="s">
-        <v>254</v>
-      </c>
-      <c r="L8" s="15" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:13" s="15" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="16" t="s">
-        <v>339</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>236</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>372</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>361</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>341</v>
-      </c>
-      <c r="G10" s="15" t="s">
-        <v>337</v>
-      </c>
-      <c r="H10" s="15" t="s">
-        <v>338</v>
-      </c>
-      <c r="I10" s="15" t="s">
-        <v>254</v>
-      </c>
-      <c r="L10" s="15" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" s="15" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="15" t="s">
-        <v>214</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>386</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>361</v>
-      </c>
-      <c r="F11" s="16" t="s">
-        <v>340</v>
-      </c>
-      <c r="G11" s="15" t="s">
-        <v>252</v>
-      </c>
-      <c r="H11" s="15" t="s">
-        <v>342</v>
-      </c>
-      <c r="I11" s="15" t="s">
-        <v>254</v>
-      </c>
-      <c r="L11" s="15" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" s="15" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="15" t="s">
-        <v>214</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>387</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>361</v>
-      </c>
-      <c r="F12" s="16" t="s">
-        <v>388</v>
-      </c>
-      <c r="G12" s="15" t="s">
-        <v>389</v>
-      </c>
-      <c r="H12" s="15" t="s">
-        <v>390</v>
-      </c>
-      <c r="I12" s="15" t="s">
-        <v>254</v>
-      </c>
-      <c r="L12" s="15" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" s="17" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="17" t="s">
-        <v>215</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>364</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>373</v>
-      </c>
-      <c r="D13" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" s="18" t="s">
-        <v>361</v>
-      </c>
-      <c r="F13" s="18" t="s">
+      <c r="E21" s="14" t="s">
+        <v>356</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>346</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="H21" s="13" t="s">
         <v>347</v>
       </c>
-      <c r="G13" s="17" t="s">
-        <v>216</v>
-      </c>
-      <c r="H13" s="17" t="s">
-        <v>343</v>
-      </c>
-      <c r="I13" s="17" t="s">
-        <v>253</v>
-      </c>
-      <c r="J13" s="17" t="s">
-        <v>385</v>
-      </c>
-      <c r="L13" s="17" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" s="17" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="17" t="s">
-        <v>217</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>239</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>374</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" s="18" t="s">
-        <v>361</v>
-      </c>
-      <c r="F14" s="18" t="s">
-        <v>347</v>
-      </c>
-      <c r="G14" s="17" t="s">
-        <v>218</v>
-      </c>
-      <c r="H14" s="17" t="s">
-        <v>343</v>
-      </c>
-      <c r="I14" s="17" t="s">
-        <v>253</v>
-      </c>
-      <c r="J14" s="17" t="s">
-        <v>255</v>
-      </c>
-      <c r="L14" s="17" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" s="17" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="17" t="s">
-        <v>219</v>
-      </c>
-      <c r="B15" s="17" t="s">
-        <v>240</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>375</v>
-      </c>
-      <c r="D15" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15" s="18" t="s">
-        <v>361</v>
-      </c>
-      <c r="F15" s="18" t="s">
-        <v>347</v>
-      </c>
-      <c r="G15" s="17" t="s">
-        <v>220</v>
-      </c>
-      <c r="H15" s="17" t="s">
-        <v>343</v>
-      </c>
-      <c r="I15" s="17" t="s">
-        <v>253</v>
-      </c>
-      <c r="J15" s="17" t="s">
-        <v>383</v>
-      </c>
-      <c r="L15" s="17" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="1:12" s="15" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="15" t="s">
-        <v>221</v>
-      </c>
-      <c r="B17" s="15" t="s">
+      <c r="I21" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="K21" s="13" t="s">
         <v>241</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>376</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>361</v>
-      </c>
-      <c r="F17" s="15" t="s">
-        <v>344</v>
-      </c>
-      <c r="G17" s="15" t="s">
-        <v>226</v>
-      </c>
-      <c r="H17" s="15" t="s">
-        <v>345</v>
-      </c>
-      <c r="I17" s="15" t="s">
-        <v>254</v>
-      </c>
-      <c r="L17" s="15" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" s="17" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="17" t="s">
-        <v>222</v>
-      </c>
-      <c r="B18" s="17" t="s">
-        <v>242</v>
-      </c>
-      <c r="C18" s="17" t="s">
-        <v>377</v>
-      </c>
-      <c r="D18" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E18" s="18" t="s">
-        <v>361</v>
-      </c>
-      <c r="F18" s="18" t="s">
-        <v>346</v>
-      </c>
-      <c r="G18" s="17" t="s">
-        <v>227</v>
-      </c>
-      <c r="H18" s="17" t="s">
-        <v>348</v>
-      </c>
-      <c r="I18" s="17" t="s">
-        <v>253</v>
-      </c>
-      <c r="J18" s="17" t="s">
-        <v>384</v>
-      </c>
-      <c r="L18" s="17" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" s="17" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="17" t="s">
-        <v>223</v>
-      </c>
-      <c r="B19" s="17" t="s">
-        <v>243</v>
-      </c>
-      <c r="C19" s="17" t="s">
-        <v>378</v>
-      </c>
-      <c r="D19" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E19" s="18" t="s">
-        <v>361</v>
-      </c>
-      <c r="F19" s="18" t="s">
-        <v>346</v>
-      </c>
-      <c r="G19" s="17" t="s">
-        <v>228</v>
-      </c>
-      <c r="H19" s="17" t="s">
-        <v>349</v>
-      </c>
-      <c r="I19" s="17" t="s">
-        <v>253</v>
-      </c>
-      <c r="J19" s="17" t="s">
-        <v>256</v>
-      </c>
-      <c r="L19" s="17" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" s="15" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="15" t="s">
-        <v>224</v>
-      </c>
-      <c r="B20" s="15" t="s">
-        <v>244</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>379</v>
-      </c>
-      <c r="D20" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E20" s="16" t="s">
-        <v>361</v>
-      </c>
-      <c r="F20" s="16" t="s">
-        <v>350</v>
-      </c>
-      <c r="G20" s="15" t="s">
-        <v>229</v>
-      </c>
-      <c r="H20" s="15" t="s">
-        <v>352</v>
-      </c>
-      <c r="I20" s="15" t="s">
-        <v>254</v>
-      </c>
-      <c r="L20" s="15" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" s="15" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="15" t="s">
-        <v>225</v>
-      </c>
-      <c r="B21" s="15" t="s">
-        <v>245</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>380</v>
-      </c>
-      <c r="D21" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E21" s="16" t="s">
-        <v>361</v>
-      </c>
-      <c r="F21" s="16" t="s">
-        <v>351</v>
-      </c>
-      <c r="G21" s="15" t="s">
-        <v>230</v>
-      </c>
-      <c r="H21" s="15" t="s">
-        <v>352</v>
-      </c>
-      <c r="I21" s="15" t="s">
-        <v>254</v>
-      </c>
-      <c r="L21" s="15" t="s">
-        <v>246</v>
       </c>
     </row>
   </sheetData>
@@ -6028,44 +6130,44 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.109375" customWidth="1"/>
-    <col min="2" max="2" width="17.109375" customWidth="1"/>
+    <col min="1" max="1" width="26.140625" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>349</v>
+      </c>
+      <c r="B2" s="23" t="s">
         <v>353</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="3" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="24"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>350</v>
+      </c>
+      <c r="B4" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>354</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="26"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>355</v>
-      </c>
-      <c r="B4" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>356</v>
-      </c>
-      <c r="B5" s="25">
+        <v>351</v>
+      </c>
+      <c r="B5" s="23">
         <v>1234</v>
       </c>
     </row>
@@ -6083,640 +6185,597 @@
   <sheetPr>
     <tabColor theme="5"/>
   </sheetPr>
-  <dimension ref="A1:O19"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.109375" style="23" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.6640625" style="23" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.33203125" style="23" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.6640625" style="23" customWidth="1"/>
-    <col min="6" max="6" width="29.33203125" style="23" customWidth="1"/>
-    <col min="7" max="7" width="15.109375" style="23" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27" style="23" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13" style="23" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.44140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.88671875" style="23" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.5546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.5546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="25" style="23" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.88671875" style="23"/>
+    <col min="1" max="1" width="18.140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.7109375" style="21" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" style="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.7109375" style="21" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13" style="21" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" style="21" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.85546875" style="21" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.5703125" style="21" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.5703125" style="21" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="25" style="21" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.85546875" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:13" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="G1" s="19" t="s">
+      <c r="F1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="19" t="s">
+      <c r="G1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="20" t="s">
+      <c r="H1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="20" t="s">
+      <c r="I1" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="M1" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="N1" s="20" t="s">
+      <c r="J1" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="K1" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="M1" s="18"/>
+    </row>
+    <row r="2" spans="1:13" ht="137.44999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
+        <v>260</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>261</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>262</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>263</v>
+      </c>
+      <c r="F2" s="20" t="s">
         <v>264</v>
       </c>
-      <c r="O1" s="20"/>
-    </row>
-    <row r="2" spans="1:15" ht="137.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="21" t="s">
+      <c r="G2" s="19" t="s">
         <v>265</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19" t="s">
         <v>266</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="K2" s="19"/>
+      <c r="L2" s="21" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="135" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
+        <v>268</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>386</v>
+      </c>
+      <c r="C3" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="22" t="s">
-        <v>267</v>
-      </c>
-      <c r="E2" s="22" t="s">
-        <v>268</v>
-      </c>
-      <c r="F2" s="21"/>
-      <c r="G2" s="22" t="s">
+      <c r="D3" s="20" t="s">
+        <v>262</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>387</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>388</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="K3" s="19"/>
+    </row>
+    <row r="4" spans="1:13" ht="122.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
+        <v>270</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>389</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>262</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>390</v>
+      </c>
+      <c r="F4" s="20" t="s">
         <v>269</v>
       </c>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21" t="s">
-        <v>270</v>
-      </c>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21" t="s">
+      <c r="G4" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="K4" s="19"/>
+    </row>
+    <row r="5" spans="1:13" ht="135" x14ac:dyDescent="0.25">
+      <c r="A5" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="B5" s="19" t="s">
         <v>271</v>
       </c>
-      <c r="M2" s="21"/>
-      <c r="N2" s="23" t="s">
+      <c r="C5" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>262</v>
+      </c>
+      <c r="E5" s="20" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="21" t="s">
+      <c r="F5" s="20" t="s">
         <v>273</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="G5" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="K5" s="19"/>
+    </row>
+    <row r="6" spans="1:13" ht="150" x14ac:dyDescent="0.25">
+      <c r="A6" s="19" t="s">
+        <v>278</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>275</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>262</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>276</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>277</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="K6" s="19"/>
+    </row>
+    <row r="7" spans="1:13" ht="150" x14ac:dyDescent="0.25">
+      <c r="A7" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>279</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>262</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>280</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>281</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="K7" s="19"/>
+    </row>
+    <row r="8" spans="1:13" ht="165" x14ac:dyDescent="0.25">
+      <c r="A8" s="19" t="s">
+        <v>286</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>283</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>262</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>284</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>285</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="K8" s="19"/>
+    </row>
+    <row r="9" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+      <c r="A9" s="19" t="s">
+        <v>290</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>287</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>262</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>288</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>289</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="K9" s="19"/>
+    </row>
+    <row r="10" spans="1:13" ht="150" x14ac:dyDescent="0.25">
+      <c r="A10" s="19" t="s">
+        <v>294</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>291</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>262</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>292</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>293</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="K10" s="19"/>
+    </row>
+    <row r="11" spans="1:13" ht="165" x14ac:dyDescent="0.25">
+      <c r="A11" s="19" t="s">
+        <v>298</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>295</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>262</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>296</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>297</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="K11" s="19"/>
+    </row>
+    <row r="12" spans="1:13" ht="165" x14ac:dyDescent="0.25">
+      <c r="A12" s="19" t="s">
+        <v>302</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>299</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>262</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>301</v>
+      </c>
+      <c r="G12" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="K12" s="19"/>
+    </row>
+    <row r="13" spans="1:13" ht="165" x14ac:dyDescent="0.25">
+      <c r="A13" s="19" t="s">
+        <v>306</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>262</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>304</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>305</v>
+      </c>
+      <c r="G13" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="K13" s="19"/>
+      <c r="M13" s="21" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="141" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="19" t="s">
+        <v>311</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>307</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>262</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>308</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>309</v>
+      </c>
+      <c r="G14" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="K14" s="19"/>
+      <c r="L14" s="21" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="165" x14ac:dyDescent="0.25">
+      <c r="A15" s="19" t="s">
+        <v>315</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>312</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>262</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>313</v>
+      </c>
+      <c r="F15" s="20" t="s">
+        <v>314</v>
+      </c>
+      <c r="G15" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="K15" s="19"/>
+    </row>
+    <row r="16" spans="1:13" ht="165" x14ac:dyDescent="0.25">
+      <c r="A16" s="19" t="s">
+        <v>319</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>316</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>262</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>317</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="G16" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="K16" s="19"/>
+    </row>
+    <row r="17" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+      <c r="A17" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>320</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>262</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>321</v>
+      </c>
+      <c r="F17" s="20" t="s">
+        <v>322</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="K17" s="19"/>
+    </row>
+    <row r="18" spans="1:11" ht="195" x14ac:dyDescent="0.25">
+      <c r="A18" s="19" t="s">
         <v>391</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="B18" s="20" t="s">
+        <v>392</v>
+      </c>
+      <c r="C18" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="22" t="s">
-        <v>267</v>
-      </c>
-      <c r="E3" s="22" t="s">
-        <v>392</v>
-      </c>
-      <c r="F3" s="21"/>
-      <c r="G3" s="22" t="s">
+      <c r="D18" s="20" t="s">
+        <v>262</v>
+      </c>
+      <c r="E18" s="20" t="s">
+        <v>324</v>
+      </c>
+      <c r="F18" s="22" t="s">
+        <v>325</v>
+      </c>
+      <c r="G18" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+      <c r="A19" s="19" t="s">
         <v>393</v>
       </c>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21" t="s">
-        <v>270</v>
-      </c>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21" t="s">
-        <v>271</v>
-      </c>
-      <c r="M3" s="21"/>
-    </row>
-    <row r="4" spans="1:15" ht="122.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="21" t="s">
-        <v>275</v>
-      </c>
-      <c r="B4" s="21" t="s">
+      <c r="B19" s="19" t="s">
         <v>394</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C19" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="22" t="s">
-        <v>267</v>
-      </c>
-      <c r="E4" s="22" t="s">
+      <c r="D19" s="20" t="s">
+        <v>262</v>
+      </c>
+      <c r="E19" s="20" t="s">
         <v>395</v>
       </c>
-      <c r="F4" s="21"/>
-      <c r="G4" s="22" t="s">
-        <v>274</v>
-      </c>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21" t="s">
-        <v>270</v>
-      </c>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21" t="s">
-        <v>271</v>
-      </c>
-      <c r="M4" s="21"/>
-    </row>
-    <row r="5" spans="1:15" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="21" t="s">
-        <v>279</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>276</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="22" t="s">
-        <v>267</v>
-      </c>
-      <c r="E5" s="22" t="s">
-        <v>277</v>
-      </c>
-      <c r="F5" s="21"/>
-      <c r="G5" s="22" t="s">
-        <v>278</v>
-      </c>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21" t="s">
-        <v>270</v>
-      </c>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21" t="s">
-        <v>271</v>
-      </c>
-      <c r="M5" s="21"/>
-    </row>
-    <row r="6" spans="1:15" ht="144" x14ac:dyDescent="0.3">
-      <c r="A6" s="21" t="s">
-        <v>283</v>
-      </c>
-      <c r="B6" s="21" t="s">
-        <v>280</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="22" t="s">
-        <v>267</v>
-      </c>
-      <c r="E6" s="22" t="s">
-        <v>281</v>
-      </c>
-      <c r="F6" s="21"/>
-      <c r="G6" s="22" t="s">
-        <v>282</v>
-      </c>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21" t="s">
-        <v>270</v>
-      </c>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21" t="s">
-        <v>271</v>
-      </c>
-      <c r="M6" s="21"/>
-    </row>
-    <row r="7" spans="1:15" ht="144" x14ac:dyDescent="0.3">
-      <c r="A7" s="21" t="s">
-        <v>287</v>
-      </c>
-      <c r="B7" s="21" t="s">
-        <v>284</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="22" t="s">
-        <v>267</v>
-      </c>
-      <c r="E7" s="22" t="s">
-        <v>285</v>
-      </c>
-      <c r="F7" s="21"/>
-      <c r="G7" s="22" t="s">
-        <v>286</v>
-      </c>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21" t="s">
-        <v>270</v>
-      </c>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21" t="s">
-        <v>271</v>
-      </c>
-      <c r="M7" s="21"/>
-    </row>
-    <row r="8" spans="1:15" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A8" s="21" t="s">
-        <v>291</v>
-      </c>
-      <c r="B8" s="21" t="s">
-        <v>288</v>
-      </c>
-      <c r="C8" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="22" t="s">
-        <v>267</v>
-      </c>
-      <c r="E8" s="22" t="s">
-        <v>289</v>
-      </c>
-      <c r="F8" s="21"/>
-      <c r="G8" s="22" t="s">
-        <v>290</v>
-      </c>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21" t="s">
-        <v>270</v>
-      </c>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21" t="s">
-        <v>271</v>
-      </c>
-      <c r="M8" s="21"/>
-    </row>
-    <row r="9" spans="1:15" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A9" s="21" t="s">
-        <v>295</v>
-      </c>
-      <c r="B9" s="22" t="s">
-        <v>292</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="22" t="s">
-        <v>267</v>
-      </c>
-      <c r="E9" s="22" t="s">
-        <v>293</v>
-      </c>
-      <c r="F9" s="21"/>
-      <c r="G9" s="22" t="s">
-        <v>294</v>
-      </c>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21" t="s">
-        <v>270</v>
-      </c>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21" t="s">
-        <v>271</v>
-      </c>
-      <c r="M9" s="21"/>
-    </row>
-    <row r="10" spans="1:15" ht="144" x14ac:dyDescent="0.3">
-      <c r="A10" s="21" t="s">
-        <v>299</v>
-      </c>
-      <c r="B10" s="22" t="s">
-        <v>296</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="22" t="s">
-        <v>267</v>
-      </c>
-      <c r="E10" s="22" t="s">
-        <v>297</v>
-      </c>
-      <c r="F10" s="21"/>
-      <c r="G10" s="22" t="s">
-        <v>298</v>
-      </c>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21" t="s">
-        <v>270</v>
-      </c>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="21" t="s">
-        <v>271</v>
-      </c>
-      <c r="M10" s="21"/>
-    </row>
-    <row r="11" spans="1:15" ht="144" x14ac:dyDescent="0.3">
-      <c r="A11" s="21" t="s">
-        <v>303</v>
-      </c>
-      <c r="B11" s="22" t="s">
-        <v>300</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="22" t="s">
-        <v>267</v>
-      </c>
-      <c r="E11" s="22" t="s">
-        <v>301</v>
-      </c>
-      <c r="F11" s="21"/>
-      <c r="G11" s="22" t="s">
-        <v>302</v>
-      </c>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21" t="s">
-        <v>270</v>
-      </c>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="21" t="s">
-        <v>271</v>
-      </c>
-      <c r="M11" s="21"/>
-    </row>
-    <row r="12" spans="1:15" ht="144" x14ac:dyDescent="0.3">
-      <c r="A12" s="21" t="s">
-        <v>307</v>
-      </c>
-      <c r="B12" s="22" t="s">
-        <v>304</v>
-      </c>
-      <c r="C12" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="22" t="s">
-        <v>267</v>
-      </c>
-      <c r="E12" s="22" t="s">
-        <v>305</v>
-      </c>
-      <c r="F12" s="21"/>
-      <c r="G12" s="22" t="s">
-        <v>306</v>
-      </c>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21" t="s">
-        <v>270</v>
-      </c>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="21" t="s">
-        <v>271</v>
-      </c>
-      <c r="M12" s="21"/>
-    </row>
-    <row r="13" spans="1:15" ht="144" x14ac:dyDescent="0.3">
-      <c r="A13" s="21" t="s">
-        <v>311</v>
-      </c>
-      <c r="B13" s="22" t="s">
-        <v>308</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="22" t="s">
-        <v>267</v>
-      </c>
-      <c r="E13" s="22" t="s">
-        <v>309</v>
-      </c>
-      <c r="F13" s="21"/>
-      <c r="G13" s="22" t="s">
-        <v>310</v>
-      </c>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21" t="s">
-        <v>270</v>
-      </c>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="21" t="s">
-        <v>271</v>
-      </c>
-      <c r="M13" s="21"/>
-      <c r="O13" s="23" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" ht="141" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="21" t="s">
-        <v>316</v>
-      </c>
-      <c r="B14" s="21" t="s">
-        <v>312</v>
-      </c>
-      <c r="C14" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="22" t="s">
-        <v>267</v>
-      </c>
-      <c r="E14" s="22" t="s">
-        <v>313</v>
-      </c>
-      <c r="F14" s="21"/>
-      <c r="G14" s="22" t="s">
-        <v>314</v>
-      </c>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21" t="s">
-        <v>270</v>
-      </c>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="21" t="s">
-        <v>271</v>
-      </c>
-      <c r="M14" s="21"/>
-      <c r="N14" s="23" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A15" s="21" t="s">
-        <v>320</v>
-      </c>
-      <c r="B15" s="21" t="s">
-        <v>317</v>
-      </c>
-      <c r="C15" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="22" t="s">
-        <v>267</v>
-      </c>
-      <c r="E15" s="22" t="s">
-        <v>318</v>
-      </c>
-      <c r="F15" s="21"/>
-      <c r="G15" s="22" t="s">
-        <v>319</v>
-      </c>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21" t="s">
-        <v>270</v>
-      </c>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="21" t="s">
-        <v>271</v>
-      </c>
-      <c r="M15" s="21"/>
-    </row>
-    <row r="16" spans="1:15" ht="144" x14ac:dyDescent="0.3">
-      <c r="A16" s="21" t="s">
-        <v>324</v>
-      </c>
-      <c r="B16" s="21" t="s">
-        <v>321</v>
-      </c>
-      <c r="C16" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="22" t="s">
-        <v>267</v>
-      </c>
-      <c r="E16" s="22" t="s">
-        <v>322</v>
-      </c>
-      <c r="F16" s="21"/>
-      <c r="G16" s="22" t="s">
-        <v>323</v>
-      </c>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21" t="s">
-        <v>270</v>
-      </c>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="21" t="s">
-        <v>271</v>
-      </c>
-      <c r="M16" s="21"/>
-    </row>
-    <row r="17" spans="1:13" ht="144" x14ac:dyDescent="0.3">
-      <c r="A17" s="21" t="s">
-        <v>328</v>
-      </c>
-      <c r="B17" s="22" t="s">
-        <v>325</v>
-      </c>
-      <c r="C17" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="22" t="s">
-        <v>267</v>
-      </c>
-      <c r="E17" s="22" t="s">
-        <v>326</v>
-      </c>
-      <c r="F17" s="21"/>
-      <c r="G17" s="22" t="s">
-        <v>327</v>
-      </c>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21" t="s">
-        <v>270</v>
-      </c>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="21" t="s">
-        <v>271</v>
-      </c>
-      <c r="M17" s="21"/>
-    </row>
-    <row r="18" spans="1:13" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="21" t="s">
+      <c r="F19" s="22" t="s">
         <v>396</v>
       </c>
-      <c r="B18" s="22" t="s">
-        <v>397</v>
-      </c>
-      <c r="C18" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="22" t="s">
-        <v>267</v>
-      </c>
-      <c r="E18" s="22" t="s">
-        <v>329</v>
-      </c>
-      <c r="G18" s="24" t="s">
-        <v>330</v>
-      </c>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21" t="s">
-        <v>270</v>
-      </c>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="21" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A19" s="21" t="s">
-        <v>398</v>
-      </c>
-      <c r="B19" s="21" t="s">
-        <v>399</v>
-      </c>
-      <c r="C19" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="22" t="s">
-        <v>267</v>
-      </c>
-      <c r="E19" s="22" t="s">
-        <v>400</v>
-      </c>
-      <c r="F19" s="21"/>
-      <c r="G19" s="24" t="s">
-        <v>401</v>
-      </c>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21" t="s">
-        <v>270</v>
-      </c>
-      <c r="J19" s="21"/>
-      <c r="K19" s="21"/>
-      <c r="L19" s="21" t="s">
-        <v>271</v>
-      </c>
-      <c r="M19" s="21"/>
+      <c r="G19" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="K19" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6725,28 +6784,27 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M17"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.33203125" customWidth="1"/>
-    <col min="2" max="2" width="48.109375" customWidth="1"/>
+    <col min="1" max="1" width="29.28515625" customWidth="1"/>
+    <col min="2" max="2" width="48.140625" customWidth="1"/>
     <col min="3" max="4" width="22" customWidth="1"/>
-    <col min="5" max="6" width="51.109375" customWidth="1"/>
-    <col min="7" max="7" width="33.109375" customWidth="1"/>
-    <col min="8" max="8" width="23.109375" customWidth="1"/>
-    <col min="9" max="9" width="19.44140625" customWidth="1"/>
-    <col min="10" max="10" width="33.44140625" customWidth="1"/>
-    <col min="11" max="11" width="39.44140625" customWidth="1"/>
-    <col min="12" max="12" width="28" style="5" customWidth="1"/>
-    <col min="13" max="13" width="31.109375" style="5" customWidth="1"/>
+    <col min="5" max="5" width="51.140625" customWidth="1"/>
+    <col min="6" max="6" width="50.140625" customWidth="1"/>
+    <col min="7" max="7" width="19.42578125" customWidth="1"/>
+    <col min="8" max="8" width="33.42578125" customWidth="1"/>
+    <col min="9" max="9" width="39.42578125" customWidth="1"/>
+    <col min="10" max="10" width="28" style="5" customWidth="1"/>
+    <col min="11" max="11" width="31.140625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6763,31 +6821,25 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="J1" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -6803,18 +6855,17 @@
       <c r="E2" t="s">
         <v>19</v>
       </c>
-      <c r="G2" t="s">
+      <c r="F2" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I2" s="4"/>
-      <c r="L2" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G2" s="4" t="s">
+        <v>543</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -6830,25 +6881,15 @@
       <c r="E3" t="s">
         <v>18</v>
       </c>
-      <c r="G3" t="s">
+      <c r="F3" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" s="4"/>
-      <c r="L3" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="F15" s="9"/>
-    </row>
-    <row r="16" spans="1:13" ht="21" x14ac:dyDescent="0.3">
-      <c r="F16" s="10"/>
-    </row>
-    <row r="17" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F17" s="9"/>
+      <c r="G3" s="4" t="s">
+        <v>543</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>50</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Testing/Test Cases/TAWA_TestCases.xlsx
+++ b/Testing/Test Cases/TAWA_TestCases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="ReservedTrips" sheetId="6" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1137" uniqueCount="544">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1150" uniqueCount="553">
   <si>
     <t>ID</t>
   </si>
@@ -2211,6 +2211,33 @@
   </si>
   <si>
     <t>New</t>
+  </si>
+  <si>
+    <t>TAWA_Login_011</t>
+  </si>
+  <si>
+    <t>Verify Login Page UI</t>
+  </si>
+  <si>
+    <t>Admin,User</t>
+  </si>
+  <si>
+    <t>See TAWA_WF_002</t>
+  </si>
+  <si>
+    <t>Login Page Should be ad design in TAWA_WF_002</t>
+  </si>
+  <si>
+    <t>TAWA_SignUp_053</t>
+  </si>
+  <si>
+    <t>Verify Sign up Page UI</t>
+  </si>
+  <si>
+    <t>See TAWA_WF_001</t>
+  </si>
+  <si>
+    <t>Sign up Page Should be ad design in TAWA_WF_002</t>
   </si>
 </sst>
 </file>
@@ -3891,10 +3918,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K55"/>
+  <dimension ref="A1:K56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E52" workbookViewId="0">
-      <selection activeCell="G55" sqref="G55"/>
+    <sheetView tabSelected="1" topLeftCell="G51" workbookViewId="0">
+      <selection activeCell="I56" sqref="I56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5152,6 +5179,29 @@
         <v>50</v>
       </c>
     </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" s="5" t="s">
+        <v>549</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>551</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>552</v>
+      </c>
+      <c r="G56" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="J56" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5160,10 +5210,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView topLeftCell="C8" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5451,6 +5501,26 @@
       </c>
       <c r="J11" s="5" t="s">
         <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>544</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>546</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>548</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>543</v>
       </c>
     </row>
   </sheetData>

--- a/Testing/Test Cases/TAWA_TestCases.xlsx
+++ b/Testing/Test Cases/TAWA_TestCases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="ReservedTrips" sheetId="6" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1150" uniqueCount="553">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1180" uniqueCount="572">
   <si>
     <t>ID</t>
   </si>
@@ -2238,6 +2238,73 @@
   </si>
   <si>
     <t>Sign up Page Should be ad design in TAWA_WF_002</t>
+  </si>
+  <si>
+    <t>TAWA_Admin_019</t>
+  </si>
+  <si>
+    <t>Validating the logout function in admin page</t>
+  </si>
+  <si>
+    <t>Press logout</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The ‘admin shall be redirected to login page</t>
+  </si>
+  <si>
+    <t>No action happens after pressing logout</t>
+  </si>
+  <si>
+    <t>Falied</t>
+  </si>
+  <si>
+    <t>TAWA_Admin_Bug_008</t>
+  </si>
+  <si>
+    <t>TAWA_Admin_020</t>
+  </si>
+  <si>
+    <t>Validating the  "Edit user" page</t>
+  </si>
+  <si>
+    <t>The new shall exist in the list</t>
+  </si>
+  <si>
+    <t>The new user doesn't exist in the list</t>
+  </si>
+  <si>
+    <t>TAWA_Admin_Bug_009</t>
+  </si>
+  <si>
+    <t>Validating the success message after Editing a new user</t>
+  </si>
+  <si>
+    <t>TAWA_Admin_021</t>
+  </si>
+  <si>
+    <t>1- Type an existing username in the search bar
+2- Press search
+3- Press Edit
+4- Update the current username to a new one
+5-Press Update</t>
+  </si>
+  <si>
+    <t>The admin shall be redirected to "successfully added" page</t>
+  </si>
+  <si>
+    <t>No action happens after pressing update</t>
+  </si>
+  <si>
+    <t>1- Type an existing username in the search bar
+2- Press search
+3- Press Edit
+4- Update the current username to a new one
+5- Press update
+6- Press back to "all users Page"
+7- Search for the new user name</t>
+  </si>
+  <si>
+    <t>TAWA_Admin_Bug_010</t>
   </si>
 </sst>
 </file>
@@ -3920,8 +3987,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G51" workbookViewId="0">
-      <selection activeCell="I56" sqref="I56"/>
+    <sheetView topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="A61" sqref="A61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5212,8 +5279,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5530,10 +5597,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K1048576"/>
+    <sheetView topLeftCell="D22" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6183,6 +6250,102 @@
         <v>249</v>
       </c>
       <c r="K21" s="13" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" s="15" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="B22" s="15" t="s">
+        <v>553</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>554</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>356</v>
+      </c>
+      <c r="F22" s="16" t="s">
+        <v>555</v>
+      </c>
+      <c r="G22" s="15" t="s">
+        <v>556</v>
+      </c>
+      <c r="H22" s="15" t="s">
+        <v>557</v>
+      </c>
+      <c r="I22" s="15" t="s">
+        <v>558</v>
+      </c>
+      <c r="J22" s="15" t="s">
+        <v>559</v>
+      </c>
+      <c r="K22" s="15" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" s="15" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+      <c r="B23" s="15" t="s">
+        <v>560</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>561</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>356</v>
+      </c>
+      <c r="F23" s="16" t="s">
+        <v>570</v>
+      </c>
+      <c r="G23" s="15" t="s">
+        <v>562</v>
+      </c>
+      <c r="H23" s="15" t="s">
+        <v>563</v>
+      </c>
+      <c r="I23" s="15" t="s">
+        <v>558</v>
+      </c>
+      <c r="J23" s="15" t="s">
+        <v>564</v>
+      </c>
+      <c r="K23" s="15" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" s="15" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="B24" s="15" t="s">
+        <v>566</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>565</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>356</v>
+      </c>
+      <c r="F24" s="16" t="s">
+        <v>567</v>
+      </c>
+      <c r="G24" s="15" t="s">
+        <v>568</v>
+      </c>
+      <c r="H24" s="15" t="s">
+        <v>569</v>
+      </c>
+      <c r="I24" s="15" t="s">
+        <v>558</v>
+      </c>
+      <c r="J24" s="15" t="s">
+        <v>571</v>
+      </c>
+      <c r="K24" s="15" t="s">
         <v>241</v>
       </c>
     </row>

--- a/Testing/Test Cases/TAWA_TestCases.xlsx
+++ b/Testing/Test Cases/TAWA_TestCases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="ReservedTrips" sheetId="6" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1180" uniqueCount="572">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1194" uniqueCount="581">
   <si>
     <t>ID</t>
   </si>
@@ -2225,9 +2225,6 @@
     <t>See TAWA_WF_002</t>
   </si>
   <si>
-    <t>Login Page Should be ad design in TAWA_WF_002</t>
-  </si>
-  <si>
     <t>TAWA_SignUp_053</t>
   </si>
   <si>
@@ -2305,6 +2302,36 @@
   </si>
   <si>
     <t>TAWA_Admin_Bug_010</t>
+  </si>
+  <si>
+    <t>user is redirected to Signup page</t>
+  </si>
+  <si>
+    <t>User is logged in and redirected to Home Page</t>
+  </si>
+  <si>
+    <t>User is logged in and redirected to Admin Page</t>
+  </si>
+  <si>
+    <t>User stays at Login page andderror message with"The data entered were invalid, please re-enter your data" appeared</t>
+  </si>
+  <si>
+    <t>Admin stays at Login page andderror message with"The data entered were invalid, please re-enter your data" appeared</t>
+  </si>
+  <si>
+    <t>Admin shall be stay at Login page andd error message with"Please fill out this field" shall be appeared</t>
+  </si>
+  <si>
+    <t>Admin stays at Login page andd error message with"Please fill out this field"  appeared</t>
+  </si>
+  <si>
+    <t>An error message appeared with"The data entered were invalid, please re-enter your data"</t>
+  </si>
+  <si>
+    <t>Login Page Should be as design in TAWA_WF_002</t>
+  </si>
+  <si>
+    <t>Login Page is as design in TAWA_WF_002</t>
   </si>
 </sst>
 </file>
@@ -2436,7 +2463,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -2446,9 +2473,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2560,6 +2584,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2893,251 +2923,251 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="H1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="I1" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="J1" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="K1" s="18" t="s">
+      <c r="K1" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="L1" s="17"/>
-      <c r="M1" s="6"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="5"/>
     </row>
     <row r="2" spans="1:13" ht="180" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="18" t="s">
         <v>397</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="19" t="s">
         <v>398</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="19" t="s">
         <v>399</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="19" t="s">
         <v>400</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="19" t="s">
         <v>401</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="18" t="s">
         <v>265</v>
       </c>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19" t="s">
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18" t="s">
         <v>266</v>
       </c>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
     </row>
     <row r="3" spans="1:13" ht="195" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="18" t="s">
         <v>402</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="19" t="s">
         <v>403</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="19" t="s">
         <v>404</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="19" t="s">
         <v>405</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="18" t="s">
         <v>406</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="G3" s="18" t="s">
         <v>265</v>
       </c>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19" t="s">
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18" t="s">
         <v>266</v>
       </c>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
     </row>
     <row r="4" spans="1:13" ht="210" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="18" t="s">
         <v>407</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="19" t="s">
         <v>408</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="19" t="s">
         <v>399</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="19" t="s">
         <v>405</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="F4" s="19" t="s">
         <v>409</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="18" t="s">
         <v>265</v>
       </c>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19" t="s">
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18" t="s">
         <v>266</v>
       </c>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
     </row>
     <row r="5" spans="1:13" ht="90" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="18" t="s">
         <v>410</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="18" t="s">
         <v>411</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="19" t="s">
         <v>399</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="E5" s="19" t="s">
         <v>405</v>
       </c>
-      <c r="F5" s="20" t="s">
+      <c r="F5" s="19" t="s">
         <v>412</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="G5" s="18" t="s">
         <v>265</v>
       </c>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19" t="s">
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18" t="s">
         <v>266</v>
       </c>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
     </row>
     <row r="6" spans="1:13" ht="120" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="18" t="s">
         <v>413</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="18" t="s">
         <v>414</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="19" t="s">
         <v>399</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="E6" s="19" t="s">
         <v>415</v>
       </c>
-      <c r="F6" s="20" t="s">
+      <c r="F6" s="19" t="s">
         <v>416</v>
       </c>
-      <c r="G6" s="19" t="s">
+      <c r="G6" s="18" t="s">
         <v>265</v>
       </c>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19" t="s">
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18" t="s">
         <v>266</v>
       </c>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
     </row>
     <row r="7" spans="1:13" ht="240" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="18" t="s">
         <v>417</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="19" t="s">
         <v>418</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="19" t="s">
         <v>399</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="19" t="s">
         <v>415</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="F7" s="19" t="s">
         <v>419</v>
       </c>
-      <c r="G7" s="19" t="s">
+      <c r="G7" s="18" t="s">
         <v>265</v>
       </c>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19" t="s">
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18" t="s">
         <v>266</v>
       </c>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
     </row>
     <row r="8" spans="1:13" ht="150" x14ac:dyDescent="0.25">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="18" t="s">
         <v>420</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="18" t="s">
         <v>421</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="19" t="s">
         <v>399</v>
       </c>
-      <c r="E8" s="20" t="s">
+      <c r="E8" s="19" t="s">
         <v>422</v>
       </c>
-      <c r="F8" s="19" t="s">
+      <c r="F8" s="18" t="s">
         <v>423</v>
       </c>
-      <c r="G8" s="19" t="s">
+      <c r="G8" s="18" t="s">
         <v>265</v>
       </c>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19" t="s">
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18" t="s">
         <v>266</v>
       </c>
-      <c r="K8" s="19"/>
-      <c r="L8" s="19"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3170,8 +3200,8 @@
     <col min="14" max="14" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="41" customFormat="1" ht="42" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:14" s="40" customFormat="1" ht="42" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
         <v>424</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -3201,474 +3231,474 @@
       <c r="J1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="5" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="90" x14ac:dyDescent="0.25">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25" t="s">
+      <c r="A2" s="24"/>
+      <c r="B2" s="24" t="s">
         <v>425</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="24" t="s">
         <v>426</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="26"/>
-      <c r="F2" s="27" t="s">
+      <c r="E2" s="25"/>
+      <c r="F2" s="26" t="s">
         <v>427</v>
       </c>
-      <c r="G2" s="27" t="s">
+      <c r="G2" s="26" t="s">
         <v>428</v>
       </c>
-      <c r="H2" s="28" t="s">
+      <c r="H2" s="27" t="s">
         <v>429</v>
       </c>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26" t="s">
+      <c r="I2" s="25"/>
+      <c r="J2" s="25" t="s">
         <v>430</v>
       </c>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26" t="s">
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25" t="s">
         <v>431</v>
       </c>
-      <c r="N2" s="25"/>
+      <c r="N2" s="24"/>
     </row>
     <row r="3" spans="1:14" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
-      <c r="B3" s="25" t="s">
+      <c r="A3" s="7"/>
+      <c r="B3" s="24" t="s">
         <v>432</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="24" t="s">
         <v>433</v>
       </c>
-      <c r="D3" s="26" t="s">
+      <c r="D3" s="25" t="s">
         <v>434</v>
       </c>
-      <c r="E3" s="29"/>
-      <c r="F3" s="27" t="s">
+      <c r="E3" s="28"/>
+      <c r="F3" s="26" t="s">
         <v>435</v>
       </c>
-      <c r="G3" s="8"/>
-      <c r="H3" s="28" t="s">
+      <c r="G3" s="7"/>
+      <c r="H3" s="27" t="s">
         <v>436</v>
       </c>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26" t="s">
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25" t="s">
         <v>431</v>
       </c>
-      <c r="N3" s="8"/>
+      <c r="N3" s="7"/>
     </row>
     <row r="4" spans="1:14" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="29" t="s">
         <v>437</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="24" t="s">
         <v>438</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="30" t="s">
         <v>439</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="25" t="s">
         <v>440</v>
       </c>
-      <c r="E4" s="29"/>
-      <c r="F4" s="27" t="s">
+      <c r="E4" s="28"/>
+      <c r="F4" s="26" t="s">
         <v>441</v>
       </c>
-      <c r="G4" s="27" t="s">
+      <c r="G4" s="26" t="s">
         <v>428</v>
       </c>
-      <c r="H4" s="28" t="s">
+      <c r="H4" s="27" t="s">
         <v>442</v>
       </c>
-      <c r="I4" s="26" t="s">
+      <c r="I4" s="25" t="s">
         <v>443</v>
       </c>
-      <c r="J4" s="26" t="s">
+      <c r="J4" s="25" t="s">
         <v>444</v>
       </c>
-      <c r="K4" s="26"/>
-      <c r="L4" s="28" t="s">
+      <c r="K4" s="25"/>
+      <c r="L4" s="27" t="s">
         <v>445</v>
       </c>
-      <c r="M4" s="26" t="s">
+      <c r="M4" s="25" t="s">
         <v>431</v>
       </c>
-      <c r="N4" s="8"/>
+      <c r="N4" s="7"/>
     </row>
     <row r="5" spans="1:14" ht="75" x14ac:dyDescent="0.25">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="29" t="s">
         <v>446</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="24" t="s">
         <v>447</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="31" t="s">
         <v>448</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="D5" s="25" t="s">
         <v>434</v>
       </c>
-      <c r="E5" s="29"/>
-      <c r="F5" s="27" t="s">
+      <c r="E5" s="28"/>
+      <c r="F5" s="26" t="s">
         <v>449</v>
       </c>
-      <c r="G5" s="27"/>
-      <c r="H5" s="26" t="s">
+      <c r="G5" s="26"/>
+      <c r="H5" s="25" t="s">
         <v>450</v>
       </c>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26" t="s">
+      <c r="I5" s="25"/>
+      <c r="J5" s="25" t="s">
         <v>430</v>
       </c>
-      <c r="K5" s="26"/>
-      <c r="L5" s="28" t="s">
+      <c r="K5" s="25"/>
+      <c r="L5" s="27" t="s">
         <v>451</v>
       </c>
-      <c r="M5" s="26" t="s">
+      <c r="M5" s="25" t="s">
         <v>431</v>
       </c>
-      <c r="N5" s="8"/>
+      <c r="N5" s="7"/>
     </row>
     <row r="6" spans="1:14" ht="90" x14ac:dyDescent="0.25">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="32" t="s">
         <v>446</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="33" t="s">
         <v>452</v>
       </c>
-      <c r="C6" s="35" t="s">
+      <c r="C6" s="34" t="s">
         <v>453</v>
       </c>
-      <c r="D6" s="36" t="s">
+      <c r="D6" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="36" t="s">
+      <c r="E6" s="35" t="s">
         <v>454</v>
       </c>
-      <c r="F6" s="37" t="s">
+      <c r="F6" s="36" t="s">
         <v>427</v>
       </c>
-      <c r="G6" s="37" t="s">
+      <c r="G6" s="36" t="s">
         <v>428</v>
       </c>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="36"/>
-      <c r="K6" s="36"/>
-      <c r="L6" s="36"/>
-      <c r="M6" s="26" t="s">
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="35"/>
+      <c r="M6" s="25" t="s">
         <v>431</v>
       </c>
-      <c r="N6" s="38"/>
+      <c r="N6" s="37"/>
     </row>
     <row r="7" spans="1:14" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="29" t="s">
         <v>455</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="24" t="s">
         <v>456</v>
       </c>
-      <c r="C7" s="31" t="s">
+      <c r="C7" s="30" t="s">
         <v>457</v>
       </c>
-      <c r="D7" s="26" t="s">
+      <c r="D7" s="25" t="s">
         <v>434</v>
       </c>
-      <c r="E7" s="29" t="s">
+      <c r="E7" s="28" t="s">
         <v>454</v>
       </c>
-      <c r="F7" s="27" t="s">
+      <c r="F7" s="26" t="s">
         <v>458</v>
       </c>
-      <c r="G7" s="8"/>
-      <c r="H7" s="28" t="s">
+      <c r="G7" s="7"/>
+      <c r="H7" s="27" t="s">
         <v>459</v>
       </c>
-      <c r="I7" s="26" t="s">
+      <c r="I7" s="25" t="s">
         <v>443</v>
       </c>
-      <c r="J7" s="26" t="s">
+      <c r="J7" s="25" t="s">
         <v>444</v>
       </c>
-      <c r="K7" s="26"/>
-      <c r="L7" s="28" t="s">
+      <c r="K7" s="25"/>
+      <c r="L7" s="27" t="s">
         <v>460</v>
       </c>
-      <c r="M7" s="26" t="s">
+      <c r="M7" s="25" t="s">
         <v>431</v>
       </c>
-      <c r="N7" s="8"/>
+      <c r="N7" s="7"/>
     </row>
     <row r="8" spans="1:14" ht="60" x14ac:dyDescent="0.25">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="29" t="s">
         <v>461</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="24" t="s">
         <v>462</v>
       </c>
-      <c r="C8" s="31" t="s">
+      <c r="C8" s="30" t="s">
         <v>463</v>
       </c>
-      <c r="D8" s="26" t="s">
+      <c r="D8" s="25" t="s">
         <v>440</v>
       </c>
-      <c r="E8" s="29"/>
-      <c r="F8" s="27" t="s">
+      <c r="E8" s="28"/>
+      <c r="F8" s="26" t="s">
         <v>464</v>
       </c>
-      <c r="G8" s="27" t="s">
+      <c r="G8" s="26" t="s">
         <v>428</v>
       </c>
-      <c r="H8" s="28" t="s">
+      <c r="H8" s="27" t="s">
         <v>465</v>
       </c>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26" t="s">
+      <c r="I8" s="25"/>
+      <c r="J8" s="25" t="s">
         <v>444</v>
       </c>
-      <c r="K8" s="26"/>
-      <c r="L8" s="28" t="s">
+      <c r="K8" s="25"/>
+      <c r="L8" s="27" t="s">
         <v>466</v>
       </c>
-      <c r="M8" s="26" t="s">
+      <c r="M8" s="25" t="s">
         <v>431</v>
       </c>
-      <c r="N8" s="8"/>
+      <c r="N8" s="7"/>
     </row>
     <row r="9" spans="1:14" ht="60" x14ac:dyDescent="0.25">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="29" t="s">
         <v>467</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="24" t="s">
         <v>468</v>
       </c>
-      <c r="C9" s="31" t="s">
+      <c r="C9" s="30" t="s">
         <v>469</v>
       </c>
-      <c r="D9" s="26" t="s">
+      <c r="D9" s="25" t="s">
         <v>440</v>
       </c>
-      <c r="E9" s="29"/>
-      <c r="F9" s="27" t="s">
+      <c r="E9" s="28"/>
+      <c r="F9" s="26" t="s">
         <v>470</v>
       </c>
-      <c r="G9" s="27" t="s">
+      <c r="G9" s="26" t="s">
         <v>428</v>
       </c>
-      <c r="H9" s="28" t="s">
+      <c r="H9" s="27" t="s">
         <v>471</v>
       </c>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26" t="s">
+      <c r="I9" s="25"/>
+      <c r="J9" s="25" t="s">
         <v>430</v>
       </c>
-      <c r="K9" s="26"/>
-      <c r="L9" s="26" t="s">
+      <c r="K9" s="25"/>
+      <c r="L9" s="25" t="s">
         <v>472</v>
       </c>
-      <c r="M9" s="26" t="s">
+      <c r="M9" s="25" t="s">
         <v>431</v>
       </c>
-      <c r="N9" s="8"/>
+      <c r="N9" s="7"/>
     </row>
     <row r="10" spans="1:14" ht="60" x14ac:dyDescent="0.25">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="29" t="s">
         <v>473</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="24" t="s">
         <v>474</v>
       </c>
-      <c r="C10" s="32" t="s">
+      <c r="C10" s="31" t="s">
         <v>475</v>
       </c>
-      <c r="D10" s="26" t="s">
+      <c r="D10" s="25" t="s">
         <v>440</v>
       </c>
-      <c r="E10" s="39" t="s">
+      <c r="E10" s="38" t="s">
         <v>476</v>
       </c>
-      <c r="F10" s="27" t="s">
+      <c r="F10" s="26" t="s">
         <v>477</v>
       </c>
-      <c r="G10" s="27" t="s">
+      <c r="G10" s="26" t="s">
         <v>428</v>
       </c>
-      <c r="H10" s="28" t="s">
+      <c r="H10" s="27" t="s">
         <v>478</v>
       </c>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26" t="s">
+      <c r="I10" s="25"/>
+      <c r="J10" s="25" t="s">
         <v>430</v>
       </c>
-      <c r="K10" s="26"/>
-      <c r="L10" s="28" t="s">
+      <c r="K10" s="25"/>
+      <c r="L10" s="27" t="s">
         <v>479</v>
       </c>
-      <c r="M10" s="26" t="s">
+      <c r="M10" s="25" t="s">
         <v>431</v>
       </c>
-      <c r="N10" s="8"/>
+      <c r="N10" s="7"/>
     </row>
     <row r="11" spans="1:14" ht="60" x14ac:dyDescent="0.25">
-      <c r="A11" s="30" t="s">
+      <c r="A11" s="29" t="s">
         <v>480</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="24" t="s">
         <v>481</v>
       </c>
-      <c r="C11" s="31" t="s">
+      <c r="C11" s="30" t="s">
         <v>482</v>
       </c>
-      <c r="D11" s="26" t="s">
+      <c r="D11" s="25" t="s">
         <v>440</v>
       </c>
-      <c r="E11" s="29"/>
-      <c r="F11" s="27" t="s">
+      <c r="E11" s="28"/>
+      <c r="F11" s="26" t="s">
         <v>483</v>
       </c>
-      <c r="G11" s="27" t="s">
+      <c r="G11" s="26" t="s">
         <v>428</v>
       </c>
-      <c r="H11" s="28" t="s">
+      <c r="H11" s="27" t="s">
         <v>484</v>
       </c>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26" t="s">
+      <c r="I11" s="25"/>
+      <c r="J11" s="25" t="s">
         <v>430</v>
       </c>
-      <c r="K11" s="26"/>
-      <c r="L11" s="26" t="s">
+      <c r="K11" s="25"/>
+      <c r="L11" s="25" t="s">
         <v>485</v>
       </c>
-      <c r="M11" s="26" t="s">
+      <c r="M11" s="25" t="s">
         <v>431</v>
       </c>
-      <c r="N11" s="8"/>
+      <c r="N11" s="7"/>
     </row>
     <row r="12" spans="1:14" ht="60" x14ac:dyDescent="0.25">
-      <c r="A12" s="30" t="s">
+      <c r="A12" s="29" t="s">
         <v>486</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="24" t="s">
         <v>487</v>
       </c>
-      <c r="C12" s="32" t="s">
+      <c r="C12" s="31" t="s">
         <v>488</v>
       </c>
-      <c r="D12" s="26" t="s">
+      <c r="D12" s="25" t="s">
         <v>440</v>
       </c>
-      <c r="E12" s="39" t="s">
+      <c r="E12" s="38" t="s">
         <v>489</v>
       </c>
-      <c r="F12" s="27" t="s">
+      <c r="F12" s="26" t="s">
         <v>490</v>
       </c>
-      <c r="G12" s="27" t="s">
+      <c r="G12" s="26" t="s">
         <v>428</v>
       </c>
-      <c r="H12" s="28" t="s">
+      <c r="H12" s="27" t="s">
         <v>491</v>
       </c>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26" t="s">
+      <c r="I12" s="25"/>
+      <c r="J12" s="25" t="s">
         <v>430</v>
       </c>
-      <c r="K12" s="26"/>
-      <c r="L12" s="28" t="s">
+      <c r="K12" s="25"/>
+      <c r="L12" s="27" t="s">
         <v>492</v>
       </c>
-      <c r="M12" s="26" t="s">
+      <c r="M12" s="25" t="s">
         <v>431</v>
       </c>
-      <c r="N12" s="8"/>
+      <c r="N12" s="7"/>
     </row>
     <row r="13" spans="1:14" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="8"/>
-      <c r="B13" s="25" t="s">
+      <c r="A13" s="7"/>
+      <c r="B13" s="24" t="s">
         <v>493</v>
       </c>
-      <c r="C13" s="32" t="s">
+      <c r="C13" s="31" t="s">
         <v>494</v>
       </c>
-      <c r="D13" s="26" t="s">
+      <c r="D13" s="25" t="s">
         <v>440</v>
       </c>
-      <c r="E13" s="29"/>
-      <c r="F13" s="27" t="s">
+      <c r="E13" s="28"/>
+      <c r="F13" s="26" t="s">
         <v>495</v>
       </c>
-      <c r="G13" s="27" t="s">
+      <c r="G13" s="26" t="s">
         <v>428</v>
       </c>
-      <c r="H13" s="28" t="s">
+      <c r="H13" s="27" t="s">
         <v>496</v>
       </c>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26" t="s">
+      <c r="I13" s="25"/>
+      <c r="J13" s="25" t="s">
         <v>430</v>
       </c>
-      <c r="K13" s="26"/>
-      <c r="L13" s="28" t="s">
+      <c r="K13" s="25"/>
+      <c r="L13" s="27" t="s">
         <v>497</v>
       </c>
-      <c r="M13" s="26" t="s">
+      <c r="M13" s="25" t="s">
         <v>431</v>
       </c>
-      <c r="N13" s="8"/>
+      <c r="N13" s="7"/>
     </row>
     <row r="14" spans="1:14" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="40" t="s">
+      <c r="A14" s="39" t="s">
         <v>498</v>
       </c>
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="24" t="s">
         <v>499</v>
       </c>
-      <c r="C14" s="32" t="s">
+      <c r="C14" s="31" t="s">
         <v>494</v>
       </c>
-      <c r="D14" s="26" t="s">
+      <c r="D14" s="25" t="s">
         <v>440</v>
       </c>
-      <c r="E14" s="29"/>
-      <c r="F14" s="27" t="s">
+      <c r="E14" s="28"/>
+      <c r="F14" s="26" t="s">
         <v>495</v>
       </c>
-      <c r="G14" s="27" t="s">
+      <c r="G14" s="26" t="s">
         <v>428</v>
       </c>
-      <c r="H14" s="28" t="s">
+      <c r="H14" s="27" t="s">
         <v>496</v>
       </c>
-      <c r="I14" s="26"/>
-      <c r="J14" s="26" t="s">
+      <c r="I14" s="25"/>
+      <c r="J14" s="25" t="s">
         <v>430</v>
       </c>
-      <c r="K14" s="26"/>
-      <c r="L14" s="28" t="s">
+      <c r="K14" s="25"/>
+      <c r="L14" s="27" t="s">
         <v>497</v>
       </c>
-      <c r="M14" s="26" t="s">
+      <c r="M14" s="25" t="s">
         <v>431</v>
       </c>
-      <c r="N14" s="8"/>
+      <c r="N14" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3700,8 +3730,8 @@
     <col min="13" max="13" width="8.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="41" customFormat="1" ht="42.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="42"/>
+    <row r="1" spans="1:14" s="40" customFormat="1" ht="42.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="41"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3729,71 +3759,71 @@
       <c r="J1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="5" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="39" t="s">
         <v>500</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="40" t="s">
         <v>501</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="40" t="s">
         <v>502</v>
       </c>
-      <c r="D2" s="41" t="s">
+      <c r="D2" s="40" t="s">
         <v>503</v>
       </c>
-      <c r="E2" s="41"/>
-      <c r="F2" s="27" t="s">
+      <c r="E2" s="40"/>
+      <c r="F2" s="26" t="s">
         <v>504</v>
       </c>
-      <c r="G2" s="19"/>
-      <c r="H2" s="42" t="s">
+      <c r="G2" s="18"/>
+      <c r="H2" s="41" t="s">
         <v>505</v>
       </c>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41" t="s">
+      <c r="I2" s="40"/>
+      <c r="J2" s="40" t="s">
         <v>430</v>
       </c>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41" t="s">
+      <c r="K2" s="40"/>
+      <c r="L2" s="40" t="s">
         <v>506</v>
       </c>
-      <c r="M2" s="41" t="s">
+      <c r="M2" s="40" t="s">
         <v>431</v>
       </c>
-      <c r="N2" s="41"/>
+      <c r="N2" s="40"/>
     </row>
     <row r="3" spans="1:14" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="39" t="s">
         <v>507</v>
       </c>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="40" t="s">
         <v>508</v>
       </c>
-      <c r="C3" s="41" t="s">
+      <c r="C3" s="40" t="s">
         <v>509</v>
       </c>
-      <c r="D3" s="41" t="s">
+      <c r="D3" s="40" t="s">
         <v>503</v>
       </c>
-      <c r="E3" s="41"/>
-      <c r="F3" s="27" t="s">
+      <c r="E3" s="40"/>
+      <c r="F3" s="26" t="s">
         <v>510</v>
       </c>
-      <c r="H3" s="42" t="s">
+      <c r="H3" s="41" t="s">
         <v>511</v>
       </c>
       <c r="J3" t="s">
@@ -3807,28 +3837,28 @@
       </c>
     </row>
     <row r="4" spans="1:14" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="39" t="s">
         <v>513</v>
       </c>
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="40" t="s">
         <v>514</v>
       </c>
-      <c r="C4" s="41" t="s">
+      <c r="C4" s="40" t="s">
         <v>515</v>
       </c>
-      <c r="D4" s="41" t="s">
+      <c r="D4" s="40" t="s">
         <v>516</v>
       </c>
-      <c r="E4" s="41" t="s">
+      <c r="E4" s="40" t="s">
         <v>517</v>
       </c>
-      <c r="F4" s="27" t="s">
+      <c r="F4" s="26" t="s">
         <v>518</v>
       </c>
-      <c r="G4" s="28" t="s">
+      <c r="G4" s="27" t="s">
         <v>428</v>
       </c>
-      <c r="H4" s="42" t="s">
+      <c r="H4" s="41" t="s">
         <v>505</v>
       </c>
       <c r="J4" t="s">
@@ -3842,28 +3872,28 @@
       </c>
     </row>
     <row r="5" spans="1:14" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="40" t="s">
+      <c r="A5" s="39" t="s">
         <v>520</v>
       </c>
-      <c r="B5" s="41" t="s">
+      <c r="B5" s="40" t="s">
         <v>521</v>
       </c>
-      <c r="C5" s="43" t="s">
+      <c r="C5" s="42" t="s">
         <v>522</v>
       </c>
-      <c r="D5" s="41" t="s">
+      <c r="D5" s="40" t="s">
         <v>516</v>
       </c>
-      <c r="E5" s="41" t="s">
+      <c r="E5" s="40" t="s">
         <v>517</v>
       </c>
-      <c r="F5" s="27" t="s">
+      <c r="F5" s="26" t="s">
         <v>523</v>
       </c>
-      <c r="G5" s="28" t="s">
+      <c r="G5" s="27" t="s">
         <v>428</v>
       </c>
-      <c r="H5" s="43" t="s">
+      <c r="H5" s="42" t="s">
         <v>524</v>
       </c>
       <c r="J5" t="s">
@@ -3877,28 +3907,28 @@
       </c>
     </row>
     <row r="6" spans="1:14" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="39" t="s">
         <v>526</v>
       </c>
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="40" t="s">
         <v>527</v>
       </c>
-      <c r="C6" s="44" t="s">
+      <c r="C6" s="43" t="s">
         <v>528</v>
       </c>
-      <c r="D6" s="41" t="s">
+      <c r="D6" s="40" t="s">
         <v>516</v>
       </c>
-      <c r="E6" s="41" t="s">
+      <c r="E6" s="40" t="s">
         <v>517</v>
       </c>
-      <c r="F6" s="27" t="s">
+      <c r="F6" s="26" t="s">
         <v>529</v>
       </c>
-      <c r="G6" s="28" t="s">
+      <c r="G6" s="27" t="s">
         <v>428</v>
       </c>
-      <c r="H6" s="43" t="s">
+      <c r="H6" s="42" t="s">
         <v>530</v>
       </c>
       <c r="J6" t="s">
@@ -3912,28 +3942,28 @@
       </c>
     </row>
     <row r="7" spans="1:14" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="40" t="s">
+      <c r="A7" s="39" t="s">
         <v>532</v>
       </c>
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="40" t="s">
         <v>533</v>
       </c>
-      <c r="C7" s="42" t="s">
+      <c r="C7" s="41" t="s">
         <v>534</v>
       </c>
-      <c r="D7" s="41" t="s">
+      <c r="D7" s="40" t="s">
         <v>516</v>
       </c>
-      <c r="E7" s="41" t="s">
+      <c r="E7" s="40" t="s">
         <v>517</v>
       </c>
-      <c r="F7" s="27" t="s">
+      <c r="F7" s="26" t="s">
         <v>535</v>
       </c>
-      <c r="G7" s="28" t="s">
+      <c r="G7" s="27" t="s">
         <v>428</v>
       </c>
-      <c r="H7" s="43" t="s">
+      <c r="H7" s="42" t="s">
         <v>536</v>
       </c>
       <c r="J7" t="s">
@@ -3947,36 +3977,36 @@
       </c>
     </row>
     <row r="8" spans="1:14" ht="120" x14ac:dyDescent="0.25">
-      <c r="A8" s="45"/>
-      <c r="B8" s="46" t="s">
+      <c r="A8" s="44"/>
+      <c r="B8" s="45" t="s">
         <v>537</v>
       </c>
-      <c r="C8" s="47" t="s">
+      <c r="C8" s="46" t="s">
         <v>538</v>
       </c>
-      <c r="D8" s="46" t="s">
+      <c r="D8" s="45" t="s">
         <v>539</v>
       </c>
-      <c r="E8" s="46"/>
-      <c r="F8" s="37" t="s">
+      <c r="E8" s="45"/>
+      <c r="F8" s="36" t="s">
         <v>540</v>
       </c>
-      <c r="G8" s="45"/>
-      <c r="H8" s="47" t="s">
+      <c r="G8" s="44"/>
+      <c r="H8" s="46" t="s">
         <v>541</v>
       </c>
-      <c r="I8" s="45"/>
-      <c r="J8" s="45" t="s">
+      <c r="I8" s="44"/>
+      <c r="J8" s="44" t="s">
         <v>444</v>
       </c>
-      <c r="K8" s="45"/>
-      <c r="L8" s="45" t="s">
+      <c r="K8" s="44"/>
+      <c r="L8" s="44" t="s">
         <v>542</v>
       </c>
-      <c r="M8" s="45" t="s">
+      <c r="M8" s="44" t="s">
         <v>431</v>
       </c>
-      <c r="N8" s="45"/>
+      <c r="N8" s="44"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3993,18 +4023,18 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.85546875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="51.140625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="26" style="7" customWidth="1"/>
-    <col min="4" max="4" width="26" style="5" customWidth="1"/>
-    <col min="5" max="5" width="56.7109375" style="5" customWidth="1"/>
-    <col min="6" max="6" width="50.5703125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="26.42578125" style="7" customWidth="1"/>
-    <col min="8" max="8" width="24" style="5" customWidth="1"/>
-    <col min="9" max="9" width="31.85546875" style="5" customWidth="1"/>
-    <col min="10" max="10" width="23" style="5" customWidth="1"/>
-    <col min="11" max="11" width="19" style="5" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="1" width="24.85546875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="51.140625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="26" style="6" customWidth="1"/>
+    <col min="4" max="4" width="26" style="4" customWidth="1"/>
+    <col min="5" max="5" width="56.7109375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="50.5703125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="26.42578125" style="6" customWidth="1"/>
+    <col min="8" max="8" width="24" style="4" customWidth="1"/>
+    <col min="9" max="9" width="31.85546875" style="4" customWidth="1"/>
+    <col min="10" max="10" width="23" style="4" customWidth="1"/>
+    <col min="11" max="11" width="19" style="4" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4029,1243 +4059,1243 @@
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="5" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="6" t="s">
         <v>543</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="4" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="6" t="s">
         <v>543</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="4" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="6" t="s">
         <v>543</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="J4" s="4" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="6" t="s">
         <v>543</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="J5" s="4" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="6" t="s">
         <v>543</v>
       </c>
-      <c r="J6" s="5" t="s">
+      <c r="J6" s="4" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="105" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="6" t="s">
         <v>543</v>
       </c>
-      <c r="J7" s="5" t="s">
+      <c r="J7" s="4" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="6" t="s">
         <v>543</v>
       </c>
-      <c r="J8" s="5" t="s">
+      <c r="J8" s="4" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="105" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="6" t="s">
         <v>543</v>
       </c>
-      <c r="J9" s="5" t="s">
+      <c r="J9" s="4" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="105" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G10" s="6" t="s">
         <v>543</v>
       </c>
-      <c r="J10" s="5" t="s">
+      <c r="J10" s="4" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="G11" s="6" t="s">
         <v>543</v>
       </c>
-      <c r="J11" s="5" t="s">
+      <c r="J11" s="4" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="G12" s="6" t="s">
         <v>543</v>
       </c>
-      <c r="J12" s="5" t="s">
+      <c r="J12" s="4" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="G13" s="6" t="s">
         <v>543</v>
       </c>
-      <c r="J13" s="5" t="s">
+      <c r="J13" s="4" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="G14" s="6" t="s">
         <v>543</v>
       </c>
-      <c r="J14" s="5" t="s">
+      <c r="J14" s="4" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="G15" s="6" t="s">
         <v>543</v>
       </c>
-      <c r="J15" s="5" t="s">
+      <c r="J15" s="4" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="G16" s="6" t="s">
         <v>543</v>
       </c>
-      <c r="J16" s="5" t="s">
+      <c r="J16" s="4" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="90" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F17" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="G17" s="6" t="s">
         <v>543</v>
       </c>
-      <c r="J17" s="5" t="s">
+      <c r="J17" s="4" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="90" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="F18" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="G18" s="6" t="s">
         <v>543</v>
       </c>
-      <c r="J18" s="5" t="s">
+      <c r="J18" s="4" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="90" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="F19" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="G19" s="6" t="s">
         <v>543</v>
       </c>
-      <c r="J19" s="5" t="s">
+      <c r="J19" s="4" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="90" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="F20" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="G20" s="6" t="s">
         <v>543</v>
       </c>
-      <c r="J20" s="5" t="s">
+      <c r="J20" s="4" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="90" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="F21" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="G21" s="7" t="s">
+      <c r="G21" s="6" t="s">
         <v>543</v>
       </c>
-      <c r="J21" s="5" t="s">
+      <c r="J21" s="4" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="90" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E22" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="F22" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="G22" s="6" t="s">
         <v>543</v>
       </c>
-      <c r="J22" s="5" t="s">
+      <c r="J22" s="4" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="90" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E23" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="F23" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="G23" s="6" t="s">
         <v>543</v>
       </c>
-      <c r="J23" s="5" t="s">
+      <c r="J23" s="4" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="105" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="E24" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="F24" s="5" t="s">
+      <c r="F24" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="G24" s="6" t="s">
         <v>543</v>
       </c>
-      <c r="J24" s="5" t="s">
+      <c r="J24" s="4" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="E25" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="F25" s="5" t="s">
+      <c r="F25" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="G25" s="6" t="s">
         <v>543</v>
       </c>
-      <c r="J25" s="5" t="s">
+      <c r="J25" s="4" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="90" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="E26" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="F26" s="5" t="s">
+      <c r="F26" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="G26" s="6" t="s">
         <v>543</v>
       </c>
-      <c r="J26" s="5" t="s">
+      <c r="J26" s="4" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="90" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E27" s="5" t="s">
+      <c r="E27" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="F27" s="5" t="s">
+      <c r="F27" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="G27" s="7" t="s">
+      <c r="G27" s="6" t="s">
         <v>543</v>
       </c>
-      <c r="J27" s="5" t="s">
+      <c r="J27" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C28" s="10"/>
-      <c r="G28" s="10"/>
+    <row r="28" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C28" s="9"/>
+      <c r="G28" s="9"/>
     </row>
     <row r="29" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E29" s="5" t="s">
+      <c r="E29" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="F29" s="5" t="s">
+      <c r="F29" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="G29" s="7" t="s">
+      <c r="G29" s="6" t="s">
         <v>543</v>
       </c>
-      <c r="J29" s="5" t="s">
+      <c r="J29" s="4" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="90" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E30" s="5" t="s">
+      <c r="E30" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="F30" s="5" t="s">
+      <c r="F30" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="G30" s="7" t="s">
+      <c r="G30" s="6" t="s">
         <v>543</v>
       </c>
-      <c r="J30" s="5" t="s">
+      <c r="J30" s="4" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="90" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C31" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E31" s="5" t="s">
+      <c r="E31" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="F31" s="5" t="s">
+      <c r="F31" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="G31" s="7" t="s">
+      <c r="G31" s="6" t="s">
         <v>543</v>
       </c>
-      <c r="J31" s="5" t="s">
+      <c r="J31" s="4" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="90" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C32" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E32" s="5" t="s">
+      <c r="E32" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="F32" s="5" t="s">
+      <c r="F32" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="G32" s="7" t="s">
+      <c r="G32" s="6" t="s">
         <v>543</v>
       </c>
-      <c r="J32" s="5" t="s">
+      <c r="J32" s="4" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="105" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
+      <c r="A33" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C33" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E33" s="5" t="s">
+      <c r="E33" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="F33" s="5" t="s">
+      <c r="F33" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="G33" s="7" t="s">
+      <c r="G33" s="6" t="s">
         <v>543</v>
       </c>
-      <c r="J33" s="5" t="s">
+      <c r="J33" s="4" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="90" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
+      <c r="A34" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C34" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E34" s="5" t="s">
+      <c r="E34" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="F34" s="5" t="s">
+      <c r="F34" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="G34" s="7" t="s">
+      <c r="G34" s="6" t="s">
         <v>543</v>
       </c>
-      <c r="J34" s="5" t="s">
+      <c r="J34" s="4" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="105" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
+      <c r="A35" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C35" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E35" s="5" t="s">
+      <c r="E35" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="F35" s="5" t="s">
+      <c r="F35" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="G35" s="7" t="s">
+      <c r="G35" s="6" t="s">
         <v>543</v>
       </c>
-      <c r="J35" s="5" t="s">
+      <c r="J35" s="4" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="105" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
+      <c r="A36" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C36" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E36" s="5" t="s">
+      <c r="E36" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="F36" s="5" t="s">
+      <c r="F36" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="G36" s="7" t="s">
+      <c r="G36" s="6" t="s">
         <v>543</v>
       </c>
-      <c r="J36" s="5" t="s">
+      <c r="J36" s="4" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="90" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
+      <c r="A37" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C37" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E37" s="5" t="s">
+      <c r="E37" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="F37" s="5" t="s">
+      <c r="F37" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="G37" s="7" t="s">
+      <c r="G37" s="6" t="s">
         <v>543</v>
       </c>
-      <c r="J37" s="5" t="s">
+      <c r="J37" s="4" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="90" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="s">
+      <c r="A38" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="C38" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E38" s="5" t="s">
+      <c r="E38" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="F38" s="5" t="s">
+      <c r="F38" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="G38" s="7" t="s">
+      <c r="G38" s="6" t="s">
         <v>543</v>
       </c>
-      <c r="J38" s="5" t="s">
+      <c r="J38" s="4" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="90" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="s">
+      <c r="A39" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="C39" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E39" s="5" t="s">
+      <c r="E39" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="F39" s="5" t="s">
+      <c r="F39" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="G39" s="7" t="s">
+      <c r="G39" s="6" t="s">
         <v>543</v>
       </c>
-      <c r="J39" s="5" t="s">
+      <c r="J39" s="4" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="90" x14ac:dyDescent="0.25">
-      <c r="A40" s="5" t="s">
+      <c r="A40" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="C40" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E40" s="5" t="s">
+      <c r="E40" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="F40" s="5" t="s">
+      <c r="F40" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="G40" s="7" t="s">
+      <c r="G40" s="6" t="s">
         <v>543</v>
       </c>
-      <c r="J40" s="5" t="s">
+      <c r="J40" s="4" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="90" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="s">
+      <c r="A41" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="C41" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E41" s="5" t="s">
+      <c r="E41" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="F41" s="5" t="s">
+      <c r="F41" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="G41" s="7" t="s">
+      <c r="G41" s="6" t="s">
         <v>543</v>
       </c>
-      <c r="J41" s="5" t="s">
+      <c r="J41" s="4" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="90" x14ac:dyDescent="0.25">
-      <c r="A42" s="5" t="s">
+      <c r="A42" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B42" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="C42" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E42" s="5" t="s">
+      <c r="E42" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="F42" s="5" t="s">
+      <c r="F42" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="G42" s="7" t="s">
+      <c r="G42" s="6" t="s">
         <v>543</v>
       </c>
-      <c r="J42" s="5" t="s">
+      <c r="J42" s="4" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="90" x14ac:dyDescent="0.25">
-      <c r="A43" s="5" t="s">
+      <c r="A43" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="B43" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="C43" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E43" s="5" t="s">
+      <c r="E43" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="F43" s="5" t="s">
+      <c r="F43" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="G43" s="7" t="s">
+      <c r="G43" s="6" t="s">
         <v>543</v>
       </c>
-      <c r="J43" s="5" t="s">
+      <c r="J43" s="4" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="90" x14ac:dyDescent="0.25">
-      <c r="A44" s="5" t="s">
+      <c r="A44" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="B44" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="C44" s="7" t="s">
+      <c r="C44" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E44" s="5" t="s">
+      <c r="E44" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="F44" s="5" t="s">
+      <c r="F44" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="G44" s="7" t="s">
+      <c r="G44" s="6" t="s">
         <v>543</v>
       </c>
-      <c r="J44" s="5" t="s">
+      <c r="J44" s="4" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="90" x14ac:dyDescent="0.25">
-      <c r="A45" s="5" t="s">
+      <c r="A45" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="B45" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="C45" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E45" s="5" t="s">
+      <c r="E45" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="F45" s="5" t="s">
+      <c r="F45" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="G45" s="7" t="s">
+      <c r="G45" s="6" t="s">
         <v>543</v>
       </c>
-      <c r="J45" s="5" t="s">
+      <c r="J45" s="4" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="90" x14ac:dyDescent="0.25">
-      <c r="A46" s="5" t="s">
+      <c r="A46" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="B46" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="C46" s="7" t="s">
+      <c r="C46" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E46" s="5" t="s">
+      <c r="E46" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="F46" s="5" t="s">
+      <c r="F46" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="G46" s="7" t="s">
+      <c r="G46" s="6" t="s">
         <v>543</v>
       </c>
-      <c r="J46" s="5" t="s">
+      <c r="J46" s="4" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="90" x14ac:dyDescent="0.25">
-      <c r="A47" s="5" t="s">
+      <c r="A47" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B47" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="C47" s="7" t="s">
+      <c r="C47" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E47" s="5" t="s">
+      <c r="E47" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="F47" s="5" t="s">
+      <c r="F47" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="G47" s="7" t="s">
+      <c r="G47" s="6" t="s">
         <v>543</v>
       </c>
-      <c r="J47" s="5" t="s">
+      <c r="J47" s="4" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="90" x14ac:dyDescent="0.25">
-      <c r="A48" s="5" t="s">
+      <c r="A48" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="B48" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="C48" s="7" t="s">
+      <c r="C48" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E48" s="5" t="s">
+      <c r="E48" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="F48" s="5" t="s">
+      <c r="F48" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="G48" s="7" t="s">
+      <c r="G48" s="6" t="s">
         <v>543</v>
       </c>
-      <c r="J48" s="5" t="s">
+      <c r="J48" s="4" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="90" x14ac:dyDescent="0.25">
-      <c r="A49" s="5" t="s">
+      <c r="A49" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="B49" s="5" t="s">
+      <c r="B49" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="C49" s="7" t="s">
+      <c r="C49" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E49" s="5" t="s">
+      <c r="E49" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="F49" s="5" t="s">
+      <c r="F49" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="G49" s="7" t="s">
+      <c r="G49" s="6" t="s">
         <v>543</v>
       </c>
-      <c r="J49" s="5" t="s">
+      <c r="J49" s="4" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="105" x14ac:dyDescent="0.25">
-      <c r="A50" s="5" t="s">
+      <c r="A50" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="B50" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="C50" s="7" t="s">
+      <c r="C50" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E50" s="5" t="s">
+      <c r="E50" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="F50" s="5" t="s">
+      <c r="F50" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="G50" s="7" t="s">
+      <c r="G50" s="6" t="s">
         <v>543</v>
       </c>
-      <c r="J50" s="5" t="s">
+      <c r="J50" s="4" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A51" s="5" t="s">
+      <c r="A51" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="B51" s="5" t="s">
+      <c r="B51" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="C51" s="7" t="s">
+      <c r="C51" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E51" s="5" t="s">
+      <c r="E51" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="F51" s="5" t="s">
+      <c r="F51" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="G51" s="7" t="s">
+      <c r="G51" s="6" t="s">
         <v>543</v>
       </c>
-      <c r="J51" s="5" t="s">
+      <c r="J51" s="4" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="90" x14ac:dyDescent="0.25">
-      <c r="A52" s="5" t="s">
+      <c r="A52" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="B52" s="5" t="s">
+      <c r="B52" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="C52" s="7" t="s">
+      <c r="C52" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E52" s="5" t="s">
+      <c r="E52" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="F52" s="5" t="s">
+      <c r="F52" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="G52" s="7" t="s">
+      <c r="G52" s="6" t="s">
         <v>543</v>
       </c>
-      <c r="J52" s="5" t="s">
+      <c r="J52" s="4" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="90" x14ac:dyDescent="0.25">
-      <c r="A53" s="5" t="s">
+      <c r="A53" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="B53" s="5" t="s">
+      <c r="B53" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="C53" s="7" t="s">
+      <c r="C53" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E53" s="5" t="s">
+      <c r="E53" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="F53" s="5" t="s">
+      <c r="F53" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="G53" s="7" t="s">
+      <c r="G53" s="6" t="s">
         <v>543</v>
       </c>
-      <c r="J53" s="5" t="s">
+      <c r="J53" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="54" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C54" s="10"/>
-      <c r="G54" s="10"/>
+    <row r="54" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C54" s="9"/>
+      <c r="G54" s="9"/>
     </row>
     <row r="55" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A55" s="5" t="s">
+      <c r="A55" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="B55" s="5" t="s">
+      <c r="B55" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="C55" s="7" t="s">
+      <c r="C55" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="E55" s="5" t="s">
+      <c r="E55" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="F55" s="5" t="s">
+      <c r="F55" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="G55" s="7" t="s">
+      <c r="G55" s="6" t="s">
         <v>543</v>
       </c>
-      <c r="J55" s="5" t="s">
+      <c r="J55" s="4" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="5" t="s">
+      <c r="A56" s="4" t="s">
+        <v>548</v>
+      </c>
+      <c r="B56" s="4" t="s">
         <v>549</v>
       </c>
-      <c r="B56" s="5" t="s">
+      <c r="C56" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="E56" s="4" t="s">
         <v>550</v>
       </c>
-      <c r="C56" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="E56" s="5" t="s">
+      <c r="F56" s="4" t="s">
         <v>551</v>
       </c>
-      <c r="F56" s="5" t="s">
-        <v>552</v>
-      </c>
-      <c r="G56" s="7" t="s">
+      <c r="G56" s="6" t="s">
         <v>543</v>
       </c>
-      <c r="J56" s="5" t="s">
+      <c r="J56" s="4" t="s">
         <v>50</v>
       </c>
     </row>
@@ -5279,24 +5309,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="57.140625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" style="7" customWidth="1"/>
-    <col min="4" max="4" width="23.42578125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="62.28515625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="46.5703125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="20.140625" style="7" customWidth="1"/>
-    <col min="8" max="8" width="25.28515625" style="5" customWidth="1"/>
-    <col min="9" max="9" width="18.7109375" style="5" customWidth="1"/>
-    <col min="10" max="10" width="28" style="5" customWidth="1"/>
-    <col min="11" max="11" width="31.140625" style="5" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="1" width="25.7109375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="57.140625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="62.28515625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="46.5703125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="20.140625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="25.28515625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="18.7109375" style="4" customWidth="1"/>
+    <col min="10" max="10" width="28" style="4" customWidth="1"/>
+    <col min="11" max="11" width="31.140625" style="4" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5321,273 +5349,309 @@
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:11" s="13" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="7" t="s">
-        <v>543</v>
-      </c>
-      <c r="J2" s="5" t="s">
+      <c r="G2" s="47" t="s">
+        <v>249</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>571</v>
+      </c>
+      <c r="J2" s="13" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:11" s="13" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="7" t="s">
-        <v>543</v>
-      </c>
-      <c r="J3" s="5" t="s">
+      <c r="G3" s="47" t="s">
+        <v>249</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>572</v>
+      </c>
+      <c r="J3" s="13" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:11" s="13" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>543</v>
-      </c>
-      <c r="J4" s="5" t="s">
+      <c r="G4" s="47" t="s">
+        <v>249</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>573</v>
+      </c>
+      <c r="J4" s="13" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:11" s="13" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>543</v>
-      </c>
-      <c r="J5" s="5" t="s">
+      <c r="G5" s="47" t="s">
+        <v>249</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>574</v>
+      </c>
+      <c r="J5" s="13" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+    <row r="6" spans="1:11" s="13" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="G6" s="7" t="s">
-        <v>543</v>
-      </c>
-      <c r="J6" s="5" t="s">
+      <c r="G6" s="47" t="s">
+        <v>249</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>575</v>
+      </c>
+      <c r="J6" s="13" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+    <row r="7" spans="1:11" s="13" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="F7" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>543</v>
-      </c>
-      <c r="J7" s="5" t="s">
+      <c r="F7" s="13" t="s">
+        <v>576</v>
+      </c>
+      <c r="G7" s="47" t="s">
+        <v>249</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>577</v>
+      </c>
+      <c r="J7" s="13" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+    <row r="8" spans="1:11" s="13" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>543</v>
-      </c>
-      <c r="J8" s="5" t="s">
+      <c r="G8" s="47" t="s">
+        <v>249</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>578</v>
+      </c>
+      <c r="J8" s="13" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+    <row r="9" spans="1:11" s="13" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="G9" s="7" t="s">
-        <v>543</v>
-      </c>
-      <c r="J9" s="5" t="s">
+      <c r="G9" s="47" t="s">
+        <v>249</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>578</v>
+      </c>
+      <c r="J9" s="13" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+    <row r="10" spans="1:11" s="13" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>543</v>
-      </c>
-      <c r="J10" s="5" t="s">
+      <c r="G10" s="47" t="s">
+        <v>249</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>578</v>
+      </c>
+      <c r="J10" s="13" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+    <row r="11" spans="1:11" s="13" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="G11" s="7" t="s">
-        <v>543</v>
-      </c>
-      <c r="J11" s="5" t="s">
+      <c r="G11" s="47" t="s">
+        <v>249</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>578</v>
+      </c>
+      <c r="J11" s="13" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+    <row r="12" spans="1:11" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
         <v>544</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="13" t="s">
         <v>545</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="47" t="s">
         <v>546</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="13" t="s">
         <v>547</v>
       </c>
-      <c r="F12" s="5" t="s">
-        <v>548</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>543</v>
+      <c r="F12" s="13" t="s">
+        <v>579</v>
+      </c>
+      <c r="G12" s="47" t="s">
+        <v>249</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="J12" s="13" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -5619,7 +5683,7 @@
     <col min="12" max="12" width="20.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="5" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="4" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5638,714 +5702,714 @@
       <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="5" t="s">
         <v>8</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="13" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+    <row r="2" spans="1:12" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
         <v>201</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="12" t="s">
         <v>200</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="12" t="s">
         <v>360</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="13" t="s">
         <v>354</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="13" t="s">
         <v>244</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="13" t="s">
         <v>242</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="12" t="s">
         <v>252</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="I2" s="12" t="s">
         <v>249</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="K2" s="12" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="13" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+    <row r="3" spans="1:12" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="12" t="s">
         <v>226</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="12" t="s">
         <v>361</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="13" t="s">
         <v>356</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="13" t="s">
         <v>245</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="12" t="s">
         <v>243</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H3" s="12" t="s">
         <v>243</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="I3" s="12" t="s">
         <v>249</v>
       </c>
-      <c r="K3" s="13" t="s">
+      <c r="K3" s="12" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="13" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
+    <row r="4" spans="1:12" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
         <v>203</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="12" t="s">
         <v>227</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="12" t="s">
         <v>362</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="13" t="s">
         <v>355</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="13" t="s">
         <v>253</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="12" t="s">
         <v>246</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="12" t="s">
         <v>246</v>
       </c>
-      <c r="I4" s="13" t="s">
+      <c r="I4" s="12" t="s">
         <v>249</v>
       </c>
-      <c r="K4" s="13" t="s">
+      <c r="K4" s="12" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="15" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
+    <row r="5" spans="1:12" s="14" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
         <v>204</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="14" t="s">
         <v>228</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="14" t="s">
         <v>363</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="15" t="s">
         <v>356</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F5" s="15" t="s">
         <v>254</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="14" t="s">
         <v>205</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="H5" s="14" t="s">
         <v>255</v>
       </c>
-      <c r="I5" s="15" t="s">
+      <c r="I5" s="14" t="s">
         <v>248</v>
       </c>
-      <c r="J5" s="15" t="s">
+      <c r="J5" s="14" t="s">
         <v>376</v>
       </c>
-      <c r="K5" s="15" t="s">
+      <c r="K5" s="14" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="13" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
+    <row r="6" spans="1:12" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="12" t="s">
         <v>229</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="12" t="s">
         <v>364</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="13" t="s">
         <v>356</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="13" t="s">
         <v>256</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="G6" s="12" t="s">
         <v>258</v>
       </c>
-      <c r="H6" s="13" t="s">
+      <c r="H6" s="12" t="s">
         <v>257</v>
       </c>
-      <c r="I6" s="13" t="s">
+      <c r="I6" s="12" t="s">
         <v>249</v>
       </c>
-      <c r="K6" s="13" t="s">
+      <c r="K6" s="12" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="7" spans="1:12" s="15" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
+    <row r="7" spans="1:12" s="14" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
         <v>207</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="14" t="s">
         <v>358</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="14" t="s">
         <v>365</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="15" t="s">
         <v>356</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="F7" s="15" t="s">
         <v>326</v>
       </c>
-      <c r="G7" s="15" t="s">
+      <c r="G7" s="14" t="s">
         <v>327</v>
       </c>
-      <c r="H7" s="15" t="s">
+      <c r="H7" s="14" t="s">
         <v>328</v>
       </c>
-      <c r="I7" s="15" t="s">
+      <c r="I7" s="14" t="s">
         <v>248</v>
       </c>
-      <c r="J7" s="15" t="s">
+      <c r="J7" s="14" t="s">
         <v>377</v>
       </c>
-      <c r="K7" s="15" t="s">
+      <c r="K7" s="14" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="13" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
+    <row r="8" spans="1:12" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="12" t="s">
         <v>230</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="12" t="s">
         <v>366</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="13" t="s">
         <v>356</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="F8" s="13" t="s">
         <v>329</v>
       </c>
-      <c r="G8" s="13" t="s">
+      <c r="G8" s="12" t="s">
         <v>330</v>
       </c>
-      <c r="H8" s="13" t="s">
+      <c r="H8" s="12" t="s">
         <v>331</v>
       </c>
-      <c r="I8" s="13" t="s">
+      <c r="I8" s="12" t="s">
         <v>249</v>
       </c>
-      <c r="K8" s="13" t="s">
+      <c r="K8" s="12" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:12" s="13" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+    <row r="9" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:12" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
         <v>334</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="12" t="s">
         <v>231</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="12" t="s">
         <v>367</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="13" t="s">
         <v>356</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="F10" s="13" t="s">
         <v>336</v>
       </c>
-      <c r="G10" s="13" t="s">
+      <c r="G10" s="12" t="s">
         <v>332</v>
       </c>
-      <c r="H10" s="13" t="s">
+      <c r="H10" s="12" t="s">
         <v>333</v>
       </c>
-      <c r="I10" s="13" t="s">
+      <c r="I10" s="12" t="s">
         <v>249</v>
       </c>
-      <c r="K10" s="13" t="s">
+      <c r="K10" s="12" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="11" spans="1:12" s="13" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
+    <row r="11" spans="1:12" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="12" t="s">
         <v>232</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="12" t="s">
         <v>381</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="E11" s="13" t="s">
         <v>356</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="F11" s="13" t="s">
         <v>335</v>
       </c>
-      <c r="G11" s="13" t="s">
+      <c r="G11" s="12" t="s">
         <v>247</v>
       </c>
-      <c r="H11" s="13" t="s">
+      <c r="H11" s="12" t="s">
         <v>337</v>
       </c>
-      <c r="I11" s="13" t="s">
+      <c r="I11" s="12" t="s">
         <v>249</v>
       </c>
-      <c r="K11" s="13" t="s">
+      <c r="K11" s="12" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="12" spans="1:12" s="13" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
+    <row r="12" spans="1:12" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="12" t="s">
         <v>233</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="12" t="s">
         <v>382</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="E12" s="13" t="s">
         <v>356</v>
       </c>
-      <c r="F12" s="14" t="s">
+      <c r="F12" s="13" t="s">
         <v>383</v>
       </c>
-      <c r="G12" s="13" t="s">
+      <c r="G12" s="12" t="s">
         <v>384</v>
       </c>
-      <c r="H12" s="13" t="s">
+      <c r="H12" s="12" t="s">
         <v>385</v>
       </c>
-      <c r="I12" s="13" t="s">
+      <c r="I12" s="12" t="s">
         <v>249</v>
       </c>
-      <c r="K12" s="13" t="s">
+      <c r="K12" s="12" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="13" spans="1:12" s="15" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A13" s="15" t="s">
+    <row r="13" spans="1:12" s="14" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
         <v>210</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="14" t="s">
         <v>359</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="14" t="s">
         <v>368</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="16" t="s">
+      <c r="E13" s="15" t="s">
         <v>356</v>
       </c>
-      <c r="F13" s="16" t="s">
+      <c r="F13" s="15" t="s">
         <v>342</v>
       </c>
-      <c r="G13" s="15" t="s">
+      <c r="G13" s="14" t="s">
         <v>211</v>
       </c>
-      <c r="H13" s="15" t="s">
+      <c r="H13" s="14" t="s">
         <v>338</v>
       </c>
-      <c r="I13" s="15" t="s">
+      <c r="I13" s="14" t="s">
         <v>248</v>
       </c>
-      <c r="J13" s="15" t="s">
+      <c r="J13" s="14" t="s">
         <v>380</v>
       </c>
-      <c r="K13" s="15" t="s">
+      <c r="K13" s="14" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="14" spans="1:12" s="15" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A14" s="15" t="s">
+    <row r="14" spans="1:12" s="14" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
         <v>212</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="14" t="s">
         <v>234</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="14" t="s">
         <v>369</v>
       </c>
-      <c r="D14" s="15" t="s">
+      <c r="D14" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="16" t="s">
+      <c r="E14" s="15" t="s">
         <v>356</v>
       </c>
-      <c r="F14" s="16" t="s">
+      <c r="F14" s="15" t="s">
         <v>342</v>
       </c>
-      <c r="G14" s="15" t="s">
+      <c r="G14" s="14" t="s">
         <v>213</v>
       </c>
-      <c r="H14" s="15" t="s">
+      <c r="H14" s="14" t="s">
         <v>338</v>
       </c>
-      <c r="I14" s="15" t="s">
+      <c r="I14" s="14" t="s">
         <v>248</v>
       </c>
-      <c r="J14" s="15" t="s">
+      <c r="J14" s="14" t="s">
         <v>250</v>
       </c>
-      <c r="K14" s="15" t="s">
+      <c r="K14" s="14" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="15" spans="1:12" s="15" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A15" s="15" t="s">
+    <row r="15" spans="1:12" s="14" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
         <v>214</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="14" t="s">
         <v>235</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C15" s="14" t="s">
         <v>370</v>
       </c>
-      <c r="D15" s="15" t="s">
+      <c r="D15" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E15" s="16" t="s">
+      <c r="E15" s="15" t="s">
         <v>356</v>
       </c>
-      <c r="F15" s="16" t="s">
+      <c r="F15" s="15" t="s">
         <v>342</v>
       </c>
-      <c r="G15" s="15" t="s">
+      <c r="G15" s="14" t="s">
         <v>215</v>
       </c>
-      <c r="H15" s="15" t="s">
+      <c r="H15" s="14" t="s">
         <v>338</v>
       </c>
-      <c r="I15" s="15" t="s">
+      <c r="I15" s="14" t="s">
         <v>248</v>
       </c>
-      <c r="J15" s="15" t="s">
+      <c r="J15" s="14" t="s">
         <v>378</v>
       </c>
-      <c r="K15" s="15" t="s">
+      <c r="K15" s="14" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="16" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="1:11" s="13" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A17" s="13" t="s">
+    <row r="16" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="1:11" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
         <v>216</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="12" t="s">
         <v>371</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="D17" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E17" s="14" t="s">
+      <c r="E17" s="13" t="s">
         <v>356</v>
       </c>
-      <c r="F17" s="13" t="s">
+      <c r="F17" s="12" t="s">
         <v>339</v>
       </c>
-      <c r="G17" s="13" t="s">
+      <c r="G17" s="12" t="s">
         <v>221</v>
       </c>
-      <c r="H17" s="13" t="s">
+      <c r="H17" s="12" t="s">
         <v>340</v>
       </c>
-      <c r="I17" s="13" t="s">
+      <c r="I17" s="12" t="s">
         <v>249</v>
       </c>
-      <c r="K17" s="13" t="s">
+      <c r="K17" s="12" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="15" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A18" s="15" t="s">
+    <row r="18" spans="1:11" s="14" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A18" s="14" t="s">
         <v>217</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="14" t="s">
         <v>237</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="C18" s="14" t="s">
         <v>372</v>
       </c>
-      <c r="D18" s="15" t="s">
+      <c r="D18" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="15" t="s">
         <v>356</v>
       </c>
-      <c r="F18" s="16" t="s">
+      <c r="F18" s="15" t="s">
         <v>341</v>
       </c>
-      <c r="G18" s="15" t="s">
+      <c r="G18" s="14" t="s">
         <v>222</v>
       </c>
-      <c r="H18" s="15" t="s">
+      <c r="H18" s="14" t="s">
         <v>343</v>
       </c>
-      <c r="I18" s="15" t="s">
+      <c r="I18" s="14" t="s">
         <v>248</v>
       </c>
-      <c r="J18" s="15" t="s">
+      <c r="J18" s="14" t="s">
         <v>379</v>
       </c>
-      <c r="K18" s="15" t="s">
+      <c r="K18" s="14" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="15" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A19" s="15" t="s">
+    <row r="19" spans="1:11" s="14" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A19" s="14" t="s">
         <v>218</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="14" t="s">
         <v>238</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="C19" s="14" t="s">
         <v>373</v>
       </c>
-      <c r="D19" s="15" t="s">
+      <c r="D19" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="15" t="s">
         <v>356</v>
       </c>
-      <c r="F19" s="16" t="s">
+      <c r="F19" s="15" t="s">
         <v>341</v>
       </c>
-      <c r="G19" s="15" t="s">
+      <c r="G19" s="14" t="s">
         <v>223</v>
       </c>
-      <c r="H19" s="15" t="s">
+      <c r="H19" s="14" t="s">
         <v>344</v>
       </c>
-      <c r="I19" s="15" t="s">
+      <c r="I19" s="14" t="s">
         <v>248</v>
       </c>
-      <c r="J19" s="15" t="s">
+      <c r="J19" s="14" t="s">
         <v>251</v>
       </c>
-      <c r="K19" s="15" t="s">
+      <c r="K19" s="14" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="13" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A20" s="13" t="s">
+    <row r="20" spans="1:11" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A20" s="12" t="s">
         <v>219</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="12" t="s">
         <v>239</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="12" t="s">
         <v>374</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="D20" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E20" s="14" t="s">
+      <c r="E20" s="13" t="s">
         <v>356</v>
       </c>
-      <c r="F20" s="14" t="s">
+      <c r="F20" s="13" t="s">
         <v>345</v>
       </c>
-      <c r="G20" s="13" t="s">
+      <c r="G20" s="12" t="s">
         <v>224</v>
       </c>
-      <c r="H20" s="13" t="s">
+      <c r="H20" s="12" t="s">
         <v>347</v>
       </c>
-      <c r="I20" s="13" t="s">
+      <c r="I20" s="12" t="s">
         <v>249</v>
       </c>
-      <c r="K20" s="13" t="s">
+      <c r="K20" s="12" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="13" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A21" s="13" t="s">
+    <row r="21" spans="1:11" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A21" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="12" t="s">
         <v>240</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="12" t="s">
         <v>375</v>
       </c>
-      <c r="D21" s="13" t="s">
+      <c r="D21" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E21" s="14" t="s">
+      <c r="E21" s="13" t="s">
         <v>356</v>
       </c>
-      <c r="F21" s="14" t="s">
+      <c r="F21" s="13" t="s">
         <v>346</v>
       </c>
-      <c r="G21" s="13" t="s">
+      <c r="G21" s="12" t="s">
         <v>225</v>
       </c>
-      <c r="H21" s="13" t="s">
+      <c r="H21" s="12" t="s">
         <v>347</v>
       </c>
-      <c r="I21" s="13" t="s">
+      <c r="I21" s="12" t="s">
         <v>249</v>
       </c>
-      <c r="K21" s="13" t="s">
+      <c r="K21" s="12" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="22" spans="1:11" s="15" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="B22" s="15" t="s">
+    <row r="22" spans="1:11" s="14" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="B22" s="14" t="s">
+        <v>552</v>
+      </c>
+      <c r="C22" s="14" t="s">
         <v>553</v>
       </c>
-      <c r="C22" s="15" t="s">
+      <c r="D22" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>356</v>
+      </c>
+      <c r="F22" s="15" t="s">
         <v>554</v>
       </c>
-      <c r="D22" s="15" t="s">
+      <c r="G22" s="14" t="s">
+        <v>555</v>
+      </c>
+      <c r="H22" s="14" t="s">
+        <v>556</v>
+      </c>
+      <c r="I22" s="14" t="s">
+        <v>557</v>
+      </c>
+      <c r="J22" s="14" t="s">
+        <v>558</v>
+      </c>
+      <c r="K22" s="14" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" s="14" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+      <c r="B23" s="14" t="s">
+        <v>559</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>560</v>
+      </c>
+      <c r="D23" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E23" s="15" t="s">
         <v>356</v>
       </c>
-      <c r="F22" s="16" t="s">
-        <v>555</v>
-      </c>
-      <c r="G22" s="15" t="s">
-        <v>556</v>
-      </c>
-      <c r="H22" s="15" t="s">
+      <c r="F23" s="15" t="s">
+        <v>569</v>
+      </c>
+      <c r="G23" s="14" t="s">
+        <v>561</v>
+      </c>
+      <c r="H23" s="14" t="s">
+        <v>562</v>
+      </c>
+      <c r="I23" s="14" t="s">
         <v>557</v>
       </c>
-      <c r="I22" s="15" t="s">
-        <v>558</v>
-      </c>
-      <c r="J22" s="15" t="s">
-        <v>559</v>
-      </c>
-      <c r="K22" s="15" t="s">
+      <c r="J23" s="14" t="s">
+        <v>563</v>
+      </c>
+      <c r="K23" s="14" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="23" spans="1:11" s="15" customFormat="1" ht="135" x14ac:dyDescent="0.25">
-      <c r="B23" s="15" t="s">
-        <v>560</v>
-      </c>
-      <c r="C23" s="15" t="s">
-        <v>561</v>
-      </c>
-      <c r="D23" s="15" t="s">
+    <row r="24" spans="1:11" s="14" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="B24" s="14" t="s">
+        <v>565</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>564</v>
+      </c>
+      <c r="D24" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E24" s="15" t="s">
         <v>356</v>
       </c>
-      <c r="F23" s="16" t="s">
+      <c r="F24" s="15" t="s">
+        <v>566</v>
+      </c>
+      <c r="G24" s="14" t="s">
+        <v>567</v>
+      </c>
+      <c r="H24" s="14" t="s">
+        <v>568</v>
+      </c>
+      <c r="I24" s="14" t="s">
+        <v>557</v>
+      </c>
+      <c r="J24" s="14" t="s">
         <v>570</v>
       </c>
-      <c r="G23" s="15" t="s">
-        <v>562</v>
-      </c>
-      <c r="H23" s="15" t="s">
-        <v>563</v>
-      </c>
-      <c r="I23" s="15" t="s">
-        <v>558</v>
-      </c>
-      <c r="J23" s="15" t="s">
-        <v>564</v>
-      </c>
-      <c r="K23" s="15" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" s="15" customFormat="1" ht="105" x14ac:dyDescent="0.25">
-      <c r="B24" s="15" t="s">
-        <v>566</v>
-      </c>
-      <c r="C24" s="15" t="s">
-        <v>565</v>
-      </c>
-      <c r="D24" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E24" s="16" t="s">
-        <v>356</v>
-      </c>
-      <c r="F24" s="16" t="s">
-        <v>567</v>
-      </c>
-      <c r="G24" s="15" t="s">
-        <v>568</v>
-      </c>
-      <c r="H24" s="15" t="s">
-        <v>569</v>
-      </c>
-      <c r="I24" s="15" t="s">
-        <v>558</v>
-      </c>
-      <c r="J24" s="15" t="s">
-        <v>571</v>
-      </c>
-      <c r="K24" s="15" t="s">
+      <c r="K24" s="14" t="s">
         <v>241</v>
       </c>
     </row>
@@ -6381,12 +6445,12 @@
       <c r="A2" t="s">
         <v>349</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="22" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="24"/>
+    <row r="3" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="23"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -6400,7 +6464,7 @@
       <c r="A5" t="s">
         <v>351</v>
       </c>
-      <c r="B5" s="23">
+      <c r="B5" s="22">
         <v>1234</v>
       </c>
     </row>
@@ -6426,589 +6490,589 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.140625" style="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.7109375" style="21" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.28515625" style="21" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.7109375" style="21" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" style="21" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13" style="21" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.42578125" style="21" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.85546875" style="21" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.5703125" style="21" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.5703125" style="21" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="25" style="21" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.85546875" style="21"/>
+    <col min="1" max="1" width="18.140625" style="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.7109375" style="20" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" style="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.7109375" style="20" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" style="20" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13" style="20" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" style="20" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.85546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.5703125" style="20" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.5703125" style="20" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="25" style="20" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.85546875" style="20"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="H1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="I1" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="J1" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="K1" s="18" t="s">
+      <c r="K1" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="L1" s="18" t="s">
+      <c r="L1" s="17" t="s">
         <v>259</v>
       </c>
-      <c r="M1" s="18"/>
+      <c r="M1" s="17"/>
     </row>
     <row r="2" spans="1:13" ht="137.44999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="18" t="s">
         <v>260</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="18" t="s">
         <v>261</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="19" t="s">
         <v>262</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="19" t="s">
         <v>263</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="19" t="s">
         <v>264</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="18" t="s">
         <v>265</v>
       </c>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19" t="s">
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18" t="s">
         <v>266</v>
       </c>
-      <c r="K2" s="19"/>
-      <c r="L2" s="21" t="s">
+      <c r="K2" s="18"/>
+      <c r="L2" s="20" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="135" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="18" t="s">
         <v>268</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="18" t="s">
         <v>386</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="19" t="s">
         <v>262</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="19" t="s">
         <v>387</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="19" t="s">
         <v>388</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="G3" s="18" t="s">
         <v>265</v>
       </c>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19" t="s">
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18" t="s">
         <v>266</v>
       </c>
-      <c r="K3" s="19"/>
+      <c r="K3" s="18"/>
     </row>
     <row r="4" spans="1:13" ht="122.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="18" t="s">
         <v>270</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="18" t="s">
         <v>389</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="19" t="s">
         <v>262</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="19" t="s">
         <v>390</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="F4" s="19" t="s">
         <v>269</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="18" t="s">
         <v>265</v>
       </c>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19" t="s">
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18" t="s">
         <v>266</v>
       </c>
-      <c r="K4" s="19"/>
+      <c r="K4" s="18"/>
     </row>
     <row r="5" spans="1:13" ht="135" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="18" t="s">
         <v>274</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="18" t="s">
         <v>271</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="19" t="s">
         <v>262</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="E5" s="19" t="s">
         <v>272</v>
       </c>
-      <c r="F5" s="20" t="s">
+      <c r="F5" s="19" t="s">
         <v>273</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="G5" s="18" t="s">
         <v>265</v>
       </c>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19" t="s">
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18" t="s">
         <v>266</v>
       </c>
-      <c r="K5" s="19"/>
+      <c r="K5" s="18"/>
     </row>
     <row r="6" spans="1:13" ht="150" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="18" t="s">
         <v>278</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="18" t="s">
         <v>275</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="19" t="s">
         <v>262</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="E6" s="19" t="s">
         <v>276</v>
       </c>
-      <c r="F6" s="20" t="s">
+      <c r="F6" s="19" t="s">
         <v>277</v>
       </c>
-      <c r="G6" s="19" t="s">
+      <c r="G6" s="18" t="s">
         <v>265</v>
       </c>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19" t="s">
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18" t="s">
         <v>266</v>
       </c>
-      <c r="K6" s="19"/>
+      <c r="K6" s="18"/>
     </row>
     <row r="7" spans="1:13" ht="150" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="18" t="s">
         <v>282</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="18" t="s">
         <v>279</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="19" t="s">
         <v>262</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="19" t="s">
         <v>280</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="F7" s="19" t="s">
         <v>281</v>
       </c>
-      <c r="G7" s="19" t="s">
+      <c r="G7" s="18" t="s">
         <v>265</v>
       </c>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19" t="s">
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18" t="s">
         <v>266</v>
       </c>
-      <c r="K7" s="19"/>
+      <c r="K7" s="18"/>
     </row>
     <row r="8" spans="1:13" ht="165" x14ac:dyDescent="0.25">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="18" t="s">
         <v>286</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="18" t="s">
         <v>283</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="19" t="s">
         <v>262</v>
       </c>
-      <c r="E8" s="20" t="s">
+      <c r="E8" s="19" t="s">
         <v>284</v>
       </c>
-      <c r="F8" s="20" t="s">
+      <c r="F8" s="19" t="s">
         <v>285</v>
       </c>
-      <c r="G8" s="19" t="s">
+      <c r="G8" s="18" t="s">
         <v>265</v>
       </c>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19" t="s">
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18" t="s">
         <v>266</v>
       </c>
-      <c r="K8" s="19"/>
+      <c r="K8" s="18"/>
     </row>
     <row r="9" spans="1:13" ht="120" x14ac:dyDescent="0.25">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="18" t="s">
         <v>290</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="19" t="s">
         <v>287</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="19" t="s">
         <v>262</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="E9" s="19" t="s">
         <v>288</v>
       </c>
-      <c r="F9" s="20" t="s">
+      <c r="F9" s="19" t="s">
         <v>289</v>
       </c>
-      <c r="G9" s="19" t="s">
+      <c r="G9" s="18" t="s">
         <v>265</v>
       </c>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19" t="s">
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18" t="s">
         <v>266</v>
       </c>
-      <c r="K9" s="19"/>
+      <c r="K9" s="18"/>
     </row>
     <row r="10" spans="1:13" ht="150" x14ac:dyDescent="0.25">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="18" t="s">
         <v>294</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="19" t="s">
         <v>291</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="19" t="s">
         <v>262</v>
       </c>
-      <c r="E10" s="20" t="s">
+      <c r="E10" s="19" t="s">
         <v>292</v>
       </c>
-      <c r="F10" s="20" t="s">
+      <c r="F10" s="19" t="s">
         <v>293</v>
       </c>
-      <c r="G10" s="19" t="s">
+      <c r="G10" s="18" t="s">
         <v>265</v>
       </c>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19" t="s">
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18" t="s">
         <v>266</v>
       </c>
-      <c r="K10" s="19"/>
+      <c r="K10" s="18"/>
     </row>
     <row r="11" spans="1:13" ht="165" x14ac:dyDescent="0.25">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="18" t="s">
         <v>298</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="19" t="s">
         <v>295</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="19" t="s">
         <v>262</v>
       </c>
-      <c r="E11" s="20" t="s">
+      <c r="E11" s="19" t="s">
         <v>296</v>
       </c>
-      <c r="F11" s="20" t="s">
+      <c r="F11" s="19" t="s">
         <v>297</v>
       </c>
-      <c r="G11" s="19" t="s">
+      <c r="G11" s="18" t="s">
         <v>265</v>
       </c>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19" t="s">
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18" t="s">
         <v>266</v>
       </c>
-      <c r="K11" s="19"/>
+      <c r="K11" s="18"/>
     </row>
     <row r="12" spans="1:13" ht="165" x14ac:dyDescent="0.25">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="18" t="s">
         <v>302</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="19" t="s">
         <v>299</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="20" t="s">
+      <c r="D12" s="19" t="s">
         <v>262</v>
       </c>
-      <c r="E12" s="20" t="s">
+      <c r="E12" s="19" t="s">
         <v>300</v>
       </c>
-      <c r="F12" s="20" t="s">
+      <c r="F12" s="19" t="s">
         <v>301</v>
       </c>
-      <c r="G12" s="19" t="s">
+      <c r="G12" s="18" t="s">
         <v>265</v>
       </c>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19" t="s">
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18" t="s">
         <v>266</v>
       </c>
-      <c r="K12" s="19"/>
+      <c r="K12" s="18"/>
     </row>
     <row r="13" spans="1:13" ht="165" x14ac:dyDescent="0.25">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="18" t="s">
         <v>306</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="19" t="s">
         <v>303</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="20" t="s">
+      <c r="D13" s="19" t="s">
         <v>262</v>
       </c>
-      <c r="E13" s="20" t="s">
+      <c r="E13" s="19" t="s">
         <v>304</v>
       </c>
-      <c r="F13" s="20" t="s">
+      <c r="F13" s="19" t="s">
         <v>305</v>
       </c>
-      <c r="G13" s="19" t="s">
+      <c r="G13" s="18" t="s">
         <v>265</v>
       </c>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19" t="s">
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18" t="s">
         <v>266</v>
       </c>
-      <c r="K13" s="19"/>
-      <c r="M13" s="21" t="s">
+      <c r="K13" s="18"/>
+      <c r="M13" s="20" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="141" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="19" t="s">
+      <c r="A14" s="18" t="s">
         <v>311</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="18" t="s">
         <v>307</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="20" t="s">
+      <c r="D14" s="19" t="s">
         <v>262</v>
       </c>
-      <c r="E14" s="20" t="s">
+      <c r="E14" s="19" t="s">
         <v>308</v>
       </c>
-      <c r="F14" s="20" t="s">
+      <c r="F14" s="19" t="s">
         <v>309</v>
       </c>
-      <c r="G14" s="19" t="s">
+      <c r="G14" s="18" t="s">
         <v>265</v>
       </c>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19" t="s">
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18" t="s">
         <v>266</v>
       </c>
-      <c r="K14" s="19"/>
-      <c r="L14" s="21" t="s">
+      <c r="K14" s="18"/>
+      <c r="L14" s="20" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="165" x14ac:dyDescent="0.25">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="18" t="s">
         <v>315</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="18" t="s">
         <v>312</v>
       </c>
-      <c r="C15" s="19" t="s">
+      <c r="C15" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="20" t="s">
+      <c r="D15" s="19" t="s">
         <v>262</v>
       </c>
-      <c r="E15" s="20" t="s">
+      <c r="E15" s="19" t="s">
         <v>313</v>
       </c>
-      <c r="F15" s="20" t="s">
+      <c r="F15" s="19" t="s">
         <v>314</v>
       </c>
-      <c r="G15" s="19" t="s">
+      <c r="G15" s="18" t="s">
         <v>265</v>
       </c>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19" t="s">
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18" t="s">
         <v>266</v>
       </c>
-      <c r="K15" s="19"/>
+      <c r="K15" s="18"/>
     </row>
     <row r="16" spans="1:13" ht="165" x14ac:dyDescent="0.25">
-      <c r="A16" s="19" t="s">
+      <c r="A16" s="18" t="s">
         <v>319</v>
       </c>
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="18" t="s">
         <v>316</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="C16" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="20" t="s">
+      <c r="D16" s="19" t="s">
         <v>262</v>
       </c>
-      <c r="E16" s="20" t="s">
+      <c r="E16" s="19" t="s">
         <v>317</v>
       </c>
-      <c r="F16" s="20" t="s">
+      <c r="F16" s="19" t="s">
         <v>318</v>
       </c>
-      <c r="G16" s="19" t="s">
+      <c r="G16" s="18" t="s">
         <v>265</v>
       </c>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19" t="s">
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18" t="s">
         <v>266</v>
       </c>
-      <c r="K16" s="19"/>
+      <c r="K16" s="18"/>
     </row>
     <row r="17" spans="1:11" ht="150" x14ac:dyDescent="0.25">
-      <c r="A17" s="19" t="s">
+      <c r="A17" s="18" t="s">
         <v>323</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="19" t="s">
         <v>320</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="C17" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="20" t="s">
+      <c r="D17" s="19" t="s">
         <v>262</v>
       </c>
-      <c r="E17" s="20" t="s">
+      <c r="E17" s="19" t="s">
         <v>321</v>
       </c>
-      <c r="F17" s="20" t="s">
+      <c r="F17" s="19" t="s">
         <v>322</v>
       </c>
-      <c r="G17" s="19" t="s">
+      <c r="G17" s="18" t="s">
         <v>265</v>
       </c>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19" t="s">
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18" t="s">
         <v>266</v>
       </c>
-      <c r="K17" s="19"/>
+      <c r="K17" s="18"/>
     </row>
     <row r="18" spans="1:11" ht="195" x14ac:dyDescent="0.25">
-      <c r="A18" s="19" t="s">
+      <c r="A18" s="18" t="s">
         <v>391</v>
       </c>
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="19" t="s">
         <v>392</v>
       </c>
-      <c r="C18" s="19" t="s">
+      <c r="C18" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="20" t="s">
+      <c r="D18" s="19" t="s">
         <v>262</v>
       </c>
-      <c r="E18" s="20" t="s">
+      <c r="E18" s="19" t="s">
         <v>324</v>
       </c>
-      <c r="F18" s="22" t="s">
+      <c r="F18" s="21" t="s">
         <v>325</v>
       </c>
-      <c r="G18" s="19" t="s">
+      <c r="G18" s="18" t="s">
         <v>265</v>
       </c>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19" t="s">
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="120" x14ac:dyDescent="0.25">
-      <c r="A19" s="19" t="s">
+      <c r="A19" s="18" t="s">
         <v>393</v>
       </c>
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="18" t="s">
         <v>394</v>
       </c>
-      <c r="C19" s="19" t="s">
+      <c r="C19" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="20" t="s">
+      <c r="D19" s="19" t="s">
         <v>262</v>
       </c>
-      <c r="E19" s="20" t="s">
+      <c r="E19" s="19" t="s">
         <v>395</v>
       </c>
-      <c r="F19" s="22" t="s">
+      <c r="F19" s="21" t="s">
         <v>396</v>
       </c>
-      <c r="G19" s="19" t="s">
+      <c r="G19" s="18" t="s">
         <v>265</v>
       </c>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19" t="s">
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18" t="s">
         <v>266</v>
       </c>
-      <c r="K19" s="19"/>
+      <c r="K19" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7019,8 +7083,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7033,8 +7097,8 @@
     <col min="7" max="7" width="19.42578125" customWidth="1"/>
     <col min="8" max="8" width="33.42578125" customWidth="1"/>
     <col min="9" max="9" width="39.42578125" customWidth="1"/>
-    <col min="10" max="10" width="28" style="5" customWidth="1"/>
-    <col min="11" max="11" width="31.140625" style="5" customWidth="1"/>
+    <col min="10" max="10" width="28" style="4" customWidth="1"/>
+    <col min="11" max="11" width="31.140625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7065,64 +7129,72 @@
       <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>543</v>
-      </c>
-      <c r="J2" s="5" t="s">
+      <c r="G2" s="48" t="s">
+        <v>248</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>556</v>
+      </c>
+      <c r="J2" s="15" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="K2" s="15"/>
+    </row>
+    <row r="3" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>543</v>
-      </c>
-      <c r="J3" s="5" t="s">
+      <c r="G3" s="48" t="s">
+        <v>248</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>556</v>
+      </c>
+      <c r="J3" s="15" t="s">
         <v>50</v>
       </c>
+      <c r="K3" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Testing/Test Cases/TAWA_TestCases.xlsx
+++ b/Testing/Test Cases/TAWA_TestCases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="ReservedTrips" sheetId="6" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1199" uniqueCount="595">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1201" uniqueCount="589">
   <si>
     <t>ID</t>
   </si>
@@ -858,64 +858,16 @@
     <t>TAWA_Admin_001</t>
   </si>
   <si>
-    <t>TAWA_SRS_FR_055</t>
-  </si>
-  <si>
-    <t>TAWA_SRS_FR_056</t>
-  </si>
-  <si>
-    <t>TAWA_SRS_FR_081</t>
-  </si>
-  <si>
-    <t>TAWA_SRS_FR_082</t>
-  </si>
-  <si>
     <t>The ‘add’ button shall be clickable only after filling all fields.</t>
   </si>
   <si>
-    <t>TAWA_SRS_FR_083</t>
-  </si>
-  <si>
-    <t>TAWA_SRS_FR_085</t>
-  </si>
-  <si>
-    <t>TAWA_SRS_FR_086</t>
-  </si>
-  <si>
-    <t>TAWA_SRS_FR_089</t>
-  </si>
-  <si>
-    <t>TAWA_SRS_FR_090</t>
-  </si>
-  <si>
     <t xml:space="preserve"> After clicking on ‘delete’ button shall display message says ‘Are you sure to delete this user?’. </t>
   </si>
   <si>
-    <t>TAWA_SRS_FR_091</t>
-  </si>
-  <si>
     <t xml:space="preserve"> After message displayed if user choose ‘yes’ the user shall be delete from the system.</t>
   </si>
   <si>
-    <t>TAWA_SRS_FR_092</t>
-  </si>
-  <si>
     <t xml:space="preserve"> After message displayed if user choose ‘No’ the user shall not be delete from the system.</t>
-  </si>
-  <si>
-    <t>TAWA_SRS_FR_140</t>
-  </si>
-  <si>
-    <t>TAWA_SRS_FR_141</t>
-  </si>
-  <si>
-    <t>TAWA_SRS_FR_142</t>
-  </si>
-  <si>
-    <t>TAWA_SRS_FR_143</t>
-  </si>
-  <si>
-    <t>TAWA_SRS_FR_144</t>
   </si>
   <si>
     <t>The ‘Admin’ shall be able to view all users.</t>
@@ -1355,10 +1307,6 @@
   </si>
   <si>
     <t>User is deleted successfully from the database</t>
-  </si>
-  <si>
-    <t>TAWA_SRS_FR_087
-TAWA_SRS_FR_088</t>
   </si>
   <si>
     <t>1- Type an existing username in the search bar
@@ -2374,6 +2322,42 @@
   </si>
   <si>
     <t xml:space="preserve">Fail </t>
+  </si>
+  <si>
+    <t>TAWA_Admin_022</t>
+  </si>
+  <si>
+    <t>Validating the redirection after editing a user</t>
+  </si>
+  <si>
+    <t>1- Type an existing username in the search bar
+2- Press search
+3- Press Edit
+4- From the edit user page press back</t>
+  </si>
+  <si>
+    <t>The admin shall be redirected to Admin  page</t>
+  </si>
+  <si>
+    <t>TAWA_Admin_Bug_011</t>
+  </si>
+  <si>
+    <t>TAWA_Admin_023</t>
+  </si>
+  <si>
+    <t>Validating the edit button behavior without searching for a user</t>
+  </si>
+  <si>
+    <t>1- Press edit without entering a username in the search bar</t>
+  </si>
+  <si>
+    <t>The admin shall stay at the admin page</t>
+  </si>
+  <si>
+    <t>The attached page appears</t>
+  </si>
+  <si>
+    <t>TAWA_Admin_Bug_012</t>
   </si>
 </sst>
 </file>
@@ -2664,6 +2648,99 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>216096</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1960987</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>962024</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12570021" y="18221324"/>
+          <a:ext cx="1744891" cy="904875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>129971</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1676400</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>926383</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12601575" y="19627646"/>
+          <a:ext cx="1428750" cy="796412"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3018,210 +3095,210 @@
     </row>
     <row r="2" spans="1:13" ht="180" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>393</v>
+        <v>376</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>394</v>
+        <v>377</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>395</v>
+        <v>378</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>396</v>
+        <v>379</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>397</v>
+        <v>380</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="H2" s="14"/>
       <c r="I2" s="14"/>
       <c r="J2" s="14" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="K2" s="14"/>
       <c r="L2" s="14"/>
     </row>
     <row r="3" spans="1:13" ht="195" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
-        <v>398</v>
+        <v>381</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>399</v>
+        <v>382</v>
       </c>
       <c r="C3" s="14" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>400</v>
+        <v>383</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>401</v>
+        <v>384</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>402</v>
+        <v>385</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="H3" s="14"/>
       <c r="I3" s="14"/>
       <c r="J3" s="14" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="K3" s="14"/>
       <c r="L3" s="14"/>
     </row>
     <row r="4" spans="1:13" ht="210" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>403</v>
+        <v>386</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>404</v>
+        <v>387</v>
       </c>
       <c r="C4" s="14" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>395</v>
+        <v>378</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>401</v>
+        <v>384</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>405</v>
+        <v>388</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="H4" s="14"/>
       <c r="I4" s="14"/>
       <c r="J4" s="14" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="K4" s="14"/>
       <c r="L4" s="14"/>
     </row>
     <row r="5" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
-        <v>406</v>
+        <v>389</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>407</v>
+        <v>390</v>
       </c>
       <c r="C5" s="14" t="s">
         <v>12</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>395</v>
+        <v>378</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>401</v>
+        <v>384</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>408</v>
+        <v>391</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="H5" s="14"/>
       <c r="I5" s="14"/>
       <c r="J5" s="14" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="K5" s="14"/>
       <c r="L5" s="14"/>
     </row>
     <row r="6" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
-        <v>409</v>
+        <v>392</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>410</v>
+        <v>393</v>
       </c>
       <c r="C6" s="14" t="s">
         <v>12</v>
       </c>
       <c r="D6" s="15" t="s">
+        <v>378</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>394</v>
+      </c>
+      <c r="F6" s="15" t="s">
         <v>395</v>
       </c>
-      <c r="E6" s="15" t="s">
-        <v>411</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>412</v>
-      </c>
       <c r="G6" s="14" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="H6" s="14"/>
       <c r="I6" s="14"/>
       <c r="J6" s="14" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="K6" s="14"/>
       <c r="L6" s="14"/>
     </row>
     <row r="7" spans="1:13" ht="240" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
-        <v>413</v>
+        <v>396</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>414</v>
+        <v>397</v>
       </c>
       <c r="C7" s="14" t="s">
         <v>12</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>395</v>
+        <v>378</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>411</v>
+        <v>394</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>415</v>
+        <v>398</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="H7" s="14"/>
       <c r="I7" s="14"/>
       <c r="J7" s="14" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="K7" s="14"/>
       <c r="L7" s="14"/>
     </row>
     <row r="8" spans="1:13" ht="150" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>416</v>
+        <v>399</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>417</v>
+        <v>400</v>
       </c>
       <c r="C8" s="14" t="s">
         <v>12</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>395</v>
+        <v>378</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>418</v>
+        <v>401</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>419</v>
+        <v>402</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
       <c r="J8" s="14" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="K8" s="14"/>
       <c r="L8" s="14"/>
@@ -3259,7 +3336,7 @@
   <sheetData>
     <row r="1" spans="1:14" s="36" customFormat="1" ht="42" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
-        <v>420</v>
+        <v>403</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -3304,156 +3381,156 @@
     <row r="2" spans="1:14" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="20"/>
       <c r="B2" s="20" t="s">
-        <v>421</v>
+        <v>404</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>422</v>
+        <v>405</v>
       </c>
       <c r="D2" s="21" t="s">
         <v>12</v>
       </c>
       <c r="E2" s="21"/>
       <c r="F2" s="22" t="s">
-        <v>423</v>
+        <v>406</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>424</v>
+        <v>407</v>
       </c>
       <c r="H2" s="23" t="s">
-        <v>425</v>
+        <v>408</v>
       </c>
       <c r="I2" s="21"/>
       <c r="J2" s="21" t="s">
-        <v>426</v>
+        <v>409</v>
       </c>
       <c r="K2" s="21"/>
       <c r="L2" s="21"/>
       <c r="M2" s="21" t="s">
-        <v>427</v>
+        <v>410</v>
       </c>
       <c r="N2" s="20"/>
     </row>
     <row r="3" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="20" t="s">
-        <v>428</v>
+        <v>411</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>429</v>
+        <v>412</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>430</v>
+        <v>413</v>
       </c>
       <c r="E3" s="24"/>
       <c r="F3" s="22" t="s">
-        <v>431</v>
+        <v>414</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="23" t="s">
-        <v>432</v>
+        <v>415</v>
       </c>
       <c r="I3" s="21"/>
       <c r="J3" s="21"/>
       <c r="K3" s="21"/>
       <c r="L3" s="21"/>
       <c r="M3" s="21" t="s">
-        <v>427</v>
+        <v>410</v>
       </c>
       <c r="N3" s="5"/>
     </row>
     <row r="4" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="25" t="s">
-        <v>433</v>
+        <v>416</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>435</v>
+        <v>418</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>436</v>
+        <v>419</v>
       </c>
       <c r="E4" s="24"/>
       <c r="F4" s="22" t="s">
-        <v>437</v>
+        <v>420</v>
       </c>
       <c r="G4" s="22" t="s">
-        <v>424</v>
+        <v>407</v>
       </c>
       <c r="H4" s="23" t="s">
-        <v>438</v>
+        <v>421</v>
       </c>
       <c r="I4" s="21" t="s">
-        <v>439</v>
+        <v>422</v>
       </c>
       <c r="J4" s="21" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="K4" s="21"/>
       <c r="L4" s="23" t="s">
-        <v>441</v>
+        <v>424</v>
       </c>
       <c r="M4" s="21" t="s">
-        <v>427</v>
+        <v>410</v>
       </c>
       <c r="N4" s="5"/>
     </row>
     <row r="5" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
-        <v>442</v>
+        <v>425</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>443</v>
+        <v>426</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>444</v>
+        <v>427</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>430</v>
+        <v>413</v>
       </c>
       <c r="E5" s="24"/>
       <c r="F5" s="22" t="s">
-        <v>445</v>
+        <v>428</v>
       </c>
       <c r="G5" s="22"/>
       <c r="H5" s="21" t="s">
-        <v>446</v>
+        <v>429</v>
       </c>
       <c r="I5" s="21"/>
       <c r="J5" s="21" t="s">
-        <v>426</v>
+        <v>409</v>
       </c>
       <c r="K5" s="21"/>
       <c r="L5" s="23" t="s">
-        <v>447</v>
+        <v>430</v>
       </c>
       <c r="M5" s="21" t="s">
-        <v>427</v>
+        <v>410</v>
       </c>
       <c r="N5" s="5"/>
     </row>
     <row r="6" spans="1:14" ht="90" x14ac:dyDescent="0.25">
       <c r="A6" s="28" t="s">
-        <v>442</v>
+        <v>425</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>448</v>
+        <v>431</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>449</v>
+        <v>432</v>
       </c>
       <c r="D6" s="31" t="s">
         <v>12</v>
       </c>
       <c r="E6" s="31" t="s">
-        <v>450</v>
+        <v>433</v>
       </c>
       <c r="F6" s="32" t="s">
-        <v>423</v>
+        <v>406</v>
       </c>
       <c r="G6" s="32" t="s">
-        <v>424</v>
+        <v>407</v>
       </c>
       <c r="H6" s="31"/>
       <c r="I6" s="31"/>
@@ -3461,299 +3538,299 @@
       <c r="K6" s="31"/>
       <c r="L6" s="31"/>
       <c r="M6" s="21" t="s">
-        <v>427</v>
+        <v>410</v>
       </c>
       <c r="N6" s="33"/>
     </row>
     <row r="7" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="25" t="s">
-        <v>451</v>
+        <v>434</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>452</v>
+        <v>435</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>453</v>
+        <v>436</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>430</v>
+        <v>413</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>450</v>
+        <v>433</v>
       </c>
       <c r="F7" s="22" t="s">
-        <v>454</v>
+        <v>437</v>
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="23" t="s">
-        <v>455</v>
+        <v>438</v>
       </c>
       <c r="I7" s="21" t="s">
-        <v>439</v>
+        <v>422</v>
       </c>
       <c r="J7" s="21" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="K7" s="21"/>
       <c r="L7" s="23" t="s">
-        <v>456</v>
+        <v>439</v>
       </c>
       <c r="M7" s="21" t="s">
-        <v>427</v>
+        <v>410</v>
       </c>
       <c r="N7" s="5"/>
     </row>
     <row r="8" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="25" t="s">
-        <v>457</v>
+        <v>440</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>458</v>
+        <v>441</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>459</v>
+        <v>442</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>436</v>
+        <v>419</v>
       </c>
       <c r="E8" s="24"/>
       <c r="F8" s="22" t="s">
-        <v>460</v>
+        <v>443</v>
       </c>
       <c r="G8" s="22" t="s">
-        <v>424</v>
+        <v>407</v>
       </c>
       <c r="H8" s="23" t="s">
-        <v>461</v>
+        <v>444</v>
       </c>
       <c r="I8" s="21"/>
       <c r="J8" s="21" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="K8" s="21"/>
       <c r="L8" s="23" t="s">
-        <v>462</v>
+        <v>445</v>
       </c>
       <c r="M8" s="21" t="s">
-        <v>427</v>
+        <v>410</v>
       </c>
       <c r="N8" s="5"/>
     </row>
     <row r="9" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="25" t="s">
-        <v>463</v>
+        <v>446</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>465</v>
+        <v>448</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>436</v>
+        <v>419</v>
       </c>
       <c r="E9" s="24"/>
       <c r="F9" s="22" t="s">
-        <v>466</v>
+        <v>449</v>
       </c>
       <c r="G9" s="22" t="s">
-        <v>424</v>
+        <v>407</v>
       </c>
       <c r="H9" s="23" t="s">
-        <v>467</v>
+        <v>450</v>
       </c>
       <c r="I9" s="21"/>
       <c r="J9" s="21" t="s">
-        <v>426</v>
+        <v>409</v>
       </c>
       <c r="K9" s="21"/>
       <c r="L9" s="21" t="s">
-        <v>468</v>
+        <v>451</v>
       </c>
       <c r="M9" s="21" t="s">
-        <v>427</v>
+        <v>410</v>
       </c>
       <c r="N9" s="5"/>
     </row>
     <row r="10" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="25" t="s">
-        <v>469</v>
+        <v>452</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>470</v>
+        <v>453</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>471</v>
+        <v>454</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>436</v>
+        <v>419</v>
       </c>
       <c r="E10" s="34" t="s">
-        <v>472</v>
+        <v>455</v>
       </c>
       <c r="F10" s="22" t="s">
-        <v>473</v>
+        <v>456</v>
       </c>
       <c r="G10" s="22" t="s">
-        <v>424</v>
+        <v>407</v>
       </c>
       <c r="H10" s="23" t="s">
-        <v>474</v>
+        <v>457</v>
       </c>
       <c r="I10" s="21"/>
       <c r="J10" s="21" t="s">
-        <v>426</v>
+        <v>409</v>
       </c>
       <c r="K10" s="21"/>
       <c r="L10" s="23" t="s">
-        <v>475</v>
+        <v>458</v>
       </c>
       <c r="M10" s="21" t="s">
-        <v>427</v>
+        <v>410</v>
       </c>
       <c r="N10" s="5"/>
     </row>
     <row r="11" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="s">
-        <v>476</v>
+        <v>459</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>477</v>
+        <v>460</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>478</v>
+        <v>461</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>436</v>
+        <v>419</v>
       </c>
       <c r="E11" s="24"/>
       <c r="F11" s="22" t="s">
-        <v>479</v>
+        <v>462</v>
       </c>
       <c r="G11" s="22" t="s">
-        <v>424</v>
+        <v>407</v>
       </c>
       <c r="H11" s="23" t="s">
-        <v>480</v>
+        <v>463</v>
       </c>
       <c r="I11" s="21"/>
       <c r="J11" s="21" t="s">
-        <v>426</v>
+        <v>409</v>
       </c>
       <c r="K11" s="21"/>
       <c r="L11" s="21" t="s">
-        <v>481</v>
+        <v>464</v>
       </c>
       <c r="M11" s="21" t="s">
-        <v>427</v>
+        <v>410</v>
       </c>
       <c r="N11" s="5"/>
     </row>
     <row r="12" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="25" t="s">
-        <v>482</v>
+        <v>465</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>483</v>
+        <v>466</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>484</v>
+        <v>467</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>436</v>
+        <v>419</v>
       </c>
       <c r="E12" s="34" t="s">
-        <v>485</v>
+        <v>468</v>
       </c>
       <c r="F12" s="22" t="s">
-        <v>486</v>
+        <v>469</v>
       </c>
       <c r="G12" s="22" t="s">
-        <v>424</v>
+        <v>407</v>
       </c>
       <c r="H12" s="23" t="s">
-        <v>487</v>
+        <v>470</v>
       </c>
       <c r="I12" s="21"/>
       <c r="J12" s="21" t="s">
-        <v>426</v>
+        <v>409</v>
       </c>
       <c r="K12" s="21"/>
       <c r="L12" s="23" t="s">
-        <v>488</v>
+        <v>471</v>
       </c>
       <c r="M12" s="21" t="s">
-        <v>427</v>
+        <v>410</v>
       </c>
       <c r="N12" s="5"/>
     </row>
     <row r="13" spans="1:14" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
       <c r="B13" s="20" t="s">
-        <v>489</v>
+        <v>472</v>
       </c>
       <c r="C13" s="27" t="s">
-        <v>490</v>
+        <v>473</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>436</v>
+        <v>419</v>
       </c>
       <c r="E13" s="24"/>
       <c r="F13" s="22" t="s">
-        <v>491</v>
+        <v>474</v>
       </c>
       <c r="G13" s="22" t="s">
-        <v>424</v>
+        <v>407</v>
       </c>
       <c r="H13" s="23" t="s">
-        <v>492</v>
+        <v>475</v>
       </c>
       <c r="I13" s="21"/>
       <c r="J13" s="21" t="s">
-        <v>426</v>
+        <v>409</v>
       </c>
       <c r="K13" s="21"/>
       <c r="L13" s="23" t="s">
-        <v>493</v>
+        <v>476</v>
       </c>
       <c r="M13" s="21" t="s">
-        <v>427</v>
+        <v>410</v>
       </c>
       <c r="N13" s="5"/>
     </row>
     <row r="14" spans="1:14" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="35" t="s">
-        <v>494</v>
+        <v>477</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>495</v>
+        <v>478</v>
       </c>
       <c r="C14" s="27" t="s">
-        <v>490</v>
+        <v>473</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>436</v>
+        <v>419</v>
       </c>
       <c r="E14" s="24"/>
       <c r="F14" s="22" t="s">
-        <v>491</v>
+        <v>474</v>
       </c>
       <c r="G14" s="22" t="s">
-        <v>424</v>
+        <v>407</v>
       </c>
       <c r="H14" s="23" t="s">
-        <v>492</v>
+        <v>475</v>
       </c>
       <c r="I14" s="21"/>
       <c r="J14" s="21" t="s">
-        <v>426</v>
+        <v>409</v>
       </c>
       <c r="K14" s="21"/>
       <c r="L14" s="23" t="s">
-        <v>493</v>
+        <v>476</v>
       </c>
       <c r="M14" s="21" t="s">
-        <v>427</v>
+        <v>410</v>
       </c>
       <c r="N14" s="5"/>
     </row>
@@ -3831,237 +3908,237 @@
     </row>
     <row r="2" spans="1:14" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="35" t="s">
-        <v>496</v>
+        <v>479</v>
       </c>
       <c r="B2" s="36" t="s">
-        <v>497</v>
+        <v>480</v>
       </c>
       <c r="C2" s="36" t="s">
-        <v>498</v>
+        <v>481</v>
       </c>
       <c r="D2" s="36" t="s">
-        <v>499</v>
+        <v>482</v>
       </c>
       <c r="E2" s="36"/>
       <c r="F2" s="22" t="s">
-        <v>500</v>
+        <v>483</v>
       </c>
       <c r="G2" s="14"/>
       <c r="H2" s="37" t="s">
-        <v>501</v>
+        <v>484</v>
       </c>
       <c r="I2" s="36"/>
       <c r="J2" s="36" t="s">
-        <v>426</v>
+        <v>409</v>
       </c>
       <c r="K2" s="36"/>
       <c r="L2" s="36" t="s">
-        <v>502</v>
+        <v>485</v>
       </c>
       <c r="M2" s="36" t="s">
-        <v>427</v>
+        <v>410</v>
       </c>
       <c r="N2" s="36"/>
     </row>
     <row r="3" spans="1:14" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="35" t="s">
-        <v>503</v>
+        <v>486</v>
       </c>
       <c r="B3" s="36" t="s">
-        <v>504</v>
+        <v>487</v>
       </c>
       <c r="C3" s="36" t="s">
-        <v>505</v>
+        <v>488</v>
       </c>
       <c r="D3" s="36" t="s">
-        <v>499</v>
+        <v>482</v>
       </c>
       <c r="E3" s="36"/>
       <c r="F3" s="22" t="s">
-        <v>506</v>
+        <v>489</v>
       </c>
       <c r="H3" s="37" t="s">
-        <v>507</v>
+        <v>490</v>
       </c>
       <c r="J3" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="L3" t="s">
-        <v>508</v>
+        <v>491</v>
       </c>
       <c r="M3" t="s">
-        <v>427</v>
+        <v>410</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="35" t="s">
-        <v>509</v>
+        <v>492</v>
       </c>
       <c r="B4" s="36" t="s">
-        <v>510</v>
+        <v>493</v>
       </c>
       <c r="C4" s="36" t="s">
-        <v>511</v>
+        <v>494</v>
       </c>
       <c r="D4" s="36" t="s">
-        <v>512</v>
+        <v>495</v>
       </c>
       <c r="E4" s="36" t="s">
-        <v>513</v>
+        <v>496</v>
       </c>
       <c r="F4" s="22" t="s">
-        <v>514</v>
+        <v>497</v>
       </c>
       <c r="G4" s="23" t="s">
-        <v>424</v>
+        <v>407</v>
       </c>
       <c r="H4" s="37" t="s">
-        <v>501</v>
+        <v>484</v>
       </c>
       <c r="J4" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="L4" t="s">
-        <v>515</v>
+        <v>498</v>
       </c>
       <c r="M4" t="s">
-        <v>427</v>
+        <v>410</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="35" t="s">
-        <v>516</v>
+        <v>499</v>
       </c>
       <c r="B5" s="36" t="s">
-        <v>517</v>
+        <v>500</v>
       </c>
       <c r="C5" s="38" t="s">
-        <v>518</v>
+        <v>501</v>
       </c>
       <c r="D5" s="36" t="s">
-        <v>512</v>
+        <v>495</v>
       </c>
       <c r="E5" s="36" t="s">
-        <v>513</v>
+        <v>496</v>
       </c>
       <c r="F5" s="22" t="s">
-        <v>519</v>
+        <v>502</v>
       </c>
       <c r="G5" s="23" t="s">
-        <v>424</v>
+        <v>407</v>
       </c>
       <c r="H5" s="38" t="s">
-        <v>520</v>
+        <v>503</v>
       </c>
       <c r="J5" t="s">
-        <v>426</v>
+        <v>409</v>
       </c>
       <c r="L5" t="s">
-        <v>521</v>
+        <v>504</v>
       </c>
       <c r="M5" t="s">
-        <v>427</v>
+        <v>410</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="35" t="s">
-        <v>522</v>
+        <v>505</v>
       </c>
       <c r="B6" s="36" t="s">
-        <v>523</v>
+        <v>506</v>
       </c>
       <c r="C6" s="39" t="s">
-        <v>524</v>
+        <v>507</v>
       </c>
       <c r="D6" s="36" t="s">
-        <v>512</v>
+        <v>495</v>
       </c>
       <c r="E6" s="36" t="s">
-        <v>513</v>
+        <v>496</v>
       </c>
       <c r="F6" s="22" t="s">
-        <v>525</v>
+        <v>508</v>
       </c>
       <c r="G6" s="23" t="s">
-        <v>424</v>
+        <v>407</v>
       </c>
       <c r="H6" s="38" t="s">
-        <v>526</v>
+        <v>509</v>
       </c>
       <c r="J6" t="s">
-        <v>426</v>
+        <v>409</v>
       </c>
       <c r="L6" t="s">
-        <v>527</v>
+        <v>510</v>
       </c>
       <c r="M6" t="s">
-        <v>427</v>
+        <v>410</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="35" t="s">
-        <v>528</v>
+        <v>511</v>
       </c>
       <c r="B7" s="36" t="s">
-        <v>529</v>
+        <v>512</v>
       </c>
       <c r="C7" s="37" t="s">
-        <v>530</v>
+        <v>513</v>
       </c>
       <c r="D7" s="36" t="s">
-        <v>512</v>
+        <v>495</v>
       </c>
       <c r="E7" s="36" t="s">
-        <v>513</v>
+        <v>496</v>
       </c>
       <c r="F7" s="22" t="s">
-        <v>531</v>
+        <v>514</v>
       </c>
       <c r="G7" s="23" t="s">
-        <v>424</v>
+        <v>407</v>
       </c>
       <c r="H7" s="38" t="s">
-        <v>532</v>
+        <v>515</v>
       </c>
       <c r="J7" t="s">
-        <v>426</v>
+        <v>409</v>
       </c>
       <c r="L7" t="s">
-        <v>521</v>
+        <v>504</v>
       </c>
       <c r="M7" t="s">
-        <v>427</v>
+        <v>410</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A8" s="40"/>
       <c r="B8" s="41" t="s">
-        <v>533</v>
+        <v>516</v>
       </c>
       <c r="C8" s="42" t="s">
-        <v>534</v>
+        <v>517</v>
       </c>
       <c r="D8" s="41" t="s">
-        <v>535</v>
+        <v>518</v>
       </c>
       <c r="E8" s="41"/>
       <c r="F8" s="32" t="s">
-        <v>536</v>
+        <v>519</v>
       </c>
       <c r="G8" s="40"/>
       <c r="H8" s="42" t="s">
-        <v>537</v>
+        <v>520</v>
       </c>
       <c r="I8" s="40"/>
       <c r="J8" s="40" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="K8" s="40"/>
       <c r="L8" s="40" t="s">
-        <v>538</v>
+        <v>521</v>
       </c>
       <c r="M8" s="40" t="s">
-        <v>427</v>
+        <v>410</v>
       </c>
       <c r="N8" s="40"/>
     </row>
@@ -4074,7 +4151,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E2" workbookViewId="0">
+    <sheetView topLeftCell="E2" workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
@@ -4146,7 +4223,7 @@
         <v>75</v>
       </c>
       <c r="G2" s="51" t="s">
-        <v>577</v>
+        <v>560</v>
       </c>
       <c r="J2" s="46" t="s">
         <v>50</v>
@@ -4169,7 +4246,7 @@
         <v>58</v>
       </c>
       <c r="G3" s="51" t="s">
-        <v>577</v>
+        <v>560</v>
       </c>
       <c r="J3" s="46" t="s">
         <v>50</v>
@@ -4186,19 +4263,19 @@
         <v>12</v>
       </c>
       <c r="E4" s="49" t="s">
-        <v>578</v>
+        <v>561</v>
       </c>
       <c r="F4" s="49" t="s">
         <v>85</v>
       </c>
       <c r="G4" s="50" t="s">
-        <v>580</v>
+        <v>563</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>591</v>
+        <v>574</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>590</v>
+        <v>573</v>
       </c>
       <c r="J4" s="49" t="s">
         <v>50</v>
@@ -4221,13 +4298,13 @@
         <v>169</v>
       </c>
       <c r="G5" s="50" t="s">
-        <v>594</v>
+        <v>577</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>593</v>
+        <v>576</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>592</v>
+        <v>575</v>
       </c>
       <c r="J5" s="49" t="s">
         <v>50</v>
@@ -4250,7 +4327,7 @@
         <v>169</v>
       </c>
       <c r="G6" s="50" t="s">
-        <v>584</v>
+        <v>567</v>
       </c>
       <c r="J6" s="49" t="s">
         <v>50</v>
@@ -4273,7 +4350,7 @@
         <v>84</v>
       </c>
       <c r="G7" s="50" t="s">
-        <v>580</v>
+        <v>563</v>
       </c>
       <c r="J7" s="49" t="s">
         <v>50</v>
@@ -4296,7 +4373,7 @@
         <v>84</v>
       </c>
       <c r="G8" s="50" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="J8" s="49" t="s">
         <v>50</v>
@@ -4319,7 +4396,7 @@
         <v>169</v>
       </c>
       <c r="G9" s="50" t="s">
-        <v>584</v>
+        <v>567</v>
       </c>
       <c r="J9" s="49" t="s">
         <v>50</v>
@@ -4342,7 +4419,7 @@
         <v>84</v>
       </c>
       <c r="G10" s="50" t="s">
-        <v>580</v>
+        <v>563</v>
       </c>
       <c r="J10" s="49" t="s">
         <v>50</v>
@@ -4365,7 +4442,7 @@
         <v>92</v>
       </c>
       <c r="G11" s="50" t="s">
-        <v>585</v>
+        <v>568</v>
       </c>
       <c r="J11" s="49" t="s">
         <v>50</v>
@@ -4388,7 +4465,7 @@
         <v>84</v>
       </c>
       <c r="G12" s="50" t="s">
-        <v>580</v>
+        <v>563</v>
       </c>
       <c r="J12" s="49" t="s">
         <v>50</v>
@@ -4411,7 +4488,7 @@
         <v>84</v>
       </c>
       <c r="G13" s="51" t="s">
-        <v>577</v>
+        <v>560</v>
       </c>
       <c r="J13" s="46" t="s">
         <v>50</v>
@@ -4434,7 +4511,7 @@
         <v>84</v>
       </c>
       <c r="G14" s="51" t="s">
-        <v>577</v>
+        <v>560</v>
       </c>
       <c r="J14" s="46" t="s">
         <v>50</v>
@@ -4457,7 +4534,7 @@
         <v>169</v>
       </c>
       <c r="G15" s="50" t="s">
-        <v>585</v>
+        <v>568</v>
       </c>
       <c r="J15" s="49" t="s">
         <v>50</v>
@@ -4480,7 +4557,7 @@
         <v>169</v>
       </c>
       <c r="G16" s="50" t="s">
-        <v>585</v>
+        <v>568</v>
       </c>
       <c r="J16" s="49" t="s">
         <v>50</v>
@@ -4503,7 +4580,7 @@
         <v>84</v>
       </c>
       <c r="G17" s="50" t="s">
-        <v>580</v>
+        <v>563</v>
       </c>
       <c r="J17" s="49" t="s">
         <v>50</v>
@@ -4526,7 +4603,7 @@
         <v>84</v>
       </c>
       <c r="G18" s="50" t="s">
-        <v>580</v>
+        <v>563</v>
       </c>
       <c r="J18" s="49" t="s">
         <v>50</v>
@@ -4549,7 +4626,7 @@
         <v>84</v>
       </c>
       <c r="G19" s="50" t="s">
-        <v>580</v>
+        <v>563</v>
       </c>
       <c r="J19" s="49" t="s">
         <v>50</v>
@@ -4572,7 +4649,7 @@
         <v>84</v>
       </c>
       <c r="G20" s="50" t="s">
-        <v>580</v>
+        <v>563</v>
       </c>
       <c r="J20" s="49" t="s">
         <v>50</v>
@@ -4595,7 +4672,7 @@
         <v>122</v>
       </c>
       <c r="G21" s="50" t="s">
-        <v>580</v>
+        <v>563</v>
       </c>
       <c r="J21" s="49" t="s">
         <v>50</v>
@@ -4618,7 +4695,7 @@
         <v>122</v>
       </c>
       <c r="G22" s="50" t="s">
-        <v>580</v>
+        <v>563</v>
       </c>
       <c r="J22" s="49" t="s">
         <v>50</v>
@@ -4641,7 +4718,7 @@
         <v>122</v>
       </c>
       <c r="G23" s="50" t="s">
-        <v>539</v>
+        <v>522</v>
       </c>
       <c r="J23" s="49" t="s">
         <v>50</v>
@@ -4664,7 +4741,7 @@
         <v>169</v>
       </c>
       <c r="G24" s="50" t="s">
-        <v>586</v>
+        <v>569</v>
       </c>
       <c r="J24" s="49" t="s">
         <v>50</v>
@@ -4687,7 +4764,7 @@
         <v>137</v>
       </c>
       <c r="G25" s="51" t="s">
-        <v>426</v>
+        <v>409</v>
       </c>
       <c r="J25" s="46" t="s">
         <v>50</v>
@@ -4710,7 +4787,7 @@
         <v>169</v>
       </c>
       <c r="G26" s="50" t="s">
-        <v>586</v>
+        <v>569</v>
       </c>
       <c r="J26" s="49" t="s">
         <v>50</v>
@@ -4730,10 +4807,10 @@
         <v>141</v>
       </c>
       <c r="F27" s="46" t="s">
-        <v>579</v>
+        <v>562</v>
       </c>
       <c r="G27" s="51" t="s">
-        <v>577</v>
+        <v>560</v>
       </c>
       <c r="J27" s="46" t="s">
         <v>50</v>
@@ -4760,7 +4837,7 @@
         <v>58</v>
       </c>
       <c r="G29" s="51" t="s">
-        <v>577</v>
+        <v>560</v>
       </c>
       <c r="J29" s="46" t="s">
         <v>50</v>
@@ -4783,7 +4860,7 @@
         <v>85</v>
       </c>
       <c r="G30" s="51" t="s">
-        <v>577</v>
+        <v>560</v>
       </c>
       <c r="J30" s="46" t="s">
         <v>50</v>
@@ -4806,7 +4883,7 @@
         <v>169</v>
       </c>
       <c r="G31" s="50" t="s">
-        <v>580</v>
+        <v>563</v>
       </c>
       <c r="J31" s="49" t="s">
         <v>50</v>
@@ -4829,7 +4906,7 @@
         <v>169</v>
       </c>
       <c r="G32" s="50" t="s">
-        <v>584</v>
+        <v>567</v>
       </c>
       <c r="J32" s="49" t="s">
         <v>50</v>
@@ -4852,7 +4929,7 @@
         <v>84</v>
       </c>
       <c r="G33" s="50" t="s">
-        <v>584</v>
+        <v>567</v>
       </c>
       <c r="J33" s="49" t="s">
         <v>50</v>
@@ -4875,7 +4952,7 @@
         <v>84</v>
       </c>
       <c r="G34" s="50" t="s">
-        <v>580</v>
+        <v>563</v>
       </c>
       <c r="J34" s="49" t="s">
         <v>50</v>
@@ -4898,7 +4975,7 @@
         <v>169</v>
       </c>
       <c r="G35" s="50" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="J35" s="49" t="s">
         <v>50</v>
@@ -4921,7 +4998,7 @@
         <v>84</v>
       </c>
       <c r="G36" s="50" t="s">
-        <v>584</v>
+        <v>567</v>
       </c>
       <c r="J36" s="49" t="s">
         <v>50</v>
@@ -4944,7 +5021,7 @@
         <v>92</v>
       </c>
       <c r="G37" s="50" t="s">
-        <v>580</v>
+        <v>563</v>
       </c>
       <c r="J37" s="49" t="s">
         <v>50</v>
@@ -4967,7 +5044,7 @@
         <v>84</v>
       </c>
       <c r="G38" s="50" t="s">
-        <v>585</v>
+        <v>568</v>
       </c>
       <c r="J38" s="49" t="s">
         <v>50</v>
@@ -4990,7 +5067,7 @@
         <v>84</v>
       </c>
       <c r="G39" s="50" t="s">
-        <v>580</v>
+        <v>563</v>
       </c>
       <c r="J39" s="49" t="s">
         <v>50</v>
@@ -5013,7 +5090,7 @@
         <v>84</v>
       </c>
       <c r="G40" s="51" t="s">
-        <v>577</v>
+        <v>560</v>
       </c>
       <c r="J40" s="46" t="s">
         <v>50</v>
@@ -5036,7 +5113,7 @@
         <v>169</v>
       </c>
       <c r="G41" s="51" t="s">
-        <v>577</v>
+        <v>560</v>
       </c>
       <c r="J41" s="46" t="s">
         <v>50</v>
@@ -5059,7 +5136,7 @@
         <v>168</v>
       </c>
       <c r="G42" s="50" t="s">
-        <v>585</v>
+        <v>568</v>
       </c>
       <c r="J42" s="49" t="s">
         <v>50</v>
@@ -5082,7 +5159,7 @@
         <v>84</v>
       </c>
       <c r="G43" s="50" t="s">
-        <v>585</v>
+        <v>568</v>
       </c>
       <c r="J43" s="49" t="s">
         <v>50</v>
@@ -5105,7 +5182,7 @@
         <v>84</v>
       </c>
       <c r="G44" s="50" t="s">
-        <v>580</v>
+        <v>563</v>
       </c>
       <c r="J44" s="49" t="s">
         <v>50</v>
@@ -5128,7 +5205,7 @@
         <v>84</v>
       </c>
       <c r="G45" s="50" t="s">
-        <v>580</v>
+        <v>563</v>
       </c>
       <c r="J45" s="49" t="s">
         <v>50</v>
@@ -5151,7 +5228,7 @@
         <v>84</v>
       </c>
       <c r="G46" s="50" t="s">
-        <v>580</v>
+        <v>563</v>
       </c>
       <c r="J46" s="49" t="s">
         <v>50</v>
@@ -5174,7 +5251,7 @@
         <v>122</v>
       </c>
       <c r="G47" s="50" t="s">
-        <v>580</v>
+        <v>563</v>
       </c>
       <c r="J47" s="49" t="s">
         <v>50</v>
@@ -5191,13 +5268,13 @@
         <v>16</v>
       </c>
       <c r="E48" s="49" t="s">
-        <v>582</v>
+        <v>565</v>
       </c>
       <c r="F48" s="49" t="s">
         <v>122</v>
       </c>
       <c r="G48" s="50" t="s">
-        <v>580</v>
+        <v>563</v>
       </c>
       <c r="J48" s="49" t="s">
         <v>50</v>
@@ -5214,13 +5291,13 @@
         <v>16</v>
       </c>
       <c r="E49" s="49" t="s">
-        <v>581</v>
+        <v>564</v>
       </c>
       <c r="F49" s="49" t="s">
         <v>122</v>
       </c>
       <c r="G49" s="50" t="s">
-        <v>580</v>
+        <v>563</v>
       </c>
       <c r="J49" s="49" t="s">
         <v>50</v>
@@ -5237,13 +5314,13 @@
         <v>16</v>
       </c>
       <c r="E50" s="49" t="s">
-        <v>583</v>
+        <v>566</v>
       </c>
       <c r="F50" s="49" t="s">
         <v>168</v>
       </c>
       <c r="G50" s="50" t="s">
-        <v>539</v>
+        <v>522</v>
       </c>
       <c r="J50" s="49" t="s">
         <v>50</v>
@@ -5266,7 +5343,7 @@
         <v>137</v>
       </c>
       <c r="G51" s="50" t="s">
-        <v>586</v>
+        <v>569</v>
       </c>
       <c r="J51" s="49" t="s">
         <v>50</v>
@@ -5289,7 +5366,7 @@
         <v>168</v>
       </c>
       <c r="G52" s="51" t="s">
-        <v>426</v>
+        <v>409</v>
       </c>
       <c r="J52" s="46" t="s">
         <v>50</v>
@@ -5312,7 +5389,7 @@
         <v>84</v>
       </c>
       <c r="G53" s="50" t="s">
-        <v>586</v>
+        <v>569</v>
       </c>
       <c r="J53" s="49" t="s">
         <v>50</v>
@@ -5338,7 +5415,7 @@
         <v>84</v>
       </c>
       <c r="G55" s="51" t="s">
-        <v>577</v>
+        <v>560</v>
       </c>
       <c r="J55" s="46" t="s">
         <v>50</v>
@@ -5346,22 +5423,22 @@
     </row>
     <row r="56" spans="1:10" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="46" t="s">
-        <v>544</v>
+        <v>527</v>
       </c>
       <c r="B56" s="46" t="s">
-        <v>545</v>
+        <v>528</v>
       </c>
       <c r="C56" s="51" t="s">
         <v>193</v>
       </c>
       <c r="E56" s="46" t="s">
-        <v>546</v>
+        <v>529</v>
       </c>
       <c r="F56" s="46" t="s">
-        <v>547</v>
+        <v>530</v>
       </c>
       <c r="G56" s="51" t="s">
-        <v>577</v>
+        <v>560</v>
       </c>
       <c r="J56" s="46" t="s">
         <v>50</v>
@@ -5377,7 +5454,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView topLeftCell="F10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
@@ -5449,10 +5526,10 @@
         <v>29</v>
       </c>
       <c r="G2" s="45" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="I2" s="44" t="s">
-        <v>567</v>
+        <v>550</v>
       </c>
       <c r="J2" s="44" t="s">
         <v>50</v>
@@ -5478,10 +5555,10 @@
         <v>25</v>
       </c>
       <c r="G3" s="45" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="I3" s="44" t="s">
-        <v>568</v>
+        <v>551</v>
       </c>
       <c r="J3" s="44" t="s">
         <v>50</v>
@@ -5507,10 +5584,10 @@
         <v>41</v>
       </c>
       <c r="G4" s="45" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="I4" s="44" t="s">
-        <v>569</v>
+        <v>552</v>
       </c>
       <c r="J4" s="44" t="s">
         <v>50</v>
@@ -5533,10 +5610,10 @@
         <v>56</v>
       </c>
       <c r="G5" s="45" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="I5" s="44" t="s">
-        <v>570</v>
+        <v>553</v>
       </c>
       <c r="J5" s="44" t="s">
         <v>50</v>
@@ -5559,10 +5636,10 @@
         <v>57</v>
       </c>
       <c r="G6" s="45" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="I6" s="44" t="s">
-        <v>571</v>
+        <v>554</v>
       </c>
       <c r="J6" s="44" t="s">
         <v>50</v>
@@ -5582,13 +5659,13 @@
         <v>48</v>
       </c>
       <c r="F7" s="44" t="s">
-        <v>572</v>
+        <v>555</v>
       </c>
       <c r="G7" s="45" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="I7" s="44" t="s">
-        <v>573</v>
+        <v>556</v>
       </c>
       <c r="J7" s="44" t="s">
         <v>50</v>
@@ -5611,10 +5688,10 @@
         <v>58</v>
       </c>
       <c r="G8" s="45" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="I8" s="44" t="s">
-        <v>574</v>
+        <v>557</v>
       </c>
       <c r="J8" s="44" t="s">
         <v>50</v>
@@ -5637,10 +5714,10 @@
         <v>58</v>
       </c>
       <c r="G9" s="45" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="I9" s="44" t="s">
-        <v>574</v>
+        <v>557</v>
       </c>
       <c r="J9" s="44" t="s">
         <v>50</v>
@@ -5663,10 +5740,10 @@
         <v>58</v>
       </c>
       <c r="G10" s="45" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="I10" s="44" t="s">
-        <v>574</v>
+        <v>557</v>
       </c>
       <c r="J10" s="44" t="s">
         <v>50</v>
@@ -5689,10 +5766,10 @@
         <v>58</v>
       </c>
       <c r="G11" s="45" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="I11" s="44" t="s">
-        <v>574</v>
+        <v>557</v>
       </c>
       <c r="J11" s="44" t="s">
         <v>50</v>
@@ -5700,25 +5777,25 @@
     </row>
     <row r="12" spans="1:11" s="44" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="44" t="s">
-        <v>540</v>
+        <v>523</v>
       </c>
       <c r="B12" s="44" t="s">
-        <v>541</v>
+        <v>524</v>
       </c>
       <c r="C12" s="45" t="s">
-        <v>542</v>
+        <v>525</v>
       </c>
       <c r="E12" s="44" t="s">
-        <v>543</v>
+        <v>526</v>
       </c>
       <c r="F12" s="44" t="s">
-        <v>575</v>
+        <v>558</v>
       </c>
       <c r="G12" s="45" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="I12" s="44" t="s">
-        <v>576</v>
+        <v>559</v>
       </c>
       <c r="J12" s="44" t="s">
         <v>50</v>
@@ -5731,761 +5808,771 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L24"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView topLeftCell="D22" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView tabSelected="1" topLeftCell="D24" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" customWidth="1"/>
-    <col min="3" max="3" width="22.5703125" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" customWidth="1"/>
-    <col min="5" max="5" width="30.5703125" customWidth="1"/>
-    <col min="6" max="6" width="34.42578125" customWidth="1"/>
-    <col min="7" max="7" width="46.7109375" customWidth="1"/>
-    <col min="8" max="8" width="39.28515625" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" customWidth="1"/>
-    <col min="10" max="10" width="21.42578125" customWidth="1"/>
-    <col min="11" max="11" width="29" customWidth="1"/>
-    <col min="12" max="12" width="20.85546875" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" customWidth="1"/>
+    <col min="2" max="2" width="27.5703125" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" customWidth="1"/>
+    <col min="4" max="4" width="30.5703125" customWidth="1"/>
+    <col min="5" max="5" width="34.42578125" customWidth="1"/>
+    <col min="6" max="6" width="46.7109375" customWidth="1"/>
+    <col min="7" max="7" width="39.28515625" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" customWidth="1"/>
+    <col min="9" max="9" width="21.42578125" customWidth="1"/>
+    <col min="10" max="10" width="29" customWidth="1"/>
+    <col min="11" max="11" width="20.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="I1" s="4" t="s">
+        <v>195</v>
+      </c>
       <c r="J1" s="4" t="s">
-        <v>195</v>
+        <v>49</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="L1" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="8" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" s="8" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="8" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="8" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" s="10" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>342</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="F5" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="C2" s="8" t="s">
+      <c r="G5" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" s="8" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" s="10" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>337</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>344</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>307</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>308</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="I7" s="10" t="s">
         <v>356</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="J7" s="10" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" s="8" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="D8" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:11" s="8" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" s="8" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>360</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" s="8" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>361</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>364</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" s="10" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>338</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>347</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>321</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>359</v>
+      </c>
+      <c r="J13" s="10" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" s="10" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>321</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="J14" s="10" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" s="10" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>349</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>321</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>357</v>
+      </c>
+      <c r="J15" s="10" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="1:10" s="8" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="B17" s="8" t="s">
         <v>350</v>
       </c>
-      <c r="F2" s="9" t="s">
-        <v>240</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>248</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" s="8" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>357</v>
-      </c>
-      <c r="D3" s="8" t="s">
+      <c r="C17" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="D17" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" s="10" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>320</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>322</v>
+      </c>
+      <c r="H18" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="I18" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="J18" s="10" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" s="10" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="B19" s="10" t="s">
         <v>352</v>
       </c>
-      <c r="F3" s="9" t="s">
-        <v>241</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" s="8" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>358</v>
-      </c>
-      <c r="D4" s="8" t="s">
+      <c r="C19" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>351</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>249</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>242</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>242</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="K4" s="8" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" s="10" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>359</v>
-      </c>
-      <c r="D5" s="10" t="s">
+      <c r="D19" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>320</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="I19" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="J19" s="10" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" s="8" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="C20" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="11" t="s">
-        <v>352</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>250</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>251</v>
-      </c>
-      <c r="I5" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="J5" s="10" t="s">
-        <v>372</v>
-      </c>
-      <c r="K5" s="10" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" s="8" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>360</v>
-      </c>
-      <c r="D6" s="8" t="s">
+      <c r="D20" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="J20" s="8" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" s="8" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="C21" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="9" t="s">
-        <v>352</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="K6" s="8" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" s="10" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>354</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>361</v>
-      </c>
-      <c r="D7" s="10" t="s">
+      <c r="D21" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="J21" s="8" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" s="10" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
+        <v>531</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>532</v>
+      </c>
+      <c r="C22" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="11" t="s">
-        <v>352</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>322</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>323</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>324</v>
-      </c>
-      <c r="I7" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="J7" s="10" t="s">
-        <v>373</v>
-      </c>
-      <c r="K7" s="10" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" s="8" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>362</v>
-      </c>
-      <c r="D8" s="8" t="s">
+      <c r="D22" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>533</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>534</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>535</v>
+      </c>
+      <c r="H22" s="10" t="s">
+        <v>536</v>
+      </c>
+      <c r="I22" s="10" t="s">
+        <v>537</v>
+      </c>
+      <c r="J22" s="10" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" s="10" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+      <c r="A23" s="10" t="s">
+        <v>538</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>539</v>
+      </c>
+      <c r="C23" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="9" t="s">
-        <v>352</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>325</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>326</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>327</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="K8" s="8" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:12" s="8" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
-        <v>330</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>363</v>
-      </c>
-      <c r="D10" s="8" t="s">
+      <c r="D23" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>548</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>540</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>541</v>
+      </c>
+      <c r="H23" s="10" t="s">
+        <v>536</v>
+      </c>
+      <c r="I23" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="J23" s="10" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" s="10" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A24" s="10" t="s">
+        <v>544</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>543</v>
+      </c>
+      <c r="C24" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="9" t="s">
-        <v>352</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>332</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>328</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>329</v>
-      </c>
-      <c r="I10" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="K10" s="8" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" s="8" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>377</v>
-      </c>
-      <c r="D11" s="8" t="s">
+      <c r="D24" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>545</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>546</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>547</v>
+      </c>
+      <c r="H24" s="10" t="s">
+        <v>536</v>
+      </c>
+      <c r="I24" s="10" t="s">
+        <v>549</v>
+      </c>
+      <c r="J24" s="10" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" s="10" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="10" t="s">
+        <v>578</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>579</v>
+      </c>
+      <c r="C25" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="9" t="s">
-        <v>352</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>331</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>333</v>
-      </c>
-      <c r="I11" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="K11" s="8" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" s="8" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>378</v>
-      </c>
-      <c r="D12" s="8" t="s">
+      <c r="D25" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>580</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>581</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>587</v>
+      </c>
+      <c r="H25" s="10" t="s">
+        <v>536</v>
+      </c>
+      <c r="I25" s="10" t="s">
+        <v>582</v>
+      </c>
+      <c r="J25" s="10" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" s="10" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="10" t="s">
+        <v>583</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>584</v>
+      </c>
+      <c r="C26" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="9" t="s">
-        <v>352</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>379</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>380</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>381</v>
-      </c>
-      <c r="I12" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="K12" s="8" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" s="10" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>355</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>364</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>352</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>338</v>
-      </c>
-      <c r="G13" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="H13" s="10" t="s">
-        <v>334</v>
-      </c>
-      <c r="I13" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="J13" s="10" t="s">
-        <v>376</v>
-      </c>
-      <c r="K13" s="10" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" s="10" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>365</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>352</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>338</v>
-      </c>
-      <c r="G14" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="H14" s="10" t="s">
-        <v>334</v>
-      </c>
-      <c r="I14" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="J14" s="10" t="s">
-        <v>246</v>
-      </c>
-      <c r="K14" s="10" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" s="10" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>366</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>352</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>338</v>
-      </c>
-      <c r="G15" s="10" t="s">
-        <v>211</v>
-      </c>
-      <c r="H15" s="10" t="s">
-        <v>334</v>
-      </c>
-      <c r="I15" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="J15" s="10" t="s">
-        <v>374</v>
-      </c>
-      <c r="K15" s="10" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="1:11" s="8" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>367</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>352</v>
-      </c>
-      <c r="F17" s="8" t="s">
+      <c r="D26" s="11" t="s">
         <v>335</v>
       </c>
-      <c r="G17" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="H17" s="8" t="s">
-        <v>336</v>
-      </c>
-      <c r="I17" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="K17" s="8" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" s="10" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>368</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>352</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>337</v>
-      </c>
-      <c r="G18" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="H18" s="10" t="s">
-        <v>339</v>
-      </c>
-      <c r="I18" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="J18" s="10" t="s">
-        <v>375</v>
-      </c>
-      <c r="K18" s="10" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" s="10" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>369</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>352</v>
-      </c>
-      <c r="F19" s="11" t="s">
-        <v>337</v>
-      </c>
-      <c r="G19" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="H19" s="10" t="s">
-        <v>340</v>
-      </c>
-      <c r="I19" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="J19" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="K19" s="10" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" s="8" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>370</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>352</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>341</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="H20" s="8" t="s">
-        <v>343</v>
-      </c>
-      <c r="I20" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="K20" s="8" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" s="8" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>371</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>352</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>342</v>
-      </c>
-      <c r="G21" s="8" t="s">
+      <c r="E26" s="11" t="s">
+        <v>585</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>586</v>
+      </c>
+      <c r="G26" s="10" t="s">
+        <v>587</v>
+      </c>
+      <c r="H26" s="10" t="s">
+        <v>536</v>
+      </c>
+      <c r="I26" s="10" t="s">
+        <v>588</v>
+      </c>
+      <c r="J26" s="10" t="s">
         <v>221</v>
-      </c>
-      <c r="H21" s="8" t="s">
-        <v>343</v>
-      </c>
-      <c r="I21" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="K21" s="8" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" s="10" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="B22" s="10" t="s">
-        <v>548</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>549</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>352</v>
-      </c>
-      <c r="F22" s="11" t="s">
-        <v>550</v>
-      </c>
-      <c r="G22" s="10" t="s">
-        <v>551</v>
-      </c>
-      <c r="H22" s="10" t="s">
-        <v>552</v>
-      </c>
-      <c r="I22" s="10" t="s">
-        <v>553</v>
-      </c>
-      <c r="J22" s="10" t="s">
-        <v>554</v>
-      </c>
-      <c r="K22" s="10" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" s="10" customFormat="1" ht="135" x14ac:dyDescent="0.25">
-      <c r="B23" s="10" t="s">
-        <v>555</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>556</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E23" s="11" t="s">
-        <v>352</v>
-      </c>
-      <c r="F23" s="11" t="s">
-        <v>565</v>
-      </c>
-      <c r="G23" s="10" t="s">
-        <v>557</v>
-      </c>
-      <c r="H23" s="10" t="s">
-        <v>558</v>
-      </c>
-      <c r="I23" s="10" t="s">
-        <v>553</v>
-      </c>
-      <c r="J23" s="10" t="s">
-        <v>559</v>
-      </c>
-      <c r="K23" s="10" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" s="10" customFormat="1" ht="105" x14ac:dyDescent="0.25">
-      <c r="B24" s="10" t="s">
-        <v>561</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>560</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>352</v>
-      </c>
-      <c r="F24" s="11" t="s">
-        <v>562</v>
-      </c>
-      <c r="G24" s="10" t="s">
-        <v>563</v>
-      </c>
-      <c r="H24" s="10" t="s">
-        <v>564</v>
-      </c>
-      <c r="I24" s="10" t="s">
-        <v>553</v>
-      </c>
-      <c r="J24" s="10" t="s">
-        <v>566</v>
-      </c>
-      <c r="K24" s="10" t="s">
-        <v>237</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -6505,18 +6592,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>344</v>
+        <v>327</v>
       </c>
       <c r="B1" t="s">
-        <v>348</v>
+        <v>331</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>345</v>
+        <v>328</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>349</v>
+        <v>332</v>
       </c>
     </row>
     <row r="3" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -6524,15 +6611,15 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>346</v>
+        <v>329</v>
       </c>
       <c r="B4" t="s">
-        <v>353</v>
+        <v>336</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>347</v>
+        <v>330</v>
       </c>
       <c r="B5" s="18">
         <v>1234</v>
@@ -6610,537 +6697,537 @@
         <v>55</v>
       </c>
       <c r="L1" s="13" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="M1" s="13"/>
     </row>
     <row r="2" spans="1:13" ht="137.44999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="H2" s="14"/>
       <c r="I2" s="14"/>
       <c r="J2" s="14" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="K2" s="14"/>
       <c r="L2" s="16" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="135" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
-        <v>264</v>
+        <v>248</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>382</v>
+        <v>365</v>
       </c>
       <c r="C3" s="14" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>383</v>
+        <v>366</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>384</v>
+        <v>367</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="H3" s="14"/>
       <c r="I3" s="14"/>
       <c r="J3" s="14" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="K3" s="14"/>
     </row>
     <row r="4" spans="1:13" ht="122.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>266</v>
+        <v>250</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>385</v>
+        <v>368</v>
       </c>
       <c r="C4" s="14" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>386</v>
+        <v>369</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>265</v>
+        <v>249</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="H4" s="14"/>
       <c r="I4" s="14"/>
       <c r="J4" s="14" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="K4" s="14"/>
     </row>
     <row r="5" spans="1:13" ht="135" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
-        <v>270</v>
+        <v>254</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
       <c r="C5" s="14" t="s">
         <v>12</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>269</v>
+        <v>253</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="H5" s="14"/>
       <c r="I5" s="14"/>
       <c r="J5" s="14" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="K5" s="14"/>
     </row>
     <row r="6" spans="1:13" ht="150" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
-        <v>274</v>
+        <v>258</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="C6" s="14" t="s">
         <v>12</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="H6" s="14"/>
       <c r="I6" s="14"/>
       <c r="J6" s="14" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="K6" s="14"/>
     </row>
     <row r="7" spans="1:13" ht="150" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
-        <v>278</v>
+        <v>262</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>275</v>
+        <v>259</v>
       </c>
       <c r="C7" s="14" t="s">
         <v>12</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>276</v>
+        <v>260</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>277</v>
+        <v>261</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="H7" s="14"/>
       <c r="I7" s="14"/>
       <c r="J7" s="14" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:13" ht="165" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>282</v>
+        <v>266</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>279</v>
+        <v>263</v>
       </c>
       <c r="C8" s="14" t="s">
         <v>12</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>280</v>
+        <v>264</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
       <c r="J8" s="14" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="K8" s="14"/>
     </row>
     <row r="9" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>283</v>
+        <v>267</v>
       </c>
       <c r="C9" s="14" t="s">
         <v>12</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>284</v>
+        <v>268</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
       <c r="J9" s="14" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="K9" s="14"/>
     </row>
     <row r="10" spans="1:13" ht="150" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
-        <v>290</v>
+        <v>274</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>287</v>
+        <v>271</v>
       </c>
       <c r="C10" s="14" t="s">
         <v>12</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
       <c r="J10" s="14" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="K10" s="14"/>
     </row>
     <row r="11" spans="1:13" ht="165" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>291</v>
+        <v>275</v>
       </c>
       <c r="C11" s="14" t="s">
         <v>12</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>293</v>
+        <v>277</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="H11" s="14"/>
       <c r="I11" s="14"/>
       <c r="J11" s="14" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="K11" s="14"/>
     </row>
     <row r="12" spans="1:13" ht="165" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
-        <v>298</v>
+        <v>282</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>295</v>
+        <v>279</v>
       </c>
       <c r="C12" s="14" t="s">
         <v>12</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>296</v>
+        <v>280</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
       <c r="J12" s="14" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="K12" s="14"/>
     </row>
     <row r="13" spans="1:13" ht="165" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>302</v>
+        <v>286</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>299</v>
+        <v>283</v>
       </c>
       <c r="C13" s="14" t="s">
         <v>12</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>300</v>
+        <v>284</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>301</v>
+        <v>285</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
       <c r="J13" s="14" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="K13" s="14"/>
       <c r="M13" s="16" t="s">
-        <v>306</v>
+        <v>290</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="141" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
-        <v>307</v>
+        <v>291</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>303</v>
+        <v>287</v>
       </c>
       <c r="C14" s="14" t="s">
         <v>12</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>304</v>
+        <v>288</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>305</v>
+        <v>289</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
       <c r="J14" s="14" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="K14" s="14"/>
       <c r="L14" s="16" t="s">
-        <v>306</v>
+        <v>290</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="165" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>311</v>
+        <v>295</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>308</v>
+        <v>292</v>
       </c>
       <c r="C15" s="14" t="s">
         <v>12</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>309</v>
+        <v>293</v>
       </c>
       <c r="F15" s="15" t="s">
-        <v>310</v>
+        <v>294</v>
       </c>
       <c r="G15" s="14" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
       <c r="J15" s="14" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="K15" s="14"/>
     </row>
     <row r="16" spans="1:13" ht="165" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
-        <v>315</v>
+        <v>299</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>312</v>
+        <v>296</v>
       </c>
       <c r="C16" s="14" t="s">
         <v>12</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>313</v>
+        <v>297</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>314</v>
+        <v>298</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
       <c r="J16" s="14" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="K16" s="14"/>
     </row>
     <row r="17" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>319</v>
+        <v>303</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>316</v>
+        <v>300</v>
       </c>
       <c r="C17" s="14" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="F17" s="15" t="s">
-        <v>318</v>
+        <v>302</v>
       </c>
       <c r="G17" s="14" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="H17" s="14"/>
       <c r="I17" s="14"/>
       <c r="J17" s="14" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="K17" s="14"/>
     </row>
     <row r="18" spans="1:11" ht="195" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
-        <v>387</v>
+        <v>370</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>388</v>
+        <v>371</v>
       </c>
       <c r="C18" s="14" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>320</v>
+        <v>304</v>
       </c>
       <c r="F18" s="17" t="s">
-        <v>321</v>
+        <v>305</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="H18" s="14"/>
       <c r="I18" s="14"/>
       <c r="J18" s="14" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
-        <v>389</v>
+        <v>372</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>390</v>
+        <v>373</v>
       </c>
       <c r="C19" s="14" t="s">
         <v>12</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>391</v>
+        <v>374</v>
       </c>
       <c r="F19" s="17" t="s">
-        <v>392</v>
+        <v>375</v>
       </c>
       <c r="G19" s="14" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="H19" s="14"/>
       <c r="I19" s="14"/>
       <c r="J19" s="14" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="K19" s="14"/>
     </row>
@@ -7227,10 +7314,10 @@
         <v>21</v>
       </c>
       <c r="G2" s="51" t="s">
-        <v>577</v>
+        <v>560</v>
       </c>
       <c r="I2" s="46" t="s">
-        <v>588</v>
+        <v>571</v>
       </c>
       <c r="J2" s="46" t="s">
         <v>50</v>
@@ -7256,13 +7343,13 @@
         <v>20</v>
       </c>
       <c r="G3" s="50" t="s">
-        <v>580</v>
+        <v>563</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>589</v>
+        <v>572</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>587</v>
+        <v>570</v>
       </c>
       <c r="J3" s="49" t="s">
         <v>50</v>

--- a/Testing/Test Cases/TAWA_TestCases.xlsx
+++ b/Testing/Test Cases/TAWA_TestCases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" firstSheet="1" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Header" sheetId="11" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1244" uniqueCount="606">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1243" uniqueCount="606">
   <si>
     <t>ID</t>
   </si>
@@ -1006,12 +1006,6 @@
     <t>User must login with a valid account</t>
   </si>
   <si>
-    <t>1) Open Homepage
-2) Click on "Read More" button located beside any destination
-3) Click on "Book Now" button
-4) Check the existence of fields</t>
-  </si>
-  <si>
     <t>Page shall contain fields:
 (See attachements)</t>
   </si>
@@ -1020,9 +1014,6 @@
   </si>
   <si>
     <t>Mahmoud Yasser</t>
-  </si>
-  <si>
-    <t>img: https://ibb.co/ZSWGyKV</t>
   </si>
   <si>
     <t>TAWA_BOOKING_02</t>
@@ -1040,13 +1031,6 @@
     <t>Validate the options in "Payment Method" list</t>
   </si>
   <si>
-    <t>1) Open Homepage
-2) Click on "Read More" button located beside any destination
-3) Click on "Book Now" button
-4) Click on "Payment method" dropdown list
-5) Check the list options</t>
-  </si>
-  <si>
     <t xml:space="preserve"> The ‘payment method’ dropdown list shall contain two methods ‘cash’ and ‘debit card’.</t>
   </si>
   <si>
@@ -1054,13 +1038,6 @@
   </si>
   <si>
     <t>Validate the appearance of "card number" text field</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1) Open Homepage
-2) Click on "Read More" button located beside any destination
-3) Click on "Book Now" button
-4) Click on "Payment method" dropdown list and choose debit card
-</t>
   </si>
   <si>
     <t>the ‘card number’ text field shall 
@@ -1073,14 +1050,6 @@
     <t>Validate the restriction on choosing Trip type</t>
   </si>
   <si>
-    <t xml:space="preserve">1) Open Homepage
-2) Click on "Read More" button located beside any destination
-3) Click on "Book Now" button
-4) Choose One trip type
-5) Try to choose the other type
-</t>
-  </si>
-  <si>
     <t>User shall be able to choose one
 trip type.</t>
   </si>
@@ -1091,14 +1060,6 @@
     <t>Validate the restriction on choosing Payment method</t>
   </si>
   <si>
-    <t xml:space="preserve">1) Open Homepage
-2) Click on "Read More" button located beside any destination
-3) Click on "Book Now" button
-4) Choose One payment method
-5) Try to choose the other type
-</t>
-  </si>
-  <si>
     <t>User shall be able to choose one
 payment method.</t>
   </si>
@@ -1110,12 +1071,6 @@
 without filling any field</t>
   </si>
   <si>
-    <t>1) Open Homepage
-2) Click on "Read More" button located beside any destination
-3) Click on "Book Now" button
-4) Try click on "book" button</t>
-  </si>
-  <si>
     <t>The "book" button shall not 
 be clickable</t>
   </si>
@@ -1127,13 +1082,6 @@
 without completing all data fields</t>
   </si>
   <si>
-    <t>1) Open Homepage
-2) Click on "Read More" button located beside any destination
-3) Click on "Book Now" button
-4) Fill one field with any data
-5)Try click on "book" button</t>
-  </si>
-  <si>
     <t>The ‘Book’ button shall be 
 clickable only after filling all data.</t>
   </si>
@@ -1145,31 +1093,12 @@
 OF SEATS" field</t>
   </si>
   <si>
-    <t>1) Open Homepage
-2) Click on "Read More" button located beside any destination
-3) Click on "Book Now" button
-4) Enter letters in "Number of seats" field
-5) complete all other fields
-6) Click on "book" button</t>
-  </si>
-  <si>
     <t>Error message shall appear saying that it's forbidden to enter any type of data but numbers in "number of seats" field</t>
   </si>
   <si>
     <t>TAWA_BOOKING_10</t>
   </si>
   <si>
-    <t>Validate restriction on entering data in "FLIGHT NUMBER" field</t>
-  </si>
-  <si>
-    <t>1) Open Homepage
-2) Click on "Read More" button located beside any destination
-3) Click on "Book Now" button
-4) Enter letters in "flight number" field
-5) complete all other fields
-6) Click on "book" button</t>
-  </si>
-  <si>
     <t>Error message shall appear saying that it's forbidden to enter any type of data but numbers in "flight number" field</t>
   </si>
   <si>
@@ -1179,29 +1108,10 @@
     <t>Validate restriction on entering data in "Debit card number" field</t>
   </si>
   <si>
-    <t>1) Open Homepage
-2) Click on "Read More" button located beside any destination
-3) Click on "Book Now" button
-4) Enter letters in "debit card number" field
-5) complete all other fields
-6) Click on "book" button</t>
-  </si>
-  <si>
-    <t>Error message shall appear saying that it's forbidden to enter any type of data but numbers in "debit card number" field</t>
-  </si>
-  <si>
     <t>TAWA_BOOKING_12</t>
   </si>
   <si>
     <t>Validate response from the website after booking</t>
-  </si>
-  <si>
-    <t>1) Open Homepage
-2) Click on "Read More" button located beside any destination
-3) Click on "Book Now" button
-4) Enter valid data and complete all fields
-5) Click on "book" button
-6) Check response from website</t>
   </si>
   <si>
     <t>Message shall appear to user:
@@ -1217,14 +1127,6 @@
     <t>Validate that user can book one flight</t>
   </si>
   <si>
-    <t>1) Open Homepage
-2) Click on "Read More" button located beside any destination
-3) Click on "Book Now" button
-4) Enter valid data and complete all fields
-5) Click on "book" button
-6) Check table Book in TAWA_DB</t>
-  </si>
-  <si>
     <t>New row shall be added with 
 the data entered</t>
   </si>
@@ -1233,14 +1135,6 @@
   </si>
   <si>
     <t>Validate that user can not book more than one flight</t>
-  </si>
-  <si>
-    <t>1) Open Homepage
-2) Click on "Read More" button located beside any destination
-3) Click on "Book Now" button
-4) Enter valid data and complete all fields
-5) Click on "book" button
-6) Repeat steps from 1 to 5</t>
   </si>
   <si>
     <t>Error message shall appear saying
@@ -1255,27 +1149,11 @@
 4 seats</t>
   </si>
   <si>
-    <t>1) Open Homepage
-2) Click on "Read More" button located beside any destination
-3) Click on "Book Now" button
-4) enter "5" IN "number of seats" field
-5) complete all fields and click book</t>
-  </si>
-  <si>
     <t>Error message shall appear saying
 that user can not book more than 4 seats</t>
   </si>
   <si>
     <t>TAWA_BOOKING_16</t>
-  </si>
-  <si>
-    <t>1) Open Homepage
-2) Click on "Read More" button located beside any destination
-3) Click on "Book Now" button
-4) Enter valid data and complete all fields
-5) Click on "book" button
-6) Open Homepage
-7) from navigation bar click on 'Reserved trips" button</t>
   </si>
   <si>
     <t>a trip with the exact same data
@@ -1480,24 +1358,10 @@
     <t>Validate the options in "level of serives" list</t>
   </si>
   <si>
-    <t>1) Open Homepage
-2) Click on "Read More" button located beside any destination
-3) Click on "Book Now" button
-4) Click on "level of serives" dropdown list
-5) Check the list options</t>
-  </si>
-  <si>
     <t xml:space="preserve"> The ‘Level of services’ shall be ‘Economy’ , ‘Business’ or ‘Luxurious’.</t>
   </si>
   <si>
     <t>Validate the options in "different airlins" list</t>
-  </si>
-  <si>
-    <t>1) Open Homepage
-2) Click on "Read More" button located beside any destination
-3) Click on "Book Now" button
-4) Click on "different airlines" dropdown list
-5) Check the list options</t>
   </si>
   <si>
     <t>TAWA_BOOKING_17</t>
@@ -1511,12 +1375,6 @@
   </si>
   <si>
     <t>Validate the options in "trip type" radio button</t>
-  </si>
-  <si>
-    <t>1) Open Homepage
-2) Click on "Read More" button located beside any destination
-3) Click on "Book Now" button
-4) Check the trip type options</t>
   </si>
   <si>
     <t>The ‘trip type’ radio button shall contain two types ‘One-way’ and ‘Round-trip’.</t>
@@ -2423,6 +2281,148 @@
   <si>
     <t xml:space="preserve">Page shall be redirected to reserved trips page
 </t>
+  </si>
+  <si>
+    <t>1) Open Homepage
+2) Click on "Read More" button located beside any destination
+3) Click on "Book Flight" button
+4) Check the existence of fields</t>
+  </si>
+  <si>
+    <t>https://www.photobox.co.uk/my/photo/full?photo_id=501884206002</t>
+  </si>
+  <si>
+    <t>1) Open Homepage
+2) Click on "Read More" button located beside any destination
+3) Click on "Book Flight" button
+4) Click on "level of serives" dropdown list
+5) Check the list options</t>
+  </si>
+  <si>
+    <t>1) Open Homepage
+2) Click on "Read More" button located beside any destination
+3) Click on "Book Flight" button
+4) Click on "different airlines" dropdown list
+5) Check the list options</t>
+  </si>
+  <si>
+    <t>1) Open Homepage
+2) Click on "Read More" button located beside any destination
+3) Click on "Book Flight" button
+4) Click on "Payment method" dropdown list
+5) Check the list options</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Open Homepage
+2) Click on "Read More" button located beside any destination
+3) Click on "Book Flight" button
+4) Click on "Payment method" dropdown list and choose debit card
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Open Homepage
+2) Click on "Read More" button located beside any destination
+3) Click on "Book Flight" button
+4) Choose One trip type
+5) Try to choose the other type
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Open Homepage
+2) Click on "Read More" button located beside any destination
+3) Click on "Book Flight" button
+4) Choose One payment method
+5) Try to choose the other type
+</t>
+  </si>
+  <si>
+    <t>1) Open Homepage
+2) Click on "Read More" button located beside any destination
+3) Click on "Book Flight" button
+4) Try click on "book" button</t>
+  </si>
+  <si>
+    <t>1) Open Homepage
+2) Click on "Read More" button located beside any destination
+3) Click on "Book Flight" button
+4) Fill one field with any data
+5)Try click on "book" button</t>
+  </si>
+  <si>
+    <t>1) Open Homepage
+2) Click on "Read More" button located beside any destination
+3) Click on "Book Flight" button
+4) Enter letters in "Number of seats" field
+5) complete all other fields
+6) Click on "book" button</t>
+  </si>
+  <si>
+    <t>1) Open Homepage
+2) Click on "Read More" button located beside any destination
+3) Click on "Book Flight" button
+4) Enter letters in "flight number" field
+5) complete all other fields
+6) Click on "book" button</t>
+  </si>
+  <si>
+    <t>Validate restriction on entering negative in "Debit card number" field</t>
+  </si>
+  <si>
+    <t>1) Open Homepage
+2) Click on "Read More" button located beside any destination
+3) Click on "Book Flight" button
+4) Enter letters in "debit card number" field
+5) complete all other fields
+6) Click on "book" button</t>
+  </si>
+  <si>
+    <t>Error message shall appear saying that it's forbidden to enter negative numbers in "debit card number" field</t>
+  </si>
+  <si>
+    <t>1) Open Homepage
+2) Click on "Read More" button located beside any destination
+3) Click on "Book Flight" button
+4) Enter valid data and complete all fields
+5) Click on "book" button
+6) Check response from website</t>
+  </si>
+  <si>
+    <t>1) Open Homepage
+2) Click on "Read More" button located beside any destination
+3) Click on "Book Flight" button
+4) Enter valid data and complete all fields
+5) Click on "book" button
+6) Check table Book in TAWA_DB</t>
+  </si>
+  <si>
+    <t>1) Open Homepage
+2) Click on "Read More" button located beside any destination
+3) Click on "Book Flight" button
+4) Enter valid data and complete all fields
+5) Click on "book" button
+6) Repeat steps from 1 to 5</t>
+  </si>
+  <si>
+    <t>1) Open Homepage
+2) Click on "Read More" button located beside any destination
+3) Click on "Book Flight" button
+4) enter "5" IN "number of seats" field
+5) complete all fields and click book</t>
+  </si>
+  <si>
+    <t>1) Open Homepage
+2) Click on "Read More" button located beside any destination
+3) Click on "Book Flight" button
+4) Enter valid data and complete all fields
+5) Click on "book" button
+6) Open Homepage
+7) from navigation bar click on 'Reserved trips" button</t>
+  </si>
+  <si>
+    <t>1) Open Homepage
+2) Click on "Read More" button located beside any destination
+3) Click on "Book Flight" button
+4) Check the trip type options</t>
   </si>
 </sst>
 </file>
@@ -2560,7 +2560,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -2696,6 +2696,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3160,117 +3163,117 @@
     </row>
     <row r="2" spans="1:13" ht="137.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
-        <v>589</v>
+        <v>568</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>590</v>
+        <v>569</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>591</v>
+        <v>570</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>592</v>
+        <v>571</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>593</v>
+        <v>572</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H2" s="14"/>
       <c r="I2" s="14"/>
       <c r="J2" s="14" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="K2" s="14"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
-        <v>594</v>
+        <v>573</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>595</v>
+        <v>574</v>
       </c>
       <c r="C3" s="14" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>591</v>
+        <v>570</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>596</v>
+        <v>575</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>597</v>
+        <v>576</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H3" s="14"/>
       <c r="I3" s="14"/>
       <c r="J3" s="14" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="K3" s="14"/>
     </row>
     <row r="4" spans="1:13" ht="122.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
-        <v>598</v>
+        <v>577</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>599</v>
+        <v>578</v>
       </c>
       <c r="C4" s="14" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>591</v>
+        <v>570</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>600</v>
+        <v>579</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>601</v>
+        <v>580</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H4" s="14"/>
       <c r="I4" s="14"/>
       <c r="J4" s="14" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="K4" s="14"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
-        <v>602</v>
+        <v>581</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>603</v>
+        <v>582</v>
       </c>
       <c r="C5" s="14" t="s">
         <v>12</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>591</v>
+        <v>570</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>604</v>
+        <v>583</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>605</v>
+        <v>584</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H5" s="14"/>
       <c r="I5" s="14"/>
       <c r="J5" s="14" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="K5" s="14"/>
     </row>
@@ -3467,8 +3470,8 @@
   </sheetPr>
   <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3541,30 +3544,30 @@
         <v>242</v>
       </c>
       <c r="E2" s="15" t="s">
+        <v>585</v>
+      </c>
+      <c r="F2" s="15" t="s">
         <v>243</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="G2" s="14" t="s">
         <v>244</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>245</v>
       </c>
       <c r="H2" s="14"/>
       <c r="I2" s="14"/>
       <c r="J2" s="14" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="K2" s="14"/>
-      <c r="L2" s="16" t="s">
-        <v>247</v>
+      <c r="L2" s="52" t="s">
+        <v>586</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>365</v>
+        <v>347</v>
       </c>
       <c r="C3" s="14" t="s">
         <v>12</v>
@@ -3573,27 +3576,27 @@
         <v>242</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>366</v>
+        <v>587</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>367</v>
+        <v>348</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H3" s="14"/>
       <c r="I3" s="14"/>
       <c r="J3" s="14" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="K3" s="14"/>
     </row>
     <row r="4" spans="1:13" ht="122.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>368</v>
+        <v>349</v>
       </c>
       <c r="C4" s="14" t="s">
         <v>12</v>
@@ -3602,27 +3605,27 @@
         <v>242</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>369</v>
+        <v>588</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H4" s="14"/>
       <c r="I4" s="14"/>
       <c r="J4" s="14" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="K4" s="14"/>
     </row>
     <row r="5" spans="1:13" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C5" s="14" t="s">
         <v>12</v>
@@ -3631,27 +3634,27 @@
         <v>242</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>252</v>
+        <v>589</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H5" s="14"/>
       <c r="I5" s="14"/>
       <c r="J5" s="14" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="K5" s="14"/>
     </row>
     <row r="6" spans="1:13" ht="144" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C6" s="14" t="s">
         <v>12</v>
@@ -3660,27 +3663,27 @@
         <v>242</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>256</v>
+        <v>590</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H6" s="14"/>
       <c r="I6" s="14"/>
       <c r="J6" s="14" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="K6" s="14"/>
     </row>
     <row r="7" spans="1:13" ht="144" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C7" s="14" t="s">
         <v>12</v>
@@ -3689,27 +3692,27 @@
         <v>242</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>260</v>
+        <v>591</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H7" s="14"/>
       <c r="I7" s="14"/>
       <c r="J7" s="14" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:13" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="C8" s="14" t="s">
         <v>12</v>
@@ -3718,27 +3721,27 @@
         <v>242</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>264</v>
+        <v>592</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
       <c r="J8" s="14" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="K8" s="14"/>
     </row>
     <row r="9" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="C9" s="14" t="s">
         <v>12</v>
@@ -3747,27 +3750,27 @@
         <v>242</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>268</v>
+        <v>593</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
       <c r="J9" s="14" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="K9" s="14"/>
     </row>
     <row r="10" spans="1:13" ht="144" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="C10" s="14" t="s">
         <v>12</v>
@@ -3776,27 +3779,27 @@
         <v>242</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>272</v>
+        <v>594</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
       <c r="J10" s="14" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="K10" s="14"/>
     </row>
     <row r="11" spans="1:13" ht="144" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="C11" s="14" t="s">
         <v>12</v>
@@ -3805,27 +3808,27 @@
         <v>242</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>276</v>
+        <v>595</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H11" s="14"/>
       <c r="I11" s="14"/>
       <c r="J11" s="14" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="K11" s="14"/>
     </row>
     <row r="12" spans="1:13" ht="144" x14ac:dyDescent="0.3">
       <c r="A12" s="14" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="C12" s="14" t="s">
         <v>12</v>
@@ -3834,27 +3837,27 @@
         <v>242</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>280</v>
+        <v>596</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
       <c r="J12" s="14" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="K12" s="14"/>
     </row>
     <row r="13" spans="1:13" ht="144" x14ac:dyDescent="0.3">
       <c r="A13" s="14" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>283</v>
+        <v>597</v>
       </c>
       <c r="C13" s="14" t="s">
         <v>12</v>
@@ -3863,30 +3866,27 @@
         <v>242</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>284</v>
+        <v>598</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>285</v>
+        <v>599</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
       <c r="J13" s="14" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="K13" s="14"/>
-      <c r="M13" s="16" t="s">
-        <v>290</v>
-      </c>
     </row>
     <row r="14" spans="1:13" ht="141" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="14" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
       <c r="C14" s="14" t="s">
         <v>12</v>
@@ -3895,30 +3895,30 @@
         <v>242</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>288</v>
+        <v>600</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
       <c r="J14" s="14" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="K14" s="14"/>
       <c r="L14" s="16" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
-        <v>295</v>
+        <v>280</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>292</v>
+        <v>278</v>
       </c>
       <c r="C15" s="14" t="s">
         <v>12</v>
@@ -3927,27 +3927,27 @@
         <v>242</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>293</v>
+        <v>601</v>
       </c>
       <c r="F15" s="15" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
       <c r="G15" s="14" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
       <c r="J15" s="14" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="K15" s="14"/>
     </row>
     <row r="16" spans="1:13" ht="144" x14ac:dyDescent="0.3">
       <c r="A16" s="14" t="s">
-        <v>299</v>
+        <v>283</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>296</v>
+        <v>281</v>
       </c>
       <c r="C16" s="14" t="s">
         <v>12</v>
@@ -3956,27 +3956,27 @@
         <v>242</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>297</v>
+        <v>602</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>298</v>
+        <v>282</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
       <c r="J16" s="14" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="K16" s="14"/>
     </row>
     <row r="17" spans="1:11" ht="144" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
-        <v>303</v>
+        <v>286</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>300</v>
+        <v>284</v>
       </c>
       <c r="C17" s="14" t="s">
         <v>12</v>
@@ -3985,27 +3985,27 @@
         <v>242</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>301</v>
+        <v>603</v>
       </c>
       <c r="F17" s="15" t="s">
-        <v>302</v>
+        <v>285</v>
       </c>
       <c r="G17" s="14" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H17" s="14"/>
       <c r="I17" s="14"/>
       <c r="J17" s="14" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="K17" s="14"/>
     </row>
     <row r="18" spans="1:11" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A18" s="14" t="s">
-        <v>370</v>
+        <v>350</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>371</v>
+        <v>351</v>
       </c>
       <c r="C18" s="14" t="s">
         <v>12</v>
@@ -4014,26 +4014,26 @@
         <v>242</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>304</v>
+        <v>604</v>
       </c>
       <c r="F18" s="17" t="s">
-        <v>305</v>
+        <v>287</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H18" s="14"/>
       <c r="I18" s="14"/>
       <c r="J18" s="14" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A19" s="14" t="s">
-        <v>372</v>
+        <v>352</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>373</v>
+        <v>353</v>
       </c>
       <c r="C19" s="14" t="s">
         <v>12</v>
@@ -4042,22 +4042,25 @@
         <v>242</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>374</v>
+        <v>605</v>
       </c>
       <c r="F19" s="17" t="s">
-        <v>375</v>
+        <v>354</v>
       </c>
       <c r="G19" s="14" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H19" s="14"/>
       <c r="I19" s="14"/>
       <c r="J19" s="14" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="K19" s="14"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="L2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4140,10 +4143,10 @@
         <v>21</v>
       </c>
       <c r="G2" s="51" t="s">
-        <v>560</v>
+        <v>539</v>
       </c>
       <c r="I2" s="46" t="s">
-        <v>571</v>
+        <v>550</v>
       </c>
       <c r="J2" s="46" t="s">
         <v>50</v>
@@ -4169,13 +4172,13 @@
         <v>20</v>
       </c>
       <c r="G3" s="50" t="s">
-        <v>563</v>
+        <v>542</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>572</v>
+        <v>551</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>570</v>
+        <v>549</v>
       </c>
       <c r="J3" s="49" t="s">
         <v>50</v>
@@ -4253,210 +4256,210 @@
     </row>
     <row r="2" spans="1:13" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
-        <v>376</v>
+        <v>355</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>377</v>
+        <v>356</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>378</v>
+        <v>357</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>379</v>
+        <v>358</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>380</v>
+        <v>359</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H2" s="14"/>
       <c r="I2" s="14"/>
       <c r="J2" s="14" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="K2" s="14"/>
       <c r="L2" s="14"/>
     </row>
     <row r="3" spans="1:13" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
-        <v>381</v>
+        <v>360</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>382</v>
+        <v>361</v>
       </c>
       <c r="C3" s="14" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>383</v>
+        <v>362</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>384</v>
+        <v>363</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>385</v>
+        <v>364</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H3" s="14"/>
       <c r="I3" s="14"/>
       <c r="J3" s="14" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="K3" s="14"/>
       <c r="L3" s="14"/>
     </row>
     <row r="4" spans="1:13" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
-        <v>386</v>
+        <v>365</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>387</v>
+        <v>366</v>
       </c>
       <c r="C4" s="14" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>378</v>
+        <v>357</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>384</v>
+        <v>363</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>388</v>
+        <v>367</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H4" s="14"/>
       <c r="I4" s="14"/>
       <c r="J4" s="14" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="K4" s="14"/>
       <c r="L4" s="14"/>
     </row>
     <row r="5" spans="1:13" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
-        <v>389</v>
+        <v>368</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>390</v>
+        <v>369</v>
       </c>
       <c r="C5" s="14" t="s">
         <v>12</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>378</v>
+        <v>357</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>384</v>
+        <v>363</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>391</v>
+        <v>370</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H5" s="14"/>
       <c r="I5" s="14"/>
       <c r="J5" s="14" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="K5" s="14"/>
       <c r="L5" s="14"/>
     </row>
     <row r="6" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
-        <v>392</v>
+        <v>371</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>393</v>
+        <v>372</v>
       </c>
       <c r="C6" s="14" t="s">
         <v>12</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>378</v>
+        <v>357</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>394</v>
+        <v>373</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>395</v>
+        <v>374</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H6" s="14"/>
       <c r="I6" s="14"/>
       <c r="J6" s="14" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="K6" s="14"/>
       <c r="L6" s="14"/>
     </row>
-    <row r="7" spans="1:13" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
-        <v>396</v>
+        <v>375</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>397</v>
+        <v>376</v>
       </c>
       <c r="C7" s="14" t="s">
         <v>12</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>378</v>
+        <v>357</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>394</v>
+        <v>373</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>398</v>
+        <v>377</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H7" s="14"/>
       <c r="I7" s="14"/>
       <c r="J7" s="14" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="K7" s="14"/>
       <c r="L7" s="14"/>
     </row>
     <row r="8" spans="1:13" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
-        <v>399</v>
+        <v>378</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>400</v>
+        <v>379</v>
       </c>
       <c r="C8" s="14" t="s">
         <v>12</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>378</v>
+        <v>357</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>401</v>
+        <v>380</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>402</v>
+        <v>381</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
       <c r="J8" s="14" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="K8" s="14"/>
       <c r="L8" s="14"/>
@@ -4470,7 +4473,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
@@ -4494,7 +4497,7 @@
   <sheetData>
     <row r="1" spans="1:14" s="36" customFormat="1" ht="21" x14ac:dyDescent="0.3">
       <c r="A1" s="23" t="s">
-        <v>403</v>
+        <v>382</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -4539,156 +4542,156 @@
     <row r="2" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A2" s="20"/>
       <c r="B2" s="20" t="s">
-        <v>404</v>
+        <v>383</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>405</v>
+        <v>384</v>
       </c>
       <c r="D2" s="21" t="s">
         <v>12</v>
       </c>
       <c r="E2" s="21"/>
       <c r="F2" s="22" t="s">
-        <v>406</v>
+        <v>385</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>407</v>
+        <v>386</v>
       </c>
       <c r="H2" s="23" t="s">
-        <v>408</v>
+        <v>387</v>
       </c>
       <c r="I2" s="21"/>
       <c r="J2" s="21" t="s">
-        <v>409</v>
+        <v>388</v>
       </c>
       <c r="K2" s="21"/>
       <c r="L2" s="21"/>
       <c r="M2" s="21" t="s">
-        <v>410</v>
+        <v>389</v>
       </c>
       <c r="N2" s="20"/>
     </row>
     <row r="3" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="B3" s="20" t="s">
-        <v>411</v>
+        <v>390</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>412</v>
+        <v>391</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>413</v>
+        <v>392</v>
       </c>
       <c r="E3" s="24"/>
       <c r="F3" s="22" t="s">
-        <v>414</v>
+        <v>393</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="23" t="s">
-        <v>415</v>
+        <v>394</v>
       </c>
       <c r="I3" s="21"/>
       <c r="J3" s="21"/>
       <c r="K3" s="21"/>
       <c r="L3" s="21"/>
       <c r="M3" s="21" t="s">
-        <v>410</v>
+        <v>389</v>
       </c>
       <c r="N3" s="5"/>
     </row>
     <row r="4" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="25" t="s">
-        <v>416</v>
+        <v>395</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>417</v>
+        <v>396</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>418</v>
+        <v>397</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>419</v>
+        <v>398</v>
       </c>
       <c r="E4" s="24"/>
       <c r="F4" s="22" t="s">
-        <v>420</v>
+        <v>399</v>
       </c>
       <c r="G4" s="22" t="s">
-        <v>407</v>
+        <v>386</v>
       </c>
       <c r="H4" s="23" t="s">
-        <v>421</v>
+        <v>400</v>
       </c>
       <c r="I4" s="21" t="s">
-        <v>422</v>
+        <v>401</v>
       </c>
       <c r="J4" s="21" t="s">
-        <v>423</v>
+        <v>402</v>
       </c>
       <c r="K4" s="21"/>
       <c r="L4" s="23" t="s">
-        <v>424</v>
+        <v>403</v>
       </c>
       <c r="M4" s="21" t="s">
-        <v>410</v>
+        <v>389</v>
       </c>
       <c r="N4" s="5"/>
     </row>
     <row r="5" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="25" t="s">
-        <v>425</v>
+        <v>404</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>426</v>
+        <v>405</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>427</v>
+        <v>406</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>413</v>
+        <v>392</v>
       </c>
       <c r="E5" s="24"/>
       <c r="F5" s="22" t="s">
-        <v>428</v>
+        <v>407</v>
       </c>
       <c r="G5" s="22"/>
       <c r="H5" s="21" t="s">
-        <v>429</v>
+        <v>408</v>
       </c>
       <c r="I5" s="21"/>
       <c r="J5" s="21" t="s">
-        <v>409</v>
+        <v>388</v>
       </c>
       <c r="K5" s="21"/>
       <c r="L5" s="23" t="s">
-        <v>430</v>
+        <v>409</v>
       </c>
       <c r="M5" s="21" t="s">
-        <v>410</v>
+        <v>389</v>
       </c>
       <c r="N5" s="5"/>
     </row>
     <row r="6" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A6" s="28" t="s">
-        <v>425</v>
+        <v>404</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>432</v>
+        <v>411</v>
       </c>
       <c r="D6" s="31" t="s">
         <v>12</v>
       </c>
       <c r="E6" s="31" t="s">
-        <v>433</v>
+        <v>412</v>
       </c>
       <c r="F6" s="32" t="s">
-        <v>406</v>
+        <v>385</v>
       </c>
       <c r="G6" s="32" t="s">
-        <v>407</v>
+        <v>386</v>
       </c>
       <c r="H6" s="31"/>
       <c r="I6" s="31"/>
@@ -4696,299 +4699,299 @@
       <c r="K6" s="31"/>
       <c r="L6" s="31"/>
       <c r="M6" s="21" t="s">
-        <v>410</v>
+        <v>389</v>
       </c>
       <c r="N6" s="33"/>
     </row>
     <row r="7" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="25" t="s">
-        <v>434</v>
+        <v>413</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>435</v>
+        <v>414</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>436</v>
+        <v>415</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>413</v>
+        <v>392</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>433</v>
+        <v>412</v>
       </c>
       <c r="F7" s="22" t="s">
-        <v>437</v>
+        <v>416</v>
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="23" t="s">
-        <v>438</v>
+        <v>417</v>
       </c>
       <c r="I7" s="21" t="s">
-        <v>422</v>
+        <v>401</v>
       </c>
       <c r="J7" s="21" t="s">
-        <v>423</v>
+        <v>402</v>
       </c>
       <c r="K7" s="21"/>
       <c r="L7" s="23" t="s">
-        <v>439</v>
+        <v>418</v>
       </c>
       <c r="M7" s="21" t="s">
-        <v>410</v>
+        <v>389</v>
       </c>
       <c r="N7" s="5"/>
     </row>
     <row r="8" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A8" s="25" t="s">
-        <v>440</v>
+        <v>419</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>441</v>
+        <v>420</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>442</v>
+        <v>421</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>419</v>
+        <v>398</v>
       </c>
       <c r="E8" s="24"/>
       <c r="F8" s="22" t="s">
-        <v>443</v>
+        <v>422</v>
       </c>
       <c r="G8" s="22" t="s">
-        <v>407</v>
+        <v>386</v>
       </c>
       <c r="H8" s="23" t="s">
-        <v>444</v>
+        <v>423</v>
       </c>
       <c r="I8" s="21"/>
       <c r="J8" s="21" t="s">
-        <v>423</v>
+        <v>402</v>
       </c>
       <c r="K8" s="21"/>
       <c r="L8" s="23" t="s">
-        <v>445</v>
+        <v>424</v>
       </c>
       <c r="M8" s="21" t="s">
-        <v>410</v>
+        <v>389</v>
       </c>
       <c r="N8" s="5"/>
     </row>
     <row r="9" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A9" s="25" t="s">
-        <v>446</v>
+        <v>425</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>447</v>
+        <v>426</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>448</v>
+        <v>427</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>419</v>
+        <v>398</v>
       </c>
       <c r="E9" s="24"/>
       <c r="F9" s="22" t="s">
-        <v>449</v>
+        <v>428</v>
       </c>
       <c r="G9" s="22" t="s">
-        <v>407</v>
+        <v>386</v>
       </c>
       <c r="H9" s="23" t="s">
-        <v>450</v>
+        <v>429</v>
       </c>
       <c r="I9" s="21"/>
       <c r="J9" s="21" t="s">
-        <v>409</v>
+        <v>388</v>
       </c>
       <c r="K9" s="21"/>
       <c r="L9" s="21" t="s">
-        <v>451</v>
+        <v>430</v>
       </c>
       <c r="M9" s="21" t="s">
-        <v>410</v>
+        <v>389</v>
       </c>
       <c r="N9" s="5"/>
     </row>
-    <row r="10" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="25" t="s">
-        <v>452</v>
+        <v>431</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>453</v>
+        <v>432</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>454</v>
+        <v>433</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>419</v>
+        <v>398</v>
       </c>
       <c r="E10" s="34" t="s">
-        <v>455</v>
+        <v>434</v>
       </c>
       <c r="F10" s="22" t="s">
-        <v>456</v>
+        <v>435</v>
       </c>
       <c r="G10" s="22" t="s">
-        <v>407</v>
+        <v>386</v>
       </c>
       <c r="H10" s="23" t="s">
-        <v>457</v>
+        <v>436</v>
       </c>
       <c r="I10" s="21"/>
       <c r="J10" s="21" t="s">
-        <v>409</v>
+        <v>388</v>
       </c>
       <c r="K10" s="21"/>
       <c r="L10" s="23" t="s">
-        <v>458</v>
+        <v>437</v>
       </c>
       <c r="M10" s="21" t="s">
-        <v>410</v>
+        <v>389</v>
       </c>
       <c r="N10" s="5"/>
     </row>
     <row r="11" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A11" s="25" t="s">
-        <v>459</v>
+        <v>438</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>460</v>
+        <v>439</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>461</v>
+        <v>440</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>419</v>
+        <v>398</v>
       </c>
       <c r="E11" s="24"/>
       <c r="F11" s="22" t="s">
-        <v>462</v>
+        <v>441</v>
       </c>
       <c r="G11" s="22" t="s">
-        <v>407</v>
+        <v>386</v>
       </c>
       <c r="H11" s="23" t="s">
-        <v>463</v>
+        <v>442</v>
       </c>
       <c r="I11" s="21"/>
       <c r="J11" s="21" t="s">
-        <v>409</v>
+        <v>388</v>
       </c>
       <c r="K11" s="21"/>
       <c r="L11" s="21" t="s">
-        <v>464</v>
+        <v>443</v>
       </c>
       <c r="M11" s="21" t="s">
-        <v>410</v>
+        <v>389</v>
       </c>
       <c r="N11" s="5"/>
     </row>
     <row r="12" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="25" t="s">
-        <v>465</v>
+        <v>444</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>466</v>
+        <v>445</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>467</v>
+        <v>446</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>419</v>
+        <v>398</v>
       </c>
       <c r="E12" s="34" t="s">
-        <v>468</v>
+        <v>447</v>
       </c>
       <c r="F12" s="22" t="s">
-        <v>469</v>
+        <v>448</v>
       </c>
       <c r="G12" s="22" t="s">
-        <v>407</v>
+        <v>386</v>
       </c>
       <c r="H12" s="23" t="s">
-        <v>470</v>
+        <v>449</v>
       </c>
       <c r="I12" s="21"/>
       <c r="J12" s="21" t="s">
-        <v>409</v>
+        <v>388</v>
       </c>
       <c r="K12" s="21"/>
       <c r="L12" s="23" t="s">
-        <v>471</v>
+        <v>450</v>
       </c>
       <c r="M12" s="21" t="s">
-        <v>410</v>
+        <v>389</v>
       </c>
       <c r="N12" s="5"/>
     </row>
     <row r="13" spans="1:14" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="5"/>
       <c r="B13" s="20" t="s">
-        <v>472</v>
+        <v>451</v>
       </c>
       <c r="C13" s="27" t="s">
-        <v>473</v>
+        <v>452</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>419</v>
+        <v>398</v>
       </c>
       <c r="E13" s="24"/>
       <c r="F13" s="22" t="s">
-        <v>474</v>
+        <v>453</v>
       </c>
       <c r="G13" s="22" t="s">
-        <v>407</v>
+        <v>386</v>
       </c>
       <c r="H13" s="23" t="s">
-        <v>475</v>
+        <v>454</v>
       </c>
       <c r="I13" s="21"/>
       <c r="J13" s="21" t="s">
-        <v>409</v>
+        <v>388</v>
       </c>
       <c r="K13" s="21"/>
       <c r="L13" s="23" t="s">
-        <v>476</v>
+        <v>455</v>
       </c>
       <c r="M13" s="21" t="s">
-        <v>410</v>
+        <v>389</v>
       </c>
       <c r="N13" s="5"/>
     </row>
     <row r="14" spans="1:14" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="35" t="s">
-        <v>477</v>
+        <v>456</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>478</v>
+        <v>457</v>
       </c>
       <c r="C14" s="27" t="s">
-        <v>473</v>
+        <v>452</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>419</v>
+        <v>398</v>
       </c>
       <c r="E14" s="24"/>
       <c r="F14" s="22" t="s">
-        <v>474</v>
+        <v>453</v>
       </c>
       <c r="G14" s="22" t="s">
-        <v>407</v>
+        <v>386</v>
       </c>
       <c r="H14" s="23" t="s">
-        <v>475</v>
+        <v>454</v>
       </c>
       <c r="I14" s="21"/>
       <c r="J14" s="21" t="s">
-        <v>409</v>
+        <v>388</v>
       </c>
       <c r="K14" s="21"/>
       <c r="L14" s="23" t="s">
-        <v>476</v>
+        <v>455</v>
       </c>
       <c r="M14" s="21" t="s">
-        <v>410</v>
+        <v>389</v>
       </c>
       <c r="N14" s="5"/>
     </row>
@@ -5066,237 +5069,237 @@
     </row>
     <row r="2" spans="1:14" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="35" t="s">
-        <v>479</v>
+        <v>458</v>
       </c>
       <c r="B2" s="36" t="s">
-        <v>480</v>
+        <v>459</v>
       </c>
       <c r="C2" s="36" t="s">
-        <v>481</v>
+        <v>460</v>
       </c>
       <c r="D2" s="36" t="s">
-        <v>482</v>
+        <v>461</v>
       </c>
       <c r="E2" s="36"/>
       <c r="F2" s="22" t="s">
-        <v>483</v>
+        <v>462</v>
       </c>
       <c r="G2" s="14"/>
       <c r="H2" s="37" t="s">
-        <v>484</v>
+        <v>463</v>
       </c>
       <c r="I2" s="36"/>
       <c r="J2" s="36" t="s">
-        <v>409</v>
+        <v>388</v>
       </c>
       <c r="K2" s="36"/>
       <c r="L2" s="36" t="s">
-        <v>485</v>
+        <v>464</v>
       </c>
       <c r="M2" s="36" t="s">
-        <v>410</v>
+        <v>389</v>
       </c>
       <c r="N2" s="36"/>
     </row>
     <row r="3" spans="1:14" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="35" t="s">
-        <v>486</v>
+        <v>465</v>
       </c>
       <c r="B3" s="36" t="s">
-        <v>487</v>
+        <v>466</v>
       </c>
       <c r="C3" s="36" t="s">
-        <v>488</v>
+        <v>467</v>
       </c>
       <c r="D3" s="36" t="s">
-        <v>482</v>
+        <v>461</v>
       </c>
       <c r="E3" s="36"/>
       <c r="F3" s="22" t="s">
-        <v>489</v>
+        <v>468</v>
       </c>
       <c r="H3" s="37" t="s">
-        <v>490</v>
+        <v>469</v>
       </c>
       <c r="J3" t="s">
-        <v>423</v>
+        <v>402</v>
       </c>
       <c r="L3" t="s">
-        <v>491</v>
+        <v>470</v>
       </c>
       <c r="M3" t="s">
-        <v>410</v>
+        <v>389</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="35" t="s">
-        <v>492</v>
+        <v>471</v>
       </c>
       <c r="B4" s="36" t="s">
-        <v>493</v>
+        <v>472</v>
       </c>
       <c r="C4" s="36" t="s">
-        <v>494</v>
+        <v>473</v>
       </c>
       <c r="D4" s="36" t="s">
-        <v>495</v>
+        <v>474</v>
       </c>
       <c r="E4" s="36" t="s">
-        <v>496</v>
+        <v>475</v>
       </c>
       <c r="F4" s="22" t="s">
-        <v>497</v>
+        <v>476</v>
       </c>
       <c r="G4" s="23" t="s">
-        <v>407</v>
+        <v>386</v>
       </c>
       <c r="H4" s="37" t="s">
-        <v>484</v>
+        <v>463</v>
       </c>
       <c r="J4" t="s">
-        <v>423</v>
+        <v>402</v>
       </c>
       <c r="L4" t="s">
-        <v>498</v>
+        <v>477</v>
       </c>
       <c r="M4" t="s">
-        <v>410</v>
+        <v>389</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="35" t="s">
-        <v>499</v>
+        <v>478</v>
       </c>
       <c r="B5" s="36" t="s">
-        <v>500</v>
+        <v>479</v>
       </c>
       <c r="C5" s="38" t="s">
-        <v>501</v>
+        <v>480</v>
       </c>
       <c r="D5" s="36" t="s">
-        <v>495</v>
+        <v>474</v>
       </c>
       <c r="E5" s="36" t="s">
-        <v>496</v>
+        <v>475</v>
       </c>
       <c r="F5" s="22" t="s">
-        <v>502</v>
+        <v>481</v>
       </c>
       <c r="G5" s="23" t="s">
-        <v>407</v>
+        <v>386</v>
       </c>
       <c r="H5" s="38" t="s">
-        <v>503</v>
+        <v>482</v>
       </c>
       <c r="J5" t="s">
-        <v>409</v>
+        <v>388</v>
       </c>
       <c r="L5" t="s">
-        <v>504</v>
+        <v>483</v>
       </c>
       <c r="M5" t="s">
-        <v>410</v>
+        <v>389</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="35" t="s">
-        <v>505</v>
+        <v>484</v>
       </c>
       <c r="B6" s="36" t="s">
-        <v>506</v>
+        <v>485</v>
       </c>
       <c r="C6" s="39" t="s">
-        <v>507</v>
+        <v>486</v>
       </c>
       <c r="D6" s="36" t="s">
-        <v>495</v>
+        <v>474</v>
       </c>
       <c r="E6" s="36" t="s">
-        <v>496</v>
+        <v>475</v>
       </c>
       <c r="F6" s="22" t="s">
-        <v>508</v>
+        <v>487</v>
       </c>
       <c r="G6" s="23" t="s">
-        <v>407</v>
+        <v>386</v>
       </c>
       <c r="H6" s="38" t="s">
-        <v>509</v>
+        <v>488</v>
       </c>
       <c r="J6" t="s">
-        <v>409</v>
+        <v>388</v>
       </c>
       <c r="L6" t="s">
-        <v>510</v>
+        <v>489</v>
       </c>
       <c r="M6" t="s">
-        <v>410</v>
+        <v>389</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="35" t="s">
-        <v>511</v>
+        <v>490</v>
       </c>
       <c r="B7" s="36" t="s">
-        <v>512</v>
+        <v>491</v>
       </c>
       <c r="C7" s="37" t="s">
-        <v>513</v>
+        <v>492</v>
       </c>
       <c r="D7" s="36" t="s">
-        <v>495</v>
+        <v>474</v>
       </c>
       <c r="E7" s="36" t="s">
-        <v>496</v>
+        <v>475</v>
       </c>
       <c r="F7" s="22" t="s">
-        <v>514</v>
+        <v>493</v>
       </c>
       <c r="G7" s="23" t="s">
-        <v>407</v>
+        <v>386</v>
       </c>
       <c r="H7" s="38" t="s">
-        <v>515</v>
+        <v>494</v>
       </c>
       <c r="J7" t="s">
-        <v>409</v>
+        <v>388</v>
       </c>
       <c r="L7" t="s">
-        <v>504</v>
+        <v>483</v>
       </c>
       <c r="M7" t="s">
-        <v>410</v>
+        <v>389</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A8" s="40"/>
       <c r="B8" s="41" t="s">
-        <v>516</v>
+        <v>495</v>
       </c>
       <c r="C8" s="42" t="s">
-        <v>517</v>
+        <v>496</v>
       </c>
       <c r="D8" s="41" t="s">
-        <v>518</v>
+        <v>497</v>
       </c>
       <c r="E8" s="41"/>
       <c r="F8" s="32" t="s">
-        <v>519</v>
+        <v>498</v>
       </c>
       <c r="G8" s="40"/>
       <c r="H8" s="42" t="s">
-        <v>520</v>
+        <v>499</v>
       </c>
       <c r="I8" s="40"/>
       <c r="J8" s="40" t="s">
-        <v>423</v>
+        <v>402</v>
       </c>
       <c r="K8" s="40"/>
       <c r="L8" s="40" t="s">
-        <v>521</v>
+        <v>500</v>
       </c>
       <c r="M8" s="40" t="s">
-        <v>410</v>
+        <v>389</v>
       </c>
       <c r="N8" s="40"/>
     </row>
@@ -5381,7 +5384,7 @@
         <v>75</v>
       </c>
       <c r="G2" s="51" t="s">
-        <v>560</v>
+        <v>539</v>
       </c>
       <c r="J2" s="46" t="s">
         <v>50</v>
@@ -5404,7 +5407,7 @@
         <v>58</v>
       </c>
       <c r="G3" s="51" t="s">
-        <v>560</v>
+        <v>539</v>
       </c>
       <c r="J3" s="46" t="s">
         <v>50</v>
@@ -5421,19 +5424,19 @@
         <v>12</v>
       </c>
       <c r="E4" s="49" t="s">
-        <v>561</v>
+        <v>540</v>
       </c>
       <c r="F4" s="49" t="s">
         <v>85</v>
       </c>
       <c r="G4" s="50" t="s">
-        <v>563</v>
+        <v>542</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>574</v>
+        <v>553</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>573</v>
+        <v>552</v>
       </c>
       <c r="J4" s="49" t="s">
         <v>50</v>
@@ -5456,13 +5459,13 @@
         <v>169</v>
       </c>
       <c r="G5" s="50" t="s">
-        <v>577</v>
+        <v>556</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>576</v>
+        <v>555</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>575</v>
+        <v>554</v>
       </c>
       <c r="J5" s="49" t="s">
         <v>50</v>
@@ -5485,7 +5488,7 @@
         <v>169</v>
       </c>
       <c r="G6" s="50" t="s">
-        <v>567</v>
+        <v>546</v>
       </c>
       <c r="J6" s="49" t="s">
         <v>50</v>
@@ -5508,7 +5511,7 @@
         <v>84</v>
       </c>
       <c r="G7" s="50" t="s">
-        <v>563</v>
+        <v>542</v>
       </c>
       <c r="J7" s="49" t="s">
         <v>50</v>
@@ -5531,7 +5534,7 @@
         <v>84</v>
       </c>
       <c r="G8" s="50" t="s">
-        <v>423</v>
+        <v>402</v>
       </c>
       <c r="J8" s="49" t="s">
         <v>50</v>
@@ -5554,7 +5557,7 @@
         <v>169</v>
       </c>
       <c r="G9" s="50" t="s">
-        <v>567</v>
+        <v>546</v>
       </c>
       <c r="J9" s="49" t="s">
         <v>50</v>
@@ -5577,7 +5580,7 @@
         <v>84</v>
       </c>
       <c r="G10" s="50" t="s">
-        <v>563</v>
+        <v>542</v>
       </c>
       <c r="J10" s="49" t="s">
         <v>50</v>
@@ -5600,7 +5603,7 @@
         <v>92</v>
       </c>
       <c r="G11" s="50" t="s">
-        <v>568</v>
+        <v>547</v>
       </c>
       <c r="J11" s="49" t="s">
         <v>50</v>
@@ -5623,7 +5626,7 @@
         <v>84</v>
       </c>
       <c r="G12" s="50" t="s">
-        <v>563</v>
+        <v>542</v>
       </c>
       <c r="J12" s="49" t="s">
         <v>50</v>
@@ -5646,7 +5649,7 @@
         <v>84</v>
       </c>
       <c r="G13" s="51" t="s">
-        <v>560</v>
+        <v>539</v>
       </c>
       <c r="J13" s="46" t="s">
         <v>50</v>
@@ -5669,7 +5672,7 @@
         <v>84</v>
       </c>
       <c r="G14" s="51" t="s">
-        <v>560</v>
+        <v>539</v>
       </c>
       <c r="J14" s="46" t="s">
         <v>50</v>
@@ -5692,7 +5695,7 @@
         <v>169</v>
       </c>
       <c r="G15" s="50" t="s">
-        <v>568</v>
+        <v>547</v>
       </c>
       <c r="J15" s="49" t="s">
         <v>50</v>
@@ -5715,7 +5718,7 @@
         <v>169</v>
       </c>
       <c r="G16" s="50" t="s">
-        <v>568</v>
+        <v>547</v>
       </c>
       <c r="J16" s="49" t="s">
         <v>50</v>
@@ -5738,7 +5741,7 @@
         <v>84</v>
       </c>
       <c r="G17" s="50" t="s">
-        <v>563</v>
+        <v>542</v>
       </c>
       <c r="J17" s="49" t="s">
         <v>50</v>
@@ -5761,7 +5764,7 @@
         <v>84</v>
       </c>
       <c r="G18" s="50" t="s">
-        <v>563</v>
+        <v>542</v>
       </c>
       <c r="J18" s="49" t="s">
         <v>50</v>
@@ -5784,7 +5787,7 @@
         <v>84</v>
       </c>
       <c r="G19" s="50" t="s">
-        <v>563</v>
+        <v>542</v>
       </c>
       <c r="J19" s="49" t="s">
         <v>50</v>
@@ -5807,7 +5810,7 @@
         <v>84</v>
       </c>
       <c r="G20" s="50" t="s">
-        <v>563</v>
+        <v>542</v>
       </c>
       <c r="J20" s="49" t="s">
         <v>50</v>
@@ -5830,7 +5833,7 @@
         <v>122</v>
       </c>
       <c r="G21" s="50" t="s">
-        <v>563</v>
+        <v>542</v>
       </c>
       <c r="J21" s="49" t="s">
         <v>50</v>
@@ -5853,7 +5856,7 @@
         <v>122</v>
       </c>
       <c r="G22" s="50" t="s">
-        <v>563</v>
+        <v>542</v>
       </c>
       <c r="J22" s="49" t="s">
         <v>50</v>
@@ -5876,7 +5879,7 @@
         <v>122</v>
       </c>
       <c r="G23" s="50" t="s">
-        <v>522</v>
+        <v>501</v>
       </c>
       <c r="J23" s="49" t="s">
         <v>50</v>
@@ -5899,7 +5902,7 @@
         <v>169</v>
       </c>
       <c r="G24" s="50" t="s">
-        <v>569</v>
+        <v>548</v>
       </c>
       <c r="J24" s="49" t="s">
         <v>50</v>
@@ -5922,7 +5925,7 @@
         <v>137</v>
       </c>
       <c r="G25" s="51" t="s">
-        <v>409</v>
+        <v>388</v>
       </c>
       <c r="J25" s="46" t="s">
         <v>50</v>
@@ -5945,7 +5948,7 @@
         <v>169</v>
       </c>
       <c r="G26" s="50" t="s">
-        <v>569</v>
+        <v>548</v>
       </c>
       <c r="J26" s="49" t="s">
         <v>50</v>
@@ -5965,10 +5968,10 @@
         <v>141</v>
       </c>
       <c r="F27" s="46" t="s">
-        <v>562</v>
+        <v>541</v>
       </c>
       <c r="G27" s="51" t="s">
-        <v>560</v>
+        <v>539</v>
       </c>
       <c r="J27" s="46" t="s">
         <v>50</v>
@@ -5995,7 +5998,7 @@
         <v>58</v>
       </c>
       <c r="G29" s="51" t="s">
-        <v>560</v>
+        <v>539</v>
       </c>
       <c r="J29" s="46" t="s">
         <v>50</v>
@@ -6018,7 +6021,7 @@
         <v>85</v>
       </c>
       <c r="G30" s="51" t="s">
-        <v>560</v>
+        <v>539</v>
       </c>
       <c r="J30" s="46" t="s">
         <v>50</v>
@@ -6041,7 +6044,7 @@
         <v>169</v>
       </c>
       <c r="G31" s="50" t="s">
-        <v>563</v>
+        <v>542</v>
       </c>
       <c r="J31" s="49" t="s">
         <v>50</v>
@@ -6064,7 +6067,7 @@
         <v>169</v>
       </c>
       <c r="G32" s="50" t="s">
-        <v>567</v>
+        <v>546</v>
       </c>
       <c r="J32" s="49" t="s">
         <v>50</v>
@@ -6087,7 +6090,7 @@
         <v>84</v>
       </c>
       <c r="G33" s="50" t="s">
-        <v>567</v>
+        <v>546</v>
       </c>
       <c r="J33" s="49" t="s">
         <v>50</v>
@@ -6110,7 +6113,7 @@
         <v>84</v>
       </c>
       <c r="G34" s="50" t="s">
-        <v>563</v>
+        <v>542</v>
       </c>
       <c r="J34" s="49" t="s">
         <v>50</v>
@@ -6133,7 +6136,7 @@
         <v>169</v>
       </c>
       <c r="G35" s="50" t="s">
-        <v>423</v>
+        <v>402</v>
       </c>
       <c r="J35" s="49" t="s">
         <v>50</v>
@@ -6156,7 +6159,7 @@
         <v>84</v>
       </c>
       <c r="G36" s="50" t="s">
-        <v>567</v>
+        <v>546</v>
       </c>
       <c r="J36" s="49" t="s">
         <v>50</v>
@@ -6179,7 +6182,7 @@
         <v>92</v>
       </c>
       <c r="G37" s="50" t="s">
-        <v>563</v>
+        <v>542</v>
       </c>
       <c r="J37" s="49" t="s">
         <v>50</v>
@@ -6202,7 +6205,7 @@
         <v>84</v>
       </c>
       <c r="G38" s="50" t="s">
-        <v>568</v>
+        <v>547</v>
       </c>
       <c r="J38" s="49" t="s">
         <v>50</v>
@@ -6225,7 +6228,7 @@
         <v>84</v>
       </c>
       <c r="G39" s="50" t="s">
-        <v>563</v>
+        <v>542</v>
       </c>
       <c r="J39" s="49" t="s">
         <v>50</v>
@@ -6248,7 +6251,7 @@
         <v>84</v>
       </c>
       <c r="G40" s="51" t="s">
-        <v>560</v>
+        <v>539</v>
       </c>
       <c r="J40" s="46" t="s">
         <v>50</v>
@@ -6271,7 +6274,7 @@
         <v>169</v>
       </c>
       <c r="G41" s="51" t="s">
-        <v>560</v>
+        <v>539</v>
       </c>
       <c r="J41" s="46" t="s">
         <v>50</v>
@@ -6294,7 +6297,7 @@
         <v>168</v>
       </c>
       <c r="G42" s="50" t="s">
-        <v>568</v>
+        <v>547</v>
       </c>
       <c r="J42" s="49" t="s">
         <v>50</v>
@@ -6317,7 +6320,7 @@
         <v>84</v>
       </c>
       <c r="G43" s="50" t="s">
-        <v>568</v>
+        <v>547</v>
       </c>
       <c r="J43" s="49" t="s">
         <v>50</v>
@@ -6340,7 +6343,7 @@
         <v>84</v>
       </c>
       <c r="G44" s="50" t="s">
-        <v>563</v>
+        <v>542</v>
       </c>
       <c r="J44" s="49" t="s">
         <v>50</v>
@@ -6363,7 +6366,7 @@
         <v>84</v>
       </c>
       <c r="G45" s="50" t="s">
-        <v>563</v>
+        <v>542</v>
       </c>
       <c r="J45" s="49" t="s">
         <v>50</v>
@@ -6386,7 +6389,7 @@
         <v>84</v>
       </c>
       <c r="G46" s="50" t="s">
-        <v>563</v>
+        <v>542</v>
       </c>
       <c r="J46" s="49" t="s">
         <v>50</v>
@@ -6409,7 +6412,7 @@
         <v>122</v>
       </c>
       <c r="G47" s="50" t="s">
-        <v>563</v>
+        <v>542</v>
       </c>
       <c r="J47" s="49" t="s">
         <v>50</v>
@@ -6426,13 +6429,13 @@
         <v>16</v>
       </c>
       <c r="E48" s="49" t="s">
-        <v>565</v>
+        <v>544</v>
       </c>
       <c r="F48" s="49" t="s">
         <v>122</v>
       </c>
       <c r="G48" s="50" t="s">
-        <v>563</v>
+        <v>542</v>
       </c>
       <c r="J48" s="49" t="s">
         <v>50</v>
@@ -6449,13 +6452,13 @@
         <v>16</v>
       </c>
       <c r="E49" s="49" t="s">
-        <v>564</v>
+        <v>543</v>
       </c>
       <c r="F49" s="49" t="s">
         <v>122</v>
       </c>
       <c r="G49" s="50" t="s">
-        <v>563</v>
+        <v>542</v>
       </c>
       <c r="J49" s="49" t="s">
         <v>50</v>
@@ -6472,13 +6475,13 @@
         <v>16</v>
       </c>
       <c r="E50" s="49" t="s">
-        <v>566</v>
+        <v>545</v>
       </c>
       <c r="F50" s="49" t="s">
         <v>168</v>
       </c>
       <c r="G50" s="50" t="s">
-        <v>522</v>
+        <v>501</v>
       </c>
       <c r="J50" s="49" t="s">
         <v>50</v>
@@ -6501,7 +6504,7 @@
         <v>137</v>
       </c>
       <c r="G51" s="50" t="s">
-        <v>569</v>
+        <v>548</v>
       </c>
       <c r="J51" s="49" t="s">
         <v>50</v>
@@ -6524,7 +6527,7 @@
         <v>168</v>
       </c>
       <c r="G52" s="51" t="s">
-        <v>409</v>
+        <v>388</v>
       </c>
       <c r="J52" s="46" t="s">
         <v>50</v>
@@ -6547,7 +6550,7 @@
         <v>84</v>
       </c>
       <c r="G53" s="50" t="s">
-        <v>569</v>
+        <v>548</v>
       </c>
       <c r="J53" s="49" t="s">
         <v>50</v>
@@ -6573,7 +6576,7 @@
         <v>84</v>
       </c>
       <c r="G55" s="51" t="s">
-        <v>560</v>
+        <v>539</v>
       </c>
       <c r="J55" s="46" t="s">
         <v>50</v>
@@ -6581,22 +6584,22 @@
     </row>
     <row r="56" spans="1:10" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="46" t="s">
-        <v>527</v>
+        <v>506</v>
       </c>
       <c r="B56" s="46" t="s">
-        <v>528</v>
+        <v>507</v>
       </c>
       <c r="C56" s="51" t="s">
         <v>193</v>
       </c>
       <c r="E56" s="46" t="s">
-        <v>529</v>
+        <v>508</v>
       </c>
       <c r="F56" s="46" t="s">
-        <v>530</v>
+        <v>509</v>
       </c>
       <c r="G56" s="51" t="s">
-        <v>560</v>
+        <v>539</v>
       </c>
       <c r="J56" s="46" t="s">
         <v>50</v>
@@ -6687,7 +6690,7 @@
         <v>229</v>
       </c>
       <c r="I2" s="44" t="s">
-        <v>550</v>
+        <v>529</v>
       </c>
       <c r="J2" s="44" t="s">
         <v>50</v>
@@ -6716,7 +6719,7 @@
         <v>229</v>
       </c>
       <c r="I3" s="44" t="s">
-        <v>551</v>
+        <v>530</v>
       </c>
       <c r="J3" s="44" t="s">
         <v>50</v>
@@ -6745,7 +6748,7 @@
         <v>229</v>
       </c>
       <c r="I4" s="44" t="s">
-        <v>552</v>
+        <v>531</v>
       </c>
       <c r="J4" s="44" t="s">
         <v>50</v>
@@ -6771,7 +6774,7 @@
         <v>229</v>
       </c>
       <c r="I5" s="44" t="s">
-        <v>553</v>
+        <v>532</v>
       </c>
       <c r="J5" s="44" t="s">
         <v>50</v>
@@ -6797,7 +6800,7 @@
         <v>229</v>
       </c>
       <c r="I6" s="44" t="s">
-        <v>554</v>
+        <v>533</v>
       </c>
       <c r="J6" s="44" t="s">
         <v>50</v>
@@ -6817,13 +6820,13 @@
         <v>48</v>
       </c>
       <c r="F7" s="44" t="s">
-        <v>555</v>
+        <v>534</v>
       </c>
       <c r="G7" s="45" t="s">
         <v>229</v>
       </c>
       <c r="I7" s="44" t="s">
-        <v>556</v>
+        <v>535</v>
       </c>
       <c r="J7" s="44" t="s">
         <v>50</v>
@@ -6849,7 +6852,7 @@
         <v>229</v>
       </c>
       <c r="I8" s="44" t="s">
-        <v>557</v>
+        <v>536</v>
       </c>
       <c r="J8" s="44" t="s">
         <v>50</v>
@@ -6875,7 +6878,7 @@
         <v>229</v>
       </c>
       <c r="I9" s="44" t="s">
-        <v>557</v>
+        <v>536</v>
       </c>
       <c r="J9" s="44" t="s">
         <v>50</v>
@@ -6901,7 +6904,7 @@
         <v>229</v>
       </c>
       <c r="I10" s="44" t="s">
-        <v>557</v>
+        <v>536</v>
       </c>
       <c r="J10" s="44" t="s">
         <v>50</v>
@@ -6927,7 +6930,7 @@
         <v>229</v>
       </c>
       <c r="I11" s="44" t="s">
-        <v>557</v>
+        <v>536</v>
       </c>
       <c r="J11" s="44" t="s">
         <v>50</v>
@@ -6935,25 +6938,25 @@
     </row>
     <row r="12" spans="1:11" s="44" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="44" t="s">
-        <v>523</v>
+        <v>502</v>
       </c>
       <c r="B12" s="44" t="s">
-        <v>524</v>
+        <v>503</v>
       </c>
       <c r="C12" s="45" t="s">
-        <v>525</v>
+        <v>504</v>
       </c>
       <c r="E12" s="44" t="s">
-        <v>526</v>
+        <v>505</v>
       </c>
       <c r="F12" s="44" t="s">
-        <v>558</v>
+        <v>537</v>
       </c>
       <c r="G12" s="45" t="s">
         <v>229</v>
       </c>
       <c r="I12" s="44" t="s">
-        <v>559</v>
+        <v>538</v>
       </c>
       <c r="J12" s="44" t="s">
         <v>50</v>
@@ -7027,13 +7030,13 @@
         <v>196</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>339</v>
+        <v>321</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>333</v>
+        <v>315</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>224</v>
@@ -7056,13 +7059,13 @@
         <v>206</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>340</v>
+        <v>322</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>335</v>
+        <v>317</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>225</v>
@@ -7085,13 +7088,13 @@
         <v>207</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>341</v>
+        <v>323</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>334</v>
+        <v>316</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>233</v>
@@ -7114,13 +7117,13 @@
         <v>208</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>342</v>
+        <v>324</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>16</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>335</v>
+        <v>317</v>
       </c>
       <c r="E5" s="11" t="s">
         <v>234</v>
@@ -7135,7 +7138,7 @@
         <v>228</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>355</v>
+        <v>337</v>
       </c>
       <c r="J5" s="10" t="s">
         <v>221</v>
@@ -7146,13 +7149,13 @@
         <v>209</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>343</v>
+        <v>325</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>335</v>
+        <v>317</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>236</v>
@@ -7172,31 +7175,31 @@
     </row>
     <row r="7" spans="1:11" s="10" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
-        <v>337</v>
+        <v>319</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>344</v>
+        <v>326</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>16</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>335</v>
+        <v>317</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>306</v>
+        <v>288</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>307</v>
+        <v>289</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>308</v>
+        <v>290</v>
       </c>
       <c r="H7" s="10" t="s">
         <v>228</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>356</v>
+        <v>338</v>
       </c>
       <c r="J7" s="10" t="s">
         <v>221</v>
@@ -7207,22 +7210,22 @@
         <v>210</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>345</v>
+        <v>327</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>335</v>
+        <v>317</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>309</v>
+        <v>291</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>310</v>
+        <v>292</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>311</v>
+        <v>293</v>
       </c>
       <c r="H8" s="8" t="s">
         <v>229</v>
@@ -7237,22 +7240,22 @@
         <v>211</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>346</v>
+        <v>328</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>335</v>
+        <v>317</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>315</v>
+        <v>297</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>312</v>
+        <v>294</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="H10" s="8" t="s">
         <v>229</v>
@@ -7266,22 +7269,22 @@
         <v>212</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>360</v>
+        <v>342</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>335</v>
+        <v>317</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>314</v>
+        <v>296</v>
       </c>
       <c r="F11" s="8" t="s">
         <v>227</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>316</v>
+        <v>298</v>
       </c>
       <c r="H11" s="8" t="s">
         <v>229</v>
@@ -7295,22 +7298,22 @@
         <v>213</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>361</v>
+        <v>343</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>335</v>
+        <v>317</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>362</v>
+        <v>344</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>363</v>
+        <v>345</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>364</v>
+        <v>346</v>
       </c>
       <c r="H12" s="8" t="s">
         <v>229</v>
@@ -7321,31 +7324,31 @@
     </row>
     <row r="13" spans="1:11" s="10" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
-        <v>338</v>
+        <v>320</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>347</v>
+        <v>329</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>16</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>335</v>
+        <v>317</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>321</v>
+        <v>303</v>
       </c>
       <c r="F13" s="10" t="s">
         <v>198</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>317</v>
+        <v>299</v>
       </c>
       <c r="H13" s="10" t="s">
         <v>228</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>359</v>
+        <v>341</v>
       </c>
       <c r="J13" s="10" t="s">
         <v>221</v>
@@ -7356,22 +7359,22 @@
         <v>214</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>348</v>
+        <v>330</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>16</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>335</v>
+        <v>317</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>321</v>
+        <v>303</v>
       </c>
       <c r="F14" s="10" t="s">
         <v>199</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>317</v>
+        <v>299</v>
       </c>
       <c r="H14" s="10" t="s">
         <v>228</v>
@@ -7388,28 +7391,28 @@
         <v>215</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>349</v>
+        <v>331</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>16</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>335</v>
+        <v>317</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>321</v>
+        <v>303</v>
       </c>
       <c r="F15" s="10" t="s">
         <v>200</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>317</v>
+        <v>299</v>
       </c>
       <c r="H15" s="10" t="s">
         <v>228</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>357</v>
+        <v>339</v>
       </c>
       <c r="J15" s="10" t="s">
         <v>221</v>
@@ -7421,22 +7424,22 @@
         <v>216</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>350</v>
+        <v>332</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>335</v>
+        <v>317</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>318</v>
+        <v>300</v>
       </c>
       <c r="F17" s="8" t="s">
         <v>201</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>319</v>
+        <v>301</v>
       </c>
       <c r="H17" s="8" t="s">
         <v>229</v>
@@ -7450,28 +7453,28 @@
         <v>217</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>351</v>
+        <v>333</v>
       </c>
       <c r="C18" s="10" t="s">
         <v>16</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>335</v>
+        <v>317</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>320</v>
+        <v>302</v>
       </c>
       <c r="F18" s="10" t="s">
         <v>202</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>322</v>
+        <v>304</v>
       </c>
       <c r="H18" s="10" t="s">
         <v>228</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>358</v>
+        <v>340</v>
       </c>
       <c r="J18" s="10" t="s">
         <v>221</v>
@@ -7482,22 +7485,22 @@
         <v>218</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>352</v>
+        <v>334</v>
       </c>
       <c r="C19" s="10" t="s">
         <v>16</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>335</v>
+        <v>317</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>320</v>
+        <v>302</v>
       </c>
       <c r="F19" s="10" t="s">
         <v>203</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>323</v>
+        <v>305</v>
       </c>
       <c r="H19" s="10" t="s">
         <v>228</v>
@@ -7514,22 +7517,22 @@
         <v>219</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>353</v>
+        <v>335</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>335</v>
+        <v>317</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>324</v>
+        <v>306</v>
       </c>
       <c r="F20" s="8" t="s">
         <v>204</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>326</v>
+        <v>308</v>
       </c>
       <c r="H20" s="8" t="s">
         <v>229</v>
@@ -7543,22 +7546,22 @@
         <v>220</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>354</v>
+        <v>336</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>335</v>
+        <v>317</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>325</v>
+        <v>307</v>
       </c>
       <c r="F21" s="8" t="s">
         <v>205</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>326</v>
+        <v>308</v>
       </c>
       <c r="H21" s="8" t="s">
         <v>229</v>
@@ -7569,31 +7572,31 @@
     </row>
     <row r="22" spans="1:10" s="10" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
-        <v>531</v>
+        <v>510</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>532</v>
+        <v>511</v>
       </c>
       <c r="C22" s="10" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>335</v>
+        <v>317</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>533</v>
+        <v>512</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>534</v>
+        <v>513</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>535</v>
+        <v>514</v>
       </c>
       <c r="H22" s="10" t="s">
-        <v>536</v>
+        <v>515</v>
       </c>
       <c r="I22" s="10" t="s">
-        <v>537</v>
+        <v>516</v>
       </c>
       <c r="J22" s="10" t="s">
         <v>221</v>
@@ -7601,31 +7604,31 @@
     </row>
     <row r="23" spans="1:10" s="10" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
-        <v>538</v>
+        <v>517</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>539</v>
+        <v>518</v>
       </c>
       <c r="C23" s="10" t="s">
         <v>16</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>335</v>
+        <v>317</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>548</v>
+        <v>527</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>540</v>
+        <v>519</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>541</v>
+        <v>520</v>
       </c>
       <c r="H23" s="10" t="s">
-        <v>536</v>
+        <v>515</v>
       </c>
       <c r="I23" s="10" t="s">
-        <v>542</v>
+        <v>521</v>
       </c>
       <c r="J23" s="10" t="s">
         <v>221</v>
@@ -7633,31 +7636,31 @@
     </row>
     <row r="24" spans="1:10" s="10" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
-        <v>544</v>
+        <v>523</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>543</v>
+        <v>522</v>
       </c>
       <c r="C24" s="10" t="s">
         <v>16</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>335</v>
+        <v>317</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>545</v>
+        <v>524</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>546</v>
+        <v>525</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>547</v>
+        <v>526</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>536</v>
+        <v>515</v>
       </c>
       <c r="I24" s="10" t="s">
-        <v>549</v>
+        <v>528</v>
       </c>
       <c r="J24" s="10" t="s">
         <v>221</v>
@@ -7665,31 +7668,31 @@
     </row>
     <row r="25" spans="1:10" s="10" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
-        <v>578</v>
+        <v>557</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>579</v>
+        <v>558</v>
       </c>
       <c r="C25" s="10" t="s">
         <v>16</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>335</v>
+        <v>317</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>580</v>
+        <v>559</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>581</v>
+        <v>560</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>587</v>
+        <v>566</v>
       </c>
       <c r="H25" s="10" t="s">
-        <v>536</v>
+        <v>515</v>
       </c>
       <c r="I25" s="10" t="s">
-        <v>582</v>
+        <v>561</v>
       </c>
       <c r="J25" s="10" t="s">
         <v>221</v>
@@ -7697,31 +7700,31 @@
     </row>
     <row r="26" spans="1:10" s="10" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
-        <v>583</v>
+        <v>562</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>584</v>
+        <v>563</v>
       </c>
       <c r="C26" s="10" t="s">
         <v>16</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>335</v>
+        <v>317</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>585</v>
+        <v>564</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>586</v>
+        <v>565</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>587</v>
+        <v>566</v>
       </c>
       <c r="H26" s="10" t="s">
-        <v>536</v>
+        <v>515</v>
       </c>
       <c r="I26" s="10" t="s">
-        <v>588</v>
+        <v>567</v>
       </c>
       <c r="J26" s="10" t="s">
         <v>221</v>
@@ -7762,18 +7765,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>327</v>
+        <v>309</v>
       </c>
       <c r="B1" t="s">
-        <v>331</v>
+        <v>313</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>328</v>
+        <v>310</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>332</v>
+        <v>314</v>
       </c>
     </row>
     <row r="3" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -7781,15 +7784,15 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>329</v>
+        <v>311</v>
       </c>
       <c r="B4" t="s">
-        <v>336</v>
+        <v>318</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>330</v>
+        <v>312</v>
       </c>
       <c r="B5" s="18">
         <v>1234</v>

--- a/Testing/Test Cases/TAWA_TestCases.xlsx
+++ b/Testing/Test Cases/TAWA_TestCases.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1243" uniqueCount="606">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1244" uniqueCount="607">
   <si>
     <t>ID</t>
   </si>
@@ -1099,9 +1099,6 @@
     <t>TAWA_BOOKING_10</t>
   </si>
   <si>
-    <t>Error message shall appear saying that it's forbidden to enter any type of data but numbers in "flight number" field</t>
-  </si>
-  <si>
     <t>TAWA_BOOKING_11</t>
   </si>
   <si>
@@ -1147,10 +1144,6 @@
   <si>
     <t>Validate that user can not book a flight for more than
 4 seats</t>
-  </si>
-  <si>
-    <t>Error message shall appear saying
-that user can not book more than 4 seats</t>
   </si>
   <si>
     <t>TAWA_BOOKING_16</t>
@@ -2424,12 +2417,21 @@
 3) Click on "Book Flight" button
 4) Check the trip type options</t>
   </si>
+  <si>
+    <t>Page contains field</t>
+  </si>
+  <si>
+    <t>field cannot accept any data but number</t>
+  </si>
+  <si>
+    <t>Field cannot accept more than 4</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2472,8 +2474,22 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2516,6 +2532,16 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -2556,11 +2582,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -2697,11 +2725,22 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
+    <cellStyle name="Bad" xfId="3" builtinId="27"/>
+    <cellStyle name="Good" xfId="2" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -3163,22 +3202,22 @@
     </row>
     <row r="2" spans="1:13" ht="137.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="15" t="s">
+        <v>568</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>569</v>
+      </c>
+      <c r="F2" s="15" t="s">
         <v>570</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>571</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>572</v>
       </c>
       <c r="G2" s="14" t="s">
         <v>244</v>
@@ -3192,22 +3231,22 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C3" s="14" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="G3" s="14" t="s">
         <v>244</v>
@@ -3221,22 +3260,22 @@
     </row>
     <row r="4" spans="1:13" ht="122.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C4" s="14" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="G4" s="14" t="s">
         <v>244</v>
@@ -3250,22 +3289,22 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C5" s="14" t="s">
         <v>12</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="G5" s="14" t="s">
         <v>244</v>
@@ -3471,591 +3510,611 @@
   <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="F2" sqref="A1:L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.109375" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.6640625" style="16" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" style="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.33203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.77734375" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" style="16" customWidth="1"/>
+    <col min="4" max="4" width="20.21875" style="16" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.6640625" style="16" customWidth="1"/>
-    <col min="6" max="6" width="15.109375" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13" style="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.44140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31" style="16" customWidth="1"/>
+    <col min="7" max="7" width="10.44140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.109375" style="16" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.88671875" style="16" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.5546875" style="16" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17.5546875" style="16" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="25" style="16" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="59.77734375" style="16" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="25" style="16" bestFit="1" customWidth="1"/>
     <col min="14" max="16384" width="8.88671875" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:13" ht="42" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="K1" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="L1" s="4" t="s">
         <v>239</v>
       </c>
       <c r="M1" s="13"/>
     </row>
-    <row r="2" spans="1:13" ht="137.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="s">
+    <row r="2" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="52" t="s">
         <v>240</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="52" t="s">
         <v>241</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="53" t="s">
         <v>242</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="53" t="s">
+        <v>583</v>
+      </c>
+      <c r="F2" s="53" t="s">
+        <v>243</v>
+      </c>
+      <c r="G2" s="52" t="s">
+        <v>229</v>
+      </c>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52" t="s">
+        <v>604</v>
+      </c>
+      <c r="J2" s="52" t="s">
+        <v>245</v>
+      </c>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="52" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3" s="52" t="s">
+        <v>345</v>
+      </c>
+      <c r="C3" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="53" t="s">
+        <v>242</v>
+      </c>
+      <c r="E3" s="53" t="s">
         <v>585</v>
       </c>
-      <c r="F2" s="15" t="s">
-        <v>243</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>244</v>
-      </c>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14" t="s">
+      <c r="F3" s="53" t="s">
+        <v>346</v>
+      </c>
+      <c r="G3" s="52" t="s">
+        <v>229</v>
+      </c>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52" t="s">
         <v>245</v>
       </c>
-      <c r="K2" s="14"/>
-      <c r="L2" s="52" t="s">
+      <c r="K3" s="52"/>
+      <c r="L3" s="52"/>
+    </row>
+    <row r="4" spans="1:13" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="52" t="s">
+        <v>248</v>
+      </c>
+      <c r="B4" s="52" t="s">
+        <v>347</v>
+      </c>
+      <c r="C4" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="53" t="s">
+        <v>242</v>
+      </c>
+      <c r="E4" s="53" t="s">
         <v>586</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="14" t="s">
-        <v>246</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>347</v>
-      </c>
-      <c r="C3" s="14" t="s">
+      <c r="F4" s="53" t="s">
+        <v>247</v>
+      </c>
+      <c r="G4" s="52" t="s">
+        <v>229</v>
+      </c>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52" t="s">
+        <v>245</v>
+      </c>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+    </row>
+    <row r="5" spans="1:13" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="52" t="s">
+        <v>251</v>
+      </c>
+      <c r="B5" s="52" t="s">
+        <v>249</v>
+      </c>
+      <c r="C5" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D5" s="53" t="s">
         <v>242</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E5" s="53" t="s">
         <v>587</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F5" s="53" t="s">
+        <v>250</v>
+      </c>
+      <c r="G5" s="52" t="s">
+        <v>229</v>
+      </c>
+      <c r="H5" s="52"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="52" t="s">
+        <v>245</v>
+      </c>
+      <c r="K5" s="52"/>
+      <c r="L5" s="52"/>
+    </row>
+    <row r="6" spans="1:13" ht="144" x14ac:dyDescent="0.3">
+      <c r="A6" s="54" t="s">
+        <v>254</v>
+      </c>
+      <c r="B6" s="54" t="s">
+        <v>252</v>
+      </c>
+      <c r="C6" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="55" t="s">
+        <v>242</v>
+      </c>
+      <c r="E6" s="55" t="s">
+        <v>588</v>
+      </c>
+      <c r="F6" s="55" t="s">
+        <v>253</v>
+      </c>
+      <c r="G6" s="54" t="s">
+        <v>400</v>
+      </c>
+      <c r="H6" s="54"/>
+      <c r="I6" s="54"/>
+      <c r="J6" s="54" t="s">
+        <v>245</v>
+      </c>
+      <c r="K6" s="54"/>
+      <c r="L6" s="54"/>
+    </row>
+    <row r="7" spans="1:13" ht="144" x14ac:dyDescent="0.3">
+      <c r="A7" s="52" t="s">
+        <v>257</v>
+      </c>
+      <c r="B7" s="52" t="s">
+        <v>255</v>
+      </c>
+      <c r="C7" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="53" t="s">
+        <v>242</v>
+      </c>
+      <c r="E7" s="53" t="s">
+        <v>589</v>
+      </c>
+      <c r="F7" s="53" t="s">
+        <v>256</v>
+      </c>
+      <c r="G7" s="52" t="s">
+        <v>229</v>
+      </c>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52" t="s">
+        <v>245</v>
+      </c>
+      <c r="K7" s="52"/>
+      <c r="L7" s="52"/>
+    </row>
+    <row r="8" spans="1:13" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A8" s="52" t="s">
+        <v>260</v>
+      </c>
+      <c r="B8" s="52" t="s">
+        <v>258</v>
+      </c>
+      <c r="C8" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="53" t="s">
+        <v>242</v>
+      </c>
+      <c r="E8" s="53" t="s">
+        <v>590</v>
+      </c>
+      <c r="F8" s="53" t="s">
+        <v>259</v>
+      </c>
+      <c r="G8" s="52" t="s">
+        <v>229</v>
+      </c>
+      <c r="H8" s="52"/>
+      <c r="I8" s="52"/>
+      <c r="J8" s="52" t="s">
+        <v>245</v>
+      </c>
+      <c r="K8" s="52"/>
+      <c r="L8" s="52"/>
+    </row>
+    <row r="9" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="52" t="s">
+        <v>263</v>
+      </c>
+      <c r="B9" s="53" t="s">
+        <v>261</v>
+      </c>
+      <c r="C9" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="53" t="s">
+        <v>242</v>
+      </c>
+      <c r="E9" s="53" t="s">
+        <v>591</v>
+      </c>
+      <c r="F9" s="53" t="s">
+        <v>262</v>
+      </c>
+      <c r="G9" s="52" t="s">
+        <v>229</v>
+      </c>
+      <c r="H9" s="52"/>
+      <c r="I9" s="52"/>
+      <c r="J9" s="52" t="s">
+        <v>245</v>
+      </c>
+      <c r="K9" s="52"/>
+      <c r="L9" s="52"/>
+    </row>
+    <row r="10" spans="1:13" ht="144" x14ac:dyDescent="0.3">
+      <c r="A10" s="52" t="s">
+        <v>266</v>
+      </c>
+      <c r="B10" s="53" t="s">
+        <v>264</v>
+      </c>
+      <c r="C10" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="53" t="s">
+        <v>242</v>
+      </c>
+      <c r="E10" s="53" t="s">
+        <v>592</v>
+      </c>
+      <c r="F10" s="53" t="s">
+        <v>265</v>
+      </c>
+      <c r="G10" s="52" t="s">
+        <v>229</v>
+      </c>
+      <c r="H10" s="52"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="52" t="s">
+        <v>245</v>
+      </c>
+      <c r="K10" s="52"/>
+      <c r="L10" s="52"/>
+    </row>
+    <row r="11" spans="1:13" ht="144" x14ac:dyDescent="0.3">
+      <c r="A11" s="52" t="s">
+        <v>269</v>
+      </c>
+      <c r="B11" s="53" t="s">
+        <v>267</v>
+      </c>
+      <c r="C11" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="53" t="s">
+        <v>242</v>
+      </c>
+      <c r="E11" s="53" t="s">
+        <v>593</v>
+      </c>
+      <c r="F11" s="53" t="s">
+        <v>268</v>
+      </c>
+      <c r="G11" s="52" t="s">
+        <v>229</v>
+      </c>
+      <c r="H11" s="52"/>
+      <c r="I11" s="52"/>
+      <c r="J11" s="52" t="s">
+        <v>245</v>
+      </c>
+      <c r="K11" s="52"/>
+      <c r="L11" s="52"/>
+    </row>
+    <row r="12" spans="1:13" ht="144" x14ac:dyDescent="0.3">
+      <c r="A12" s="52" t="s">
+        <v>270</v>
+      </c>
+      <c r="B12" s="53" t="s">
+        <v>271</v>
+      </c>
+      <c r="C12" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="53" t="s">
+        <v>242</v>
+      </c>
+      <c r="E12" s="53" t="s">
+        <v>594</v>
+      </c>
+      <c r="F12" s="53" t="s">
+        <v>605</v>
+      </c>
+      <c r="G12" s="52" t="s">
+        <v>229</v>
+      </c>
+      <c r="H12" s="52"/>
+      <c r="I12" s="52"/>
+      <c r="J12" s="52" t="s">
+        <v>245</v>
+      </c>
+      <c r="K12" s="52"/>
+      <c r="L12" s="52"/>
+    </row>
+    <row r="13" spans="1:13" ht="144" x14ac:dyDescent="0.3">
+      <c r="A13" s="54" t="s">
+        <v>272</v>
+      </c>
+      <c r="B13" s="55" t="s">
+        <v>595</v>
+      </c>
+      <c r="C13" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="55" t="s">
+        <v>242</v>
+      </c>
+      <c r="E13" s="55" t="s">
+        <v>596</v>
+      </c>
+      <c r="F13" s="55" t="s">
+        <v>597</v>
+      </c>
+      <c r="G13" s="54" t="s">
+        <v>400</v>
+      </c>
+      <c r="H13" s="54"/>
+      <c r="I13" s="54"/>
+      <c r="J13" s="54" t="s">
+        <v>245</v>
+      </c>
+      <c r="K13" s="54"/>
+      <c r="L13" s="54"/>
+    </row>
+    <row r="14" spans="1:13" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A14" s="52" t="s">
+        <v>276</v>
+      </c>
+      <c r="B14" s="52" t="s">
+        <v>273</v>
+      </c>
+      <c r="C14" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="53" t="s">
+        <v>242</v>
+      </c>
+      <c r="E14" s="53" t="s">
+        <v>598</v>
+      </c>
+      <c r="F14" s="53" t="s">
+        <v>274</v>
+      </c>
+      <c r="G14" s="52" t="s">
+        <v>229</v>
+      </c>
+      <c r="H14" s="52"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="52" t="s">
+        <v>245</v>
+      </c>
+      <c r="K14" s="52"/>
+      <c r="L14" s="52" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A15" s="52" t="s">
+        <v>279</v>
+      </c>
+      <c r="B15" s="52" t="s">
+        <v>277</v>
+      </c>
+      <c r="C15" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="53" t="s">
+        <v>242</v>
+      </c>
+      <c r="E15" s="53" t="s">
+        <v>599</v>
+      </c>
+      <c r="F15" s="53" t="s">
+        <v>278</v>
+      </c>
+      <c r="G15" s="52" t="s">
+        <v>229</v>
+      </c>
+      <c r="H15" s="52"/>
+      <c r="I15" s="52"/>
+      <c r="J15" s="52" t="s">
+        <v>245</v>
+      </c>
+      <c r="K15" s="52"/>
+      <c r="L15" s="52"/>
+    </row>
+    <row r="16" spans="1:13" ht="144" x14ac:dyDescent="0.3">
+      <c r="A16" s="54" t="s">
+        <v>282</v>
+      </c>
+      <c r="B16" s="54" t="s">
+        <v>280</v>
+      </c>
+      <c r="C16" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="55" t="s">
+        <v>242</v>
+      </c>
+      <c r="E16" s="55" t="s">
+        <v>600</v>
+      </c>
+      <c r="F16" s="55" t="s">
+        <v>281</v>
+      </c>
+      <c r="G16" s="54" t="s">
+        <v>400</v>
+      </c>
+      <c r="H16" s="54"/>
+      <c r="I16" s="54"/>
+      <c r="J16" s="54" t="s">
+        <v>245</v>
+      </c>
+      <c r="K16" s="54"/>
+      <c r="L16" s="54"/>
+    </row>
+    <row r="17" spans="1:12" ht="144" x14ac:dyDescent="0.3">
+      <c r="A17" s="52" t="s">
+        <v>284</v>
+      </c>
+      <c r="B17" s="53" t="s">
+        <v>283</v>
+      </c>
+      <c r="C17" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="53" t="s">
+        <v>242</v>
+      </c>
+      <c r="E17" s="53" t="s">
+        <v>601</v>
+      </c>
+      <c r="F17" s="53" t="s">
+        <v>606</v>
+      </c>
+      <c r="G17" s="52" t="s">
+        <v>229</v>
+      </c>
+      <c r="H17" s="52"/>
+      <c r="I17" s="52"/>
+      <c r="J17" s="52" t="s">
+        <v>245</v>
+      </c>
+      <c r="K17" s="52"/>
+      <c r="L17" s="52"/>
+    </row>
+    <row r="18" spans="1:12" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="52" t="s">
         <v>348</v>
       </c>
-      <c r="G3" s="14" t="s">
-        <v>244</v>
-      </c>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14" t="s">
+      <c r="B18" s="53" t="s">
+        <v>349</v>
+      </c>
+      <c r="C18" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="53" t="s">
+        <v>242</v>
+      </c>
+      <c r="E18" s="53" t="s">
+        <v>602</v>
+      </c>
+      <c r="F18" s="53" t="s">
+        <v>285</v>
+      </c>
+      <c r="G18" s="52" t="s">
+        <v>229</v>
+      </c>
+      <c r="H18" s="52"/>
+      <c r="I18" s="52"/>
+      <c r="J18" s="52" t="s">
         <v>245</v>
       </c>
-      <c r="K3" s="14"/>
-    </row>
-    <row r="4" spans="1:13" ht="122.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="14" t="s">
-        <v>248</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>349</v>
-      </c>
-      <c r="C4" s="14" t="s">
+      <c r="K18" s="52"/>
+      <c r="L18" s="52"/>
+    </row>
+    <row r="19" spans="1:12" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A19" s="52" t="s">
+        <v>350</v>
+      </c>
+      <c r="B19" s="52" t="s">
+        <v>351</v>
+      </c>
+      <c r="C19" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D19" s="53" t="s">
         <v>242</v>
       </c>
-      <c r="E4" s="15" t="s">
-        <v>588</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>247</v>
-      </c>
-      <c r="G4" s="14" t="s">
-        <v>244</v>
-      </c>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14" t="s">
+      <c r="E19" s="53" t="s">
+        <v>603</v>
+      </c>
+      <c r="F19" s="53" t="s">
+        <v>352</v>
+      </c>
+      <c r="G19" s="52" t="s">
+        <v>229</v>
+      </c>
+      <c r="H19" s="52"/>
+      <c r="I19" s="52"/>
+      <c r="J19" s="52" t="s">
         <v>245</v>
       </c>
-      <c r="K4" s="14"/>
-    </row>
-    <row r="5" spans="1:13" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="14" t="s">
-        <v>251</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>249</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>242</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>589</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>250</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>244</v>
-      </c>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14" t="s">
-        <v>245</v>
-      </c>
-      <c r="K5" s="14"/>
-    </row>
-    <row r="6" spans="1:13" ht="144" x14ac:dyDescent="0.3">
-      <c r="A6" s="14" t="s">
-        <v>254</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>252</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>242</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>590</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>253</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>244</v>
-      </c>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14" t="s">
-        <v>245</v>
-      </c>
-      <c r="K6" s="14"/>
-    </row>
-    <row r="7" spans="1:13" ht="144" x14ac:dyDescent="0.3">
-      <c r="A7" s="14" t="s">
-        <v>257</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>255</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>242</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>591</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>256</v>
-      </c>
-      <c r="G7" s="14" t="s">
-        <v>244</v>
-      </c>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14" t="s">
-        <v>245</v>
-      </c>
-      <c r="K7" s="14"/>
-    </row>
-    <row r="8" spans="1:13" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A8" s="14" t="s">
-        <v>260</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>258</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>242</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>592</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>259</v>
-      </c>
-      <c r="G8" s="14" t="s">
-        <v>244</v>
-      </c>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14" t="s">
-        <v>245</v>
-      </c>
-      <c r="K8" s="14"/>
-    </row>
-    <row r="9" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A9" s="14" t="s">
-        <v>263</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>261</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>242</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>593</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>262</v>
-      </c>
-      <c r="G9" s="14" t="s">
-        <v>244</v>
-      </c>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14" t="s">
-        <v>245</v>
-      </c>
-      <c r="K9" s="14"/>
-    </row>
-    <row r="10" spans="1:13" ht="144" x14ac:dyDescent="0.3">
-      <c r="A10" s="14" t="s">
-        <v>266</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>264</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>242</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>594</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>265</v>
-      </c>
-      <c r="G10" s="14" t="s">
-        <v>244</v>
-      </c>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14" t="s">
-        <v>245</v>
-      </c>
-      <c r="K10" s="14"/>
-    </row>
-    <row r="11" spans="1:13" ht="144" x14ac:dyDescent="0.3">
-      <c r="A11" s="14" t="s">
-        <v>269</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>267</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>242</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>595</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>268</v>
-      </c>
-      <c r="G11" s="14" t="s">
-        <v>244</v>
-      </c>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14" t="s">
-        <v>245</v>
-      </c>
-      <c r="K11" s="14"/>
-    </row>
-    <row r="12" spans="1:13" ht="144" x14ac:dyDescent="0.3">
-      <c r="A12" s="14" t="s">
-        <v>271</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>272</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>242</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>596</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>270</v>
-      </c>
-      <c r="G12" s="14" t="s">
-        <v>244</v>
-      </c>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14" t="s">
-        <v>245</v>
-      </c>
-      <c r="K12" s="14"/>
-    </row>
-    <row r="13" spans="1:13" ht="144" x14ac:dyDescent="0.3">
-      <c r="A13" s="14" t="s">
-        <v>273</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>597</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>242</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>598</v>
-      </c>
-      <c r="F13" s="15" t="s">
-        <v>599</v>
-      </c>
-      <c r="G13" s="14" t="s">
-        <v>244</v>
-      </c>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14" t="s">
-        <v>245</v>
-      </c>
-      <c r="K13" s="14"/>
-    </row>
-    <row r="14" spans="1:13" ht="141" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="14" t="s">
-        <v>277</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>274</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>242</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>600</v>
-      </c>
-      <c r="F14" s="15" t="s">
-        <v>275</v>
-      </c>
-      <c r="G14" s="14" t="s">
-        <v>244</v>
-      </c>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14" t="s">
-        <v>245</v>
-      </c>
-      <c r="K14" s="14"/>
-      <c r="L14" s="16" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A15" s="14" t="s">
-        <v>280</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>278</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>242</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>601</v>
-      </c>
-      <c r="F15" s="15" t="s">
-        <v>279</v>
-      </c>
-      <c r="G15" s="14" t="s">
-        <v>244</v>
-      </c>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14" t="s">
-        <v>245</v>
-      </c>
-      <c r="K15" s="14"/>
-    </row>
-    <row r="16" spans="1:13" ht="144" x14ac:dyDescent="0.3">
-      <c r="A16" s="14" t="s">
-        <v>283</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>242</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>602</v>
-      </c>
-      <c r="F16" s="15" t="s">
-        <v>282</v>
-      </c>
-      <c r="G16" s="14" t="s">
-        <v>244</v>
-      </c>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14" t="s">
-        <v>245</v>
-      </c>
-      <c r="K16" s="14"/>
-    </row>
-    <row r="17" spans="1:11" ht="144" x14ac:dyDescent="0.3">
-      <c r="A17" s="14" t="s">
-        <v>286</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>284</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>242</v>
-      </c>
-      <c r="E17" s="15" t="s">
-        <v>603</v>
-      </c>
-      <c r="F17" s="15" t="s">
-        <v>285</v>
-      </c>
-      <c r="G17" s="14" t="s">
-        <v>244</v>
-      </c>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14" t="s">
-        <v>245</v>
-      </c>
-      <c r="K17" s="14"/>
-    </row>
-    <row r="18" spans="1:11" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="14" t="s">
-        <v>350</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>351</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>242</v>
-      </c>
-      <c r="E18" s="15" t="s">
-        <v>604</v>
-      </c>
-      <c r="F18" s="17" t="s">
-        <v>287</v>
-      </c>
-      <c r="G18" s="14" t="s">
-        <v>244</v>
-      </c>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A19" s="14" t="s">
-        <v>352</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>353</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>242</v>
-      </c>
-      <c r="E19" s="15" t="s">
-        <v>605</v>
-      </c>
-      <c r="F19" s="17" t="s">
-        <v>354</v>
-      </c>
-      <c r="G19" s="14" t="s">
-        <v>244</v>
-      </c>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14" t="s">
-        <v>245</v>
-      </c>
-      <c r="K19" s="14"/>
+      <c r="K19" s="52"/>
+      <c r="L19" s="52"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -4143,10 +4202,10 @@
         <v>21</v>
       </c>
       <c r="G2" s="51" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="I2" s="46" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="J2" s="46" t="s">
         <v>50</v>
@@ -4172,13 +4231,13 @@
         <v>20</v>
       </c>
       <c r="G3" s="50" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="J3" s="49" t="s">
         <v>50</v>
@@ -4256,22 +4315,22 @@
     </row>
     <row r="2" spans="1:13" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="15" t="s">
+        <v>355</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>356</v>
+      </c>
+      <c r="F2" s="15" t="s">
         <v>357</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>358</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>359</v>
       </c>
       <c r="G2" s="14" t="s">
         <v>244</v>
@@ -4286,22 +4345,22 @@
     </row>
     <row r="3" spans="1:13" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C3" s="14" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="15" t="s">
+        <v>360</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>361</v>
+      </c>
+      <c r="F3" s="14" t="s">
         <v>362</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>363</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>364</v>
       </c>
       <c r="G3" s="14" t="s">
         <v>244</v>
@@ -4316,22 +4375,22 @@
     </row>
     <row r="4" spans="1:13" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C4" s="14" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="G4" s="14" t="s">
         <v>244</v>
@@ -4346,22 +4405,22 @@
     </row>
     <row r="5" spans="1:13" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C5" s="14" t="s">
         <v>12</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G5" s="14" t="s">
         <v>244</v>
@@ -4376,22 +4435,22 @@
     </row>
     <row r="6" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C6" s="14" t="s">
         <v>12</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G6" s="14" t="s">
         <v>244</v>
@@ -4406,22 +4465,22 @@
     </row>
     <row r="7" spans="1:13" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C7" s="14" t="s">
         <v>12</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="G7" s="14" t="s">
         <v>244</v>
@@ -4436,22 +4495,22 @@
     </row>
     <row r="8" spans="1:13" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C8" s="14" t="s">
         <v>12</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="G8" s="14" t="s">
         <v>244</v>
@@ -4497,7 +4556,7 @@
   <sheetData>
     <row r="1" spans="1:14" s="36" customFormat="1" ht="21" x14ac:dyDescent="0.3">
       <c r="A1" s="23" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -4542,156 +4601,156 @@
     <row r="2" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A2" s="20"/>
       <c r="B2" s="20" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D2" s="21" t="s">
         <v>12</v>
       </c>
       <c r="E2" s="21"/>
       <c r="F2" s="22" t="s">
+        <v>383</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>384</v>
+      </c>
+      <c r="H2" s="23" t="s">
         <v>385</v>
-      </c>
-      <c r="G2" s="22" t="s">
-        <v>386</v>
-      </c>
-      <c r="H2" s="23" t="s">
-        <v>387</v>
       </c>
       <c r="I2" s="21"/>
       <c r="J2" s="21" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="K2" s="21"/>
       <c r="L2" s="21"/>
       <c r="M2" s="21" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="N2" s="20"/>
     </row>
     <row r="3" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="B3" s="20" t="s">
+        <v>388</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>389</v>
+      </c>
+      <c r="D3" s="21" t="s">
         <v>390</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>391</v>
-      </c>
-      <c r="D3" s="21" t="s">
-        <v>392</v>
       </c>
       <c r="E3" s="24"/>
       <c r="F3" s="22" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="23" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="I3" s="21"/>
       <c r="J3" s="21"/>
       <c r="K3" s="21"/>
       <c r="L3" s="21"/>
       <c r="M3" s="21" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="N3" s="5"/>
     </row>
     <row r="4" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="25" t="s">
+        <v>393</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>394</v>
+      </c>
+      <c r="C4" s="26" t="s">
         <v>395</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="D4" s="21" t="s">
         <v>396</v>
-      </c>
-      <c r="C4" s="26" t="s">
-        <v>397</v>
-      </c>
-      <c r="D4" s="21" t="s">
-        <v>398</v>
       </c>
       <c r="E4" s="24"/>
       <c r="F4" s="22" t="s">
+        <v>397</v>
+      </c>
+      <c r="G4" s="22" t="s">
+        <v>384</v>
+      </c>
+      <c r="H4" s="23" t="s">
+        <v>398</v>
+      </c>
+      <c r="I4" s="21" t="s">
         <v>399</v>
       </c>
-      <c r="G4" s="22" t="s">
-        <v>386</v>
-      </c>
-      <c r="H4" s="23" t="s">
+      <c r="J4" s="21" t="s">
         <v>400</v>
-      </c>
-      <c r="I4" s="21" t="s">
-        <v>401</v>
-      </c>
-      <c r="J4" s="21" t="s">
-        <v>402</v>
       </c>
       <c r="K4" s="21"/>
       <c r="L4" s="23" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="M4" s="21" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="N4" s="5"/>
     </row>
     <row r="5" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="25" t="s">
+        <v>402</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>403</v>
+      </c>
+      <c r="C5" s="27" t="s">
         <v>404</v>
       </c>
-      <c r="B5" s="20" t="s">
-        <v>405</v>
-      </c>
-      <c r="C5" s="27" t="s">
-        <v>406</v>
-      </c>
       <c r="D5" s="21" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E5" s="24"/>
       <c r="F5" s="22" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="G5" s="22"/>
       <c r="H5" s="21" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="I5" s="21"/>
       <c r="J5" s="21" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="K5" s="21"/>
       <c r="L5" s="23" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="M5" s="21" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="N5" s="5"/>
     </row>
     <row r="6" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A6" s="28" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="D6" s="31" t="s">
         <v>12</v>
       </c>
       <c r="E6" s="31" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F6" s="32" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="G6" s="32" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="H6" s="31"/>
       <c r="I6" s="31"/>
@@ -4699,299 +4758,299 @@
       <c r="K6" s="31"/>
       <c r="L6" s="31"/>
       <c r="M6" s="21" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="N6" s="33"/>
     </row>
     <row r="7" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="25" t="s">
+        <v>411</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>412</v>
+      </c>
+      <c r="C7" s="26" t="s">
         <v>413</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="D7" s="21" t="s">
+        <v>390</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>410</v>
+      </c>
+      <c r="F7" s="22" t="s">
         <v>414</v>
-      </c>
-      <c r="C7" s="26" t="s">
-        <v>415</v>
-      </c>
-      <c r="D7" s="21" t="s">
-        <v>392</v>
-      </c>
-      <c r="E7" s="24" t="s">
-        <v>412</v>
-      </c>
-      <c r="F7" s="22" t="s">
-        <v>416</v>
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="23" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="I7" s="21" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="J7" s="21" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="K7" s="21"/>
       <c r="L7" s="23" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="M7" s="21" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="N7" s="5"/>
     </row>
     <row r="8" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A8" s="25" t="s">
+        <v>417</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>418</v>
+      </c>
+      <c r="C8" s="26" t="s">
         <v>419</v>
       </c>
-      <c r="B8" s="20" t="s">
-        <v>420</v>
-      </c>
-      <c r="C8" s="26" t="s">
-        <v>421</v>
-      </c>
       <c r="D8" s="21" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="E8" s="24"/>
       <c r="F8" s="22" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G8" s="22" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="H8" s="23" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="I8" s="21"/>
       <c r="J8" s="21" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="K8" s="21"/>
       <c r="L8" s="23" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="M8" s="21" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="N8" s="5"/>
     </row>
     <row r="9" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A9" s="25" t="s">
+        <v>423</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>424</v>
+      </c>
+      <c r="C9" s="26" t="s">
         <v>425</v>
       </c>
-      <c r="B9" s="20" t="s">
-        <v>426</v>
-      </c>
-      <c r="C9" s="26" t="s">
-        <v>427</v>
-      </c>
       <c r="D9" s="21" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="E9" s="24"/>
       <c r="F9" s="22" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="G9" s="22" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="H9" s="23" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="I9" s="21"/>
       <c r="J9" s="21" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="K9" s="21"/>
       <c r="L9" s="21" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="M9" s="21" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="N9" s="5"/>
     </row>
     <row r="10" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="25" t="s">
+        <v>429</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>430</v>
+      </c>
+      <c r="C10" s="27" t="s">
         <v>431</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="D10" s="21" t="s">
+        <v>396</v>
+      </c>
+      <c r="E10" s="34" t="s">
         <v>432</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="F10" s="22" t="s">
         <v>433</v>
       </c>
-      <c r="D10" s="21" t="s">
-        <v>398</v>
-      </c>
-      <c r="E10" s="34" t="s">
+      <c r="G10" s="22" t="s">
+        <v>384</v>
+      </c>
+      <c r="H10" s="23" t="s">
         <v>434</v>
-      </c>
-      <c r="F10" s="22" t="s">
-        <v>435</v>
-      </c>
-      <c r="G10" s="22" t="s">
-        <v>386</v>
-      </c>
-      <c r="H10" s="23" t="s">
-        <v>436</v>
       </c>
       <c r="I10" s="21"/>
       <c r="J10" s="21" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="K10" s="21"/>
       <c r="L10" s="23" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="M10" s="21" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="N10" s="5"/>
     </row>
     <row r="11" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A11" s="25" t="s">
+        <v>436</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>437</v>
+      </c>
+      <c r="C11" s="26" t="s">
         <v>438</v>
       </c>
-      <c r="B11" s="20" t="s">
-        <v>439</v>
-      </c>
-      <c r="C11" s="26" t="s">
-        <v>440</v>
-      </c>
       <c r="D11" s="21" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="E11" s="24"/>
       <c r="F11" s="22" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G11" s="22" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="H11" s="23" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="I11" s="21"/>
       <c r="J11" s="21" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="K11" s="21"/>
       <c r="L11" s="21" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="M11" s="21" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="N11" s="5"/>
     </row>
     <row r="12" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="25" t="s">
+        <v>442</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>443</v>
+      </c>
+      <c r="C12" s="27" t="s">
         <v>444</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="D12" s="21" t="s">
+        <v>396</v>
+      </c>
+      <c r="E12" s="34" t="s">
         <v>445</v>
       </c>
-      <c r="C12" s="27" t="s">
+      <c r="F12" s="22" t="s">
         <v>446</v>
       </c>
-      <c r="D12" s="21" t="s">
-        <v>398</v>
-      </c>
-      <c r="E12" s="34" t="s">
+      <c r="G12" s="22" t="s">
+        <v>384</v>
+      </c>
+      <c r="H12" s="23" t="s">
         <v>447</v>
-      </c>
-      <c r="F12" s="22" t="s">
-        <v>448</v>
-      </c>
-      <c r="G12" s="22" t="s">
-        <v>386</v>
-      </c>
-      <c r="H12" s="23" t="s">
-        <v>449</v>
       </c>
       <c r="I12" s="21"/>
       <c r="J12" s="21" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="K12" s="21"/>
       <c r="L12" s="23" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="M12" s="21" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="N12" s="5"/>
     </row>
     <row r="13" spans="1:14" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="5"/>
       <c r="B13" s="20" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C13" s="27" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="E13" s="24"/>
       <c r="F13" s="22" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="G13" s="22" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="H13" s="23" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="I13" s="21"/>
       <c r="J13" s="21" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="K13" s="21"/>
       <c r="L13" s="23" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="M13" s="21" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="N13" s="5"/>
     </row>
     <row r="14" spans="1:14" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="35" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C14" s="27" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="E14" s="24"/>
       <c r="F14" s="22" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="G14" s="22" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="H14" s="23" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="I14" s="21"/>
       <c r="J14" s="21" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="K14" s="21"/>
       <c r="L14" s="23" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="M14" s="21" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="N14" s="5"/>
     </row>
@@ -5069,237 +5128,237 @@
     </row>
     <row r="2" spans="1:14" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="35" t="s">
+        <v>456</v>
+      </c>
+      <c r="B2" s="36" t="s">
+        <v>457</v>
+      </c>
+      <c r="C2" s="36" t="s">
         <v>458</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="D2" s="36" t="s">
         <v>459</v>
-      </c>
-      <c r="C2" s="36" t="s">
-        <v>460</v>
-      </c>
-      <c r="D2" s="36" t="s">
-        <v>461</v>
       </c>
       <c r="E2" s="36"/>
       <c r="F2" s="22" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="G2" s="14"/>
       <c r="H2" s="37" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="I2" s="36"/>
       <c r="J2" s="36" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="K2" s="36"/>
       <c r="L2" s="36" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="M2" s="36" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="N2" s="36"/>
     </row>
     <row r="3" spans="1:14" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="35" t="s">
+        <v>463</v>
+      </c>
+      <c r="B3" s="36" t="s">
+        <v>464</v>
+      </c>
+      <c r="C3" s="36" t="s">
         <v>465</v>
       </c>
-      <c r="B3" s="36" t="s">
-        <v>466</v>
-      </c>
-      <c r="C3" s="36" t="s">
-        <v>467</v>
-      </c>
       <c r="D3" s="36" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E3" s="36"/>
       <c r="F3" s="22" t="s">
+        <v>466</v>
+      </c>
+      <c r="H3" s="37" t="s">
+        <v>467</v>
+      </c>
+      <c r="J3" t="s">
+        <v>400</v>
+      </c>
+      <c r="L3" t="s">
         <v>468</v>
       </c>
-      <c r="H3" s="37" t="s">
-        <v>469</v>
-      </c>
-      <c r="J3" t="s">
-        <v>402</v>
-      </c>
-      <c r="L3" t="s">
-        <v>470</v>
-      </c>
       <c r="M3" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="35" t="s">
+        <v>469</v>
+      </c>
+      <c r="B4" s="36" t="s">
+        <v>470</v>
+      </c>
+      <c r="C4" s="36" t="s">
         <v>471</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="D4" s="36" t="s">
         <v>472</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="E4" s="36" t="s">
         <v>473</v>
       </c>
-      <c r="D4" s="36" t="s">
+      <c r="F4" s="22" t="s">
         <v>474</v>
       </c>
-      <c r="E4" s="36" t="s">
+      <c r="G4" s="23" t="s">
+        <v>384</v>
+      </c>
+      <c r="H4" s="37" t="s">
+        <v>461</v>
+      </c>
+      <c r="J4" t="s">
+        <v>400</v>
+      </c>
+      <c r="L4" t="s">
         <v>475</v>
       </c>
-      <c r="F4" s="22" t="s">
-        <v>476</v>
-      </c>
-      <c r="G4" s="23" t="s">
-        <v>386</v>
-      </c>
-      <c r="H4" s="37" t="s">
-        <v>463</v>
-      </c>
-      <c r="J4" t="s">
-        <v>402</v>
-      </c>
-      <c r="L4" t="s">
-        <v>477</v>
-      </c>
       <c r="M4" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="35" t="s">
+        <v>476</v>
+      </c>
+      <c r="B5" s="36" t="s">
+        <v>477</v>
+      </c>
+      <c r="C5" s="38" t="s">
         <v>478</v>
       </c>
-      <c r="B5" s="36" t="s">
+      <c r="D5" s="36" t="s">
+        <v>472</v>
+      </c>
+      <c r="E5" s="36" t="s">
+        <v>473</v>
+      </c>
+      <c r="F5" s="22" t="s">
         <v>479</v>
       </c>
-      <c r="C5" s="38" t="s">
+      <c r="G5" s="23" t="s">
+        <v>384</v>
+      </c>
+      <c r="H5" s="38" t="s">
         <v>480</v>
       </c>
-      <c r="D5" s="36" t="s">
-        <v>474</v>
-      </c>
-      <c r="E5" s="36" t="s">
-        <v>475</v>
-      </c>
-      <c r="F5" s="22" t="s">
+      <c r="J5" t="s">
+        <v>386</v>
+      </c>
+      <c r="L5" t="s">
         <v>481</v>
       </c>
-      <c r="G5" s="23" t="s">
-        <v>386</v>
-      </c>
-      <c r="H5" s="38" t="s">
-        <v>482</v>
-      </c>
-      <c r="J5" t="s">
-        <v>388</v>
-      </c>
-      <c r="L5" t="s">
-        <v>483</v>
-      </c>
       <c r="M5" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="35" t="s">
+        <v>482</v>
+      </c>
+      <c r="B6" s="36" t="s">
+        <v>483</v>
+      </c>
+      <c r="C6" s="39" t="s">
         <v>484</v>
       </c>
-      <c r="B6" s="36" t="s">
+      <c r="D6" s="36" t="s">
+        <v>472</v>
+      </c>
+      <c r="E6" s="36" t="s">
+        <v>473</v>
+      </c>
+      <c r="F6" s="22" t="s">
         <v>485</v>
       </c>
-      <c r="C6" s="39" t="s">
+      <c r="G6" s="23" t="s">
+        <v>384</v>
+      </c>
+      <c r="H6" s="38" t="s">
         <v>486</v>
       </c>
-      <c r="D6" s="36" t="s">
-        <v>474</v>
-      </c>
-      <c r="E6" s="36" t="s">
-        <v>475</v>
-      </c>
-      <c r="F6" s="22" t="s">
+      <c r="J6" t="s">
+        <v>386</v>
+      </c>
+      <c r="L6" t="s">
         <v>487</v>
       </c>
-      <c r="G6" s="23" t="s">
-        <v>386</v>
-      </c>
-      <c r="H6" s="38" t="s">
-        <v>488</v>
-      </c>
-      <c r="J6" t="s">
-        <v>388</v>
-      </c>
-      <c r="L6" t="s">
-        <v>489</v>
-      </c>
       <c r="M6" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="35" t="s">
+        <v>488</v>
+      </c>
+      <c r="B7" s="36" t="s">
+        <v>489</v>
+      </c>
+      <c r="C7" s="37" t="s">
         <v>490</v>
       </c>
-      <c r="B7" s="36" t="s">
+      <c r="D7" s="36" t="s">
+        <v>472</v>
+      </c>
+      <c r="E7" s="36" t="s">
+        <v>473</v>
+      </c>
+      <c r="F7" s="22" t="s">
         <v>491</v>
       </c>
-      <c r="C7" s="37" t="s">
+      <c r="G7" s="23" t="s">
+        <v>384</v>
+      </c>
+      <c r="H7" s="38" t="s">
         <v>492</v>
       </c>
-      <c r="D7" s="36" t="s">
-        <v>474</v>
-      </c>
-      <c r="E7" s="36" t="s">
-        <v>475</v>
-      </c>
-      <c r="F7" s="22" t="s">
-        <v>493</v>
-      </c>
-      <c r="G7" s="23" t="s">
+      <c r="J7" t="s">
         <v>386</v>
       </c>
-      <c r="H7" s="38" t="s">
-        <v>494</v>
-      </c>
-      <c r="J7" t="s">
-        <v>388</v>
-      </c>
       <c r="L7" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="M7" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A8" s="40"/>
       <c r="B8" s="41" t="s">
+        <v>493</v>
+      </c>
+      <c r="C8" s="42" t="s">
+        <v>494</v>
+      </c>
+      <c r="D8" s="41" t="s">
         <v>495</v>
-      </c>
-      <c r="C8" s="42" t="s">
-        <v>496</v>
-      </c>
-      <c r="D8" s="41" t="s">
-        <v>497</v>
       </c>
       <c r="E8" s="41"/>
       <c r="F8" s="32" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="G8" s="40"/>
       <c r="H8" s="42" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="I8" s="40"/>
       <c r="J8" s="40" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="K8" s="40"/>
       <c r="L8" s="40" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="M8" s="40" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="N8" s="40"/>
     </row>
@@ -5384,7 +5443,7 @@
         <v>75</v>
       </c>
       <c r="G2" s="51" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="J2" s="46" t="s">
         <v>50</v>
@@ -5407,7 +5466,7 @@
         <v>58</v>
       </c>
       <c r="G3" s="51" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="J3" s="46" t="s">
         <v>50</v>
@@ -5424,19 +5483,19 @@
         <v>12</v>
       </c>
       <c r="E4" s="49" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="F4" s="49" t="s">
         <v>85</v>
       </c>
       <c r="G4" s="50" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="J4" s="49" t="s">
         <v>50</v>
@@ -5459,13 +5518,13 @@
         <v>169</v>
       </c>
       <c r="G5" s="50" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="J5" s="49" t="s">
         <v>50</v>
@@ -5488,7 +5547,7 @@
         <v>169</v>
       </c>
       <c r="G6" s="50" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="J6" s="49" t="s">
         <v>50</v>
@@ -5511,7 +5570,7 @@
         <v>84</v>
       </c>
       <c r="G7" s="50" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="J7" s="49" t="s">
         <v>50</v>
@@ -5534,7 +5593,7 @@
         <v>84</v>
       </c>
       <c r="G8" s="50" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="J8" s="49" t="s">
         <v>50</v>
@@ -5557,7 +5616,7 @@
         <v>169</v>
       </c>
       <c r="G9" s="50" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="J9" s="49" t="s">
         <v>50</v>
@@ -5580,7 +5639,7 @@
         <v>84</v>
       </c>
       <c r="G10" s="50" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="J10" s="49" t="s">
         <v>50</v>
@@ -5603,7 +5662,7 @@
         <v>92</v>
       </c>
       <c r="G11" s="50" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="J11" s="49" t="s">
         <v>50</v>
@@ -5626,7 +5685,7 @@
         <v>84</v>
       </c>
       <c r="G12" s="50" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="J12" s="49" t="s">
         <v>50</v>
@@ -5649,7 +5708,7 @@
         <v>84</v>
       </c>
       <c r="G13" s="51" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="J13" s="46" t="s">
         <v>50</v>
@@ -5672,7 +5731,7 @@
         <v>84</v>
       </c>
       <c r="G14" s="51" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="J14" s="46" t="s">
         <v>50</v>
@@ -5695,7 +5754,7 @@
         <v>169</v>
       </c>
       <c r="G15" s="50" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="J15" s="49" t="s">
         <v>50</v>
@@ -5718,7 +5777,7 @@
         <v>169</v>
       </c>
       <c r="G16" s="50" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="J16" s="49" t="s">
         <v>50</v>
@@ -5741,7 +5800,7 @@
         <v>84</v>
       </c>
       <c r="G17" s="50" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="J17" s="49" t="s">
         <v>50</v>
@@ -5764,7 +5823,7 @@
         <v>84</v>
       </c>
       <c r="G18" s="50" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="J18" s="49" t="s">
         <v>50</v>
@@ -5787,7 +5846,7 @@
         <v>84</v>
       </c>
       <c r="G19" s="50" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="J19" s="49" t="s">
         <v>50</v>
@@ -5810,7 +5869,7 @@
         <v>84</v>
       </c>
       <c r="G20" s="50" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="J20" s="49" t="s">
         <v>50</v>
@@ -5833,7 +5892,7 @@
         <v>122</v>
       </c>
       <c r="G21" s="50" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="J21" s="49" t="s">
         <v>50</v>
@@ -5856,7 +5915,7 @@
         <v>122</v>
       </c>
       <c r="G22" s="50" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="J22" s="49" t="s">
         <v>50</v>
@@ -5879,7 +5938,7 @@
         <v>122</v>
       </c>
       <c r="G23" s="50" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="J23" s="49" t="s">
         <v>50</v>
@@ -5902,7 +5961,7 @@
         <v>169</v>
       </c>
       <c r="G24" s="50" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="J24" s="49" t="s">
         <v>50</v>
@@ -5925,7 +5984,7 @@
         <v>137</v>
       </c>
       <c r="G25" s="51" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="J25" s="46" t="s">
         <v>50</v>
@@ -5948,7 +6007,7 @@
         <v>169</v>
       </c>
       <c r="G26" s="50" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="J26" s="49" t="s">
         <v>50</v>
@@ -5968,10 +6027,10 @@
         <v>141</v>
       </c>
       <c r="F27" s="46" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="G27" s="51" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="J27" s="46" t="s">
         <v>50</v>
@@ -5998,7 +6057,7 @@
         <v>58</v>
       </c>
       <c r="G29" s="51" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="J29" s="46" t="s">
         <v>50</v>
@@ -6021,7 +6080,7 @@
         <v>85</v>
       </c>
       <c r="G30" s="51" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="J30" s="46" t="s">
         <v>50</v>
@@ -6044,7 +6103,7 @@
         <v>169</v>
       </c>
       <c r="G31" s="50" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="J31" s="49" t="s">
         <v>50</v>
@@ -6067,7 +6126,7 @@
         <v>169</v>
       </c>
       <c r="G32" s="50" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="J32" s="49" t="s">
         <v>50</v>
@@ -6090,7 +6149,7 @@
         <v>84</v>
       </c>
       <c r="G33" s="50" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="J33" s="49" t="s">
         <v>50</v>
@@ -6113,7 +6172,7 @@
         <v>84</v>
       </c>
       <c r="G34" s="50" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="J34" s="49" t="s">
         <v>50</v>
@@ -6136,7 +6195,7 @@
         <v>169</v>
       </c>
       <c r="G35" s="50" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="J35" s="49" t="s">
         <v>50</v>
@@ -6159,7 +6218,7 @@
         <v>84</v>
       </c>
       <c r="G36" s="50" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="J36" s="49" t="s">
         <v>50</v>
@@ -6182,7 +6241,7 @@
         <v>92</v>
       </c>
       <c r="G37" s="50" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="J37" s="49" t="s">
         <v>50</v>
@@ -6205,7 +6264,7 @@
         <v>84</v>
       </c>
       <c r="G38" s="50" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="J38" s="49" t="s">
         <v>50</v>
@@ -6228,7 +6287,7 @@
         <v>84</v>
       </c>
       <c r="G39" s="50" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="J39" s="49" t="s">
         <v>50</v>
@@ -6251,7 +6310,7 @@
         <v>84</v>
       </c>
       <c r="G40" s="51" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="J40" s="46" t="s">
         <v>50</v>
@@ -6274,7 +6333,7 @@
         <v>169</v>
       </c>
       <c r="G41" s="51" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="J41" s="46" t="s">
         <v>50</v>
@@ -6297,7 +6356,7 @@
         <v>168</v>
       </c>
       <c r="G42" s="50" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="J42" s="49" t="s">
         <v>50</v>
@@ -6320,7 +6379,7 @@
         <v>84</v>
       </c>
       <c r="G43" s="50" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="J43" s="49" t="s">
         <v>50</v>
@@ -6343,7 +6402,7 @@
         <v>84</v>
       </c>
       <c r="G44" s="50" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="J44" s="49" t="s">
         <v>50</v>
@@ -6366,7 +6425,7 @@
         <v>84</v>
       </c>
       <c r="G45" s="50" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="J45" s="49" t="s">
         <v>50</v>
@@ -6389,7 +6448,7 @@
         <v>84</v>
       </c>
       <c r="G46" s="50" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="J46" s="49" t="s">
         <v>50</v>
@@ -6412,7 +6471,7 @@
         <v>122</v>
       </c>
       <c r="G47" s="50" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="J47" s="49" t="s">
         <v>50</v>
@@ -6429,13 +6488,13 @@
         <v>16</v>
       </c>
       <c r="E48" s="49" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="F48" s="49" t="s">
         <v>122</v>
       </c>
       <c r="G48" s="50" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="J48" s="49" t="s">
         <v>50</v>
@@ -6452,13 +6511,13 @@
         <v>16</v>
       </c>
       <c r="E49" s="49" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="F49" s="49" t="s">
         <v>122</v>
       </c>
       <c r="G49" s="50" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="J49" s="49" t="s">
         <v>50</v>
@@ -6475,13 +6534,13 @@
         <v>16</v>
       </c>
       <c r="E50" s="49" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="F50" s="49" t="s">
         <v>168</v>
       </c>
       <c r="G50" s="50" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="J50" s="49" t="s">
         <v>50</v>
@@ -6504,7 +6563,7 @@
         <v>137</v>
       </c>
       <c r="G51" s="50" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="J51" s="49" t="s">
         <v>50</v>
@@ -6527,7 +6586,7 @@
         <v>168</v>
       </c>
       <c r="G52" s="51" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="J52" s="46" t="s">
         <v>50</v>
@@ -6550,7 +6609,7 @@
         <v>84</v>
       </c>
       <c r="G53" s="50" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="J53" s="49" t="s">
         <v>50</v>
@@ -6576,7 +6635,7 @@
         <v>84</v>
       </c>
       <c r="G55" s="51" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="J55" s="46" t="s">
         <v>50</v>
@@ -6584,22 +6643,22 @@
     </row>
     <row r="56" spans="1:10" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="46" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B56" s="46" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C56" s="51" t="s">
         <v>193</v>
       </c>
       <c r="E56" s="46" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="F56" s="46" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="G56" s="51" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="J56" s="46" t="s">
         <v>50</v>
@@ -6690,7 +6749,7 @@
         <v>229</v>
       </c>
       <c r="I2" s="44" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="J2" s="44" t="s">
         <v>50</v>
@@ -6719,7 +6778,7 @@
         <v>229</v>
       </c>
       <c r="I3" s="44" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="J3" s="44" t="s">
         <v>50</v>
@@ -6748,7 +6807,7 @@
         <v>229</v>
       </c>
       <c r="I4" s="44" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="J4" s="44" t="s">
         <v>50</v>
@@ -6774,7 +6833,7 @@
         <v>229</v>
       </c>
       <c r="I5" s="44" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="J5" s="44" t="s">
         <v>50</v>
@@ -6800,7 +6859,7 @@
         <v>229</v>
       </c>
       <c r="I6" s="44" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="J6" s="44" t="s">
         <v>50</v>
@@ -6820,13 +6879,13 @@
         <v>48</v>
       </c>
       <c r="F7" s="44" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="G7" s="45" t="s">
         <v>229</v>
       </c>
       <c r="I7" s="44" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="J7" s="44" t="s">
         <v>50</v>
@@ -6852,7 +6911,7 @@
         <v>229</v>
       </c>
       <c r="I8" s="44" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="J8" s="44" t="s">
         <v>50</v>
@@ -6878,7 +6937,7 @@
         <v>229</v>
       </c>
       <c r="I9" s="44" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="J9" s="44" t="s">
         <v>50</v>
@@ -6904,7 +6963,7 @@
         <v>229</v>
       </c>
       <c r="I10" s="44" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="J10" s="44" t="s">
         <v>50</v>
@@ -6930,7 +6989,7 @@
         <v>229</v>
       </c>
       <c r="I11" s="44" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="J11" s="44" t="s">
         <v>50</v>
@@ -6938,25 +6997,25 @@
     </row>
     <row r="12" spans="1:11" s="44" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="44" t="s">
+        <v>500</v>
+      </c>
+      <c r="B12" s="44" t="s">
+        <v>501</v>
+      </c>
+      <c r="C12" s="45" t="s">
         <v>502</v>
       </c>
-      <c r="B12" s="44" t="s">
+      <c r="E12" s="44" t="s">
         <v>503</v>
       </c>
-      <c r="C12" s="45" t="s">
-        <v>504</v>
-      </c>
-      <c r="E12" s="44" t="s">
-        <v>505</v>
-      </c>
       <c r="F12" s="44" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="G12" s="45" t="s">
         <v>229</v>
       </c>
       <c r="I12" s="44" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="J12" s="44" t="s">
         <v>50</v>
@@ -7030,13 +7089,13 @@
         <v>196</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>224</v>
@@ -7059,13 +7118,13 @@
         <v>206</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>225</v>
@@ -7088,13 +7147,13 @@
         <v>207</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>233</v>
@@ -7117,13 +7176,13 @@
         <v>208</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>16</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E5" s="11" t="s">
         <v>234</v>
@@ -7138,7 +7197,7 @@
         <v>228</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="J5" s="10" t="s">
         <v>221</v>
@@ -7149,13 +7208,13 @@
         <v>209</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>236</v>
@@ -7175,31 +7234,31 @@
     </row>
     <row r="7" spans="1:11" s="10" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>16</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E7" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="G7" s="10" t="s">
         <v>288</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>289</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>290</v>
       </c>
       <c r="H7" s="10" t="s">
         <v>228</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="J7" s="10" t="s">
         <v>221</v>
@@ -7210,22 +7269,22 @@
         <v>210</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E8" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="G8" s="8" t="s">
         <v>291</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>292</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>293</v>
       </c>
       <c r="H8" s="8" t="s">
         <v>229</v>
@@ -7240,22 +7299,22 @@
         <v>211</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="H10" s="8" t="s">
         <v>229</v>
@@ -7269,22 +7328,22 @@
         <v>212</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="F11" s="8" t="s">
         <v>227</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="H11" s="8" t="s">
         <v>229</v>
@@ -7298,22 +7357,22 @@
         <v>213</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E12" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="G12" s="8" t="s">
         <v>344</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>345</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>346</v>
       </c>
       <c r="H12" s="8" t="s">
         <v>229</v>
@@ -7324,31 +7383,31 @@
     </row>
     <row r="13" spans="1:11" s="10" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>16</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F13" s="10" t="s">
         <v>198</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="H13" s="10" t="s">
         <v>228</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="J13" s="10" t="s">
         <v>221</v>
@@ -7359,22 +7418,22 @@
         <v>214</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>16</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F14" s="10" t="s">
         <v>199</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="H14" s="10" t="s">
         <v>228</v>
@@ -7391,28 +7450,28 @@
         <v>215</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>16</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F15" s="10" t="s">
         <v>200</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="H15" s="10" t="s">
         <v>228</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J15" s="10" t="s">
         <v>221</v>
@@ -7424,22 +7483,22 @@
         <v>216</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F17" s="8" t="s">
         <v>201</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="H17" s="8" t="s">
         <v>229</v>
@@ -7453,28 +7512,28 @@
         <v>217</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C18" s="10" t="s">
         <v>16</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F18" s="10" t="s">
         <v>202</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H18" s="10" t="s">
         <v>228</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="J18" s="10" t="s">
         <v>221</v>
@@ -7485,22 +7544,22 @@
         <v>218</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C19" s="10" t="s">
         <v>16</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F19" s="10" t="s">
         <v>203</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="H19" s="10" t="s">
         <v>228</v>
@@ -7517,22 +7576,22 @@
         <v>219</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F20" s="8" t="s">
         <v>204</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="H20" s="8" t="s">
         <v>229</v>
@@ -7546,22 +7605,22 @@
         <v>220</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F21" s="8" t="s">
         <v>205</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="H21" s="8" t="s">
         <v>229</v>
@@ -7572,31 +7631,31 @@
     </row>
     <row r="22" spans="1:10" s="10" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C22" s="10" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E22" s="11" t="s">
+        <v>510</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>511</v>
+      </c>
+      <c r="G22" s="10" t="s">
         <v>512</v>
       </c>
-      <c r="F22" s="10" t="s">
+      <c r="H22" s="10" t="s">
         <v>513</v>
       </c>
-      <c r="G22" s="10" t="s">
+      <c r="I22" s="10" t="s">
         <v>514</v>
-      </c>
-      <c r="H22" s="10" t="s">
-        <v>515</v>
-      </c>
-      <c r="I22" s="10" t="s">
-        <v>516</v>
       </c>
       <c r="J22" s="10" t="s">
         <v>221</v>
@@ -7604,31 +7663,31 @@
     </row>
     <row r="23" spans="1:10" s="10" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C23" s="10" t="s">
         <v>16</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="F23" s="10" t="s">
+        <v>517</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>518</v>
+      </c>
+      <c r="H23" s="10" t="s">
+        <v>513</v>
+      </c>
+      <c r="I23" s="10" t="s">
         <v>519</v>
-      </c>
-      <c r="G23" s="10" t="s">
-        <v>520</v>
-      </c>
-      <c r="H23" s="10" t="s">
-        <v>515</v>
-      </c>
-      <c r="I23" s="10" t="s">
-        <v>521</v>
       </c>
       <c r="J23" s="10" t="s">
         <v>221</v>
@@ -7636,31 +7695,31 @@
     </row>
     <row r="24" spans="1:10" s="10" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="C24" s="10" t="s">
         <v>16</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E24" s="11" t="s">
+        <v>522</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>523</v>
+      </c>
+      <c r="G24" s="10" t="s">
         <v>524</v>
       </c>
-      <c r="F24" s="10" t="s">
-        <v>525</v>
-      </c>
-      <c r="G24" s="10" t="s">
+      <c r="H24" s="10" t="s">
+        <v>513</v>
+      </c>
+      <c r="I24" s="10" t="s">
         <v>526</v>
-      </c>
-      <c r="H24" s="10" t="s">
-        <v>515</v>
-      </c>
-      <c r="I24" s="10" t="s">
-        <v>528</v>
       </c>
       <c r="J24" s="10" t="s">
         <v>221</v>
@@ -7668,31 +7727,31 @@
     </row>
     <row r="25" spans="1:10" s="10" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C25" s="10" t="s">
         <v>16</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E25" s="11" t="s">
+        <v>557</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>558</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>564</v>
+      </c>
+      <c r="H25" s="10" t="s">
+        <v>513</v>
+      </c>
+      <c r="I25" s="10" t="s">
         <v>559</v>
-      </c>
-      <c r="F25" s="10" t="s">
-        <v>560</v>
-      </c>
-      <c r="G25" s="10" t="s">
-        <v>566</v>
-      </c>
-      <c r="H25" s="10" t="s">
-        <v>515</v>
-      </c>
-      <c r="I25" s="10" t="s">
-        <v>561</v>
       </c>
       <c r="J25" s="10" t="s">
         <v>221</v>
@@ -7700,31 +7759,31 @@
     </row>
     <row r="26" spans="1:10" s="10" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C26" s="10" t="s">
         <v>16</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E26" s="11" t="s">
+        <v>562</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>563</v>
+      </c>
+      <c r="G26" s="10" t="s">
         <v>564</v>
       </c>
-      <c r="F26" s="10" t="s">
+      <c r="H26" s="10" t="s">
+        <v>513</v>
+      </c>
+      <c r="I26" s="10" t="s">
         <v>565</v>
-      </c>
-      <c r="G26" s="10" t="s">
-        <v>566</v>
-      </c>
-      <c r="H26" s="10" t="s">
-        <v>515</v>
-      </c>
-      <c r="I26" s="10" t="s">
-        <v>567</v>
       </c>
       <c r="J26" s="10" t="s">
         <v>221</v>
@@ -7765,18 +7824,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="3" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -7784,15 +7843,15 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B4" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B5" s="18">
         <v>1234</v>

--- a/Testing/Test Cases/TAWA_TestCases.xlsx
+++ b/Testing/Test Cases/TAWA_TestCases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="ReservedTrips" sheetId="6" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1199" uniqueCount="595">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1270" uniqueCount="614">
   <si>
     <t>ID</t>
   </si>
@@ -2178,9 +2178,6 @@
     <t xml:space="preserve">buttons are exsisted </t>
   </si>
   <si>
-    <t>New</t>
-  </si>
-  <si>
     <t>TAWA_Login_011</t>
   </si>
   <si>
@@ -2343,15 +2340,6 @@
 6-Click on "SignUp" button.</t>
   </si>
   <si>
-    <t>Fail "Message"</t>
-  </si>
-  <si>
-    <t>Fail"message"</t>
-  </si>
-  <si>
-    <t>Fail"Message"</t>
-  </si>
-  <si>
     <t>Admin still in admin page after clicking on "log out" button instead of redirected to login page.</t>
   </si>
   <si>
@@ -2367,13 +2355,82 @@
     <t>Tawa-SignUp_Bug_012</t>
   </si>
   <si>
-    <t>The message doesn't appear and user redirected immediately to login page.</t>
-  </si>
-  <si>
     <t>Tawa-SignUp_Bug_013</t>
   </si>
   <si>
-    <t xml:space="preserve">Fail </t>
+    <t>User redirected successfully to Login page</t>
+  </si>
+  <si>
+    <t>An error message shall be appeared with"Please fill out this field" to the required field.</t>
+  </si>
+  <si>
+    <t>The message displayed to the user to its field.</t>
+  </si>
+  <si>
+    <t>User redirected successfully to login page</t>
+  </si>
+  <si>
+    <t>Full name field accepts any type of inputs instead of accepting characters and spaces only</t>
+  </si>
+  <si>
+    <t>User name field accepts spaces and redirects user to login page</t>
+  </si>
+  <si>
+    <t>An error message appears with "The data entered were invalid, Please re-enter your data"</t>
+  </si>
+  <si>
+    <t>An error message should appear restricted to email format with @ char.</t>
+  </si>
+  <si>
+    <t>An error message appear restricted to email format with @ char.</t>
+  </si>
+  <si>
+    <t>An error message should appear restricted to email fromat with "." char.</t>
+  </si>
+  <si>
+    <t>User redirected to Login Page without any error messages</t>
+  </si>
+  <si>
+    <t>User redirected to login page successfully</t>
+  </si>
+  <si>
+    <t>Password field is masked</t>
+  </si>
+  <si>
+    <t>An error message appear with the error of mis matching</t>
+  </si>
+  <si>
+    <t>Tawa-SignUp_Bug_001</t>
+  </si>
+  <si>
+    <t>Tawa-SignUp_Bug_002</t>
+  </si>
+  <si>
+    <t>Tawa-SignUp_Bug_003</t>
+  </si>
+  <si>
+    <t>Tawa-SignUp_Bug_004</t>
+  </si>
+  <si>
+    <t>Tawa-SignUp_Bug_005</t>
+  </si>
+  <si>
+    <t>Tawa-SignUp_Bug_006</t>
+  </si>
+  <si>
+    <t>Tawa-SignUp_Bug_007</t>
+  </si>
+  <si>
+    <t>Tawa-SignUp_Bug_008</t>
+  </si>
+  <si>
+    <t>Tawa-SignUp_Bug_009</t>
+  </si>
+  <si>
+    <t>Tawa-SignUp_Bug_010</t>
+  </si>
+  <si>
+    <t>Tawa-SignUp_Bug_011</t>
   </si>
 </sst>
 </file>
@@ -2511,7 +2568,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -2647,6 +2704,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2958,7 +3018,7 @@
   </sheetPr>
   <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
@@ -4074,8 +4134,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E2" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4146,7 +4207,10 @@
         <v>75</v>
       </c>
       <c r="G2" s="51" t="s">
-        <v>577</v>
+        <v>576</v>
+      </c>
+      <c r="I2" s="46" t="s">
+        <v>589</v>
       </c>
       <c r="J2" s="46" t="s">
         <v>50</v>
@@ -4166,10 +4230,13 @@
         <v>82</v>
       </c>
       <c r="F3" s="46" t="s">
-        <v>58</v>
+        <v>590</v>
       </c>
       <c r="G3" s="51" t="s">
-        <v>577</v>
+        <v>576</v>
+      </c>
+      <c r="I3" s="46" t="s">
+        <v>591</v>
       </c>
       <c r="J3" s="46" t="s">
         <v>50</v>
@@ -4186,73 +4253,74 @@
         <v>12</v>
       </c>
       <c r="E4" s="49" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="F4" s="49" t="s">
         <v>85</v>
       </c>
       <c r="G4" s="50" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>591</v>
+        <v>603</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="J4" s="49" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="49" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A5" s="49" t="s">
+    <row r="5" spans="1:11" s="46" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A5" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="49" t="s">
+      <c r="B5" s="46" t="s">
         <v>77</v>
       </c>
-      <c r="C5" s="50" t="s">
+      <c r="C5" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="49" t="s">
+      <c r="E5" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="F5" s="49" t="s">
-        <v>169</v>
-      </c>
-      <c r="G5" s="50" t="s">
-        <v>594</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>593</v>
-      </c>
-      <c r="I5" s="11" t="s">
+      <c r="F5" s="46" t="s">
+        <v>75</v>
+      </c>
+      <c r="G5" s="51" t="s">
+        <v>576</v>
+      </c>
+      <c r="H5" s="52"/>
+      <c r="I5" s="52" t="s">
         <v>592</v>
       </c>
-      <c r="J5" s="49" t="s">
+      <c r="J5" s="46" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="49" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A6" s="49" t="s">
+    <row r="6" spans="1:11" s="46" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A6" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="B6" s="49" t="s">
+      <c r="B6" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="C6" s="50" t="s">
+      <c r="C6" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="49" t="s">
+      <c r="E6" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="F6" s="49" t="s">
-        <v>169</v>
-      </c>
-      <c r="G6" s="50" t="s">
-        <v>584</v>
-      </c>
-      <c r="J6" s="49" t="s">
+      <c r="F6" s="46" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6" s="51" t="s">
+        <v>576</v>
+      </c>
+      <c r="I6" s="52" t="s">
+        <v>592</v>
+      </c>
+      <c r="J6" s="46" t="s">
         <v>50</v>
       </c>
     </row>
@@ -4273,7 +4341,13 @@
         <v>84</v>
       </c>
       <c r="G7" s="50" t="s">
-        <v>580</v>
+        <v>579</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>604</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>593</v>
       </c>
       <c r="J7" s="49" t="s">
         <v>50</v>
@@ -4298,30 +4372,39 @@
       <c r="G8" s="50" t="s">
         <v>440</v>
       </c>
+      <c r="H8" s="11" t="s">
+        <v>605</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>586</v>
+      </c>
       <c r="J8" s="49" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="49" customFormat="1" ht="105" x14ac:dyDescent="0.25">
-      <c r="A9" s="49" t="s">
+    <row r="9" spans="1:11" s="46" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A9" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="B9" s="49" t="s">
+      <c r="B9" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="C9" s="50" t="s">
+      <c r="C9" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="49" t="s">
+      <c r="E9" s="46" t="s">
         <v>88</v>
       </c>
-      <c r="F9" s="49" t="s">
-        <v>169</v>
-      </c>
-      <c r="G9" s="50" t="s">
-        <v>584</v>
-      </c>
-      <c r="J9" s="49" t="s">
+      <c r="F9" s="46" t="s">
+        <v>75</v>
+      </c>
+      <c r="G9" s="51" t="s">
+        <v>576</v>
+      </c>
+      <c r="I9" s="52" t="s">
+        <v>592</v>
+      </c>
+      <c r="J9" s="46" t="s">
         <v>50</v>
       </c>
     </row>
@@ -4342,32 +4425,41 @@
         <v>84</v>
       </c>
       <c r="G10" s="50" t="s">
-        <v>580</v>
+        <v>579</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>606</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>594</v>
       </c>
       <c r="J10" s="49" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="49" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A11" s="49" t="s">
+    <row r="11" spans="1:11" s="46" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A11" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="B11" s="49" t="s">
+      <c r="B11" s="46" t="s">
         <v>90</v>
       </c>
-      <c r="C11" s="50" t="s">
+      <c r="C11" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="49" t="s">
+      <c r="E11" s="46" t="s">
         <v>91</v>
       </c>
-      <c r="F11" s="49" t="s">
-        <v>92</v>
-      </c>
-      <c r="G11" s="50" t="s">
-        <v>585</v>
-      </c>
-      <c r="J11" s="49" t="s">
+      <c r="F11" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="G11" s="51" t="s">
+        <v>576</v>
+      </c>
+      <c r="I11" s="46" t="s">
+        <v>595</v>
+      </c>
+      <c r="J11" s="46" t="s">
         <v>50</v>
       </c>
     </row>
@@ -4388,7 +4480,13 @@
         <v>84</v>
       </c>
       <c r="G12" s="50" t="s">
-        <v>580</v>
+        <v>579</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>607</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>586</v>
       </c>
       <c r="J12" s="49" t="s">
         <v>50</v>
@@ -4408,81 +4506,96 @@
         <v>102</v>
       </c>
       <c r="F13" s="46" t="s">
-        <v>84</v>
+        <v>596</v>
       </c>
       <c r="G13" s="51" t="s">
-        <v>577</v>
+        <v>576</v>
+      </c>
+      <c r="I13" s="46" t="s">
+        <v>597</v>
       </c>
       <c r="J13" s="46" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="46" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A14" s="46" t="s">
+    <row r="14" spans="1:11" s="49" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A14" s="49" t="s">
         <v>94</v>
       </c>
-      <c r="B14" s="46" t="s">
+      <c r="B14" s="49" t="s">
         <v>103</v>
       </c>
-      <c r="C14" s="51" t="s">
+      <c r="C14" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="46" t="s">
+      <c r="E14" s="49" t="s">
         <v>104</v>
       </c>
-      <c r="F14" s="46" t="s">
-        <v>84</v>
-      </c>
-      <c r="G14" s="51" t="s">
-        <v>577</v>
-      </c>
-      <c r="J14" s="46" t="s">
+      <c r="F14" s="49" t="s">
+        <v>598</v>
+      </c>
+      <c r="G14" s="50" t="s">
+        <v>579</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>608</v>
+      </c>
+      <c r="I14" s="49" t="s">
+        <v>599</v>
+      </c>
+      <c r="J14" s="49" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:11" s="49" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A15" s="49" t="s">
+    <row r="15" spans="1:11" s="46" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A15" s="46" t="s">
         <v>95</v>
       </c>
-      <c r="B15" s="49" t="s">
+      <c r="B15" s="46" t="s">
         <v>118</v>
       </c>
-      <c r="C15" s="50" t="s">
+      <c r="C15" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="49" t="s">
+      <c r="E15" s="46" t="s">
         <v>105</v>
       </c>
-      <c r="F15" s="49" t="s">
-        <v>169</v>
-      </c>
-      <c r="G15" s="50" t="s">
-        <v>585</v>
-      </c>
-      <c r="J15" s="49" t="s">
+      <c r="F15" s="46" t="s">
+        <v>75</v>
+      </c>
+      <c r="G15" s="51" t="s">
+        <v>576</v>
+      </c>
+      <c r="I15" s="46" t="s">
+        <v>600</v>
+      </c>
+      <c r="J15" s="46" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:11" s="49" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A16" s="49" t="s">
+    <row r="16" spans="1:11" s="46" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A16" s="46" t="s">
         <v>96</v>
       </c>
-      <c r="B16" s="49" t="s">
+      <c r="B16" s="46" t="s">
         <v>117</v>
       </c>
-      <c r="C16" s="50" t="s">
+      <c r="C16" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="49" t="s">
+      <c r="E16" s="46" t="s">
         <v>108</v>
       </c>
-      <c r="F16" s="49" t="s">
-        <v>169</v>
-      </c>
-      <c r="G16" s="50" t="s">
-        <v>585</v>
-      </c>
-      <c r="J16" s="49" t="s">
+      <c r="F16" s="46" t="s">
+        <v>75</v>
+      </c>
+      <c r="G16" s="51" t="s">
+        <v>576</v>
+      </c>
+      <c r="I16" s="46" t="s">
+        <v>600</v>
+      </c>
+      <c r="J16" s="46" t="s">
         <v>50</v>
       </c>
     </row>
@@ -4503,7 +4616,13 @@
         <v>84</v>
       </c>
       <c r="G17" s="50" t="s">
-        <v>580</v>
+        <v>579</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>609</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>586</v>
       </c>
       <c r="J17" s="49" t="s">
         <v>50</v>
@@ -4526,7 +4645,10 @@
         <v>84</v>
       </c>
       <c r="G18" s="50" t="s">
-        <v>580</v>
+        <v>579</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>610</v>
       </c>
       <c r="J18" s="49" t="s">
         <v>50</v>
@@ -4549,7 +4671,13 @@
         <v>84</v>
       </c>
       <c r="G19" s="50" t="s">
-        <v>580</v>
+        <v>579</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>611</v>
+      </c>
+      <c r="I19" s="11" t="s">
+        <v>586</v>
       </c>
       <c r="J19" s="49" t="s">
         <v>50</v>
@@ -4572,7 +4700,13 @@
         <v>84</v>
       </c>
       <c r="G20" s="50" t="s">
-        <v>580</v>
+        <v>579</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>612</v>
+      </c>
+      <c r="I20" s="11" t="s">
+        <v>586</v>
       </c>
       <c r="J20" s="49" t="s">
         <v>50</v>
@@ -4595,7 +4729,13 @@
         <v>122</v>
       </c>
       <c r="G21" s="50" t="s">
-        <v>580</v>
+        <v>579</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>613</v>
+      </c>
+      <c r="I21" s="11" t="s">
+        <v>586</v>
       </c>
       <c r="J21" s="49" t="s">
         <v>50</v>
@@ -4618,7 +4758,13 @@
         <v>122</v>
       </c>
       <c r="G22" s="50" t="s">
-        <v>580</v>
+        <v>579</v>
+      </c>
+      <c r="H22" s="11" t="s">
+        <v>587</v>
+      </c>
+      <c r="I22" s="11" t="s">
+        <v>586</v>
       </c>
       <c r="J22" s="49" t="s">
         <v>50</v>
@@ -4641,32 +4787,41 @@
         <v>122</v>
       </c>
       <c r="G23" s="50" t="s">
-        <v>539</v>
+        <v>579</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>588</v>
+      </c>
+      <c r="I23" s="11" t="s">
+        <v>586</v>
       </c>
       <c r="J23" s="49" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:10" s="49" customFormat="1" ht="105" x14ac:dyDescent="0.25">
-      <c r="A24" s="49" t="s">
+    <row r="24" spans="1:10" s="46" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A24" s="46" t="s">
         <v>132</v>
       </c>
-      <c r="B24" s="49" t="s">
+      <c r="B24" s="46" t="s">
         <v>127</v>
       </c>
-      <c r="C24" s="50" t="s">
+      <c r="C24" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="E24" s="49" t="s">
+      <c r="E24" s="46" t="s">
         <v>128</v>
       </c>
-      <c r="F24" s="49" t="s">
-        <v>169</v>
-      </c>
-      <c r="G24" s="50" t="s">
-        <v>586</v>
-      </c>
-      <c r="J24" s="49" t="s">
+      <c r="F24" s="46" t="s">
+        <v>75</v>
+      </c>
+      <c r="G24" s="51" t="s">
+        <v>426</v>
+      </c>
+      <c r="I24" s="46" t="s">
+        <v>600</v>
+      </c>
+      <c r="J24" s="46" t="s">
         <v>50</v>
       </c>
     </row>
@@ -4689,30 +4844,36 @@
       <c r="G25" s="51" t="s">
         <v>426</v>
       </c>
+      <c r="I25" s="46" t="s">
+        <v>601</v>
+      </c>
       <c r="J25" s="46" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:10" s="49" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A26" s="49" t="s">
+    <row r="26" spans="1:10" s="46" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A26" s="46" t="s">
         <v>134</v>
       </c>
-      <c r="B26" s="49" t="s">
+      <c r="B26" s="46" t="s">
         <v>138</v>
       </c>
-      <c r="C26" s="50" t="s">
+      <c r="C26" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="E26" s="49" t="s">
+      <c r="E26" s="46" t="s">
         <v>140</v>
       </c>
-      <c r="F26" s="49" t="s">
-        <v>169</v>
-      </c>
-      <c r="G26" s="50" t="s">
-        <v>586</v>
-      </c>
-      <c r="J26" s="49" t="s">
+      <c r="F26" s="46" t="s">
+        <v>137</v>
+      </c>
+      <c r="G26" s="51" t="s">
+        <v>426</v>
+      </c>
+      <c r="I26" s="46" t="s">
+        <v>600</v>
+      </c>
+      <c r="J26" s="46" t="s">
         <v>50</v>
       </c>
     </row>
@@ -4730,10 +4891,13 @@
         <v>141</v>
       </c>
       <c r="F27" s="46" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="G27" s="51" t="s">
-        <v>577</v>
+        <v>576</v>
+      </c>
+      <c r="I27" s="46" t="s">
+        <v>602</v>
       </c>
       <c r="J27" s="46" t="s">
         <v>50</v>
@@ -4760,78 +4924,94 @@
         <v>58</v>
       </c>
       <c r="G29" s="51" t="s">
-        <v>577</v>
+        <v>576</v>
+      </c>
+      <c r="I29" s="46" t="s">
+        <v>591</v>
       </c>
       <c r="J29" s="46" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:10" s="46" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A30" s="46" t="s">
+    <row r="30" spans="1:10" s="49" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A30" s="49" t="s">
         <v>144</v>
       </c>
-      <c r="B30" s="46" t="s">
+      <c r="B30" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="C30" s="51" t="s">
+      <c r="C30" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="E30" s="46" t="s">
+      <c r="E30" s="49" t="s">
         <v>171</v>
       </c>
-      <c r="F30" s="46" t="s">
+      <c r="F30" s="49" t="s">
         <v>85</v>
       </c>
-      <c r="G30" s="51" t="s">
-        <v>577</v>
-      </c>
-      <c r="J30" s="46" t="s">
+      <c r="G30" s="50" t="s">
+        <v>579</v>
+      </c>
+      <c r="H30" s="11" t="s">
+        <v>603</v>
+      </c>
+      <c r="I30" s="11" t="s">
+        <v>586</v>
+      </c>
+      <c r="J30" s="49" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:10" s="49" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A31" s="49" t="s">
+    <row r="31" spans="1:10" s="46" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A31" s="46" t="s">
         <v>145</v>
       </c>
-      <c r="B31" s="49" t="s">
+      <c r="B31" s="46" t="s">
         <v>77</v>
       </c>
-      <c r="C31" s="50" t="s">
+      <c r="C31" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="E31" s="49" t="s">
+      <c r="E31" s="46" t="s">
         <v>172</v>
       </c>
-      <c r="F31" s="49" t="s">
+      <c r="F31" s="46" t="s">
         <v>169</v>
       </c>
-      <c r="G31" s="50" t="s">
-        <v>580</v>
-      </c>
-      <c r="J31" s="49" t="s">
+      <c r="G31" s="51" t="s">
+        <v>576</v>
+      </c>
+      <c r="H31" s="52"/>
+      <c r="I31" s="52" t="s">
+        <v>592</v>
+      </c>
+      <c r="J31" s="46" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:10" s="49" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A32" s="49" t="s">
+    <row r="32" spans="1:10" s="46" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A32" s="46" t="s">
         <v>146</v>
       </c>
-      <c r="B32" s="49" t="s">
+      <c r="B32" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="C32" s="50" t="s">
+      <c r="C32" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="E32" s="49" t="s">
+      <c r="E32" s="46" t="s">
         <v>173</v>
       </c>
-      <c r="F32" s="49" t="s">
+      <c r="F32" s="46" t="s">
         <v>169</v>
       </c>
-      <c r="G32" s="50" t="s">
-        <v>584</v>
-      </c>
-      <c r="J32" s="49" t="s">
+      <c r="G32" s="51" t="s">
+        <v>576</v>
+      </c>
+      <c r="I32" s="52" t="s">
+        <v>592</v>
+      </c>
+      <c r="J32" s="46" t="s">
         <v>50</v>
       </c>
     </row>
@@ -4852,7 +5032,13 @@
         <v>84</v>
       </c>
       <c r="G33" s="50" t="s">
-        <v>584</v>
+        <v>579</v>
+      </c>
+      <c r="H33" s="11" t="s">
+        <v>604</v>
+      </c>
+      <c r="I33" s="11" t="s">
+        <v>593</v>
       </c>
       <c r="J33" s="49" t="s">
         <v>50</v>
@@ -4875,32 +5061,41 @@
         <v>84</v>
       </c>
       <c r="G34" s="50" t="s">
-        <v>580</v>
+        <v>440</v>
+      </c>
+      <c r="H34" s="11" t="s">
+        <v>605</v>
+      </c>
+      <c r="I34" s="11" t="s">
+        <v>586</v>
       </c>
       <c r="J34" s="49" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="1:10" s="49" customFormat="1" ht="105" x14ac:dyDescent="0.25">
-      <c r="A35" s="49" t="s">
+    <row r="35" spans="1:10" s="46" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A35" s="46" t="s">
         <v>149</v>
       </c>
-      <c r="B35" s="49" t="s">
+      <c r="B35" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="C35" s="50" t="s">
+      <c r="C35" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="E35" s="49" t="s">
+      <c r="E35" s="46" t="s">
         <v>176</v>
       </c>
-      <c r="F35" s="49" t="s">
+      <c r="F35" s="46" t="s">
         <v>169</v>
       </c>
-      <c r="G35" s="50" t="s">
-        <v>440</v>
-      </c>
-      <c r="J35" s="49" t="s">
+      <c r="G35" s="51" t="s">
+        <v>576</v>
+      </c>
+      <c r="I35" s="52" t="s">
+        <v>592</v>
+      </c>
+      <c r="J35" s="46" t="s">
         <v>50</v>
       </c>
     </row>
@@ -4921,32 +5116,41 @@
         <v>84</v>
       </c>
       <c r="G36" s="50" t="s">
-        <v>584</v>
+        <v>579</v>
+      </c>
+      <c r="H36" s="11" t="s">
+        <v>606</v>
+      </c>
+      <c r="I36" s="11" t="s">
+        <v>594</v>
       </c>
       <c r="J36" s="49" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="37" spans="1:10" s="49" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A37" s="49" t="s">
+    <row r="37" spans="1:10" s="46" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A37" s="46" t="s">
         <v>151</v>
       </c>
-      <c r="B37" s="49" t="s">
+      <c r="B37" s="46" t="s">
         <v>90</v>
       </c>
-      <c r="C37" s="50" t="s">
+      <c r="C37" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="E37" s="49" t="s">
+      <c r="E37" s="46" t="s">
         <v>177</v>
       </c>
-      <c r="F37" s="49" t="s">
+      <c r="F37" s="46" t="s">
         <v>92</v>
       </c>
-      <c r="G37" s="50" t="s">
-        <v>580</v>
-      </c>
-      <c r="J37" s="49" t="s">
+      <c r="G37" s="51" t="s">
+        <v>576</v>
+      </c>
+      <c r="I37" s="46" t="s">
+        <v>595</v>
+      </c>
+      <c r="J37" s="46" t="s">
         <v>50</v>
       </c>
     </row>
@@ -4967,55 +5171,70 @@
         <v>84</v>
       </c>
       <c r="G38" s="50" t="s">
-        <v>585</v>
+        <v>579</v>
+      </c>
+      <c r="H38" s="11" t="s">
+        <v>607</v>
+      </c>
+      <c r="I38" s="11" t="s">
+        <v>586</v>
       </c>
       <c r="J38" s="49" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="39" spans="1:10" s="49" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A39" s="49" t="s">
+    <row r="39" spans="1:10" s="46" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A39" s="46" t="s">
         <v>153</v>
       </c>
-      <c r="B39" s="49" t="s">
+      <c r="B39" s="46" t="s">
         <v>101</v>
       </c>
-      <c r="C39" s="50" t="s">
+      <c r="C39" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="E39" s="49" t="s">
+      <c r="E39" s="46" t="s">
         <v>179</v>
       </c>
-      <c r="F39" s="49" t="s">
+      <c r="F39" s="46" t="s">
         <v>84</v>
       </c>
-      <c r="G39" s="50" t="s">
-        <v>580</v>
-      </c>
-      <c r="J39" s="49" t="s">
+      <c r="G39" s="51" t="s">
+        <v>576</v>
+      </c>
+      <c r="I39" s="46" t="s">
+        <v>597</v>
+      </c>
+      <c r="J39" s="46" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="40" spans="1:10" s="46" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A40" s="46" t="s">
+    <row r="40" spans="1:10" s="49" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A40" s="49" t="s">
         <v>154</v>
       </c>
-      <c r="B40" s="46" t="s">
+      <c r="B40" s="49" t="s">
         <v>103</v>
       </c>
-      <c r="C40" s="51" t="s">
+      <c r="C40" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="E40" s="46" t="s">
+      <c r="E40" s="49" t="s">
         <v>180</v>
       </c>
-      <c r="F40" s="46" t="s">
+      <c r="F40" s="49" t="s">
         <v>84</v>
       </c>
-      <c r="G40" s="51" t="s">
-        <v>577</v>
-      </c>
-      <c r="J40" s="46" t="s">
+      <c r="G40" s="50" t="s">
+        <v>579</v>
+      </c>
+      <c r="H40" s="11" t="s">
+        <v>608</v>
+      </c>
+      <c r="I40" s="49" t="s">
+        <v>599</v>
+      </c>
+      <c r="J40" s="49" t="s">
         <v>50</v>
       </c>
     </row>
@@ -5036,32 +5255,38 @@
         <v>169</v>
       </c>
       <c r="G41" s="51" t="s">
-        <v>577</v>
+        <v>576</v>
+      </c>
+      <c r="I41" s="46" t="s">
+        <v>600</v>
       </c>
       <c r="J41" s="46" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="42" spans="1:10" s="49" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A42" s="49" t="s">
+    <row r="42" spans="1:10" s="46" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A42" s="46" t="s">
         <v>156</v>
       </c>
-      <c r="B42" s="49" t="s">
+      <c r="B42" s="46" t="s">
         <v>117</v>
       </c>
-      <c r="C42" s="50" t="s">
+      <c r="C42" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="E42" s="49" t="s">
+      <c r="E42" s="46" t="s">
         <v>182</v>
       </c>
-      <c r="F42" s="49" t="s">
+      <c r="F42" s="46" t="s">
         <v>168</v>
       </c>
-      <c r="G42" s="50" t="s">
-        <v>585</v>
-      </c>
-      <c r="J42" s="49" t="s">
+      <c r="G42" s="51" t="s">
+        <v>576</v>
+      </c>
+      <c r="I42" s="46" t="s">
+        <v>600</v>
+      </c>
+      <c r="J42" s="46" t="s">
         <v>50</v>
       </c>
     </row>
@@ -5082,7 +5307,13 @@
         <v>84</v>
       </c>
       <c r="G43" s="50" t="s">
-        <v>585</v>
+        <v>579</v>
+      </c>
+      <c r="H43" s="11" t="s">
+        <v>609</v>
+      </c>
+      <c r="I43" s="11" t="s">
+        <v>586</v>
       </c>
       <c r="J43" s="49" t="s">
         <v>50</v>
@@ -5105,7 +5336,10 @@
         <v>84</v>
       </c>
       <c r="G44" s="50" t="s">
-        <v>580</v>
+        <v>579</v>
+      </c>
+      <c r="H44" s="11" t="s">
+        <v>610</v>
       </c>
       <c r="J44" s="49" t="s">
         <v>50</v>
@@ -5128,7 +5362,13 @@
         <v>84</v>
       </c>
       <c r="G45" s="50" t="s">
-        <v>580</v>
+        <v>579</v>
+      </c>
+      <c r="H45" s="11" t="s">
+        <v>611</v>
+      </c>
+      <c r="I45" s="11" t="s">
+        <v>586</v>
       </c>
       <c r="J45" s="49" t="s">
         <v>50</v>
@@ -5151,7 +5391,13 @@
         <v>84</v>
       </c>
       <c r="G46" s="50" t="s">
-        <v>580</v>
+        <v>579</v>
+      </c>
+      <c r="H46" s="11" t="s">
+        <v>612</v>
+      </c>
+      <c r="I46" s="11" t="s">
+        <v>586</v>
       </c>
       <c r="J46" s="49" t="s">
         <v>50</v>
@@ -5174,7 +5420,13 @@
         <v>122</v>
       </c>
       <c r="G47" s="50" t="s">
-        <v>580</v>
+        <v>579</v>
+      </c>
+      <c r="H47" s="11" t="s">
+        <v>613</v>
+      </c>
+      <c r="I47" s="11" t="s">
+        <v>586</v>
       </c>
       <c r="J47" s="49" t="s">
         <v>50</v>
@@ -5191,13 +5443,19 @@
         <v>16</v>
       </c>
       <c r="E48" s="49" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="F48" s="49" t="s">
         <v>122</v>
       </c>
       <c r="G48" s="50" t="s">
-        <v>580</v>
+        <v>579</v>
+      </c>
+      <c r="H48" s="11" t="s">
+        <v>587</v>
+      </c>
+      <c r="I48" s="11" t="s">
+        <v>586</v>
       </c>
       <c r="J48" s="49" t="s">
         <v>50</v>
@@ -5214,61 +5472,73 @@
         <v>16</v>
       </c>
       <c r="E49" s="49" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="F49" s="49" t="s">
         <v>122</v>
       </c>
       <c r="G49" s="50" t="s">
-        <v>580</v>
+        <v>579</v>
+      </c>
+      <c r="H49" s="11" t="s">
+        <v>588</v>
+      </c>
+      <c r="I49" s="11" t="s">
+        <v>586</v>
       </c>
       <c r="J49" s="49" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="50" spans="1:10" s="49" customFormat="1" ht="105" x14ac:dyDescent="0.25">
-      <c r="A50" s="49" t="s">
+    <row r="50" spans="1:10" s="46" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A50" s="46" t="s">
         <v>164</v>
       </c>
-      <c r="B50" s="49" t="s">
+      <c r="B50" s="46" t="s">
         <v>127</v>
       </c>
-      <c r="C50" s="50" t="s">
+      <c r="C50" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="E50" s="49" t="s">
-        <v>583</v>
-      </c>
-      <c r="F50" s="49" t="s">
+      <c r="E50" s="46" t="s">
+        <v>582</v>
+      </c>
+      <c r="F50" s="46" t="s">
         <v>168</v>
       </c>
-      <c r="G50" s="50" t="s">
-        <v>539</v>
-      </c>
-      <c r="J50" s="49" t="s">
+      <c r="G50" s="51" t="s">
+        <v>426</v>
+      </c>
+      <c r="I50" s="46" t="s">
+        <v>600</v>
+      </c>
+      <c r="J50" s="46" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:10" s="49" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A51" s="49" t="s">
+    <row r="51" spans="1:10" s="46" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A51" s="46" t="s">
         <v>165</v>
       </c>
-      <c r="B51" s="49" t="s">
+      <c r="B51" s="46" t="s">
         <v>135</v>
       </c>
-      <c r="C51" s="50" t="s">
+      <c r="C51" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="E51" s="49" t="s">
+      <c r="E51" s="46" t="s">
         <v>188</v>
       </c>
-      <c r="F51" s="49" t="s">
+      <c r="F51" s="46" t="s">
         <v>137</v>
       </c>
-      <c r="G51" s="50" t="s">
-        <v>586</v>
-      </c>
-      <c r="J51" s="49" t="s">
+      <c r="G51" s="51" t="s">
+        <v>426</v>
+      </c>
+      <c r="I51" s="46" t="s">
+        <v>601</v>
+      </c>
+      <c r="J51" s="46" t="s">
         <v>50</v>
       </c>
     </row>
@@ -5291,30 +5561,36 @@
       <c r="G52" s="51" t="s">
         <v>426</v>
       </c>
+      <c r="I52" s="46" t="s">
+        <v>600</v>
+      </c>
       <c r="J52" s="46" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:10" s="49" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A53" s="49" t="s">
+    <row r="53" spans="1:10" s="46" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A53" s="46" t="s">
         <v>167</v>
       </c>
-      <c r="B53" s="49" t="s">
+      <c r="B53" s="46" t="s">
         <v>139</v>
       </c>
-      <c r="C53" s="50" t="s">
+      <c r="C53" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="E53" s="49" t="s">
+      <c r="E53" s="46" t="s">
         <v>190</v>
       </c>
-      <c r="F53" s="49" t="s">
+      <c r="F53" s="46" t="s">
         <v>84</v>
       </c>
-      <c r="G53" s="50" t="s">
-        <v>586</v>
-      </c>
-      <c r="J53" s="49" t="s">
+      <c r="G53" s="51" t="s">
+        <v>576</v>
+      </c>
+      <c r="I53" s="46" t="s">
+        <v>602</v>
+      </c>
+      <c r="J53" s="46" t="s">
         <v>50</v>
       </c>
     </row>
@@ -5338,7 +5614,7 @@
         <v>84</v>
       </c>
       <c r="G55" s="51" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="J55" s="46" t="s">
         <v>50</v>
@@ -5346,22 +5622,22 @@
     </row>
     <row r="56" spans="1:10" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="46" t="s">
+        <v>543</v>
+      </c>
+      <c r="B56" s="46" t="s">
         <v>544</v>
-      </c>
-      <c r="B56" s="46" t="s">
-        <v>545</v>
       </c>
       <c r="C56" s="51" t="s">
         <v>193</v>
       </c>
       <c r="E56" s="46" t="s">
+        <v>545</v>
+      </c>
+      <c r="F56" s="46" t="s">
         <v>546</v>
       </c>
-      <c r="F56" s="46" t="s">
-        <v>547</v>
-      </c>
       <c r="G56" s="51" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="J56" s="46" t="s">
         <v>50</v>
@@ -5452,7 +5728,7 @@
         <v>245</v>
       </c>
       <c r="I2" s="44" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="J2" s="44" t="s">
         <v>50</v>
@@ -5481,7 +5757,7 @@
         <v>245</v>
       </c>
       <c r="I3" s="44" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="J3" s="44" t="s">
         <v>50</v>
@@ -5510,7 +5786,7 @@
         <v>245</v>
       </c>
       <c r="I4" s="44" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="J4" s="44" t="s">
         <v>50</v>
@@ -5536,7 +5812,7 @@
         <v>245</v>
       </c>
       <c r="I5" s="44" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="J5" s="44" t="s">
         <v>50</v>
@@ -5562,7 +5838,7 @@
         <v>245</v>
       </c>
       <c r="I6" s="44" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="J6" s="44" t="s">
         <v>50</v>
@@ -5582,13 +5858,13 @@
         <v>48</v>
       </c>
       <c r="F7" s="44" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="G7" s="45" t="s">
         <v>245</v>
       </c>
       <c r="I7" s="44" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="J7" s="44" t="s">
         <v>50</v>
@@ -5614,7 +5890,7 @@
         <v>245</v>
       </c>
       <c r="I8" s="44" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="J8" s="44" t="s">
         <v>50</v>
@@ -5640,7 +5916,7 @@
         <v>245</v>
       </c>
       <c r="I9" s="44" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="J9" s="44" t="s">
         <v>50</v>
@@ -5666,7 +5942,7 @@
         <v>245</v>
       </c>
       <c r="I10" s="44" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="J10" s="44" t="s">
         <v>50</v>
@@ -5692,7 +5968,7 @@
         <v>245</v>
       </c>
       <c r="I11" s="44" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="J11" s="44" t="s">
         <v>50</v>
@@ -5700,25 +5976,25 @@
     </row>
     <row r="12" spans="1:11" s="44" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="44" t="s">
+        <v>539</v>
+      </c>
+      <c r="B12" s="44" t="s">
         <v>540</v>
       </c>
-      <c r="B12" s="44" t="s">
+      <c r="C12" s="45" t="s">
         <v>541</v>
       </c>
-      <c r="C12" s="45" t="s">
+      <c r="E12" s="44" t="s">
         <v>542</v>
       </c>
-      <c r="E12" s="44" t="s">
-        <v>543</v>
-      </c>
       <c r="F12" s="44" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="G12" s="45" t="s">
         <v>245</v>
       </c>
       <c r="I12" s="44" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="J12" s="44" t="s">
         <v>50</v>
@@ -5733,8 +6009,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView topLeftCell="D22" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6389,10 +6665,10 @@
     </row>
     <row r="22" spans="1:11" s="10" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="B22" s="10" t="s">
+        <v>547</v>
+      </c>
+      <c r="C22" s="10" t="s">
         <v>548</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>549</v>
       </c>
       <c r="D22" s="10" t="s">
         <v>16</v>
@@ -6401,19 +6677,19 @@
         <v>352</v>
       </c>
       <c r="F22" s="11" t="s">
+        <v>549</v>
+      </c>
+      <c r="G22" s="10" t="s">
         <v>550</v>
       </c>
-      <c r="G22" s="10" t="s">
+      <c r="H22" s="10" t="s">
         <v>551</v>
       </c>
-      <c r="H22" s="10" t="s">
+      <c r="I22" s="10" t="s">
         <v>552</v>
       </c>
-      <c r="I22" s="10" t="s">
+      <c r="J22" s="10" t="s">
         <v>553</v>
-      </c>
-      <c r="J22" s="10" t="s">
-        <v>554</v>
       </c>
       <c r="K22" s="10" t="s">
         <v>237</v>
@@ -6421,10 +6697,10 @@
     </row>
     <row r="23" spans="1:11" s="10" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
+        <v>554</v>
+      </c>
+      <c r="C23" s="10" t="s">
         <v>555</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>556</v>
       </c>
       <c r="D23" s="10" t="s">
         <v>16</v>
@@ -6433,19 +6709,19 @@
         <v>352</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="G23" s="10" t="s">
+        <v>556</v>
+      </c>
+      <c r="H23" s="10" t="s">
         <v>557</v>
       </c>
-      <c r="H23" s="10" t="s">
+      <c r="I23" s="10" t="s">
+        <v>552</v>
+      </c>
+      <c r="J23" s="10" t="s">
         <v>558</v>
-      </c>
-      <c r="I23" s="10" t="s">
-        <v>553</v>
-      </c>
-      <c r="J23" s="10" t="s">
-        <v>559</v>
       </c>
       <c r="K23" s="10" t="s">
         <v>237</v>
@@ -6453,10 +6729,10 @@
     </row>
     <row r="24" spans="1:11" s="10" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="B24" s="10" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D24" s="10" t="s">
         <v>16</v>
@@ -6465,19 +6741,19 @@
         <v>352</v>
       </c>
       <c r="F24" s="11" t="s">
+        <v>561</v>
+      </c>
+      <c r="G24" s="10" t="s">
         <v>562</v>
       </c>
-      <c r="G24" s="10" t="s">
+      <c r="H24" s="10" t="s">
         <v>563</v>
       </c>
-      <c r="H24" s="10" t="s">
-        <v>564</v>
-      </c>
       <c r="I24" s="10" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="J24" s="10" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="K24" s="10" t="s">
         <v>237</v>
@@ -7227,10 +7503,10 @@
         <v>21</v>
       </c>
       <c r="G2" s="51" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="I2" s="46" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="J2" s="46" t="s">
         <v>50</v>
@@ -7256,13 +7532,13 @@
         <v>20</v>
       </c>
       <c r="G3" s="50" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="J3" s="49" t="s">
         <v>50</v>

--- a/Testing/Test Cases/TAWA_TestCases.xlsx
+++ b/Testing/Test Cases/TAWA_TestCases.xlsx
@@ -4,25 +4,26 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="7" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="ReservedTrips" sheetId="6" r:id="rId1"/>
     <sheet name="Home Page" sheetId="8" r:id="rId2"/>
     <sheet name="Destination" sheetId="9" r:id="rId3"/>
-    <sheet name="Registeration" sheetId="1" r:id="rId4"/>
-    <sheet name="Login" sheetId="2" r:id="rId5"/>
-    <sheet name="AdminPage" sheetId="4" r:id="rId6"/>
-    <sheet name="Test-Data" sheetId="7" r:id="rId7"/>
-    <sheet name="Booking" sheetId="5" r:id="rId8"/>
-    <sheet name="Logout" sheetId="3" r:id="rId9"/>
+    <sheet name="Sheet1" sheetId="10" r:id="rId4"/>
+    <sheet name="Registeration" sheetId="1" r:id="rId5"/>
+    <sheet name="Login" sheetId="2" r:id="rId6"/>
+    <sheet name="AdminPage" sheetId="4" r:id="rId7"/>
+    <sheet name="Test-Data" sheetId="7" r:id="rId8"/>
+    <sheet name="Booking" sheetId="5" r:id="rId9"/>
+    <sheet name="Logout" sheetId="3" r:id="rId10"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1270" uniqueCount="614">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1339" uniqueCount="576">
   <si>
     <t>ID</t>
   </si>
@@ -858,64 +859,16 @@
     <t>TAWA_Admin_001</t>
   </si>
   <si>
-    <t>TAWA_SRS_FR_055</t>
-  </si>
-  <si>
-    <t>TAWA_SRS_FR_056</t>
-  </si>
-  <si>
-    <t>TAWA_SRS_FR_081</t>
-  </si>
-  <si>
-    <t>TAWA_SRS_FR_082</t>
-  </si>
-  <si>
     <t>The ‘add’ button shall be clickable only after filling all fields.</t>
   </si>
   <si>
-    <t>TAWA_SRS_FR_083</t>
-  </si>
-  <si>
-    <t>TAWA_SRS_FR_085</t>
-  </si>
-  <si>
-    <t>TAWA_SRS_FR_086</t>
-  </si>
-  <si>
-    <t>TAWA_SRS_FR_089</t>
-  </si>
-  <si>
-    <t>TAWA_SRS_FR_090</t>
-  </si>
-  <si>
     <t xml:space="preserve"> After clicking on ‘delete’ button shall display message says ‘Are you sure to delete this user?’. </t>
   </si>
   <si>
-    <t>TAWA_SRS_FR_091</t>
-  </si>
-  <si>
     <t xml:space="preserve"> After message displayed if user choose ‘yes’ the user shall be delete from the system.</t>
   </si>
   <si>
-    <t>TAWA_SRS_FR_092</t>
-  </si>
-  <si>
     <t xml:space="preserve"> After message displayed if user choose ‘No’ the user shall not be delete from the system.</t>
-  </si>
-  <si>
-    <t>TAWA_SRS_FR_140</t>
-  </si>
-  <si>
-    <t>TAWA_SRS_FR_141</t>
-  </si>
-  <si>
-    <t>TAWA_SRS_FR_142</t>
-  </si>
-  <si>
-    <t>TAWA_SRS_FR_143</t>
-  </si>
-  <si>
-    <t>TAWA_SRS_FR_144</t>
   </si>
   <si>
     <t>The ‘Admin’ shall be able to view all users.</t>
@@ -1052,23 +1005,11 @@
     <t>User must login with a valid account</t>
   </si>
   <si>
-    <t>1) Open Homepage
-2) Click on "Read More" button located beside any destination
-3) Click on "Book Now" button
-4) Check the existence of fields</t>
-  </si>
-  <si>
     <t>Page shall contain fields:
 (See attachements)</t>
   </si>
   <si>
-    <t>Open</t>
-  </si>
-  <si>
     <t>Mahmoud Yasser</t>
-  </si>
-  <si>
-    <t>img: https://ibb.co/ZSWGyKV</t>
   </si>
   <si>
     <t>TAWA_BOOKING_02</t>
@@ -1086,13 +1027,6 @@
     <t>Validate the options in "Payment Method" list</t>
   </si>
   <si>
-    <t>1) Open Homepage
-2) Click on "Read More" button located beside any destination
-3) Click on "Book Now" button
-4) Click on "Payment method" dropdown list
-5) Check the list options</t>
-  </si>
-  <si>
     <t xml:space="preserve"> The ‘payment method’ dropdown list shall contain two methods ‘cash’ and ‘debit card’.</t>
   </si>
   <si>
@@ -1100,13 +1034,6 @@
   </si>
   <si>
     <t>Validate the appearance of "card number" text field</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1) Open Homepage
-2) Click on "Read More" button located beside any destination
-3) Click on "Book Now" button
-4) Click on "Payment method" dropdown list and choose debit card
-</t>
   </si>
   <si>
     <t>the ‘card number’ text field shall 
@@ -1119,14 +1046,6 @@
     <t>Validate the restriction on choosing Trip type</t>
   </si>
   <si>
-    <t xml:space="preserve">1) Open Homepage
-2) Click on "Read More" button located beside any destination
-3) Click on "Book Now" button
-4) Choose One trip type
-5) Try to choose the other type
-</t>
-  </si>
-  <si>
     <t>User shall be able to choose one
 trip type.</t>
   </si>
@@ -1137,14 +1056,6 @@
     <t>Validate the restriction on choosing Payment method</t>
   </si>
   <si>
-    <t xml:space="preserve">1) Open Homepage
-2) Click on "Read More" button located beside any destination
-3) Click on "Book Now" button
-4) Choose One payment method
-5) Try to choose the other type
-</t>
-  </si>
-  <si>
     <t>User shall be able to choose one
 payment method.</t>
   </si>
@@ -1156,12 +1067,6 @@
 without filling any field</t>
   </si>
   <si>
-    <t>1) Open Homepage
-2) Click on "Read More" button located beside any destination
-3) Click on "Book Now" button
-4) Try click on "book" button</t>
-  </si>
-  <si>
     <t>The "book" button shall not 
 be clickable</t>
   </si>
@@ -1173,13 +1078,6 @@
 without completing all data fields</t>
   </si>
   <si>
-    <t>1) Open Homepage
-2) Click on "Read More" button located beside any destination
-3) Click on "Book Now" button
-4) Fill one field with any data
-5)Try click on "book" button</t>
-  </si>
-  <si>
     <t>The ‘Book’ button shall be 
 clickable only after filling all data.</t>
   </si>
@@ -1191,63 +1089,22 @@
 OF SEATS" field</t>
   </si>
   <si>
-    <t>1) Open Homepage
-2) Click on "Read More" button located beside any destination
-3) Click on "Book Now" button
-4) Enter letters in "Number of seats" field
-5) complete all other fields
-6) Click on "book" button</t>
-  </si>
-  <si>
     <t>Error message shall appear saying that it's forbidden to enter any type of data but numbers in "number of seats" field</t>
   </si>
   <si>
     <t>TAWA_BOOKING_10</t>
   </si>
   <si>
-    <t>Validate restriction on entering data in "FLIGHT NUMBER" field</t>
-  </si>
-  <si>
-    <t>1) Open Homepage
-2) Click on "Read More" button located beside any destination
-3) Click on "Book Now" button
-4) Enter letters in "flight number" field
-5) complete all other fields
-6) Click on "book" button</t>
-  </si>
-  <si>
-    <t>Error message shall appear saying that it's forbidden to enter any type of data but numbers in "flight number" field</t>
-  </si>
-  <si>
     <t>TAWA_BOOKING_11</t>
   </si>
   <si>
     <t>Validate restriction on entering data in "Debit card number" field</t>
   </si>
   <si>
-    <t>1) Open Homepage
-2) Click on "Read More" button located beside any destination
-3) Click on "Book Now" button
-4) Enter letters in "debit card number" field
-5) complete all other fields
-6) Click on "book" button</t>
-  </si>
-  <si>
-    <t>Error message shall appear saying that it's forbidden to enter any type of data but numbers in "debit card number" field</t>
-  </si>
-  <si>
     <t>TAWA_BOOKING_12</t>
   </si>
   <si>
     <t>Validate response from the website after booking</t>
-  </si>
-  <si>
-    <t>1) Open Homepage
-2) Click on "Read More" button located beside any destination
-3) Click on "Book Now" button
-4) Enter valid data and complete all fields
-5) Click on "book" button
-6) Check response from website</t>
   </si>
   <si>
     <t>Message shall appear to user:
@@ -1263,14 +1120,6 @@
     <t>Validate that user can book one flight</t>
   </si>
   <si>
-    <t>1) Open Homepage
-2) Click on "Read More" button located beside any destination
-3) Click on "Book Now" button
-4) Enter valid data and complete all fields
-5) Click on "book" button
-6) Check table Book in TAWA_DB</t>
-  </si>
-  <si>
     <t>New row shall be added with 
 the data entered</t>
   </si>
@@ -1279,14 +1128,6 @@
   </si>
   <si>
     <t>Validate that user can not book more than one flight</t>
-  </si>
-  <si>
-    <t>1) Open Homepage
-2) Click on "Read More" button located beside any destination
-3) Click on "Book Now" button
-4) Enter valid data and complete all fields
-5) Click on "book" button
-6) Repeat steps from 1 to 5</t>
   </si>
   <si>
     <t>Error message shall appear saying
@@ -1301,27 +1142,7 @@
 4 seats</t>
   </si>
   <si>
-    <t>1) Open Homepage
-2) Click on "Read More" button located beside any destination
-3) Click on "Book Now" button
-4) enter "5" IN "number of seats" field
-5) complete all fields and click book</t>
-  </si>
-  <si>
-    <t>Error message shall appear saying
-that user can not book more than 4 seats</t>
-  </si>
-  <si>
     <t>TAWA_BOOKING_16</t>
-  </si>
-  <si>
-    <t>1) Open Homepage
-2) Click on "Read More" button located beside any destination
-3) Click on "Book Now" button
-4) Enter valid data and complete all fields
-5) Click on "book" button
-6) Open Homepage
-7) from navigation bar click on 'Reserved trips" button</t>
   </si>
   <si>
     <t>a trip with the exact same data
@@ -1357,10 +1178,6 @@
     <t>User is deleted successfully from the database</t>
   </si>
   <si>
-    <t>TAWA_SRS_FR_087
-TAWA_SRS_FR_088</t>
-  </si>
-  <si>
     <t>1- Type an existing username in the search bar
 2- Press search button</t>
   </si>
@@ -1530,24 +1347,10 @@
     <t>Validate the options in "level of serives" list</t>
   </si>
   <si>
-    <t>1) Open Homepage
-2) Click on "Read More" button located beside any destination
-3) Click on "Book Now" button
-4) Click on "level of serives" dropdown list
-5) Check the list options</t>
-  </si>
-  <si>
     <t xml:space="preserve"> The ‘Level of services’ shall be ‘Economy’ , ‘Business’ or ‘Luxurious’.</t>
   </si>
   <si>
     <t>Validate the options in "different airlins" list</t>
-  </si>
-  <si>
-    <t>1) Open Homepage
-2) Click on "Read More" button located beside any destination
-3) Click on "Book Now" button
-4) Click on "different airlines" dropdown list
-5) Check the list options</t>
   </si>
   <si>
     <t>TAWA_BOOKING_17</t>
@@ -1563,123 +1366,7 @@
     <t>Validate the options in "trip type" radio button</t>
   </si>
   <si>
-    <t>1) Open Homepage
-2) Click on "Read More" button located beside any destination
-3) Click on "Book Now" button
-4) Check the trip type options</t>
-  </si>
-  <si>
     <t>The ‘trip type’ radio button shall contain two types ‘One-way’ and ‘Round-trip’.</t>
-  </si>
-  <si>
-    <t>TAWA_RESERVED_01</t>
-  </si>
-  <si>
-    <t>Validate that user can go to "Reserved flights" page from home page</t>
-  </si>
-  <si>
-    <t>User must be logged in with
-a valid account and must book
-a flight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1) Open TAWA homepage
-2) From Navigation bar Click on "Reserved
-Flights" button
-</t>
-  </si>
-  <si>
-    <t>Reserved flights page shall load 
-successfully</t>
-  </si>
-  <si>
-    <t>TAWA_RESERVED_02</t>
-  </si>
-  <si>
-    <t>Validate that reserved flight page has no content if user
-hasn't book any flight yet.</t>
-  </si>
-  <si>
-    <t>User must be logged in with
-a valid account but hasn't book trips</t>
-  </si>
-  <si>
-    <t>1) Open TAWA homepage
-2) From Navigation bar Click on "Reserved
-Flights" button</t>
-  </si>
-  <si>
-    <t>Reserved flights shall has no content</t>
-  </si>
-  <si>
-    <t>TAWA_RESERVED_03</t>
-  </si>
-  <si>
-    <t>Validate that reserved flight page has information about
-the reserved flight for a user</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reserved flight page shall show :
-Flight Type 
-Airline 
-Service Level 
-Number of seats
-Payment Method 
-</t>
-  </si>
-  <si>
-    <t>TAWA_RESERVED_04</t>
-  </si>
-  <si>
-    <t>Validate that reserved flights page has a "cancel" button</t>
-  </si>
-  <si>
-    <t>reserved flights page shall
-has a "cancel" button</t>
-  </si>
-  <si>
-    <t>TAWA_RESERVED_05</t>
-  </si>
-  <si>
-    <t>Validate the functionality of cancel button</t>
-  </si>
-  <si>
-    <t>1) Open TAWA homepage
-2) From Navigation bar Click on "Reserved
-Flights" button
-3) Click on cancel button</t>
-  </si>
-  <si>
-    <t xml:space="preserve">flight shall be cancelled and a message
-shall appear saying: Your flight has been Cancelled
-</t>
-  </si>
-  <si>
-    <t>TAWA_RESERVED_06</t>
-  </si>
-  <si>
-    <t>Validate that there is an option for user to go to homepage after
-the cancellation of a flight</t>
-  </si>
-  <si>
-    <t>A blue button called" Go to Home Page"
-shall appear under the cancellation message</t>
-  </si>
-  <si>
-    <t>TAWA_RESERVED_07</t>
-  </si>
-  <si>
-    <t>Validate the functionality of "go to home page" button</t>
-  </si>
-  <si>
-    <t>1) Open TAWA homepage
-2) From Navigation bar Click on "Reserved
-Flights" button
-3) Click on cancel button
-4) click on "go to home page" button</t>
-  </si>
-  <si>
-    <t>User shall be redirected to homepage successfully</t>
   </si>
   <si>
     <t>SRS</t>
@@ -2432,12 +2119,184 @@
   <si>
     <t>Tawa-SignUp_Bug_011</t>
   </si>
+  <si>
+    <t>1) Open Homepage
+2) Click on "Read More" button located beside any destination
+3) Click on "Book Flight" button
+4) Check the existence of fields</t>
+  </si>
+  <si>
+    <t>Page contains field</t>
+  </si>
+  <si>
+    <t>https://www.photobox.co.uk/my/photo/full?photo_id=501884206002</t>
+  </si>
+  <si>
+    <t>1) Open Homepage
+2) Click on "Read More" button located beside any destination
+3) Click on "Book Flight" button
+4) Click on "level of serives" dropdown list
+5) Check the list options</t>
+  </si>
+  <si>
+    <t>1) Open Homepage
+2) Click on "Read More" button located beside any destination
+3) Click on "Book Flight" button
+4) Click on "different airlines" dropdown list
+5) Check the list options</t>
+  </si>
+  <si>
+    <t>1) Open Homepage
+2) Click on "Read More" button located beside any destination
+3) Click on "Book Flight" button
+4) Click on "Payment method" dropdown list
+5) Check the list options</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Open Homepage
+2) Click on "Read More" button located beside any destination
+3) Click on "Book Flight" button
+4) Click on "Payment method" dropdown list and choose debit card
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Open Homepage
+2) Click on "Read More" button located beside any destination
+3) Click on "Book Flight" button
+4) Choose One trip type
+5) Try to choose the other type
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Open Homepage
+2) Click on "Read More" button located beside any destination
+3) Click on "Book Flight" button
+4) Choose One payment method
+5) Try to choose the other type
+</t>
+  </si>
+  <si>
+    <t>1) Open Homepage
+2) Click on "Read More" button located beside any destination
+3) Click on "Book Flight" button
+4) Try click on "book" button</t>
+  </si>
+  <si>
+    <t>1) Open Homepage
+2) Click on "Read More" button located beside any destination
+3) Click on "Book Flight" button
+4) Fill one field with any data
+5)Try click on "book" button</t>
+  </si>
+  <si>
+    <t>1) Open Homepage
+2) Click on "Read More" button located beside any destination
+3) Click on "Book Flight" button
+4) Enter letters in "Number of seats" field
+5) complete all other fields
+6) Click on "book" button</t>
+  </si>
+  <si>
+    <t>1) Open Homepage
+2) Click on "Read More" button located beside any destination
+3) Click on "Book Flight" button
+4) Enter letters in "flight number" field
+5) complete all other fields
+6) Click on "book" button</t>
+  </si>
+  <si>
+    <t>field cannot accept any data but number</t>
+  </si>
+  <si>
+    <t>1) Open Homepage
+2) Click on "Read More" button located beside any destination
+3) Click on "Book Flight" button
+4) Enter letters in "debit card number" field
+5) complete all other fields
+6) Click on "book" button</t>
+  </si>
+  <si>
+    <t>Error message shall appear saying that it's forbidden to enter negative numbers in "debit card number" field</t>
+  </si>
+  <si>
+    <t>1) Open Homepage
+2) Click on "Read More" button located beside any destination
+3) Click on "Book Flight" button
+4) Enter valid data and complete all fields
+5) Click on "book" button
+6) Check response from website</t>
+  </si>
+  <si>
+    <t>1) Open Homepage
+2) Click on "Read More" button located beside any destination
+3) Click on "Book Flight" button
+4) Enter valid data and complete all fields
+5) Click on "book" button
+6) Check table Book in TAWA_DB</t>
+  </si>
+  <si>
+    <t>1) Open Homepage
+2) Click on "Read More" button located beside any destination
+3) Click on "Book Flight" button
+4) Enter valid data and complete all fields
+5) Click on "book" button
+6) Repeat steps from 1 to 5</t>
+  </si>
+  <si>
+    <t>1) Open Homepage
+2) Click on "Read More" button located beside any destination
+3) Click on "Book Flight" button
+4) enter "5" IN "number of seats" field
+5) complete all fields and click book</t>
+  </si>
+  <si>
+    <t>Field cannot accept more than 4</t>
+  </si>
+  <si>
+    <t>1) Open Homepage
+2) Click on "Read More" button located beside any destination
+3) Click on "Book Flight" button
+4) Enter valid data and complete all fields
+5) Click on "book" button
+6) Open Homepage
+7) from navigation bar click on 'Reserved trips" button</t>
+  </si>
+  <si>
+    <t>1) Open Homepage
+2) Click on "Read More" button located beside any destination
+3) Click on "Book Flight" button
+4) Check the trip type options</t>
+  </si>
+  <si>
+    <t>TAWA_Admin_022</t>
+  </si>
+  <si>
+    <t>Validating the redirection after editing a user</t>
+  </si>
+  <si>
+    <t>1- Type an existing username in the search bar
+2- Press search
+3- Press Edit
+4- From the edit user page press back</t>
+  </si>
+  <si>
+    <t>TAWA_Admin_023</t>
+  </si>
+  <si>
+    <t>Validating the edit button behavior without searching for a user</t>
+  </si>
+  <si>
+    <t>1- Press edit without entering a username in the search bar</t>
+  </si>
+  <si>
+    <t>Validate restriction on entering negative in "Debit card number" field</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2480,8 +2339,22 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2524,6 +2397,16 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -2564,11 +2447,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -2603,13 +2488,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFill="1"/>
@@ -2708,8 +2587,22 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
+    <cellStyle name="Bad" xfId="3" builtinId="27"/>
+    <cellStyle name="Good" xfId="2" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -3016,10 +2909,10 @@
   <sheetPr>
     <tabColor theme="5"/>
   </sheetPr>
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="A2" sqref="A2:J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3076,215 +2969,584 @@
       <c r="L1" s="12"/>
       <c r="M1" s="4"/>
     </row>
-    <row r="2" spans="1:13" ht="180" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
-        <v>393</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>394</v>
-      </c>
-      <c r="C2" s="14" t="s">
+    <row r="2" spans="1:13" ht="270" x14ac:dyDescent="0.25">
+      <c r="A2" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="15" t="s">
-        <v>395</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>396</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>397</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>261</v>
-      </c>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14" t="s">
-        <v>262</v>
+      <c r="B2" s="52" t="s">
+        <v>242</v>
+      </c>
+      <c r="C2" s="52" t="s">
+        <v>546</v>
+      </c>
+      <c r="D2" s="52" t="s">
+        <v>243</v>
+      </c>
+      <c r="E2" s="51" t="s">
+        <v>229</v>
+      </c>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51" t="s">
+        <v>547</v>
+      </c>
+      <c r="H2" s="51" t="s">
+        <v>244</v>
+      </c>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51" t="s">
+        <v>548</v>
       </c>
       <c r="K2" s="14"/>
       <c r="L2" s="14"/>
     </row>
-    <row r="3" spans="1:13" ht="195" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
-        <v>398</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>399</v>
-      </c>
-      <c r="C3" s="14" t="s">
+    <row r="3" spans="1:13" ht="330" x14ac:dyDescent="0.25">
+      <c r="A3" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="15" t="s">
-        <v>400</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>401</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>402</v>
-      </c>
-      <c r="G3" s="14" t="s">
-        <v>261</v>
-      </c>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14" t="s">
-        <v>262</v>
-      </c>
+      <c r="B3" s="52" t="s">
+        <v>242</v>
+      </c>
+      <c r="C3" s="52" t="s">
+        <v>549</v>
+      </c>
+      <c r="D3" s="52" t="s">
+        <v>345</v>
+      </c>
+      <c r="E3" s="51" t="s">
+        <v>229</v>
+      </c>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51" t="s">
+        <v>244</v>
+      </c>
+      <c r="I3" s="51"/>
+      <c r="J3" s="51"/>
       <c r="K3" s="14"/>
       <c r="L3" s="14"/>
     </row>
-    <row r="4" spans="1:13" ht="210" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
-        <v>403</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>404</v>
-      </c>
-      <c r="C4" s="14" t="s">
+    <row r="4" spans="1:13" ht="330" x14ac:dyDescent="0.25">
+      <c r="A4" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="15" t="s">
-        <v>395</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>401</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>405</v>
-      </c>
-      <c r="G4" s="14" t="s">
-        <v>261</v>
-      </c>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14" t="s">
-        <v>262</v>
-      </c>
+      <c r="B4" s="52" t="s">
+        <v>242</v>
+      </c>
+      <c r="C4" s="52" t="s">
+        <v>550</v>
+      </c>
+      <c r="D4" s="52" t="s">
+        <v>246</v>
+      </c>
+      <c r="E4" s="51" t="s">
+        <v>229</v>
+      </c>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51" t="s">
+        <v>244</v>
+      </c>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
       <c r="K4" s="14"/>
       <c r="L4" s="14"/>
     </row>
-    <row r="5" spans="1:13" ht="90" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
-        <v>406</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>407</v>
-      </c>
-      <c r="C5" s="14" t="s">
+    <row r="5" spans="1:13" ht="330" x14ac:dyDescent="0.25">
+      <c r="A5" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="15" t="s">
-        <v>395</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>401</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>408</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>261</v>
-      </c>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14" t="s">
-        <v>262</v>
-      </c>
+      <c r="B5" s="52" t="s">
+        <v>242</v>
+      </c>
+      <c r="C5" s="52" t="s">
+        <v>551</v>
+      </c>
+      <c r="D5" s="52" t="s">
+        <v>249</v>
+      </c>
+      <c r="E5" s="51" t="s">
+        <v>229</v>
+      </c>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51" t="s">
+        <v>244</v>
+      </c>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
       <c r="K5" s="14"/>
       <c r="L5" s="14"/>
     </row>
-    <row r="6" spans="1:13" ht="120" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
-        <v>409</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>410</v>
-      </c>
-      <c r="C6" s="14" t="s">
+    <row r="6" spans="1:13" ht="330" x14ac:dyDescent="0.25">
+      <c r="A6" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="15" t="s">
-        <v>395</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>411</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>412</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>261</v>
-      </c>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14" t="s">
-        <v>262</v>
-      </c>
+      <c r="B6" s="54" t="s">
+        <v>242</v>
+      </c>
+      <c r="C6" s="54" t="s">
+        <v>552</v>
+      </c>
+      <c r="D6" s="54" t="s">
+        <v>252</v>
+      </c>
+      <c r="E6" s="53" t="s">
+        <v>372</v>
+      </c>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53" t="s">
+        <v>244</v>
+      </c>
+      <c r="I6" s="53"/>
+      <c r="J6" s="53"/>
       <c r="K6" s="14"/>
       <c r="L6" s="14"/>
     </row>
-    <row r="7" spans="1:13" ht="240" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
-        <v>413</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>414</v>
-      </c>
-      <c r="C7" s="14" t="s">
+    <row r="7" spans="1:13" ht="315" x14ac:dyDescent="0.25">
+      <c r="A7" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="15" t="s">
-        <v>395</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>411</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>415</v>
-      </c>
-      <c r="G7" s="14" t="s">
-        <v>261</v>
-      </c>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14" t="s">
-        <v>262</v>
-      </c>
+      <c r="B7" s="52" t="s">
+        <v>242</v>
+      </c>
+      <c r="C7" s="52" t="s">
+        <v>553</v>
+      </c>
+      <c r="D7" s="52" t="s">
+        <v>255</v>
+      </c>
+      <c r="E7" s="51" t="s">
+        <v>229</v>
+      </c>
+      <c r="F7" s="51"/>
+      <c r="G7" s="51"/>
+      <c r="H7" s="51" t="s">
+        <v>244</v>
+      </c>
+      <c r="I7" s="51"/>
+      <c r="J7" s="51"/>
       <c r="K7" s="14"/>
       <c r="L7" s="14"/>
     </row>
-    <row r="8" spans="1:13" ht="150" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
-        <v>416</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>417</v>
-      </c>
-      <c r="C8" s="14" t="s">
+    <row r="8" spans="1:13" ht="330" x14ac:dyDescent="0.25">
+      <c r="A8" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="15" t="s">
-        <v>395</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>418</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>419</v>
-      </c>
-      <c r="G8" s="14" t="s">
-        <v>261</v>
-      </c>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14" t="s">
-        <v>262</v>
-      </c>
+      <c r="B8" s="52" t="s">
+        <v>242</v>
+      </c>
+      <c r="C8" s="52" t="s">
+        <v>554</v>
+      </c>
+      <c r="D8" s="52" t="s">
+        <v>258</v>
+      </c>
+      <c r="E8" s="51" t="s">
+        <v>229</v>
+      </c>
+      <c r="F8" s="51"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="51" t="s">
+        <v>244</v>
+      </c>
+      <c r="I8" s="51"/>
+      <c r="J8" s="51"/>
       <c r="K8" s="14"/>
       <c r="L8" s="14"/>
+    </row>
+    <row r="9" spans="1:13" ht="255" x14ac:dyDescent="0.25">
+      <c r="A9" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="52" t="s">
+        <v>242</v>
+      </c>
+      <c r="C9" s="52" t="s">
+        <v>555</v>
+      </c>
+      <c r="D9" s="52" t="s">
+        <v>261</v>
+      </c>
+      <c r="E9" s="51" t="s">
+        <v>229</v>
+      </c>
+      <c r="F9" s="51"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="51" t="s">
+        <v>244</v>
+      </c>
+      <c r="I9" s="51"/>
+      <c r="J9" s="51"/>
+    </row>
+    <row r="10" spans="1:13" ht="300" x14ac:dyDescent="0.25">
+      <c r="A10" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="52" t="s">
+        <v>242</v>
+      </c>
+      <c r="C10" s="52" t="s">
+        <v>556</v>
+      </c>
+      <c r="D10" s="52" t="s">
+        <v>264</v>
+      </c>
+      <c r="E10" s="51" t="s">
+        <v>229</v>
+      </c>
+      <c r="F10" s="51"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="51" t="s">
+        <v>244</v>
+      </c>
+      <c r="I10" s="51"/>
+      <c r="J10" s="51"/>
+    </row>
+    <row r="11" spans="1:13" ht="390" x14ac:dyDescent="0.25">
+      <c r="A11" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="52" t="s">
+        <v>242</v>
+      </c>
+      <c r="C11" s="52" t="s">
+        <v>557</v>
+      </c>
+      <c r="D11" s="52" t="s">
+        <v>267</v>
+      </c>
+      <c r="E11" s="51" t="s">
+        <v>229</v>
+      </c>
+      <c r="F11" s="51"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="51" t="s">
+        <v>244</v>
+      </c>
+      <c r="I11" s="51"/>
+      <c r="J11" s="51"/>
+    </row>
+    <row r="12" spans="1:13" ht="390" x14ac:dyDescent="0.25">
+      <c r="A12" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="52" t="s">
+        <v>242</v>
+      </c>
+      <c r="C12" s="52" t="s">
+        <v>558</v>
+      </c>
+      <c r="D12" s="52" t="s">
+        <v>559</v>
+      </c>
+      <c r="E12" s="51" t="s">
+        <v>229</v>
+      </c>
+      <c r="F12" s="51"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="51" t="s">
+        <v>244</v>
+      </c>
+      <c r="I12" s="51"/>
+      <c r="J12" s="51"/>
+    </row>
+    <row r="13" spans="1:13" ht="390" x14ac:dyDescent="0.25">
+      <c r="A13" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="54" t="s">
+        <v>242</v>
+      </c>
+      <c r="C13" s="54" t="s">
+        <v>560</v>
+      </c>
+      <c r="D13" s="54" t="s">
+        <v>561</v>
+      </c>
+      <c r="E13" s="53" t="s">
+        <v>372</v>
+      </c>
+      <c r="F13" s="53"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="53" t="s">
+        <v>244</v>
+      </c>
+      <c r="I13" s="53"/>
+      <c r="J13" s="53"/>
+    </row>
+    <row r="14" spans="1:13" ht="390" x14ac:dyDescent="0.25">
+      <c r="A14" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="52" t="s">
+        <v>242</v>
+      </c>
+      <c r="C14" s="52" t="s">
+        <v>562</v>
+      </c>
+      <c r="D14" s="52" t="s">
+        <v>273</v>
+      </c>
+      <c r="E14" s="51" t="s">
+        <v>229</v>
+      </c>
+      <c r="F14" s="51"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="51" t="s">
+        <v>244</v>
+      </c>
+      <c r="I14" s="51"/>
+      <c r="J14" s="51" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="390" x14ac:dyDescent="0.25">
+      <c r="A15" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="52" t="s">
+        <v>242</v>
+      </c>
+      <c r="C15" s="52" t="s">
+        <v>563</v>
+      </c>
+      <c r="D15" s="52" t="s">
+        <v>277</v>
+      </c>
+      <c r="E15" s="51" t="s">
+        <v>229</v>
+      </c>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="51" t="s">
+        <v>244</v>
+      </c>
+      <c r="I15" s="51"/>
+      <c r="J15" s="51"/>
+    </row>
+    <row r="16" spans="1:13" ht="375" x14ac:dyDescent="0.25">
+      <c r="A16" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="54" t="s">
+        <v>242</v>
+      </c>
+      <c r="C16" s="54" t="s">
+        <v>564</v>
+      </c>
+      <c r="D16" s="54" t="s">
+        <v>280</v>
+      </c>
+      <c r="E16" s="53" t="s">
+        <v>372</v>
+      </c>
+      <c r="F16" s="53"/>
+      <c r="G16" s="53"/>
+      <c r="H16" s="53" t="s">
+        <v>244</v>
+      </c>
+      <c r="I16" s="53"/>
+      <c r="J16" s="53"/>
+    </row>
+    <row r="17" spans="1:10" ht="360" x14ac:dyDescent="0.25">
+      <c r="A17" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="52" t="s">
+        <v>242</v>
+      </c>
+      <c r="C17" s="52" t="s">
+        <v>565</v>
+      </c>
+      <c r="D17" s="52" t="s">
+        <v>566</v>
+      </c>
+      <c r="E17" s="51" t="s">
+        <v>229</v>
+      </c>
+      <c r="F17" s="51"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="51" t="s">
+        <v>244</v>
+      </c>
+      <c r="I17" s="51"/>
+      <c r="J17" s="51"/>
+    </row>
+    <row r="18" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="52" t="s">
+        <v>242</v>
+      </c>
+      <c r="C18" s="52" t="s">
+        <v>567</v>
+      </c>
+      <c r="D18" s="52" t="s">
+        <v>284</v>
+      </c>
+      <c r="E18" s="51" t="s">
+        <v>229</v>
+      </c>
+      <c r="F18" s="51"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="51" t="s">
+        <v>244</v>
+      </c>
+      <c r="I18" s="51"/>
+      <c r="J18" s="51"/>
+    </row>
+    <row r="19" spans="1:10" ht="270" x14ac:dyDescent="0.25">
+      <c r="A19" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="52" t="s">
+        <v>242</v>
+      </c>
+      <c r="C19" s="52" t="s">
+        <v>568</v>
+      </c>
+      <c r="D19" s="52" t="s">
+        <v>351</v>
+      </c>
+      <c r="E19" s="51" t="s">
+        <v>229</v>
+      </c>
+      <c r="F19" s="51"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="51" t="s">
+        <v>244</v>
+      </c>
+      <c r="I19" s="51"/>
+      <c r="J19" s="51"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="J2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.28515625" style="41" customWidth="1"/>
+    <col min="2" max="2" width="48.140625" style="41" customWidth="1"/>
+    <col min="3" max="4" width="22" style="41" customWidth="1"/>
+    <col min="5" max="5" width="51.140625" style="41" customWidth="1"/>
+    <col min="6" max="6" width="50.140625" style="41" customWidth="1"/>
+    <col min="7" max="7" width="19.42578125" style="41" customWidth="1"/>
+    <col min="8" max="8" width="33.42578125" style="41" customWidth="1"/>
+    <col min="9" max="9" width="39.42578125" style="41" customWidth="1"/>
+    <col min="10" max="10" width="28" style="41" customWidth="1"/>
+    <col min="11" max="11" width="31.140625" style="41" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="41"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="44" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="49" t="s">
+        <v>508</v>
+      </c>
+      <c r="I2" s="44" t="s">
+        <v>516</v>
+      </c>
+      <c r="J2" s="44" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="47" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="48" t="s">
+        <v>511</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>517</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>515</v>
+      </c>
+      <c r="J3" s="47" t="s">
+        <v>50</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3295,8 +3557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N14"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+    <sheetView topLeftCell="I4" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3317,9 +3579,9 @@
     <col min="14" max="14" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="36" customFormat="1" ht="42" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
-        <v>420</v>
+    <row r="1" spans="1:14" s="34" customFormat="1" ht="42" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
+        <v>352</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -3362,458 +3624,458 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="90" x14ac:dyDescent="0.25">
-      <c r="A2" s="20"/>
-      <c r="B2" s="20" t="s">
-        <v>421</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>422</v>
-      </c>
-      <c r="D2" s="21" t="s">
+      <c r="A2" s="18"/>
+      <c r="B2" s="18" t="s">
+        <v>353</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>354</v>
+      </c>
+      <c r="D2" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="21"/>
-      <c r="F2" s="22" t="s">
-        <v>423</v>
-      </c>
-      <c r="G2" s="22" t="s">
-        <v>424</v>
-      </c>
-      <c r="H2" s="23" t="s">
-        <v>425</v>
-      </c>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21" t="s">
-        <v>426</v>
-      </c>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21" t="s">
-        <v>427</v>
-      </c>
-      <c r="N2" s="20"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="20" t="s">
+        <v>355</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>356</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>357</v>
+      </c>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19" t="s">
+        <v>359</v>
+      </c>
+      <c r="N2" s="18"/>
     </row>
     <row r="3" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
-      <c r="B3" s="20" t="s">
-        <v>428</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>429</v>
-      </c>
-      <c r="D3" s="21" t="s">
-        <v>430</v>
-      </c>
-      <c r="E3" s="24"/>
-      <c r="F3" s="22" t="s">
-        <v>431</v>
+      <c r="B3" s="18" t="s">
+        <v>360</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>361</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>362</v>
+      </c>
+      <c r="E3" s="22"/>
+      <c r="F3" s="20" t="s">
+        <v>363</v>
       </c>
       <c r="G3" s="5"/>
-      <c r="H3" s="23" t="s">
-        <v>432</v>
-      </c>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21" t="s">
-        <v>427</v>
+      <c r="H3" s="21" t="s">
+        <v>364</v>
+      </c>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19" t="s">
+        <v>359</v>
       </c>
       <c r="N3" s="5"/>
     </row>
     <row r="4" spans="1:14" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
-        <v>433</v>
-      </c>
-      <c r="B4" s="20" t="s">
-        <v>434</v>
-      </c>
-      <c r="C4" s="26" t="s">
-        <v>435</v>
-      </c>
-      <c r="D4" s="21" t="s">
-        <v>436</v>
-      </c>
-      <c r="E4" s="24"/>
-      <c r="F4" s="22" t="s">
-        <v>437</v>
-      </c>
-      <c r="G4" s="22" t="s">
-        <v>424</v>
-      </c>
-      <c r="H4" s="23" t="s">
-        <v>438</v>
-      </c>
-      <c r="I4" s="21" t="s">
-        <v>439</v>
-      </c>
-      <c r="J4" s="21" t="s">
-        <v>440</v>
-      </c>
-      <c r="K4" s="21"/>
-      <c r="L4" s="23" t="s">
-        <v>441</v>
-      </c>
-      <c r="M4" s="21" t="s">
-        <v>427</v>
+      <c r="A4" s="23" t="s">
+        <v>365</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>366</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>367</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>368</v>
+      </c>
+      <c r="E4" s="22"/>
+      <c r="F4" s="20" t="s">
+        <v>369</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>356</v>
+      </c>
+      <c r="H4" s="21" t="s">
+        <v>370</v>
+      </c>
+      <c r="I4" s="19" t="s">
+        <v>371</v>
+      </c>
+      <c r="J4" s="19" t="s">
+        <v>372</v>
+      </c>
+      <c r="K4" s="19"/>
+      <c r="L4" s="21" t="s">
+        <v>373</v>
+      </c>
+      <c r="M4" s="19" t="s">
+        <v>359</v>
       </c>
       <c r="N4" s="5"/>
     </row>
     <row r="5" spans="1:14" ht="75" x14ac:dyDescent="0.25">
-      <c r="A5" s="25" t="s">
-        <v>442</v>
-      </c>
-      <c r="B5" s="20" t="s">
-        <v>443</v>
-      </c>
-      <c r="C5" s="27" t="s">
-        <v>444</v>
-      </c>
-      <c r="D5" s="21" t="s">
-        <v>430</v>
-      </c>
-      <c r="E5" s="24"/>
-      <c r="F5" s="22" t="s">
-        <v>445</v>
-      </c>
-      <c r="G5" s="22"/>
-      <c r="H5" s="21" t="s">
-        <v>446</v>
-      </c>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21" t="s">
-        <v>426</v>
-      </c>
-      <c r="K5" s="21"/>
-      <c r="L5" s="23" t="s">
-        <v>447</v>
-      </c>
-      <c r="M5" s="21" t="s">
-        <v>427</v>
+      <c r="A5" s="23" t="s">
+        <v>374</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>375</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>376</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>362</v>
+      </c>
+      <c r="E5" s="22"/>
+      <c r="F5" s="20" t="s">
+        <v>377</v>
+      </c>
+      <c r="G5" s="20"/>
+      <c r="H5" s="19" t="s">
+        <v>378</v>
+      </c>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="K5" s="19"/>
+      <c r="L5" s="21" t="s">
+        <v>379</v>
+      </c>
+      <c r="M5" s="19" t="s">
+        <v>359</v>
       </c>
       <c r="N5" s="5"/>
     </row>
     <row r="6" spans="1:14" ht="90" x14ac:dyDescent="0.25">
-      <c r="A6" s="28" t="s">
-        <v>442</v>
-      </c>
-      <c r="B6" s="29" t="s">
-        <v>448</v>
-      </c>
-      <c r="C6" s="30" t="s">
-        <v>449</v>
-      </c>
-      <c r="D6" s="31" t="s">
+      <c r="A6" s="26" t="s">
+        <v>374</v>
+      </c>
+      <c r="B6" s="27" t="s">
+        <v>380</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>381</v>
+      </c>
+      <c r="D6" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="31" t="s">
-        <v>450</v>
-      </c>
-      <c r="F6" s="32" t="s">
-        <v>423</v>
-      </c>
-      <c r="G6" s="32" t="s">
-        <v>424</v>
-      </c>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="21" t="s">
-        <v>427</v>
-      </c>
-      <c r="N6" s="33"/>
+      <c r="E6" s="29" t="s">
+        <v>382</v>
+      </c>
+      <c r="F6" s="30" t="s">
+        <v>355</v>
+      </c>
+      <c r="G6" s="30" t="s">
+        <v>356</v>
+      </c>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="19" t="s">
+        <v>359</v>
+      </c>
+      <c r="N6" s="31"/>
     </row>
     <row r="7" spans="1:14" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="25" t="s">
-        <v>451</v>
-      </c>
-      <c r="B7" s="20" t="s">
-        <v>452</v>
-      </c>
-      <c r="C7" s="26" t="s">
-        <v>453</v>
-      </c>
-      <c r="D7" s="21" t="s">
-        <v>430</v>
-      </c>
-      <c r="E7" s="24" t="s">
-        <v>450</v>
-      </c>
-      <c r="F7" s="22" t="s">
-        <v>454</v>
+      <c r="A7" s="23" t="s">
+        <v>383</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>384</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>385</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>362</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>382</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>386</v>
       </c>
       <c r="G7" s="5"/>
-      <c r="H7" s="23" t="s">
-        <v>455</v>
-      </c>
-      <c r="I7" s="21" t="s">
-        <v>439</v>
-      </c>
-      <c r="J7" s="21" t="s">
-        <v>440</v>
-      </c>
-      <c r="K7" s="21"/>
-      <c r="L7" s="23" t="s">
-        <v>456</v>
-      </c>
-      <c r="M7" s="21" t="s">
-        <v>427</v>
+      <c r="H7" s="21" t="s">
+        <v>387</v>
+      </c>
+      <c r="I7" s="19" t="s">
+        <v>371</v>
+      </c>
+      <c r="J7" s="19" t="s">
+        <v>372</v>
+      </c>
+      <c r="K7" s="19"/>
+      <c r="L7" s="21" t="s">
+        <v>388</v>
+      </c>
+      <c r="M7" s="19" t="s">
+        <v>359</v>
       </c>
       <c r="N7" s="5"/>
     </row>
     <row r="8" spans="1:14" ht="60" x14ac:dyDescent="0.25">
-      <c r="A8" s="25" t="s">
-        <v>457</v>
-      </c>
-      <c r="B8" s="20" t="s">
-        <v>458</v>
-      </c>
-      <c r="C8" s="26" t="s">
-        <v>459</v>
-      </c>
-      <c r="D8" s="21" t="s">
-        <v>436</v>
-      </c>
-      <c r="E8" s="24"/>
-      <c r="F8" s="22" t="s">
-        <v>460</v>
-      </c>
-      <c r="G8" s="22" t="s">
-        <v>424</v>
-      </c>
-      <c r="H8" s="23" t="s">
-        <v>461</v>
-      </c>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21" t="s">
-        <v>440</v>
-      </c>
-      <c r="K8" s="21"/>
-      <c r="L8" s="23" t="s">
-        <v>462</v>
-      </c>
-      <c r="M8" s="21" t="s">
-        <v>427</v>
+      <c r="A8" s="23" t="s">
+        <v>389</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>390</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>391</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>368</v>
+      </c>
+      <c r="E8" s="22"/>
+      <c r="F8" s="20" t="s">
+        <v>392</v>
+      </c>
+      <c r="G8" s="20" t="s">
+        <v>356</v>
+      </c>
+      <c r="H8" s="21" t="s">
+        <v>393</v>
+      </c>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19" t="s">
+        <v>372</v>
+      </c>
+      <c r="K8" s="19"/>
+      <c r="L8" s="21" t="s">
+        <v>394</v>
+      </c>
+      <c r="M8" s="19" t="s">
+        <v>359</v>
       </c>
       <c r="N8" s="5"/>
     </row>
     <row r="9" spans="1:14" ht="60" x14ac:dyDescent="0.25">
-      <c r="A9" s="25" t="s">
-        <v>463</v>
-      </c>
-      <c r="B9" s="20" t="s">
-        <v>464</v>
-      </c>
-      <c r="C9" s="26" t="s">
-        <v>465</v>
-      </c>
-      <c r="D9" s="21" t="s">
-        <v>436</v>
-      </c>
-      <c r="E9" s="24"/>
-      <c r="F9" s="22" t="s">
-        <v>466</v>
-      </c>
-      <c r="G9" s="22" t="s">
-        <v>424</v>
-      </c>
-      <c r="H9" s="23" t="s">
-        <v>467</v>
-      </c>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21" t="s">
-        <v>426</v>
-      </c>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21" t="s">
-        <v>468</v>
-      </c>
-      <c r="M9" s="21" t="s">
-        <v>427</v>
+      <c r="A9" s="23" t="s">
+        <v>395</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>396</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>397</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>368</v>
+      </c>
+      <c r="E9" s="22"/>
+      <c r="F9" s="20" t="s">
+        <v>398</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>356</v>
+      </c>
+      <c r="H9" s="21" t="s">
+        <v>399</v>
+      </c>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19" t="s">
+        <v>400</v>
+      </c>
+      <c r="M9" s="19" t="s">
+        <v>359</v>
       </c>
       <c r="N9" s="5"/>
     </row>
     <row r="10" spans="1:14" ht="60" x14ac:dyDescent="0.25">
-      <c r="A10" s="25" t="s">
-        <v>469</v>
-      </c>
-      <c r="B10" s="20" t="s">
-        <v>470</v>
-      </c>
-      <c r="C10" s="27" t="s">
-        <v>471</v>
-      </c>
-      <c r="D10" s="21" t="s">
-        <v>436</v>
-      </c>
-      <c r="E10" s="34" t="s">
-        <v>472</v>
-      </c>
-      <c r="F10" s="22" t="s">
-        <v>473</v>
-      </c>
-      <c r="G10" s="22" t="s">
-        <v>424</v>
-      </c>
-      <c r="H10" s="23" t="s">
-        <v>474</v>
-      </c>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21" t="s">
-        <v>426</v>
-      </c>
-      <c r="K10" s="21"/>
-      <c r="L10" s="23" t="s">
-        <v>475</v>
-      </c>
-      <c r="M10" s="21" t="s">
-        <v>427</v>
+      <c r="A10" s="23" t="s">
+        <v>401</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>402</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>403</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>368</v>
+      </c>
+      <c r="E10" s="32" t="s">
+        <v>404</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>405</v>
+      </c>
+      <c r="G10" s="20" t="s">
+        <v>356</v>
+      </c>
+      <c r="H10" s="21" t="s">
+        <v>406</v>
+      </c>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="K10" s="19"/>
+      <c r="L10" s="21" t="s">
+        <v>407</v>
+      </c>
+      <c r="M10" s="19" t="s">
+        <v>359</v>
       </c>
       <c r="N10" s="5"/>
     </row>
     <row r="11" spans="1:14" ht="60" x14ac:dyDescent="0.25">
-      <c r="A11" s="25" t="s">
-        <v>476</v>
-      </c>
-      <c r="B11" s="20" t="s">
-        <v>477</v>
-      </c>
-      <c r="C11" s="26" t="s">
-        <v>478</v>
-      </c>
-      <c r="D11" s="21" t="s">
-        <v>436</v>
-      </c>
-      <c r="E11" s="24"/>
-      <c r="F11" s="22" t="s">
-        <v>479</v>
-      </c>
-      <c r="G11" s="22" t="s">
-        <v>424</v>
-      </c>
-      <c r="H11" s="23" t="s">
-        <v>480</v>
-      </c>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21" t="s">
-        <v>426</v>
-      </c>
-      <c r="K11" s="21"/>
-      <c r="L11" s="21" t="s">
-        <v>481</v>
-      </c>
-      <c r="M11" s="21" t="s">
-        <v>427</v>
+      <c r="A11" s="23" t="s">
+        <v>408</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>409</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>410</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>368</v>
+      </c>
+      <c r="E11" s="22"/>
+      <c r="F11" s="20" t="s">
+        <v>411</v>
+      </c>
+      <c r="G11" s="20" t="s">
+        <v>356</v>
+      </c>
+      <c r="H11" s="21" t="s">
+        <v>412</v>
+      </c>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19" t="s">
+        <v>413</v>
+      </c>
+      <c r="M11" s="19" t="s">
+        <v>359</v>
       </c>
       <c r="N11" s="5"/>
     </row>
     <row r="12" spans="1:14" ht="60" x14ac:dyDescent="0.25">
-      <c r="A12" s="25" t="s">
-        <v>482</v>
-      </c>
-      <c r="B12" s="20" t="s">
-        <v>483</v>
-      </c>
-      <c r="C12" s="27" t="s">
-        <v>484</v>
-      </c>
-      <c r="D12" s="21" t="s">
-        <v>436</v>
-      </c>
-      <c r="E12" s="34" t="s">
-        <v>485</v>
-      </c>
-      <c r="F12" s="22" t="s">
-        <v>486</v>
-      </c>
-      <c r="G12" s="22" t="s">
-        <v>424</v>
-      </c>
-      <c r="H12" s="23" t="s">
-        <v>487</v>
-      </c>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21" t="s">
-        <v>426</v>
-      </c>
-      <c r="K12" s="21"/>
-      <c r="L12" s="23" t="s">
-        <v>488</v>
-      </c>
-      <c r="M12" s="21" t="s">
-        <v>427</v>
+      <c r="A12" s="23" t="s">
+        <v>414</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>415</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>416</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>368</v>
+      </c>
+      <c r="E12" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>418</v>
+      </c>
+      <c r="G12" s="20" t="s">
+        <v>356</v>
+      </c>
+      <c r="H12" s="21" t="s">
+        <v>419</v>
+      </c>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="K12" s="19"/>
+      <c r="L12" s="21" t="s">
+        <v>420</v>
+      </c>
+      <c r="M12" s="19" t="s">
+        <v>359</v>
       </c>
       <c r="N12" s="5"/>
     </row>
     <row r="13" spans="1:14" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
-      <c r="B13" s="20" t="s">
-        <v>489</v>
-      </c>
-      <c r="C13" s="27" t="s">
-        <v>490</v>
-      </c>
-      <c r="D13" s="21" t="s">
-        <v>436</v>
-      </c>
-      <c r="E13" s="24"/>
-      <c r="F13" s="22" t="s">
-        <v>491</v>
-      </c>
-      <c r="G13" s="22" t="s">
+      <c r="B13" s="18" t="s">
+        <v>421</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>422</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>368</v>
+      </c>
+      <c r="E13" s="22"/>
+      <c r="F13" s="20" t="s">
+        <v>423</v>
+      </c>
+      <c r="G13" s="20" t="s">
+        <v>356</v>
+      </c>
+      <c r="H13" s="21" t="s">
         <v>424</v>
       </c>
-      <c r="H13" s="23" t="s">
-        <v>492</v>
-      </c>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21" t="s">
+      <c r="I13" s="19"/>
+      <c r="J13" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="K13" s="19"/>
+      <c r="L13" s="21" t="s">
+        <v>425</v>
+      </c>
+      <c r="M13" s="19" t="s">
+        <v>359</v>
+      </c>
+      <c r="N13" s="5"/>
+    </row>
+    <row r="14" spans="1:14" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="33" t="s">
         <v>426</v>
       </c>
-      <c r="K13" s="21"/>
-      <c r="L13" s="23" t="s">
-        <v>493</v>
-      </c>
-      <c r="M13" s="21" t="s">
+      <c r="B14" s="18" t="s">
         <v>427</v>
       </c>
-      <c r="N13" s="5"/>
-    </row>
-    <row r="14" spans="1:14" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="35" t="s">
-        <v>494</v>
-      </c>
-      <c r="B14" s="20" t="s">
-        <v>495</v>
-      </c>
-      <c r="C14" s="27" t="s">
-        <v>490</v>
-      </c>
-      <c r="D14" s="21" t="s">
-        <v>436</v>
-      </c>
-      <c r="E14" s="24"/>
-      <c r="F14" s="22" t="s">
-        <v>491</v>
-      </c>
-      <c r="G14" s="22" t="s">
+      <c r="C14" s="25" t="s">
+        <v>422</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>368</v>
+      </c>
+      <c r="E14" s="22"/>
+      <c r="F14" s="20" t="s">
+        <v>423</v>
+      </c>
+      <c r="G14" s="20" t="s">
+        <v>356</v>
+      </c>
+      <c r="H14" s="21" t="s">
         <v>424</v>
       </c>
-      <c r="H14" s="23" t="s">
-        <v>492</v>
-      </c>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21" t="s">
-        <v>426</v>
-      </c>
-      <c r="K14" s="21"/>
-      <c r="L14" s="23" t="s">
-        <v>493</v>
-      </c>
-      <c r="M14" s="21" t="s">
-        <v>427</v>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="K14" s="19"/>
+      <c r="L14" s="21" t="s">
+        <v>425</v>
+      </c>
+      <c r="M14" s="19" t="s">
+        <v>359</v>
       </c>
       <c r="N14" s="5"/>
     </row>
@@ -3826,8 +4088,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView topLeftCell="K2" workbookViewId="0">
+      <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3847,8 +4109,8 @@
     <col min="13" max="13" width="8.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="36" customFormat="1" ht="42.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="37"/>
+    <row r="1" spans="1:14" s="34" customFormat="1" ht="42.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="35"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3890,240 +4152,240 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="35" t="s">
-        <v>496</v>
-      </c>
-      <c r="B2" s="36" t="s">
-        <v>497</v>
-      </c>
-      <c r="C2" s="36" t="s">
-        <v>498</v>
-      </c>
-      <c r="D2" s="36" t="s">
-        <v>499</v>
-      </c>
-      <c r="E2" s="36"/>
-      <c r="F2" s="22" t="s">
-        <v>500</v>
+      <c r="A2" s="33" t="s">
+        <v>428</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>429</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>430</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>431</v>
+      </c>
+      <c r="E2" s="34"/>
+      <c r="F2" s="20" t="s">
+        <v>432</v>
       </c>
       <c r="G2" s="14"/>
-      <c r="H2" s="37" t="s">
-        <v>501</v>
-      </c>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36" t="s">
-        <v>426</v>
-      </c>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36" t="s">
-        <v>502</v>
-      </c>
-      <c r="M2" s="36" t="s">
-        <v>427</v>
-      </c>
-      <c r="N2" s="36"/>
+      <c r="H2" s="35" t="s">
+        <v>433</v>
+      </c>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34" t="s">
+        <v>358</v>
+      </c>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34" t="s">
+        <v>434</v>
+      </c>
+      <c r="M2" s="34" t="s">
+        <v>359</v>
+      </c>
+      <c r="N2" s="34"/>
     </row>
     <row r="3" spans="1:14" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="35" t="s">
-        <v>503</v>
-      </c>
-      <c r="B3" s="36" t="s">
-        <v>504</v>
-      </c>
-      <c r="C3" s="36" t="s">
-        <v>505</v>
-      </c>
-      <c r="D3" s="36" t="s">
-        <v>499</v>
-      </c>
-      <c r="E3" s="36"/>
-      <c r="F3" s="22" t="s">
-        <v>506</v>
-      </c>
-      <c r="H3" s="37" t="s">
-        <v>507</v>
+      <c r="A3" s="33" t="s">
+        <v>435</v>
+      </c>
+      <c r="B3" s="34" t="s">
+        <v>436</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>437</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>431</v>
+      </c>
+      <c r="E3" s="34"/>
+      <c r="F3" s="20" t="s">
+        <v>438</v>
+      </c>
+      <c r="H3" s="35" t="s">
+        <v>439</v>
       </c>
       <c r="J3" t="s">
+        <v>372</v>
+      </c>
+      <c r="L3" t="s">
         <v>440</v>
       </c>
-      <c r="L3" t="s">
-        <v>508</v>
-      </c>
       <c r="M3" t="s">
-        <v>427</v>
+        <v>359</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="35" t="s">
-        <v>509</v>
-      </c>
-      <c r="B4" s="36" t="s">
-        <v>510</v>
-      </c>
-      <c r="C4" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="D4" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="E4" s="36" t="s">
-        <v>513</v>
-      </c>
-      <c r="F4" s="22" t="s">
-        <v>514</v>
-      </c>
-      <c r="G4" s="23" t="s">
-        <v>424</v>
-      </c>
-      <c r="H4" s="37" t="s">
-        <v>501</v>
+      <c r="A4" s="33" t="s">
+        <v>441</v>
+      </c>
+      <c r="B4" s="34" t="s">
+        <v>442</v>
+      </c>
+      <c r="C4" s="34" t="s">
+        <v>443</v>
+      </c>
+      <c r="D4" s="34" t="s">
+        <v>444</v>
+      </c>
+      <c r="E4" s="34" t="s">
+        <v>445</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>446</v>
+      </c>
+      <c r="G4" s="21" t="s">
+        <v>356</v>
+      </c>
+      <c r="H4" s="35" t="s">
+        <v>433</v>
       </c>
       <c r="J4" t="s">
-        <v>440</v>
+        <v>372</v>
       </c>
       <c r="L4" t="s">
-        <v>515</v>
+        <v>447</v>
       </c>
       <c r="M4" t="s">
-        <v>427</v>
+        <v>359</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="35" t="s">
-        <v>516</v>
-      </c>
-      <c r="B5" s="36" t="s">
-        <v>517</v>
-      </c>
-      <c r="C5" s="38" t="s">
-        <v>518</v>
-      </c>
-      <c r="D5" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="E5" s="36" t="s">
-        <v>513</v>
-      </c>
-      <c r="F5" s="22" t="s">
-        <v>519</v>
-      </c>
-      <c r="G5" s="23" t="s">
-        <v>424</v>
-      </c>
-      <c r="H5" s="38" t="s">
-        <v>520</v>
+      <c r="A5" s="33" t="s">
+        <v>448</v>
+      </c>
+      <c r="B5" s="34" t="s">
+        <v>449</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>450</v>
+      </c>
+      <c r="D5" s="34" t="s">
+        <v>444</v>
+      </c>
+      <c r="E5" s="34" t="s">
+        <v>445</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>451</v>
+      </c>
+      <c r="G5" s="21" t="s">
+        <v>356</v>
+      </c>
+      <c r="H5" s="36" t="s">
+        <v>452</v>
       </c>
       <c r="J5" t="s">
-        <v>426</v>
+        <v>358</v>
       </c>
       <c r="L5" t="s">
-        <v>521</v>
+        <v>453</v>
       </c>
       <c r="M5" t="s">
-        <v>427</v>
+        <v>359</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="35" t="s">
-        <v>522</v>
-      </c>
-      <c r="B6" s="36" t="s">
-        <v>523</v>
-      </c>
-      <c r="C6" s="39" t="s">
-        <v>524</v>
-      </c>
-      <c r="D6" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="E6" s="36" t="s">
-        <v>513</v>
-      </c>
-      <c r="F6" s="22" t="s">
-        <v>525</v>
-      </c>
-      <c r="G6" s="23" t="s">
-        <v>424</v>
-      </c>
-      <c r="H6" s="38" t="s">
-        <v>526</v>
+      <c r="A6" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="B6" s="34" t="s">
+        <v>455</v>
+      </c>
+      <c r="C6" s="37" t="s">
+        <v>456</v>
+      </c>
+      <c r="D6" s="34" t="s">
+        <v>444</v>
+      </c>
+      <c r="E6" s="34" t="s">
+        <v>445</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>457</v>
+      </c>
+      <c r="G6" s="21" t="s">
+        <v>356</v>
+      </c>
+      <c r="H6" s="36" t="s">
+        <v>458</v>
       </c>
       <c r="J6" t="s">
-        <v>426</v>
+        <v>358</v>
       </c>
       <c r="L6" t="s">
-        <v>527</v>
+        <v>459</v>
       </c>
       <c r="M6" t="s">
-        <v>427</v>
+        <v>359</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="35" t="s">
-        <v>528</v>
-      </c>
-      <c r="B7" s="36" t="s">
-        <v>529</v>
-      </c>
-      <c r="C7" s="37" t="s">
-        <v>530</v>
-      </c>
-      <c r="D7" s="36" t="s">
-        <v>512</v>
-      </c>
-      <c r="E7" s="36" t="s">
-        <v>513</v>
-      </c>
-      <c r="F7" s="22" t="s">
-        <v>531</v>
-      </c>
-      <c r="G7" s="23" t="s">
-        <v>424</v>
-      </c>
-      <c r="H7" s="38" t="s">
-        <v>532</v>
+      <c r="A7" s="33" t="s">
+        <v>460</v>
+      </c>
+      <c r="B7" s="34" t="s">
+        <v>461</v>
+      </c>
+      <c r="C7" s="35" t="s">
+        <v>462</v>
+      </c>
+      <c r="D7" s="34" t="s">
+        <v>444</v>
+      </c>
+      <c r="E7" s="34" t="s">
+        <v>445</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>463</v>
+      </c>
+      <c r="G7" s="21" t="s">
+        <v>356</v>
+      </c>
+      <c r="H7" s="36" t="s">
+        <v>464</v>
       </c>
       <c r="J7" t="s">
-        <v>426</v>
+        <v>358</v>
       </c>
       <c r="L7" t="s">
-        <v>521</v>
+        <v>453</v>
       </c>
       <c r="M7" t="s">
-        <v>427</v>
+        <v>359</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="120" x14ac:dyDescent="0.25">
-      <c r="A8" s="40"/>
-      <c r="B8" s="41" t="s">
-        <v>533</v>
-      </c>
-      <c r="C8" s="42" t="s">
-        <v>534</v>
-      </c>
-      <c r="D8" s="41" t="s">
-        <v>535</v>
-      </c>
-      <c r="E8" s="41"/>
-      <c r="F8" s="32" t="s">
-        <v>536</v>
-      </c>
-      <c r="G8" s="40"/>
-      <c r="H8" s="42" t="s">
-        <v>537</v>
-      </c>
-      <c r="I8" s="40"/>
-      <c r="J8" s="40" t="s">
-        <v>440</v>
-      </c>
-      <c r="K8" s="40"/>
-      <c r="L8" s="40" t="s">
-        <v>538</v>
-      </c>
-      <c r="M8" s="40" t="s">
-        <v>427</v>
-      </c>
-      <c r="N8" s="40"/>
+      <c r="A8" s="38"/>
+      <c r="B8" s="39" t="s">
+        <v>465</v>
+      </c>
+      <c r="C8" s="40" t="s">
+        <v>466</v>
+      </c>
+      <c r="D8" s="39" t="s">
+        <v>467</v>
+      </c>
+      <c r="E8" s="39"/>
+      <c r="F8" s="30" t="s">
+        <v>468</v>
+      </c>
+      <c r="G8" s="38"/>
+      <c r="H8" s="40" t="s">
+        <v>469</v>
+      </c>
+      <c r="I8" s="38"/>
+      <c r="J8" s="38" t="s">
+        <v>372</v>
+      </c>
+      <c r="K8" s="38"/>
+      <c r="L8" s="38" t="s">
+        <v>470</v>
+      </c>
+      <c r="M8" s="38" t="s">
+        <v>359</v>
+      </c>
+      <c r="N8" s="38"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4132,27 +4394,39 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A49" sqref="A49"/>
+      <selection pane="bottomLeft" activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.85546875" style="43" customWidth="1"/>
-    <col min="2" max="2" width="51.140625" style="43" customWidth="1"/>
-    <col min="3" max="3" width="26" style="34" customWidth="1"/>
-    <col min="4" max="4" width="26" style="43" customWidth="1"/>
-    <col min="5" max="5" width="56.7109375" style="43" customWidth="1"/>
-    <col min="6" max="6" width="50.5703125" style="43" customWidth="1"/>
-    <col min="7" max="7" width="26.42578125" style="34" customWidth="1"/>
-    <col min="8" max="8" width="24" style="43" customWidth="1"/>
-    <col min="9" max="9" width="31.85546875" style="43" customWidth="1"/>
-    <col min="10" max="10" width="23" style="43" customWidth="1"/>
-    <col min="11" max="11" width="19" style="43" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="43"/>
+    <col min="1" max="1" width="24.85546875" style="41" customWidth="1"/>
+    <col min="2" max="2" width="51.140625" style="41" customWidth="1"/>
+    <col min="3" max="3" width="26" style="32" customWidth="1"/>
+    <col min="4" max="4" width="26" style="41" customWidth="1"/>
+    <col min="5" max="5" width="56.7109375" style="41" customWidth="1"/>
+    <col min="6" max="6" width="50.5703125" style="41" customWidth="1"/>
+    <col min="7" max="7" width="26.42578125" style="32" customWidth="1"/>
+    <col min="8" max="8" width="24" style="41" customWidth="1"/>
+    <col min="9" max="9" width="31.85546875" style="41" customWidth="1"/>
+    <col min="10" max="10" width="23" style="41" customWidth="1"/>
+    <col min="11" max="11" width="19" style="41" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="41"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4190,1456 +4464,1456 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="46" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="46" t="s">
+    <row r="2" spans="1:11" s="44" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="51" t="s">
+      <c r="C2" s="49" t="s">
         <v>71</v>
       </c>
-      <c r="E2" s="46" t="s">
+      <c r="E2" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="F2" s="46" t="s">
+      <c r="F2" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="G2" s="51" t="s">
-        <v>576</v>
-      </c>
-      <c r="I2" s="46" t="s">
-        <v>589</v>
-      </c>
-      <c r="J2" s="46" t="s">
+      <c r="G2" s="49" t="s">
+        <v>508</v>
+      </c>
+      <c r="I2" s="44" t="s">
+        <v>521</v>
+      </c>
+      <c r="J2" s="44" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="46" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3" s="46" t="s">
+    <row r="3" spans="1:11" s="44" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="C3" s="51" t="s">
+      <c r="C3" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="46" t="s">
+      <c r="E3" s="44" t="s">
         <v>82</v>
       </c>
-      <c r="F3" s="46" t="s">
-        <v>590</v>
-      </c>
-      <c r="G3" s="51" t="s">
-        <v>576</v>
-      </c>
-      <c r="I3" s="46" t="s">
-        <v>591</v>
-      </c>
-      <c r="J3" s="46" t="s">
+      <c r="F3" s="44" t="s">
+        <v>522</v>
+      </c>
+      <c r="G3" s="49" t="s">
+        <v>508</v>
+      </c>
+      <c r="I3" s="44" t="s">
+        <v>523</v>
+      </c>
+      <c r="J3" s="44" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="49" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A4" s="49" t="s">
+    <row r="4" spans="1:11" s="47" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A4" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="C4" s="50" t="s">
+      <c r="C4" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="49" t="s">
-        <v>577</v>
-      </c>
-      <c r="F4" s="49" t="s">
+      <c r="E4" s="47" t="s">
+        <v>509</v>
+      </c>
+      <c r="F4" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="G4" s="50" t="s">
-        <v>579</v>
+      <c r="G4" s="48" t="s">
+        <v>511</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>603</v>
+        <v>535</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>586</v>
-      </c>
-      <c r="J4" s="49" t="s">
+        <v>518</v>
+      </c>
+      <c r="J4" s="47" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="46" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A5" s="46" t="s">
+    <row r="5" spans="1:11" s="44" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A5" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="C5" s="51" t="s">
+      <c r="C5" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="46" t="s">
+      <c r="E5" s="44" t="s">
         <v>78</v>
       </c>
-      <c r="F5" s="46" t="s">
+      <c r="F5" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="G5" s="51" t="s">
-        <v>576</v>
-      </c>
-      <c r="H5" s="52"/>
-      <c r="I5" s="52" t="s">
-        <v>592</v>
-      </c>
-      <c r="J5" s="46" t="s">
+      <c r="G5" s="49" t="s">
+        <v>508</v>
+      </c>
+      <c r="H5" s="50"/>
+      <c r="I5" s="50" t="s">
+        <v>524</v>
+      </c>
+      <c r="J5" s="44" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="46" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A6" s="46" t="s">
+    <row r="6" spans="1:11" s="44" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A6" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="B6" s="46" t="s">
+      <c r="B6" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="C6" s="51" t="s">
+      <c r="C6" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="46" t="s">
+      <c r="E6" s="44" t="s">
         <v>80</v>
       </c>
-      <c r="F6" s="46" t="s">
+      <c r="F6" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="G6" s="51" t="s">
-        <v>576</v>
-      </c>
-      <c r="I6" s="52" t="s">
-        <v>592</v>
-      </c>
-      <c r="J6" s="46" t="s">
+      <c r="G6" s="49" t="s">
+        <v>508</v>
+      </c>
+      <c r="I6" s="50" t="s">
+        <v>524</v>
+      </c>
+      <c r="J6" s="44" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="49" customFormat="1" ht="105" x14ac:dyDescent="0.25">
-      <c r="A7" s="49" t="s">
+    <row r="7" spans="1:11" s="47" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A7" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="B7" s="49" t="s">
+      <c r="B7" s="47" t="s">
         <v>81</v>
       </c>
-      <c r="C7" s="50" t="s">
+      <c r="C7" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="49" t="s">
+      <c r="E7" s="47" t="s">
         <v>83</v>
       </c>
-      <c r="F7" s="49" t="s">
+      <c r="F7" s="47" t="s">
         <v>84</v>
       </c>
-      <c r="G7" s="50" t="s">
-        <v>579</v>
+      <c r="G7" s="48" t="s">
+        <v>511</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>604</v>
+        <v>536</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>593</v>
-      </c>
-      <c r="J7" s="49" t="s">
+        <v>525</v>
+      </c>
+      <c r="J7" s="47" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="49" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A8" s="49" t="s">
+    <row r="8" spans="1:11" s="47" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A8" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="B8" s="49" t="s">
+      <c r="B8" s="47" t="s">
         <v>86</v>
       </c>
-      <c r="C8" s="50" t="s">
+      <c r="C8" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="49" t="s">
+      <c r="E8" s="47" t="s">
         <v>87</v>
       </c>
-      <c r="F8" s="49" t="s">
+      <c r="F8" s="47" t="s">
         <v>84</v>
       </c>
-      <c r="G8" s="50" t="s">
-        <v>440</v>
+      <c r="G8" s="48" t="s">
+        <v>372</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>605</v>
+        <v>537</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>586</v>
-      </c>
-      <c r="J8" s="49" t="s">
+        <v>518</v>
+      </c>
+      <c r="J8" s="47" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="46" customFormat="1" ht="105" x14ac:dyDescent="0.25">
-      <c r="A9" s="46" t="s">
+    <row r="9" spans="1:11" s="44" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A9" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="B9" s="46" t="s">
+      <c r="B9" s="44" t="s">
         <v>119</v>
       </c>
-      <c r="C9" s="51" t="s">
+      <c r="C9" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="46" t="s">
+      <c r="E9" s="44" t="s">
         <v>88</v>
       </c>
-      <c r="F9" s="46" t="s">
+      <c r="F9" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="G9" s="51" t="s">
-        <v>576</v>
-      </c>
-      <c r="I9" s="52" t="s">
-        <v>592</v>
-      </c>
-      <c r="J9" s="46" t="s">
+      <c r="G9" s="49" t="s">
+        <v>508</v>
+      </c>
+      <c r="I9" s="50" t="s">
+        <v>524</v>
+      </c>
+      <c r="J9" s="44" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="49" customFormat="1" ht="105" x14ac:dyDescent="0.25">
-      <c r="A10" s="49" t="s">
+    <row r="10" spans="1:11" s="47" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A10" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="B10" s="49" t="s">
+      <c r="B10" s="47" t="s">
         <v>89</v>
       </c>
-      <c r="C10" s="50" t="s">
+      <c r="C10" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="49" t="s">
+      <c r="E10" s="47" t="s">
         <v>88</v>
       </c>
-      <c r="F10" s="49" t="s">
+      <c r="F10" s="47" t="s">
         <v>84</v>
       </c>
-      <c r="G10" s="50" t="s">
-        <v>579</v>
+      <c r="G10" s="48" t="s">
+        <v>511</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>606</v>
+        <v>538</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>594</v>
-      </c>
-      <c r="J10" s="49" t="s">
+        <v>526</v>
+      </c>
+      <c r="J10" s="47" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="46" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A11" s="46" t="s">
+    <row r="11" spans="1:11" s="44" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A11" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="B11" s="46" t="s">
+      <c r="B11" s="44" t="s">
         <v>90</v>
       </c>
-      <c r="C11" s="51" t="s">
+      <c r="C11" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="46" t="s">
+      <c r="E11" s="44" t="s">
         <v>91</v>
       </c>
-      <c r="F11" s="46" t="s">
+      <c r="F11" s="44" t="s">
         <v>84</v>
       </c>
-      <c r="G11" s="51" t="s">
-        <v>576</v>
-      </c>
-      <c r="I11" s="46" t="s">
-        <v>595</v>
-      </c>
-      <c r="J11" s="46" t="s">
+      <c r="G11" s="49" t="s">
+        <v>508</v>
+      </c>
+      <c r="I11" s="44" t="s">
+        <v>527</v>
+      </c>
+      <c r="J11" s="44" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="49" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A12" s="49" t="s">
+    <row r="12" spans="1:11" s="47" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A12" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="B12" s="49" t="s">
+      <c r="B12" s="47" t="s">
         <v>99</v>
       </c>
-      <c r="C12" s="50" t="s">
+      <c r="C12" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="49" t="s">
+      <c r="E12" s="47" t="s">
         <v>100</v>
       </c>
-      <c r="F12" s="49" t="s">
+      <c r="F12" s="47" t="s">
         <v>84</v>
       </c>
-      <c r="G12" s="50" t="s">
-        <v>579</v>
+      <c r="G12" s="48" t="s">
+        <v>511</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>607</v>
+        <v>539</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>586</v>
-      </c>
-      <c r="J12" s="49" t="s">
+        <v>518</v>
+      </c>
+      <c r="J12" s="47" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="46" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A13" s="46" t="s">
+    <row r="13" spans="1:11" s="44" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A13" s="44" t="s">
         <v>93</v>
       </c>
-      <c r="B13" s="46" t="s">
+      <c r="B13" s="44" t="s">
         <v>101</v>
       </c>
-      <c r="C13" s="51" t="s">
+      <c r="C13" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="46" t="s">
+      <c r="E13" s="44" t="s">
         <v>102</v>
       </c>
-      <c r="F13" s="46" t="s">
-        <v>596</v>
-      </c>
-      <c r="G13" s="51" t="s">
-        <v>576</v>
-      </c>
-      <c r="I13" s="46" t="s">
-        <v>597</v>
-      </c>
-      <c r="J13" s="46" t="s">
+      <c r="F13" s="44" t="s">
+        <v>528</v>
+      </c>
+      <c r="G13" s="49" t="s">
+        <v>508</v>
+      </c>
+      <c r="I13" s="44" t="s">
+        <v>529</v>
+      </c>
+      <c r="J13" s="44" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="49" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A14" s="49" t="s">
+    <row r="14" spans="1:11" s="47" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A14" s="47" t="s">
         <v>94</v>
       </c>
-      <c r="B14" s="49" t="s">
+      <c r="B14" s="47" t="s">
         <v>103</v>
       </c>
-      <c r="C14" s="50" t="s">
+      <c r="C14" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="49" t="s">
+      <c r="E14" s="47" t="s">
         <v>104</v>
       </c>
-      <c r="F14" s="49" t="s">
-        <v>598</v>
-      </c>
-      <c r="G14" s="50" t="s">
-        <v>579</v>
+      <c r="F14" s="47" t="s">
+        <v>530</v>
+      </c>
+      <c r="G14" s="48" t="s">
+        <v>511</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>608</v>
-      </c>
-      <c r="I14" s="49" t="s">
-        <v>599</v>
-      </c>
-      <c r="J14" s="49" t="s">
+        <v>540</v>
+      </c>
+      <c r="I14" s="47" t="s">
+        <v>531</v>
+      </c>
+      <c r="J14" s="47" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:11" s="46" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A15" s="46" t="s">
+    <row r="15" spans="1:11" s="44" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A15" s="44" t="s">
         <v>95</v>
       </c>
-      <c r="B15" s="46" t="s">
+      <c r="B15" s="44" t="s">
         <v>118</v>
       </c>
-      <c r="C15" s="51" t="s">
+      <c r="C15" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="46" t="s">
+      <c r="E15" s="44" t="s">
         <v>105</v>
       </c>
-      <c r="F15" s="46" t="s">
+      <c r="F15" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="G15" s="51" t="s">
-        <v>576</v>
-      </c>
-      <c r="I15" s="46" t="s">
-        <v>600</v>
-      </c>
-      <c r="J15" s="46" t="s">
+      <c r="G15" s="49" t="s">
+        <v>508</v>
+      </c>
+      <c r="I15" s="44" t="s">
+        <v>532</v>
+      </c>
+      <c r="J15" s="44" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:11" s="46" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A16" s="46" t="s">
+    <row r="16" spans="1:11" s="44" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A16" s="44" t="s">
         <v>96</v>
       </c>
-      <c r="B16" s="46" t="s">
+      <c r="B16" s="44" t="s">
         <v>117</v>
       </c>
-      <c r="C16" s="51" t="s">
+      <c r="C16" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="46" t="s">
+      <c r="E16" s="44" t="s">
         <v>108</v>
       </c>
-      <c r="F16" s="46" t="s">
+      <c r="F16" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="G16" s="51" t="s">
-        <v>576</v>
-      </c>
-      <c r="I16" s="46" t="s">
-        <v>600</v>
-      </c>
-      <c r="J16" s="46" t="s">
+      <c r="G16" s="49" t="s">
+        <v>508</v>
+      </c>
+      <c r="I16" s="44" t="s">
+        <v>532</v>
+      </c>
+      <c r="J16" s="44" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:10" s="49" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A17" s="49" t="s">
+    <row r="17" spans="1:10" s="47" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A17" s="47" t="s">
         <v>97</v>
       </c>
-      <c r="B17" s="49" t="s">
+      <c r="B17" s="47" t="s">
         <v>106</v>
       </c>
-      <c r="C17" s="50" t="s">
+      <c r="C17" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="49" t="s">
+      <c r="E17" s="47" t="s">
         <v>107</v>
       </c>
-      <c r="F17" s="49" t="s">
+      <c r="F17" s="47" t="s">
         <v>84</v>
       </c>
-      <c r="G17" s="50" t="s">
-        <v>579</v>
+      <c r="G17" s="48" t="s">
+        <v>511</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>609</v>
+        <v>541</v>
       </c>
       <c r="I17" s="11" t="s">
-        <v>586</v>
-      </c>
-      <c r="J17" s="49" t="s">
+        <v>518</v>
+      </c>
+      <c r="J17" s="47" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:10" s="49" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A18" s="49" t="s">
+    <row r="18" spans="1:10" s="47" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A18" s="47" t="s">
         <v>98</v>
       </c>
-      <c r="B18" s="49" t="s">
+      <c r="B18" s="47" t="s">
         <v>109</v>
       </c>
-      <c r="C18" s="50" t="s">
+      <c r="C18" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="E18" s="49" t="s">
+      <c r="E18" s="47" t="s">
         <v>110</v>
       </c>
-      <c r="F18" s="49" t="s">
+      <c r="F18" s="47" t="s">
         <v>84</v>
       </c>
-      <c r="G18" s="50" t="s">
-        <v>579</v>
+      <c r="G18" s="48" t="s">
+        <v>511</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>610</v>
-      </c>
-      <c r="J18" s="49" t="s">
+        <v>542</v>
+      </c>
+      <c r="J18" s="47" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:10" s="49" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A19" s="49" t="s">
+    <row r="19" spans="1:10" s="47" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A19" s="47" t="s">
         <v>115</v>
       </c>
-      <c r="B19" s="49" t="s">
+      <c r="B19" s="47" t="s">
         <v>111</v>
       </c>
-      <c r="C19" s="50" t="s">
+      <c r="C19" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="E19" s="49" t="s">
+      <c r="E19" s="47" t="s">
         <v>112</v>
       </c>
-      <c r="F19" s="49" t="s">
+      <c r="F19" s="47" t="s">
         <v>84</v>
       </c>
-      <c r="G19" s="50" t="s">
-        <v>579</v>
+      <c r="G19" s="48" t="s">
+        <v>511</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>611</v>
+        <v>543</v>
       </c>
       <c r="I19" s="11" t="s">
-        <v>586</v>
-      </c>
-      <c r="J19" s="49" t="s">
+        <v>518</v>
+      </c>
+      <c r="J19" s="47" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:10" s="49" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A20" s="49" t="s">
+    <row r="20" spans="1:10" s="47" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A20" s="47" t="s">
         <v>116</v>
       </c>
-      <c r="B20" s="49" t="s">
+      <c r="B20" s="47" t="s">
         <v>113</v>
       </c>
-      <c r="C20" s="50" t="s">
+      <c r="C20" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="E20" s="49" t="s">
+      <c r="E20" s="47" t="s">
         <v>114</v>
       </c>
-      <c r="F20" s="49" t="s">
+      <c r="F20" s="47" t="s">
         <v>84</v>
       </c>
-      <c r="G20" s="50" t="s">
-        <v>579</v>
+      <c r="G20" s="48" t="s">
+        <v>511</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>612</v>
+        <v>544</v>
       </c>
       <c r="I20" s="11" t="s">
-        <v>586</v>
-      </c>
-      <c r="J20" s="49" t="s">
+        <v>518</v>
+      </c>
+      <c r="J20" s="47" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:10" s="49" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A21" s="49" t="s">
+    <row r="21" spans="1:10" s="47" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A21" s="47" t="s">
         <v>129</v>
       </c>
-      <c r="B21" s="49" t="s">
+      <c r="B21" s="47" t="s">
         <v>120</v>
       </c>
-      <c r="C21" s="50" t="s">
+      <c r="C21" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="E21" s="49" t="s">
+      <c r="E21" s="47" t="s">
         <v>121</v>
       </c>
-      <c r="F21" s="49" t="s">
+      <c r="F21" s="47" t="s">
         <v>122</v>
       </c>
-      <c r="G21" s="50" t="s">
-        <v>579</v>
+      <c r="G21" s="48" t="s">
+        <v>511</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>613</v>
+        <v>545</v>
       </c>
       <c r="I21" s="11" t="s">
-        <v>586</v>
-      </c>
-      <c r="J21" s="49" t="s">
+        <v>518</v>
+      </c>
+      <c r="J21" s="47" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:10" s="49" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A22" s="49" t="s">
+    <row r="22" spans="1:10" s="47" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A22" s="47" t="s">
         <v>130</v>
       </c>
-      <c r="B22" s="49" t="s">
+      <c r="B22" s="47" t="s">
         <v>123</v>
       </c>
-      <c r="C22" s="50" t="s">
+      <c r="C22" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="E22" s="49" t="s">
+      <c r="E22" s="47" t="s">
         <v>124</v>
       </c>
-      <c r="F22" s="49" t="s">
+      <c r="F22" s="47" t="s">
         <v>122</v>
       </c>
-      <c r="G22" s="50" t="s">
-        <v>579</v>
+      <c r="G22" s="48" t="s">
+        <v>511</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>587</v>
+        <v>519</v>
       </c>
       <c r="I22" s="11" t="s">
-        <v>586</v>
-      </c>
-      <c r="J22" s="49" t="s">
+        <v>518</v>
+      </c>
+      <c r="J22" s="47" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:10" s="49" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A23" s="49" t="s">
+    <row r="23" spans="1:10" s="47" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A23" s="47" t="s">
         <v>131</v>
       </c>
-      <c r="B23" s="49" t="s">
+      <c r="B23" s="47" t="s">
         <v>125</v>
       </c>
-      <c r="C23" s="50" t="s">
+      <c r="C23" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="E23" s="49" t="s">
+      <c r="E23" s="47" t="s">
         <v>126</v>
       </c>
-      <c r="F23" s="49" t="s">
+      <c r="F23" s="47" t="s">
         <v>122</v>
       </c>
-      <c r="G23" s="50" t="s">
-        <v>579</v>
+      <c r="G23" s="48" t="s">
+        <v>511</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>588</v>
+        <v>520</v>
       </c>
       <c r="I23" s="11" t="s">
-        <v>586</v>
-      </c>
-      <c r="J23" s="49" t="s">
+        <v>518</v>
+      </c>
+      <c r="J23" s="47" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:10" s="46" customFormat="1" ht="105" x14ac:dyDescent="0.25">
-      <c r="A24" s="46" t="s">
+    <row r="24" spans="1:10" s="44" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A24" s="44" t="s">
         <v>132</v>
       </c>
-      <c r="B24" s="46" t="s">
+      <c r="B24" s="44" t="s">
         <v>127</v>
       </c>
-      <c r="C24" s="51" t="s">
+      <c r="C24" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="E24" s="46" t="s">
+      <c r="E24" s="44" t="s">
         <v>128</v>
       </c>
-      <c r="F24" s="46" t="s">
+      <c r="F24" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="G24" s="51" t="s">
-        <v>426</v>
-      </c>
-      <c r="I24" s="46" t="s">
-        <v>600</v>
-      </c>
-      <c r="J24" s="46" t="s">
+      <c r="G24" s="49" t="s">
+        <v>358</v>
+      </c>
+      <c r="I24" s="44" t="s">
+        <v>532</v>
+      </c>
+      <c r="J24" s="44" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:10" s="46" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A25" s="46" t="s">
+    <row r="25" spans="1:10" s="44" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A25" s="44" t="s">
         <v>133</v>
       </c>
-      <c r="B25" s="46" t="s">
+      <c r="B25" s="44" t="s">
         <v>135</v>
       </c>
-      <c r="C25" s="51" t="s">
+      <c r="C25" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="E25" s="46" t="s">
+      <c r="E25" s="44" t="s">
         <v>136</v>
       </c>
-      <c r="F25" s="46" t="s">
+      <c r="F25" s="44" t="s">
         <v>137</v>
       </c>
-      <c r="G25" s="51" t="s">
-        <v>426</v>
-      </c>
-      <c r="I25" s="46" t="s">
-        <v>601</v>
-      </c>
-      <c r="J25" s="46" t="s">
+      <c r="G25" s="49" t="s">
+        <v>358</v>
+      </c>
+      <c r="I25" s="44" t="s">
+        <v>533</v>
+      </c>
+      <c r="J25" s="44" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:10" s="46" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A26" s="46" t="s">
+    <row r="26" spans="1:10" s="44" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A26" s="44" t="s">
         <v>134</v>
       </c>
-      <c r="B26" s="46" t="s">
+      <c r="B26" s="44" t="s">
         <v>138</v>
       </c>
-      <c r="C26" s="51" t="s">
+      <c r="C26" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="E26" s="46" t="s">
+      <c r="E26" s="44" t="s">
         <v>140</v>
       </c>
-      <c r="F26" s="46" t="s">
+      <c r="F26" s="44" t="s">
         <v>137</v>
       </c>
-      <c r="G26" s="51" t="s">
-        <v>426</v>
-      </c>
-      <c r="I26" s="46" t="s">
-        <v>600</v>
-      </c>
-      <c r="J26" s="46" t="s">
+      <c r="G26" s="49" t="s">
+        <v>358</v>
+      </c>
+      <c r="I26" s="44" t="s">
+        <v>532</v>
+      </c>
+      <c r="J26" s="44" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:10" s="46" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A27" s="46" t="s">
+    <row r="27" spans="1:10" s="44" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A27" s="44" t="s">
         <v>142</v>
       </c>
-      <c r="B27" s="46" t="s">
+      <c r="B27" s="44" t="s">
         <v>139</v>
       </c>
-      <c r="C27" s="51" t="s">
+      <c r="C27" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="E27" s="46" t="s">
+      <c r="E27" s="44" t="s">
         <v>141</v>
       </c>
-      <c r="F27" s="46" t="s">
-        <v>578</v>
-      </c>
-      <c r="G27" s="51" t="s">
-        <v>576</v>
-      </c>
-      <c r="I27" s="46" t="s">
-        <v>602</v>
-      </c>
-      <c r="J27" s="46" t="s">
+      <c r="F27" s="44" t="s">
+        <v>510</v>
+      </c>
+      <c r="G27" s="49" t="s">
+        <v>508</v>
+      </c>
+      <c r="I27" s="44" t="s">
+        <v>534</v>
+      </c>
+      <c r="J27" s="44" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:10" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C28" s="48"/>
-      <c r="G28" s="48"/>
-    </row>
-    <row r="29" spans="1:10" s="46" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A29" s="46" t="s">
+    <row r="28" spans="1:10" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C28" s="46"/>
+      <c r="G28" s="46"/>
+    </row>
+    <row r="29" spans="1:10" s="44" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A29" s="44" t="s">
         <v>143</v>
       </c>
-      <c r="B29" s="46" t="s">
+      <c r="B29" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="C29" s="51" t="s">
+      <c r="C29" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="E29" s="46" t="s">
+      <c r="E29" s="44" t="s">
         <v>170</v>
       </c>
-      <c r="F29" s="46" t="s">
+      <c r="F29" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="G29" s="51" t="s">
-        <v>576</v>
-      </c>
-      <c r="I29" s="46" t="s">
-        <v>591</v>
-      </c>
-      <c r="J29" s="46" t="s">
+      <c r="G29" s="49" t="s">
+        <v>508</v>
+      </c>
+      <c r="I29" s="44" t="s">
+        <v>523</v>
+      </c>
+      <c r="J29" s="44" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:10" s="49" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A30" s="49" t="s">
+    <row r="30" spans="1:10" s="47" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A30" s="47" t="s">
         <v>144</v>
       </c>
-      <c r="B30" s="49" t="s">
+      <c r="B30" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="C30" s="50" t="s">
+      <c r="C30" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="E30" s="49" t="s">
+      <c r="E30" s="47" t="s">
         <v>171</v>
       </c>
-      <c r="F30" s="49" t="s">
+      <c r="F30" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="G30" s="50" t="s">
-        <v>579</v>
+      <c r="G30" s="48" t="s">
+        <v>511</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>603</v>
+        <v>535</v>
       </c>
       <c r="I30" s="11" t="s">
-        <v>586</v>
-      </c>
-      <c r="J30" s="49" t="s">
+        <v>518</v>
+      </c>
+      <c r="J30" s="47" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:10" s="46" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A31" s="46" t="s">
+    <row r="31" spans="1:10" s="44" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A31" s="44" t="s">
         <v>145</v>
       </c>
-      <c r="B31" s="46" t="s">
+      <c r="B31" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="C31" s="51" t="s">
+      <c r="C31" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="E31" s="46" t="s">
+      <c r="E31" s="44" t="s">
         <v>172</v>
       </c>
-      <c r="F31" s="46" t="s">
+      <c r="F31" s="44" t="s">
         <v>169</v>
       </c>
-      <c r="G31" s="51" t="s">
-        <v>576</v>
-      </c>
-      <c r="H31" s="52"/>
-      <c r="I31" s="52" t="s">
-        <v>592</v>
-      </c>
-      <c r="J31" s="46" t="s">
+      <c r="G31" s="49" t="s">
+        <v>508</v>
+      </c>
+      <c r="H31" s="50"/>
+      <c r="I31" s="50" t="s">
+        <v>524</v>
+      </c>
+      <c r="J31" s="44" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:10" s="46" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A32" s="46" t="s">
+    <row r="32" spans="1:10" s="44" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A32" s="44" t="s">
         <v>146</v>
       </c>
-      <c r="B32" s="46" t="s">
+      <c r="B32" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="C32" s="51" t="s">
+      <c r="C32" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="E32" s="46" t="s">
+      <c r="E32" s="44" t="s">
         <v>173</v>
       </c>
-      <c r="F32" s="46" t="s">
+      <c r="F32" s="44" t="s">
         <v>169</v>
       </c>
-      <c r="G32" s="51" t="s">
-        <v>576</v>
-      </c>
-      <c r="I32" s="52" t="s">
-        <v>592</v>
-      </c>
-      <c r="J32" s="46" t="s">
+      <c r="G32" s="49" t="s">
+        <v>508</v>
+      </c>
+      <c r="I32" s="50" t="s">
+        <v>524</v>
+      </c>
+      <c r="J32" s="44" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:10" s="49" customFormat="1" ht="105" x14ac:dyDescent="0.25">
-      <c r="A33" s="49" t="s">
+    <row r="33" spans="1:10" s="47" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A33" s="47" t="s">
         <v>147</v>
       </c>
-      <c r="B33" s="49" t="s">
+      <c r="B33" s="47" t="s">
         <v>81</v>
       </c>
-      <c r="C33" s="50" t="s">
+      <c r="C33" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="E33" s="49" t="s">
+      <c r="E33" s="47" t="s">
         <v>174</v>
       </c>
-      <c r="F33" s="49" t="s">
+      <c r="F33" s="47" t="s">
         <v>84</v>
       </c>
-      <c r="G33" s="50" t="s">
-        <v>579</v>
+      <c r="G33" s="48" t="s">
+        <v>511</v>
       </c>
       <c r="H33" s="11" t="s">
-        <v>604</v>
+        <v>536</v>
       </c>
       <c r="I33" s="11" t="s">
-        <v>593</v>
-      </c>
-      <c r="J33" s="49" t="s">
+        <v>525</v>
+      </c>
+      <c r="J33" s="47" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:10" s="49" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A34" s="49" t="s">
+    <row r="34" spans="1:10" s="47" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A34" s="47" t="s">
         <v>148</v>
       </c>
-      <c r="B34" s="49" t="s">
+      <c r="B34" s="47" t="s">
         <v>86</v>
       </c>
-      <c r="C34" s="50" t="s">
+      <c r="C34" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="E34" s="49" t="s">
+      <c r="E34" s="47" t="s">
         <v>175</v>
       </c>
-      <c r="F34" s="49" t="s">
+      <c r="F34" s="47" t="s">
         <v>84</v>
       </c>
-      <c r="G34" s="50" t="s">
-        <v>440</v>
+      <c r="G34" s="48" t="s">
+        <v>372</v>
       </c>
       <c r="H34" s="11" t="s">
-        <v>605</v>
+        <v>537</v>
       </c>
       <c r="I34" s="11" t="s">
-        <v>586</v>
-      </c>
-      <c r="J34" s="49" t="s">
+        <v>518</v>
+      </c>
+      <c r="J34" s="47" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="1:10" s="46" customFormat="1" ht="105" x14ac:dyDescent="0.25">
-      <c r="A35" s="46" t="s">
+    <row r="35" spans="1:10" s="44" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A35" s="44" t="s">
         <v>149</v>
       </c>
-      <c r="B35" s="46" t="s">
+      <c r="B35" s="44" t="s">
         <v>119</v>
       </c>
-      <c r="C35" s="51" t="s">
+      <c r="C35" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="E35" s="46" t="s">
+      <c r="E35" s="44" t="s">
         <v>176</v>
       </c>
-      <c r="F35" s="46" t="s">
+      <c r="F35" s="44" t="s">
         <v>169</v>
       </c>
-      <c r="G35" s="51" t="s">
-        <v>576</v>
-      </c>
-      <c r="I35" s="52" t="s">
-        <v>592</v>
-      </c>
-      <c r="J35" s="46" t="s">
+      <c r="G35" s="49" t="s">
+        <v>508</v>
+      </c>
+      <c r="I35" s="50" t="s">
+        <v>524</v>
+      </c>
+      <c r="J35" s="44" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="1:10" s="49" customFormat="1" ht="105" x14ac:dyDescent="0.25">
-      <c r="A36" s="49" t="s">
+    <row r="36" spans="1:10" s="47" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A36" s="47" t="s">
         <v>150</v>
       </c>
-      <c r="B36" s="49" t="s">
+      <c r="B36" s="47" t="s">
         <v>89</v>
       </c>
-      <c r="C36" s="50" t="s">
+      <c r="C36" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="E36" s="49" t="s">
+      <c r="E36" s="47" t="s">
         <v>176</v>
       </c>
-      <c r="F36" s="49" t="s">
+      <c r="F36" s="47" t="s">
         <v>84</v>
       </c>
-      <c r="G36" s="50" t="s">
-        <v>579</v>
+      <c r="G36" s="48" t="s">
+        <v>511</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>606</v>
+        <v>538</v>
       </c>
       <c r="I36" s="11" t="s">
-        <v>594</v>
-      </c>
-      <c r="J36" s="49" t="s">
+        <v>526</v>
+      </c>
+      <c r="J36" s="47" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="37" spans="1:10" s="46" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A37" s="46" t="s">
+    <row r="37" spans="1:10" s="44" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A37" s="44" t="s">
         <v>151</v>
       </c>
-      <c r="B37" s="46" t="s">
+      <c r="B37" s="44" t="s">
         <v>90</v>
       </c>
-      <c r="C37" s="51" t="s">
+      <c r="C37" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="E37" s="46" t="s">
+      <c r="E37" s="44" t="s">
         <v>177</v>
       </c>
-      <c r="F37" s="46" t="s">
+      <c r="F37" s="44" t="s">
         <v>92</v>
       </c>
-      <c r="G37" s="51" t="s">
-        <v>576</v>
-      </c>
-      <c r="I37" s="46" t="s">
-        <v>595</v>
-      </c>
-      <c r="J37" s="46" t="s">
+      <c r="G37" s="49" t="s">
+        <v>508</v>
+      </c>
+      <c r="I37" s="44" t="s">
+        <v>527</v>
+      </c>
+      <c r="J37" s="44" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="1:10" s="49" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A38" s="49" t="s">
+    <row r="38" spans="1:10" s="47" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A38" s="47" t="s">
         <v>152</v>
       </c>
-      <c r="B38" s="49" t="s">
+      <c r="B38" s="47" t="s">
         <v>99</v>
       </c>
-      <c r="C38" s="50" t="s">
+      <c r="C38" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="E38" s="49" t="s">
+      <c r="E38" s="47" t="s">
         <v>178</v>
       </c>
-      <c r="F38" s="49" t="s">
+      <c r="F38" s="47" t="s">
         <v>84</v>
       </c>
-      <c r="G38" s="50" t="s">
-        <v>579</v>
+      <c r="G38" s="48" t="s">
+        <v>511</v>
       </c>
       <c r="H38" s="11" t="s">
-        <v>607</v>
+        <v>539</v>
       </c>
       <c r="I38" s="11" t="s">
-        <v>586</v>
-      </c>
-      <c r="J38" s="49" t="s">
+        <v>518</v>
+      </c>
+      <c r="J38" s="47" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="39" spans="1:10" s="46" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A39" s="46" t="s">
+    <row r="39" spans="1:10" s="44" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A39" s="44" t="s">
         <v>153</v>
       </c>
-      <c r="B39" s="46" t="s">
+      <c r="B39" s="44" t="s">
         <v>101</v>
       </c>
-      <c r="C39" s="51" t="s">
+      <c r="C39" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="E39" s="46" t="s">
+      <c r="E39" s="44" t="s">
         <v>179</v>
       </c>
-      <c r="F39" s="46" t="s">
+      <c r="F39" s="44" t="s">
         <v>84</v>
       </c>
-      <c r="G39" s="51" t="s">
-        <v>576</v>
-      </c>
-      <c r="I39" s="46" t="s">
-        <v>597</v>
-      </c>
-      <c r="J39" s="46" t="s">
+      <c r="G39" s="49" t="s">
+        <v>508</v>
+      </c>
+      <c r="I39" s="44" t="s">
+        <v>529</v>
+      </c>
+      <c r="J39" s="44" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="40" spans="1:10" s="49" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A40" s="49" t="s">
+    <row r="40" spans="1:10" s="47" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A40" s="47" t="s">
         <v>154</v>
       </c>
-      <c r="B40" s="49" t="s">
+      <c r="B40" s="47" t="s">
         <v>103</v>
       </c>
-      <c r="C40" s="50" t="s">
+      <c r="C40" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="E40" s="49" t="s">
+      <c r="E40" s="47" t="s">
         <v>180</v>
       </c>
-      <c r="F40" s="49" t="s">
+      <c r="F40" s="47" t="s">
         <v>84</v>
       </c>
-      <c r="G40" s="50" t="s">
-        <v>579</v>
+      <c r="G40" s="48" t="s">
+        <v>511</v>
       </c>
       <c r="H40" s="11" t="s">
-        <v>608</v>
-      </c>
-      <c r="I40" s="49" t="s">
-        <v>599</v>
-      </c>
-      <c r="J40" s="49" t="s">
+        <v>540</v>
+      </c>
+      <c r="I40" s="47" t="s">
+        <v>531</v>
+      </c>
+      <c r="J40" s="47" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="41" spans="1:10" s="46" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A41" s="46" t="s">
+    <row r="41" spans="1:10" s="44" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A41" s="44" t="s">
         <v>155</v>
       </c>
-      <c r="B41" s="46" t="s">
+      <c r="B41" s="44" t="s">
         <v>118</v>
       </c>
-      <c r="C41" s="51" t="s">
+      <c r="C41" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="E41" s="46" t="s">
+      <c r="E41" s="44" t="s">
         <v>181</v>
       </c>
-      <c r="F41" s="46" t="s">
+      <c r="F41" s="44" t="s">
         <v>169</v>
       </c>
-      <c r="G41" s="51" t="s">
-        <v>576</v>
-      </c>
-      <c r="I41" s="46" t="s">
-        <v>600</v>
-      </c>
-      <c r="J41" s="46" t="s">
+      <c r="G41" s="49" t="s">
+        <v>508</v>
+      </c>
+      <c r="I41" s="44" t="s">
+        <v>532</v>
+      </c>
+      <c r="J41" s="44" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="42" spans="1:10" s="46" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A42" s="46" t="s">
+    <row r="42" spans="1:10" s="44" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A42" s="44" t="s">
         <v>156</v>
       </c>
-      <c r="B42" s="46" t="s">
+      <c r="B42" s="44" t="s">
         <v>117</v>
       </c>
-      <c r="C42" s="51" t="s">
+      <c r="C42" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="E42" s="46" t="s">
+      <c r="E42" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="F42" s="46" t="s">
+      <c r="F42" s="44" t="s">
         <v>168</v>
       </c>
-      <c r="G42" s="51" t="s">
-        <v>576</v>
-      </c>
-      <c r="I42" s="46" t="s">
-        <v>600</v>
-      </c>
-      <c r="J42" s="46" t="s">
+      <c r="G42" s="49" t="s">
+        <v>508</v>
+      </c>
+      <c r="I42" s="44" t="s">
+        <v>532</v>
+      </c>
+      <c r="J42" s="44" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="43" spans="1:10" s="49" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A43" s="49" t="s">
+    <row r="43" spans="1:10" s="47" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A43" s="47" t="s">
         <v>157</v>
       </c>
-      <c r="B43" s="49" t="s">
+      <c r="B43" s="47" t="s">
         <v>106</v>
       </c>
-      <c r="C43" s="50" t="s">
+      <c r="C43" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="E43" s="49" t="s">
+      <c r="E43" s="47" t="s">
         <v>183</v>
       </c>
-      <c r="F43" s="49" t="s">
+      <c r="F43" s="47" t="s">
         <v>84</v>
       </c>
-      <c r="G43" s="50" t="s">
-        <v>579</v>
+      <c r="G43" s="48" t="s">
+        <v>511</v>
       </c>
       <c r="H43" s="11" t="s">
-        <v>609</v>
+        <v>541</v>
       </c>
       <c r="I43" s="11" t="s">
-        <v>586</v>
-      </c>
-      <c r="J43" s="49" t="s">
+        <v>518</v>
+      </c>
+      <c r="J43" s="47" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="44" spans="1:10" s="49" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A44" s="49" t="s">
+    <row r="44" spans="1:10" s="47" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A44" s="47" t="s">
         <v>158</v>
       </c>
-      <c r="B44" s="49" t="s">
+      <c r="B44" s="47" t="s">
         <v>109</v>
       </c>
-      <c r="C44" s="50" t="s">
+      <c r="C44" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="E44" s="49" t="s">
+      <c r="E44" s="47" t="s">
         <v>184</v>
       </c>
-      <c r="F44" s="49" t="s">
+      <c r="F44" s="47" t="s">
         <v>84</v>
       </c>
-      <c r="G44" s="50" t="s">
-        <v>579</v>
+      <c r="G44" s="48" t="s">
+        <v>511</v>
       </c>
       <c r="H44" s="11" t="s">
-        <v>610</v>
-      </c>
-      <c r="J44" s="49" t="s">
+        <v>542</v>
+      </c>
+      <c r="J44" s="47" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="45" spans="1:10" s="49" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A45" s="49" t="s">
+    <row r="45" spans="1:10" s="47" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A45" s="47" t="s">
         <v>159</v>
       </c>
-      <c r="B45" s="49" t="s">
+      <c r="B45" s="47" t="s">
         <v>111</v>
       </c>
-      <c r="C45" s="50" t="s">
+      <c r="C45" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="E45" s="49" t="s">
+      <c r="E45" s="47" t="s">
         <v>185</v>
       </c>
-      <c r="F45" s="49" t="s">
+      <c r="F45" s="47" t="s">
         <v>84</v>
       </c>
-      <c r="G45" s="50" t="s">
-        <v>579</v>
+      <c r="G45" s="48" t="s">
+        <v>511</v>
       </c>
       <c r="H45" s="11" t="s">
-        <v>611</v>
+        <v>543</v>
       </c>
       <c r="I45" s="11" t="s">
-        <v>586</v>
-      </c>
-      <c r="J45" s="49" t="s">
+        <v>518</v>
+      </c>
+      <c r="J45" s="47" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="46" spans="1:10" s="49" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A46" s="49" t="s">
+    <row r="46" spans="1:10" s="47" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A46" s="47" t="s">
         <v>160</v>
       </c>
-      <c r="B46" s="49" t="s">
+      <c r="B46" s="47" t="s">
         <v>113</v>
       </c>
-      <c r="C46" s="50" t="s">
+      <c r="C46" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="E46" s="49" t="s">
+      <c r="E46" s="47" t="s">
         <v>186</v>
       </c>
-      <c r="F46" s="49" t="s">
+      <c r="F46" s="47" t="s">
         <v>84</v>
       </c>
-      <c r="G46" s="50" t="s">
-        <v>579</v>
+      <c r="G46" s="48" t="s">
+        <v>511</v>
       </c>
       <c r="H46" s="11" t="s">
-        <v>612</v>
+        <v>544</v>
       </c>
       <c r="I46" s="11" t="s">
-        <v>586</v>
-      </c>
-      <c r="J46" s="49" t="s">
+        <v>518</v>
+      </c>
+      <c r="J46" s="47" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="47" spans="1:10" s="49" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A47" s="49" t="s">
+    <row r="47" spans="1:10" s="47" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A47" s="47" t="s">
         <v>161</v>
       </c>
-      <c r="B47" s="49" t="s">
+      <c r="B47" s="47" t="s">
         <v>120</v>
       </c>
-      <c r="C47" s="50" t="s">
+      <c r="C47" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="E47" s="49" t="s">
+      <c r="E47" s="47" t="s">
         <v>187</v>
       </c>
-      <c r="F47" s="49" t="s">
+      <c r="F47" s="47" t="s">
         <v>122</v>
       </c>
-      <c r="G47" s="50" t="s">
-        <v>579</v>
+      <c r="G47" s="48" t="s">
+        <v>511</v>
       </c>
       <c r="H47" s="11" t="s">
-        <v>613</v>
+        <v>545</v>
       </c>
       <c r="I47" s="11" t="s">
-        <v>586</v>
-      </c>
-      <c r="J47" s="49" t="s">
+        <v>518</v>
+      </c>
+      <c r="J47" s="47" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="1:10" s="49" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A48" s="49" t="s">
+    <row r="48" spans="1:10" s="47" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A48" s="47" t="s">
         <v>162</v>
       </c>
-      <c r="B48" s="49" t="s">
+      <c r="B48" s="47" t="s">
         <v>123</v>
       </c>
-      <c r="C48" s="50" t="s">
+      <c r="C48" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="E48" s="49" t="s">
-        <v>581</v>
-      </c>
-      <c r="F48" s="49" t="s">
+      <c r="E48" s="47" t="s">
+        <v>513</v>
+      </c>
+      <c r="F48" s="47" t="s">
         <v>122</v>
       </c>
-      <c r="G48" s="50" t="s">
-        <v>579</v>
+      <c r="G48" s="48" t="s">
+        <v>511</v>
       </c>
       <c r="H48" s="11" t="s">
-        <v>587</v>
+        <v>519</v>
       </c>
       <c r="I48" s="11" t="s">
-        <v>586</v>
-      </c>
-      <c r="J48" s="49" t="s">
+        <v>518</v>
+      </c>
+      <c r="J48" s="47" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="49" spans="1:10" s="49" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A49" s="49" t="s">
+    <row r="49" spans="1:10" s="47" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A49" s="47" t="s">
         <v>163</v>
       </c>
-      <c r="B49" s="49" t="s">
+      <c r="B49" s="47" t="s">
         <v>125</v>
       </c>
-      <c r="C49" s="50" t="s">
+      <c r="C49" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="E49" s="49" t="s">
-        <v>580</v>
-      </c>
-      <c r="F49" s="49" t="s">
+      <c r="E49" s="47" t="s">
+        <v>512</v>
+      </c>
+      <c r="F49" s="47" t="s">
         <v>122</v>
       </c>
-      <c r="G49" s="50" t="s">
-        <v>579</v>
+      <c r="G49" s="48" t="s">
+        <v>511</v>
       </c>
       <c r="H49" s="11" t="s">
-        <v>588</v>
+        <v>520</v>
       </c>
       <c r="I49" s="11" t="s">
-        <v>586</v>
-      </c>
-      <c r="J49" s="49" t="s">
+        <v>518</v>
+      </c>
+      <c r="J49" s="47" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="50" spans="1:10" s="46" customFormat="1" ht="105" x14ac:dyDescent="0.25">
-      <c r="A50" s="46" t="s">
+    <row r="50" spans="1:10" s="44" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A50" s="44" t="s">
         <v>164</v>
       </c>
-      <c r="B50" s="46" t="s">
+      <c r="B50" s="44" t="s">
         <v>127</v>
       </c>
-      <c r="C50" s="51" t="s">
+      <c r="C50" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="E50" s="46" t="s">
-        <v>582</v>
-      </c>
-      <c r="F50" s="46" t="s">
+      <c r="E50" s="44" t="s">
+        <v>514</v>
+      </c>
+      <c r="F50" s="44" t="s">
         <v>168</v>
       </c>
-      <c r="G50" s="51" t="s">
-        <v>426</v>
-      </c>
-      <c r="I50" s="46" t="s">
-        <v>600</v>
-      </c>
-      <c r="J50" s="46" t="s">
+      <c r="G50" s="49" t="s">
+        <v>358</v>
+      </c>
+      <c r="I50" s="44" t="s">
+        <v>532</v>
+      </c>
+      <c r="J50" s="44" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:10" s="46" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A51" s="46" t="s">
+    <row r="51" spans="1:10" s="44" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A51" s="44" t="s">
         <v>165</v>
       </c>
-      <c r="B51" s="46" t="s">
+      <c r="B51" s="44" t="s">
         <v>135</v>
       </c>
-      <c r="C51" s="51" t="s">
+      <c r="C51" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="E51" s="46" t="s">
+      <c r="E51" s="44" t="s">
         <v>188</v>
       </c>
-      <c r="F51" s="46" t="s">
+      <c r="F51" s="44" t="s">
         <v>137</v>
       </c>
-      <c r="G51" s="51" t="s">
-        <v>426</v>
-      </c>
-      <c r="I51" s="46" t="s">
-        <v>601</v>
-      </c>
-      <c r="J51" s="46" t="s">
+      <c r="G51" s="49" t="s">
+        <v>358</v>
+      </c>
+      <c r="I51" s="44" t="s">
+        <v>533</v>
+      </c>
+      <c r="J51" s="44" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:10" s="46" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A52" s="46" t="s">
+    <row r="52" spans="1:10" s="44" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A52" s="44" t="s">
         <v>166</v>
       </c>
-      <c r="B52" s="46" t="s">
+      <c r="B52" s="44" t="s">
         <v>138</v>
       </c>
-      <c r="C52" s="51" t="s">
+      <c r="C52" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="E52" s="46" t="s">
+      <c r="E52" s="44" t="s">
         <v>189</v>
       </c>
-      <c r="F52" s="46" t="s">
+      <c r="F52" s="44" t="s">
         <v>168</v>
       </c>
-      <c r="G52" s="51" t="s">
-        <v>426</v>
-      </c>
-      <c r="I52" s="46" t="s">
-        <v>600</v>
-      </c>
-      <c r="J52" s="46" t="s">
+      <c r="G52" s="49" t="s">
+        <v>358</v>
+      </c>
+      <c r="I52" s="44" t="s">
+        <v>532</v>
+      </c>
+      <c r="J52" s="44" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:10" s="46" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A53" s="46" t="s">
+    <row r="53" spans="1:10" s="44" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A53" s="44" t="s">
         <v>167</v>
       </c>
-      <c r="B53" s="46" t="s">
+      <c r="B53" s="44" t="s">
         <v>139</v>
       </c>
-      <c r="C53" s="51" t="s">
+      <c r="C53" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="E53" s="46" t="s">
+      <c r="E53" s="44" t="s">
         <v>190</v>
       </c>
-      <c r="F53" s="46" t="s">
+      <c r="F53" s="44" t="s">
         <v>84</v>
       </c>
-      <c r="G53" s="51" t="s">
-        <v>576</v>
-      </c>
-      <c r="I53" s="46" t="s">
-        <v>602</v>
-      </c>
-      <c r="J53" s="46" t="s">
+      <c r="G53" s="49" t="s">
+        <v>508</v>
+      </c>
+      <c r="I53" s="44" t="s">
+        <v>534</v>
+      </c>
+      <c r="J53" s="44" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="54" spans="1:10" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C54" s="48"/>
-    </row>
-    <row r="55" spans="1:10" s="46" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A55" s="46" t="s">
+    <row r="54" spans="1:10" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C54" s="46"/>
+    </row>
+    <row r="55" spans="1:10" s="44" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A55" s="44" t="s">
         <v>191</v>
       </c>
-      <c r="B55" s="46" t="s">
+      <c r="B55" s="44" t="s">
         <v>192</v>
       </c>
-      <c r="C55" s="51" t="s">
+      <c r="C55" s="49" t="s">
         <v>193</v>
       </c>
-      <c r="E55" s="46" t="s">
+      <c r="E55" s="44" t="s">
         <v>194</v>
       </c>
-      <c r="F55" s="46" t="s">
+      <c r="F55" s="44" t="s">
         <v>84</v>
       </c>
-      <c r="G55" s="51" t="s">
-        <v>576</v>
-      </c>
-      <c r="J55" s="46" t="s">
+      <c r="G55" s="49" t="s">
+        <v>508</v>
+      </c>
+      <c r="J55" s="44" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="56" spans="1:10" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="46" t="s">
-        <v>543</v>
-      </c>
-      <c r="B56" s="46" t="s">
-        <v>544</v>
-      </c>
-      <c r="C56" s="51" t="s">
+    <row r="56" spans="1:10" s="44" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="44" t="s">
+        <v>475</v>
+      </c>
+      <c r="B56" s="44" t="s">
+        <v>476</v>
+      </c>
+      <c r="C56" s="49" t="s">
         <v>193</v>
       </c>
-      <c r="E56" s="46" t="s">
-        <v>545</v>
-      </c>
-      <c r="F56" s="46" t="s">
-        <v>546</v>
-      </c>
-      <c r="G56" s="51" t="s">
-        <v>576</v>
-      </c>
-      <c r="J56" s="46" t="s">
+      <c r="E56" s="44" t="s">
+        <v>477</v>
+      </c>
+      <c r="F56" s="44" t="s">
+        <v>478</v>
+      </c>
+      <c r="G56" s="49" t="s">
+        <v>508</v>
+      </c>
+      <c r="J56" s="44" t="s">
         <v>50</v>
       </c>
     </row>
@@ -5649,7 +5923,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K12"/>
   <sheetViews>
@@ -5659,18 +5933,18 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" style="43" customWidth="1"/>
-    <col min="2" max="2" width="57.140625" style="43" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" style="34" customWidth="1"/>
-    <col min="4" max="4" width="23.42578125" style="43" customWidth="1"/>
-    <col min="5" max="5" width="62.28515625" style="43" customWidth="1"/>
-    <col min="6" max="6" width="46.5703125" style="43" customWidth="1"/>
-    <col min="7" max="7" width="20.140625" style="34" customWidth="1"/>
-    <col min="8" max="8" width="25.28515625" style="43" customWidth="1"/>
-    <col min="9" max="9" width="18.7109375" style="43" customWidth="1"/>
-    <col min="10" max="10" width="28" style="43" customWidth="1"/>
-    <col min="11" max="11" width="31.140625" style="43" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="43"/>
+    <col min="1" max="1" width="25.7109375" style="41" customWidth="1"/>
+    <col min="2" max="2" width="57.140625" style="41" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" style="32" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" style="41" customWidth="1"/>
+    <col min="5" max="5" width="62.28515625" style="41" customWidth="1"/>
+    <col min="6" max="6" width="46.5703125" style="41" customWidth="1"/>
+    <col min="7" max="7" width="20.140625" style="32" customWidth="1"/>
+    <col min="8" max="8" width="25.28515625" style="41" customWidth="1"/>
+    <col min="9" max="9" width="18.7109375" style="41" customWidth="1"/>
+    <col min="10" max="10" width="28" style="41" customWidth="1"/>
+    <col min="11" max="11" width="31.140625" style="41" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="41"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5708,295 +5982,295 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="44" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="44" t="s">
+    <row r="2" spans="1:11" s="42" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="45" t="s">
+      <c r="C2" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="44" t="s">
+      <c r="E2" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="F2" s="44" t="s">
+      <c r="F2" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="45" t="s">
-        <v>245</v>
-      </c>
-      <c r="I2" s="44" t="s">
-        <v>566</v>
-      </c>
-      <c r="J2" s="44" t="s">
+      <c r="G2" s="43" t="s">
+        <v>229</v>
+      </c>
+      <c r="I2" s="42" t="s">
+        <v>498</v>
+      </c>
+      <c r="J2" s="42" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="44" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3" s="44" t="s">
+    <row r="3" spans="1:11" s="42" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="45" t="s">
+      <c r="C3" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="44" t="s">
+      <c r="D3" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="44" t="s">
+      <c r="E3" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="F3" s="44" t="s">
+      <c r="F3" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="45" t="s">
-        <v>245</v>
-      </c>
-      <c r="I3" s="44" t="s">
-        <v>567</v>
-      </c>
-      <c r="J3" s="44" t="s">
+      <c r="G3" s="43" t="s">
+        <v>229</v>
+      </c>
+      <c r="I3" s="42" t="s">
+        <v>499</v>
+      </c>
+      <c r="J3" s="42" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="44" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A4" s="44" t="s">
+    <row r="4" spans="1:11" s="42" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="45" t="s">
+      <c r="C4" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="44" t="s">
+      <c r="D4" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="44" t="s">
+      <c r="E4" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="44" t="s">
+      <c r="F4" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="G4" s="45" t="s">
-        <v>245</v>
-      </c>
-      <c r="I4" s="44" t="s">
-        <v>568</v>
-      </c>
-      <c r="J4" s="44" t="s">
+      <c r="G4" s="43" t="s">
+        <v>229</v>
+      </c>
+      <c r="I4" s="42" t="s">
+        <v>500</v>
+      </c>
+      <c r="J4" s="42" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="44" customFormat="1" ht="105" x14ac:dyDescent="0.25">
-      <c r="A5" s="44" t="s">
+    <row r="5" spans="1:11" s="42" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A5" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="45" t="s">
+      <c r="C5" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="44" t="s">
+      <c r="E5" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="F5" s="44" t="s">
+      <c r="F5" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="G5" s="45" t="s">
-        <v>245</v>
-      </c>
-      <c r="I5" s="44" t="s">
-        <v>569</v>
-      </c>
-      <c r="J5" s="44" t="s">
+      <c r="G5" s="43" t="s">
+        <v>229</v>
+      </c>
+      <c r="I5" s="42" t="s">
+        <v>501</v>
+      </c>
+      <c r="J5" s="42" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="44" customFormat="1" ht="120" x14ac:dyDescent="0.25">
-      <c r="A6" s="44" t="s">
+    <row r="6" spans="1:11" s="42" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A6" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="45" t="s">
+      <c r="C6" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="44" t="s">
+      <c r="E6" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="F6" s="44" t="s">
+      <c r="F6" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="G6" s="45" t="s">
-        <v>245</v>
-      </c>
-      <c r="I6" s="44" t="s">
-        <v>570</v>
-      </c>
-      <c r="J6" s="44" t="s">
+      <c r="G6" s="43" t="s">
+        <v>229</v>
+      </c>
+      <c r="I6" s="42" t="s">
+        <v>502</v>
+      </c>
+      <c r="J6" s="42" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="44" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A7" s="44" t="s">
+    <row r="7" spans="1:11" s="42" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A7" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="44" t="s">
+      <c r="B7" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="C7" s="45" t="s">
+      <c r="C7" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="44" t="s">
+      <c r="E7" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="F7" s="44" t="s">
-        <v>571</v>
-      </c>
-      <c r="G7" s="45" t="s">
-        <v>245</v>
-      </c>
-      <c r="I7" s="44" t="s">
-        <v>572</v>
-      </c>
-      <c r="J7" s="44" t="s">
+      <c r="F7" s="42" t="s">
+        <v>503</v>
+      </c>
+      <c r="G7" s="43" t="s">
+        <v>229</v>
+      </c>
+      <c r="I7" s="42" t="s">
+        <v>504</v>
+      </c>
+      <c r="J7" s="42" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="44" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A8" s="44" t="s">
+    <row r="8" spans="1:11" s="42" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A8" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="44" t="s">
+      <c r="B8" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="C8" s="45" t="s">
+      <c r="C8" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="44" t="s">
+      <c r="E8" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="F8" s="44" t="s">
+      <c r="F8" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="G8" s="45" t="s">
-        <v>245</v>
-      </c>
-      <c r="I8" s="44" t="s">
-        <v>573</v>
-      </c>
-      <c r="J8" s="44" t="s">
+      <c r="G8" s="43" t="s">
+        <v>229</v>
+      </c>
+      <c r="I8" s="42" t="s">
+        <v>505</v>
+      </c>
+      <c r="J8" s="42" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="44" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A9" s="44" t="s">
+    <row r="9" spans="1:11" s="42" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A9" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="44" t="s">
+      <c r="B9" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="45" t="s">
+      <c r="C9" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="44" t="s">
+      <c r="E9" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="F9" s="44" t="s">
+      <c r="F9" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="G9" s="45" t="s">
-        <v>245</v>
-      </c>
-      <c r="I9" s="44" t="s">
-        <v>573</v>
-      </c>
-      <c r="J9" s="44" t="s">
+      <c r="G9" s="43" t="s">
+        <v>229</v>
+      </c>
+      <c r="I9" s="42" t="s">
+        <v>505</v>
+      </c>
+      <c r="J9" s="42" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="44" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A10" s="44" t="s">
+    <row r="10" spans="1:11" s="42" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A10" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="45" t="s">
+      <c r="C10" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="44" t="s">
+      <c r="E10" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="F10" s="44" t="s">
+      <c r="F10" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="G10" s="45" t="s">
-        <v>245</v>
-      </c>
-      <c r="I10" s="44" t="s">
-        <v>573</v>
-      </c>
-      <c r="J10" s="44" t="s">
+      <c r="G10" s="43" t="s">
+        <v>229</v>
+      </c>
+      <c r="I10" s="42" t="s">
+        <v>505</v>
+      </c>
+      <c r="J10" s="42" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="44" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A11" s="44" t="s">
+    <row r="11" spans="1:11" s="42" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A11" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="B11" s="44" t="s">
+      <c r="B11" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="C11" s="45" t="s">
+      <c r="C11" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="44" t="s">
+      <c r="E11" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="F11" s="44" t="s">
+      <c r="F11" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="G11" s="45" t="s">
-        <v>245</v>
-      </c>
-      <c r="I11" s="44" t="s">
-        <v>573</v>
-      </c>
-      <c r="J11" s="44" t="s">
+      <c r="G11" s="43" t="s">
+        <v>229</v>
+      </c>
+      <c r="I11" s="42" t="s">
+        <v>505</v>
+      </c>
+      <c r="J11" s="42" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="44" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="44" t="s">
-        <v>539</v>
-      </c>
-      <c r="B12" s="44" t="s">
-        <v>540</v>
-      </c>
-      <c r="C12" s="45" t="s">
-        <v>541</v>
-      </c>
-      <c r="E12" s="44" t="s">
-        <v>542</v>
-      </c>
-      <c r="F12" s="44" t="s">
-        <v>574</v>
-      </c>
-      <c r="G12" s="45" t="s">
-        <v>245</v>
-      </c>
-      <c r="I12" s="44" t="s">
-        <v>575</v>
-      </c>
-      <c r="J12" s="44" t="s">
+    <row r="12" spans="1:11" s="42" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="42" t="s">
+        <v>471</v>
+      </c>
+      <c r="B12" s="42" t="s">
+        <v>472</v>
+      </c>
+      <c r="C12" s="43" t="s">
+        <v>473</v>
+      </c>
+      <c r="E12" s="42" t="s">
+        <v>474</v>
+      </c>
+      <c r="F12" s="42" t="s">
+        <v>506</v>
+      </c>
+      <c r="G12" s="43" t="s">
+        <v>229</v>
+      </c>
+      <c r="I12" s="42" t="s">
+        <v>507</v>
+      </c>
+      <c r="J12" s="42" t="s">
         <v>50</v>
       </c>
     </row>
@@ -6005,12 +6279,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L24"/>
+  <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6064,699 +6338,742 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="8" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" s="8" customFormat="1" ht="195" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="8" customFormat="1" ht="210" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="8" customFormat="1" ht="210" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="10" customFormat="1" ht="210" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>321</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>314</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="G5" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>356</v>
-      </c>
-      <c r="D2" s="8" t="s">
+      <c r="H5" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="8" customFormat="1" ht="210" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="9" t="s">
-        <v>350</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>240</v>
-      </c>
-      <c r="G2" s="9" t="s">
+      <c r="D6" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="G6" s="8" t="s">
         <v>238</v>
       </c>
-      <c r="H2" s="8" t="s">
-        <v>248</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="K2" s="8" t="s">
+      <c r="H6" s="8" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" s="8" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="I6" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="10" customFormat="1" ht="210" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>316</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>314</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>335</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" s="8" customFormat="1" ht="210" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:12" s="8" customFormat="1" ht="210" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" s="8" customFormat="1" ht="210" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" s="8" customFormat="1" ht="210" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" s="10" customFormat="1" ht="210" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>326</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>314</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="G13" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>357</v>
-      </c>
-      <c r="D3" s="8" t="s">
+      <c r="H13" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="J13" s="10" t="s">
+        <v>338</v>
+      </c>
+      <c r="K13" s="10" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" s="10" customFormat="1" ht="210" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>327</v>
+      </c>
+      <c r="C14" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="9" t="s">
-        <v>352</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>241</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" s="8" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="D14" s="11" t="s">
+        <v>314</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="G14" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>358</v>
-      </c>
-      <c r="D4" s="8" t="s">
+      <c r="H14" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="J14" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="K14" s="10" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" s="10" customFormat="1" ht="210" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>328</v>
+      </c>
+      <c r="C15" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>351</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>249</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>242</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>242</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="K4" s="8" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" s="10" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="D15" s="11" t="s">
+        <v>314</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="G15" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>359</v>
-      </c>
-      <c r="D5" s="10" t="s">
+      <c r="H15" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="J15" s="10" t="s">
+        <v>336</v>
+      </c>
+      <c r="K15" s="10" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="1:11" s="8" customFormat="1" ht="210" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="C17" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="11" t="s">
-        <v>352</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>250</v>
-      </c>
-      <c r="G5" s="10" t="s">
+      <c r="D17" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="G17" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="H5" s="10" t="s">
-        <v>251</v>
-      </c>
-      <c r="I5" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="J5" s="10" t="s">
-        <v>372</v>
-      </c>
-      <c r="K5" s="10" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" s="8" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+      <c r="H17" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="K17" s="8" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" s="10" customFormat="1" ht="210" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>314</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>299</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>299</v>
+      </c>
+      <c r="G18" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>360</v>
-      </c>
-      <c r="D6" s="8" t="s">
+      <c r="H18" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="I18" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="J18" s="10" t="s">
+        <v>337</v>
+      </c>
+      <c r="K18" s="10" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" s="10" customFormat="1" ht="210" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>331</v>
+      </c>
+      <c r="C19" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="9" t="s">
-        <v>352</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="K6" s="8" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" s="10" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+      <c r="D19" s="11" t="s">
+        <v>314</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>299</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>299</v>
+      </c>
+      <c r="G19" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>354</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>361</v>
-      </c>
-      <c r="D7" s="10" t="s">
+      <c r="H19" s="10" t="s">
+        <v>302</v>
+      </c>
+      <c r="I19" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="J19" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="K19" s="10" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" s="8" customFormat="1" ht="210" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="C20" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="11" t="s">
-        <v>352</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>322</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>323</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>324</v>
-      </c>
-      <c r="I7" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="J7" s="10" t="s">
-        <v>373</v>
-      </c>
-      <c r="K7" s="10" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" s="8" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+      <c r="D20" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="G20" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>362</v>
-      </c>
-      <c r="D8" s="8" t="s">
+      <c r="H20" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="K20" s="8" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" s="8" customFormat="1" ht="210" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="C21" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="9" t="s">
-        <v>352</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>325</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>326</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>327</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="K8" s="8" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:12" s="8" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
-        <v>330</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>363</v>
-      </c>
-      <c r="D10" s="8" t="s">
+      <c r="D21" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="K21" s="8" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" s="10" customFormat="1" ht="210" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
+        <v>479</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>480</v>
+      </c>
+      <c r="C22" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="9" t="s">
-        <v>352</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>332</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>328</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>329</v>
-      </c>
-      <c r="I10" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="K10" s="8" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" s="8" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>377</v>
-      </c>
-      <c r="D11" s="8" t="s">
+      <c r="D22" s="11" t="s">
+        <v>314</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>481</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>481</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>482</v>
+      </c>
+      <c r="H22" s="10" t="s">
+        <v>483</v>
+      </c>
+      <c r="I22" s="10" t="s">
+        <v>484</v>
+      </c>
+      <c r="J22" s="10" t="s">
+        <v>485</v>
+      </c>
+      <c r="K22" s="10" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" s="10" customFormat="1" ht="210" x14ac:dyDescent="0.25">
+      <c r="A23" s="10" t="s">
+        <v>486</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>487</v>
+      </c>
+      <c r="C23" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="9" t="s">
-        <v>352</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>331</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>333</v>
-      </c>
-      <c r="I11" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="K11" s="8" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" s="8" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>378</v>
-      </c>
-      <c r="D12" s="8" t="s">
+      <c r="D23" s="11" t="s">
+        <v>314</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>496</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>496</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>488</v>
+      </c>
+      <c r="H23" s="10" t="s">
+        <v>489</v>
+      </c>
+      <c r="I23" s="10" t="s">
+        <v>484</v>
+      </c>
+      <c r="J23" s="10" t="s">
+        <v>490</v>
+      </c>
+      <c r="K23" s="10" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" s="10" customFormat="1" ht="210" x14ac:dyDescent="0.25">
+      <c r="A24" s="10" t="s">
+        <v>492</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>491</v>
+      </c>
+      <c r="C24" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="9" t="s">
-        <v>352</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>379</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>380</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>381</v>
-      </c>
-      <c r="I12" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="K12" s="8" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" s="10" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>355</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>364</v>
-      </c>
-      <c r="D13" s="10" t="s">
+      <c r="D24" s="11" t="s">
+        <v>314</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>493</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>493</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>494</v>
+      </c>
+      <c r="H24" s="10" t="s">
+        <v>495</v>
+      </c>
+      <c r="I24" s="10" t="s">
+        <v>484</v>
+      </c>
+      <c r="J24" s="10" t="s">
+        <v>497</v>
+      </c>
+      <c r="K24" s="10" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="210" x14ac:dyDescent="0.25">
+      <c r="A25" s="10" t="s">
+        <v>569</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>570</v>
+      </c>
+      <c r="C25" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="11" t="s">
-        <v>352</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>338</v>
-      </c>
-      <c r="G13" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="H13" s="10" t="s">
-        <v>334</v>
-      </c>
-      <c r="I13" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="J13" s="10" t="s">
-        <v>376</v>
-      </c>
-      <c r="K13" s="10" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" s="10" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>365</v>
-      </c>
-      <c r="D14" s="10" t="s">
+      <c r="D25" s="11" t="s">
+        <v>314</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="210" x14ac:dyDescent="0.25">
+      <c r="A26" s="10" t="s">
+        <v>572</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>573</v>
+      </c>
+      <c r="C26" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="11" t="s">
-        <v>352</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>338</v>
-      </c>
-      <c r="G14" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="H14" s="10" t="s">
-        <v>334</v>
-      </c>
-      <c r="I14" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="J14" s="10" t="s">
-        <v>246</v>
-      </c>
-      <c r="K14" s="10" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" s="10" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>366</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>352</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>338</v>
-      </c>
-      <c r="G15" s="10" t="s">
-        <v>211</v>
-      </c>
-      <c r="H15" s="10" t="s">
-        <v>334</v>
-      </c>
-      <c r="I15" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="J15" s="10" t="s">
-        <v>374</v>
-      </c>
-      <c r="K15" s="10" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="1:11" s="8" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>367</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>352</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>335</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="H17" s="8" t="s">
-        <v>336</v>
-      </c>
-      <c r="I17" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="K17" s="8" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" s="10" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>368</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>352</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>337</v>
-      </c>
-      <c r="G18" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="H18" s="10" t="s">
-        <v>339</v>
-      </c>
-      <c r="I18" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="J18" s="10" t="s">
-        <v>375</v>
-      </c>
-      <c r="K18" s="10" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" s="10" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>369</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>352</v>
-      </c>
-      <c r="F19" s="11" t="s">
-        <v>337</v>
-      </c>
-      <c r="G19" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="H19" s="10" t="s">
-        <v>340</v>
-      </c>
-      <c r="I19" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="J19" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="K19" s="10" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" s="8" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>370</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>352</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>341</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="H20" s="8" t="s">
-        <v>343</v>
-      </c>
-      <c r="I20" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="K20" s="8" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" s="8" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>371</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>352</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>342</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="H21" s="8" t="s">
-        <v>343</v>
-      </c>
-      <c r="I21" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="K21" s="8" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" s="10" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="B22" s="10" t="s">
-        <v>547</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>548</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>352</v>
-      </c>
-      <c r="F22" s="11" t="s">
-        <v>549</v>
-      </c>
-      <c r="G22" s="10" t="s">
-        <v>550</v>
-      </c>
-      <c r="H22" s="10" t="s">
-        <v>551</v>
-      </c>
-      <c r="I22" s="10" t="s">
-        <v>552</v>
-      </c>
-      <c r="J22" s="10" t="s">
-        <v>553</v>
-      </c>
-      <c r="K22" s="10" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" s="10" customFormat="1" ht="135" x14ac:dyDescent="0.25">
-      <c r="B23" s="10" t="s">
-        <v>554</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>555</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E23" s="11" t="s">
-        <v>352</v>
-      </c>
-      <c r="F23" s="11" t="s">
-        <v>564</v>
-      </c>
-      <c r="G23" s="10" t="s">
-        <v>556</v>
-      </c>
-      <c r="H23" s="10" t="s">
-        <v>557</v>
-      </c>
-      <c r="I23" s="10" t="s">
-        <v>552</v>
-      </c>
-      <c r="J23" s="10" t="s">
-        <v>558</v>
-      </c>
-      <c r="K23" s="10" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" s="10" customFormat="1" ht="105" x14ac:dyDescent="0.25">
-      <c r="B24" s="10" t="s">
-        <v>560</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>559</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>352</v>
-      </c>
-      <c r="F24" s="11" t="s">
-        <v>561</v>
-      </c>
-      <c r="G24" s="10" t="s">
-        <v>562</v>
-      </c>
-      <c r="H24" s="10" t="s">
-        <v>563</v>
-      </c>
-      <c r="I24" s="10" t="s">
-        <v>552</v>
-      </c>
-      <c r="J24" s="10" t="s">
-        <v>565</v>
-      </c>
-      <c r="K24" s="10" t="s">
-        <v>237</v>
+      <c r="D26" s="11" t="s">
+        <v>314</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>574</v>
       </c>
     </row>
   </sheetData>
@@ -6765,7 +7082,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
@@ -6781,36 +7098,36 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>344</v>
+        <v>306</v>
       </c>
       <c r="B1" t="s">
-        <v>348</v>
+        <v>310</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>345</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>349</v>
+        <v>307</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="3" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="19"/>
+      <c r="B3" s="17"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>346</v>
+        <v>308</v>
       </c>
       <c r="B4" t="s">
-        <v>353</v>
+        <v>315</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>347</v>
-      </c>
-      <c r="B5" s="18">
+        <v>309</v>
+      </c>
+      <c r="B5" s="16">
         <v>1234</v>
       </c>
     </row>
@@ -6823,7 +7140,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5"/>
@@ -6831,24 +7148,24 @@
   <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+      <selection activeCell="A2" sqref="A2:L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.140625" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.7109375" style="16" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.28515625" style="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.7109375" style="16" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13" style="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.42578125" style="16" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.85546875" style="16" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.5703125" style="16" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.5703125" style="16" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="25" style="16" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.85546875" style="16"/>
+    <col min="1" max="1" width="18.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.7109375" style="15" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.7109375" style="15" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13" style="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.85546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="25" style="15" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.85546875" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -6886,665 +7203,563 @@
         <v>55</v>
       </c>
       <c r="L1" s="13" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="M1" s="13"/>
     </row>
     <row r="2" spans="1:13" ht="137.44999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
-        <v>256</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>257</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>258</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>259</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>260</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>261</v>
-      </c>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14" t="s">
-        <v>262</v>
-      </c>
-      <c r="K2" s="14"/>
-      <c r="L2" s="16" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="135" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
-        <v>264</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>382</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>258</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>383</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>384</v>
-      </c>
-      <c r="G3" s="14" t="s">
-        <v>261</v>
-      </c>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14" t="s">
-        <v>262</v>
-      </c>
-      <c r="K3" s="14"/>
-    </row>
-    <row r="4" spans="1:13" ht="122.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
-        <v>266</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>385</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>258</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>386</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>265</v>
-      </c>
-      <c r="G4" s="14" t="s">
-        <v>261</v>
-      </c>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14" t="s">
-        <v>262</v>
-      </c>
-      <c r="K4" s="14"/>
-    </row>
-    <row r="5" spans="1:13" ht="135" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
-        <v>270</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>267</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>258</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>268</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>269</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>261</v>
-      </c>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14" t="s">
-        <v>262</v>
-      </c>
-      <c r="K5" s="14"/>
-    </row>
-    <row r="6" spans="1:13" ht="150" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
-        <v>274</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>271</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>258</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>272</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>273</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>261</v>
-      </c>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14" t="s">
-        <v>262</v>
-      </c>
-      <c r="K6" s="14"/>
-    </row>
-    <row r="7" spans="1:13" ht="150" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
-        <v>278</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>275</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>258</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>276</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>277</v>
-      </c>
-      <c r="G7" s="14" t="s">
-        <v>261</v>
-      </c>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14" t="s">
-        <v>262</v>
-      </c>
-      <c r="K7" s="14"/>
-    </row>
-    <row r="8" spans="1:13" ht="165" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
-        <v>282</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>279</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>258</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>280</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>281</v>
-      </c>
-      <c r="G8" s="14" t="s">
-        <v>261</v>
-      </c>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14" t="s">
-        <v>262</v>
-      </c>
-      <c r="K8" s="14"/>
-    </row>
-    <row r="9" spans="1:13" ht="120" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
-        <v>286</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>283</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>258</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>284</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>285</v>
-      </c>
-      <c r="G9" s="14" t="s">
-        <v>261</v>
-      </c>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14" t="s">
-        <v>262</v>
-      </c>
-      <c r="K9" s="14"/>
-    </row>
-    <row r="10" spans="1:13" ht="150" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
-        <v>290</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>287</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>258</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>288</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>289</v>
-      </c>
-      <c r="G10" s="14" t="s">
-        <v>261</v>
-      </c>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14" t="s">
-        <v>262</v>
-      </c>
-      <c r="K10" s="14"/>
-    </row>
-    <row r="11" spans="1:13" ht="165" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
-        <v>294</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>291</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>258</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>292</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>293</v>
-      </c>
-      <c r="G11" s="14" t="s">
-        <v>261</v>
-      </c>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14" t="s">
-        <v>262</v>
-      </c>
-      <c r="K11" s="14"/>
-    </row>
-    <row r="12" spans="1:13" ht="165" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
-        <v>298</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>258</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>296</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>297</v>
-      </c>
-      <c r="G12" s="14" t="s">
-        <v>261</v>
-      </c>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14" t="s">
-        <v>262</v>
-      </c>
-      <c r="K12" s="14"/>
-    </row>
-    <row r="13" spans="1:13" ht="165" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
-        <v>302</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>299</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>258</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>300</v>
-      </c>
-      <c r="F13" s="15" t="s">
-        <v>301</v>
-      </c>
-      <c r="G13" s="14" t="s">
-        <v>261</v>
-      </c>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14" t="s">
-        <v>262</v>
-      </c>
-      <c r="K13" s="14"/>
-      <c r="M13" s="16" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="141" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
-        <v>307</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>303</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>258</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="F14" s="15" t="s">
-        <v>305</v>
-      </c>
-      <c r="G14" s="14" t="s">
-        <v>261</v>
-      </c>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14" t="s">
-        <v>262</v>
-      </c>
-      <c r="K14" s="14"/>
-      <c r="L14" s="16" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="165" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="s">
-        <v>311</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>308</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>258</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>309</v>
-      </c>
-      <c r="F15" s="15" t="s">
-        <v>310</v>
-      </c>
-      <c r="G15" s="14" t="s">
-        <v>261</v>
-      </c>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14" t="s">
-        <v>262</v>
-      </c>
-      <c r="K15" s="14"/>
-    </row>
-    <row r="16" spans="1:13" ht="165" x14ac:dyDescent="0.25">
-      <c r="A16" s="14" t="s">
-        <v>315</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>312</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>258</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>313</v>
-      </c>
-      <c r="F16" s="15" t="s">
-        <v>314</v>
-      </c>
-      <c r="G16" s="14" t="s">
-        <v>261</v>
-      </c>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14" t="s">
-        <v>262</v>
-      </c>
-      <c r="K16" s="14"/>
-    </row>
-    <row r="17" spans="1:11" ht="150" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
-        <v>319</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>316</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>258</v>
-      </c>
-      <c r="E17" s="15" t="s">
-        <v>317</v>
-      </c>
-      <c r="F17" s="15" t="s">
-        <v>318</v>
-      </c>
-      <c r="G17" s="14" t="s">
-        <v>261</v>
-      </c>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14" t="s">
-        <v>262</v>
-      </c>
-      <c r="K17" s="14"/>
-    </row>
-    <row r="18" spans="1:11" ht="195" x14ac:dyDescent="0.25">
-      <c r="A18" s="14" t="s">
-        <v>387</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>388</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>258</v>
-      </c>
-      <c r="E18" s="15" t="s">
-        <v>320</v>
-      </c>
-      <c r="F18" s="17" t="s">
-        <v>321</v>
-      </c>
-      <c r="G18" s="14" t="s">
-        <v>261</v>
-      </c>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="120" x14ac:dyDescent="0.25">
-      <c r="A19" s="14" t="s">
-        <v>389</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>390</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>258</v>
-      </c>
-      <c r="E19" s="15" t="s">
-        <v>391</v>
-      </c>
-      <c r="F19" s="17" t="s">
-        <v>392</v>
-      </c>
-      <c r="G19" s="14" t="s">
-        <v>261</v>
-      </c>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14" t="s">
-        <v>262</v>
-      </c>
-      <c r="K19" s="14"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="29.28515625" style="43" customWidth="1"/>
-    <col min="2" max="2" width="48.140625" style="43" customWidth="1"/>
-    <col min="3" max="4" width="22" style="43" customWidth="1"/>
-    <col min="5" max="5" width="51.140625" style="43" customWidth="1"/>
-    <col min="6" max="6" width="50.140625" style="43" customWidth="1"/>
-    <col min="7" max="7" width="19.42578125" style="43" customWidth="1"/>
-    <col min="8" max="8" width="33.42578125" style="43" customWidth="1"/>
-    <col min="9" max="9" width="39.42578125" style="43" customWidth="1"/>
-    <col min="10" max="10" width="28" style="43" customWidth="1"/>
-    <col min="11" max="11" width="31.140625" style="43" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="43"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" s="46" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="46" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="46" t="s">
-        <v>11</v>
+      <c r="A2" s="51" t="s">
+        <v>240</v>
+      </c>
+      <c r="B2" s="51" t="s">
+        <v>241</v>
       </c>
       <c r="C2" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="46" t="s">
-        <v>21</v>
+      <c r="D2" s="52" t="s">
+        <v>242</v>
+      </c>
+      <c r="E2" s="52" t="s">
+        <v>546</v>
+      </c>
+      <c r="F2" s="52" t="s">
+        <v>243</v>
       </c>
       <c r="G2" s="51" t="s">
-        <v>576</v>
-      </c>
-      <c r="I2" s="46" t="s">
-        <v>584</v>
-      </c>
-      <c r="J2" s="46" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" s="49" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="49" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="50" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="49" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="49" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="49" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="50" t="s">
-        <v>579</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>585</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>583</v>
-      </c>
-      <c r="J3" s="49" t="s">
-        <v>50</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51" t="s">
+        <v>547</v>
+      </c>
+      <c r="J2" s="51" t="s">
+        <v>244</v>
+      </c>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="135" x14ac:dyDescent="0.25">
+      <c r="A3" s="51" t="s">
+        <v>245</v>
+      </c>
+      <c r="B3" s="51" t="s">
+        <v>344</v>
+      </c>
+      <c r="C3" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="52" t="s">
+        <v>242</v>
+      </c>
+      <c r="E3" s="52" t="s">
+        <v>549</v>
+      </c>
+      <c r="F3" s="52" t="s">
+        <v>345</v>
+      </c>
+      <c r="G3" s="51" t="s">
+        <v>229</v>
+      </c>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="51" t="s">
+        <v>244</v>
+      </c>
+      <c r="K3" s="51"/>
+      <c r="L3" s="51"/>
+    </row>
+    <row r="4" spans="1:13" ht="122.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="51" t="s">
+        <v>247</v>
+      </c>
+      <c r="B4" s="51" t="s">
+        <v>346</v>
+      </c>
+      <c r="C4" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="52" t="s">
+        <v>242</v>
+      </c>
+      <c r="E4" s="52" t="s">
+        <v>550</v>
+      </c>
+      <c r="F4" s="52" t="s">
+        <v>246</v>
+      </c>
+      <c r="G4" s="51" t="s">
+        <v>229</v>
+      </c>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51" t="s">
+        <v>244</v>
+      </c>
+      <c r="K4" s="51"/>
+      <c r="L4" s="51"/>
+    </row>
+    <row r="5" spans="1:13" ht="135" x14ac:dyDescent="0.25">
+      <c r="A5" s="51" t="s">
+        <v>250</v>
+      </c>
+      <c r="B5" s="51" t="s">
+        <v>248</v>
+      </c>
+      <c r="C5" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="52" t="s">
+        <v>242</v>
+      </c>
+      <c r="E5" s="52" t="s">
+        <v>551</v>
+      </c>
+      <c r="F5" s="52" t="s">
+        <v>249</v>
+      </c>
+      <c r="G5" s="51" t="s">
+        <v>229</v>
+      </c>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51" t="s">
+        <v>244</v>
+      </c>
+      <c r="K5" s="51"/>
+      <c r="L5" s="51"/>
+    </row>
+    <row r="6" spans="1:13" ht="150" x14ac:dyDescent="0.25">
+      <c r="A6" s="53" t="s">
+        <v>253</v>
+      </c>
+      <c r="B6" s="53" t="s">
+        <v>251</v>
+      </c>
+      <c r="C6" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="54" t="s">
+        <v>242</v>
+      </c>
+      <c r="E6" s="54" t="s">
+        <v>552</v>
+      </c>
+      <c r="F6" s="54" t="s">
+        <v>252</v>
+      </c>
+      <c r="G6" s="53" t="s">
+        <v>372</v>
+      </c>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="53" t="s">
+        <v>244</v>
+      </c>
+      <c r="K6" s="53"/>
+      <c r="L6" s="53"/>
+    </row>
+    <row r="7" spans="1:13" ht="150" x14ac:dyDescent="0.25">
+      <c r="A7" s="51" t="s">
+        <v>256</v>
+      </c>
+      <c r="B7" s="51" t="s">
+        <v>254</v>
+      </c>
+      <c r="C7" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="52" t="s">
+        <v>242</v>
+      </c>
+      <c r="E7" s="52" t="s">
+        <v>553</v>
+      </c>
+      <c r="F7" s="52" t="s">
+        <v>255</v>
+      </c>
+      <c r="G7" s="51" t="s">
+        <v>229</v>
+      </c>
+      <c r="H7" s="51"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="51" t="s">
+        <v>244</v>
+      </c>
+      <c r="K7" s="51"/>
+      <c r="L7" s="51"/>
+    </row>
+    <row r="8" spans="1:13" ht="165" x14ac:dyDescent="0.25">
+      <c r="A8" s="51" t="s">
+        <v>259</v>
+      </c>
+      <c r="B8" s="51" t="s">
+        <v>257</v>
+      </c>
+      <c r="C8" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="52" t="s">
+        <v>242</v>
+      </c>
+      <c r="E8" s="52" t="s">
+        <v>554</v>
+      </c>
+      <c r="F8" s="52" t="s">
+        <v>258</v>
+      </c>
+      <c r="G8" s="51" t="s">
+        <v>229</v>
+      </c>
+      <c r="H8" s="51"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="51" t="s">
+        <v>244</v>
+      </c>
+      <c r="K8" s="51"/>
+      <c r="L8" s="51"/>
+    </row>
+    <row r="9" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+      <c r="A9" s="51" t="s">
+        <v>262</v>
+      </c>
+      <c r="B9" s="52" t="s">
+        <v>260</v>
+      </c>
+      <c r="C9" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="52" t="s">
+        <v>242</v>
+      </c>
+      <c r="E9" s="52" t="s">
+        <v>555</v>
+      </c>
+      <c r="F9" s="52" t="s">
+        <v>261</v>
+      </c>
+      <c r="G9" s="51" t="s">
+        <v>229</v>
+      </c>
+      <c r="H9" s="51"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="51" t="s">
+        <v>244</v>
+      </c>
+      <c r="K9" s="51"/>
+      <c r="L9" s="51"/>
+    </row>
+    <row r="10" spans="1:13" ht="150" x14ac:dyDescent="0.25">
+      <c r="A10" s="51" t="s">
+        <v>265</v>
+      </c>
+      <c r="B10" s="52" t="s">
+        <v>263</v>
+      </c>
+      <c r="C10" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="52" t="s">
+        <v>242</v>
+      </c>
+      <c r="E10" s="52" t="s">
+        <v>556</v>
+      </c>
+      <c r="F10" s="52" t="s">
+        <v>264</v>
+      </c>
+      <c r="G10" s="51" t="s">
+        <v>229</v>
+      </c>
+      <c r="H10" s="51"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="51" t="s">
+        <v>244</v>
+      </c>
+      <c r="K10" s="51"/>
+      <c r="L10" s="51"/>
+    </row>
+    <row r="11" spans="1:13" ht="165" x14ac:dyDescent="0.25">
+      <c r="A11" s="51" t="s">
+        <v>268</v>
+      </c>
+      <c r="B11" s="52" t="s">
+        <v>266</v>
+      </c>
+      <c r="C11" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="52" t="s">
+        <v>242</v>
+      </c>
+      <c r="E11" s="52" t="s">
+        <v>557</v>
+      </c>
+      <c r="F11" s="52" t="s">
+        <v>267</v>
+      </c>
+      <c r="G11" s="51" t="s">
+        <v>229</v>
+      </c>
+      <c r="H11" s="51"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="51" t="s">
+        <v>244</v>
+      </c>
+      <c r="K11" s="51"/>
+      <c r="L11" s="51"/>
+    </row>
+    <row r="12" spans="1:13" ht="165" x14ac:dyDescent="0.25">
+      <c r="A12" s="51" t="s">
+        <v>269</v>
+      </c>
+      <c r="B12" s="52" t="s">
+        <v>270</v>
+      </c>
+      <c r="C12" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="52" t="s">
+        <v>242</v>
+      </c>
+      <c r="E12" s="52" t="s">
+        <v>558</v>
+      </c>
+      <c r="F12" s="52" t="s">
+        <v>559</v>
+      </c>
+      <c r="G12" s="51" t="s">
+        <v>229</v>
+      </c>
+      <c r="H12" s="51"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="51" t="s">
+        <v>244</v>
+      </c>
+      <c r="K12" s="51"/>
+      <c r="L12" s="51"/>
+    </row>
+    <row r="13" spans="1:13" ht="165" x14ac:dyDescent="0.25">
+      <c r="A13" s="53" t="s">
+        <v>271</v>
+      </c>
+      <c r="B13" s="54" t="s">
+        <v>575</v>
+      </c>
+      <c r="C13" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="54" t="s">
+        <v>242</v>
+      </c>
+      <c r="E13" s="54" t="s">
+        <v>560</v>
+      </c>
+      <c r="F13" s="54" t="s">
+        <v>561</v>
+      </c>
+      <c r="G13" s="53" t="s">
+        <v>372</v>
+      </c>
+      <c r="H13" s="53"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="53" t="s">
+        <v>244</v>
+      </c>
+      <c r="K13" s="53"/>
+      <c r="L13" s="53"/>
+      <c r="M13" s="15" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="141" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="51" t="s">
+        <v>275</v>
+      </c>
+      <c r="B14" s="51" t="s">
+        <v>272</v>
+      </c>
+      <c r="C14" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="52" t="s">
+        <v>242</v>
+      </c>
+      <c r="E14" s="52" t="s">
+        <v>562</v>
+      </c>
+      <c r="F14" s="52" t="s">
+        <v>273</v>
+      </c>
+      <c r="G14" s="51" t="s">
+        <v>229</v>
+      </c>
+      <c r="H14" s="51"/>
+      <c r="I14" s="51"/>
+      <c r="J14" s="51" t="s">
+        <v>244</v>
+      </c>
+      <c r="K14" s="51"/>
+      <c r="L14" s="51" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="165" x14ac:dyDescent="0.25">
+      <c r="A15" s="51" t="s">
+        <v>278</v>
+      </c>
+      <c r="B15" s="51" t="s">
+        <v>276</v>
+      </c>
+      <c r="C15" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="52" t="s">
+        <v>242</v>
+      </c>
+      <c r="E15" s="52" t="s">
+        <v>563</v>
+      </c>
+      <c r="F15" s="52" t="s">
+        <v>277</v>
+      </c>
+      <c r="G15" s="51" t="s">
+        <v>229</v>
+      </c>
+      <c r="H15" s="51"/>
+      <c r="I15" s="51"/>
+      <c r="J15" s="51" t="s">
+        <v>244</v>
+      </c>
+      <c r="K15" s="51"/>
+      <c r="L15" s="51"/>
+    </row>
+    <row r="16" spans="1:13" ht="165" x14ac:dyDescent="0.25">
+      <c r="A16" s="53" t="s">
+        <v>281</v>
+      </c>
+      <c r="B16" s="53" t="s">
+        <v>279</v>
+      </c>
+      <c r="C16" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="54" t="s">
+        <v>242</v>
+      </c>
+      <c r="E16" s="54" t="s">
+        <v>564</v>
+      </c>
+      <c r="F16" s="54" t="s">
+        <v>280</v>
+      </c>
+      <c r="G16" s="53" t="s">
+        <v>372</v>
+      </c>
+      <c r="H16" s="53"/>
+      <c r="I16" s="53"/>
+      <c r="J16" s="53" t="s">
+        <v>244</v>
+      </c>
+      <c r="K16" s="53"/>
+      <c r="L16" s="53"/>
+    </row>
+    <row r="17" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+      <c r="A17" s="51" t="s">
+        <v>283</v>
+      </c>
+      <c r="B17" s="52" t="s">
+        <v>282</v>
+      </c>
+      <c r="C17" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="52" t="s">
+        <v>242</v>
+      </c>
+      <c r="E17" s="52" t="s">
+        <v>565</v>
+      </c>
+      <c r="F17" s="52" t="s">
+        <v>566</v>
+      </c>
+      <c r="G17" s="51" t="s">
+        <v>229</v>
+      </c>
+      <c r="H17" s="51"/>
+      <c r="I17" s="51"/>
+      <c r="J17" s="51" t="s">
+        <v>244</v>
+      </c>
+      <c r="K17" s="51"/>
+      <c r="L17" s="51"/>
+    </row>
+    <row r="18" spans="1:12" ht="195" x14ac:dyDescent="0.25">
+      <c r="A18" s="51" t="s">
+        <v>347</v>
+      </c>
+      <c r="B18" s="52" t="s">
+        <v>348</v>
+      </c>
+      <c r="C18" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="52" t="s">
+        <v>242</v>
+      </c>
+      <c r="E18" s="52" t="s">
+        <v>567</v>
+      </c>
+      <c r="F18" s="52" t="s">
+        <v>284</v>
+      </c>
+      <c r="G18" s="51" t="s">
+        <v>229</v>
+      </c>
+      <c r="H18" s="51"/>
+      <c r="I18" s="51"/>
+      <c r="J18" s="51" t="s">
+        <v>244</v>
+      </c>
+      <c r="K18" s="51"/>
+      <c r="L18" s="51"/>
+    </row>
+    <row r="19" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+      <c r="A19" s="51" t="s">
+        <v>349</v>
+      </c>
+      <c r="B19" s="51" t="s">
+        <v>350</v>
+      </c>
+      <c r="C19" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="52" t="s">
+        <v>242</v>
+      </c>
+      <c r="E19" s="52" t="s">
+        <v>568</v>
+      </c>
+      <c r="F19" s="52" t="s">
+        <v>351</v>
+      </c>
+      <c r="G19" s="51" t="s">
+        <v>229</v>
+      </c>
+      <c r="H19" s="51"/>
+      <c r="I19" s="51"/>
+      <c r="J19" s="51" t="s">
+        <v>244</v>
+      </c>
+      <c r="K19" s="51"/>
+      <c r="L19" s="51"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="L2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Testing/Test Cases/TAWA_TestCases.xlsx
+++ b/Testing/Test Cases/TAWA_TestCases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" firstSheet="1" activeTab="9"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Header" sheetId="11" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1244" uniqueCount="607">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1280" uniqueCount="613">
   <si>
     <t>ID</t>
   </si>
@@ -935,10 +935,6 @@
     <t>Asmaa Hamdy</t>
   </si>
   <si>
-    <t>The admin shall be able to add users.
-The user is added to the database</t>
-  </si>
-  <si>
     <t>The admin is redirected  to a ‘add user’ form.</t>
   </si>
   <si>
@@ -966,9 +962,6 @@
   </si>
   <si>
     <t>TAWA_Admin_Bug_007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The user is added to the database </t>
   </si>
   <si>
     <t xml:space="preserve">View the Add button
@@ -1176,18 +1169,11 @@
     <t>successful message says ‘Congratulations!  A new account has been created successfully’ .</t>
   </si>
   <si>
-    <t>The admin shall be able to delete users.</t>
-  </si>
-  <si>
     <t>User is deleted successfully from the database</t>
   </si>
   <si>
     <t>1- Type an existing username in the search bar
 2- Press search button</t>
-  </si>
-  <si>
-    <t>1- Type an existing username in the search bar
-2- Press delete</t>
   </si>
   <si>
     <t xml:space="preserve">The user is listed </t>
@@ -2425,6 +2411,39 @@
   </si>
   <si>
     <t>Field cannot accept more than 4</t>
+  </si>
+  <si>
+    <t>message will appear to the admin in the same page ‘Congratulations!  A new account has been created successfully’ .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The user is added to the database and the message appeared </t>
+  </si>
+  <si>
+    <t>Maysoon Magdy</t>
+  </si>
+  <si>
+    <t>1- Type an existing username in the search bar
+2- Press delete
+3- go to the admin user and check the kist of users again to confirm that the deleted one isn't exsist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The admin shall be able to delete users. </t>
+  </si>
+  <si>
+    <t>TAWA_Admin_024</t>
+  </si>
+  <si>
+    <t>Validating the redirection after adding a user</t>
+  </si>
+  <si>
+    <t>2- Press Add user
+4- From add user page press back</t>
+  </si>
+  <si>
+    <t>TAWA_Admin_Bug_013</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -2588,7 +2607,7 @@
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -2737,6 +2756,15 @@
     <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="3" builtinId="27"/>
@@ -2847,6 +2875,45 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>216096</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1744891" cy="904875"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16284771" y="24279224"/>
+          <a:ext cx="1744891" cy="904875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3146,24 +3213,24 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.109375" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.6640625" style="16" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" style="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.33203125" style="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.6640625" style="16" customWidth="1"/>
-    <col min="6" max="6" width="35.77734375" style="16" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.7109375" style="16" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.7109375" style="16" customWidth="1"/>
+    <col min="6" max="6" width="35.7109375" style="16" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13" style="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.44140625" style="16" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.88671875" style="16" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.5546875" style="16" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.5546875" style="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" style="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.85546875" style="16" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.5703125" style="16" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.5703125" style="16" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="25" style="16" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.88671875" style="16"/>
+    <col min="14" max="16384" width="8.85546875" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -3200,123 +3267,123 @@
       <c r="L1" s="13"/>
       <c r="M1" s="13"/>
     </row>
-    <row r="2" spans="1:13" ht="137.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="137.44999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="H2" s="14"/>
       <c r="I2" s="14"/>
       <c r="J2" s="14" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K2" s="14"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="C3" s="14" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="H3" s="14"/>
       <c r="I3" s="14"/>
       <c r="J3" s="14" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K3" s="14"/>
     </row>
-    <row r="4" spans="1:13" ht="122.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="122.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="C4" s="14" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="H4" s="14"/>
       <c r="I4" s="14"/>
       <c r="J4" s="14" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K4" s="14"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="C5" s="14" t="s">
         <v>12</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="H5" s="14"/>
       <c r="I5" s="14"/>
       <c r="J5" s="14" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K5" s="14"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="14"/>
       <c r="B6" s="14"/>
       <c r="C6" s="14"/>
@@ -3329,7 +3396,7 @@
       <c r="J6" s="14"/>
       <c r="K6" s="14"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
@@ -3342,7 +3409,7 @@
       <c r="J7" s="14"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="14"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
@@ -3355,7 +3422,7 @@
       <c r="J8" s="14"/>
       <c r="K8" s="14"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="14"/>
       <c r="B9" s="15"/>
       <c r="C9" s="14"/>
@@ -3368,7 +3435,7 @@
       <c r="J9" s="14"/>
       <c r="K9" s="14"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="14"/>
       <c r="B10" s="15"/>
       <c r="C10" s="14"/>
@@ -3381,7 +3448,7 @@
       <c r="J10" s="14"/>
       <c r="K10" s="14"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="14"/>
       <c r="B11" s="15"/>
       <c r="C11" s="14"/>
@@ -3394,7 +3461,7 @@
       <c r="J11" s="14"/>
       <c r="K11" s="14"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="14"/>
       <c r="B12" s="15"/>
       <c r="C12" s="14"/>
@@ -3407,7 +3474,7 @@
       <c r="J12" s="14"/>
       <c r="K12" s="14"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="14"/>
       <c r="B13" s="15"/>
       <c r="C13" s="14"/>
@@ -3420,7 +3487,7 @@
       <c r="J13" s="14"/>
       <c r="K13" s="14"/>
     </row>
-    <row r="14" spans="1:13" ht="141" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" ht="141" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="14"/>
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
@@ -3433,7 +3500,7 @@
       <c r="J14" s="14"/>
       <c r="K14" s="14"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="14"/>
       <c r="B15" s="14"/>
       <c r="C15" s="14"/>
@@ -3446,7 +3513,7 @@
       <c r="J15" s="14"/>
       <c r="K15" s="14"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="14"/>
       <c r="B16" s="14"/>
       <c r="C16" s="14"/>
@@ -3459,7 +3526,7 @@
       <c r="J16" s="14"/>
       <c r="K16" s="14"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="14"/>
       <c r="B17" s="15"/>
       <c r="C17" s="14"/>
@@ -3472,7 +3539,7 @@
       <c r="J17" s="14"/>
       <c r="K17" s="14"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="14"/>
       <c r="B18" s="15"/>
       <c r="C18" s="14"/>
@@ -3484,7 +3551,7 @@
       <c r="I18" s="14"/>
       <c r="J18" s="14"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="14"/>
       <c r="B19" s="14"/>
       <c r="C19" s="14"/>
@@ -3509,29 +3576,29 @@
   </sheetPr>
   <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="F2" sqref="A1:L19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.109375" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.77734375" style="16" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.7109375" style="16" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" style="16" customWidth="1"/>
-    <col min="4" max="4" width="20.21875" style="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.6640625" style="16" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.7109375" style="16" customWidth="1"/>
     <col min="6" max="6" width="31" style="16" customWidth="1"/>
-    <col min="7" max="7" width="10.44140625" style="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.109375" style="16" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.88671875" style="16" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.5546875" style="16" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.5546875" style="16" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="59.77734375" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" style="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.85546875" style="16" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.5703125" style="16" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.5703125" style="16" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="59.7109375" style="16" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="25" style="16" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.88671875" style="16"/>
+    <col min="14" max="16384" width="8.85546875" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="42" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="42" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3566,552 +3633,552 @@
         <v>55</v>
       </c>
       <c r="L1" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="M1" s="13"/>
+    </row>
+    <row r="2" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+      <c r="A2" s="52" t="s">
+        <v>238</v>
+      </c>
+      <c r="B2" s="52" t="s">
         <v>239</v>
-      </c>
-      <c r="M1" s="13"/>
-    </row>
-    <row r="2" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="52" t="s">
-        <v>240</v>
-      </c>
-      <c r="B2" s="52" t="s">
-        <v>241</v>
       </c>
       <c r="C2" s="52" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="53" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E2" s="53" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="F2" s="53" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="G2" s="52" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H2" s="52"/>
       <c r="I2" s="52" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="J2" s="52" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K2" s="52"/>
       <c r="L2" s="52" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="129.6" x14ac:dyDescent="0.3">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="135" x14ac:dyDescent="0.25">
       <c r="A3" s="52" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B3" s="52" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="C3" s="52" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="53" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E3" s="53" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="F3" s="53" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="G3" s="52" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H3" s="52"/>
       <c r="I3" s="52"/>
       <c r="J3" s="52" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K3" s="52"/>
       <c r="L3" s="52"/>
     </row>
-    <row r="4" spans="1:13" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="135" x14ac:dyDescent="0.25">
       <c r="A4" s="52" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B4" s="52" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="C4" s="52" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="53" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E4" s="53" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="F4" s="53" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G4" s="52" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H4" s="52"/>
       <c r="I4" s="52"/>
       <c r="J4" s="52" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K4" s="52"/>
       <c r="L4" s="52"/>
     </row>
-    <row r="5" spans="1:13" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="135" x14ac:dyDescent="0.25">
       <c r="A5" s="52" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B5" s="52" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C5" s="52" t="s">
         <v>12</v>
       </c>
       <c r="D5" s="53" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E5" s="53" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="F5" s="53" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G5" s="52" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H5" s="52"/>
       <c r="I5" s="52"/>
       <c r="J5" s="52" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K5" s="52"/>
       <c r="L5" s="52"/>
     </row>
-    <row r="6" spans="1:13" ht="144" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="150" x14ac:dyDescent="0.25">
       <c r="A6" s="54" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B6" s="54" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C6" s="54" t="s">
         <v>12</v>
       </c>
       <c r="D6" s="55" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E6" s="55" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="F6" s="55" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G6" s="54" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="H6" s="54"/>
       <c r="I6" s="54"/>
       <c r="J6" s="54" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K6" s="54"/>
       <c r="L6" s="54"/>
     </row>
-    <row r="7" spans="1:13" ht="144" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="150" x14ac:dyDescent="0.25">
       <c r="A7" s="52" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B7" s="52" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C7" s="52" t="s">
         <v>12</v>
       </c>
       <c r="D7" s="53" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E7" s="53" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="F7" s="53" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G7" s="52" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H7" s="52"/>
       <c r="I7" s="52"/>
       <c r="J7" s="52" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K7" s="52"/>
       <c r="L7" s="52"/>
     </row>
-    <row r="8" spans="1:13" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="165" x14ac:dyDescent="0.25">
       <c r="A8" s="52" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B8" s="52" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C8" s="52" t="s">
         <v>12</v>
       </c>
       <c r="D8" s="53" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E8" s="53" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="F8" s="53" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="G8" s="52" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H8" s="52"/>
       <c r="I8" s="52"/>
       <c r="J8" s="52" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K8" s="52"/>
       <c r="L8" s="52"/>
     </row>
-    <row r="9" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A9" s="52" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B9" s="53" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C9" s="52" t="s">
         <v>12</v>
       </c>
       <c r="D9" s="53" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E9" s="53" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="F9" s="53" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G9" s="52" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H9" s="52"/>
       <c r="I9" s="52"/>
       <c r="J9" s="52" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K9" s="52"/>
       <c r="L9" s="52"/>
     </row>
-    <row r="10" spans="1:13" ht="144" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="150" x14ac:dyDescent="0.25">
       <c r="A10" s="52" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B10" s="53" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C10" s="52" t="s">
         <v>12</v>
       </c>
       <c r="D10" s="53" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E10" s="53" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="F10" s="53" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="G10" s="52" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H10" s="52"/>
       <c r="I10" s="52"/>
       <c r="J10" s="52" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K10" s="52"/>
       <c r="L10" s="52"/>
     </row>
-    <row r="11" spans="1:13" ht="144" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" ht="165" x14ac:dyDescent="0.25">
       <c r="A11" s="52" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B11" s="53" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C11" s="52" t="s">
         <v>12</v>
       </c>
       <c r="D11" s="53" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E11" s="53" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="F11" s="53" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G11" s="52" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H11" s="52"/>
       <c r="I11" s="52"/>
       <c r="J11" s="52" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K11" s="52"/>
       <c r="L11" s="52"/>
     </row>
-    <row r="12" spans="1:13" ht="144" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" ht="165" x14ac:dyDescent="0.25">
       <c r="A12" s="52" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B12" s="53" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C12" s="52" t="s">
         <v>12</v>
       </c>
       <c r="D12" s="53" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E12" s="53" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="F12" s="53" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="G12" s="52" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H12" s="52"/>
       <c r="I12" s="52"/>
       <c r="J12" s="52" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K12" s="52"/>
       <c r="L12" s="52"/>
     </row>
-    <row r="13" spans="1:13" ht="144" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" ht="165" x14ac:dyDescent="0.25">
       <c r="A13" s="54" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B13" s="55" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="C13" s="54" t="s">
         <v>12</v>
       </c>
       <c r="D13" s="55" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E13" s="55" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="F13" s="55" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="G13" s="54" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="H13" s="54"/>
       <c r="I13" s="54"/>
       <c r="J13" s="54" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K13" s="54"/>
       <c r="L13" s="54"/>
     </row>
-    <row r="14" spans="1:13" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" ht="165" x14ac:dyDescent="0.25">
       <c r="A14" s="52" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B14" s="52" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C14" s="52" t="s">
         <v>12</v>
       </c>
       <c r="D14" s="53" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E14" s="53" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="F14" s="53" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G14" s="52" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H14" s="52"/>
       <c r="I14" s="52"/>
       <c r="J14" s="52" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K14" s="52"/>
       <c r="L14" s="52" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="165" x14ac:dyDescent="0.25">
+      <c r="A15" s="52" t="s">
+        <v>277</v>
+      </c>
+      <c r="B15" s="52" t="s">
         <v>275</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A15" s="52" t="s">
-        <v>279</v>
-      </c>
-      <c r="B15" s="52" t="s">
-        <v>277</v>
       </c>
       <c r="C15" s="52" t="s">
         <v>12</v>
       </c>
       <c r="D15" s="53" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E15" s="53" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="F15" s="53" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G15" s="52" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H15" s="52"/>
       <c r="I15" s="52"/>
       <c r="J15" s="52" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K15" s="52"/>
       <c r="L15" s="52"/>
     </row>
-    <row r="16" spans="1:13" ht="144" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" ht="165" x14ac:dyDescent="0.25">
       <c r="A16" s="54" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B16" s="54" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C16" s="54" t="s">
         <v>12</v>
       </c>
       <c r="D16" s="55" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E16" s="55" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="F16" s="55" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="G16" s="54" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="H16" s="54"/>
       <c r="I16" s="54"/>
       <c r="J16" s="54" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K16" s="54"/>
       <c r="L16" s="54"/>
     </row>
-    <row r="17" spans="1:12" ht="144" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="A17" s="52" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B17" s="53" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C17" s="52" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="53" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E17" s="53" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="F17" s="53" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="G17" s="52" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H17" s="52"/>
       <c r="I17" s="52"/>
       <c r="J17" s="52" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K17" s="52"/>
       <c r="L17" s="52"/>
     </row>
-    <row r="18" spans="1:12" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" ht="195" x14ac:dyDescent="0.25">
       <c r="A18" s="52" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="B18" s="53" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="C18" s="52" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="53" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E18" s="53" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="F18" s="53" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G18" s="52" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H18" s="52"/>
       <c r="I18" s="52"/>
       <c r="J18" s="52" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K18" s="52"/>
       <c r="L18" s="52"/>
     </row>
-    <row r="19" spans="1:12" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="A19" s="52" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="B19" s="52" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C19" s="52" t="s">
         <v>12</v>
       </c>
       <c r="D19" s="53" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E19" s="53" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="F19" s="53" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="G19" s="52" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H19" s="52"/>
       <c r="I19" s="52"/>
       <c r="J19" s="52" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K19" s="52"/>
       <c r="L19" s="52"/>
@@ -4132,22 +4199,22 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.33203125" style="43" customWidth="1"/>
-    <col min="2" max="2" width="48.109375" style="43" customWidth="1"/>
+    <col min="1" max="1" width="29.28515625" style="43" customWidth="1"/>
+    <col min="2" max="2" width="48.140625" style="43" customWidth="1"/>
     <col min="3" max="4" width="22" style="43" customWidth="1"/>
-    <col min="5" max="5" width="51.109375" style="43" customWidth="1"/>
-    <col min="6" max="6" width="50.109375" style="43" customWidth="1"/>
-    <col min="7" max="7" width="19.44140625" style="43" customWidth="1"/>
-    <col min="8" max="8" width="33.44140625" style="43" customWidth="1"/>
-    <col min="9" max="9" width="39.44140625" style="43" customWidth="1"/>
+    <col min="5" max="5" width="51.140625" style="43" customWidth="1"/>
+    <col min="6" max="6" width="50.140625" style="43" customWidth="1"/>
+    <col min="7" max="7" width="19.42578125" style="43" customWidth="1"/>
+    <col min="8" max="8" width="33.42578125" style="43" customWidth="1"/>
+    <col min="9" max="9" width="39.42578125" style="43" customWidth="1"/>
     <col min="10" max="10" width="28" style="43" customWidth="1"/>
-    <col min="11" max="11" width="31.109375" style="43" customWidth="1"/>
-    <col min="12" max="16384" width="9.109375" style="43"/>
+    <col min="11" max="11" width="31.140625" style="43" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="43"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4182,7 +4249,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" s="46" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="46" t="s">
         <v>9</v>
       </c>
@@ -4202,16 +4269,16 @@
         <v>21</v>
       </c>
       <c r="G2" s="51" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="I2" s="46" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="J2" s="46" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="49" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" s="49" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="49" t="s">
         <v>14</v>
       </c>
@@ -4231,13 +4298,13 @@
         <v>20</v>
       </c>
       <c r="G3" s="50" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="J3" s="49" t="s">
         <v>50</v>
@@ -4259,24 +4326,24 @@
       <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.33203125" customWidth="1"/>
-    <col min="6" max="6" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.28515625" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="27" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -4313,212 +4380,212 @@
       <c r="L1" s="12"/>
       <c r="M1" s="4"/>
     </row>
-    <row r="2" spans="1:13" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="180" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="H2" s="14"/>
       <c r="I2" s="14"/>
       <c r="J2" s="14" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K2" s="14"/>
       <c r="L2" s="14"/>
     </row>
-    <row r="3" spans="1:13" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="195" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="C3" s="14" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="H3" s="14"/>
       <c r="I3" s="14"/>
       <c r="J3" s="14" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K3" s="14"/>
       <c r="L3" s="14"/>
     </row>
-    <row r="4" spans="1:13" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="210" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="C4" s="14" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="E4" s="15" t="s">
+        <v>357</v>
+      </c>
+      <c r="F4" s="15" t="s">
         <v>361</v>
       </c>
-      <c r="F4" s="15" t="s">
-        <v>365</v>
-      </c>
       <c r="G4" s="14" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="H4" s="14"/>
       <c r="I4" s="14"/>
       <c r="J4" s="14" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K4" s="14"/>
       <c r="L4" s="14"/>
     </row>
-    <row r="5" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="C5" s="14" t="s">
         <v>12</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="H5" s="14"/>
       <c r="I5" s="14"/>
       <c r="J5" s="14" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K5" s="14"/>
       <c r="L5" s="14"/>
     </row>
-    <row r="6" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="C6" s="14" t="s">
         <v>12</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="H6" s="14"/>
       <c r="I6" s="14"/>
       <c r="J6" s="14" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K6" s="14"/>
       <c r="L6" s="14"/>
     </row>
-    <row r="7" spans="1:13" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="240" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="C7" s="14" t="s">
         <v>12</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="E7" s="15" t="s">
+        <v>367</v>
+      </c>
+      <c r="F7" s="15" t="s">
         <v>371</v>
       </c>
-      <c r="F7" s="15" t="s">
-        <v>375</v>
-      </c>
       <c r="G7" s="14" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="H7" s="14"/>
       <c r="I7" s="14"/>
       <c r="J7" s="14" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K7" s="14"/>
       <c r="L7" s="14"/>
     </row>
-    <row r="8" spans="1:13" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="150" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="C8" s="14" t="s">
         <v>12</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
       <c r="J8" s="14" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K8" s="14"/>
       <c r="L8" s="14"/>
@@ -4536,27 +4603,27 @@
       <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.88671875" customWidth="1"/>
-    <col min="2" max="2" width="22.5546875" customWidth="1"/>
-    <col min="3" max="3" width="28.5546875" customWidth="1"/>
-    <col min="4" max="4" width="22.44140625" customWidth="1"/>
-    <col min="5" max="5" width="26.88671875" customWidth="1"/>
-    <col min="6" max="6" width="28.33203125" customWidth="1"/>
-    <col min="7" max="7" width="30.33203125" customWidth="1"/>
-    <col min="8" max="8" width="39.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.6640625" customWidth="1"/>
-    <col min="10" max="10" width="20.33203125" customWidth="1"/>
+    <col min="1" max="1" width="22.85546875" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" customWidth="1"/>
+    <col min="3" max="3" width="28.5703125" customWidth="1"/>
+    <col min="4" max="4" width="22.42578125" customWidth="1"/>
+    <col min="5" max="5" width="26.85546875" customWidth="1"/>
+    <col min="6" max="6" width="28.28515625" customWidth="1"/>
+    <col min="7" max="7" width="30.28515625" customWidth="1"/>
+    <col min="8" max="8" width="39.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.7109375" customWidth="1"/>
+    <col min="10" max="10" width="20.28515625" customWidth="1"/>
     <col min="11" max="11" width="14" customWidth="1"/>
-    <col min="12" max="12" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.33203125" customWidth="1"/>
-    <col min="14" max="14" width="17.6640625" customWidth="1"/>
+    <col min="12" max="12" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.28515625" customWidth="1"/>
+    <col min="14" max="14" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="36" customFormat="1" ht="21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="36" customFormat="1" ht="42" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -4598,159 +4665,159 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="20"/>
       <c r="B2" s="20" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="D2" s="21" t="s">
         <v>12</v>
       </c>
       <c r="E2" s="21"/>
       <c r="F2" s="22" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="H2" s="23" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="I2" s="21"/>
       <c r="J2" s="21" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="K2" s="21"/>
       <c r="L2" s="21"/>
       <c r="M2" s="21" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="N2" s="20"/>
     </row>
-    <row r="3" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="20" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="E3" s="24"/>
       <c r="F3" s="22" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="23" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="I3" s="21"/>
       <c r="J3" s="21"/>
       <c r="K3" s="21"/>
       <c r="L3" s="21"/>
       <c r="M3" s="21" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="N3" s="5"/>
     </row>
-    <row r="4" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="25" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="E4" s="24"/>
       <c r="F4" s="22" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="G4" s="22" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="H4" s="23" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="I4" s="21" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="J4" s="21" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="K4" s="21"/>
       <c r="L4" s="23" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="M4" s="21" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="N4" s="5"/>
     </row>
-    <row r="5" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="E5" s="24"/>
       <c r="F5" s="22" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="G5" s="22"/>
       <c r="H5" s="21" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="I5" s="21"/>
       <c r="J5" s="21" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="K5" s="21"/>
       <c r="L5" s="23" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="M5" s="21" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="N5" s="5"/>
     </row>
-    <row r="6" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" ht="90" x14ac:dyDescent="0.25">
       <c r="A6" s="28" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="D6" s="31" t="s">
         <v>12</v>
       </c>
       <c r="E6" s="31" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="F6" s="32" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="G6" s="32" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="H6" s="31"/>
       <c r="I6" s="31"/>
@@ -4758,299 +4825,299 @@
       <c r="K6" s="31"/>
       <c r="L6" s="31"/>
       <c r="M6" s="21" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="N6" s="33"/>
     </row>
-    <row r="7" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="25" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="E7" s="24" t="s">
+        <v>406</v>
+      </c>
+      <c r="F7" s="22" t="s">
         <v>410</v>
-      </c>
-      <c r="F7" s="22" t="s">
-        <v>414</v>
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="23" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="I7" s="21" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="J7" s="21" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="K7" s="21"/>
       <c r="L7" s="23" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="M7" s="21" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="N7" s="5"/>
     </row>
-    <row r="8" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="25" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="E8" s="24"/>
       <c r="F8" s="22" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="G8" s="22" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="H8" s="23" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="I8" s="21"/>
       <c r="J8" s="21" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="K8" s="21"/>
       <c r="L8" s="23" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="M8" s="21" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="N8" s="5"/>
     </row>
-    <row r="9" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="25" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="E9" s="24"/>
       <c r="F9" s="22" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="G9" s="22" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="H9" s="23" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="I9" s="21"/>
       <c r="J9" s="21" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="K9" s="21"/>
       <c r="L9" s="21" t="s">
+        <v>424</v>
+      </c>
+      <c r="M9" s="21" t="s">
+        <v>383</v>
+      </c>
+      <c r="N9" s="5"/>
+    </row>
+    <row r="10" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="25" t="s">
+        <v>425</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>426</v>
+      </c>
+      <c r="C10" s="27" t="s">
+        <v>427</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>392</v>
+      </c>
+      <c r="E10" s="34" t="s">
         <v>428</v>
       </c>
-      <c r="M9" s="21" t="s">
-        <v>387</v>
-      </c>
-      <c r="N9" s="5"/>
-    </row>
-    <row r="10" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="25" t="s">
+      <c r="F10" s="22" t="s">
         <v>429</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="G10" s="22" t="s">
+        <v>380</v>
+      </c>
+      <c r="H10" s="23" t="s">
         <v>430</v>
-      </c>
-      <c r="C10" s="27" t="s">
-        <v>431</v>
-      </c>
-      <c r="D10" s="21" t="s">
-        <v>396</v>
-      </c>
-      <c r="E10" s="34" t="s">
-        <v>432</v>
-      </c>
-      <c r="F10" s="22" t="s">
-        <v>433</v>
-      </c>
-      <c r="G10" s="22" t="s">
-        <v>384</v>
-      </c>
-      <c r="H10" s="23" t="s">
-        <v>434</v>
       </c>
       <c r="I10" s="21"/>
       <c r="J10" s="21" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="K10" s="21"/>
       <c r="L10" s="23" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="M10" s="21" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="N10" s="5"/>
     </row>
-    <row r="11" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="E11" s="24"/>
       <c r="F11" s="22" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="G11" s="22" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="H11" s="23" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="I11" s="21"/>
       <c r="J11" s="21" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="K11" s="21"/>
       <c r="L11" s="21" t="s">
+        <v>437</v>
+      </c>
+      <c r="M11" s="21" t="s">
+        <v>383</v>
+      </c>
+      <c r="N11" s="5"/>
+    </row>
+    <row r="12" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12" s="25" t="s">
+        <v>438</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>439</v>
+      </c>
+      <c r="C12" s="27" t="s">
+        <v>440</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>392</v>
+      </c>
+      <c r="E12" s="34" t="s">
         <v>441</v>
       </c>
-      <c r="M11" s="21" t="s">
-        <v>387</v>
-      </c>
-      <c r="N11" s="5"/>
-    </row>
-    <row r="12" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A12" s="25" t="s">
+      <c r="F12" s="22" t="s">
         <v>442</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="G12" s="22" t="s">
+        <v>380</v>
+      </c>
+      <c r="H12" s="23" t="s">
         <v>443</v>
-      </c>
-      <c r="C12" s="27" t="s">
-        <v>444</v>
-      </c>
-      <c r="D12" s="21" t="s">
-        <v>396</v>
-      </c>
-      <c r="E12" s="34" t="s">
-        <v>445</v>
-      </c>
-      <c r="F12" s="22" t="s">
-        <v>446</v>
-      </c>
-      <c r="G12" s="22" t="s">
-        <v>384</v>
-      </c>
-      <c r="H12" s="23" t="s">
-        <v>447</v>
       </c>
       <c r="I12" s="21"/>
       <c r="J12" s="21" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="K12" s="21"/>
       <c r="L12" s="23" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="M12" s="21" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="N12" s="5"/>
     </row>
-    <row r="13" spans="1:14" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
       <c r="B13" s="20" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="C13" s="27" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="E13" s="24"/>
       <c r="F13" s="22" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="G13" s="22" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="H13" s="23" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="I13" s="21"/>
       <c r="J13" s="21" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="K13" s="21"/>
       <c r="L13" s="23" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="M13" s="21" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="N13" s="5"/>
     </row>
-    <row r="14" spans="1:14" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="35" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="C14" s="27" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="E14" s="24"/>
       <c r="F14" s="22" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="G14" s="22" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="H14" s="23" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="I14" s="21"/>
       <c r="J14" s="21" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="K14" s="21"/>
       <c r="L14" s="23" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="M14" s="21" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="N14" s="5"/>
     </row>
@@ -5067,24 +5134,24 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.6640625" customWidth="1"/>
-    <col min="2" max="2" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="59.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.44140625" customWidth="1"/>
-    <col min="6" max="6" width="30.6640625" customWidth="1"/>
-    <col min="7" max="7" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.33203125" customWidth="1"/>
-    <col min="9" max="9" width="16.88671875" customWidth="1"/>
-    <col min="10" max="10" width="16.33203125" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="38.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="59.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.42578125" customWidth="1"/>
+    <col min="6" max="6" width="30.7109375" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.28515625" customWidth="1"/>
+    <col min="9" max="9" width="16.85546875" customWidth="1"/>
+    <col min="10" max="10" width="16.28515625" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="38.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="36" customFormat="1" ht="42.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" s="36" customFormat="1" ht="42.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="37"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -5126,239 +5193,239 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="35" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="B2" s="36" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="C2" s="36" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="D2" s="36" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="E2" s="36"/>
       <c r="F2" s="22" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="G2" s="14"/>
       <c r="H2" s="37" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="I2" s="36"/>
       <c r="J2" s="36" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="K2" s="36"/>
       <c r="L2" s="36" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="M2" s="36" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="N2" s="36"/>
     </row>
-    <row r="3" spans="1:14" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="35" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="B3" s="36" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="C3" s="36" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="D3" s="36" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="E3" s="36"/>
       <c r="F3" s="22" t="s">
+        <v>462</v>
+      </c>
+      <c r="H3" s="37" t="s">
+        <v>463</v>
+      </c>
+      <c r="J3" t="s">
+        <v>396</v>
+      </c>
+      <c r="L3" t="s">
+        <v>464</v>
+      </c>
+      <c r="M3" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="35" t="s">
+        <v>465</v>
+      </c>
+      <c r="B4" s="36" t="s">
         <v>466</v>
       </c>
-      <c r="H3" s="37" t="s">
+      <c r="C4" s="36" t="s">
         <v>467</v>
       </c>
-      <c r="J3" t="s">
-        <v>400</v>
-      </c>
-      <c r="L3" t="s">
+      <c r="D4" s="36" t="s">
         <v>468</v>
       </c>
-      <c r="M3" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="35" t="s">
+      <c r="E4" s="36" t="s">
         <v>469</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="F4" s="22" t="s">
         <v>470</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="G4" s="23" t="s">
+        <v>380</v>
+      </c>
+      <c r="H4" s="37" t="s">
+        <v>457</v>
+      </c>
+      <c r="J4" t="s">
+        <v>396</v>
+      </c>
+      <c r="L4" t="s">
         <v>471</v>
       </c>
-      <c r="D4" s="36" t="s">
+      <c r="M4" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="35" t="s">
         <v>472</v>
       </c>
-      <c r="E4" s="36" t="s">
+      <c r="B5" s="36" t="s">
         <v>473</v>
       </c>
-      <c r="F4" s="22" t="s">
+      <c r="C5" s="38" t="s">
         <v>474</v>
       </c>
-      <c r="G4" s="23" t="s">
-        <v>384</v>
-      </c>
-      <c r="H4" s="37" t="s">
-        <v>461</v>
-      </c>
-      <c r="J4" t="s">
-        <v>400</v>
-      </c>
-      <c r="L4" t="s">
+      <c r="D5" s="36" t="s">
+        <v>468</v>
+      </c>
+      <c r="E5" s="36" t="s">
+        <v>469</v>
+      </c>
+      <c r="F5" s="22" t="s">
         <v>475</v>
       </c>
-      <c r="M4" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="35" t="s">
+      <c r="G5" s="23" t="s">
+        <v>380</v>
+      </c>
+      <c r="H5" s="38" t="s">
         <v>476</v>
       </c>
-      <c r="B5" s="36" t="s">
+      <c r="J5" t="s">
+        <v>382</v>
+      </c>
+      <c r="L5" t="s">
         <v>477</v>
       </c>
-      <c r="C5" s="38" t="s">
+      <c r="M5" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="35" t="s">
         <v>478</v>
       </c>
-      <c r="D5" s="36" t="s">
-        <v>472</v>
-      </c>
-      <c r="E5" s="36" t="s">
-        <v>473</v>
-      </c>
-      <c r="F5" s="22" t="s">
+      <c r="B6" s="36" t="s">
         <v>479</v>
       </c>
-      <c r="G5" s="23" t="s">
-        <v>384</v>
-      </c>
-      <c r="H5" s="38" t="s">
+      <c r="C6" s="39" t="s">
         <v>480</v>
       </c>
-      <c r="J5" t="s">
-        <v>386</v>
-      </c>
-      <c r="L5" t="s">
+      <c r="D6" s="36" t="s">
+        <v>468</v>
+      </c>
+      <c r="E6" s="36" t="s">
+        <v>469</v>
+      </c>
+      <c r="F6" s="22" t="s">
         <v>481</v>
       </c>
-      <c r="M5" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="35" t="s">
+      <c r="G6" s="23" t="s">
+        <v>380</v>
+      </c>
+      <c r="H6" s="38" t="s">
         <v>482</v>
       </c>
-      <c r="B6" s="36" t="s">
+      <c r="J6" t="s">
+        <v>382</v>
+      </c>
+      <c r="L6" t="s">
         <v>483</v>
       </c>
-      <c r="C6" s="39" t="s">
+      <c r="M6" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="35" t="s">
         <v>484</v>
       </c>
-      <c r="D6" s="36" t="s">
-        <v>472</v>
-      </c>
-      <c r="E6" s="36" t="s">
-        <v>473</v>
-      </c>
-      <c r="F6" s="22" t="s">
+      <c r="B7" s="36" t="s">
         <v>485</v>
       </c>
-      <c r="G6" s="23" t="s">
-        <v>384</v>
-      </c>
-      <c r="H6" s="38" t="s">
+      <c r="C7" s="37" t="s">
         <v>486</v>
       </c>
-      <c r="J6" t="s">
-        <v>386</v>
-      </c>
-      <c r="L6" t="s">
+      <c r="D7" s="36" t="s">
+        <v>468</v>
+      </c>
+      <c r="E7" s="36" t="s">
+        <v>469</v>
+      </c>
+      <c r="F7" s="22" t="s">
         <v>487</v>
       </c>
-      <c r="M6" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="35" t="s">
+      <c r="G7" s="23" t="s">
+        <v>380</v>
+      </c>
+      <c r="H7" s="38" t="s">
         <v>488</v>
       </c>
-      <c r="B7" s="36" t="s">
-        <v>489</v>
-      </c>
-      <c r="C7" s="37" t="s">
-        <v>490</v>
-      </c>
-      <c r="D7" s="36" t="s">
-        <v>472</v>
-      </c>
-      <c r="E7" s="36" t="s">
-        <v>473</v>
-      </c>
-      <c r="F7" s="22" t="s">
-        <v>491</v>
-      </c>
-      <c r="G7" s="23" t="s">
-        <v>384</v>
-      </c>
-      <c r="H7" s="38" t="s">
-        <v>492</v>
-      </c>
       <c r="J7" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="L7" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="M7" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="115.2" x14ac:dyDescent="0.3">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A8" s="40"/>
       <c r="B8" s="41" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="C8" s="42" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="D8" s="41" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="E8" s="41"/>
       <c r="F8" s="32" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="G8" s="40"/>
       <c r="H8" s="42" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="I8" s="40"/>
       <c r="J8" s="40" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="K8" s="40"/>
       <c r="L8" s="40" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="M8" s="40" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="N8" s="40"/>
     </row>
@@ -5375,23 +5442,23 @@
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.88671875" style="43" customWidth="1"/>
-    <col min="2" max="2" width="51.109375" style="43" customWidth="1"/>
+    <col min="1" max="1" width="24.85546875" style="43" customWidth="1"/>
+    <col min="2" max="2" width="51.140625" style="43" customWidth="1"/>
     <col min="3" max="3" width="26" style="34" customWidth="1"/>
     <col min="4" max="4" width="26" style="43" customWidth="1"/>
-    <col min="5" max="5" width="56.6640625" style="43" customWidth="1"/>
-    <col min="6" max="6" width="50.5546875" style="43" customWidth="1"/>
-    <col min="7" max="7" width="26.44140625" style="34" customWidth="1"/>
+    <col min="5" max="5" width="56.7109375" style="43" customWidth="1"/>
+    <col min="6" max="6" width="50.5703125" style="43" customWidth="1"/>
+    <col min="7" max="7" width="26.42578125" style="34" customWidth="1"/>
     <col min="8" max="8" width="24" style="43" customWidth="1"/>
-    <col min="9" max="9" width="31.88671875" style="43" customWidth="1"/>
+    <col min="9" max="9" width="31.85546875" style="43" customWidth="1"/>
     <col min="10" max="10" width="23" style="43" customWidth="1"/>
     <col min="11" max="11" width="19" style="43" customWidth="1"/>
-    <col min="12" max="16384" width="9.109375" style="43"/>
+    <col min="12" max="16384" width="9.140625" style="43"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5426,7 +5493,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="46" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" s="46" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="46" t="s">
         <v>59</v>
       </c>
@@ -5443,13 +5510,13 @@
         <v>75</v>
       </c>
       <c r="G2" s="51" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="J2" s="46" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="46" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" s="46" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="46" t="s">
         <v>60</v>
       </c>
@@ -5466,13 +5533,13 @@
         <v>58</v>
       </c>
       <c r="G3" s="51" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="J3" s="46" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="49" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" s="49" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" s="49" t="s">
         <v>61</v>
       </c>
@@ -5483,25 +5550,25 @@
         <v>12</v>
       </c>
       <c r="E4" s="49" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="F4" s="49" t="s">
         <v>85</v>
       </c>
       <c r="G4" s="50" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="J4" s="49" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="49" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" s="49" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" s="49" t="s">
         <v>62</v>
       </c>
@@ -5518,19 +5585,19 @@
         <v>169</v>
       </c>
       <c r="G5" s="50" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="J5" s="49" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="49" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" s="49" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A6" s="49" t="s">
         <v>63</v>
       </c>
@@ -5547,13 +5614,13 @@
         <v>169</v>
       </c>
       <c r="G6" s="50" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="J6" s="49" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="49" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" s="49" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A7" s="49" t="s">
         <v>64</v>
       </c>
@@ -5570,13 +5637,13 @@
         <v>84</v>
       </c>
       <c r="G7" s="50" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="J7" s="49" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="49" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" s="49" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A8" s="49" t="s">
         <v>65</v>
       </c>
@@ -5593,13 +5660,13 @@
         <v>84</v>
       </c>
       <c r="G8" s="50" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="J8" s="49" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="49" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" s="49" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A9" s="49" t="s">
         <v>66</v>
       </c>
@@ -5616,13 +5683,13 @@
         <v>169</v>
       </c>
       <c r="G9" s="50" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="J9" s="49" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="49" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" s="49" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A10" s="49" t="s">
         <v>67</v>
       </c>
@@ -5639,13 +5706,13 @@
         <v>84</v>
       </c>
       <c r="G10" s="50" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="J10" s="49" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="49" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" s="49" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A11" s="49" t="s">
         <v>68</v>
       </c>
@@ -5662,13 +5729,13 @@
         <v>92</v>
       </c>
       <c r="G11" s="50" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="J11" s="49" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="49" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" s="49" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A12" s="49" t="s">
         <v>69</v>
       </c>
@@ -5685,13 +5752,13 @@
         <v>84</v>
       </c>
       <c r="G12" s="50" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="J12" s="49" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="46" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" s="46" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A13" s="46" t="s">
         <v>93</v>
       </c>
@@ -5708,13 +5775,13 @@
         <v>84</v>
       </c>
       <c r="G13" s="51" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="J13" s="46" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="46" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" s="46" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A14" s="46" t="s">
         <v>94</v>
       </c>
@@ -5731,13 +5798,13 @@
         <v>84</v>
       </c>
       <c r="G14" s="51" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="J14" s="46" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:11" s="49" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" s="49" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A15" s="49" t="s">
         <v>95</v>
       </c>
@@ -5754,13 +5821,13 @@
         <v>169</v>
       </c>
       <c r="G15" s="50" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="J15" s="49" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:11" s="49" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" s="49" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A16" s="49" t="s">
         <v>96</v>
       </c>
@@ -5777,13 +5844,13 @@
         <v>169</v>
       </c>
       <c r="G16" s="50" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="J16" s="49" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:10" s="49" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" s="49" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A17" s="49" t="s">
         <v>97</v>
       </c>
@@ -5800,13 +5867,13 @@
         <v>84</v>
       </c>
       <c r="G17" s="50" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="J17" s="49" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:10" s="49" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" s="49" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A18" s="49" t="s">
         <v>98</v>
       </c>
@@ -5823,13 +5890,13 @@
         <v>84</v>
       </c>
       <c r="G18" s="50" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="J18" s="49" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:10" s="49" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" s="49" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A19" s="49" t="s">
         <v>115</v>
       </c>
@@ -5846,13 +5913,13 @@
         <v>84</v>
       </c>
       <c r="G19" s="50" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="J19" s="49" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:10" s="49" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" s="49" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A20" s="49" t="s">
         <v>116</v>
       </c>
@@ -5869,13 +5936,13 @@
         <v>84</v>
       </c>
       <c r="G20" s="50" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="J20" s="49" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:10" s="49" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" s="49" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A21" s="49" t="s">
         <v>129</v>
       </c>
@@ -5892,13 +5959,13 @@
         <v>122</v>
       </c>
       <c r="G21" s="50" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="J21" s="49" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:10" s="49" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" s="49" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A22" s="49" t="s">
         <v>130</v>
       </c>
@@ -5915,13 +5982,13 @@
         <v>122</v>
       </c>
       <c r="G22" s="50" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="J22" s="49" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:10" s="49" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" s="49" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A23" s="49" t="s">
         <v>131</v>
       </c>
@@ -5938,13 +6005,13 @@
         <v>122</v>
       </c>
       <c r="G23" s="50" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="J23" s="49" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:10" s="49" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" s="49" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A24" s="49" t="s">
         <v>132</v>
       </c>
@@ -5961,13 +6028,13 @@
         <v>169</v>
       </c>
       <c r="G24" s="50" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="J24" s="49" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:10" s="46" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" s="46" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A25" s="46" t="s">
         <v>133</v>
       </c>
@@ -5984,13 +6051,13 @@
         <v>137</v>
       </c>
       <c r="G25" s="51" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="J25" s="46" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:10" s="49" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" s="49" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A26" s="49" t="s">
         <v>134</v>
       </c>
@@ -6007,13 +6074,13 @@
         <v>169</v>
       </c>
       <c r="G26" s="50" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="J26" s="49" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:10" s="46" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" s="46" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A27" s="46" t="s">
         <v>142</v>
       </c>
@@ -6027,20 +6094,20 @@
         <v>141</v>
       </c>
       <c r="F27" s="46" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="G27" s="51" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="J27" s="46" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:10" s="47" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="48"/>
       <c r="G28" s="48"/>
     </row>
-    <row r="29" spans="1:10" s="46" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" s="46" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A29" s="46" t="s">
         <v>143</v>
       </c>
@@ -6057,13 +6124,13 @@
         <v>58</v>
       </c>
       <c r="G29" s="51" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="J29" s="46" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:10" s="46" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" s="46" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A30" s="46" t="s">
         <v>144</v>
       </c>
@@ -6080,13 +6147,13 @@
         <v>85</v>
       </c>
       <c r="G30" s="51" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="J30" s="46" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:10" s="49" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" s="49" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A31" s="49" t="s">
         <v>145</v>
       </c>
@@ -6103,13 +6170,13 @@
         <v>169</v>
       </c>
       <c r="G31" s="50" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="J31" s="49" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:10" s="49" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" s="49" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A32" s="49" t="s">
         <v>146</v>
       </c>
@@ -6126,13 +6193,13 @@
         <v>169</v>
       </c>
       <c r="G32" s="50" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="J32" s="49" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:10" s="49" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" s="49" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A33" s="49" t="s">
         <v>147</v>
       </c>
@@ -6149,13 +6216,13 @@
         <v>84</v>
       </c>
       <c r="G33" s="50" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="J33" s="49" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:10" s="49" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" s="49" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A34" s="49" t="s">
         <v>148</v>
       </c>
@@ -6172,13 +6239,13 @@
         <v>84</v>
       </c>
       <c r="G34" s="50" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="J34" s="49" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="1:10" s="49" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" s="49" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A35" s="49" t="s">
         <v>149</v>
       </c>
@@ -6195,13 +6262,13 @@
         <v>169</v>
       </c>
       <c r="G35" s="50" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="J35" s="49" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="1:10" s="49" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" s="49" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A36" s="49" t="s">
         <v>150</v>
       </c>
@@ -6218,13 +6285,13 @@
         <v>84</v>
       </c>
       <c r="G36" s="50" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="J36" s="49" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="37" spans="1:10" s="49" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" s="49" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A37" s="49" t="s">
         <v>151</v>
       </c>
@@ -6241,13 +6308,13 @@
         <v>92</v>
       </c>
       <c r="G37" s="50" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="J37" s="49" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="1:10" s="49" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" s="49" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A38" s="49" t="s">
         <v>152</v>
       </c>
@@ -6264,13 +6331,13 @@
         <v>84</v>
       </c>
       <c r="G38" s="50" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="J38" s="49" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="39" spans="1:10" s="49" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" s="49" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A39" s="49" t="s">
         <v>153</v>
       </c>
@@ -6287,13 +6354,13 @@
         <v>84</v>
       </c>
       <c r="G39" s="50" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="J39" s="49" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="40" spans="1:10" s="46" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" s="46" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A40" s="46" t="s">
         <v>154</v>
       </c>
@@ -6310,13 +6377,13 @@
         <v>84</v>
       </c>
       <c r="G40" s="51" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="J40" s="46" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="41" spans="1:10" s="46" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" s="46" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A41" s="46" t="s">
         <v>155</v>
       </c>
@@ -6333,13 +6400,13 @@
         <v>169</v>
       </c>
       <c r="G41" s="51" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="J41" s="46" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="42" spans="1:10" s="49" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" s="49" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A42" s="49" t="s">
         <v>156</v>
       </c>
@@ -6356,13 +6423,13 @@
         <v>168</v>
       </c>
       <c r="G42" s="50" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="J42" s="49" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="43" spans="1:10" s="49" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" s="49" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A43" s="49" t="s">
         <v>157</v>
       </c>
@@ -6379,13 +6446,13 @@
         <v>84</v>
       </c>
       <c r="G43" s="50" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="J43" s="49" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="44" spans="1:10" s="49" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" s="49" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A44" s="49" t="s">
         <v>158</v>
       </c>
@@ -6402,13 +6469,13 @@
         <v>84</v>
       </c>
       <c r="G44" s="50" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="J44" s="49" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="45" spans="1:10" s="49" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" s="49" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A45" s="49" t="s">
         <v>159</v>
       </c>
@@ -6425,13 +6492,13 @@
         <v>84</v>
       </c>
       <c r="G45" s="50" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="J45" s="49" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="46" spans="1:10" s="49" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" s="49" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A46" s="49" t="s">
         <v>160</v>
       </c>
@@ -6448,13 +6515,13 @@
         <v>84</v>
       </c>
       <c r="G46" s="50" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="J46" s="49" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="47" spans="1:10" s="49" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" s="49" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A47" s="49" t="s">
         <v>161</v>
       </c>
@@ -6471,13 +6538,13 @@
         <v>122</v>
       </c>
       <c r="G47" s="50" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="J47" s="49" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="1:10" s="49" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" s="49" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A48" s="49" t="s">
         <v>162</v>
       </c>
@@ -6488,19 +6555,19 @@
         <v>16</v>
       </c>
       <c r="E48" s="49" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="F48" s="49" t="s">
         <v>122</v>
       </c>
       <c r="G48" s="50" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="J48" s="49" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="49" spans="1:10" s="49" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" s="49" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A49" s="49" t="s">
         <v>163</v>
       </c>
@@ -6511,19 +6578,19 @@
         <v>16</v>
       </c>
       <c r="E49" s="49" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="F49" s="49" t="s">
         <v>122</v>
       </c>
       <c r="G49" s="50" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="J49" s="49" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="50" spans="1:10" s="49" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" s="49" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A50" s="49" t="s">
         <v>164</v>
       </c>
@@ -6534,19 +6601,19 @@
         <v>16</v>
       </c>
       <c r="E50" s="49" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="F50" s="49" t="s">
         <v>168</v>
       </c>
       <c r="G50" s="50" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="J50" s="49" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:10" s="49" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" s="49" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A51" s="49" t="s">
         <v>165</v>
       </c>
@@ -6563,13 +6630,13 @@
         <v>137</v>
       </c>
       <c r="G51" s="50" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="J51" s="49" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:10" s="46" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" s="46" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A52" s="46" t="s">
         <v>166</v>
       </c>
@@ -6586,13 +6653,13 @@
         <v>168</v>
       </c>
       <c r="G52" s="51" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="J52" s="46" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:10" s="49" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" s="49" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A53" s="49" t="s">
         <v>167</v>
       </c>
@@ -6609,16 +6676,16 @@
         <v>84</v>
       </c>
       <c r="G53" s="50" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="J53" s="49" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="54" spans="1:10" s="47" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="48"/>
     </row>
-    <row r="55" spans="1:10" s="46" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" s="46" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A55" s="46" t="s">
         <v>191</v>
       </c>
@@ -6635,30 +6702,30 @@
         <v>84</v>
       </c>
       <c r="G55" s="51" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="J55" s="46" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="56" spans="1:10" s="46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="46" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="B56" s="46" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="C56" s="51" t="s">
         <v>193</v>
       </c>
       <c r="E56" s="46" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="F56" s="46" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="G56" s="51" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="J56" s="46" t="s">
         <v>50</v>
@@ -6678,23 +6745,23 @@
       <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.6640625" style="43" customWidth="1"/>
-    <col min="2" max="2" width="57.109375" style="43" customWidth="1"/>
-    <col min="3" max="3" width="23.44140625" style="34" customWidth="1"/>
-    <col min="4" max="4" width="23.44140625" style="43" customWidth="1"/>
-    <col min="5" max="5" width="62.33203125" style="43" customWidth="1"/>
-    <col min="6" max="6" width="46.5546875" style="43" customWidth="1"/>
-    <col min="7" max="7" width="20.109375" style="34" customWidth="1"/>
-    <col min="8" max="8" width="25.33203125" style="43" customWidth="1"/>
-    <col min="9" max="9" width="18.6640625" style="43" customWidth="1"/>
+    <col min="1" max="1" width="25.7109375" style="43" customWidth="1"/>
+    <col min="2" max="2" width="57.140625" style="43" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" style="34" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" style="43" customWidth="1"/>
+    <col min="5" max="5" width="62.28515625" style="43" customWidth="1"/>
+    <col min="6" max="6" width="46.5703125" style="43" customWidth="1"/>
+    <col min="7" max="7" width="20.140625" style="34" customWidth="1"/>
+    <col min="8" max="8" width="25.28515625" style="43" customWidth="1"/>
+    <col min="9" max="9" width="18.7109375" style="43" customWidth="1"/>
     <col min="10" max="10" width="28" style="43" customWidth="1"/>
-    <col min="11" max="11" width="31.109375" style="43" customWidth="1"/>
-    <col min="12" max="16384" width="9.109375" style="43"/>
+    <col min="11" max="11" width="31.140625" style="43" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="43"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6729,7 +6796,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="44" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" s="44" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="44" t="s">
         <v>22</v>
       </c>
@@ -6746,16 +6813,16 @@
         <v>29</v>
       </c>
       <c r="G2" s="45" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I2" s="44" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="J2" s="44" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="44" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" s="44" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="44" t="s">
         <v>26</v>
       </c>
@@ -6775,16 +6842,16 @@
         <v>25</v>
       </c>
       <c r="G3" s="45" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I3" s="44" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="J3" s="44" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="44" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" s="44" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="44" t="s">
         <v>31</v>
       </c>
@@ -6804,16 +6871,16 @@
         <v>41</v>
       </c>
       <c r="G4" s="45" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I4" s="44" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="J4" s="44" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="44" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" s="44" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A5" s="44" t="s">
         <v>32</v>
       </c>
@@ -6830,16 +6897,16 @@
         <v>56</v>
       </c>
       <c r="G5" s="45" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I5" s="44" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="J5" s="44" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="44" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" s="44" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A6" s="44" t="s">
         <v>33</v>
       </c>
@@ -6856,16 +6923,16 @@
         <v>57</v>
       </c>
       <c r="G6" s="45" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I6" s="44" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="J6" s="44" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="44" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" s="44" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A7" s="44" t="s">
         <v>34</v>
       </c>
@@ -6879,19 +6946,19 @@
         <v>48</v>
       </c>
       <c r="F7" s="44" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="G7" s="45" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I7" s="44" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="J7" s="44" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="44" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" s="44" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="44" t="s">
         <v>35</v>
       </c>
@@ -6908,16 +6975,16 @@
         <v>58</v>
       </c>
       <c r="G8" s="45" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I8" s="44" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="J8" s="44" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="44" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" s="44" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="44" t="s">
         <v>36</v>
       </c>
@@ -6934,16 +7001,16 @@
         <v>58</v>
       </c>
       <c r="G9" s="45" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I9" s="44" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="J9" s="44" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="44" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" s="44" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" s="44" t="s">
         <v>37</v>
       </c>
@@ -6960,16 +7027,16 @@
         <v>58</v>
       </c>
       <c r="G10" s="45" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I10" s="44" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="J10" s="44" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="44" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" s="44" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" s="44" t="s">
         <v>38</v>
       </c>
@@ -6986,36 +7053,36 @@
         <v>58</v>
       </c>
       <c r="G11" s="45" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I11" s="44" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="J11" s="44" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="44" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" s="44" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="44" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="B12" s="44" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="C12" s="45" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="E12" s="44" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="F12" s="44" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="G12" s="45" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I12" s="44" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="J12" s="44" t="s">
         <v>50</v>
@@ -7028,28 +7095,28 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView topLeftCell="D24" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" customWidth="1"/>
-    <col min="2" max="2" width="27.5546875" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" customWidth="1"/>
-    <col min="4" max="4" width="30.5546875" customWidth="1"/>
-    <col min="5" max="5" width="34.44140625" customWidth="1"/>
-    <col min="6" max="6" width="46.6640625" customWidth="1"/>
-    <col min="7" max="7" width="39.33203125" customWidth="1"/>
-    <col min="8" max="8" width="14.6640625" customWidth="1"/>
-    <col min="9" max="9" width="21.44140625" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" customWidth="1"/>
+    <col min="2" max="2" width="27.5703125" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" customWidth="1"/>
+    <col min="4" max="4" width="30.5703125" customWidth="1"/>
+    <col min="5" max="5" width="34.42578125" customWidth="1"/>
+    <col min="6" max="6" width="46.7109375" customWidth="1"/>
+    <col min="7" max="7" width="39.28515625" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" customWidth="1"/>
+    <col min="9" max="9" width="21.42578125" customWidth="1"/>
     <col min="10" max="10" width="29" customWidth="1"/>
-    <col min="11" max="11" width="20.88671875" customWidth="1"/>
+    <col min="11" max="11" width="20.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7084,709 +7151,822 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="8" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" s="8" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>196</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>222</v>
+        <v>603</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>232</v>
+        <v>604</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J2" s="8" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" s="8" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="K2" s="56" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="8" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>206</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J3" s="8" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" s="8" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="K3" s="56" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="8" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>207</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J4" s="8" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" s="10" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="K4" s="56" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" s="10" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>208</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>16</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F5" s="10" t="s">
         <v>197</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="J5" s="10" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" s="8" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="K5" s="57" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" s="8" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>209</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="E6" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="F6" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="F6" s="8" t="s">
-        <v>238</v>
-      </c>
       <c r="G6" s="8" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J6" s="8" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" s="10" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="K6" s="56" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" s="10" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>16</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="E7" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="G7" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="F7" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>288</v>
-      </c>
       <c r="H7" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="J7" s="10" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" s="8" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="K7" s="57" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" s="8" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>210</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="E8" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="G8" s="8" t="s">
         <v>289</v>
       </c>
-      <c r="F8" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>291</v>
-      </c>
       <c r="H8" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J8" s="8" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:11" s="8" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="K8" s="56" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K9" s="58" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="8" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>211</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>295</v>
+        <v>606</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>292</v>
+        <v>607</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J10" s="8" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" s="8" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="K10" s="56" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" s="8" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>212</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J11" s="8" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" s="8" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="K11" s="56" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" s="8" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>213</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J12" s="8" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" s="10" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="K12" s="56" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" s="10" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>16</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="F13" s="10" t="s">
         <v>198</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="J13" s="10" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" s="10" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="K13" s="57" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" s="10" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>214</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>16</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="F14" s="10" t="s">
         <v>199</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="J14" s="10" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" s="10" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="K14" s="57" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" s="10" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>215</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>16</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="F15" s="10" t="s">
         <v>200</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="J15" s="10" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="1:10" s="8" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="K15" s="57" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K16" s="58"/>
+    </row>
+    <row r="17" spans="1:12" s="8" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>216</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="F17" s="8" t="s">
         <v>201</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J17" s="8" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" s="10" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="K17" s="56" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" s="10" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>217</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C18" s="10" t="s">
         <v>16</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="F18" s="10" t="s">
         <v>202</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H18" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="J18" s="10" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" s="10" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="K18" s="57" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" s="10" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>218</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="C19" s="10" t="s">
         <v>16</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="F19" s="10" t="s">
         <v>203</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J19" s="10" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" s="8" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="K19" s="57" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" s="8" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>219</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="F20" s="8" t="s">
         <v>204</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J20" s="8" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" s="8" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="K20" s="56" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" s="8" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>220</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="F21" s="8" t="s">
         <v>205</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J21" s="8" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" s="10" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="K21" s="56" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" s="10" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="C22" s="10" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="E22" s="11" t="s">
+        <v>506</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>507</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>508</v>
+      </c>
+      <c r="H22" s="10" t="s">
+        <v>509</v>
+      </c>
+      <c r="I22" s="10" t="s">
         <v>510</v>
-      </c>
-      <c r="F22" s="10" t="s">
-        <v>511</v>
-      </c>
-      <c r="G22" s="10" t="s">
-        <v>512</v>
-      </c>
-      <c r="H22" s="10" t="s">
-        <v>513</v>
-      </c>
-      <c r="I22" s="10" t="s">
-        <v>514</v>
       </c>
       <c r="J22" s="10" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" s="10" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="K22" s="57" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" s="10" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="C23" s="10" t="s">
         <v>16</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="H23" s="10" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="I23" s="10" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="J23" s="10" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" s="10" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="K23" s="57" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" s="10" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="C24" s="10" t="s">
         <v>16</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="E24" s="11" t="s">
+        <v>518</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>519</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>520</v>
+      </c>
+      <c r="H24" s="10" t="s">
+        <v>509</v>
+      </c>
+      <c r="I24" s="10" t="s">
         <v>522</v>
-      </c>
-      <c r="F24" s="10" t="s">
-        <v>523</v>
-      </c>
-      <c r="G24" s="10" t="s">
-        <v>524</v>
-      </c>
-      <c r="H24" s="10" t="s">
-        <v>513</v>
-      </c>
-      <c r="I24" s="10" t="s">
-        <v>526</v>
       </c>
       <c r="J24" s="10" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" s="10" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K24" s="57" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" s="10" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="C25" s="10" t="s">
         <v>16</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="H25" s="10" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="I25" s="10" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="J25" s="10" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" s="10" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K25" s="57" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" s="10" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="C26" s="10" t="s">
         <v>16</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="H26" s="10" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="I26" s="10" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="J26" s="10" t="s">
         <v>221</v>
+      </c>
+      <c r="K26" s="57" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" s="10" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="10" t="s">
+        <v>608</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>609</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>610</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>554</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>560</v>
+      </c>
+      <c r="H27" s="10" t="s">
+        <v>509</v>
+      </c>
+      <c r="I27" s="10" t="s">
+        <v>611</v>
+      </c>
+      <c r="J27" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="K27" s="57" t="s">
+        <v>605</v>
+      </c>
+      <c r="L27" s="10" t="s">
+        <v>612</v>
       </c>
     </row>
   </sheetData>
@@ -7802,7 +7982,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7816,42 +7996,42 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.109375" customWidth="1"/>
-    <col min="2" max="2" width="17.109375" customWidth="1"/>
+    <col min="1" max="1" width="26.140625" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1" t="s">
         <v>307</v>
       </c>
-      <c r="B1" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>304</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>308</v>
       </c>
-      <c r="B2" s="18" t="s">
+    </row>
+    <row r="3" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="19"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>305</v>
+      </c>
+      <c r="B4" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="19"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>309</v>
-      </c>
-      <c r="B4" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="B5" s="18">
         <v>1234</v>

--- a/Testing/Test Cases/TAWA_TestCases.xlsx
+++ b/Testing/Test Cases/TAWA_TestCases.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="7" activeTab="9"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="ReservedTrips" sheetId="6" r:id="rId1"/>
     <sheet name="Home Page" sheetId="8" r:id="rId2"/>
     <sheet name="Destination" sheetId="9" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="10" r:id="rId4"/>
+    <sheet name="Header" sheetId="10" r:id="rId4"/>
     <sheet name="Registeration" sheetId="1" r:id="rId5"/>
     <sheet name="Login" sheetId="2" r:id="rId6"/>
     <sheet name="AdminPage" sheetId="4" r:id="rId7"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1339" uniqueCount="576">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1360" uniqueCount="648">
   <si>
     <t>ID</t>
   </si>
@@ -1087,9 +1087,6 @@
   <si>
     <t>Validate restriction on entering data in "NUMBER
 OF SEATS" field</t>
-  </si>
-  <si>
-    <t>Error message shall appear saying that it's forbidden to enter any type of data but numbers in "number of seats" field</t>
   </si>
   <si>
     <t>TAWA_BOOKING_10</t>
@@ -2208,14 +2205,6 @@
     <t>field cannot accept any data but number</t>
   </si>
   <si>
-    <t>1) Open Homepage
-2) Click on "Read More" button located beside any destination
-3) Click on "Book Flight" button
-4) Enter letters in "debit card number" field
-5) complete all other fields
-6) Click on "book" button</t>
-  </si>
-  <si>
     <t>Error message shall appear saying that it's forbidden to enter negative numbers in "debit card number" field</t>
   </si>
   <si>
@@ -2290,6 +2279,273 @@
   </si>
   <si>
     <t>Validate restriction on entering negative in "Debit card number" field</t>
+  </si>
+  <si>
+    <t>options included</t>
+  </si>
+  <si>
+    <t>TAWA_BOOKING_BUG_01</t>
+  </si>
+  <si>
+    <t>card number field exists anyway</t>
+  </si>
+  <si>
+    <t>user can not choose more than one type</t>
+  </si>
+  <si>
+    <t>button not clickable</t>
+  </si>
+  <si>
+    <t>button not clickable untill fields cimpleted</t>
+  </si>
+  <si>
+    <t>field accept only numbers</t>
+  </si>
+  <si>
+    <t>1) Open Homepage
+2) Click on "Read More" button located beside any destination
+3) Click on "Book Flight" button
+4) Enter negative in "debit card number" field
+5) complete all other fields
+6) Click on "book" button</t>
+  </si>
+  <si>
+    <t>TAWA_BOOKING_BUG_02</t>
+  </si>
+  <si>
+    <t>field accept negative</t>
+  </si>
+  <si>
+    <t>message appeared</t>
+  </si>
+  <si>
+    <t>new row is added succesfully</t>
+  </si>
+  <si>
+    <t>TAWA_BOOKING_BUG_03</t>
+  </si>
+  <si>
+    <t>no error message appears</t>
+  </si>
+  <si>
+    <t>field restricts that number is 4 or less</t>
+  </si>
+  <si>
+    <t>trip appeared successfully in reserved trips</t>
+  </si>
+  <si>
+    <t>TAWA_HEADER_01</t>
+  </si>
+  <si>
+    <t>Validate navigation bar components</t>
+  </si>
+  <si>
+    <t>User must be logged in with
+a valid account</t>
+  </si>
+  <si>
+    <t>1) Open TAWA homepage
+2) Check Navigation bar components</t>
+  </si>
+  <si>
+    <t>Navigation bar shall include:
+1) TAWA logo
+2) Logout button
+3) Logged in username
+4) Reserved trips button</t>
+  </si>
+  <si>
+    <t>Open</t>
+  </si>
+  <si>
+    <t>Fields are included</t>
+  </si>
+  <si>
+    <t>TAWA_HEADER_02</t>
+  </si>
+  <si>
+    <t>Validate that TAWA logo redirect to home page</t>
+  </si>
+  <si>
+    <t>1) Open TAWA homepage
+2) Go to any destination page
+3) Click on TAWA logo</t>
+  </si>
+  <si>
+    <t>Page Shall be redirected to the home page</t>
+  </si>
+  <si>
+    <t>Blocked</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Navigation bar doesn't appear </t>
+  </si>
+  <si>
+    <t>TAWA_HEADER_03</t>
+  </si>
+  <si>
+    <t>Validate the functionality of "log out" button</t>
+  </si>
+  <si>
+    <t>1) Open TAWA homepage
+2) Click on log out button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Page shall be redirected to login page
+</t>
+  </si>
+  <si>
+    <t>Page redirected to login page</t>
+  </si>
+  <si>
+    <t>TAWA_HEADER_04</t>
+  </si>
+  <si>
+    <t>Validate the functionality of reserved trips button</t>
+  </si>
+  <si>
+    <t>1) Open TAWA homepage
+2) Click on "reserved trips" button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Page shall be redirected to reserved trips page
+</t>
+  </si>
+  <si>
+    <t>Page redirected to reserved trips page</t>
+  </si>
+  <si>
+    <t>TAWA_RESERVED_01</t>
+  </si>
+  <si>
+    <t>Validate that user can go to "Reserved flights" page from home page</t>
+  </si>
+  <si>
+    <t>User must be logged in with
+a valid account and must book
+a flight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Open TAWA homepage
+2) From Navigation bar Click on "Reserved
+Flights" button
+</t>
+  </si>
+  <si>
+    <t>Reserved flights page shall load 
+successfully</t>
+  </si>
+  <si>
+    <t>Page loaded successfully</t>
+  </si>
+  <si>
+    <t>TAWA_RESERVED_02</t>
+  </si>
+  <si>
+    <t>Validate that reserved flight page has no content if user
+hasn't book any flight yet.</t>
+  </si>
+  <si>
+    <t>User must be logged in with
+a valid account but hasn't book trips</t>
+  </si>
+  <si>
+    <t>1) Open TAWA homepage
+2) From Navigation bar Click on "Reserved
+Flights" button</t>
+  </si>
+  <si>
+    <t>Reserved flights shall has no content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Page has no content </t>
+  </si>
+  <si>
+    <t>TAWA_RESERVED_03</t>
+  </si>
+  <si>
+    <t>Validate that reserved flight page has information about
+the reserved flight for a user</t>
+  </si>
+  <si>
+    <t>Reserved flight page shall show :
+see attachment
+(data is an example)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fields appeared </t>
+  </si>
+  <si>
+    <t>https://ibb.co/9yz1G89</t>
+  </si>
+  <si>
+    <t>TAWA_RESERVED_04</t>
+  </si>
+  <si>
+    <t>Validate that reserved flights page has a "cancel" button</t>
+  </si>
+  <si>
+    <t>reserved flights page shall
+has a "cancel" button</t>
+  </si>
+  <si>
+    <t>cancel button exists</t>
+  </si>
+  <si>
+    <t>TAWA_RESERVED_05</t>
+  </si>
+  <si>
+    <t>Validate the functionality of cancel button</t>
+  </si>
+  <si>
+    <t>1) Open TAWA homepage
+2) From Navigation bar Click on "Reserved
+Flights" button
+3) Click on cancel button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flight shall be cancelled and a message
+shall appear saying: Your flight has been Cancelled
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flight cancelled and a message
+appeared saying: Your flight has been Cancelled
+</t>
+  </si>
+  <si>
+    <t>TAWA_RESERVED_06</t>
+  </si>
+  <si>
+    <t>Validate that there is an option for user to go to homepage after
+the cancellation of a flight</t>
+  </si>
+  <si>
+    <t>A blue button called" Go to Home Page"
+shall appear under the cancellation message</t>
+  </si>
+  <si>
+    <t>A blue button called" Go to Home Page"
+appeared under the cancellation message</t>
+  </si>
+  <si>
+    <t>TAWA_RESERVED_07</t>
+  </si>
+  <si>
+    <t>Validate the functionality of "go to home page" button</t>
+  </si>
+  <si>
+    <t>1) Open TAWA homepage
+2) From Navigation bar Click on "Reserved
+Flights" button
+3) Click on cancel button
+4) click on "go to home page" button</t>
+  </si>
+  <si>
+    <t>User shall be redirected to homepage successfully</t>
+  </si>
+  <si>
+    <t>User redirected to homepage successfully</t>
   </si>
 </sst>
 </file>
@@ -2408,7 +2664,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -2446,6 +2702,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2453,7 +2722,7 @@
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -2598,6 +2867,24 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2909,30 +3196,30 @@
   <sheetPr>
     <tabColor theme="5"/>
   </sheetPr>
-  <dimension ref="A1:M19"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:J19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.28515625" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="42.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="35.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.6640625" customWidth="1"/>
+    <col min="13" max="13" width="17.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -2966,465 +3253,238 @@
       <c r="K1" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="L1" s="12"/>
+      <c r="L1" s="12" t="s">
+        <v>239</v>
+      </c>
       <c r="M1" s="4"/>
     </row>
-    <row r="2" spans="1:13" ht="270" x14ac:dyDescent="0.25">
-      <c r="A2" s="51" t="s">
+    <row r="2" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+      <c r="A2" s="57" t="s">
+        <v>613</v>
+      </c>
+      <c r="B2" s="58" t="s">
+        <v>614</v>
+      </c>
+      <c r="C2" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="52" t="s">
-        <v>242</v>
-      </c>
-      <c r="C2" s="52" t="s">
-        <v>546</v>
-      </c>
-      <c r="D2" s="52" t="s">
-        <v>243</v>
-      </c>
-      <c r="E2" s="51" t="s">
-        <v>229</v>
-      </c>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51" t="s">
-        <v>547</v>
-      </c>
-      <c r="H2" s="51" t="s">
+      <c r="D2" s="58" t="s">
+        <v>615</v>
+      </c>
+      <c r="E2" s="58" t="s">
+        <v>616</v>
+      </c>
+      <c r="F2" s="58" t="s">
+        <v>617</v>
+      </c>
+      <c r="G2" s="57" t="s">
+        <v>595</v>
+      </c>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57" t="s">
+        <v>618</v>
+      </c>
+      <c r="J2" s="57" t="s">
         <v>244</v>
       </c>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51" t="s">
-        <v>548</v>
-      </c>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-    </row>
-    <row r="3" spans="1:13" ht="330" x14ac:dyDescent="0.25">
-      <c r="A3" s="51" t="s">
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+    </row>
+    <row r="3" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="57" t="s">
+        <v>619</v>
+      </c>
+      <c r="B3" s="58" t="s">
+        <v>620</v>
+      </c>
+      <c r="C3" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="52" t="s">
-        <v>242</v>
-      </c>
-      <c r="C3" s="52" t="s">
-        <v>549</v>
-      </c>
-      <c r="D3" s="52" t="s">
-        <v>345</v>
-      </c>
-      <c r="E3" s="51" t="s">
-        <v>229</v>
-      </c>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51" t="s">
+      <c r="D3" s="58" t="s">
+        <v>621</v>
+      </c>
+      <c r="E3" s="58" t="s">
+        <v>622</v>
+      </c>
+      <c r="F3" s="57" t="s">
+        <v>623</v>
+      </c>
+      <c r="G3" s="57" t="s">
+        <v>595</v>
+      </c>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57" t="s">
+        <v>624</v>
+      </c>
+      <c r="J3" s="57" t="s">
         <v>244</v>
       </c>
-      <c r="I3" s="51"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-    </row>
-    <row r="4" spans="1:13" ht="330" x14ac:dyDescent="0.25">
-      <c r="A4" s="51" t="s">
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+    </row>
+    <row r="4" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="57" t="s">
+        <v>625</v>
+      </c>
+      <c r="B4" s="58" t="s">
+        <v>626</v>
+      </c>
+      <c r="C4" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="52" t="s">
-        <v>242</v>
-      </c>
-      <c r="C4" s="52" t="s">
-        <v>550</v>
-      </c>
-      <c r="D4" s="52" t="s">
-        <v>246</v>
-      </c>
-      <c r="E4" s="51" t="s">
-        <v>229</v>
-      </c>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51" t="s">
+      <c r="D4" s="58" t="s">
+        <v>615</v>
+      </c>
+      <c r="E4" s="58" t="s">
+        <v>622</v>
+      </c>
+      <c r="F4" s="58" t="s">
+        <v>627</v>
+      </c>
+      <c r="G4" s="57" t="s">
+        <v>595</v>
+      </c>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57" t="s">
+        <v>628</v>
+      </c>
+      <c r="J4" s="57" t="s">
         <v>244</v>
       </c>
-      <c r="I4" s="51"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-    </row>
-    <row r="5" spans="1:13" ht="330" x14ac:dyDescent="0.25">
-      <c r="A5" s="51" t="s">
+      <c r="K4" s="57"/>
+      <c r="L4" s="57" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="57" t="s">
+        <v>630</v>
+      </c>
+      <c r="B5" s="57" t="s">
+        <v>631</v>
+      </c>
+      <c r="C5" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="52" t="s">
-        <v>242</v>
-      </c>
-      <c r="C5" s="52" t="s">
-        <v>551</v>
-      </c>
-      <c r="D5" s="52" t="s">
-        <v>249</v>
-      </c>
-      <c r="E5" s="51" t="s">
-        <v>229</v>
-      </c>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="51" t="s">
+      <c r="D5" s="58" t="s">
+        <v>615</v>
+      </c>
+      <c r="E5" s="58" t="s">
+        <v>622</v>
+      </c>
+      <c r="F5" s="58" t="s">
+        <v>632</v>
+      </c>
+      <c r="G5" s="57" t="s">
+        <v>595</v>
+      </c>
+      <c r="H5" s="57"/>
+      <c r="I5" s="57" t="s">
+        <v>633</v>
+      </c>
+      <c r="J5" s="57" t="s">
         <v>244</v>
       </c>
-      <c r="I5" s="51"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-    </row>
-    <row r="6" spans="1:13" ht="330" x14ac:dyDescent="0.25">
-      <c r="A6" s="53" t="s">
+      <c r="K5" s="57"/>
+      <c r="L5" s="57"/>
+    </row>
+    <row r="6" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+      <c r="A6" s="57" t="s">
+        <v>634</v>
+      </c>
+      <c r="B6" s="57" t="s">
+        <v>635</v>
+      </c>
+      <c r="C6" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="54" t="s">
-        <v>242</v>
-      </c>
-      <c r="C6" s="54" t="s">
-        <v>552</v>
-      </c>
-      <c r="D6" s="54" t="s">
-        <v>252</v>
-      </c>
-      <c r="E6" s="53" t="s">
-        <v>372</v>
-      </c>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="53" t="s">
+      <c r="D6" s="58" t="s">
+        <v>615</v>
+      </c>
+      <c r="E6" s="58" t="s">
+        <v>636</v>
+      </c>
+      <c r="F6" s="58" t="s">
+        <v>637</v>
+      </c>
+      <c r="G6" s="57" t="s">
+        <v>595</v>
+      </c>
+      <c r="H6" s="57"/>
+      <c r="I6" s="58" t="s">
+        <v>638</v>
+      </c>
+      <c r="J6" s="57" t="s">
         <v>244</v>
       </c>
-      <c r="I6" s="53"/>
-      <c r="J6" s="53"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-    </row>
-    <row r="7" spans="1:13" ht="315" x14ac:dyDescent="0.25">
-      <c r="A7" s="51" t="s">
+      <c r="K6" s="57"/>
+      <c r="L6" s="57"/>
+    </row>
+    <row r="7" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+      <c r="A7" s="57" t="s">
+        <v>639</v>
+      </c>
+      <c r="B7" s="58" t="s">
+        <v>640</v>
+      </c>
+      <c r="C7" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="52" t="s">
-        <v>242</v>
-      </c>
-      <c r="C7" s="52" t="s">
-        <v>553</v>
-      </c>
-      <c r="D7" s="52" t="s">
-        <v>255</v>
-      </c>
-      <c r="E7" s="51" t="s">
-        <v>229</v>
-      </c>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="51" t="s">
+      <c r="D7" s="58" t="s">
+        <v>615</v>
+      </c>
+      <c r="E7" s="58" t="s">
+        <v>636</v>
+      </c>
+      <c r="F7" s="58" t="s">
+        <v>641</v>
+      </c>
+      <c r="G7" s="57" t="s">
+        <v>595</v>
+      </c>
+      <c r="H7" s="57"/>
+      <c r="I7" s="58" t="s">
+        <v>642</v>
+      </c>
+      <c r="J7" s="57" t="s">
         <v>244</v>
       </c>
-      <c r="I7" s="51"/>
-      <c r="J7" s="51"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-    </row>
-    <row r="8" spans="1:13" ht="330" x14ac:dyDescent="0.25">
-      <c r="A8" s="51" t="s">
+      <c r="K7" s="57"/>
+      <c r="L7" s="57"/>
+    </row>
+    <row r="8" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="57" t="s">
+        <v>643</v>
+      </c>
+      <c r="B8" s="57" t="s">
+        <v>644</v>
+      </c>
+      <c r="C8" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="52" t="s">
-        <v>242</v>
-      </c>
-      <c r="C8" s="52" t="s">
-        <v>554</v>
-      </c>
-      <c r="D8" s="52" t="s">
-        <v>258</v>
-      </c>
-      <c r="E8" s="51" t="s">
-        <v>229</v>
-      </c>
-      <c r="F8" s="51"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="51" t="s">
+      <c r="D8" s="58" t="s">
+        <v>615</v>
+      </c>
+      <c r="E8" s="58" t="s">
+        <v>645</v>
+      </c>
+      <c r="F8" s="57" t="s">
+        <v>646</v>
+      </c>
+      <c r="G8" s="57" t="s">
+        <v>595</v>
+      </c>
+      <c r="H8" s="57"/>
+      <c r="I8" s="57" t="s">
+        <v>647</v>
+      </c>
+      <c r="J8" s="57" t="s">
         <v>244</v>
       </c>
-      <c r="I8" s="51"/>
-      <c r="J8" s="51"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-    </row>
-    <row r="9" spans="1:13" ht="255" x14ac:dyDescent="0.25">
-      <c r="A9" s="51" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="52" t="s">
-        <v>242</v>
-      </c>
-      <c r="C9" s="52" t="s">
-        <v>555</v>
-      </c>
-      <c r="D9" s="52" t="s">
-        <v>261</v>
-      </c>
-      <c r="E9" s="51" t="s">
-        <v>229</v>
-      </c>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="51" t="s">
-        <v>244</v>
-      </c>
-      <c r="I9" s="51"/>
-      <c r="J9" s="51"/>
-    </row>
-    <row r="10" spans="1:13" ht="300" x14ac:dyDescent="0.25">
-      <c r="A10" s="51" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="52" t="s">
-        <v>242</v>
-      </c>
-      <c r="C10" s="52" t="s">
-        <v>556</v>
-      </c>
-      <c r="D10" s="52" t="s">
-        <v>264</v>
-      </c>
-      <c r="E10" s="51" t="s">
-        <v>229</v>
-      </c>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="51" t="s">
-        <v>244</v>
-      </c>
-      <c r="I10" s="51"/>
-      <c r="J10" s="51"/>
-    </row>
-    <row r="11" spans="1:13" ht="390" x14ac:dyDescent="0.25">
-      <c r="A11" s="51" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="52" t="s">
-        <v>242</v>
-      </c>
-      <c r="C11" s="52" t="s">
-        <v>557</v>
-      </c>
-      <c r="D11" s="52" t="s">
-        <v>267</v>
-      </c>
-      <c r="E11" s="51" t="s">
-        <v>229</v>
-      </c>
-      <c r="F11" s="51"/>
-      <c r="G11" s="51"/>
-      <c r="H11" s="51" t="s">
-        <v>244</v>
-      </c>
-      <c r="I11" s="51"/>
-      <c r="J11" s="51"/>
-    </row>
-    <row r="12" spans="1:13" ht="390" x14ac:dyDescent="0.25">
-      <c r="A12" s="51" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="52" t="s">
-        <v>242</v>
-      </c>
-      <c r="C12" s="52" t="s">
-        <v>558</v>
-      </c>
-      <c r="D12" s="52" t="s">
-        <v>559</v>
-      </c>
-      <c r="E12" s="51" t="s">
-        <v>229</v>
-      </c>
-      <c r="F12" s="51"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="51" t="s">
-        <v>244</v>
-      </c>
-      <c r="I12" s="51"/>
-      <c r="J12" s="51"/>
-    </row>
-    <row r="13" spans="1:13" ht="390" x14ac:dyDescent="0.25">
-      <c r="A13" s="53" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="54" t="s">
-        <v>242</v>
-      </c>
-      <c r="C13" s="54" t="s">
-        <v>560</v>
-      </c>
-      <c r="D13" s="54" t="s">
-        <v>561</v>
-      </c>
-      <c r="E13" s="53" t="s">
-        <v>372</v>
-      </c>
-      <c r="F13" s="53"/>
-      <c r="G13" s="53"/>
-      <c r="H13" s="53" t="s">
-        <v>244</v>
-      </c>
-      <c r="I13" s="53"/>
-      <c r="J13" s="53"/>
-    </row>
-    <row r="14" spans="1:13" ht="390" x14ac:dyDescent="0.25">
-      <c r="A14" s="51" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="52" t="s">
-        <v>242</v>
-      </c>
-      <c r="C14" s="52" t="s">
-        <v>562</v>
-      </c>
-      <c r="D14" s="52" t="s">
-        <v>273</v>
-      </c>
-      <c r="E14" s="51" t="s">
-        <v>229</v>
-      </c>
-      <c r="F14" s="51"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="51" t="s">
-        <v>244</v>
-      </c>
-      <c r="I14" s="51"/>
-      <c r="J14" s="51" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="390" x14ac:dyDescent="0.25">
-      <c r="A15" s="51" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="52" t="s">
-        <v>242</v>
-      </c>
-      <c r="C15" s="52" t="s">
-        <v>563</v>
-      </c>
-      <c r="D15" s="52" t="s">
-        <v>277</v>
-      </c>
-      <c r="E15" s="51" t="s">
-        <v>229</v>
-      </c>
-      <c r="F15" s="51"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="51" t="s">
-        <v>244</v>
-      </c>
-      <c r="I15" s="51"/>
-      <c r="J15" s="51"/>
-    </row>
-    <row r="16" spans="1:13" ht="375" x14ac:dyDescent="0.25">
-      <c r="A16" s="53" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="54" t="s">
-        <v>242</v>
-      </c>
-      <c r="C16" s="54" t="s">
-        <v>564</v>
-      </c>
-      <c r="D16" s="54" t="s">
-        <v>280</v>
-      </c>
-      <c r="E16" s="53" t="s">
-        <v>372</v>
-      </c>
-      <c r="F16" s="53"/>
-      <c r="G16" s="53"/>
-      <c r="H16" s="53" t="s">
-        <v>244</v>
-      </c>
-      <c r="I16" s="53"/>
-      <c r="J16" s="53"/>
-    </row>
-    <row r="17" spans="1:10" ht="360" x14ac:dyDescent="0.25">
-      <c r="A17" s="51" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" s="52" t="s">
-        <v>242</v>
-      </c>
-      <c r="C17" s="52" t="s">
-        <v>565</v>
-      </c>
-      <c r="D17" s="52" t="s">
-        <v>566</v>
-      </c>
-      <c r="E17" s="51" t="s">
-        <v>229</v>
-      </c>
-      <c r="F17" s="51"/>
-      <c r="G17" s="51"/>
-      <c r="H17" s="51" t="s">
-        <v>244</v>
-      </c>
-      <c r="I17" s="51"/>
-      <c r="J17" s="51"/>
-    </row>
-    <row r="18" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="51" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" s="52" t="s">
-        <v>242</v>
-      </c>
-      <c r="C18" s="52" t="s">
-        <v>567</v>
-      </c>
-      <c r="D18" s="52" t="s">
-        <v>284</v>
-      </c>
-      <c r="E18" s="51" t="s">
-        <v>229</v>
-      </c>
-      <c r="F18" s="51"/>
-      <c r="G18" s="51"/>
-      <c r="H18" s="51" t="s">
-        <v>244</v>
-      </c>
-      <c r="I18" s="51"/>
-      <c r="J18" s="51"/>
-    </row>
-    <row r="19" spans="1:10" ht="270" x14ac:dyDescent="0.25">
-      <c r="A19" s="51" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19" s="52" t="s">
-        <v>242</v>
-      </c>
-      <c r="C19" s="52" t="s">
-        <v>568</v>
-      </c>
-      <c r="D19" s="52" t="s">
-        <v>351</v>
-      </c>
-      <c r="E19" s="51" t="s">
-        <v>229</v>
-      </c>
-      <c r="F19" s="51"/>
-      <c r="G19" s="51"/>
-      <c r="H19" s="51" t="s">
-        <v>244</v>
-      </c>
-      <c r="I19" s="51"/>
-      <c r="J19" s="51"/>
+      <c r="K8" s="57"/>
+      <c r="L8" s="57"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="J2" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3433,26 +3493,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.28515625" style="41" customWidth="1"/>
-    <col min="2" max="2" width="48.140625" style="41" customWidth="1"/>
+    <col min="1" max="1" width="29.33203125" style="41" customWidth="1"/>
+    <col min="2" max="2" width="48.109375" style="41" customWidth="1"/>
     <col min="3" max="4" width="22" style="41" customWidth="1"/>
-    <col min="5" max="5" width="51.140625" style="41" customWidth="1"/>
-    <col min="6" max="6" width="50.140625" style="41" customWidth="1"/>
-    <col min="7" max="7" width="19.42578125" style="41" customWidth="1"/>
-    <col min="8" max="8" width="33.42578125" style="41" customWidth="1"/>
-    <col min="9" max="9" width="39.42578125" style="41" customWidth="1"/>
+    <col min="5" max="5" width="51.109375" style="41" customWidth="1"/>
+    <col min="6" max="6" width="50.109375" style="41" customWidth="1"/>
+    <col min="7" max="7" width="19.44140625" style="41" customWidth="1"/>
+    <col min="8" max="8" width="33.44140625" style="41" customWidth="1"/>
+    <col min="9" max="9" width="39.44140625" style="41" customWidth="1"/>
     <col min="10" max="10" width="28" style="41" customWidth="1"/>
-    <col min="11" max="11" width="31.140625" style="41" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="41"/>
+    <col min="11" max="11" width="31.109375" style="41" customWidth="1"/>
+    <col min="12" max="16384" width="9.109375" style="41"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3487,7 +3547,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="44" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" s="44" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="44" t="s">
         <v>9</v>
       </c>
@@ -3507,16 +3567,16 @@
         <v>21</v>
       </c>
       <c r="G2" s="49" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="I2" s="44" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="J2" s="44" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="47" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" s="47" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="47" t="s">
         <v>14</v>
       </c>
@@ -3536,13 +3596,13 @@
         <v>20</v>
       </c>
       <c r="G3" s="48" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="J3" s="47" t="s">
         <v>50</v>
@@ -3561,27 +3621,27 @@
       <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" customWidth="1"/>
-    <col min="2" max="2" width="22.5703125" customWidth="1"/>
-    <col min="3" max="3" width="28.5703125" customWidth="1"/>
-    <col min="4" max="4" width="22.42578125" customWidth="1"/>
-    <col min="5" max="5" width="26.85546875" customWidth="1"/>
-    <col min="6" max="6" width="28.28515625" customWidth="1"/>
-    <col min="7" max="7" width="30.28515625" customWidth="1"/>
-    <col min="8" max="8" width="39.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.7109375" customWidth="1"/>
-    <col min="10" max="10" width="20.28515625" customWidth="1"/>
+    <col min="1" max="1" width="22.88671875" customWidth="1"/>
+    <col min="2" max="2" width="22.5546875" customWidth="1"/>
+    <col min="3" max="3" width="28.5546875" customWidth="1"/>
+    <col min="4" max="4" width="22.44140625" customWidth="1"/>
+    <col min="5" max="5" width="26.88671875" customWidth="1"/>
+    <col min="6" max="6" width="28.33203125" customWidth="1"/>
+    <col min="7" max="7" width="30.33203125" customWidth="1"/>
+    <col min="8" max="8" width="39.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.6640625" customWidth="1"/>
+    <col min="10" max="10" width="20.33203125" customWidth="1"/>
     <col min="11" max="11" width="14" customWidth="1"/>
-    <col min="12" max="12" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.28515625" customWidth="1"/>
-    <col min="14" max="14" width="17.7109375" customWidth="1"/>
+    <col min="12" max="12" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.33203125" customWidth="1"/>
+    <col min="14" max="14" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="34" customFormat="1" ht="42" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="34" customFormat="1" ht="21" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -3623,159 +3683,159 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="90" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A2" s="18"/>
       <c r="B2" s="18" t="s">
+        <v>352</v>
+      </c>
+      <c r="C2" s="18" t="s">
         <v>353</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>354</v>
       </c>
       <c r="D2" s="19" t="s">
         <v>12</v>
       </c>
       <c r="E2" s="19"/>
       <c r="F2" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="G2" s="20" t="s">
         <v>355</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="H2" s="21" t="s">
         <v>356</v>
-      </c>
-      <c r="H2" s="21" t="s">
-        <v>357</v>
       </c>
       <c r="I2" s="19"/>
       <c r="J2" s="19" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="K2" s="19"/>
       <c r="L2" s="19"/>
       <c r="M2" s="19" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="N2" s="18"/>
     </row>
-    <row r="3" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="B3" s="18" t="s">
+        <v>359</v>
+      </c>
+      <c r="C3" s="18" t="s">
         <v>360</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="D3" s="19" t="s">
         <v>361</v>
-      </c>
-      <c r="D3" s="19" t="s">
-        <v>362</v>
       </c>
       <c r="E3" s="22"/>
       <c r="F3" s="20" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="21" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="I3" s="19"/>
       <c r="J3" s="19"/>
       <c r="K3" s="19"/>
       <c r="L3" s="19"/>
       <c r="M3" s="19" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="N3" s="5"/>
     </row>
-    <row r="4" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="23" t="s">
+        <v>364</v>
+      </c>
+      <c r="B4" s="18" t="s">
         <v>365</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="C4" s="24" t="s">
         <v>366</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="D4" s="19" t="s">
         <v>367</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>368</v>
       </c>
       <c r="E4" s="22"/>
       <c r="F4" s="20" t="s">
+        <v>368</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>355</v>
+      </c>
+      <c r="H4" s="21" t="s">
         <v>369</v>
       </c>
-      <c r="G4" s="20" t="s">
-        <v>356</v>
-      </c>
-      <c r="H4" s="21" t="s">
+      <c r="I4" s="19" t="s">
         <v>370</v>
       </c>
-      <c r="I4" s="19" t="s">
+      <c r="J4" s="19" t="s">
         <v>371</v>
-      </c>
-      <c r="J4" s="19" t="s">
-        <v>372</v>
       </c>
       <c r="K4" s="19"/>
       <c r="L4" s="21" t="s">
+        <v>372</v>
+      </c>
+      <c r="M4" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="N4" s="5"/>
+    </row>
+    <row r="5" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+      <c r="A5" s="23" t="s">
         <v>373</v>
       </c>
-      <c r="M4" s="19" t="s">
-        <v>359</v>
-      </c>
-      <c r="N4" s="5"/>
-    </row>
-    <row r="5" spans="1:14" ht="75" x14ac:dyDescent="0.25">
-      <c r="A5" s="23" t="s">
+      <c r="B5" s="18" t="s">
         <v>374</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="C5" s="25" t="s">
         <v>375</v>
       </c>
-      <c r="C5" s="25" t="s">
-        <v>376</v>
-      </c>
       <c r="D5" s="19" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E5" s="22"/>
       <c r="F5" s="20" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G5" s="20"/>
       <c r="H5" s="19" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I5" s="19"/>
       <c r="J5" s="19" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="K5" s="19"/>
       <c r="L5" s="21" t="s">
+        <v>378</v>
+      </c>
+      <c r="M5" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="N5" s="5"/>
+    </row>
+    <row r="6" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+      <c r="A6" s="26" t="s">
+        <v>373</v>
+      </c>
+      <c r="B6" s="27" t="s">
         <v>379</v>
       </c>
-      <c r="M5" s="19" t="s">
-        <v>359</v>
-      </c>
-      <c r="N5" s="5"/>
-    </row>
-    <row r="6" spans="1:14" ht="90" x14ac:dyDescent="0.25">
-      <c r="A6" s="26" t="s">
-        <v>374</v>
-      </c>
-      <c r="B6" s="27" t="s">
+      <c r="C6" s="28" t="s">
         <v>380</v>
-      </c>
-      <c r="C6" s="28" t="s">
-        <v>381</v>
       </c>
       <c r="D6" s="29" t="s">
         <v>12</v>
       </c>
       <c r="E6" s="29" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F6" s="30" t="s">
+        <v>354</v>
+      </c>
+      <c r="G6" s="30" t="s">
         <v>355</v>
-      </c>
-      <c r="G6" s="30" t="s">
-        <v>356</v>
       </c>
       <c r="H6" s="29"/>
       <c r="I6" s="29"/>
@@ -3783,299 +3843,299 @@
       <c r="K6" s="29"/>
       <c r="L6" s="29"/>
       <c r="M6" s="19" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="N6" s="31"/>
     </row>
-    <row r="7" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="23" t="s">
+        <v>382</v>
+      </c>
+      <c r="B7" s="18" t="s">
         <v>383</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="C7" s="24" t="s">
         <v>384</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="D7" s="19" t="s">
+        <v>361</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>381</v>
+      </c>
+      <c r="F7" s="20" t="s">
         <v>385</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>362</v>
-      </c>
-      <c r="E7" s="22" t="s">
-        <v>382</v>
-      </c>
-      <c r="F7" s="20" t="s">
-        <v>386</v>
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="21" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I7" s="19" t="s">
+        <v>370</v>
+      </c>
+      <c r="J7" s="19" t="s">
         <v>371</v>
-      </c>
-      <c r="J7" s="19" t="s">
-        <v>372</v>
       </c>
       <c r="K7" s="19"/>
       <c r="L7" s="21" t="s">
+        <v>387</v>
+      </c>
+      <c r="M7" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="N7" s="5"/>
+    </row>
+    <row r="8" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="23" t="s">
         <v>388</v>
       </c>
-      <c r="M7" s="19" t="s">
-        <v>359</v>
-      </c>
-      <c r="N7" s="5"/>
-    </row>
-    <row r="8" spans="1:14" ht="60" x14ac:dyDescent="0.25">
-      <c r="A8" s="23" t="s">
+      <c r="B8" s="18" t="s">
         <v>389</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="C8" s="24" t="s">
         <v>390</v>
       </c>
-      <c r="C8" s="24" t="s">
-        <v>391</v>
-      </c>
       <c r="D8" s="19" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E8" s="22"/>
       <c r="F8" s="20" t="s">
+        <v>391</v>
+      </c>
+      <c r="G8" s="20" t="s">
+        <v>355</v>
+      </c>
+      <c r="H8" s="21" t="s">
         <v>392</v>
-      </c>
-      <c r="G8" s="20" t="s">
-        <v>356</v>
-      </c>
-      <c r="H8" s="21" t="s">
-        <v>393</v>
       </c>
       <c r="I8" s="19"/>
       <c r="J8" s="19" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="K8" s="19"/>
       <c r="L8" s="21" t="s">
+        <v>393</v>
+      </c>
+      <c r="M8" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="N8" s="5"/>
+    </row>
+    <row r="9" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="23" t="s">
         <v>394</v>
       </c>
-      <c r="M8" s="19" t="s">
-        <v>359</v>
-      </c>
-      <c r="N8" s="5"/>
-    </row>
-    <row r="9" spans="1:14" ht="60" x14ac:dyDescent="0.25">
-      <c r="A9" s="23" t="s">
+      <c r="B9" s="18" t="s">
         <v>395</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="C9" s="24" t="s">
         <v>396</v>
       </c>
-      <c r="C9" s="24" t="s">
-        <v>397</v>
-      </c>
       <c r="D9" s="19" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E9" s="22"/>
       <c r="F9" s="20" t="s">
+        <v>397</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>355</v>
+      </c>
+      <c r="H9" s="21" t="s">
         <v>398</v>
-      </c>
-      <c r="G9" s="20" t="s">
-        <v>356</v>
-      </c>
-      <c r="H9" s="21" t="s">
-        <v>399</v>
       </c>
       <c r="I9" s="19"/>
       <c r="J9" s="19" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="K9" s="19"/>
       <c r="L9" s="19" t="s">
+        <v>399</v>
+      </c>
+      <c r="M9" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="N9" s="5"/>
+    </row>
+    <row r="10" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="23" t="s">
         <v>400</v>
       </c>
-      <c r="M9" s="19" t="s">
-        <v>359</v>
-      </c>
-      <c r="N9" s="5"/>
-    </row>
-    <row r="10" spans="1:14" ht="60" x14ac:dyDescent="0.25">
-      <c r="A10" s="23" t="s">
+      <c r="B10" s="18" t="s">
         <v>401</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="C10" s="25" t="s">
         <v>402</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="D10" s="19" t="s">
+        <v>367</v>
+      </c>
+      <c r="E10" s="32" t="s">
         <v>403</v>
       </c>
-      <c r="D10" s="19" t="s">
-        <v>368</v>
-      </c>
-      <c r="E10" s="32" t="s">
+      <c r="F10" s="20" t="s">
         <v>404</v>
       </c>
-      <c r="F10" s="20" t="s">
+      <c r="G10" s="20" t="s">
+        <v>355</v>
+      </c>
+      <c r="H10" s="21" t="s">
         <v>405</v>
-      </c>
-      <c r="G10" s="20" t="s">
-        <v>356</v>
-      </c>
-      <c r="H10" s="21" t="s">
-        <v>406</v>
       </c>
       <c r="I10" s="19"/>
       <c r="J10" s="19" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="K10" s="19"/>
       <c r="L10" s="21" t="s">
+        <v>406</v>
+      </c>
+      <c r="M10" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="N10" s="5"/>
+    </row>
+    <row r="11" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="23" t="s">
         <v>407</v>
       </c>
-      <c r="M10" s="19" t="s">
-        <v>359</v>
-      </c>
-      <c r="N10" s="5"/>
-    </row>
-    <row r="11" spans="1:14" ht="60" x14ac:dyDescent="0.25">
-      <c r="A11" s="23" t="s">
+      <c r="B11" s="18" t="s">
         <v>408</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="C11" s="24" t="s">
         <v>409</v>
       </c>
-      <c r="C11" s="24" t="s">
-        <v>410</v>
-      </c>
       <c r="D11" s="19" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E11" s="22"/>
       <c r="F11" s="20" t="s">
+        <v>410</v>
+      </c>
+      <c r="G11" s="20" t="s">
+        <v>355</v>
+      </c>
+      <c r="H11" s="21" t="s">
         <v>411</v>
-      </c>
-      <c r="G11" s="20" t="s">
-        <v>356</v>
-      </c>
-      <c r="H11" s="21" t="s">
-        <v>412</v>
       </c>
       <c r="I11" s="19"/>
       <c r="J11" s="19" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="K11" s="19"/>
       <c r="L11" s="19" t="s">
+        <v>412</v>
+      </c>
+      <c r="M11" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="N11" s="5"/>
+    </row>
+    <row r="12" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="23" t="s">
         <v>413</v>
       </c>
-      <c r="M11" s="19" t="s">
-        <v>359</v>
-      </c>
-      <c r="N11" s="5"/>
-    </row>
-    <row r="12" spans="1:14" ht="60" x14ac:dyDescent="0.25">
-      <c r="A12" s="23" t="s">
+      <c r="B12" s="18" t="s">
         <v>414</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="C12" s="25" t="s">
         <v>415</v>
       </c>
-      <c r="C12" s="25" t="s">
+      <c r="D12" s="19" t="s">
+        <v>367</v>
+      </c>
+      <c r="E12" s="32" t="s">
         <v>416</v>
       </c>
-      <c r="D12" s="19" t="s">
-        <v>368</v>
-      </c>
-      <c r="E12" s="32" t="s">
+      <c r="F12" s="20" t="s">
         <v>417</v>
       </c>
-      <c r="F12" s="20" t="s">
+      <c r="G12" s="20" t="s">
+        <v>355</v>
+      </c>
+      <c r="H12" s="21" t="s">
         <v>418</v>
-      </c>
-      <c r="G12" s="20" t="s">
-        <v>356</v>
-      </c>
-      <c r="H12" s="21" t="s">
-        <v>419</v>
       </c>
       <c r="I12" s="19"/>
       <c r="J12" s="19" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="K12" s="19"/>
       <c r="L12" s="21" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="M12" s="19" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="N12" s="5"/>
     </row>
-    <row r="13" spans="1:14" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="5"/>
       <c r="B13" s="18" t="s">
+        <v>420</v>
+      </c>
+      <c r="C13" s="25" t="s">
         <v>421</v>
       </c>
-      <c r="C13" s="25" t="s">
-        <v>422</v>
-      </c>
       <c r="D13" s="19" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E13" s="22"/>
       <c r="F13" s="20" t="s">
+        <v>422</v>
+      </c>
+      <c r="G13" s="20" t="s">
+        <v>355</v>
+      </c>
+      <c r="H13" s="21" t="s">
         <v>423</v>
-      </c>
-      <c r="G13" s="20" t="s">
-        <v>356</v>
-      </c>
-      <c r="H13" s="21" t="s">
-        <v>424</v>
       </c>
       <c r="I13" s="19"/>
       <c r="J13" s="19" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="K13" s="19"/>
       <c r="L13" s="21" t="s">
+        <v>424</v>
+      </c>
+      <c r="M13" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="N13" s="5"/>
+    </row>
+    <row r="14" spans="1:14" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="33" t="s">
         <v>425</v>
       </c>
-      <c r="M13" s="19" t="s">
-        <v>359</v>
-      </c>
-      <c r="N13" s="5"/>
-    </row>
-    <row r="14" spans="1:14" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="33" t="s">
+      <c r="B14" s="18" t="s">
         <v>426</v>
       </c>
-      <c r="B14" s="18" t="s">
-        <v>427</v>
-      </c>
       <c r="C14" s="25" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E14" s="22"/>
       <c r="F14" s="20" t="s">
+        <v>422</v>
+      </c>
+      <c r="G14" s="20" t="s">
+        <v>355</v>
+      </c>
+      <c r="H14" s="21" t="s">
         <v>423</v>
-      </c>
-      <c r="G14" s="20" t="s">
-        <v>356</v>
-      </c>
-      <c r="H14" s="21" t="s">
-        <v>424</v>
       </c>
       <c r="I14" s="19"/>
       <c r="J14" s="19" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="K14" s="19"/>
       <c r="L14" s="21" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="M14" s="19" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="N14" s="5"/>
     </row>
@@ -4092,24 +4152,24 @@
       <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.7109375" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="59.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.42578125" customWidth="1"/>
-    <col min="6" max="6" width="30.7109375" customWidth="1"/>
-    <col min="7" max="7" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.28515625" customWidth="1"/>
-    <col min="9" max="9" width="16.85546875" customWidth="1"/>
-    <col min="10" max="10" width="16.28515625" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="38.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.6640625" customWidth="1"/>
+    <col min="2" max="2" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="59.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.44140625" customWidth="1"/>
+    <col min="6" max="6" width="30.6640625" customWidth="1"/>
+    <col min="7" max="7" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.33203125" customWidth="1"/>
+    <col min="9" max="9" width="16.88671875" customWidth="1"/>
+    <col min="10" max="10" width="16.33203125" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="38.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="34" customFormat="1" ht="42.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="34" customFormat="1" ht="42.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="35"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -4151,239 +4211,239 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="33" t="s">
+        <v>427</v>
+      </c>
+      <c r="B2" s="34" t="s">
         <v>428</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="C2" s="34" t="s">
         <v>429</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="D2" s="34" t="s">
         <v>430</v>
-      </c>
-      <c r="D2" s="34" t="s">
-        <v>431</v>
       </c>
       <c r="E2" s="34"/>
       <c r="F2" s="20" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G2" s="14"/>
       <c r="H2" s="35" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="I2" s="34"/>
       <c r="J2" s="34" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="K2" s="34"/>
       <c r="L2" s="34" t="s">
+        <v>433</v>
+      </c>
+      <c r="M2" s="34" t="s">
+        <v>358</v>
+      </c>
+      <c r="N2" s="34"/>
+    </row>
+    <row r="3" spans="1:14" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="33" t="s">
         <v>434</v>
       </c>
-      <c r="M2" s="34" t="s">
-        <v>359</v>
-      </c>
-      <c r="N2" s="34"/>
-    </row>
-    <row r="3" spans="1:14" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="33" t="s">
+      <c r="B3" s="34" t="s">
         <v>435</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="C3" s="34" t="s">
         <v>436</v>
       </c>
-      <c r="C3" s="34" t="s">
-        <v>437</v>
-      </c>
       <c r="D3" s="34" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E3" s="34"/>
       <c r="F3" s="20" t="s">
+        <v>437</v>
+      </c>
+      <c r="H3" s="35" t="s">
         <v>438</v>
       </c>
-      <c r="H3" s="35" t="s">
+      <c r="J3" t="s">
+        <v>371</v>
+      </c>
+      <c r="L3" t="s">
         <v>439</v>
       </c>
-      <c r="J3" t="s">
-        <v>372</v>
-      </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="33" t="s">
         <v>440</v>
       </c>
-      <c r="M3" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="33" t="s">
+      <c r="B4" s="34" t="s">
         <v>441</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="C4" s="34" t="s">
         <v>442</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="D4" s="34" t="s">
         <v>443</v>
       </c>
-      <c r="D4" s="34" t="s">
+      <c r="E4" s="34" t="s">
         <v>444</v>
       </c>
-      <c r="E4" s="34" t="s">
+      <c r="F4" s="20" t="s">
         <v>445</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="G4" s="21" t="s">
+        <v>355</v>
+      </c>
+      <c r="H4" s="35" t="s">
+        <v>432</v>
+      </c>
+      <c r="J4" t="s">
+        <v>371</v>
+      </c>
+      <c r="L4" t="s">
         <v>446</v>
       </c>
-      <c r="G4" s="21" t="s">
-        <v>356</v>
-      </c>
-      <c r="H4" s="35" t="s">
-        <v>433</v>
-      </c>
-      <c r="J4" t="s">
-        <v>372</v>
-      </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="33" t="s">
         <v>447</v>
       </c>
-      <c r="M4" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="33" t="s">
+      <c r="B5" s="34" t="s">
         <v>448</v>
       </c>
-      <c r="B5" s="34" t="s">
+      <c r="C5" s="36" t="s">
         <v>449</v>
       </c>
-      <c r="C5" s="36" t="s">
+      <c r="D5" s="34" t="s">
+        <v>443</v>
+      </c>
+      <c r="E5" s="34" t="s">
+        <v>444</v>
+      </c>
+      <c r="F5" s="20" t="s">
         <v>450</v>
       </c>
-      <c r="D5" s="34" t="s">
+      <c r="G5" s="21" t="s">
+        <v>355</v>
+      </c>
+      <c r="H5" s="36" t="s">
+        <v>451</v>
+      </c>
+      <c r="J5" t="s">
+        <v>357</v>
+      </c>
+      <c r="L5" t="s">
+        <v>452</v>
+      </c>
+      <c r="M5" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="B6" s="34" t="s">
+        <v>454</v>
+      </c>
+      <c r="C6" s="37" t="s">
+        <v>455</v>
+      </c>
+      <c r="D6" s="34" t="s">
+        <v>443</v>
+      </c>
+      <c r="E6" s="34" t="s">
         <v>444</v>
       </c>
-      <c r="E5" s="34" t="s">
-        <v>445</v>
-      </c>
-      <c r="F5" s="20" t="s">
-        <v>451</v>
-      </c>
-      <c r="G5" s="21" t="s">
-        <v>356</v>
-      </c>
-      <c r="H5" s="36" t="s">
+      <c r="F6" s="20" t="s">
+        <v>456</v>
+      </c>
+      <c r="G6" s="21" t="s">
+        <v>355</v>
+      </c>
+      <c r="H6" s="36" t="s">
+        <v>457</v>
+      </c>
+      <c r="J6" t="s">
+        <v>357</v>
+      </c>
+      <c r="L6" t="s">
+        <v>458</v>
+      </c>
+      <c r="M6" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="B7" s="34" t="s">
+        <v>460</v>
+      </c>
+      <c r="C7" s="35" t="s">
+        <v>461</v>
+      </c>
+      <c r="D7" s="34" t="s">
+        <v>443</v>
+      </c>
+      <c r="E7" s="34" t="s">
+        <v>444</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>462</v>
+      </c>
+      <c r="G7" s="21" t="s">
+        <v>355</v>
+      </c>
+      <c r="H7" s="36" t="s">
+        <v>463</v>
+      </c>
+      <c r="J7" t="s">
+        <v>357</v>
+      </c>
+      <c r="L7" t="s">
         <v>452</v>
       </c>
-      <c r="J5" t="s">
+      <c r="M7" t="s">
         <v>358</v>
       </c>
-      <c r="L5" t="s">
-        <v>453</v>
-      </c>
-      <c r="M5" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="33" t="s">
-        <v>454</v>
-      </c>
-      <c r="B6" s="34" t="s">
-        <v>455</v>
-      </c>
-      <c r="C6" s="37" t="s">
-        <v>456</v>
-      </c>
-      <c r="D6" s="34" t="s">
-        <v>444</v>
-      </c>
-      <c r="E6" s="34" t="s">
-        <v>445</v>
-      </c>
-      <c r="F6" s="20" t="s">
-        <v>457</v>
-      </c>
-      <c r="G6" s="21" t="s">
-        <v>356</v>
-      </c>
-      <c r="H6" s="36" t="s">
-        <v>458</v>
-      </c>
-      <c r="J6" t="s">
-        <v>358</v>
-      </c>
-      <c r="L6" t="s">
-        <v>459</v>
-      </c>
-      <c r="M6" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="33" t="s">
-        <v>460</v>
-      </c>
-      <c r="B7" s="34" t="s">
-        <v>461</v>
-      </c>
-      <c r="C7" s="35" t="s">
-        <v>462</v>
-      </c>
-      <c r="D7" s="34" t="s">
-        <v>444</v>
-      </c>
-      <c r="E7" s="34" t="s">
-        <v>445</v>
-      </c>
-      <c r="F7" s="20" t="s">
-        <v>463</v>
-      </c>
-      <c r="G7" s="21" t="s">
-        <v>356</v>
-      </c>
-      <c r="H7" s="36" t="s">
-        <v>464</v>
-      </c>
-      <c r="J7" t="s">
-        <v>358</v>
-      </c>
-      <c r="L7" t="s">
-        <v>453</v>
-      </c>
-      <c r="M7" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="120" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:14" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A8" s="38"/>
       <c r="B8" s="39" t="s">
+        <v>464</v>
+      </c>
+      <c r="C8" s="40" t="s">
         <v>465</v>
       </c>
-      <c r="C8" s="40" t="s">
+      <c r="D8" s="39" t="s">
         <v>466</v>
-      </c>
-      <c r="D8" s="39" t="s">
-        <v>467</v>
       </c>
       <c r="E8" s="39"/>
       <c r="F8" s="30" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="G8" s="38"/>
       <c r="H8" s="40" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="I8" s="38"/>
       <c r="J8" s="38" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="K8" s="38"/>
       <c r="L8" s="38" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="M8" s="38" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="N8" s="38"/>
     </row>
@@ -4394,12 +4454,192 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <sheetPr>
+    <tabColor theme="5"/>
+  </sheetPr>
+  <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="32.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="42" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A2" s="57" t="s">
+        <v>590</v>
+      </c>
+      <c r="B2" s="57" t="s">
+        <v>591</v>
+      </c>
+      <c r="C2" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="58" t="s">
+        <v>592</v>
+      </c>
+      <c r="E2" s="58" t="s">
+        <v>593</v>
+      </c>
+      <c r="F2" s="58" t="s">
+        <v>594</v>
+      </c>
+      <c r="G2" s="57" t="s">
+        <v>595</v>
+      </c>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57" t="s">
+        <v>596</v>
+      </c>
+      <c r="J2" s="57" t="s">
+        <v>244</v>
+      </c>
+      <c r="K2" s="14"/>
+    </row>
+    <row r="3" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+      <c r="A3" s="59" t="s">
+        <v>597</v>
+      </c>
+      <c r="B3" s="59" t="s">
+        <v>598</v>
+      </c>
+      <c r="C3" s="59" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="60" t="s">
+        <v>592</v>
+      </c>
+      <c r="E3" s="60" t="s">
+        <v>599</v>
+      </c>
+      <c r="F3" s="60" t="s">
+        <v>600</v>
+      </c>
+      <c r="G3" s="59" t="s">
+        <v>601</v>
+      </c>
+      <c r="H3" s="55" t="s">
+        <v>575</v>
+      </c>
+      <c r="I3" s="59" t="s">
+        <v>602</v>
+      </c>
+      <c r="J3" s="59" t="s">
+        <v>244</v>
+      </c>
+      <c r="K3" s="14"/>
+    </row>
+    <row r="4" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="57" t="s">
+        <v>603</v>
+      </c>
+      <c r="B4" s="57" t="s">
+        <v>604</v>
+      </c>
+      <c r="C4" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="58" t="s">
+        <v>592</v>
+      </c>
+      <c r="E4" s="58" t="s">
+        <v>605</v>
+      </c>
+      <c r="F4" s="58" t="s">
+        <v>606</v>
+      </c>
+      <c r="G4" s="57" t="s">
+        <v>595</v>
+      </c>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57" t="s">
+        <v>607</v>
+      </c>
+      <c r="J4" s="57" t="s">
+        <v>244</v>
+      </c>
+      <c r="K4" s="14"/>
+    </row>
+    <row r="5" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="57" t="s">
+        <v>608</v>
+      </c>
+      <c r="B5" s="57" t="s">
+        <v>609</v>
+      </c>
+      <c r="C5" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="58" t="s">
+        <v>592</v>
+      </c>
+      <c r="E5" s="58" t="s">
+        <v>610</v>
+      </c>
+      <c r="F5" s="58" t="s">
+        <v>611</v>
+      </c>
+      <c r="G5" s="57" t="s">
+        <v>595</v>
+      </c>
+      <c r="H5" s="57"/>
+      <c r="I5" s="57" t="s">
+        <v>612</v>
+      </c>
+      <c r="J5" s="57" t="s">
+        <v>244</v>
+      </c>
+      <c r="K5" s="14"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4413,23 +4653,23 @@
       <selection pane="bottomLeft" activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.85546875" style="41" customWidth="1"/>
-    <col min="2" max="2" width="51.140625" style="41" customWidth="1"/>
+    <col min="1" max="1" width="24.88671875" style="41" customWidth="1"/>
+    <col min="2" max="2" width="51.109375" style="41" customWidth="1"/>
     <col min="3" max="3" width="26" style="32" customWidth="1"/>
     <col min="4" max="4" width="26" style="41" customWidth="1"/>
-    <col min="5" max="5" width="56.7109375" style="41" customWidth="1"/>
-    <col min="6" max="6" width="50.5703125" style="41" customWidth="1"/>
-    <col min="7" max="7" width="26.42578125" style="32" customWidth="1"/>
+    <col min="5" max="5" width="56.6640625" style="41" customWidth="1"/>
+    <col min="6" max="6" width="50.5546875" style="41" customWidth="1"/>
+    <col min="7" max="7" width="26.44140625" style="32" customWidth="1"/>
     <col min="8" max="8" width="24" style="41" customWidth="1"/>
-    <col min="9" max="9" width="31.85546875" style="41" customWidth="1"/>
+    <col min="9" max="9" width="31.88671875" style="41" customWidth="1"/>
     <col min="10" max="10" width="23" style="41" customWidth="1"/>
     <col min="11" max="11" width="19" style="41" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="41"/>
+    <col min="12" max="16384" width="9.109375" style="41"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4464,7 +4704,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="44" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" s="44" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="44" t="s">
         <v>59</v>
       </c>
@@ -4481,16 +4721,16 @@
         <v>75</v>
       </c>
       <c r="G2" s="49" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="I2" s="44" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="J2" s="44" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="44" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" s="44" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A3" s="44" t="s">
         <v>60</v>
       </c>
@@ -4504,19 +4744,19 @@
         <v>82</v>
       </c>
       <c r="F3" s="44" t="s">
+        <v>521</v>
+      </c>
+      <c r="G3" s="49" t="s">
+        <v>507</v>
+      </c>
+      <c r="I3" s="44" t="s">
         <v>522</v>
-      </c>
-      <c r="G3" s="49" t="s">
-        <v>508</v>
-      </c>
-      <c r="I3" s="44" t="s">
-        <v>523</v>
       </c>
       <c r="J3" s="44" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="47" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" s="47" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A4" s="47" t="s">
         <v>61</v>
       </c>
@@ -4527,25 +4767,25 @@
         <v>12</v>
       </c>
       <c r="E4" s="47" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="F4" s="47" t="s">
         <v>85</v>
       </c>
       <c r="G4" s="48" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J4" s="47" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="44" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" s="44" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A5" s="44" t="s">
         <v>62</v>
       </c>
@@ -4562,17 +4802,17 @@
         <v>75</v>
       </c>
       <c r="G5" s="49" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H5" s="50"/>
       <c r="I5" s="50" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="J5" s="44" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="44" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" s="44" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A6" s="44" t="s">
         <v>63</v>
       </c>
@@ -4589,16 +4829,16 @@
         <v>75</v>
       </c>
       <c r="G6" s="49" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="I6" s="50" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="J6" s="44" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="47" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" s="47" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A7" s="47" t="s">
         <v>64</v>
       </c>
@@ -4615,19 +4855,19 @@
         <v>84</v>
       </c>
       <c r="G7" s="48" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="J7" s="47" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="47" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" s="47" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A8" s="47" t="s">
         <v>65</v>
       </c>
@@ -4644,19 +4884,19 @@
         <v>84</v>
       </c>
       <c r="G8" s="48" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J8" s="47" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="44" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" s="44" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A9" s="44" t="s">
         <v>66</v>
       </c>
@@ -4673,16 +4913,16 @@
         <v>75</v>
       </c>
       <c r="G9" s="49" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="I9" s="50" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="J9" s="44" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="47" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" s="47" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A10" s="47" t="s">
         <v>67</v>
       </c>
@@ -4699,19 +4939,19 @@
         <v>84</v>
       </c>
       <c r="G10" s="48" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="J10" s="47" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="44" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" s="44" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A11" s="44" t="s">
         <v>68</v>
       </c>
@@ -4728,16 +4968,16 @@
         <v>84</v>
       </c>
       <c r="G11" s="49" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="I11" s="44" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="J11" s="44" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="47" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" s="47" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A12" s="47" t="s">
         <v>69</v>
       </c>
@@ -4754,19 +4994,19 @@
         <v>84</v>
       </c>
       <c r="G12" s="48" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J12" s="47" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="44" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" s="44" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A13" s="44" t="s">
         <v>93</v>
       </c>
@@ -4780,19 +5020,19 @@
         <v>102</v>
       </c>
       <c r="F13" s="44" t="s">
+        <v>527</v>
+      </c>
+      <c r="G13" s="49" t="s">
+        <v>507</v>
+      </c>
+      <c r="I13" s="44" t="s">
         <v>528</v>
-      </c>
-      <c r="G13" s="49" t="s">
-        <v>508</v>
-      </c>
-      <c r="I13" s="44" t="s">
-        <v>529</v>
       </c>
       <c r="J13" s="44" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="47" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" s="47" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A14" s="47" t="s">
         <v>94</v>
       </c>
@@ -4806,22 +5046,22 @@
         <v>104</v>
       </c>
       <c r="F14" s="47" t="s">
+        <v>529</v>
+      </c>
+      <c r="G14" s="48" t="s">
+        <v>510</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>539</v>
+      </c>
+      <c r="I14" s="47" t="s">
         <v>530</v>
-      </c>
-      <c r="G14" s="48" t="s">
-        <v>511</v>
-      </c>
-      <c r="H14" s="11" t="s">
-        <v>540</v>
-      </c>
-      <c r="I14" s="47" t="s">
-        <v>531</v>
       </c>
       <c r="J14" s="47" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:11" s="44" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" s="44" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A15" s="44" t="s">
         <v>95</v>
       </c>
@@ -4838,16 +5078,16 @@
         <v>75</v>
       </c>
       <c r="G15" s="49" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="I15" s="44" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="J15" s="44" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:11" s="44" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" s="44" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A16" s="44" t="s">
         <v>96</v>
       </c>
@@ -4864,16 +5104,16 @@
         <v>75</v>
       </c>
       <c r="G16" s="49" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="I16" s="44" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="J16" s="44" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:10" s="47" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" s="47" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A17" s="47" t="s">
         <v>97</v>
       </c>
@@ -4890,19 +5130,19 @@
         <v>84</v>
       </c>
       <c r="G17" s="48" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="I17" s="11" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J17" s="47" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:10" s="47" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" s="47" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A18" s="47" t="s">
         <v>98</v>
       </c>
@@ -4919,16 +5159,16 @@
         <v>84</v>
       </c>
       <c r="G18" s="48" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="J18" s="47" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:10" s="47" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" s="47" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A19" s="47" t="s">
         <v>115</v>
       </c>
@@ -4945,19 +5185,19 @@
         <v>84</v>
       </c>
       <c r="G19" s="48" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="I19" s="11" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J19" s="47" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:10" s="47" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" s="47" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A20" s="47" t="s">
         <v>116</v>
       </c>
@@ -4974,19 +5214,19 @@
         <v>84</v>
       </c>
       <c r="G20" s="48" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I20" s="11" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J20" s="47" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:10" s="47" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" s="47" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A21" s="47" t="s">
         <v>129</v>
       </c>
@@ -5003,19 +5243,19 @@
         <v>122</v>
       </c>
       <c r="G21" s="48" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="I21" s="11" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J21" s="47" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:10" s="47" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" s="47" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A22" s="47" t="s">
         <v>130</v>
       </c>
@@ -5032,19 +5272,19 @@
         <v>122</v>
       </c>
       <c r="G22" s="48" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="I22" s="11" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J22" s="47" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:10" s="47" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" s="47" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A23" s="47" t="s">
         <v>131</v>
       </c>
@@ -5061,19 +5301,19 @@
         <v>122</v>
       </c>
       <c r="G23" s="48" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="I23" s="11" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J23" s="47" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:10" s="44" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" s="44" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A24" s="44" t="s">
         <v>132</v>
       </c>
@@ -5090,16 +5330,16 @@
         <v>75</v>
       </c>
       <c r="G24" s="49" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I24" s="44" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="J24" s="44" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:10" s="44" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" s="44" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A25" s="44" t="s">
         <v>133</v>
       </c>
@@ -5116,16 +5356,16 @@
         <v>137</v>
       </c>
       <c r="G25" s="49" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I25" s="44" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J25" s="44" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:10" s="44" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" s="44" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A26" s="44" t="s">
         <v>134</v>
       </c>
@@ -5142,16 +5382,16 @@
         <v>137</v>
       </c>
       <c r="G26" s="49" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I26" s="44" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="J26" s="44" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:10" s="44" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" s="44" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A27" s="44" t="s">
         <v>142</v>
       </c>
@@ -5165,23 +5405,23 @@
         <v>141</v>
       </c>
       <c r="F27" s="44" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="G27" s="49" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="I27" s="44" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="J27" s="44" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:10" s="45" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="46"/>
       <c r="G28" s="46"/>
     </row>
-    <row r="29" spans="1:10" s="44" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" s="44" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A29" s="44" t="s">
         <v>143</v>
       </c>
@@ -5198,16 +5438,16 @@
         <v>58</v>
       </c>
       <c r="G29" s="49" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="I29" s="44" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="J29" s="44" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:10" s="47" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" s="47" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A30" s="47" t="s">
         <v>144</v>
       </c>
@@ -5224,19 +5464,19 @@
         <v>85</v>
       </c>
       <c r="G30" s="48" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="I30" s="11" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J30" s="47" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:10" s="44" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" s="44" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A31" s="44" t="s">
         <v>145</v>
       </c>
@@ -5253,17 +5493,17 @@
         <v>169</v>
       </c>
       <c r="G31" s="49" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H31" s="50"/>
       <c r="I31" s="50" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="J31" s="44" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:10" s="44" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" s="44" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A32" s="44" t="s">
         <v>146</v>
       </c>
@@ -5280,16 +5520,16 @@
         <v>169</v>
       </c>
       <c r="G32" s="49" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="I32" s="50" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="J32" s="44" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:10" s="47" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" s="47" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A33" s="47" t="s">
         <v>147</v>
       </c>
@@ -5306,19 +5546,19 @@
         <v>84</v>
       </c>
       <c r="G33" s="48" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H33" s="11" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="I33" s="11" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="J33" s="47" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:10" s="47" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" s="47" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A34" s="47" t="s">
         <v>148</v>
       </c>
@@ -5335,19 +5575,19 @@
         <v>84</v>
       </c>
       <c r="G34" s="48" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H34" s="11" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="I34" s="11" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J34" s="47" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="1:10" s="44" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" s="44" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A35" s="44" t="s">
         <v>149</v>
       </c>
@@ -5364,16 +5604,16 @@
         <v>169</v>
       </c>
       <c r="G35" s="49" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="I35" s="50" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="J35" s="44" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="1:10" s="47" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" s="47" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A36" s="47" t="s">
         <v>150</v>
       </c>
@@ -5390,19 +5630,19 @@
         <v>84</v>
       </c>
       <c r="G36" s="48" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="I36" s="11" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="J36" s="47" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="37" spans="1:10" s="44" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" s="44" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A37" s="44" t="s">
         <v>151</v>
       </c>
@@ -5419,16 +5659,16 @@
         <v>92</v>
       </c>
       <c r="G37" s="49" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="I37" s="44" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="J37" s="44" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="1:10" s="47" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" s="47" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A38" s="47" t="s">
         <v>152</v>
       </c>
@@ -5445,19 +5685,19 @@
         <v>84</v>
       </c>
       <c r="G38" s="48" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H38" s="11" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="I38" s="11" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J38" s="47" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="39" spans="1:10" s="44" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" s="44" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A39" s="44" t="s">
         <v>153</v>
       </c>
@@ -5474,16 +5714,16 @@
         <v>84</v>
       </c>
       <c r="G39" s="49" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="I39" s="44" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="J39" s="44" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="40" spans="1:10" s="47" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" s="47" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A40" s="47" t="s">
         <v>154</v>
       </c>
@@ -5500,19 +5740,19 @@
         <v>84</v>
       </c>
       <c r="G40" s="48" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H40" s="11" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="I40" s="47" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="J40" s="47" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="41" spans="1:10" s="44" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" s="44" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A41" s="44" t="s">
         <v>155</v>
       </c>
@@ -5529,16 +5769,16 @@
         <v>169</v>
       </c>
       <c r="G41" s="49" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="I41" s="44" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="J41" s="44" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="42" spans="1:10" s="44" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" s="44" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A42" s="44" t="s">
         <v>156</v>
       </c>
@@ -5555,16 +5795,16 @@
         <v>168</v>
       </c>
       <c r="G42" s="49" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="I42" s="44" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="J42" s="44" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="43" spans="1:10" s="47" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" s="47" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A43" s="47" t="s">
         <v>157</v>
       </c>
@@ -5581,19 +5821,19 @@
         <v>84</v>
       </c>
       <c r="G43" s="48" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H43" s="11" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="I43" s="11" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J43" s="47" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="44" spans="1:10" s="47" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" s="47" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A44" s="47" t="s">
         <v>158</v>
       </c>
@@ -5610,16 +5850,16 @@
         <v>84</v>
       </c>
       <c r="G44" s="48" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H44" s="11" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="J44" s="47" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="45" spans="1:10" s="47" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" s="47" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A45" s="47" t="s">
         <v>159</v>
       </c>
@@ -5636,19 +5876,19 @@
         <v>84</v>
       </c>
       <c r="G45" s="48" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H45" s="11" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="I45" s="11" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J45" s="47" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="46" spans="1:10" s="47" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" s="47" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A46" s="47" t="s">
         <v>160</v>
       </c>
@@ -5665,19 +5905,19 @@
         <v>84</v>
       </c>
       <c r="G46" s="48" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H46" s="11" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I46" s="11" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J46" s="47" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="47" spans="1:10" s="47" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" s="47" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A47" s="47" t="s">
         <v>161</v>
       </c>
@@ -5694,19 +5934,19 @@
         <v>122</v>
       </c>
       <c r="G47" s="48" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H47" s="11" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="I47" s="11" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J47" s="47" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="1:10" s="47" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" s="47" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A48" s="47" t="s">
         <v>162</v>
       </c>
@@ -5717,25 +5957,25 @@
         <v>16</v>
       </c>
       <c r="E48" s="47" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="F48" s="47" t="s">
         <v>122</v>
       </c>
       <c r="G48" s="48" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H48" s="11" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="I48" s="11" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J48" s="47" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="49" spans="1:10" s="47" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" s="47" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A49" s="47" t="s">
         <v>163</v>
       </c>
@@ -5746,25 +5986,25 @@
         <v>16</v>
       </c>
       <c r="E49" s="47" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="F49" s="47" t="s">
         <v>122</v>
       </c>
       <c r="G49" s="48" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H49" s="11" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="I49" s="11" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J49" s="47" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="50" spans="1:10" s="44" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" s="44" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A50" s="44" t="s">
         <v>164</v>
       </c>
@@ -5775,22 +6015,22 @@
         <v>16</v>
       </c>
       <c r="E50" s="44" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="F50" s="44" t="s">
         <v>168</v>
       </c>
       <c r="G50" s="49" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I50" s="44" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="J50" s="44" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:10" s="44" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" s="44" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A51" s="44" t="s">
         <v>165</v>
       </c>
@@ -5807,16 +6047,16 @@
         <v>137</v>
       </c>
       <c r="G51" s="49" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I51" s="44" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J51" s="44" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:10" s="44" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" s="44" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A52" s="44" t="s">
         <v>166</v>
       </c>
@@ -5833,16 +6073,16 @@
         <v>168</v>
       </c>
       <c r="G52" s="49" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I52" s="44" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="J52" s="44" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:10" s="44" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" s="44" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A53" s="44" t="s">
         <v>167</v>
       </c>
@@ -5859,19 +6099,19 @@
         <v>84</v>
       </c>
       <c r="G53" s="49" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="I53" s="44" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="J53" s="44" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="54" spans="1:10" s="45" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="46"/>
     </row>
-    <row r="55" spans="1:10" s="44" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" s="44" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A55" s="44" t="s">
         <v>191</v>
       </c>
@@ -5888,30 +6128,30 @@
         <v>84</v>
       </c>
       <c r="G55" s="49" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J55" s="44" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="56" spans="1:10" s="44" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" s="44" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="44" t="s">
+        <v>474</v>
+      </c>
+      <c r="B56" s="44" t="s">
         <v>475</v>
-      </c>
-      <c r="B56" s="44" t="s">
-        <v>476</v>
       </c>
       <c r="C56" s="49" t="s">
         <v>193</v>
       </c>
       <c r="E56" s="44" t="s">
+        <v>476</v>
+      </c>
+      <c r="F56" s="44" t="s">
         <v>477</v>
       </c>
-      <c r="F56" s="44" t="s">
-        <v>478</v>
-      </c>
       <c r="G56" s="49" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J56" s="44" t="s">
         <v>50</v>
@@ -5931,23 +6171,23 @@
       <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" style="41" customWidth="1"/>
-    <col min="2" max="2" width="57.140625" style="41" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" style="32" customWidth="1"/>
-    <col min="4" max="4" width="23.42578125" style="41" customWidth="1"/>
-    <col min="5" max="5" width="62.28515625" style="41" customWidth="1"/>
-    <col min="6" max="6" width="46.5703125" style="41" customWidth="1"/>
-    <col min="7" max="7" width="20.140625" style="32" customWidth="1"/>
-    <col min="8" max="8" width="25.28515625" style="41" customWidth="1"/>
-    <col min="9" max="9" width="18.7109375" style="41" customWidth="1"/>
+    <col min="1" max="1" width="25.6640625" style="41" customWidth="1"/>
+    <col min="2" max="2" width="57.109375" style="41" customWidth="1"/>
+    <col min="3" max="3" width="23.44140625" style="32" customWidth="1"/>
+    <col min="4" max="4" width="23.44140625" style="41" customWidth="1"/>
+    <col min="5" max="5" width="62.33203125" style="41" customWidth="1"/>
+    <col min="6" max="6" width="46.5546875" style="41" customWidth="1"/>
+    <col min="7" max="7" width="20.109375" style="32" customWidth="1"/>
+    <col min="8" max="8" width="25.33203125" style="41" customWidth="1"/>
+    <col min="9" max="9" width="18.6640625" style="41" customWidth="1"/>
     <col min="10" max="10" width="28" style="41" customWidth="1"/>
-    <col min="11" max="11" width="31.140625" style="41" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="41"/>
+    <col min="11" max="11" width="31.109375" style="41" customWidth="1"/>
+    <col min="12" max="16384" width="9.109375" style="41"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5982,7 +6222,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="42" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" s="42" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" s="42" t="s">
         <v>22</v>
       </c>
@@ -6002,13 +6242,13 @@
         <v>229</v>
       </c>
       <c r="I2" s="42" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="J2" s="42" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="42" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" s="42" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A3" s="42" t="s">
         <v>26</v>
       </c>
@@ -6031,13 +6271,13 @@
         <v>229</v>
       </c>
       <c r="I3" s="42" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J3" s="42" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="42" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" s="42" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A4" s="42" t="s">
         <v>31</v>
       </c>
@@ -6060,13 +6300,13 @@
         <v>229</v>
       </c>
       <c r="I4" s="42" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="J4" s="42" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="42" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" s="42" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A5" s="42" t="s">
         <v>32</v>
       </c>
@@ -6086,13 +6326,13 @@
         <v>229</v>
       </c>
       <c r="I5" s="42" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="J5" s="42" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="42" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" s="42" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A6" s="42" t="s">
         <v>33</v>
       </c>
@@ -6112,13 +6352,13 @@
         <v>229</v>
       </c>
       <c r="I6" s="42" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="J6" s="42" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="42" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" s="42" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A7" s="42" t="s">
         <v>34</v>
       </c>
@@ -6132,19 +6372,19 @@
         <v>48</v>
       </c>
       <c r="F7" s="42" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="G7" s="43" t="s">
         <v>229</v>
       </c>
       <c r="I7" s="42" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="J7" s="42" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="42" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" s="42" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A8" s="42" t="s">
         <v>35</v>
       </c>
@@ -6164,13 +6404,13 @@
         <v>229</v>
       </c>
       <c r="I8" s="42" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="J8" s="42" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="42" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" s="42" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A9" s="42" t="s">
         <v>36</v>
       </c>
@@ -6190,13 +6430,13 @@
         <v>229</v>
       </c>
       <c r="I9" s="42" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="J9" s="42" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="42" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" s="42" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A10" s="42" t="s">
         <v>37</v>
       </c>
@@ -6216,13 +6456,13 @@
         <v>229</v>
       </c>
       <c r="I10" s="42" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="J10" s="42" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="42" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" s="42" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A11" s="42" t="s">
         <v>38</v>
       </c>
@@ -6242,33 +6482,33 @@
         <v>229</v>
       </c>
       <c r="I11" s="42" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="J11" s="42" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="42" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" s="42" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="42" t="s">
+        <v>470</v>
+      </c>
+      <c r="B12" s="42" t="s">
         <v>471</v>
       </c>
-      <c r="B12" s="42" t="s">
+      <c r="C12" s="43" t="s">
         <v>472</v>
       </c>
-      <c r="C12" s="43" t="s">
+      <c r="E12" s="42" t="s">
         <v>473</v>
       </c>
-      <c r="E12" s="42" t="s">
-        <v>474</v>
-      </c>
       <c r="F12" s="42" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G12" s="43" t="s">
         <v>229</v>
       </c>
       <c r="I12" s="42" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="J12" s="42" t="s">
         <v>50</v>
@@ -6287,23 +6527,23 @@
       <selection activeCell="A2" sqref="A2:E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" customWidth="1"/>
-    <col min="3" max="3" width="22.5703125" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" customWidth="1"/>
-    <col min="5" max="5" width="30.5703125" customWidth="1"/>
-    <col min="6" max="6" width="34.42578125" customWidth="1"/>
-    <col min="7" max="7" width="46.7109375" customWidth="1"/>
-    <col min="8" max="8" width="39.28515625" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" customWidth="1"/>
-    <col min="10" max="10" width="21.42578125" customWidth="1"/>
+    <col min="1" max="1" width="18.5546875" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" customWidth="1"/>
+    <col min="3" max="3" width="22.5546875" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" customWidth="1"/>
+    <col min="5" max="5" width="30.5546875" customWidth="1"/>
+    <col min="6" max="6" width="34.44140625" customWidth="1"/>
+    <col min="7" max="7" width="46.6640625" customWidth="1"/>
+    <col min="8" max="8" width="39.33203125" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" customWidth="1"/>
+    <col min="10" max="10" width="21.44140625" customWidth="1"/>
     <col min="11" max="11" width="29" customWidth="1"/>
-    <col min="12" max="12" width="20.85546875" customWidth="1"/>
+    <col min="12" max="12" width="20.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6338,18 +6578,18 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="8" customFormat="1" ht="195" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" s="8" customFormat="1" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>196</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>224</v>
@@ -6370,18 +6610,18 @@
         <v>221</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="8" customFormat="1" ht="210" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" s="8" customFormat="1" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>206</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>225</v>
@@ -6402,18 +6642,18 @@
         <v>221</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="8" customFormat="1" ht="210" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" s="8" customFormat="1" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>207</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>233</v>
@@ -6434,18 +6674,18 @@
         <v>221</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="10" customFormat="1" ht="210" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" s="10" customFormat="1" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
         <v>208</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>16</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E5" s="11" t="s">
         <v>234</v>
@@ -6463,24 +6703,24 @@
         <v>228</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="K5" s="10" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="8" customFormat="1" ht="210" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" s="8" customFormat="1" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>209</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>236</v>
@@ -6501,65 +6741,65 @@
         <v>221</v>
       </c>
     </row>
-    <row r="7" spans="1:12" s="10" customFormat="1" ht="210" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" s="10" customFormat="1" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>16</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E7" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="G7" s="10" t="s">
         <v>285</v>
       </c>
-      <c r="F7" s="11" t="s">
-        <v>285</v>
-      </c>
-      <c r="G7" s="10" t="s">
+      <c r="H7" s="10" t="s">
         <v>286</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>287</v>
       </c>
       <c r="I7" s="10" t="s">
         <v>228</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="K7" s="10" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="8" customFormat="1" ht="210" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" s="8" customFormat="1" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>210</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E8" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="G8" s="8" t="s">
         <v>288</v>
       </c>
-      <c r="F8" s="9" t="s">
-        <v>288</v>
-      </c>
-      <c r="G8" s="8" t="s">
+      <c r="H8" s="8" t="s">
         <v>289</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>290</v>
       </c>
       <c r="I8" s="8" t="s">
         <v>229</v>
@@ -6568,31 +6808,31 @@
         <v>221</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:12" s="8" customFormat="1" ht="210" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:12" s="8" customFormat="1" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>211</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G10" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="H10" s="8" t="s">
         <v>291</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>292</v>
       </c>
       <c r="I10" s="8" t="s">
         <v>229</v>
@@ -6601,30 +6841,30 @@
         <v>221</v>
       </c>
     </row>
-    <row r="11" spans="1:12" s="8" customFormat="1" ht="210" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" s="8" customFormat="1" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
         <v>212</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G11" s="8" t="s">
         <v>227</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I11" s="8" t="s">
         <v>229</v>
@@ -6633,30 +6873,30 @@
         <v>221</v>
       </c>
     </row>
-    <row r="12" spans="1:12" s="8" customFormat="1" ht="210" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" s="8" customFormat="1" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
         <v>213</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E12" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="G12" s="8" t="s">
         <v>341</v>
       </c>
-      <c r="F12" s="9" t="s">
-        <v>341</v>
-      </c>
-      <c r="G12" s="8" t="s">
+      <c r="H12" s="8" t="s">
         <v>342</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>343</v>
       </c>
       <c r="I12" s="8" t="s">
         <v>229</v>
@@ -6665,65 +6905,65 @@
         <v>221</v>
       </c>
     </row>
-    <row r="13" spans="1:12" s="10" customFormat="1" ht="210" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" s="10" customFormat="1" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>16</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G13" s="10" t="s">
         <v>198</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I13" s="10" t="s">
         <v>228</v>
       </c>
       <c r="J13" s="10" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="K13" s="10" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="14" spans="1:12" s="10" customFormat="1" ht="210" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" s="10" customFormat="1" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
         <v>214</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>16</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G14" s="10" t="s">
         <v>199</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I14" s="10" t="s">
         <v>228</v>
@@ -6735,66 +6975,66 @@
         <v>221</v>
       </c>
     </row>
-    <row r="15" spans="1:12" s="10" customFormat="1" ht="210" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" s="10" customFormat="1" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
         <v>215</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>16</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G15" s="10" t="s">
         <v>200</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I15" s="10" t="s">
         <v>228</v>
       </c>
       <c r="J15" s="10" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="K15" s="10" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="16" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="1:11" s="8" customFormat="1" ht="210" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="1:11" s="8" customFormat="1" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
         <v>216</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G17" s="8" t="s">
         <v>201</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I17" s="8" t="s">
         <v>229</v>
@@ -6803,65 +7043,65 @@
         <v>221</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="10" customFormat="1" ht="210" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" s="10" customFormat="1" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
         <v>217</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C18" s="10" t="s">
         <v>16</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G18" s="10" t="s">
         <v>202</v>
       </c>
       <c r="H18" s="10" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I18" s="10" t="s">
         <v>228</v>
       </c>
       <c r="J18" s="10" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="K18" s="10" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="10" customFormat="1" ht="210" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" s="10" customFormat="1" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
         <v>218</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C19" s="10" t="s">
         <v>16</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G19" s="10" t="s">
         <v>203</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I19" s="10" t="s">
         <v>228</v>
@@ -6873,30 +7113,30 @@
         <v>221</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="8" customFormat="1" ht="210" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" s="8" customFormat="1" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
         <v>219</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G20" s="8" t="s">
         <v>204</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I20" s="8" t="s">
         <v>229</v>
@@ -6905,30 +7145,30 @@
         <v>221</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="8" customFormat="1" ht="210" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" s="8" customFormat="1" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
         <v>220</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G21" s="8" t="s">
         <v>205</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I21" s="8" t="s">
         <v>229</v>
@@ -6937,143 +7177,143 @@
         <v>221</v>
       </c>
     </row>
-    <row r="22" spans="1:11" s="10" customFormat="1" ht="210" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" s="10" customFormat="1" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
+        <v>478</v>
+      </c>
+      <c r="B22" s="10" t="s">
         <v>479</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>480</v>
       </c>
       <c r="C22" s="10" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E22" s="11" t="s">
+        <v>480</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>480</v>
+      </c>
+      <c r="G22" s="10" t="s">
         <v>481</v>
       </c>
-      <c r="F22" s="11" t="s">
-        <v>481</v>
-      </c>
-      <c r="G22" s="10" t="s">
+      <c r="H22" s="10" t="s">
         <v>482</v>
       </c>
-      <c r="H22" s="10" t="s">
+      <c r="I22" s="10" t="s">
         <v>483</v>
       </c>
-      <c r="I22" s="10" t="s">
+      <c r="J22" s="10" t="s">
         <v>484</v>
-      </c>
-      <c r="J22" s="10" t="s">
-        <v>485</v>
       </c>
       <c r="K22" s="10" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="23" spans="1:11" s="10" customFormat="1" ht="210" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" s="10" customFormat="1" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
+        <v>485</v>
+      </c>
+      <c r="B23" s="10" t="s">
         <v>486</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>487</v>
       </c>
       <c r="C23" s="10" t="s">
         <v>16</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="G23" s="10" t="s">
+        <v>487</v>
+      </c>
+      <c r="H23" s="10" t="s">
         <v>488</v>
       </c>
-      <c r="H23" s="10" t="s">
+      <c r="I23" s="10" t="s">
+        <v>483</v>
+      </c>
+      <c r="J23" s="10" t="s">
         <v>489</v>
-      </c>
-      <c r="I23" s="10" t="s">
-        <v>484</v>
-      </c>
-      <c r="J23" s="10" t="s">
-        <v>490</v>
       </c>
       <c r="K23" s="10" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="24" spans="1:11" s="10" customFormat="1" ht="210" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" s="10" customFormat="1" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C24" s="10" t="s">
         <v>16</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E24" s="11" t="s">
+        <v>492</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>492</v>
+      </c>
+      <c r="G24" s="10" t="s">
         <v>493</v>
       </c>
-      <c r="F24" s="11" t="s">
-        <v>493</v>
-      </c>
-      <c r="G24" s="10" t="s">
+      <c r="H24" s="10" t="s">
         <v>494</v>
       </c>
-      <c r="H24" s="10" t="s">
-        <v>495</v>
-      </c>
       <c r="I24" s="10" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="J24" s="10" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="K24" s="10" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="210" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C25" s="10" t="s">
         <v>16</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E25" s="11" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="10" t="s">
+        <v>570</v>
+      </c>
+      <c r="B26" s="10" t="s">
         <v>571</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="210" x14ac:dyDescent="0.25">
-      <c r="A26" s="10" t="s">
-        <v>572</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>573</v>
       </c>
       <c r="C26" s="10" t="s">
         <v>16</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
   </sheetData>
@@ -7090,42 +7330,42 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.140625" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" customWidth="1"/>
+    <col min="1" max="1" width="26.109375" customWidth="1"/>
+    <col min="2" max="2" width="17.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>306</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" s="16" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="3" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="17"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>307</v>
       </c>
-      <c r="B2" s="16" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="17"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>308</v>
-      </c>
-      <c r="B4" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>309</v>
       </c>
       <c r="B5" s="16">
         <v>1234</v>
@@ -7148,66 +7388,67 @@
   <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:L19"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.7109375" style="15" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.28515625" style="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.7109375" style="15" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.6640625" style="15" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.6640625" style="15" customWidth="1"/>
+    <col min="6" max="6" width="27" style="15" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13" style="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.42578125" style="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.85546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.5703125" style="15" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.5703125" style="15" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="25" style="15" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.85546875" style="15"/>
+    <col min="8" max="8" width="22.88671875" style="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="34.44140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.5546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.5546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="59.77734375" style="15" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="25" style="15" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.88671875" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:13" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="K1" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="L1" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="M1" s="13"/>
-    </row>
-    <row r="2" spans="1:13" ht="137.44999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M1" s="56"/>
+    </row>
+    <row r="2" spans="1:13" ht="137.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="51" t="s">
         <v>240</v>
       </c>
@@ -7221,7 +7462,7 @@
         <v>242</v>
       </c>
       <c r="E2" s="52" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="F2" s="52" t="s">
         <v>243</v>
@@ -7231,22 +7472,22 @@
       </c>
       <c r="H2" s="51"/>
       <c r="I2" s="51" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="J2" s="51" t="s">
         <v>244</v>
       </c>
       <c r="K2" s="51"/>
       <c r="L2" s="51" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="135" x14ac:dyDescent="0.25">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A3" s="51" t="s">
         <v>245</v>
       </c>
       <c r="B3" s="51" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C3" s="51" t="s">
         <v>12</v>
@@ -7255,28 +7496,30 @@
         <v>242</v>
       </c>
       <c r="E3" s="52" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="F3" s="52" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G3" s="51" t="s">
         <v>229</v>
       </c>
       <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
+      <c r="I3" s="51" t="s">
+        <v>574</v>
+      </c>
       <c r="J3" s="51" t="s">
         <v>244</v>
       </c>
       <c r="K3" s="51"/>
       <c r="L3" s="51"/>
     </row>
-    <row r="4" spans="1:13" ht="122.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="122.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="51" t="s">
         <v>247</v>
       </c>
       <c r="B4" s="51" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C4" s="51" t="s">
         <v>12</v>
@@ -7285,7 +7528,7 @@
         <v>242</v>
       </c>
       <c r="E4" s="52" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="F4" s="52" t="s">
         <v>246</v>
@@ -7294,14 +7537,16 @@
         <v>229</v>
       </c>
       <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
+      <c r="I4" s="51" t="s">
+        <v>574</v>
+      </c>
       <c r="J4" s="51" t="s">
         <v>244</v>
       </c>
       <c r="K4" s="51"/>
       <c r="L4" s="51"/>
     </row>
-    <row r="5" spans="1:13" ht="135" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A5" s="51" t="s">
         <v>250</v>
       </c>
@@ -7315,7 +7560,7 @@
         <v>242</v>
       </c>
       <c r="E5" s="52" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="F5" s="52" t="s">
         <v>249</v>
@@ -7324,14 +7569,16 @@
         <v>229</v>
       </c>
       <c r="H5" s="51"/>
-      <c r="I5" s="51"/>
+      <c r="I5" s="51" t="s">
+        <v>574</v>
+      </c>
       <c r="J5" s="51" t="s">
         <v>244</v>
       </c>
       <c r="K5" s="51"/>
       <c r="L5" s="51"/>
     </row>
-    <row r="6" spans="1:13" ht="150" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="144" x14ac:dyDescent="0.3">
       <c r="A6" s="53" t="s">
         <v>253</v>
       </c>
@@ -7345,23 +7592,27 @@
         <v>242</v>
       </c>
       <c r="E6" s="54" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F6" s="54" t="s">
         <v>252</v>
       </c>
       <c r="G6" s="53" t="s">
-        <v>372</v>
-      </c>
-      <c r="H6" s="53"/>
-      <c r="I6" s="53"/>
+        <v>371</v>
+      </c>
+      <c r="H6" s="55" t="s">
+        <v>575</v>
+      </c>
+      <c r="I6" s="54" t="s">
+        <v>576</v>
+      </c>
       <c r="J6" s="53" t="s">
         <v>244</v>
       </c>
       <c r="K6" s="53"/>
       <c r="L6" s="53"/>
     </row>
-    <row r="7" spans="1:13" ht="150" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="144" x14ac:dyDescent="0.3">
       <c r="A7" s="51" t="s">
         <v>256</v>
       </c>
@@ -7375,7 +7626,7 @@
         <v>242</v>
       </c>
       <c r="E7" s="52" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="F7" s="52" t="s">
         <v>255</v>
@@ -7384,14 +7635,16 @@
         <v>229</v>
       </c>
       <c r="H7" s="51"/>
-      <c r="I7" s="51"/>
+      <c r="I7" s="51" t="s">
+        <v>577</v>
+      </c>
       <c r="J7" s="51" t="s">
         <v>244</v>
       </c>
       <c r="K7" s="51"/>
       <c r="L7" s="51"/>
     </row>
-    <row r="8" spans="1:13" ht="165" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A8" s="51" t="s">
         <v>259</v>
       </c>
@@ -7405,7 +7658,7 @@
         <v>242</v>
       </c>
       <c r="E8" s="52" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="F8" s="52" t="s">
         <v>258</v>
@@ -7414,14 +7667,16 @@
         <v>229</v>
       </c>
       <c r="H8" s="51"/>
-      <c r="I8" s="51"/>
+      <c r="I8" s="51" t="s">
+        <v>577</v>
+      </c>
       <c r="J8" s="51" t="s">
         <v>244</v>
       </c>
       <c r="K8" s="51"/>
       <c r="L8" s="51"/>
     </row>
-    <row r="9" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A9" s="51" t="s">
         <v>262</v>
       </c>
@@ -7435,7 +7690,7 @@
         <v>242</v>
       </c>
       <c r="E9" s="52" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="F9" s="52" t="s">
         <v>261</v>
@@ -7444,14 +7699,16 @@
         <v>229</v>
       </c>
       <c r="H9" s="51"/>
-      <c r="I9" s="51"/>
+      <c r="I9" s="51" t="s">
+        <v>578</v>
+      </c>
       <c r="J9" s="51" t="s">
         <v>244</v>
       </c>
       <c r="K9" s="51"/>
       <c r="L9" s="51"/>
     </row>
-    <row r="10" spans="1:13" ht="150" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="144" x14ac:dyDescent="0.3">
       <c r="A10" s="51" t="s">
         <v>265</v>
       </c>
@@ -7465,7 +7722,7 @@
         <v>242</v>
       </c>
       <c r="E10" s="52" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="F10" s="52" t="s">
         <v>264</v>
@@ -7474,16 +7731,18 @@
         <v>229</v>
       </c>
       <c r="H10" s="51"/>
-      <c r="I10" s="51"/>
+      <c r="I10" s="51" t="s">
+        <v>579</v>
+      </c>
       <c r="J10" s="51" t="s">
         <v>244</v>
       </c>
       <c r="K10" s="51"/>
       <c r="L10" s="51"/>
     </row>
-    <row r="11" spans="1:13" ht="165" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="144" x14ac:dyDescent="0.3">
       <c r="A11" s="51" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B11" s="52" t="s">
         <v>266</v>
@@ -7495,28 +7754,30 @@
         <v>242</v>
       </c>
       <c r="E11" s="52" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F11" s="52" t="s">
-        <v>267</v>
+        <v>580</v>
       </c>
       <c r="G11" s="51" t="s">
         <v>229</v>
       </c>
       <c r="H11" s="51"/>
-      <c r="I11" s="51"/>
+      <c r="I11" s="51" t="s">
+        <v>580</v>
+      </c>
       <c r="J11" s="51" t="s">
         <v>244</v>
       </c>
       <c r="K11" s="51"/>
       <c r="L11" s="51"/>
     </row>
-    <row r="12" spans="1:13" ht="165" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="144" x14ac:dyDescent="0.3">
       <c r="A12" s="51" t="s">
+        <v>268</v>
+      </c>
+      <c r="B12" s="52" t="s">
         <v>269</v>
-      </c>
-      <c r="B12" s="52" t="s">
-        <v>270</v>
       </c>
       <c r="C12" s="51" t="s">
         <v>12</v>
@@ -7525,28 +7786,30 @@
         <v>242</v>
       </c>
       <c r="E12" s="52" t="s">
+        <v>557</v>
+      </c>
+      <c r="F12" s="52" t="s">
         <v>558</v>
-      </c>
-      <c r="F12" s="52" t="s">
-        <v>559</v>
       </c>
       <c r="G12" s="51" t="s">
         <v>229</v>
       </c>
       <c r="H12" s="51"/>
-      <c r="I12" s="51"/>
+      <c r="I12" s="51" t="s">
+        <v>580</v>
+      </c>
       <c r="J12" s="51" t="s">
         <v>244</v>
       </c>
       <c r="K12" s="51"/>
       <c r="L12" s="51"/>
     </row>
-    <row r="13" spans="1:13" ht="165" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="144" x14ac:dyDescent="0.3">
       <c r="A13" s="53" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B13" s="54" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C13" s="53" t="s">
         <v>12</v>
@@ -7555,31 +7818,32 @@
         <v>242</v>
       </c>
       <c r="E13" s="54" t="s">
-        <v>560</v>
+        <v>581</v>
       </c>
       <c r="F13" s="54" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="G13" s="53" t="s">
-        <v>372</v>
-      </c>
-      <c r="H13" s="53"/>
-      <c r="I13" s="53"/>
+        <v>371</v>
+      </c>
+      <c r="H13" s="55" t="s">
+        <v>582</v>
+      </c>
+      <c r="I13" s="53" t="s">
+        <v>583</v>
+      </c>
       <c r="J13" s="53" t="s">
         <v>244</v>
       </c>
       <c r="K13" s="53"/>
       <c r="L13" s="53"/>
-      <c r="M13" s="15" t="s">
+    </row>
+    <row r="14" spans="1:13" ht="141" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="51" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" ht="141" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="51" t="s">
-        <v>275</v>
-      </c>
       <c r="B14" s="51" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C14" s="51" t="s">
         <v>12</v>
@@ -7588,30 +7852,32 @@
         <v>242</v>
       </c>
       <c r="E14" s="52" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="F14" s="52" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G14" s="51" t="s">
         <v>229</v>
       </c>
       <c r="H14" s="51"/>
-      <c r="I14" s="51"/>
+      <c r="I14" s="51" t="s">
+        <v>584</v>
+      </c>
       <c r="J14" s="51" t="s">
         <v>244</v>
       </c>
       <c r="K14" s="51"/>
       <c r="L14" s="51" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="165" x14ac:dyDescent="0.25">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A15" s="51" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B15" s="51" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C15" s="51" t="s">
         <v>12</v>
@@ -7620,28 +7886,30 @@
         <v>242</v>
       </c>
       <c r="E15" s="52" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="F15" s="52" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G15" s="51" t="s">
         <v>229</v>
       </c>
       <c r="H15" s="51"/>
-      <c r="I15" s="51"/>
+      <c r="I15" s="51" t="s">
+        <v>585</v>
+      </c>
       <c r="J15" s="51" t="s">
         <v>244</v>
       </c>
       <c r="K15" s="51"/>
       <c r="L15" s="51"/>
     </row>
-    <row r="16" spans="1:13" ht="165" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="144" x14ac:dyDescent="0.3">
       <c r="A16" s="53" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B16" s="53" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C16" s="53" t="s">
         <v>12</v>
@@ -7650,28 +7918,32 @@
         <v>242</v>
       </c>
       <c r="E16" s="54" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="F16" s="54" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G16" s="53" t="s">
-        <v>372</v>
-      </c>
-      <c r="H16" s="53"/>
-      <c r="I16" s="53"/>
+        <v>371</v>
+      </c>
+      <c r="H16" s="55" t="s">
+        <v>586</v>
+      </c>
+      <c r="I16" s="53" t="s">
+        <v>587</v>
+      </c>
       <c r="J16" s="53" t="s">
         <v>244</v>
       </c>
       <c r="K16" s="53"/>
       <c r="L16" s="53"/>
     </row>
-    <row r="17" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="144" x14ac:dyDescent="0.3">
       <c r="A17" s="51" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B17" s="52" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C17" s="51" t="s">
         <v>12</v>
@@ -7680,28 +7952,30 @@
         <v>242</v>
       </c>
       <c r="E17" s="52" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="F17" s="52" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="G17" s="51" t="s">
         <v>229</v>
       </c>
       <c r="H17" s="51"/>
-      <c r="I17" s="51"/>
+      <c r="I17" s="51" t="s">
+        <v>588</v>
+      </c>
       <c r="J17" s="51" t="s">
         <v>244</v>
       </c>
       <c r="K17" s="51"/>
       <c r="L17" s="51"/>
     </row>
-    <row r="18" spans="1:12" ht="195" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A18" s="51" t="s">
+        <v>346</v>
+      </c>
+      <c r="B18" s="52" t="s">
         <v>347</v>
-      </c>
-      <c r="B18" s="52" t="s">
-        <v>348</v>
       </c>
       <c r="C18" s="51" t="s">
         <v>12</v>
@@ -7710,28 +7984,30 @@
         <v>242</v>
       </c>
       <c r="E18" s="52" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="F18" s="52" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G18" s="51" t="s">
         <v>229</v>
       </c>
       <c r="H18" s="51"/>
-      <c r="I18" s="51"/>
+      <c r="I18" s="51" t="s">
+        <v>589</v>
+      </c>
       <c r="J18" s="51" t="s">
         <v>244</v>
       </c>
       <c r="K18" s="51"/>
       <c r="L18" s="51"/>
     </row>
-    <row r="19" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A19" s="51" t="s">
+        <v>348</v>
+      </c>
+      <c r="B19" s="51" t="s">
         <v>349</v>
-      </c>
-      <c r="B19" s="51" t="s">
-        <v>350</v>
       </c>
       <c r="C19" s="51" t="s">
         <v>12</v>
@@ -7740,16 +8016,18 @@
         <v>242</v>
       </c>
       <c r="E19" s="52" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="F19" s="52" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G19" s="51" t="s">
         <v>229</v>
       </c>
       <c r="H19" s="51"/>
-      <c r="I19" s="51"/>
+      <c r="I19" s="51" t="s">
+        <v>574</v>
+      </c>
       <c r="J19" s="51" t="s">
         <v>244</v>
       </c>

--- a/Testing/Test Cases/TAWA_TestCases.xlsx
+++ b/Testing/Test Cases/TAWA_TestCases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="ReservedTrips" sheetId="6" r:id="rId1"/>
@@ -18,12 +18,12 @@
     <sheet name="Booking" sheetId="5" r:id="rId9"/>
     <sheet name="Logout" sheetId="3" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1360" uniqueCount="648">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1360" uniqueCount="649">
   <si>
     <t>ID</t>
   </si>
@@ -2287,9 +2287,6 @@
     <t>TAWA_BOOKING_BUG_01</t>
   </si>
   <si>
-    <t>card number field exists anyway</t>
-  </si>
-  <si>
     <t>user can not choose more than one type</t>
   </si>
   <si>
@@ -2313,9 +2310,6 @@
     <t>TAWA_BOOKING_BUG_02</t>
   </si>
   <si>
-    <t>field accept negative</t>
-  </si>
-  <si>
     <t>message appeared</t>
   </si>
   <si>
@@ -2547,12 +2541,24 @@
   <si>
     <t>User redirected to homepage successfully</t>
   </si>
+  <si>
+    <t>Solved</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> card number field exists anyway
+Update: card number only appears when 
+user chooses debit card option</t>
+  </si>
+  <si>
+    <t>field accept negative
+UPDATE: field doesn't accept negative</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2609,8 +2615,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2661,6 +2674,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -2716,13 +2734,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -2886,11 +2905,21 @@
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="Bad" xfId="3" builtinId="27"/>
     <cellStyle name="Good" xfId="2" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Neutral" xfId="4" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3198,7 +3227,7 @@
   </sheetPr>
   <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
@@ -3260,29 +3289,29 @@
     </row>
     <row r="2" spans="1:13" ht="72" x14ac:dyDescent="0.3">
       <c r="A2" s="57" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="B2" s="58" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="C2" s="57" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="58" t="s">
+        <v>613</v>
+      </c>
+      <c r="E2" s="58" t="s">
+        <v>614</v>
+      </c>
+      <c r="F2" s="58" t="s">
         <v>615</v>
       </c>
-      <c r="E2" s="58" t="s">
-        <v>616</v>
-      </c>
-      <c r="F2" s="58" t="s">
-        <v>617</v>
-      </c>
       <c r="G2" s="57" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="H2" s="57"/>
       <c r="I2" s="57" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="J2" s="57" t="s">
         <v>244</v>
@@ -3292,29 +3321,29 @@
     </row>
     <row r="3" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="57" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="B3" s="58" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="C3" s="57" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="58" t="s">
+        <v>619</v>
+      </c>
+      <c r="E3" s="58" t="s">
+        <v>620</v>
+      </c>
+      <c r="F3" s="57" t="s">
         <v>621</v>
       </c>
-      <c r="E3" s="58" t="s">
-        <v>622</v>
-      </c>
-      <c r="F3" s="57" t="s">
-        <v>623</v>
-      </c>
       <c r="G3" s="57" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="H3" s="57"/>
       <c r="I3" s="57" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="J3" s="57" t="s">
         <v>244</v>
@@ -3324,63 +3353,63 @@
     </row>
     <row r="4" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="57" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B4" s="58" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="C4" s="57" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="58" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="E4" s="58" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="F4" s="58" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G4" s="57" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="H4" s="57"/>
       <c r="I4" s="57" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="J4" s="57" t="s">
         <v>244</v>
       </c>
       <c r="K4" s="57"/>
       <c r="L4" s="57" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A5" s="57" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="B5" s="57" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="C5" s="57" t="s">
         <v>12</v>
       </c>
       <c r="D5" s="58" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="E5" s="58" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="F5" s="58" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="G5" s="57" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="H5" s="57"/>
       <c r="I5" s="57" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="J5" s="57" t="s">
         <v>244</v>
@@ -3390,29 +3419,29 @@
     </row>
     <row r="6" spans="1:13" ht="72" x14ac:dyDescent="0.3">
       <c r="A6" s="57" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="B6" s="57" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="C6" s="57" t="s">
         <v>12</v>
       </c>
       <c r="D6" s="58" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="E6" s="58" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="F6" s="58" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="G6" s="57" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="H6" s="57"/>
       <c r="I6" s="58" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="J6" s="57" t="s">
         <v>244</v>
@@ -3422,29 +3451,29 @@
     </row>
     <row r="7" spans="1:13" ht="72" x14ac:dyDescent="0.3">
       <c r="A7" s="57" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="B7" s="58" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="C7" s="57" t="s">
         <v>12</v>
       </c>
       <c r="D7" s="58" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="E7" s="58" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="F7" s="58" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="G7" s="57" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="H7" s="57"/>
       <c r="I7" s="58" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="J7" s="57" t="s">
         <v>244</v>
@@ -3454,29 +3483,29 @@
     </row>
     <row r="8" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A8" s="57" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B8" s="57" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="C8" s="57" t="s">
         <v>12</v>
       </c>
       <c r="D8" s="58" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="E8" s="58" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="F8" s="57" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="G8" s="57" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="H8" s="57"/>
       <c r="I8" s="57" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="J8" s="57" t="s">
         <v>244</v>
@@ -4515,29 +4544,29 @@
     </row>
     <row r="2" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A2" s="57" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B2" s="57" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="C2" s="57" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="58" t="s">
+        <v>590</v>
+      </c>
+      <c r="E2" s="58" t="s">
+        <v>591</v>
+      </c>
+      <c r="F2" s="58" t="s">
         <v>592</v>
       </c>
-      <c r="E2" s="58" t="s">
+      <c r="G2" s="57" t="s">
         <v>593</v>
-      </c>
-      <c r="F2" s="58" t="s">
-        <v>594</v>
-      </c>
-      <c r="G2" s="57" t="s">
-        <v>595</v>
       </c>
       <c r="H2" s="57"/>
       <c r="I2" s="57" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="J2" s="57" t="s">
         <v>244</v>
@@ -4546,31 +4575,31 @@
     </row>
     <row r="3" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A3" s="59" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="B3" s="59" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="C3" s="59" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="60" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="E3" s="60" t="s">
+        <v>597</v>
+      </c>
+      <c r="F3" s="60" t="s">
+        <v>598</v>
+      </c>
+      <c r="G3" s="59" t="s">
         <v>599</v>
-      </c>
-      <c r="F3" s="60" t="s">
-        <v>600</v>
-      </c>
-      <c r="G3" s="59" t="s">
-        <v>601</v>
       </c>
       <c r="H3" s="55" t="s">
         <v>575</v>
       </c>
       <c r="I3" s="59" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="J3" s="59" t="s">
         <v>244</v>
@@ -4579,29 +4608,29 @@
     </row>
     <row r="4" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="57" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="B4" s="57" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="C4" s="57" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="58" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="E4" s="58" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="F4" s="58" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="G4" s="57" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="H4" s="57"/>
       <c r="I4" s="57" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="J4" s="57" t="s">
         <v>244</v>
@@ -4610,29 +4639,29 @@
     </row>
     <row r="5" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A5" s="57" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B5" s="57" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="C5" s="57" t="s">
         <v>12</v>
       </c>
       <c r="D5" s="58" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="E5" s="58" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="F5" s="58" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="G5" s="57" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="H5" s="57"/>
       <c r="I5" s="57" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="J5" s="57" t="s">
         <v>244</v>
@@ -7387,8 +7416,8 @@
   </sheetPr>
   <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7579,38 +7608,38 @@
       <c r="L5" s="51"/>
     </row>
     <row r="6" spans="1:13" ht="144" x14ac:dyDescent="0.3">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="61" t="s">
         <v>253</v>
       </c>
-      <c r="B6" s="53" t="s">
+      <c r="B6" s="61" t="s">
         <v>251</v>
       </c>
-      <c r="C6" s="53" t="s">
+      <c r="C6" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="54" t="s">
+      <c r="D6" s="62" t="s">
         <v>242</v>
       </c>
-      <c r="E6" s="54" t="s">
+      <c r="E6" s="62" t="s">
         <v>551</v>
       </c>
-      <c r="F6" s="54" t="s">
+      <c r="F6" s="62" t="s">
         <v>252</v>
       </c>
-      <c r="G6" s="53" t="s">
-        <v>371</v>
-      </c>
-      <c r="H6" s="55" t="s">
+      <c r="G6" s="61" t="s">
+        <v>646</v>
+      </c>
+      <c r="H6" s="63" t="s">
         <v>575</v>
       </c>
-      <c r="I6" s="54" t="s">
-        <v>576</v>
-      </c>
-      <c r="J6" s="53" t="s">
+      <c r="I6" s="62" t="s">
+        <v>647</v>
+      </c>
+      <c r="J6" s="61" t="s">
         <v>244</v>
       </c>
-      <c r="K6" s="53"/>
-      <c r="L6" s="53"/>
+      <c r="K6" s="61"/>
+      <c r="L6" s="61"/>
     </row>
     <row r="7" spans="1:13" ht="144" x14ac:dyDescent="0.3">
       <c r="A7" s="51" t="s">
@@ -7636,7 +7665,7 @@
       </c>
       <c r="H7" s="51"/>
       <c r="I7" s="51" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="J7" s="51" t="s">
         <v>244</v>
@@ -7668,7 +7697,7 @@
       </c>
       <c r="H8" s="51"/>
       <c r="I8" s="51" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="J8" s="51" t="s">
         <v>244</v>
@@ -7700,7 +7729,7 @@
       </c>
       <c r="H9" s="51"/>
       <c r="I9" s="51" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="J9" s="51" t="s">
         <v>244</v>
@@ -7732,7 +7761,7 @@
       </c>
       <c r="H10" s="51"/>
       <c r="I10" s="51" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="J10" s="51" t="s">
         <v>244</v>
@@ -7757,14 +7786,14 @@
         <v>556</v>
       </c>
       <c r="F11" s="52" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="G11" s="51" t="s">
         <v>229</v>
       </c>
       <c r="H11" s="51"/>
       <c r="I11" s="51" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="J11" s="51" t="s">
         <v>244</v>
@@ -7796,7 +7825,7 @@
       </c>
       <c r="H12" s="51"/>
       <c r="I12" s="51" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="J12" s="51" t="s">
         <v>244</v>
@@ -7805,38 +7834,38 @@
       <c r="L12" s="51"/>
     </row>
     <row r="13" spans="1:13" ht="144" x14ac:dyDescent="0.3">
-      <c r="A13" s="53" t="s">
+      <c r="A13" s="61" t="s">
         <v>270</v>
       </c>
-      <c r="B13" s="54" t="s">
+      <c r="B13" s="62" t="s">
         <v>573</v>
       </c>
-      <c r="C13" s="53" t="s">
+      <c r="C13" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="54" t="s">
+      <c r="D13" s="62" t="s">
         <v>242</v>
       </c>
-      <c r="E13" s="54" t="s">
+      <c r="E13" s="62" t="s">
+        <v>580</v>
+      </c>
+      <c r="F13" s="62" t="s">
+        <v>559</v>
+      </c>
+      <c r="G13" s="61" t="s">
+        <v>646</v>
+      </c>
+      <c r="H13" s="63" t="s">
         <v>581</v>
       </c>
-      <c r="F13" s="54" t="s">
-        <v>559</v>
-      </c>
-      <c r="G13" s="53" t="s">
-        <v>371</v>
-      </c>
-      <c r="H13" s="55" t="s">
-        <v>582</v>
-      </c>
-      <c r="I13" s="53" t="s">
-        <v>583</v>
-      </c>
-      <c r="J13" s="53" t="s">
+      <c r="I13" s="62" t="s">
+        <v>648</v>
+      </c>
+      <c r="J13" s="61" t="s">
         <v>244</v>
       </c>
-      <c r="K13" s="53"/>
-      <c r="L13" s="53"/>
+      <c r="K13" s="61"/>
+      <c r="L13" s="61"/>
     </row>
     <row r="14" spans="1:13" ht="141" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="51" t="s">
@@ -7862,7 +7891,7 @@
       </c>
       <c r="H14" s="51"/>
       <c r="I14" s="51" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="J14" s="51" t="s">
         <v>244</v>
@@ -7896,7 +7925,7 @@
       </c>
       <c r="H15" s="51"/>
       <c r="I15" s="51" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="J15" s="51" t="s">
         <v>244</v>
@@ -7927,10 +7956,10 @@
         <v>371</v>
       </c>
       <c r="H16" s="55" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="I16" s="53" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="J16" s="53" t="s">
         <v>244</v>
@@ -7962,7 +7991,7 @@
       </c>
       <c r="H17" s="51"/>
       <c r="I17" s="51" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="J17" s="51" t="s">
         <v>244</v>
@@ -7994,7 +8023,7 @@
       </c>
       <c r="H18" s="51"/>
       <c r="I18" s="51" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="J18" s="51" t="s">
         <v>244</v>

--- a/Testing/Test Cases/TAWA_TestCases.xlsx
+++ b/Testing/Test Cases/TAWA_TestCases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="ReservedTrips" sheetId="6" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1360" uniqueCount="649">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1386" uniqueCount="652">
   <si>
     <t>ID</t>
   </si>
@@ -2552,6 +2552,15 @@
   <si>
     <t>field accept negative
 UPDATE: field doesn't accept negative</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maysoon Magdy </t>
+  </si>
+  <si>
+    <t>Maysoon Magdy</t>
   </si>
 </sst>
 </file>
@@ -3227,8 +3236,8 @@
   </sheetPr>
   <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2:K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3316,7 +3325,9 @@
       <c r="J2" s="57" t="s">
         <v>244</v>
       </c>
-      <c r="K2" s="57"/>
+      <c r="K2" s="57" t="s">
+        <v>651</v>
+      </c>
       <c r="L2" s="57"/>
     </row>
     <row r="3" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
@@ -3348,7 +3359,9 @@
       <c r="J3" s="57" t="s">
         <v>244</v>
       </c>
-      <c r="K3" s="57"/>
+      <c r="K3" s="57" t="s">
+        <v>651</v>
+      </c>
       <c r="L3" s="57"/>
     </row>
     <row r="4" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
@@ -3380,7 +3393,9 @@
       <c r="J4" s="57" t="s">
         <v>244</v>
       </c>
-      <c r="K4" s="57"/>
+      <c r="K4" s="57" t="s">
+        <v>651</v>
+      </c>
       <c r="L4" s="57" t="s">
         <v>627</v>
       </c>
@@ -3414,7 +3429,9 @@
       <c r="J5" s="57" t="s">
         <v>244</v>
       </c>
-      <c r="K5" s="57"/>
+      <c r="K5" s="57" t="s">
+        <v>651</v>
+      </c>
       <c r="L5" s="57"/>
     </row>
     <row r="6" spans="1:13" ht="72" x14ac:dyDescent="0.3">
@@ -3446,7 +3463,9 @@
       <c r="J6" s="57" t="s">
         <v>244</v>
       </c>
-      <c r="K6" s="57"/>
+      <c r="K6" s="57" t="s">
+        <v>651</v>
+      </c>
       <c r="L6" s="57"/>
     </row>
     <row r="7" spans="1:13" ht="72" x14ac:dyDescent="0.3">
@@ -3478,7 +3497,9 @@
       <c r="J7" s="57" t="s">
         <v>244</v>
       </c>
-      <c r="K7" s="57"/>
+      <c r="K7" s="57" t="s">
+        <v>651</v>
+      </c>
       <c r="L7" s="57"/>
     </row>
     <row r="8" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
@@ -3510,7 +3531,9 @@
       <c r="J8" s="57" t="s">
         <v>244</v>
       </c>
-      <c r="K8" s="57"/>
+      <c r="K8" s="57" t="s">
+        <v>651</v>
+      </c>
       <c r="L8" s="57"/>
     </row>
   </sheetData>
@@ -7416,8 +7439,8 @@
   </sheetPr>
   <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7432,8 +7455,7 @@
     <col min="8" max="8" width="22.88671875" style="15" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="34.44140625" style="15" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.5546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.5546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="59.77734375" style="15" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="59.77734375" style="15" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="25" style="15" bestFit="1" customWidth="1"/>
     <col min="14" max="16384" width="8.88671875" style="15"/>
   </cols>
@@ -7470,12 +7492,14 @@
         <v>49</v>
       </c>
       <c r="K1" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="L1" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="L1" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="M1" s="56"/>
+      <c r="M1" s="56" t="s">
+        <v>649</v>
+      </c>
     </row>
     <row r="2" spans="1:13" ht="137.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="51" t="s">
@@ -7506,10 +7530,13 @@
       <c r="J2" s="51" t="s">
         <v>244</v>
       </c>
-      <c r="K2" s="51"/>
+      <c r="K2" s="51" t="s">
+        <v>547</v>
+      </c>
       <c r="L2" s="51" t="s">
-        <v>547</v>
-      </c>
+        <v>650</v>
+      </c>
+      <c r="M2" s="51"/>
     </row>
     <row r="3" spans="1:13" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A3" s="51" t="s">
@@ -7541,7 +7568,10 @@
         <v>244</v>
       </c>
       <c r="K3" s="51"/>
-      <c r="L3" s="51"/>
+      <c r="L3" s="51" t="s">
+        <v>650</v>
+      </c>
+      <c r="M3" s="51"/>
     </row>
     <row r="4" spans="1:13" ht="122.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="51" t="s">
@@ -7573,7 +7603,10 @@
         <v>244</v>
       </c>
       <c r="K4" s="51"/>
-      <c r="L4" s="51"/>
+      <c r="L4" s="51" t="s">
+        <v>650</v>
+      </c>
+      <c r="M4" s="51"/>
     </row>
     <row r="5" spans="1:13" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A5" s="51" t="s">
@@ -7605,7 +7638,10 @@
         <v>244</v>
       </c>
       <c r="K5" s="51"/>
-      <c r="L5" s="51"/>
+      <c r="L5" s="51" t="s">
+        <v>650</v>
+      </c>
+      <c r="M5" s="51"/>
     </row>
     <row r="6" spans="1:13" ht="144" x14ac:dyDescent="0.3">
       <c r="A6" s="61" t="s">
@@ -7639,7 +7675,10 @@
         <v>244</v>
       </c>
       <c r="K6" s="61"/>
-      <c r="L6" s="61"/>
+      <c r="L6" s="61" t="s">
+        <v>650</v>
+      </c>
+      <c r="M6" s="61"/>
     </row>
     <row r="7" spans="1:13" ht="144" x14ac:dyDescent="0.3">
       <c r="A7" s="51" t="s">
@@ -7671,7 +7710,10 @@
         <v>244</v>
       </c>
       <c r="K7" s="51"/>
-      <c r="L7" s="51"/>
+      <c r="L7" s="51" t="s">
+        <v>650</v>
+      </c>
+      <c r="M7" s="51"/>
     </row>
     <row r="8" spans="1:13" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A8" s="51" t="s">
@@ -7703,7 +7745,10 @@
         <v>244</v>
       </c>
       <c r="K8" s="51"/>
-      <c r="L8" s="51"/>
+      <c r="L8" s="51" t="s">
+        <v>650</v>
+      </c>
+      <c r="M8" s="51"/>
     </row>
     <row r="9" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A9" s="51" t="s">
@@ -7735,7 +7780,10 @@
         <v>244</v>
       </c>
       <c r="K9" s="51"/>
-      <c r="L9" s="51"/>
+      <c r="L9" s="51" t="s">
+        <v>650</v>
+      </c>
+      <c r="M9" s="51"/>
     </row>
     <row r="10" spans="1:13" ht="144" x14ac:dyDescent="0.3">
       <c r="A10" s="51" t="s">
@@ -7767,7 +7815,10 @@
         <v>244</v>
       </c>
       <c r="K10" s="51"/>
-      <c r="L10" s="51"/>
+      <c r="L10" s="51" t="s">
+        <v>650</v>
+      </c>
+      <c r="M10" s="51"/>
     </row>
     <row r="11" spans="1:13" ht="144" x14ac:dyDescent="0.3">
       <c r="A11" s="51" t="s">
@@ -7799,7 +7850,10 @@
         <v>244</v>
       </c>
       <c r="K11" s="51"/>
-      <c r="L11" s="51"/>
+      <c r="L11" s="51" t="s">
+        <v>650</v>
+      </c>
+      <c r="M11" s="51"/>
     </row>
     <row r="12" spans="1:13" ht="144" x14ac:dyDescent="0.3">
       <c r="A12" s="51" t="s">
@@ -7831,7 +7885,10 @@
         <v>244</v>
       </c>
       <c r="K12" s="51"/>
-      <c r="L12" s="51"/>
+      <c r="L12" s="51" t="s">
+        <v>650</v>
+      </c>
+      <c r="M12" s="51"/>
     </row>
     <row r="13" spans="1:13" ht="144" x14ac:dyDescent="0.3">
       <c r="A13" s="61" t="s">
@@ -7865,7 +7922,10 @@
         <v>244</v>
       </c>
       <c r="K13" s="61"/>
-      <c r="L13" s="61"/>
+      <c r="L13" s="61" t="s">
+        <v>650</v>
+      </c>
+      <c r="M13" s="61"/>
     </row>
     <row r="14" spans="1:13" ht="141" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="51" t="s">
@@ -7896,10 +7956,13 @@
       <c r="J14" s="51" t="s">
         <v>244</v>
       </c>
-      <c r="K14" s="51"/>
+      <c r="K14" s="51" t="s">
+        <v>273</v>
+      </c>
       <c r="L14" s="51" t="s">
-        <v>273</v>
-      </c>
+        <v>650</v>
+      </c>
+      <c r="M14" s="51"/>
     </row>
     <row r="15" spans="1:13" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A15" s="51" t="s">
@@ -7931,7 +7994,10 @@
         <v>244</v>
       </c>
       <c r="K15" s="51"/>
-      <c r="L15" s="51"/>
+      <c r="L15" s="51" t="s">
+        <v>650</v>
+      </c>
+      <c r="M15" s="51"/>
     </row>
     <row r="16" spans="1:13" ht="144" x14ac:dyDescent="0.3">
       <c r="A16" s="53" t="s">
@@ -7965,9 +8031,12 @@
         <v>244</v>
       </c>
       <c r="K16" s="53"/>
-      <c r="L16" s="53"/>
-    </row>
-    <row r="17" spans="1:12" ht="144" x14ac:dyDescent="0.3">
+      <c r="L16" s="53" t="s">
+        <v>650</v>
+      </c>
+      <c r="M16" s="53"/>
+    </row>
+    <row r="17" spans="1:13" ht="144" x14ac:dyDescent="0.3">
       <c r="A17" s="51" t="s">
         <v>282</v>
       </c>
@@ -7997,9 +8066,12 @@
         <v>244</v>
       </c>
       <c r="K17" s="51"/>
-      <c r="L17" s="51"/>
-    </row>
-    <row r="18" spans="1:12" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="L17" s="51" t="s">
+        <v>650</v>
+      </c>
+      <c r="M17" s="51"/>
+    </row>
+    <row r="18" spans="1:13" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A18" s="51" t="s">
         <v>346</v>
       </c>
@@ -8029,9 +8101,12 @@
         <v>244</v>
       </c>
       <c r="K18" s="51"/>
-      <c r="L18" s="51"/>
-    </row>
-    <row r="19" spans="1:12" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="L18" s="51" t="s">
+        <v>650</v>
+      </c>
+      <c r="M18" s="51"/>
+    </row>
+    <row r="19" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A19" s="51" t="s">
         <v>348</v>
       </c>
@@ -8061,11 +8136,14 @@
         <v>244</v>
       </c>
       <c r="K19" s="51"/>
-      <c r="L19" s="51"/>
+      <c r="L19" s="51" t="s">
+        <v>650</v>
+      </c>
+      <c r="M19" s="51"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="L2" r:id="rId1"/>
+    <hyperlink ref="K2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Testing/Test Cases/TAWA_TestCases.xlsx
+++ b/Testing/Test Cases/TAWA_TestCases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="ReservedTrips" sheetId="6" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1386" uniqueCount="652">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1390" uniqueCount="652">
   <si>
     <t>ID</t>
   </si>
@@ -3236,7 +3236,7 @@
   </sheetPr>
   <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="K2" sqref="K2:K8"/>
     </sheetView>
   </sheetViews>
@@ -4511,8 +4511,8 @@
   </sheetPr>
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4527,7 +4527,7 @@
     <col min="8" max="8" width="22.88671875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="32.21875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="42" x14ac:dyDescent="0.3">
@@ -4594,7 +4594,9 @@
       <c r="J2" s="57" t="s">
         <v>244</v>
       </c>
-      <c r="K2" s="14"/>
+      <c r="K2" s="57" t="s">
+        <v>651</v>
+      </c>
     </row>
     <row r="3" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A3" s="59" t="s">
@@ -4627,7 +4629,9 @@
       <c r="J3" s="59" t="s">
         <v>244</v>
       </c>
-      <c r="K3" s="14"/>
+      <c r="K3" s="59" t="s">
+        <v>651</v>
+      </c>
     </row>
     <row r="4" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="57" t="s">
@@ -4658,7 +4662,9 @@
       <c r="J4" s="57" t="s">
         <v>244</v>
       </c>
-      <c r="K4" s="14"/>
+      <c r="K4" s="57" t="s">
+        <v>651</v>
+      </c>
     </row>
     <row r="5" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A5" s="57" t="s">
@@ -4689,7 +4695,9 @@
       <c r="J5" s="57" t="s">
         <v>244</v>
       </c>
-      <c r="K5" s="14"/>
+      <c r="K5" s="57" t="s">
+        <v>651</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Testing/Test Cases/TAWA_TestCases.xlsx
+++ b/Testing/Test Cases/TAWA_TestCases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ReservedTrips" sheetId="6" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1390" uniqueCount="652">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1421" uniqueCount="660">
   <si>
     <t>ID</t>
   </si>
@@ -2561,6 +2561,30 @@
   </si>
   <si>
     <t>Maysoon Magdy</t>
+  </si>
+  <si>
+    <t>Missing SRS and actual result</t>
+  </si>
+  <si>
+    <t>Missing SRS, status and actual result</t>
+  </si>
+  <si>
+    <t>Missing bug ID</t>
+  </si>
+  <si>
+    <t>Many fields are missed</t>
+  </si>
+  <si>
+    <t>Missig bug id</t>
+  </si>
+  <si>
+    <t>Missing SRS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mahmoud Yasser </t>
+  </si>
+  <si>
+    <t>Missing bug id</t>
   </si>
 </sst>
 </file>
@@ -2691,7 +2715,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -2742,6 +2766,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2750,7 +2794,7 @@
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -2828,7 +2872,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2922,6 +2965,12 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -3297,244 +3346,244 @@
       <c r="M1" s="4"/>
     </row>
     <row r="2" spans="1:13" ht="72" x14ac:dyDescent="0.3">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="56" t="s">
         <v>611</v>
       </c>
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="57" t="s">
         <v>612</v>
       </c>
-      <c r="C2" s="57" t="s">
+      <c r="C2" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="58" t="s">
+      <c r="D2" s="57" t="s">
         <v>613</v>
       </c>
-      <c r="E2" s="58" t="s">
+      <c r="E2" s="57" t="s">
         <v>614</v>
       </c>
-      <c r="F2" s="58" t="s">
+      <c r="F2" s="57" t="s">
         <v>615</v>
       </c>
-      <c r="G2" s="57" t="s">
+      <c r="G2" s="56" t="s">
         <v>593</v>
       </c>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57" t="s">
+      <c r="H2" s="56"/>
+      <c r="I2" s="56" t="s">
         <v>616</v>
       </c>
-      <c r="J2" s="57" t="s">
+      <c r="J2" s="56" t="s">
         <v>244</v>
       </c>
-      <c r="K2" s="57" t="s">
+      <c r="K2" s="56" t="s">
         <v>651</v>
       </c>
-      <c r="L2" s="57"/>
+      <c r="L2" s="56"/>
     </row>
     <row r="3" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="56" t="s">
         <v>617</v>
       </c>
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="57" t="s">
         <v>618</v>
       </c>
-      <c r="C3" s="57" t="s">
+      <c r="C3" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="58" t="s">
+      <c r="D3" s="57" t="s">
         <v>619</v>
       </c>
-      <c r="E3" s="58" t="s">
+      <c r="E3" s="57" t="s">
         <v>620</v>
       </c>
-      <c r="F3" s="57" t="s">
+      <c r="F3" s="56" t="s">
         <v>621</v>
       </c>
-      <c r="G3" s="57" t="s">
+      <c r="G3" s="56" t="s">
         <v>593</v>
       </c>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57" t="s">
+      <c r="H3" s="56"/>
+      <c r="I3" s="56" t="s">
         <v>622</v>
       </c>
-      <c r="J3" s="57" t="s">
+      <c r="J3" s="56" t="s">
         <v>244</v>
       </c>
-      <c r="K3" s="57" t="s">
+      <c r="K3" s="56" t="s">
         <v>651</v>
       </c>
-      <c r="L3" s="57"/>
+      <c r="L3" s="56"/>
     </row>
     <row r="4" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="57" t="s">
+      <c r="A4" s="56" t="s">
         <v>623</v>
       </c>
-      <c r="B4" s="58" t="s">
+      <c r="B4" s="57" t="s">
         <v>624</v>
       </c>
-      <c r="C4" s="57" t="s">
+      <c r="C4" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="58" t="s">
+      <c r="D4" s="57" t="s">
         <v>613</v>
       </c>
-      <c r="E4" s="58" t="s">
+      <c r="E4" s="57" t="s">
         <v>620</v>
       </c>
-      <c r="F4" s="58" t="s">
+      <c r="F4" s="57" t="s">
         <v>625</v>
       </c>
-      <c r="G4" s="57" t="s">
+      <c r="G4" s="56" t="s">
         <v>593</v>
       </c>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57" t="s">
+      <c r="H4" s="56"/>
+      <c r="I4" s="56" t="s">
         <v>626</v>
       </c>
-      <c r="J4" s="57" t="s">
+      <c r="J4" s="56" t="s">
         <v>244</v>
       </c>
-      <c r="K4" s="57" t="s">
+      <c r="K4" s="56" t="s">
         <v>651</v>
       </c>
-      <c r="L4" s="57" t="s">
+      <c r="L4" s="56" t="s">
         <v>627</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="57" t="s">
+      <c r="A5" s="56" t="s">
         <v>628</v>
       </c>
-      <c r="B5" s="57" t="s">
+      <c r="B5" s="56" t="s">
         <v>629</v>
       </c>
-      <c r="C5" s="57" t="s">
+      <c r="C5" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="58" t="s">
+      <c r="D5" s="57" t="s">
         <v>613</v>
       </c>
-      <c r="E5" s="58" t="s">
+      <c r="E5" s="57" t="s">
         <v>620</v>
       </c>
-      <c r="F5" s="58" t="s">
+      <c r="F5" s="57" t="s">
         <v>630</v>
       </c>
-      <c r="G5" s="57" t="s">
+      <c r="G5" s="56" t="s">
         <v>593</v>
       </c>
-      <c r="H5" s="57"/>
-      <c r="I5" s="57" t="s">
+      <c r="H5" s="56"/>
+      <c r="I5" s="56" t="s">
         <v>631</v>
       </c>
-      <c r="J5" s="57" t="s">
+      <c r="J5" s="56" t="s">
         <v>244</v>
       </c>
-      <c r="K5" s="57" t="s">
+      <c r="K5" s="56" t="s">
         <v>651</v>
       </c>
-      <c r="L5" s="57"/>
+      <c r="L5" s="56"/>
     </row>
     <row r="6" spans="1:13" ht="72" x14ac:dyDescent="0.3">
-      <c r="A6" s="57" t="s">
+      <c r="A6" s="56" t="s">
         <v>632</v>
       </c>
-      <c r="B6" s="57" t="s">
+      <c r="B6" s="56" t="s">
         <v>633</v>
       </c>
-      <c r="C6" s="57" t="s">
+      <c r="C6" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="58" t="s">
+      <c r="D6" s="57" t="s">
         <v>613</v>
       </c>
-      <c r="E6" s="58" t="s">
+      <c r="E6" s="57" t="s">
         <v>634</v>
       </c>
-      <c r="F6" s="58" t="s">
+      <c r="F6" s="57" t="s">
         <v>635</v>
       </c>
-      <c r="G6" s="57" t="s">
+      <c r="G6" s="56" t="s">
         <v>593</v>
       </c>
-      <c r="H6" s="57"/>
-      <c r="I6" s="58" t="s">
+      <c r="H6" s="56"/>
+      <c r="I6" s="57" t="s">
         <v>636</v>
       </c>
-      <c r="J6" s="57" t="s">
+      <c r="J6" s="56" t="s">
         <v>244</v>
       </c>
-      <c r="K6" s="57" t="s">
+      <c r="K6" s="56" t="s">
         <v>651</v>
       </c>
-      <c r="L6" s="57"/>
+      <c r="L6" s="56"/>
     </row>
     <row r="7" spans="1:13" ht="72" x14ac:dyDescent="0.3">
-      <c r="A7" s="57" t="s">
+      <c r="A7" s="56" t="s">
         <v>637</v>
       </c>
-      <c r="B7" s="58" t="s">
+      <c r="B7" s="57" t="s">
         <v>638</v>
       </c>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="58" t="s">
+      <c r="D7" s="57" t="s">
         <v>613</v>
       </c>
-      <c r="E7" s="58" t="s">
+      <c r="E7" s="57" t="s">
         <v>634</v>
       </c>
-      <c r="F7" s="58" t="s">
+      <c r="F7" s="57" t="s">
         <v>639</v>
       </c>
-      <c r="G7" s="57" t="s">
+      <c r="G7" s="56" t="s">
         <v>593</v>
       </c>
-      <c r="H7" s="57"/>
-      <c r="I7" s="58" t="s">
+      <c r="H7" s="56"/>
+      <c r="I7" s="57" t="s">
         <v>640</v>
       </c>
-      <c r="J7" s="57" t="s">
+      <c r="J7" s="56" t="s">
         <v>244</v>
       </c>
-      <c r="K7" s="57" t="s">
+      <c r="K7" s="56" t="s">
         <v>651</v>
       </c>
-      <c r="L7" s="57"/>
+      <c r="L7" s="56"/>
     </row>
     <row r="8" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="57" t="s">
+      <c r="A8" s="56" t="s">
         <v>641</v>
       </c>
-      <c r="B8" s="57" t="s">
+      <c r="B8" s="56" t="s">
         <v>642</v>
       </c>
-      <c r="C8" s="57" t="s">
+      <c r="C8" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="58" t="s">
+      <c r="D8" s="57" t="s">
         <v>613</v>
       </c>
-      <c r="E8" s="58" t="s">
+      <c r="E8" s="57" t="s">
         <v>643</v>
       </c>
-      <c r="F8" s="57" t="s">
+      <c r="F8" s="56" t="s">
         <v>644</v>
       </c>
-      <c r="G8" s="57" t="s">
+      <c r="G8" s="56" t="s">
         <v>593</v>
       </c>
-      <c r="H8" s="57"/>
-      <c r="I8" s="57" t="s">
+      <c r="H8" s="56"/>
+      <c r="I8" s="56" t="s">
         <v>645</v>
       </c>
-      <c r="J8" s="57" t="s">
+      <c r="J8" s="56" t="s">
         <v>244</v>
       </c>
-      <c r="K8" s="57" t="s">
+      <c r="K8" s="56" t="s">
         <v>651</v>
       </c>
-      <c r="L8" s="57"/>
+      <c r="L8" s="56"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3551,17 +3600,17 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.33203125" style="41" customWidth="1"/>
-    <col min="2" max="2" width="48.109375" style="41" customWidth="1"/>
-    <col min="3" max="4" width="22" style="41" customWidth="1"/>
-    <col min="5" max="5" width="51.109375" style="41" customWidth="1"/>
-    <col min="6" max="6" width="50.109375" style="41" customWidth="1"/>
-    <col min="7" max="7" width="19.44140625" style="41" customWidth="1"/>
-    <col min="8" max="8" width="33.44140625" style="41" customWidth="1"/>
-    <col min="9" max="9" width="39.44140625" style="41" customWidth="1"/>
-    <col min="10" max="10" width="28" style="41" customWidth="1"/>
-    <col min="11" max="11" width="31.109375" style="41" customWidth="1"/>
-    <col min="12" max="16384" width="9.109375" style="41"/>
+    <col min="1" max="1" width="29.33203125" style="40" customWidth="1"/>
+    <col min="2" max="2" width="48.109375" style="40" customWidth="1"/>
+    <col min="3" max="4" width="22" style="40" customWidth="1"/>
+    <col min="5" max="5" width="51.109375" style="40" customWidth="1"/>
+    <col min="6" max="6" width="50.109375" style="40" customWidth="1"/>
+    <col min="7" max="7" width="19.44140625" style="40" customWidth="1"/>
+    <col min="8" max="8" width="33.44140625" style="40" customWidth="1"/>
+    <col min="9" max="9" width="39.44140625" style="40" customWidth="1"/>
+    <col min="10" max="10" width="28" style="40" customWidth="1"/>
+    <col min="11" max="11" width="31.109375" style="40" customWidth="1"/>
+    <col min="12" max="16384" width="9.109375" style="40"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -3599,55 +3648,55 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="44" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="44" t="s">
+    <row r="2" spans="1:11" s="43" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="44" t="s">
+      <c r="D2" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="44" t="s">
+      <c r="E2" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="44" t="s">
+      <c r="F2" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="49" t="s">
+      <c r="G2" s="48" t="s">
         <v>507</v>
       </c>
-      <c r="I2" s="44" t="s">
+      <c r="I2" s="43" t="s">
         <v>515</v>
       </c>
-      <c r="J2" s="44" t="s">
+      <c r="J2" s="43" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="47" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="47" t="s">
+    <row r="3" spans="1:11" s="46" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="48" t="s">
+      <c r="C3" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="47" t="s">
+      <c r="D3" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="47" t="s">
+      <c r="E3" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="47" t="s">
+      <c r="F3" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="48" t="s">
+      <c r="G3" s="47" t="s">
         <v>510</v>
       </c>
       <c r="H3" s="11" t="s">
@@ -3656,7 +3705,7 @@
       <c r="I3" s="11" t="s">
         <v>514</v>
       </c>
-      <c r="J3" s="47" t="s">
+      <c r="J3" s="46" t="s">
         <v>50</v>
       </c>
     </row>
@@ -3667,17 +3716,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:O14"/>
   <sheetViews>
-    <sheetView topLeftCell="I4" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22.88671875" customWidth="1"/>
     <col min="2" max="2" width="22.5546875" customWidth="1"/>
-    <col min="3" max="3" width="28.5546875" customWidth="1"/>
+    <col min="3" max="3" width="70.21875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.44140625" customWidth="1"/>
     <col min="5" max="5" width="26.88671875" customWidth="1"/>
     <col min="6" max="6" width="28.33203125" customWidth="1"/>
@@ -3689,9 +3738,10 @@
     <col min="12" max="12" width="24.33203125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="18.33203125" customWidth="1"/>
     <col min="14" max="14" width="17.6640625" customWidth="1"/>
+    <col min="15" max="15" width="30.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="34" customFormat="1" ht="21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" s="33" customFormat="1" ht="63" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
         <v>351</v>
       </c>
@@ -3734,8 +3784,11 @@
       <c r="N1" s="4" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+      <c r="O1" s="4" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="72" x14ac:dyDescent="0.3">
       <c r="A2" s="18"/>
       <c r="B2" s="18" t="s">
         <v>352</v>
@@ -3765,9 +3818,14 @@
       <c r="M2" s="19" t="s">
         <v>358</v>
       </c>
-      <c r="N2" s="18"/>
-    </row>
-    <row r="3" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="N2" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="O2" s="63" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="B3" s="18" t="s">
         <v>359</v>
@@ -3793,9 +3851,14 @@
       <c r="M3" s="19" t="s">
         <v>358</v>
       </c>
-      <c r="N3" s="5"/>
-    </row>
-    <row r="4" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="N3" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="O3" s="63" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="23" t="s">
         <v>364</v>
       </c>
@@ -3818,9 +3881,7 @@
       <c r="H4" s="21" t="s">
         <v>369</v>
       </c>
-      <c r="I4" s="19" t="s">
-        <v>370</v>
-      </c>
+      <c r="I4" s="19"/>
       <c r="J4" s="19" t="s">
         <v>371</v>
       </c>
@@ -3831,9 +3892,14 @@
       <c r="M4" s="19" t="s">
         <v>358</v>
       </c>
-      <c r="N4" s="5"/>
-    </row>
-    <row r="5" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+      <c r="N4" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="O4" s="63" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="23" t="s">
         <v>373</v>
       </c>
@@ -3865,9 +3931,11 @@
       <c r="M5" s="19" t="s">
         <v>358</v>
       </c>
-      <c r="N5" s="5"/>
-    </row>
-    <row r="6" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+      <c r="N5" s="18" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="72" x14ac:dyDescent="0.3">
       <c r="A6" s="26" t="s">
         <v>373</v>
       </c>
@@ -3897,9 +3965,14 @@
       <c r="M6" s="19" t="s">
         <v>358</v>
       </c>
-      <c r="N6" s="31"/>
-    </row>
-    <row r="7" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="N6" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="O6" s="64" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="23" t="s">
         <v>382</v>
       </c>
@@ -3935,9 +4008,14 @@
       <c r="M7" s="19" t="s">
         <v>358</v>
       </c>
-      <c r="N7" s="5"/>
-    </row>
-    <row r="8" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="N7" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="O7" s="64" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A8" s="23" t="s">
         <v>388</v>
       </c>
@@ -3971,9 +4049,14 @@
       <c r="M8" s="19" t="s">
         <v>358</v>
       </c>
-      <c r="N8" s="5"/>
-    </row>
-    <row r="9" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="N8" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="O8" s="64" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A9" s="23" t="s">
         <v>394</v>
       </c>
@@ -4007,9 +4090,11 @@
       <c r="M9" s="19" t="s">
         <v>358</v>
       </c>
-      <c r="N9" s="5"/>
-    </row>
-    <row r="10" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="N9" s="18" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="23" t="s">
         <v>400</v>
       </c>
@@ -4022,7 +4107,7 @@
       <c r="D10" s="19" t="s">
         <v>367</v>
       </c>
-      <c r="E10" s="32" t="s">
+      <c r="E10" s="31" t="s">
         <v>403</v>
       </c>
       <c r="F10" s="20" t="s">
@@ -4045,9 +4130,11 @@
       <c r="M10" s="19" t="s">
         <v>358</v>
       </c>
-      <c r="N10" s="5"/>
-    </row>
-    <row r="11" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="N10" s="18" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A11" s="23" t="s">
         <v>407</v>
       </c>
@@ -4081,9 +4168,11 @@
       <c r="M11" s="19" t="s">
         <v>358</v>
       </c>
-      <c r="N11" s="5"/>
-    </row>
-    <row r="12" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="N11" s="18" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="23" t="s">
         <v>413</v>
       </c>
@@ -4096,7 +4185,7 @@
       <c r="D12" s="19" t="s">
         <v>367</v>
       </c>
-      <c r="E12" s="32" t="s">
+      <c r="E12" s="31" t="s">
         <v>416</v>
       </c>
       <c r="F12" s="20" t="s">
@@ -4119,9 +4208,11 @@
       <c r="M12" s="19" t="s">
         <v>358</v>
       </c>
-      <c r="N12" s="5"/>
-    </row>
-    <row r="13" spans="1:14" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N12" s="18" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="5"/>
       <c r="B13" s="18" t="s">
         <v>420</v>
@@ -4153,10 +4244,15 @@
       <c r="M13" s="19" t="s">
         <v>358</v>
       </c>
-      <c r="N13" s="5"/>
-    </row>
-    <row r="14" spans="1:14" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="33" t="s">
+      <c r="N13" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="O13" s="63" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="32" t="s">
         <v>425</v>
       </c>
       <c r="B14" s="18" t="s">
@@ -4189,7 +4285,9 @@
       <c r="M14" s="19" t="s">
         <v>358</v>
       </c>
-      <c r="N14" s="5"/>
+      <c r="N14" s="18" t="s">
+        <v>244</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4198,10 +4296,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
-    <sheetView topLeftCell="K2" workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4218,11 +4316,12 @@
     <col min="10" max="10" width="16.33203125" customWidth="1"/>
     <col min="11" max="11" width="9.109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="38.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="17.109375" customWidth="1"/>
+    <col min="15" max="15" width="18.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="34" customFormat="1" ht="42.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="35"/>
+    <row r="1" spans="1:15" s="33" customFormat="1" ht="42.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="34"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4262,59 +4361,64 @@
       <c r="N1" s="4" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="33" t="s">
+      <c r="O1" s="4" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="32" t="s">
         <v>427</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="33" t="s">
         <v>428</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="33" t="s">
         <v>429</v>
       </c>
-      <c r="D2" s="34" t="s">
+      <c r="D2" s="33" t="s">
         <v>430</v>
       </c>
-      <c r="E2" s="34"/>
+      <c r="E2" s="33"/>
       <c r="F2" s="20" t="s">
         <v>431</v>
       </c>
       <c r="G2" s="14"/>
-      <c r="H2" s="35" t="s">
+      <c r="H2" s="34" t="s">
         <v>432</v>
       </c>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34" t="s">
+      <c r="I2" s="33"/>
+      <c r="J2" s="33" t="s">
         <v>357</v>
       </c>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34" t="s">
+      <c r="K2" s="33"/>
+      <c r="L2" s="33" t="s">
         <v>433</v>
       </c>
-      <c r="M2" s="34" t="s">
+      <c r="M2" s="33" t="s">
         <v>358</v>
       </c>
-      <c r="N2" s="34"/>
-    </row>
-    <row r="3" spans="1:14" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="33" t="s">
+      <c r="N2" s="33" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="32" t="s">
         <v>434</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="33" t="s">
         <v>435</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="33" t="s">
         <v>436</v>
       </c>
-      <c r="D3" s="34" t="s">
+      <c r="D3" s="33" t="s">
         <v>430</v>
       </c>
-      <c r="E3" s="34"/>
+      <c r="E3" s="33"/>
       <c r="F3" s="20" t="s">
         <v>437</v>
       </c>
-      <c r="H3" s="35" t="s">
+      <c r="H3" s="34" t="s">
         <v>438</v>
       </c>
       <c r="J3" t="s">
@@ -4326,21 +4430,27 @@
       <c r="M3" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="33" t="s">
+      <c r="N3" s="33" t="s">
+        <v>658</v>
+      </c>
+      <c r="O3" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="32" t="s">
         <v>440</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="33" t="s">
         <v>441</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="C4" s="33" t="s">
         <v>442</v>
       </c>
-      <c r="D4" s="34" t="s">
+      <c r="D4" s="33" t="s">
         <v>443</v>
       </c>
-      <c r="E4" s="34" t="s">
+      <c r="E4" s="33" t="s">
         <v>444</v>
       </c>
       <c r="F4" s="20" t="s">
@@ -4349,7 +4459,7 @@
       <c r="G4" s="21" t="s">
         <v>355</v>
       </c>
-      <c r="H4" s="35" t="s">
+      <c r="H4" s="34" t="s">
         <v>432</v>
       </c>
       <c r="J4" t="s">
@@ -4361,21 +4471,27 @@
       <c r="M4" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="33" t="s">
+      <c r="N4" s="33" t="s">
+        <v>658</v>
+      </c>
+      <c r="O4" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="32" t="s">
         <v>447</v>
       </c>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="33" t="s">
         <v>448</v>
       </c>
-      <c r="C5" s="36" t="s">
+      <c r="C5" s="35" t="s">
         <v>449</v>
       </c>
-      <c r="D5" s="34" t="s">
+      <c r="D5" s="33" t="s">
         <v>443</v>
       </c>
-      <c r="E5" s="34" t="s">
+      <c r="E5" s="33" t="s">
         <v>444</v>
       </c>
       <c r="F5" s="20" t="s">
@@ -4384,7 +4500,7 @@
       <c r="G5" s="21" t="s">
         <v>355</v>
       </c>
-      <c r="H5" s="36" t="s">
+      <c r="H5" s="35" t="s">
         <v>451</v>
       </c>
       <c r="J5" t="s">
@@ -4396,21 +4512,24 @@
       <c r="M5" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="33" t="s">
+      <c r="N5" s="33" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="32" t="s">
         <v>453</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="C6" s="37" t="s">
+      <c r="C6" s="36" t="s">
         <v>455</v>
       </c>
-      <c r="D6" s="34" t="s">
+      <c r="D6" s="33" t="s">
         <v>443</v>
       </c>
-      <c r="E6" s="34" t="s">
+      <c r="E6" s="33" t="s">
         <v>444</v>
       </c>
       <c r="F6" s="20" t="s">
@@ -4419,7 +4538,7 @@
       <c r="G6" s="21" t="s">
         <v>355</v>
       </c>
-      <c r="H6" s="36" t="s">
+      <c r="H6" s="35" t="s">
         <v>457</v>
       </c>
       <c r="J6" t="s">
@@ -4431,21 +4550,24 @@
       <c r="M6" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="33" t="s">
+      <c r="N6" s="33" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="32" t="s">
         <v>459</v>
       </c>
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="33" t="s">
         <v>460</v>
       </c>
-      <c r="C7" s="35" t="s">
+      <c r="C7" s="34" t="s">
         <v>461</v>
       </c>
-      <c r="D7" s="34" t="s">
+      <c r="D7" s="33" t="s">
         <v>443</v>
       </c>
-      <c r="E7" s="34" t="s">
+      <c r="E7" s="33" t="s">
         <v>444</v>
       </c>
       <c r="F7" s="20" t="s">
@@ -4454,7 +4576,7 @@
       <c r="G7" s="21" t="s">
         <v>355</v>
       </c>
-      <c r="H7" s="36" t="s">
+      <c r="H7" s="35" t="s">
         <v>463</v>
       </c>
       <c r="J7" t="s">
@@ -4466,38 +4588,46 @@
       <c r="M7" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="38"/>
-      <c r="B8" s="39" t="s">
+      <c r="N7" s="33" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="37"/>
+      <c r="B8" s="38" t="s">
         <v>464</v>
       </c>
-      <c r="C8" s="40" t="s">
+      <c r="C8" s="39" t="s">
         <v>465</v>
       </c>
-      <c r="D8" s="39" t="s">
+      <c r="D8" s="38" t="s">
         <v>466</v>
       </c>
-      <c r="E8" s="39"/>
+      <c r="E8" s="38"/>
       <c r="F8" s="30" t="s">
         <v>467</v>
       </c>
-      <c r="G8" s="38"/>
-      <c r="H8" s="40" t="s">
+      <c r="G8" s="37"/>
+      <c r="H8" s="39" t="s">
         <v>468</v>
       </c>
-      <c r="I8" s="38"/>
-      <c r="J8" s="38" t="s">
+      <c r="I8" s="37"/>
+      <c r="J8" s="37" t="s">
         <v>371</v>
       </c>
-      <c r="K8" s="38"/>
-      <c r="L8" s="38" t="s">
+      <c r="K8" s="37"/>
+      <c r="L8" s="37" t="s">
         <v>469</v>
       </c>
-      <c r="M8" s="38" t="s">
+      <c r="M8" s="37" t="s">
         <v>358</v>
       </c>
-      <c r="N8" s="38"/>
+      <c r="N8" s="33" t="s">
+        <v>658</v>
+      </c>
+      <c r="O8" t="s">
+        <v>659</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4511,7 +4641,7 @@
   </sheetPr>
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
@@ -4566,136 +4696,136 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="56" t="s">
         <v>588</v>
       </c>
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="56" t="s">
         <v>589</v>
       </c>
-      <c r="C2" s="57" t="s">
+      <c r="C2" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="58" t="s">
+      <c r="D2" s="57" t="s">
         <v>590</v>
       </c>
-      <c r="E2" s="58" t="s">
+      <c r="E2" s="57" t="s">
         <v>591</v>
       </c>
-      <c r="F2" s="58" t="s">
+      <c r="F2" s="57" t="s">
         <v>592</v>
       </c>
-      <c r="G2" s="57" t="s">
+      <c r="G2" s="56" t="s">
         <v>593</v>
       </c>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57" t="s">
+      <c r="H2" s="56"/>
+      <c r="I2" s="56" t="s">
         <v>594</v>
       </c>
-      <c r="J2" s="57" t="s">
+      <c r="J2" s="56" t="s">
         <v>244</v>
       </c>
-      <c r="K2" s="57" t="s">
+      <c r="K2" s="56" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="72" x14ac:dyDescent="0.3">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="58" t="s">
         <v>595</v>
       </c>
-      <c r="B3" s="59" t="s">
+      <c r="B3" s="58" t="s">
         <v>596</v>
       </c>
-      <c r="C3" s="59" t="s">
+      <c r="C3" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="60" t="s">
+      <c r="D3" s="59" t="s">
         <v>590</v>
       </c>
-      <c r="E3" s="60" t="s">
+      <c r="E3" s="59" t="s">
         <v>597</v>
       </c>
-      <c r="F3" s="60" t="s">
+      <c r="F3" s="59" t="s">
         <v>598</v>
       </c>
-      <c r="G3" s="59" t="s">
+      <c r="G3" s="58" t="s">
         <v>599</v>
       </c>
-      <c r="H3" s="55" t="s">
+      <c r="H3" s="54" t="s">
         <v>575</v>
       </c>
-      <c r="I3" s="59" t="s">
+      <c r="I3" s="58" t="s">
         <v>600</v>
       </c>
-      <c r="J3" s="59" t="s">
+      <c r="J3" s="58" t="s">
         <v>244</v>
       </c>
-      <c r="K3" s="59" t="s">
+      <c r="K3" s="58" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="57" t="s">
+      <c r="A4" s="56" t="s">
         <v>601</v>
       </c>
-      <c r="B4" s="57" t="s">
+      <c r="B4" s="56" t="s">
         <v>602</v>
       </c>
-      <c r="C4" s="57" t="s">
+      <c r="C4" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="58" t="s">
+      <c r="D4" s="57" t="s">
         <v>590</v>
       </c>
-      <c r="E4" s="58" t="s">
+      <c r="E4" s="57" t="s">
         <v>603</v>
       </c>
-      <c r="F4" s="58" t="s">
+      <c r="F4" s="57" t="s">
         <v>604</v>
       </c>
-      <c r="G4" s="57" t="s">
+      <c r="G4" s="56" t="s">
         <v>593</v>
       </c>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57" t="s">
+      <c r="H4" s="56"/>
+      <c r="I4" s="56" t="s">
         <v>605</v>
       </c>
-      <c r="J4" s="57" t="s">
+      <c r="J4" s="56" t="s">
         <v>244</v>
       </c>
-      <c r="K4" s="57" t="s">
+      <c r="K4" s="56" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="57" t="s">
+      <c r="A5" s="56" t="s">
         <v>606</v>
       </c>
-      <c r="B5" s="57" t="s">
+      <c r="B5" s="56" t="s">
         <v>607</v>
       </c>
-      <c r="C5" s="57" t="s">
+      <c r="C5" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="58" t="s">
+      <c r="D5" s="57" t="s">
         <v>590</v>
       </c>
-      <c r="E5" s="58" t="s">
+      <c r="E5" s="57" t="s">
         <v>608</v>
       </c>
-      <c r="F5" s="58" t="s">
+      <c r="F5" s="57" t="s">
         <v>609</v>
       </c>
-      <c r="G5" s="57" t="s">
+      <c r="G5" s="56" t="s">
         <v>593</v>
       </c>
-      <c r="H5" s="57"/>
-      <c r="I5" s="57" t="s">
+      <c r="H5" s="56"/>
+      <c r="I5" s="56" t="s">
         <v>610</v>
       </c>
-      <c r="J5" s="57" t="s">
+      <c r="J5" s="56" t="s">
         <v>244</v>
       </c>
-      <c r="K5" s="57" t="s">
+      <c r="K5" s="56" t="s">
         <v>651</v>
       </c>
     </row>
@@ -4715,18 +4845,18 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.88671875" style="41" customWidth="1"/>
-    <col min="2" max="2" width="51.109375" style="41" customWidth="1"/>
-    <col min="3" max="3" width="26" style="32" customWidth="1"/>
-    <col min="4" max="4" width="26" style="41" customWidth="1"/>
-    <col min="5" max="5" width="56.6640625" style="41" customWidth="1"/>
-    <col min="6" max="6" width="50.5546875" style="41" customWidth="1"/>
-    <col min="7" max="7" width="26.44140625" style="32" customWidth="1"/>
-    <col min="8" max="8" width="24" style="41" customWidth="1"/>
-    <col min="9" max="9" width="31.88671875" style="41" customWidth="1"/>
-    <col min="10" max="10" width="23" style="41" customWidth="1"/>
-    <col min="11" max="11" width="19" style="41" customWidth="1"/>
-    <col min="12" max="16384" width="9.109375" style="41"/>
+    <col min="1" max="1" width="24.88671875" style="40" customWidth="1"/>
+    <col min="2" max="2" width="51.109375" style="40" customWidth="1"/>
+    <col min="3" max="3" width="26" style="31" customWidth="1"/>
+    <col min="4" max="4" width="26" style="40" customWidth="1"/>
+    <col min="5" max="5" width="56.6640625" style="40" customWidth="1"/>
+    <col min="6" max="6" width="50.5546875" style="40" customWidth="1"/>
+    <col min="7" max="7" width="26.44140625" style="31" customWidth="1"/>
+    <col min="8" max="8" width="24" style="40" customWidth="1"/>
+    <col min="9" max="9" width="31.88671875" style="40" customWidth="1"/>
+    <col min="10" max="10" width="23" style="40" customWidth="1"/>
+    <col min="11" max="11" width="19" style="40" customWidth="1"/>
+    <col min="12" max="16384" width="9.109375" style="40"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4764,75 +4894,75 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="44" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="44" t="s">
+    <row r="2" spans="1:11" s="43" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="43" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="E2" s="44" t="s">
+      <c r="E2" s="43" t="s">
         <v>74</v>
       </c>
-      <c r="F2" s="44" t="s">
+      <c r="F2" s="43" t="s">
         <v>75</v>
       </c>
-      <c r="G2" s="49" t="s">
+      <c r="G2" s="48" t="s">
         <v>507</v>
       </c>
-      <c r="I2" s="44" t="s">
+      <c r="I2" s="43" t="s">
         <v>520</v>
       </c>
-      <c r="J2" s="44" t="s">
+      <c r="J2" s="43" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="44" customFormat="1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A3" s="44" t="s">
+    <row r="3" spans="1:11" s="43" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="A3" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="C3" s="49" t="s">
+      <c r="C3" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="44" t="s">
+      <c r="E3" s="43" t="s">
         <v>82</v>
       </c>
-      <c r="F3" s="44" t="s">
+      <c r="F3" s="43" t="s">
         <v>521</v>
       </c>
-      <c r="G3" s="49" t="s">
+      <c r="G3" s="48" t="s">
         <v>507</v>
       </c>
-      <c r="I3" s="44" t="s">
+      <c r="I3" s="43" t="s">
         <v>522</v>
       </c>
-      <c r="J3" s="44" t="s">
+      <c r="J3" s="43" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="47" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="47" t="s">
+    <row r="4" spans="1:11" s="46" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A4" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="C4" s="48" t="s">
+      <c r="C4" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="47" t="s">
+      <c r="E4" s="46" t="s">
         <v>508</v>
       </c>
-      <c r="F4" s="47" t="s">
+      <c r="F4" s="46" t="s">
         <v>85</v>
       </c>
-      <c r="G4" s="48" t="s">
+      <c r="G4" s="47" t="s">
         <v>510</v>
       </c>
       <c r="H4" s="11" t="s">
@@ -4841,80 +4971,80 @@
       <c r="I4" s="11" t="s">
         <v>517</v>
       </c>
-      <c r="J4" s="47" t="s">
+      <c r="J4" s="46" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="44" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="44" t="s">
+    <row r="5" spans="1:11" s="43" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="C5" s="49" t="s">
+      <c r="C5" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="44" t="s">
+      <c r="E5" s="43" t="s">
         <v>78</v>
       </c>
-      <c r="F5" s="44" t="s">
+      <c r="F5" s="43" t="s">
         <v>75</v>
       </c>
-      <c r="G5" s="49" t="s">
+      <c r="G5" s="48" t="s">
         <v>507</v>
       </c>
-      <c r="H5" s="50"/>
-      <c r="I5" s="50" t="s">
+      <c r="H5" s="49"/>
+      <c r="I5" s="49" t="s">
         <v>523</v>
       </c>
-      <c r="J5" s="44" t="s">
+      <c r="J5" s="43" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="44" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="44" t="s">
+    <row r="6" spans="1:11" s="43" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A6" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="C6" s="49" t="s">
+      <c r="C6" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="44" t="s">
+      <c r="E6" s="43" t="s">
         <v>80</v>
       </c>
-      <c r="F6" s="44" t="s">
+      <c r="F6" s="43" t="s">
         <v>75</v>
       </c>
-      <c r="G6" s="49" t="s">
+      <c r="G6" s="48" t="s">
         <v>507</v>
       </c>
-      <c r="I6" s="50" t="s">
+      <c r="I6" s="49" t="s">
         <v>523</v>
       </c>
-      <c r="J6" s="44" t="s">
+      <c r="J6" s="43" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="47" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="47" t="s">
+    <row r="7" spans="1:11" s="46" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="B7" s="47" t="s">
+      <c r="B7" s="46" t="s">
         <v>81</v>
       </c>
-      <c r="C7" s="48" t="s">
+      <c r="C7" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="47" t="s">
+      <c r="E7" s="46" t="s">
         <v>83</v>
       </c>
-      <c r="F7" s="47" t="s">
+      <c r="F7" s="46" t="s">
         <v>84</v>
       </c>
-      <c r="G7" s="48" t="s">
+      <c r="G7" s="47" t="s">
         <v>510</v>
       </c>
       <c r="H7" s="11" t="s">
@@ -4923,27 +5053,27 @@
       <c r="I7" s="11" t="s">
         <v>524</v>
       </c>
-      <c r="J7" s="47" t="s">
+      <c r="J7" s="46" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="47" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A8" s="47" t="s">
+    <row r="8" spans="1:11" s="46" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A8" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="B8" s="47" t="s">
+      <c r="B8" s="46" t="s">
         <v>86</v>
       </c>
-      <c r="C8" s="48" t="s">
+      <c r="C8" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="47" t="s">
+      <c r="E8" s="46" t="s">
         <v>87</v>
       </c>
-      <c r="F8" s="47" t="s">
+      <c r="F8" s="46" t="s">
         <v>84</v>
       </c>
-      <c r="G8" s="48" t="s">
+      <c r="G8" s="47" t="s">
         <v>371</v>
       </c>
       <c r="H8" s="11" t="s">
@@ -4952,53 +5082,53 @@
       <c r="I8" s="11" t="s">
         <v>517</v>
       </c>
-      <c r="J8" s="47" t="s">
+      <c r="J8" s="46" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="44" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="44" t="s">
+    <row r="9" spans="1:11" s="43" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="B9" s="44" t="s">
+      <c r="B9" s="43" t="s">
         <v>119</v>
       </c>
-      <c r="C9" s="49" t="s">
+      <c r="C9" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="44" t="s">
+      <c r="E9" s="43" t="s">
         <v>88</v>
       </c>
-      <c r="F9" s="44" t="s">
+      <c r="F9" s="43" t="s">
         <v>75</v>
       </c>
-      <c r="G9" s="49" t="s">
+      <c r="G9" s="48" t="s">
         <v>507</v>
       </c>
-      <c r="I9" s="50" t="s">
+      <c r="I9" s="49" t="s">
         <v>523</v>
       </c>
-      <c r="J9" s="44" t="s">
+      <c r="J9" s="43" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="47" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="47" t="s">
+    <row r="10" spans="1:11" s="46" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="B10" s="47" t="s">
+      <c r="B10" s="46" t="s">
         <v>89</v>
       </c>
-      <c r="C10" s="48" t="s">
+      <c r="C10" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="47" t="s">
+      <c r="E10" s="46" t="s">
         <v>88</v>
       </c>
-      <c r="F10" s="47" t="s">
+      <c r="F10" s="46" t="s">
         <v>84</v>
       </c>
-      <c r="G10" s="48" t="s">
+      <c r="G10" s="47" t="s">
         <v>510</v>
       </c>
       <c r="H10" s="11" t="s">
@@ -5007,53 +5137,53 @@
       <c r="I10" s="11" t="s">
         <v>525</v>
       </c>
-      <c r="J10" s="47" t="s">
+      <c r="J10" s="46" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="44" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A11" s="44" t="s">
+    <row r="11" spans="1:11" s="43" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A11" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="B11" s="44" t="s">
+      <c r="B11" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="C11" s="49" t="s">
+      <c r="C11" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="44" t="s">
+      <c r="E11" s="43" t="s">
         <v>91</v>
       </c>
-      <c r="F11" s="44" t="s">
+      <c r="F11" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="G11" s="49" t="s">
+      <c r="G11" s="48" t="s">
         <v>507</v>
       </c>
-      <c r="I11" s="44" t="s">
+      <c r="I11" s="43" t="s">
         <v>526</v>
       </c>
-      <c r="J11" s="44" t="s">
+      <c r="J11" s="43" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="47" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A12" s="47" t="s">
+    <row r="12" spans="1:11" s="46" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A12" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="B12" s="47" t="s">
+      <c r="B12" s="46" t="s">
         <v>99</v>
       </c>
-      <c r="C12" s="48" t="s">
+      <c r="C12" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="47" t="s">
+      <c r="E12" s="46" t="s">
         <v>100</v>
       </c>
-      <c r="F12" s="47" t="s">
+      <c r="F12" s="46" t="s">
         <v>84</v>
       </c>
-      <c r="G12" s="48" t="s">
+      <c r="G12" s="47" t="s">
         <v>510</v>
       </c>
       <c r="H12" s="11" t="s">
@@ -5062,134 +5192,134 @@
       <c r="I12" s="11" t="s">
         <v>517</v>
       </c>
-      <c r="J12" s="47" t="s">
+      <c r="J12" s="46" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="44" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A13" s="44" t="s">
+    <row r="13" spans="1:11" s="43" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A13" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="B13" s="44" t="s">
+      <c r="B13" s="43" t="s">
         <v>101</v>
       </c>
-      <c r="C13" s="49" t="s">
+      <c r="C13" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="44" t="s">
+      <c r="E13" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="F13" s="44" t="s">
+      <c r="F13" s="43" t="s">
         <v>527</v>
       </c>
-      <c r="G13" s="49" t="s">
+      <c r="G13" s="48" t="s">
         <v>507</v>
       </c>
-      <c r="I13" s="44" t="s">
+      <c r="I13" s="43" t="s">
         <v>528</v>
       </c>
-      <c r="J13" s="44" t="s">
+      <c r="J13" s="43" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="47" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A14" s="47" t="s">
+    <row r="14" spans="1:11" s="46" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A14" s="46" t="s">
         <v>94</v>
       </c>
-      <c r="B14" s="47" t="s">
+      <c r="B14" s="46" t="s">
         <v>103</v>
       </c>
-      <c r="C14" s="48" t="s">
+      <c r="C14" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="47" t="s">
+      <c r="E14" s="46" t="s">
         <v>104</v>
       </c>
-      <c r="F14" s="47" t="s">
+      <c r="F14" s="46" t="s">
         <v>529</v>
       </c>
-      <c r="G14" s="48" t="s">
+      <c r="G14" s="47" t="s">
         <v>510</v>
       </c>
       <c r="H14" s="11" t="s">
         <v>539</v>
       </c>
-      <c r="I14" s="47" t="s">
+      <c r="I14" s="46" t="s">
         <v>530</v>
       </c>
-      <c r="J14" s="47" t="s">
+      <c r="J14" s="46" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:11" s="44" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A15" s="44" t="s">
+    <row r="15" spans="1:11" s="43" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A15" s="43" t="s">
         <v>95</v>
       </c>
-      <c r="B15" s="44" t="s">
+      <c r="B15" s="43" t="s">
         <v>118</v>
       </c>
-      <c r="C15" s="49" t="s">
+      <c r="C15" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="44" t="s">
+      <c r="E15" s="43" t="s">
         <v>105</v>
       </c>
-      <c r="F15" s="44" t="s">
+      <c r="F15" s="43" t="s">
         <v>75</v>
       </c>
-      <c r="G15" s="49" t="s">
+      <c r="G15" s="48" t="s">
         <v>507</v>
       </c>
-      <c r="I15" s="44" t="s">
+      <c r="I15" s="43" t="s">
         <v>531</v>
       </c>
-      <c r="J15" s="44" t="s">
+      <c r="J15" s="43" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:11" s="44" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A16" s="44" t="s">
+    <row r="16" spans="1:11" s="43" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A16" s="43" t="s">
         <v>96</v>
       </c>
-      <c r="B16" s="44" t="s">
+      <c r="B16" s="43" t="s">
         <v>117</v>
       </c>
-      <c r="C16" s="49" t="s">
+      <c r="C16" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="44" t="s">
+      <c r="E16" s="43" t="s">
         <v>108</v>
       </c>
-      <c r="F16" s="44" t="s">
+      <c r="F16" s="43" t="s">
         <v>75</v>
       </c>
-      <c r="G16" s="49" t="s">
+      <c r="G16" s="48" t="s">
         <v>507</v>
       </c>
-      <c r="I16" s="44" t="s">
+      <c r="I16" s="43" t="s">
         <v>531</v>
       </c>
-      <c r="J16" s="44" t="s">
+      <c r="J16" s="43" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:10" s="47" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A17" s="47" t="s">
+    <row r="17" spans="1:10" s="46" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A17" s="46" t="s">
         <v>97</v>
       </c>
-      <c r="B17" s="47" t="s">
+      <c r="B17" s="46" t="s">
         <v>106</v>
       </c>
-      <c r="C17" s="48" t="s">
+      <c r="C17" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="47" t="s">
+      <c r="E17" s="46" t="s">
         <v>107</v>
       </c>
-      <c r="F17" s="47" t="s">
+      <c r="F17" s="46" t="s">
         <v>84</v>
       </c>
-      <c r="G17" s="48" t="s">
+      <c r="G17" s="47" t="s">
         <v>510</v>
       </c>
       <c r="H17" s="11" t="s">
@@ -5198,53 +5328,53 @@
       <c r="I17" s="11" t="s">
         <v>517</v>
       </c>
-      <c r="J17" s="47" t="s">
+      <c r="J17" s="46" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:10" s="47" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A18" s="47" t="s">
+    <row r="18" spans="1:10" s="46" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A18" s="46" t="s">
         <v>98</v>
       </c>
-      <c r="B18" s="47" t="s">
+      <c r="B18" s="46" t="s">
         <v>109</v>
       </c>
-      <c r="C18" s="48" t="s">
+      <c r="C18" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="E18" s="47" t="s">
+      <c r="E18" s="46" t="s">
         <v>110</v>
       </c>
-      <c r="F18" s="47" t="s">
+      <c r="F18" s="46" t="s">
         <v>84</v>
       </c>
-      <c r="G18" s="48" t="s">
+      <c r="G18" s="47" t="s">
         <v>510</v>
       </c>
       <c r="H18" s="11" t="s">
         <v>541</v>
       </c>
-      <c r="J18" s="47" t="s">
+      <c r="J18" s="46" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:10" s="47" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A19" s="47" t="s">
+    <row r="19" spans="1:10" s="46" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A19" s="46" t="s">
         <v>115</v>
       </c>
-      <c r="B19" s="47" t="s">
+      <c r="B19" s="46" t="s">
         <v>111</v>
       </c>
-      <c r="C19" s="48" t="s">
+      <c r="C19" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="E19" s="47" t="s">
+      <c r="E19" s="46" t="s">
         <v>112</v>
       </c>
-      <c r="F19" s="47" t="s">
+      <c r="F19" s="46" t="s">
         <v>84</v>
       </c>
-      <c r="G19" s="48" t="s">
+      <c r="G19" s="47" t="s">
         <v>510</v>
       </c>
       <c r="H19" s="11" t="s">
@@ -5253,27 +5383,27 @@
       <c r="I19" s="11" t="s">
         <v>517</v>
       </c>
-      <c r="J19" s="47" t="s">
+      <c r="J19" s="46" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:10" s="47" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A20" s="47" t="s">
+    <row r="20" spans="1:10" s="46" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A20" s="46" t="s">
         <v>116</v>
       </c>
-      <c r="B20" s="47" t="s">
+      <c r="B20" s="46" t="s">
         <v>113</v>
       </c>
-      <c r="C20" s="48" t="s">
+      <c r="C20" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="E20" s="47" t="s">
+      <c r="E20" s="46" t="s">
         <v>114</v>
       </c>
-      <c r="F20" s="47" t="s">
+      <c r="F20" s="46" t="s">
         <v>84</v>
       </c>
-      <c r="G20" s="48" t="s">
+      <c r="G20" s="47" t="s">
         <v>510</v>
       </c>
       <c r="H20" s="11" t="s">
@@ -5282,27 +5412,27 @@
       <c r="I20" s="11" t="s">
         <v>517</v>
       </c>
-      <c r="J20" s="47" t="s">
+      <c r="J20" s="46" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:10" s="47" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A21" s="47" t="s">
+    <row r="21" spans="1:10" s="46" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A21" s="46" t="s">
         <v>129</v>
       </c>
-      <c r="B21" s="47" t="s">
+      <c r="B21" s="46" t="s">
         <v>120</v>
       </c>
-      <c r="C21" s="48" t="s">
+      <c r="C21" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="E21" s="47" t="s">
+      <c r="E21" s="46" t="s">
         <v>121</v>
       </c>
-      <c r="F21" s="47" t="s">
+      <c r="F21" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="G21" s="48" t="s">
+      <c r="G21" s="47" t="s">
         <v>510</v>
       </c>
       <c r="H21" s="11" t="s">
@@ -5311,27 +5441,27 @@
       <c r="I21" s="11" t="s">
         <v>517</v>
       </c>
-      <c r="J21" s="47" t="s">
+      <c r="J21" s="46" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:10" s="47" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A22" s="47" t="s">
+    <row r="22" spans="1:10" s="46" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A22" s="46" t="s">
         <v>130</v>
       </c>
-      <c r="B22" s="47" t="s">
+      <c r="B22" s="46" t="s">
         <v>123</v>
       </c>
-      <c r="C22" s="48" t="s">
+      <c r="C22" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="E22" s="47" t="s">
+      <c r="E22" s="46" t="s">
         <v>124</v>
       </c>
-      <c r="F22" s="47" t="s">
+      <c r="F22" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="G22" s="48" t="s">
+      <c r="G22" s="47" t="s">
         <v>510</v>
       </c>
       <c r="H22" s="11" t="s">
@@ -5340,27 +5470,27 @@
       <c r="I22" s="11" t="s">
         <v>517</v>
       </c>
-      <c r="J22" s="47" t="s">
+      <c r="J22" s="46" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:10" s="47" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A23" s="47" t="s">
+    <row r="23" spans="1:10" s="46" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A23" s="46" t="s">
         <v>131</v>
       </c>
-      <c r="B23" s="47" t="s">
+      <c r="B23" s="46" t="s">
         <v>125</v>
       </c>
-      <c r="C23" s="48" t="s">
+      <c r="C23" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="E23" s="47" t="s">
+      <c r="E23" s="46" t="s">
         <v>126</v>
       </c>
-      <c r="F23" s="47" t="s">
+      <c r="F23" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="G23" s="48" t="s">
+      <c r="G23" s="47" t="s">
         <v>510</v>
       </c>
       <c r="H23" s="11" t="s">
@@ -5369,161 +5499,161 @@
       <c r="I23" s="11" t="s">
         <v>517</v>
       </c>
-      <c r="J23" s="47" t="s">
+      <c r="J23" s="46" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:10" s="44" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A24" s="44" t="s">
+    <row r="24" spans="1:10" s="43" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="43" t="s">
         <v>132</v>
       </c>
-      <c r="B24" s="44" t="s">
+      <c r="B24" s="43" t="s">
         <v>127</v>
       </c>
-      <c r="C24" s="49" t="s">
+      <c r="C24" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="E24" s="44" t="s">
+      <c r="E24" s="43" t="s">
         <v>128</v>
       </c>
-      <c r="F24" s="44" t="s">
+      <c r="F24" s="43" t="s">
         <v>75</v>
       </c>
-      <c r="G24" s="49" t="s">
+      <c r="G24" s="48" t="s">
         <v>357</v>
       </c>
-      <c r="I24" s="44" t="s">
+      <c r="I24" s="43" t="s">
         <v>531</v>
       </c>
-      <c r="J24" s="44" t="s">
+      <c r="J24" s="43" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:10" s="44" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="44" t="s">
+    <row r="25" spans="1:10" s="43" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="43" t="s">
         <v>133</v>
       </c>
-      <c r="B25" s="44" t="s">
+      <c r="B25" s="43" t="s">
         <v>135</v>
       </c>
-      <c r="C25" s="49" t="s">
+      <c r="C25" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="E25" s="44" t="s">
+      <c r="E25" s="43" t="s">
         <v>136</v>
       </c>
-      <c r="F25" s="44" t="s">
+      <c r="F25" s="43" t="s">
         <v>137</v>
       </c>
-      <c r="G25" s="49" t="s">
+      <c r="G25" s="48" t="s">
         <v>357</v>
       </c>
-      <c r="I25" s="44" t="s">
+      <c r="I25" s="43" t="s">
         <v>532</v>
       </c>
-      <c r="J25" s="44" t="s">
+      <c r="J25" s="43" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:10" s="44" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A26" s="44" t="s">
+    <row r="26" spans="1:10" s="43" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A26" s="43" t="s">
         <v>134</v>
       </c>
-      <c r="B26" s="44" t="s">
+      <c r="B26" s="43" t="s">
         <v>138</v>
       </c>
-      <c r="C26" s="49" t="s">
+      <c r="C26" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="E26" s="44" t="s">
+      <c r="E26" s="43" t="s">
         <v>140</v>
       </c>
-      <c r="F26" s="44" t="s">
+      <c r="F26" s="43" t="s">
         <v>137</v>
       </c>
-      <c r="G26" s="49" t="s">
+      <c r="G26" s="48" t="s">
         <v>357</v>
       </c>
-      <c r="I26" s="44" t="s">
+      <c r="I26" s="43" t="s">
         <v>531</v>
       </c>
-      <c r="J26" s="44" t="s">
+      <c r="J26" s="43" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:10" s="44" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A27" s="44" t="s">
+    <row r="27" spans="1:10" s="43" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A27" s="43" t="s">
         <v>142</v>
       </c>
-      <c r="B27" s="44" t="s">
+      <c r="B27" s="43" t="s">
         <v>139</v>
       </c>
-      <c r="C27" s="49" t="s">
+      <c r="C27" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="E27" s="44" t="s">
+      <c r="E27" s="43" t="s">
         <v>141</v>
       </c>
-      <c r="F27" s="44" t="s">
+      <c r="F27" s="43" t="s">
         <v>509</v>
       </c>
-      <c r="G27" s="49" t="s">
+      <c r="G27" s="48" t="s">
         <v>507</v>
       </c>
-      <c r="I27" s="44" t="s">
+      <c r="I27" s="43" t="s">
         <v>533</v>
       </c>
-      <c r="J27" s="44" t="s">
+      <c r="J27" s="43" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:10" s="45" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C28" s="46"/>
-      <c r="G28" s="46"/>
-    </row>
-    <row r="29" spans="1:10" s="44" customFormat="1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A29" s="44" t="s">
+    <row r="28" spans="1:10" s="44" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C28" s="45"/>
+      <c r="G28" s="45"/>
+    </row>
+    <row r="29" spans="1:10" s="43" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="A29" s="43" t="s">
         <v>143</v>
       </c>
-      <c r="B29" s="44" t="s">
+      <c r="B29" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="C29" s="49" t="s">
+      <c r="C29" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="E29" s="44" t="s">
+      <c r="E29" s="43" t="s">
         <v>170</v>
       </c>
-      <c r="F29" s="44" t="s">
+      <c r="F29" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="G29" s="49" t="s">
+      <c r="G29" s="48" t="s">
         <v>507</v>
       </c>
-      <c r="I29" s="44" t="s">
+      <c r="I29" s="43" t="s">
         <v>522</v>
       </c>
-      <c r="J29" s="44" t="s">
+      <c r="J29" s="43" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:10" s="47" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A30" s="47" t="s">
+    <row r="30" spans="1:10" s="46" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A30" s="46" t="s">
         <v>144</v>
       </c>
-      <c r="B30" s="47" t="s">
+      <c r="B30" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="C30" s="48" t="s">
+      <c r="C30" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="E30" s="47" t="s">
+      <c r="E30" s="46" t="s">
         <v>171</v>
       </c>
-      <c r="F30" s="47" t="s">
+      <c r="F30" s="46" t="s">
         <v>85</v>
       </c>
-      <c r="G30" s="48" t="s">
+      <c r="G30" s="47" t="s">
         <v>510</v>
       </c>
       <c r="H30" s="11" t="s">
@@ -5532,80 +5662,80 @@
       <c r="I30" s="11" t="s">
         <v>517</v>
       </c>
-      <c r="J30" s="47" t="s">
+      <c r="J30" s="46" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:10" s="44" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A31" s="44" t="s">
+    <row r="31" spans="1:10" s="43" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A31" s="43" t="s">
         <v>145</v>
       </c>
-      <c r="B31" s="44" t="s">
+      <c r="B31" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="C31" s="49" t="s">
+      <c r="C31" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="E31" s="44" t="s">
+      <c r="E31" s="43" t="s">
         <v>172</v>
       </c>
-      <c r="F31" s="44" t="s">
+      <c r="F31" s="43" t="s">
         <v>169</v>
       </c>
-      <c r="G31" s="49" t="s">
+      <c r="G31" s="48" t="s">
         <v>507</v>
       </c>
-      <c r="H31" s="50"/>
-      <c r="I31" s="50" t="s">
+      <c r="H31" s="49"/>
+      <c r="I31" s="49" t="s">
         <v>523</v>
       </c>
-      <c r="J31" s="44" t="s">
+      <c r="J31" s="43" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:10" s="44" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A32" s="44" t="s">
+    <row r="32" spans="1:10" s="43" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A32" s="43" t="s">
         <v>146</v>
       </c>
-      <c r="B32" s="44" t="s">
+      <c r="B32" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="C32" s="49" t="s">
+      <c r="C32" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="E32" s="44" t="s">
+      <c r="E32" s="43" t="s">
         <v>173</v>
       </c>
-      <c r="F32" s="44" t="s">
+      <c r="F32" s="43" t="s">
         <v>169</v>
       </c>
-      <c r="G32" s="49" t="s">
+      <c r="G32" s="48" t="s">
         <v>507</v>
       </c>
-      <c r="I32" s="50" t="s">
+      <c r="I32" s="49" t="s">
         <v>523</v>
       </c>
-      <c r="J32" s="44" t="s">
+      <c r="J32" s="43" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:10" s="47" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A33" s="47" t="s">
+    <row r="33" spans="1:10" s="46" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A33" s="46" t="s">
         <v>147</v>
       </c>
-      <c r="B33" s="47" t="s">
+      <c r="B33" s="46" t="s">
         <v>81</v>
       </c>
-      <c r="C33" s="48" t="s">
+      <c r="C33" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="E33" s="47" t="s">
+      <c r="E33" s="46" t="s">
         <v>174</v>
       </c>
-      <c r="F33" s="47" t="s">
+      <c r="F33" s="46" t="s">
         <v>84</v>
       </c>
-      <c r="G33" s="48" t="s">
+      <c r="G33" s="47" t="s">
         <v>510</v>
       </c>
       <c r="H33" s="11" t="s">
@@ -5614,27 +5744,27 @@
       <c r="I33" s="11" t="s">
         <v>524</v>
       </c>
-      <c r="J33" s="47" t="s">
+      <c r="J33" s="46" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:10" s="47" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A34" s="47" t="s">
+    <row r="34" spans="1:10" s="46" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A34" s="46" t="s">
         <v>148</v>
       </c>
-      <c r="B34" s="47" t="s">
+      <c r="B34" s="46" t="s">
         <v>86</v>
       </c>
-      <c r="C34" s="48" t="s">
+      <c r="C34" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="E34" s="47" t="s">
+      <c r="E34" s="46" t="s">
         <v>175</v>
       </c>
-      <c r="F34" s="47" t="s">
+      <c r="F34" s="46" t="s">
         <v>84</v>
       </c>
-      <c r="G34" s="48" t="s">
+      <c r="G34" s="47" t="s">
         <v>371</v>
       </c>
       <c r="H34" s="11" t="s">
@@ -5643,53 +5773,53 @@
       <c r="I34" s="11" t="s">
         <v>517</v>
       </c>
-      <c r="J34" s="47" t="s">
+      <c r="J34" s="46" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="1:10" s="44" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A35" s="44" t="s">
+    <row r="35" spans="1:10" s="43" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A35" s="43" t="s">
         <v>149</v>
       </c>
-      <c r="B35" s="44" t="s">
+      <c r="B35" s="43" t="s">
         <v>119</v>
       </c>
-      <c r="C35" s="49" t="s">
+      <c r="C35" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="E35" s="44" t="s">
+      <c r="E35" s="43" t="s">
         <v>176</v>
       </c>
-      <c r="F35" s="44" t="s">
+      <c r="F35" s="43" t="s">
         <v>169</v>
       </c>
-      <c r="G35" s="49" t="s">
+      <c r="G35" s="48" t="s">
         <v>507</v>
       </c>
-      <c r="I35" s="50" t="s">
+      <c r="I35" s="49" t="s">
         <v>523</v>
       </c>
-      <c r="J35" s="44" t="s">
+      <c r="J35" s="43" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="1:10" s="47" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A36" s="47" t="s">
+    <row r="36" spans="1:10" s="46" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A36" s="46" t="s">
         <v>150</v>
       </c>
-      <c r="B36" s="47" t="s">
+      <c r="B36" s="46" t="s">
         <v>89</v>
       </c>
-      <c r="C36" s="48" t="s">
+      <c r="C36" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="E36" s="47" t="s">
+      <c r="E36" s="46" t="s">
         <v>176</v>
       </c>
-      <c r="F36" s="47" t="s">
+      <c r="F36" s="46" t="s">
         <v>84</v>
       </c>
-      <c r="G36" s="48" t="s">
+      <c r="G36" s="47" t="s">
         <v>510</v>
       </c>
       <c r="H36" s="11" t="s">
@@ -5698,53 +5828,53 @@
       <c r="I36" s="11" t="s">
         <v>525</v>
       </c>
-      <c r="J36" s="47" t="s">
+      <c r="J36" s="46" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="37" spans="1:10" s="44" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A37" s="44" t="s">
+    <row r="37" spans="1:10" s="43" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A37" s="43" t="s">
         <v>151</v>
       </c>
-      <c r="B37" s="44" t="s">
+      <c r="B37" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="C37" s="49" t="s">
+      <c r="C37" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="E37" s="44" t="s">
+      <c r="E37" s="43" t="s">
         <v>177</v>
       </c>
-      <c r="F37" s="44" t="s">
+      <c r="F37" s="43" t="s">
         <v>92</v>
       </c>
-      <c r="G37" s="49" t="s">
+      <c r="G37" s="48" t="s">
         <v>507</v>
       </c>
-      <c r="I37" s="44" t="s">
+      <c r="I37" s="43" t="s">
         <v>526</v>
       </c>
-      <c r="J37" s="44" t="s">
+      <c r="J37" s="43" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="1:10" s="47" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A38" s="47" t="s">
+    <row r="38" spans="1:10" s="46" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A38" s="46" t="s">
         <v>152</v>
       </c>
-      <c r="B38" s="47" t="s">
+      <c r="B38" s="46" t="s">
         <v>99</v>
       </c>
-      <c r="C38" s="48" t="s">
+      <c r="C38" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="E38" s="47" t="s">
+      <c r="E38" s="46" t="s">
         <v>178</v>
       </c>
-      <c r="F38" s="47" t="s">
+      <c r="F38" s="46" t="s">
         <v>84</v>
       </c>
-      <c r="G38" s="48" t="s">
+      <c r="G38" s="47" t="s">
         <v>510</v>
       </c>
       <c r="H38" s="11" t="s">
@@ -5753,134 +5883,134 @@
       <c r="I38" s="11" t="s">
         <v>517</v>
       </c>
-      <c r="J38" s="47" t="s">
+      <c r="J38" s="46" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="39" spans="1:10" s="44" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A39" s="44" t="s">
+    <row r="39" spans="1:10" s="43" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A39" s="43" t="s">
         <v>153</v>
       </c>
-      <c r="B39" s="44" t="s">
+      <c r="B39" s="43" t="s">
         <v>101</v>
       </c>
-      <c r="C39" s="49" t="s">
+      <c r="C39" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="E39" s="44" t="s">
+      <c r="E39" s="43" t="s">
         <v>179</v>
       </c>
-      <c r="F39" s="44" t="s">
+      <c r="F39" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="G39" s="49" t="s">
+      <c r="G39" s="48" t="s">
         <v>507</v>
       </c>
-      <c r="I39" s="44" t="s">
+      <c r="I39" s="43" t="s">
         <v>528</v>
       </c>
-      <c r="J39" s="44" t="s">
+      <c r="J39" s="43" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="40" spans="1:10" s="47" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A40" s="47" t="s">
+    <row r="40" spans="1:10" s="46" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A40" s="46" t="s">
         <v>154</v>
       </c>
-      <c r="B40" s="47" t="s">
+      <c r="B40" s="46" t="s">
         <v>103</v>
       </c>
-      <c r="C40" s="48" t="s">
+      <c r="C40" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="E40" s="47" t="s">
+      <c r="E40" s="46" t="s">
         <v>180</v>
       </c>
-      <c r="F40" s="47" t="s">
+      <c r="F40" s="46" t="s">
         <v>84</v>
       </c>
-      <c r="G40" s="48" t="s">
+      <c r="G40" s="47" t="s">
         <v>510</v>
       </c>
       <c r="H40" s="11" t="s">
         <v>539</v>
       </c>
-      <c r="I40" s="47" t="s">
+      <c r="I40" s="46" t="s">
         <v>530</v>
       </c>
-      <c r="J40" s="47" t="s">
+      <c r="J40" s="46" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="41" spans="1:10" s="44" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A41" s="44" t="s">
+    <row r="41" spans="1:10" s="43" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A41" s="43" t="s">
         <v>155</v>
       </c>
-      <c r="B41" s="44" t="s">
+      <c r="B41" s="43" t="s">
         <v>118</v>
       </c>
-      <c r="C41" s="49" t="s">
+      <c r="C41" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="E41" s="44" t="s">
+      <c r="E41" s="43" t="s">
         <v>181</v>
       </c>
-      <c r="F41" s="44" t="s">
+      <c r="F41" s="43" t="s">
         <v>169</v>
       </c>
-      <c r="G41" s="49" t="s">
+      <c r="G41" s="48" t="s">
         <v>507</v>
       </c>
-      <c r="I41" s="44" t="s">
+      <c r="I41" s="43" t="s">
         <v>531</v>
       </c>
-      <c r="J41" s="44" t="s">
+      <c r="J41" s="43" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="42" spans="1:10" s="44" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A42" s="44" t="s">
+    <row r="42" spans="1:10" s="43" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A42" s="43" t="s">
         <v>156</v>
       </c>
-      <c r="B42" s="44" t="s">
+      <c r="B42" s="43" t="s">
         <v>117</v>
       </c>
-      <c r="C42" s="49" t="s">
+      <c r="C42" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="E42" s="44" t="s">
+      <c r="E42" s="43" t="s">
         <v>182</v>
       </c>
-      <c r="F42" s="44" t="s">
+      <c r="F42" s="43" t="s">
         <v>168</v>
       </c>
-      <c r="G42" s="49" t="s">
+      <c r="G42" s="48" t="s">
         <v>507</v>
       </c>
-      <c r="I42" s="44" t="s">
+      <c r="I42" s="43" t="s">
         <v>531</v>
       </c>
-      <c r="J42" s="44" t="s">
+      <c r="J42" s="43" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="43" spans="1:10" s="47" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A43" s="47" t="s">
+    <row r="43" spans="1:10" s="46" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A43" s="46" t="s">
         <v>157</v>
       </c>
-      <c r="B43" s="47" t="s">
+      <c r="B43" s="46" t="s">
         <v>106</v>
       </c>
-      <c r="C43" s="48" t="s">
+      <c r="C43" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="E43" s="47" t="s">
+      <c r="E43" s="46" t="s">
         <v>183</v>
       </c>
-      <c r="F43" s="47" t="s">
+      <c r="F43" s="46" t="s">
         <v>84</v>
       </c>
-      <c r="G43" s="48" t="s">
+      <c r="G43" s="47" t="s">
         <v>510</v>
       </c>
       <c r="H43" s="11" t="s">
@@ -5889,53 +6019,53 @@
       <c r="I43" s="11" t="s">
         <v>517</v>
       </c>
-      <c r="J43" s="47" t="s">
+      <c r="J43" s="46" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="44" spans="1:10" s="47" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A44" s="47" t="s">
+    <row r="44" spans="1:10" s="46" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A44" s="46" t="s">
         <v>158</v>
       </c>
-      <c r="B44" s="47" t="s">
+      <c r="B44" s="46" t="s">
         <v>109</v>
       </c>
-      <c r="C44" s="48" t="s">
+      <c r="C44" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="E44" s="47" t="s">
+      <c r="E44" s="46" t="s">
         <v>184</v>
       </c>
-      <c r="F44" s="47" t="s">
+      <c r="F44" s="46" t="s">
         <v>84</v>
       </c>
-      <c r="G44" s="48" t="s">
+      <c r="G44" s="47" t="s">
         <v>510</v>
       </c>
       <c r="H44" s="11" t="s">
         <v>541</v>
       </c>
-      <c r="J44" s="47" t="s">
+      <c r="J44" s="46" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="45" spans="1:10" s="47" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A45" s="47" t="s">
+    <row r="45" spans="1:10" s="46" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A45" s="46" t="s">
         <v>159</v>
       </c>
-      <c r="B45" s="47" t="s">
+      <c r="B45" s="46" t="s">
         <v>111</v>
       </c>
-      <c r="C45" s="48" t="s">
+      <c r="C45" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="E45" s="47" t="s">
+      <c r="E45" s="46" t="s">
         <v>185</v>
       </c>
-      <c r="F45" s="47" t="s">
+      <c r="F45" s="46" t="s">
         <v>84</v>
       </c>
-      <c r="G45" s="48" t="s">
+      <c r="G45" s="47" t="s">
         <v>510</v>
       </c>
       <c r="H45" s="11" t="s">
@@ -5944,27 +6074,27 @@
       <c r="I45" s="11" t="s">
         <v>517</v>
       </c>
-      <c r="J45" s="47" t="s">
+      <c r="J45" s="46" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="46" spans="1:10" s="47" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A46" s="47" t="s">
+    <row r="46" spans="1:10" s="46" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A46" s="46" t="s">
         <v>160</v>
       </c>
-      <c r="B46" s="47" t="s">
+      <c r="B46" s="46" t="s">
         <v>113</v>
       </c>
-      <c r="C46" s="48" t="s">
+      <c r="C46" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="E46" s="47" t="s">
+      <c r="E46" s="46" t="s">
         <v>186</v>
       </c>
-      <c r="F46" s="47" t="s">
+      <c r="F46" s="46" t="s">
         <v>84</v>
       </c>
-      <c r="G46" s="48" t="s">
+      <c r="G46" s="47" t="s">
         <v>510</v>
       </c>
       <c r="H46" s="11" t="s">
@@ -5973,27 +6103,27 @@
       <c r="I46" s="11" t="s">
         <v>517</v>
       </c>
-      <c r="J46" s="47" t="s">
+      <c r="J46" s="46" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="47" spans="1:10" s="47" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A47" s="47" t="s">
+    <row r="47" spans="1:10" s="46" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A47" s="46" t="s">
         <v>161</v>
       </c>
-      <c r="B47" s="47" t="s">
+      <c r="B47" s="46" t="s">
         <v>120</v>
       </c>
-      <c r="C47" s="48" t="s">
+      <c r="C47" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="E47" s="47" t="s">
+      <c r="E47" s="46" t="s">
         <v>187</v>
       </c>
-      <c r="F47" s="47" t="s">
+      <c r="F47" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="G47" s="48" t="s">
+      <c r="G47" s="47" t="s">
         <v>510</v>
       </c>
       <c r="H47" s="11" t="s">
@@ -6002,27 +6132,27 @@
       <c r="I47" s="11" t="s">
         <v>517</v>
       </c>
-      <c r="J47" s="47" t="s">
+      <c r="J47" s="46" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="1:10" s="47" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A48" s="47" t="s">
+    <row r="48" spans="1:10" s="46" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A48" s="46" t="s">
         <v>162</v>
       </c>
-      <c r="B48" s="47" t="s">
+      <c r="B48" s="46" t="s">
         <v>123</v>
       </c>
-      <c r="C48" s="48" t="s">
+      <c r="C48" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="E48" s="47" t="s">
+      <c r="E48" s="46" t="s">
         <v>512</v>
       </c>
-      <c r="F48" s="47" t="s">
+      <c r="F48" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="G48" s="48" t="s">
+      <c r="G48" s="47" t="s">
         <v>510</v>
       </c>
       <c r="H48" s="11" t="s">
@@ -6031,27 +6161,27 @@
       <c r="I48" s="11" t="s">
         <v>517</v>
       </c>
-      <c r="J48" s="47" t="s">
+      <c r="J48" s="46" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="49" spans="1:10" s="47" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A49" s="47" t="s">
+    <row r="49" spans="1:10" s="46" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A49" s="46" t="s">
         <v>163</v>
       </c>
-      <c r="B49" s="47" t="s">
+      <c r="B49" s="46" t="s">
         <v>125</v>
       </c>
-      <c r="C49" s="48" t="s">
+      <c r="C49" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="E49" s="47" t="s">
+      <c r="E49" s="46" t="s">
         <v>511</v>
       </c>
-      <c r="F49" s="47" t="s">
+      <c r="F49" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="G49" s="48" t="s">
+      <c r="G49" s="47" t="s">
         <v>510</v>
       </c>
       <c r="H49" s="11" t="s">
@@ -6060,160 +6190,160 @@
       <c r="I49" s="11" t="s">
         <v>517</v>
       </c>
-      <c r="J49" s="47" t="s">
+      <c r="J49" s="46" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="50" spans="1:10" s="44" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A50" s="44" t="s">
+    <row r="50" spans="1:10" s="43" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A50" s="43" t="s">
         <v>164</v>
       </c>
-      <c r="B50" s="44" t="s">
+      <c r="B50" s="43" t="s">
         <v>127</v>
       </c>
-      <c r="C50" s="49" t="s">
+      <c r="C50" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="E50" s="44" t="s">
+      <c r="E50" s="43" t="s">
         <v>513</v>
       </c>
-      <c r="F50" s="44" t="s">
+      <c r="F50" s="43" t="s">
         <v>168</v>
       </c>
-      <c r="G50" s="49" t="s">
+      <c r="G50" s="48" t="s">
         <v>357</v>
       </c>
-      <c r="I50" s="44" t="s">
+      <c r="I50" s="43" t="s">
         <v>531</v>
       </c>
-      <c r="J50" s="44" t="s">
+      <c r="J50" s="43" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:10" s="44" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A51" s="44" t="s">
+    <row r="51" spans="1:10" s="43" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A51" s="43" t="s">
         <v>165</v>
       </c>
-      <c r="B51" s="44" t="s">
+      <c r="B51" s="43" t="s">
         <v>135</v>
       </c>
-      <c r="C51" s="49" t="s">
+      <c r="C51" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="E51" s="44" t="s">
+      <c r="E51" s="43" t="s">
         <v>188</v>
       </c>
-      <c r="F51" s="44" t="s">
+      <c r="F51" s="43" t="s">
         <v>137</v>
       </c>
-      <c r="G51" s="49" t="s">
+      <c r="G51" s="48" t="s">
         <v>357</v>
       </c>
-      <c r="I51" s="44" t="s">
+      <c r="I51" s="43" t="s">
         <v>532</v>
       </c>
-      <c r="J51" s="44" t="s">
+      <c r="J51" s="43" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:10" s="44" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A52" s="44" t="s">
+    <row r="52" spans="1:10" s="43" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A52" s="43" t="s">
         <v>166</v>
       </c>
-      <c r="B52" s="44" t="s">
+      <c r="B52" s="43" t="s">
         <v>138</v>
       </c>
-      <c r="C52" s="49" t="s">
+      <c r="C52" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="E52" s="44" t="s">
+      <c r="E52" s="43" t="s">
         <v>189</v>
       </c>
-      <c r="F52" s="44" t="s">
+      <c r="F52" s="43" t="s">
         <v>168</v>
       </c>
-      <c r="G52" s="49" t="s">
+      <c r="G52" s="48" t="s">
         <v>357</v>
       </c>
-      <c r="I52" s="44" t="s">
+      <c r="I52" s="43" t="s">
         <v>531</v>
       </c>
-      <c r="J52" s="44" t="s">
+      <c r="J52" s="43" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:10" s="44" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A53" s="44" t="s">
+    <row r="53" spans="1:10" s="43" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A53" s="43" t="s">
         <v>167</v>
       </c>
-      <c r="B53" s="44" t="s">
+      <c r="B53" s="43" t="s">
         <v>139</v>
       </c>
-      <c r="C53" s="49" t="s">
+      <c r="C53" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="E53" s="44" t="s">
+      <c r="E53" s="43" t="s">
         <v>190</v>
       </c>
-      <c r="F53" s="44" t="s">
+      <c r="F53" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="G53" s="49" t="s">
+      <c r="G53" s="48" t="s">
         <v>507</v>
       </c>
-      <c r="I53" s="44" t="s">
+      <c r="I53" s="43" t="s">
         <v>533</v>
       </c>
-      <c r="J53" s="44" t="s">
+      <c r="J53" s="43" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="54" spans="1:10" s="45" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C54" s="46"/>
-    </row>
-    <row r="55" spans="1:10" s="44" customFormat="1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A55" s="44" t="s">
+    <row r="54" spans="1:10" s="44" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C54" s="45"/>
+    </row>
+    <row r="55" spans="1:10" s="43" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="A55" s="43" t="s">
         <v>191</v>
       </c>
-      <c r="B55" s="44" t="s">
+      <c r="B55" s="43" t="s">
         <v>192</v>
       </c>
-      <c r="C55" s="49" t="s">
+      <c r="C55" s="48" t="s">
         <v>193</v>
       </c>
-      <c r="E55" s="44" t="s">
+      <c r="E55" s="43" t="s">
         <v>194</v>
       </c>
-      <c r="F55" s="44" t="s">
+      <c r="F55" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="G55" s="49" t="s">
+      <c r="G55" s="48" t="s">
         <v>507</v>
       </c>
-      <c r="J55" s="44" t="s">
+      <c r="J55" s="43" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="56" spans="1:10" s="44" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="44" t="s">
+    <row r="56" spans="1:10" s="43" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="43" t="s">
         <v>474</v>
       </c>
-      <c r="B56" s="44" t="s">
+      <c r="B56" s="43" t="s">
         <v>475</v>
       </c>
-      <c r="C56" s="49" t="s">
+      <c r="C56" s="48" t="s">
         <v>193</v>
       </c>
-      <c r="E56" s="44" t="s">
+      <c r="E56" s="43" t="s">
         <v>476</v>
       </c>
-      <c r="F56" s="44" t="s">
+      <c r="F56" s="43" t="s">
         <v>477</v>
       </c>
-      <c r="G56" s="49" t="s">
+      <c r="G56" s="48" t="s">
         <v>507</v>
       </c>
-      <c r="J56" s="44" t="s">
+      <c r="J56" s="43" t="s">
         <v>50</v>
       </c>
     </row>
@@ -6233,18 +6363,18 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.6640625" style="41" customWidth="1"/>
-    <col min="2" max="2" width="57.109375" style="41" customWidth="1"/>
-    <col min="3" max="3" width="23.44140625" style="32" customWidth="1"/>
-    <col min="4" max="4" width="23.44140625" style="41" customWidth="1"/>
-    <col min="5" max="5" width="62.33203125" style="41" customWidth="1"/>
-    <col min="6" max="6" width="46.5546875" style="41" customWidth="1"/>
-    <col min="7" max="7" width="20.109375" style="32" customWidth="1"/>
-    <col min="8" max="8" width="25.33203125" style="41" customWidth="1"/>
-    <col min="9" max="9" width="18.6640625" style="41" customWidth="1"/>
-    <col min="10" max="10" width="28" style="41" customWidth="1"/>
-    <col min="11" max="11" width="31.109375" style="41" customWidth="1"/>
-    <col min="12" max="16384" width="9.109375" style="41"/>
+    <col min="1" max="1" width="25.6640625" style="40" customWidth="1"/>
+    <col min="2" max="2" width="57.109375" style="40" customWidth="1"/>
+    <col min="3" max="3" width="23.44140625" style="31" customWidth="1"/>
+    <col min="4" max="4" width="23.44140625" style="40" customWidth="1"/>
+    <col min="5" max="5" width="62.33203125" style="40" customWidth="1"/>
+    <col min="6" max="6" width="46.5546875" style="40" customWidth="1"/>
+    <col min="7" max="7" width="20.109375" style="31" customWidth="1"/>
+    <col min="8" max="8" width="25.33203125" style="40" customWidth="1"/>
+    <col min="9" max="9" width="18.6640625" style="40" customWidth="1"/>
+    <col min="10" max="10" width="28" style="40" customWidth="1"/>
+    <col min="11" max="11" width="31.109375" style="40" customWidth="1"/>
+    <col min="12" max="16384" width="9.109375" style="40"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6282,295 +6412,295 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="42" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="42" t="s">
+    <row r="2" spans="1:11" s="41" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="43" t="s">
+      <c r="C2" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="42" t="s">
+      <c r="E2" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="F2" s="42" t="s">
+      <c r="F2" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="43" t="s">
+      <c r="G2" s="42" t="s">
         <v>229</v>
       </c>
-      <c r="I2" s="42" t="s">
+      <c r="I2" s="41" t="s">
         <v>497</v>
       </c>
-      <c r="J2" s="42" t="s">
+      <c r="J2" s="41" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="42" customFormat="1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A3" s="42" t="s">
+    <row r="3" spans="1:11" s="41" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="A3" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="43" t="s">
+      <c r="C3" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="42" t="s">
+      <c r="D3" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="42" t="s">
+      <c r="E3" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="F3" s="42" t="s">
+      <c r="F3" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="43" t="s">
+      <c r="G3" s="42" t="s">
         <v>229</v>
       </c>
-      <c r="I3" s="42" t="s">
+      <c r="I3" s="41" t="s">
         <v>498</v>
       </c>
-      <c r="J3" s="42" t="s">
+      <c r="J3" s="41" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="42" customFormat="1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A4" s="42" t="s">
+    <row r="4" spans="1:11" s="41" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="A4" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="43" t="s">
+      <c r="C4" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="42" t="s">
+      <c r="D4" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="42" t="s">
+      <c r="E4" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="42" t="s">
+      <c r="F4" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="G4" s="43" t="s">
+      <c r="G4" s="42" t="s">
         <v>229</v>
       </c>
-      <c r="I4" s="42" t="s">
+      <c r="I4" s="41" t="s">
         <v>499</v>
       </c>
-      <c r="J4" s="42" t="s">
+      <c r="J4" s="41" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="42" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="42" t="s">
+    <row r="5" spans="1:11" s="41" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="43" t="s">
+      <c r="C5" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="42" t="s">
+      <c r="E5" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="F5" s="42" t="s">
+      <c r="F5" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="G5" s="43" t="s">
+      <c r="G5" s="42" t="s">
         <v>229</v>
       </c>
-      <c r="I5" s="42" t="s">
+      <c r="I5" s="41" t="s">
         <v>500</v>
       </c>
-      <c r="J5" s="42" t="s">
+      <c r="J5" s="41" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="42" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="42" t="s">
+    <row r="6" spans="1:11" s="41" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="43" t="s">
+      <c r="C6" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="42" t="s">
+      <c r="E6" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="F6" s="42" t="s">
+      <c r="F6" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="G6" s="43" t="s">
+      <c r="G6" s="42" t="s">
         <v>229</v>
       </c>
-      <c r="I6" s="42" t="s">
+      <c r="I6" s="41" t="s">
         <v>501</v>
       </c>
-      <c r="J6" s="42" t="s">
+      <c r="J6" s="41" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="42" customFormat="1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A7" s="42" t="s">
+    <row r="7" spans="1:11" s="41" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="A7" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="42" t="s">
+      <c r="B7" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="C7" s="43" t="s">
+      <c r="C7" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="42" t="s">
+      <c r="E7" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="F7" s="42" t="s">
+      <c r="F7" s="41" t="s">
         <v>502</v>
       </c>
-      <c r="G7" s="43" t="s">
+      <c r="G7" s="42" t="s">
         <v>229</v>
       </c>
-      <c r="I7" s="42" t="s">
+      <c r="I7" s="41" t="s">
         <v>503</v>
       </c>
-      <c r="J7" s="42" t="s">
+      <c r="J7" s="41" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="42" customFormat="1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A8" s="42" t="s">
+    <row r="8" spans="1:11" s="41" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="A8" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="42" t="s">
+      <c r="B8" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="C8" s="43" t="s">
+      <c r="C8" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="42" t="s">
+      <c r="E8" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="F8" s="42" t="s">
+      <c r="F8" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="G8" s="43" t="s">
+      <c r="G8" s="42" t="s">
         <v>229</v>
       </c>
-      <c r="I8" s="42" t="s">
+      <c r="I8" s="41" t="s">
         <v>504</v>
       </c>
-      <c r="J8" s="42" t="s">
+      <c r="J8" s="41" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="42" customFormat="1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A9" s="42" t="s">
+    <row r="9" spans="1:11" s="41" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="A9" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="42" t="s">
+      <c r="B9" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="43" t="s">
+      <c r="C9" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="42" t="s">
+      <c r="E9" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="F9" s="42" t="s">
+      <c r="F9" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="G9" s="43" t="s">
+      <c r="G9" s="42" t="s">
         <v>229</v>
       </c>
-      <c r="I9" s="42" t="s">
+      <c r="I9" s="41" t="s">
         <v>504</v>
       </c>
-      <c r="J9" s="42" t="s">
+      <c r="J9" s="41" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="42" customFormat="1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A10" s="42" t="s">
+    <row r="10" spans="1:11" s="41" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="A10" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="42" t="s">
+      <c r="B10" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="43" t="s">
+      <c r="C10" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="42" t="s">
+      <c r="E10" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="F10" s="42" t="s">
+      <c r="F10" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="G10" s="43" t="s">
+      <c r="G10" s="42" t="s">
         <v>229</v>
       </c>
-      <c r="I10" s="42" t="s">
+      <c r="I10" s="41" t="s">
         <v>504</v>
       </c>
-      <c r="J10" s="42" t="s">
+      <c r="J10" s="41" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="42" customFormat="1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A11" s="42" t="s">
+    <row r="11" spans="1:11" s="41" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="A11" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="B11" s="42" t="s">
+      <c r="B11" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="C11" s="43" t="s">
+      <c r="C11" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="42" t="s">
+      <c r="E11" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="F11" s="42" t="s">
+      <c r="F11" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="G11" s="43" t="s">
+      <c r="G11" s="42" t="s">
         <v>229</v>
       </c>
-      <c r="I11" s="42" t="s">
+      <c r="I11" s="41" t="s">
         <v>504</v>
       </c>
-      <c r="J11" s="42" t="s">
+      <c r="J11" s="41" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="42" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A12" s="42" t="s">
+    <row r="12" spans="1:11" s="41" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="41" t="s">
         <v>470</v>
       </c>
-      <c r="B12" s="42" t="s">
+      <c r="B12" s="41" t="s">
         <v>471</v>
       </c>
-      <c r="C12" s="43" t="s">
+      <c r="C12" s="42" t="s">
         <v>472</v>
       </c>
-      <c r="E12" s="42" t="s">
+      <c r="E12" s="41" t="s">
         <v>473</v>
       </c>
-      <c r="F12" s="42" t="s">
+      <c r="F12" s="41" t="s">
         <v>505</v>
       </c>
-      <c r="G12" s="43" t="s">
+      <c r="G12" s="42" t="s">
         <v>229</v>
       </c>
-      <c r="I12" s="42" t="s">
+      <c r="I12" s="41" t="s">
         <v>506</v>
       </c>
-      <c r="J12" s="42" t="s">
+      <c r="J12" s="41" t="s">
         <v>50</v>
       </c>
     </row>
@@ -7505,649 +7635,649 @@
       <c r="L1" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="M1" s="56" t="s">
+      <c r="M1" s="55" t="s">
         <v>649</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="137.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="50" t="s">
         <v>240</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="50" t="s">
         <v>241</v>
       </c>
-      <c r="C2" s="51" t="s">
+      <c r="C2" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="52" t="s">
+      <c r="D2" s="51" t="s">
         <v>242</v>
       </c>
-      <c r="E2" s="52" t="s">
+      <c r="E2" s="51" t="s">
         <v>545</v>
       </c>
-      <c r="F2" s="52" t="s">
+      <c r="F2" s="51" t="s">
         <v>243</v>
       </c>
-      <c r="G2" s="51" t="s">
+      <c r="G2" s="50" t="s">
         <v>229</v>
       </c>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51" t="s">
+      <c r="H2" s="50"/>
+      <c r="I2" s="50" t="s">
         <v>546</v>
       </c>
-      <c r="J2" s="51" t="s">
+      <c r="J2" s="50" t="s">
         <v>244</v>
       </c>
-      <c r="K2" s="51" t="s">
+      <c r="K2" s="50" t="s">
         <v>547</v>
       </c>
-      <c r="L2" s="51" t="s">
+      <c r="L2" s="50" t="s">
         <v>650</v>
       </c>
-      <c r="M2" s="51"/>
+      <c r="M2" s="50"/>
     </row>
     <row r="3" spans="1:13" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="50" t="s">
         <v>245</v>
       </c>
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="50" t="s">
         <v>343</v>
       </c>
-      <c r="C3" s="51" t="s">
+      <c r="C3" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="52" t="s">
+      <c r="D3" s="51" t="s">
         <v>242</v>
       </c>
-      <c r="E3" s="52" t="s">
+      <c r="E3" s="51" t="s">
         <v>548</v>
       </c>
-      <c r="F3" s="52" t="s">
+      <c r="F3" s="51" t="s">
         <v>344</v>
       </c>
-      <c r="G3" s="51" t="s">
+      <c r="G3" s="50" t="s">
         <v>229</v>
       </c>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51" t="s">
+      <c r="H3" s="50"/>
+      <c r="I3" s="50" t="s">
         <v>574</v>
       </c>
-      <c r="J3" s="51" t="s">
+      <c r="J3" s="50" t="s">
         <v>244</v>
       </c>
-      <c r="K3" s="51"/>
-      <c r="L3" s="51" t="s">
+      <c r="K3" s="50"/>
+      <c r="L3" s="50" t="s">
         <v>650</v>
       </c>
-      <c r="M3" s="51"/>
+      <c r="M3" s="50"/>
     </row>
     <row r="4" spans="1:13" ht="122.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="50" t="s">
         <v>247</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="50" t="s">
         <v>345</v>
       </c>
-      <c r="C4" s="51" t="s">
+      <c r="C4" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="52" t="s">
+      <c r="D4" s="51" t="s">
         <v>242</v>
       </c>
-      <c r="E4" s="52" t="s">
+      <c r="E4" s="51" t="s">
         <v>549</v>
       </c>
-      <c r="F4" s="52" t="s">
+      <c r="F4" s="51" t="s">
         <v>246</v>
       </c>
-      <c r="G4" s="51" t="s">
+      <c r="G4" s="50" t="s">
         <v>229</v>
       </c>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51" t="s">
+      <c r="H4" s="50"/>
+      <c r="I4" s="50" t="s">
         <v>574</v>
       </c>
-      <c r="J4" s="51" t="s">
+      <c r="J4" s="50" t="s">
         <v>244</v>
       </c>
-      <c r="K4" s="51"/>
-      <c r="L4" s="51" t="s">
+      <c r="K4" s="50"/>
+      <c r="L4" s="50" t="s">
         <v>650</v>
       </c>
-      <c r="M4" s="51"/>
+      <c r="M4" s="50"/>
     </row>
     <row r="5" spans="1:13" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="51" t="s">
+      <c r="A5" s="50" t="s">
         <v>250</v>
       </c>
-      <c r="B5" s="51" t="s">
+      <c r="B5" s="50" t="s">
         <v>248</v>
       </c>
-      <c r="C5" s="51" t="s">
+      <c r="C5" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="52" t="s">
+      <c r="D5" s="51" t="s">
         <v>242</v>
       </c>
-      <c r="E5" s="52" t="s">
+      <c r="E5" s="51" t="s">
         <v>550</v>
       </c>
-      <c r="F5" s="52" t="s">
+      <c r="F5" s="51" t="s">
         <v>249</v>
       </c>
-      <c r="G5" s="51" t="s">
+      <c r="G5" s="50" t="s">
         <v>229</v>
       </c>
-      <c r="H5" s="51"/>
-      <c r="I5" s="51" t="s">
+      <c r="H5" s="50"/>
+      <c r="I5" s="50" t="s">
         <v>574</v>
       </c>
-      <c r="J5" s="51" t="s">
+      <c r="J5" s="50" t="s">
         <v>244</v>
       </c>
-      <c r="K5" s="51"/>
-      <c r="L5" s="51" t="s">
+      <c r="K5" s="50"/>
+      <c r="L5" s="50" t="s">
         <v>650</v>
       </c>
-      <c r="M5" s="51"/>
+      <c r="M5" s="50"/>
     </row>
     <row r="6" spans="1:13" ht="144" x14ac:dyDescent="0.3">
-      <c r="A6" s="61" t="s">
+      <c r="A6" s="60" t="s">
         <v>253</v>
       </c>
-      <c r="B6" s="61" t="s">
+      <c r="B6" s="60" t="s">
         <v>251</v>
       </c>
-      <c r="C6" s="61" t="s">
+      <c r="C6" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="62" t="s">
+      <c r="D6" s="61" t="s">
         <v>242</v>
       </c>
-      <c r="E6" s="62" t="s">
+      <c r="E6" s="61" t="s">
         <v>551</v>
       </c>
-      <c r="F6" s="62" t="s">
+      <c r="F6" s="61" t="s">
         <v>252</v>
       </c>
-      <c r="G6" s="61" t="s">
+      <c r="G6" s="60" t="s">
         <v>646</v>
       </c>
-      <c r="H6" s="63" t="s">
+      <c r="H6" s="62" t="s">
         <v>575</v>
       </c>
-      <c r="I6" s="62" t="s">
+      <c r="I6" s="61" t="s">
         <v>647</v>
       </c>
-      <c r="J6" s="61" t="s">
+      <c r="J6" s="60" t="s">
         <v>244</v>
       </c>
-      <c r="K6" s="61"/>
-      <c r="L6" s="61" t="s">
+      <c r="K6" s="60"/>
+      <c r="L6" s="60" t="s">
         <v>650</v>
       </c>
-      <c r="M6" s="61"/>
+      <c r="M6" s="60"/>
     </row>
     <row r="7" spans="1:13" ht="144" x14ac:dyDescent="0.3">
-      <c r="A7" s="51" t="s">
+      <c r="A7" s="50" t="s">
         <v>256</v>
       </c>
-      <c r="B7" s="51" t="s">
+      <c r="B7" s="50" t="s">
         <v>254</v>
       </c>
-      <c r="C7" s="51" t="s">
+      <c r="C7" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="52" t="s">
+      <c r="D7" s="51" t="s">
         <v>242</v>
       </c>
-      <c r="E7" s="52" t="s">
+      <c r="E7" s="51" t="s">
         <v>552</v>
       </c>
-      <c r="F7" s="52" t="s">
+      <c r="F7" s="51" t="s">
         <v>255</v>
       </c>
-      <c r="G7" s="51" t="s">
+      <c r="G7" s="50" t="s">
         <v>229</v>
       </c>
-      <c r="H7" s="51"/>
-      <c r="I7" s="51" t="s">
+      <c r="H7" s="50"/>
+      <c r="I7" s="50" t="s">
         <v>576</v>
       </c>
-      <c r="J7" s="51" t="s">
+      <c r="J7" s="50" t="s">
         <v>244</v>
       </c>
-      <c r="K7" s="51"/>
-      <c r="L7" s="51" t="s">
+      <c r="K7" s="50"/>
+      <c r="L7" s="50" t="s">
         <v>650</v>
       </c>
-      <c r="M7" s="51"/>
+      <c r="M7" s="50"/>
     </row>
     <row r="8" spans="1:13" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A8" s="51" t="s">
+      <c r="A8" s="50" t="s">
         <v>259</v>
       </c>
-      <c r="B8" s="51" t="s">
+      <c r="B8" s="50" t="s">
         <v>257</v>
       </c>
-      <c r="C8" s="51" t="s">
+      <c r="C8" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="52" t="s">
+      <c r="D8" s="51" t="s">
         <v>242</v>
       </c>
-      <c r="E8" s="52" t="s">
+      <c r="E8" s="51" t="s">
         <v>553</v>
       </c>
-      <c r="F8" s="52" t="s">
+      <c r="F8" s="51" t="s">
         <v>258</v>
       </c>
-      <c r="G8" s="51" t="s">
+      <c r="G8" s="50" t="s">
         <v>229</v>
       </c>
-      <c r="H8" s="51"/>
-      <c r="I8" s="51" t="s">
+      <c r="H8" s="50"/>
+      <c r="I8" s="50" t="s">
         <v>576</v>
       </c>
-      <c r="J8" s="51" t="s">
+      <c r="J8" s="50" t="s">
         <v>244</v>
       </c>
-      <c r="K8" s="51"/>
-      <c r="L8" s="51" t="s">
+      <c r="K8" s="50"/>
+      <c r="L8" s="50" t="s">
         <v>650</v>
       </c>
-      <c r="M8" s="51"/>
+      <c r="M8" s="50"/>
     </row>
     <row r="9" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A9" s="51" t="s">
+      <c r="A9" s="50" t="s">
         <v>262</v>
       </c>
-      <c r="B9" s="52" t="s">
+      <c r="B9" s="51" t="s">
         <v>260</v>
       </c>
-      <c r="C9" s="51" t="s">
+      <c r="C9" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="52" t="s">
+      <c r="D9" s="51" t="s">
         <v>242</v>
       </c>
-      <c r="E9" s="52" t="s">
+      <c r="E9" s="51" t="s">
         <v>554</v>
       </c>
-      <c r="F9" s="52" t="s">
+      <c r="F9" s="51" t="s">
         <v>261</v>
       </c>
-      <c r="G9" s="51" t="s">
+      <c r="G9" s="50" t="s">
         <v>229</v>
       </c>
-      <c r="H9" s="51"/>
-      <c r="I9" s="51" t="s">
+      <c r="H9" s="50"/>
+      <c r="I9" s="50" t="s">
         <v>577</v>
       </c>
-      <c r="J9" s="51" t="s">
+      <c r="J9" s="50" t="s">
         <v>244</v>
       </c>
-      <c r="K9" s="51"/>
-      <c r="L9" s="51" t="s">
+      <c r="K9" s="50"/>
+      <c r="L9" s="50" t="s">
         <v>650</v>
       </c>
-      <c r="M9" s="51"/>
+      <c r="M9" s="50"/>
     </row>
     <row r="10" spans="1:13" ht="144" x14ac:dyDescent="0.3">
-      <c r="A10" s="51" t="s">
+      <c r="A10" s="50" t="s">
         <v>265</v>
       </c>
-      <c r="B10" s="52" t="s">
+      <c r="B10" s="51" t="s">
         <v>263</v>
       </c>
-      <c r="C10" s="51" t="s">
+      <c r="C10" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="52" t="s">
+      <c r="D10" s="51" t="s">
         <v>242</v>
       </c>
-      <c r="E10" s="52" t="s">
+      <c r="E10" s="51" t="s">
         <v>555</v>
       </c>
-      <c r="F10" s="52" t="s">
+      <c r="F10" s="51" t="s">
         <v>264</v>
       </c>
-      <c r="G10" s="51" t="s">
+      <c r="G10" s="50" t="s">
         <v>229</v>
       </c>
-      <c r="H10" s="51"/>
-      <c r="I10" s="51" t="s">
+      <c r="H10" s="50"/>
+      <c r="I10" s="50" t="s">
         <v>578</v>
       </c>
-      <c r="J10" s="51" t="s">
+      <c r="J10" s="50" t="s">
         <v>244</v>
       </c>
-      <c r="K10" s="51"/>
-      <c r="L10" s="51" t="s">
+      <c r="K10" s="50"/>
+      <c r="L10" s="50" t="s">
         <v>650</v>
       </c>
-      <c r="M10" s="51"/>
+      <c r="M10" s="50"/>
     </row>
     <row r="11" spans="1:13" ht="144" x14ac:dyDescent="0.3">
-      <c r="A11" s="51" t="s">
+      <c r="A11" s="50" t="s">
         <v>267</v>
       </c>
-      <c r="B11" s="52" t="s">
+      <c r="B11" s="51" t="s">
         <v>266</v>
       </c>
-      <c r="C11" s="51" t="s">
+      <c r="C11" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="52" t="s">
+      <c r="D11" s="51" t="s">
         <v>242</v>
       </c>
-      <c r="E11" s="52" t="s">
+      <c r="E11" s="51" t="s">
         <v>556</v>
       </c>
-      <c r="F11" s="52" t="s">
+      <c r="F11" s="51" t="s">
         <v>579</v>
       </c>
-      <c r="G11" s="51" t="s">
+      <c r="G11" s="50" t="s">
         <v>229</v>
       </c>
-      <c r="H11" s="51"/>
-      <c r="I11" s="51" t="s">
+      <c r="H11" s="50"/>
+      <c r="I11" s="50" t="s">
         <v>579</v>
       </c>
-      <c r="J11" s="51" t="s">
+      <c r="J11" s="50" t="s">
         <v>244</v>
       </c>
-      <c r="K11" s="51"/>
-      <c r="L11" s="51" t="s">
+      <c r="K11" s="50"/>
+      <c r="L11" s="50" t="s">
         <v>650</v>
       </c>
-      <c r="M11" s="51"/>
+      <c r="M11" s="50"/>
     </row>
     <row r="12" spans="1:13" ht="144" x14ac:dyDescent="0.3">
-      <c r="A12" s="51" t="s">
+      <c r="A12" s="50" t="s">
         <v>268</v>
       </c>
-      <c r="B12" s="52" t="s">
+      <c r="B12" s="51" t="s">
         <v>269</v>
       </c>
-      <c r="C12" s="51" t="s">
+      <c r="C12" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="52" t="s">
+      <c r="D12" s="51" t="s">
         <v>242</v>
       </c>
-      <c r="E12" s="52" t="s">
+      <c r="E12" s="51" t="s">
         <v>557</v>
       </c>
-      <c r="F12" s="52" t="s">
+      <c r="F12" s="51" t="s">
         <v>558</v>
       </c>
-      <c r="G12" s="51" t="s">
+      <c r="G12" s="50" t="s">
         <v>229</v>
       </c>
-      <c r="H12" s="51"/>
-      <c r="I12" s="51" t="s">
+      <c r="H12" s="50"/>
+      <c r="I12" s="50" t="s">
         <v>579</v>
       </c>
-      <c r="J12" s="51" t="s">
+      <c r="J12" s="50" t="s">
         <v>244</v>
       </c>
-      <c r="K12" s="51"/>
-      <c r="L12" s="51" t="s">
+      <c r="K12" s="50"/>
+      <c r="L12" s="50" t="s">
         <v>650</v>
       </c>
-      <c r="M12" s="51"/>
+      <c r="M12" s="50"/>
     </row>
     <row r="13" spans="1:13" ht="144" x14ac:dyDescent="0.3">
-      <c r="A13" s="61" t="s">
+      <c r="A13" s="60" t="s">
         <v>270</v>
       </c>
-      <c r="B13" s="62" t="s">
+      <c r="B13" s="61" t="s">
         <v>573</v>
       </c>
-      <c r="C13" s="61" t="s">
+      <c r="C13" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="62" t="s">
+      <c r="D13" s="61" t="s">
         <v>242</v>
       </c>
-      <c r="E13" s="62" t="s">
+      <c r="E13" s="61" t="s">
         <v>580</v>
       </c>
-      <c r="F13" s="62" t="s">
+      <c r="F13" s="61" t="s">
         <v>559</v>
       </c>
-      <c r="G13" s="61" t="s">
+      <c r="G13" s="60" t="s">
         <v>646</v>
       </c>
-      <c r="H13" s="63" t="s">
+      <c r="H13" s="62" t="s">
         <v>581</v>
       </c>
-      <c r="I13" s="62" t="s">
+      <c r="I13" s="61" t="s">
         <v>648</v>
       </c>
-      <c r="J13" s="61" t="s">
+      <c r="J13" s="60" t="s">
         <v>244</v>
       </c>
-      <c r="K13" s="61"/>
-      <c r="L13" s="61" t="s">
+      <c r="K13" s="60"/>
+      <c r="L13" s="60" t="s">
         <v>650</v>
       </c>
-      <c r="M13" s="61"/>
+      <c r="M13" s="60"/>
     </row>
     <row r="14" spans="1:13" ht="141" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="51" t="s">
+      <c r="A14" s="50" t="s">
         <v>274</v>
       </c>
-      <c r="B14" s="51" t="s">
+      <c r="B14" s="50" t="s">
         <v>271</v>
       </c>
-      <c r="C14" s="51" t="s">
+      <c r="C14" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="52" t="s">
+      <c r="D14" s="51" t="s">
         <v>242</v>
       </c>
-      <c r="E14" s="52" t="s">
+      <c r="E14" s="51" t="s">
         <v>560</v>
       </c>
-      <c r="F14" s="52" t="s">
+      <c r="F14" s="51" t="s">
         <v>272</v>
       </c>
-      <c r="G14" s="51" t="s">
+      <c r="G14" s="50" t="s">
         <v>229</v>
       </c>
-      <c r="H14" s="51"/>
-      <c r="I14" s="51" t="s">
+      <c r="H14" s="50"/>
+      <c r="I14" s="50" t="s">
         <v>582</v>
       </c>
-      <c r="J14" s="51" t="s">
+      <c r="J14" s="50" t="s">
         <v>244</v>
       </c>
-      <c r="K14" s="51" t="s">
+      <c r="K14" s="50" t="s">
         <v>273</v>
       </c>
-      <c r="L14" s="51" t="s">
+      <c r="L14" s="50" t="s">
         <v>650</v>
       </c>
-      <c r="M14" s="51"/>
+      <c r="M14" s="50"/>
     </row>
     <row r="15" spans="1:13" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A15" s="51" t="s">
+      <c r="A15" s="50" t="s">
         <v>277</v>
       </c>
-      <c r="B15" s="51" t="s">
+      <c r="B15" s="50" t="s">
         <v>275</v>
       </c>
-      <c r="C15" s="51" t="s">
+      <c r="C15" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="52" t="s">
+      <c r="D15" s="51" t="s">
         <v>242</v>
       </c>
-      <c r="E15" s="52" t="s">
+      <c r="E15" s="51" t="s">
         <v>561</v>
       </c>
-      <c r="F15" s="52" t="s">
+      <c r="F15" s="51" t="s">
         <v>276</v>
       </c>
-      <c r="G15" s="51" t="s">
+      <c r="G15" s="50" t="s">
         <v>229</v>
       </c>
-      <c r="H15" s="51"/>
-      <c r="I15" s="51" t="s">
+      <c r="H15" s="50"/>
+      <c r="I15" s="50" t="s">
         <v>583</v>
       </c>
-      <c r="J15" s="51" t="s">
+      <c r="J15" s="50" t="s">
         <v>244</v>
       </c>
-      <c r="K15" s="51"/>
-      <c r="L15" s="51" t="s">
+      <c r="K15" s="50"/>
+      <c r="L15" s="50" t="s">
         <v>650</v>
       </c>
-      <c r="M15" s="51"/>
+      <c r="M15" s="50"/>
     </row>
     <row r="16" spans="1:13" ht="144" x14ac:dyDescent="0.3">
-      <c r="A16" s="53" t="s">
+      <c r="A16" s="52" t="s">
         <v>280</v>
       </c>
-      <c r="B16" s="53" t="s">
+      <c r="B16" s="52" t="s">
         <v>278</v>
       </c>
-      <c r="C16" s="53" t="s">
+      <c r="C16" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="54" t="s">
+      <c r="D16" s="53" t="s">
         <v>242</v>
       </c>
-      <c r="E16" s="54" t="s">
+      <c r="E16" s="53" t="s">
         <v>562</v>
       </c>
-      <c r="F16" s="54" t="s">
+      <c r="F16" s="53" t="s">
         <v>279</v>
       </c>
-      <c r="G16" s="53" t="s">
+      <c r="G16" s="52" t="s">
         <v>371</v>
       </c>
-      <c r="H16" s="55" t="s">
+      <c r="H16" s="54" t="s">
         <v>584</v>
       </c>
-      <c r="I16" s="53" t="s">
+      <c r="I16" s="52" t="s">
         <v>585</v>
       </c>
-      <c r="J16" s="53" t="s">
+      <c r="J16" s="52" t="s">
         <v>244</v>
       </c>
-      <c r="K16" s="53"/>
-      <c r="L16" s="53" t="s">
+      <c r="K16" s="52"/>
+      <c r="L16" s="52" t="s">
         <v>650</v>
       </c>
-      <c r="M16" s="53"/>
+      <c r="M16" s="52"/>
     </row>
     <row r="17" spans="1:13" ht="144" x14ac:dyDescent="0.3">
-      <c r="A17" s="51" t="s">
+      <c r="A17" s="50" t="s">
         <v>282</v>
       </c>
-      <c r="B17" s="52" t="s">
+      <c r="B17" s="51" t="s">
         <v>281</v>
       </c>
-      <c r="C17" s="51" t="s">
+      <c r="C17" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="52" t="s">
+      <c r="D17" s="51" t="s">
         <v>242</v>
       </c>
-      <c r="E17" s="52" t="s">
+      <c r="E17" s="51" t="s">
         <v>563</v>
       </c>
-      <c r="F17" s="52" t="s">
+      <c r="F17" s="51" t="s">
         <v>564</v>
       </c>
-      <c r="G17" s="51" t="s">
+      <c r="G17" s="50" t="s">
         <v>229</v>
       </c>
-      <c r="H17" s="51"/>
-      <c r="I17" s="51" t="s">
+      <c r="H17" s="50"/>
+      <c r="I17" s="50" t="s">
         <v>586</v>
       </c>
-      <c r="J17" s="51" t="s">
+      <c r="J17" s="50" t="s">
         <v>244</v>
       </c>
-      <c r="K17" s="51"/>
-      <c r="L17" s="51" t="s">
+      <c r="K17" s="50"/>
+      <c r="L17" s="50" t="s">
         <v>650</v>
       </c>
-      <c r="M17" s="51"/>
+      <c r="M17" s="50"/>
     </row>
     <row r="18" spans="1:13" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="51" t="s">
+      <c r="A18" s="50" t="s">
         <v>346</v>
       </c>
-      <c r="B18" s="52" t="s">
+      <c r="B18" s="51" t="s">
         <v>347</v>
       </c>
-      <c r="C18" s="51" t="s">
+      <c r="C18" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="52" t="s">
+      <c r="D18" s="51" t="s">
         <v>242</v>
       </c>
-      <c r="E18" s="52" t="s">
+      <c r="E18" s="51" t="s">
         <v>565</v>
       </c>
-      <c r="F18" s="52" t="s">
+      <c r="F18" s="51" t="s">
         <v>283</v>
       </c>
-      <c r="G18" s="51" t="s">
+      <c r="G18" s="50" t="s">
         <v>229</v>
       </c>
-      <c r="H18" s="51"/>
-      <c r="I18" s="51" t="s">
+      <c r="H18" s="50"/>
+      <c r="I18" s="50" t="s">
         <v>587</v>
       </c>
-      <c r="J18" s="51" t="s">
+      <c r="J18" s="50" t="s">
         <v>244</v>
       </c>
-      <c r="K18" s="51"/>
-      <c r="L18" s="51" t="s">
+      <c r="K18" s="50"/>
+      <c r="L18" s="50" t="s">
         <v>650</v>
       </c>
-      <c r="M18" s="51"/>
+      <c r="M18" s="50"/>
     </row>
     <row r="19" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A19" s="51" t="s">
+      <c r="A19" s="50" t="s">
         <v>348</v>
       </c>
-      <c r="B19" s="51" t="s">
+      <c r="B19" s="50" t="s">
         <v>349</v>
       </c>
-      <c r="C19" s="51" t="s">
+      <c r="C19" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="52" t="s">
+      <c r="D19" s="51" t="s">
         <v>242</v>
       </c>
-      <c r="E19" s="52" t="s">
+      <c r="E19" s="51" t="s">
         <v>566</v>
       </c>
-      <c r="F19" s="52" t="s">
+      <c r="F19" s="51" t="s">
         <v>350</v>
       </c>
-      <c r="G19" s="51" t="s">
+      <c r="G19" s="50" t="s">
         <v>229</v>
       </c>
-      <c r="H19" s="51"/>
-      <c r="I19" s="51" t="s">
+      <c r="H19" s="50"/>
+      <c r="I19" s="50" t="s">
         <v>574</v>
       </c>
-      <c r="J19" s="51" t="s">
+      <c r="J19" s="50" t="s">
         <v>244</v>
       </c>
-      <c r="K19" s="51"/>
-      <c r="L19" s="51" t="s">
+      <c r="K19" s="50"/>
+      <c r="L19" s="50" t="s">
         <v>650</v>
       </c>
-      <c r="M19" s="51"/>
+      <c r="M19" s="50"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/Testing/Test Cases/TAWA_TestCases.xlsx
+++ b/Testing/Test Cases/TAWA_TestCases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="ReservedTrips" sheetId="6" r:id="rId1"/>
@@ -267,9 +267,6 @@
     <t>Validate login with empty fields</t>
   </si>
   <si>
-    <t>Validate "signup" link functionality</t>
-  </si>
-  <si>
     <t>1-Open TAWA Website.
 2-Click on signup link in page Header.
 3-Click on "login" link.</t>
@@ -2585,6 +2582,9 @@
   </si>
   <si>
     <t>Missing bug id</t>
+  </si>
+  <si>
+    <t>Validate "login" link functionality in sign up page.</t>
   </si>
 </sst>
 </file>
@@ -3289,24 +3289,23 @@
       <selection activeCell="K2" sqref="K2:K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="42.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="35.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.6640625" customWidth="1"/>
-    <col min="13" max="13" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="42.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.7109375" customWidth="1"/>
+    <col min="13" max="13" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -3341,247 +3340,247 @@
         <v>55</v>
       </c>
       <c r="L1" s="12" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="M1" s="4"/>
     </row>
-    <row r="2" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="56" t="s">
+        <v>610</v>
+      </c>
+      <c r="B2" s="57" t="s">
         <v>611</v>
-      </c>
-      <c r="B2" s="57" t="s">
-        <v>612</v>
       </c>
       <c r="C2" s="56" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="57" t="s">
+        <v>612</v>
+      </c>
+      <c r="E2" s="57" t="s">
         <v>613</v>
       </c>
-      <c r="E2" s="57" t="s">
+      <c r="F2" s="57" t="s">
         <v>614</v>
       </c>
-      <c r="F2" s="57" t="s">
-        <v>615</v>
-      </c>
       <c r="G2" s="56" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H2" s="56"/>
       <c r="I2" s="56" t="s">
+        <v>615</v>
+      </c>
+      <c r="J2" s="56" t="s">
+        <v>243</v>
+      </c>
+      <c r="K2" s="56" t="s">
+        <v>650</v>
+      </c>
+      <c r="L2" s="56"/>
+    </row>
+    <row r="3" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="56" t="s">
         <v>616</v>
       </c>
-      <c r="J2" s="56" t="s">
-        <v>244</v>
-      </c>
-      <c r="K2" s="56" t="s">
-        <v>651</v>
-      </c>
-      <c r="L2" s="56"/>
-    </row>
-    <row r="3" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="56" t="s">
+      <c r="B3" s="57" t="s">
         <v>617</v>
-      </c>
-      <c r="B3" s="57" t="s">
-        <v>618</v>
       </c>
       <c r="C3" s="56" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="57" t="s">
+        <v>618</v>
+      </c>
+      <c r="E3" s="57" t="s">
         <v>619</v>
       </c>
-      <c r="E3" s="57" t="s">
+      <c r="F3" s="56" t="s">
         <v>620</v>
       </c>
-      <c r="F3" s="56" t="s">
-        <v>621</v>
-      </c>
       <c r="G3" s="56" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H3" s="56"/>
       <c r="I3" s="56" t="s">
+        <v>621</v>
+      </c>
+      <c r="J3" s="56" t="s">
+        <v>243</v>
+      </c>
+      <c r="K3" s="56" t="s">
+        <v>650</v>
+      </c>
+      <c r="L3" s="56"/>
+    </row>
+    <row r="4" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="56" t="s">
         <v>622</v>
       </c>
-      <c r="J3" s="56" t="s">
-        <v>244</v>
-      </c>
-      <c r="K3" s="56" t="s">
-        <v>651</v>
-      </c>
-      <c r="L3" s="56"/>
-    </row>
-    <row r="4" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="56" t="s">
+      <c r="B4" s="57" t="s">
         <v>623</v>
-      </c>
-      <c r="B4" s="57" t="s">
-        <v>624</v>
       </c>
       <c r="C4" s="56" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="57" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E4" s="57" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="F4" s="57" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="G4" s="56" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H4" s="56"/>
       <c r="I4" s="56" t="s">
+        <v>625</v>
+      </c>
+      <c r="J4" s="56" t="s">
+        <v>243</v>
+      </c>
+      <c r="K4" s="56" t="s">
+        <v>650</v>
+      </c>
+      <c r="L4" s="56" t="s">
         <v>626</v>
       </c>
-      <c r="J4" s="56" t="s">
-        <v>244</v>
-      </c>
-      <c r="K4" s="56" t="s">
-        <v>651</v>
-      </c>
-      <c r="L4" s="56" t="s">
+    </row>
+    <row r="5" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="56" t="s">
         <v>627</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="56" t="s">
+      <c r="B5" s="56" t="s">
         <v>628</v>
-      </c>
-      <c r="B5" s="56" t="s">
-        <v>629</v>
       </c>
       <c r="C5" s="56" t="s">
         <v>12</v>
       </c>
       <c r="D5" s="57" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E5" s="57" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="F5" s="57" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="G5" s="56" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H5" s="56"/>
       <c r="I5" s="56" t="s">
+        <v>630</v>
+      </c>
+      <c r="J5" s="56" t="s">
+        <v>243</v>
+      </c>
+      <c r="K5" s="56" t="s">
+        <v>650</v>
+      </c>
+      <c r="L5" s="56"/>
+    </row>
+    <row r="6" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="A6" s="56" t="s">
         <v>631</v>
       </c>
-      <c r="J5" s="56" t="s">
-        <v>244</v>
-      </c>
-      <c r="K5" s="56" t="s">
-        <v>651</v>
-      </c>
-      <c r="L5" s="56"/>
-    </row>
-    <row r="6" spans="1:13" ht="72" x14ac:dyDescent="0.3">
-      <c r="A6" s="56" t="s">
+      <c r="B6" s="56" t="s">
         <v>632</v>
-      </c>
-      <c r="B6" s="56" t="s">
-        <v>633</v>
       </c>
       <c r="C6" s="56" t="s">
         <v>12</v>
       </c>
       <c r="D6" s="57" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E6" s="57" t="s">
+        <v>633</v>
+      </c>
+      <c r="F6" s="57" t="s">
         <v>634</v>
       </c>
-      <c r="F6" s="57" t="s">
-        <v>635</v>
-      </c>
       <c r="G6" s="56" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H6" s="56"/>
       <c r="I6" s="57" t="s">
+        <v>635</v>
+      </c>
+      <c r="J6" s="56" t="s">
+        <v>243</v>
+      </c>
+      <c r="K6" s="56" t="s">
+        <v>650</v>
+      </c>
+      <c r="L6" s="56"/>
+    </row>
+    <row r="7" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="A7" s="56" t="s">
         <v>636</v>
       </c>
-      <c r="J6" s="56" t="s">
-        <v>244</v>
-      </c>
-      <c r="K6" s="56" t="s">
-        <v>651</v>
-      </c>
-      <c r="L6" s="56"/>
-    </row>
-    <row r="7" spans="1:13" ht="72" x14ac:dyDescent="0.3">
-      <c r="A7" s="56" t="s">
+      <c r="B7" s="57" t="s">
         <v>637</v>
-      </c>
-      <c r="B7" s="57" t="s">
-        <v>638</v>
       </c>
       <c r="C7" s="56" t="s">
         <v>12</v>
       </c>
       <c r="D7" s="57" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E7" s="57" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="F7" s="57" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="G7" s="56" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H7" s="56"/>
       <c r="I7" s="57" t="s">
+        <v>639</v>
+      </c>
+      <c r="J7" s="56" t="s">
+        <v>243</v>
+      </c>
+      <c r="K7" s="56" t="s">
+        <v>650</v>
+      </c>
+      <c r="L7" s="56"/>
+    </row>
+    <row r="8" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+      <c r="A8" s="56" t="s">
         <v>640</v>
       </c>
-      <c r="J7" s="56" t="s">
-        <v>244</v>
-      </c>
-      <c r="K7" s="56" t="s">
-        <v>651</v>
-      </c>
-      <c r="L7" s="56"/>
-    </row>
-    <row r="8" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="56" t="s">
+      <c r="B8" s="56" t="s">
         <v>641</v>
-      </c>
-      <c r="B8" s="56" t="s">
-        <v>642</v>
       </c>
       <c r="C8" s="56" t="s">
         <v>12</v>
       </c>
       <c r="D8" s="57" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E8" s="57" t="s">
+        <v>642</v>
+      </c>
+      <c r="F8" s="56" t="s">
         <v>643</v>
       </c>
-      <c r="F8" s="56" t="s">
-        <v>644</v>
-      </c>
       <c r="G8" s="56" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H8" s="56"/>
       <c r="I8" s="56" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="J8" s="56" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="K8" s="56" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="L8" s="56"/>
     </row>
@@ -3598,22 +3597,22 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.33203125" style="40" customWidth="1"/>
-    <col min="2" max="2" width="48.109375" style="40" customWidth="1"/>
+    <col min="1" max="1" width="29.28515625" style="40" customWidth="1"/>
+    <col min="2" max="2" width="48.140625" style="40" customWidth="1"/>
     <col min="3" max="4" width="22" style="40" customWidth="1"/>
-    <col min="5" max="5" width="51.109375" style="40" customWidth="1"/>
-    <col min="6" max="6" width="50.109375" style="40" customWidth="1"/>
-    <col min="7" max="7" width="19.44140625" style="40" customWidth="1"/>
-    <col min="8" max="8" width="33.44140625" style="40" customWidth="1"/>
-    <col min="9" max="9" width="39.44140625" style="40" customWidth="1"/>
+    <col min="5" max="5" width="51.140625" style="40" customWidth="1"/>
+    <col min="6" max="6" width="50.140625" style="40" customWidth="1"/>
+    <col min="7" max="7" width="19.42578125" style="40" customWidth="1"/>
+    <col min="8" max="8" width="33.42578125" style="40" customWidth="1"/>
+    <col min="9" max="9" width="39.42578125" style="40" customWidth="1"/>
     <col min="10" max="10" width="28" style="40" customWidth="1"/>
-    <col min="11" max="11" width="31.109375" style="40" customWidth="1"/>
-    <col min="12" max="16384" width="9.109375" style="40"/>
+    <col min="11" max="11" width="31.140625" style="40" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="40"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3648,7 +3647,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="43" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" s="43" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="43" t="s">
         <v>9</v>
       </c>
@@ -3668,16 +3667,16 @@
         <v>21</v>
       </c>
       <c r="G2" s="48" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="I2" s="43" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="J2" s="43" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="46" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" s="46" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="46" t="s">
         <v>14</v>
       </c>
@@ -3697,13 +3696,13 @@
         <v>20</v>
       </c>
       <c r="G3" s="47" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="J3" s="46" t="s">
         <v>50</v>
@@ -3722,28 +3721,28 @@
       <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.88671875" customWidth="1"/>
-    <col min="2" max="2" width="22.5546875" customWidth="1"/>
-    <col min="3" max="3" width="70.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.44140625" customWidth="1"/>
-    <col min="5" max="5" width="26.88671875" customWidth="1"/>
-    <col min="6" max="6" width="28.33203125" customWidth="1"/>
-    <col min="7" max="7" width="30.33203125" customWidth="1"/>
-    <col min="8" max="8" width="39.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.6640625" customWidth="1"/>
-    <col min="10" max="10" width="20.33203125" customWidth="1"/>
+    <col min="1" max="1" width="22.85546875" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" customWidth="1"/>
+    <col min="3" max="3" width="70.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.42578125" customWidth="1"/>
+    <col min="5" max="5" width="26.85546875" customWidth="1"/>
+    <col min="6" max="6" width="28.28515625" customWidth="1"/>
+    <col min="7" max="7" width="30.28515625" customWidth="1"/>
+    <col min="8" max="8" width="39.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.7109375" customWidth="1"/>
+    <col min="10" max="10" width="20.28515625" customWidth="1"/>
     <col min="11" max="11" width="14" customWidth="1"/>
-    <col min="12" max="12" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.33203125" customWidth="1"/>
-    <col min="14" max="14" width="17.6640625" customWidth="1"/>
-    <col min="15" max="15" width="30.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.28515625" customWidth="1"/>
+    <col min="14" max="14" width="17.7109375" customWidth="1"/>
+    <col min="15" max="15" width="30.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="33" customFormat="1" ht="63" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" s="33" customFormat="1" ht="42" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -3785,177 +3784,177 @@
         <v>55</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="72" x14ac:dyDescent="0.3">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="18"/>
       <c r="B2" s="18" t="s">
+        <v>351</v>
+      </c>
+      <c r="C2" s="18" t="s">
         <v>352</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>353</v>
       </c>
       <c r="D2" s="19" t="s">
         <v>12</v>
       </c>
       <c r="E2" s="19"/>
       <c r="F2" s="20" t="s">
+        <v>353</v>
+      </c>
+      <c r="G2" s="20" t="s">
         <v>354</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="H2" s="21" t="s">
         <v>355</v>
-      </c>
-      <c r="H2" s="21" t="s">
-        <v>356</v>
       </c>
       <c r="I2" s="19"/>
       <c r="J2" s="19" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="K2" s="19"/>
       <c r="L2" s="19"/>
       <c r="M2" s="19" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N2" s="18" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="O2" s="63" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="18" t="s">
+        <v>358</v>
+      </c>
+      <c r="C3" s="18" t="s">
         <v>359</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="D3" s="19" t="s">
         <v>360</v>
-      </c>
-      <c r="D3" s="19" t="s">
-        <v>361</v>
       </c>
       <c r="E3" s="22"/>
       <c r="F3" s="20" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="21" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I3" s="19"/>
       <c r="J3" s="19"/>
       <c r="K3" s="19"/>
       <c r="L3" s="19"/>
       <c r="M3" s="19" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N3" s="18" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="O3" s="63" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
+        <v>363</v>
+      </c>
+      <c r="B4" s="18" t="s">
         <v>364</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="C4" s="24" t="s">
         <v>365</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="D4" s="19" t="s">
         <v>366</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>367</v>
       </c>
       <c r="E4" s="22"/>
       <c r="F4" s="20" t="s">
+        <v>367</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="H4" s="21" t="s">
         <v>368</v>
-      </c>
-      <c r="G4" s="20" t="s">
-        <v>355</v>
-      </c>
-      <c r="H4" s="21" t="s">
-        <v>369</v>
       </c>
       <c r="I4" s="19"/>
       <c r="J4" s="19" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="K4" s="19"/>
       <c r="L4" s="21" t="s">
+        <v>371</v>
+      </c>
+      <c r="M4" s="19" t="s">
+        <v>357</v>
+      </c>
+      <c r="N4" s="18" t="s">
+        <v>243</v>
+      </c>
+      <c r="O4" s="63" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+      <c r="A5" s="23" t="s">
         <v>372</v>
       </c>
-      <c r="M4" s="19" t="s">
-        <v>358</v>
-      </c>
-      <c r="N4" s="18" t="s">
-        <v>244</v>
-      </c>
-      <c r="O4" s="63" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="72" x14ac:dyDescent="0.3">
-      <c r="A5" s="23" t="s">
+      <c r="B5" s="18" t="s">
         <v>373</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="C5" s="25" t="s">
         <v>374</v>
       </c>
-      <c r="C5" s="25" t="s">
-        <v>375</v>
-      </c>
       <c r="D5" s="19" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E5" s="22"/>
       <c r="F5" s="20" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G5" s="20"/>
       <c r="H5" s="19" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I5" s="19"/>
       <c r="J5" s="19" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="K5" s="19"/>
       <c r="L5" s="21" t="s">
+        <v>377</v>
+      </c>
+      <c r="M5" s="19" t="s">
+        <v>357</v>
+      </c>
+      <c r="N5" s="18" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="90" x14ac:dyDescent="0.25">
+      <c r="A6" s="26" t="s">
+        <v>372</v>
+      </c>
+      <c r="B6" s="27" t="s">
         <v>378</v>
       </c>
-      <c r="M5" s="19" t="s">
-        <v>358</v>
-      </c>
-      <c r="N5" s="18" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="72" x14ac:dyDescent="0.3">
-      <c r="A6" s="26" t="s">
-        <v>373</v>
-      </c>
-      <c r="B6" s="27" t="s">
+      <c r="C6" s="28" t="s">
         <v>379</v>
-      </c>
-      <c r="C6" s="28" t="s">
-        <v>380</v>
       </c>
       <c r="D6" s="29" t="s">
         <v>12</v>
       </c>
       <c r="E6" s="29" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F6" s="30" t="s">
+        <v>353</v>
+      </c>
+      <c r="G6" s="30" t="s">
         <v>354</v>
-      </c>
-      <c r="G6" s="30" t="s">
-        <v>355</v>
       </c>
       <c r="H6" s="29"/>
       <c r="I6" s="29"/>
@@ -3963,330 +3962,330 @@
       <c r="K6" s="29"/>
       <c r="L6" s="29"/>
       <c r="M6" s="19" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N6" s="18" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="O6" s="64" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="s">
+        <v>381</v>
+      </c>
+      <c r="B7" s="18" t="s">
         <v>382</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="C7" s="24" t="s">
         <v>383</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="D7" s="19" t="s">
+        <v>360</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>380</v>
+      </c>
+      <c r="F7" s="20" t="s">
         <v>384</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>361</v>
-      </c>
-      <c r="E7" s="22" t="s">
-        <v>381</v>
-      </c>
-      <c r="F7" s="20" t="s">
-        <v>385</v>
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="21" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="I7" s="19" t="s">
+        <v>369</v>
+      </c>
+      <c r="J7" s="19" t="s">
         <v>370</v>
-      </c>
-      <c r="J7" s="19" t="s">
-        <v>371</v>
       </c>
       <c r="K7" s="19"/>
       <c r="L7" s="21" t="s">
+        <v>386</v>
+      </c>
+      <c r="M7" s="19" t="s">
+        <v>357</v>
+      </c>
+      <c r="N7" s="18" t="s">
+        <v>243</v>
+      </c>
+      <c r="O7" s="64" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="23" t="s">
         <v>387</v>
       </c>
-      <c r="M7" s="19" t="s">
-        <v>358</v>
-      </c>
-      <c r="N7" s="18" t="s">
-        <v>244</v>
-      </c>
-      <c r="O7" s="64" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="23" t="s">
+      <c r="B8" s="18" t="s">
         <v>388</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="C8" s="24" t="s">
         <v>389</v>
       </c>
-      <c r="C8" s="24" t="s">
-        <v>390</v>
-      </c>
       <c r="D8" s="19" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E8" s="22"/>
       <c r="F8" s="20" t="s">
+        <v>390</v>
+      </c>
+      <c r="G8" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="H8" s="21" t="s">
         <v>391</v>
-      </c>
-      <c r="G8" s="20" t="s">
-        <v>355</v>
-      </c>
-      <c r="H8" s="21" t="s">
-        <v>392</v>
       </c>
       <c r="I8" s="19"/>
       <c r="J8" s="19" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="K8" s="19"/>
       <c r="L8" s="21" t="s">
+        <v>392</v>
+      </c>
+      <c r="M8" s="19" t="s">
+        <v>357</v>
+      </c>
+      <c r="N8" s="18" t="s">
+        <v>243</v>
+      </c>
+      <c r="O8" s="64" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="23" t="s">
         <v>393</v>
       </c>
-      <c r="M8" s="19" t="s">
-        <v>358</v>
-      </c>
-      <c r="N8" s="18" t="s">
-        <v>244</v>
-      </c>
-      <c r="O8" s="64" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="23" t="s">
+      <c r="B9" s="18" t="s">
         <v>394</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="C9" s="24" t="s">
         <v>395</v>
       </c>
-      <c r="C9" s="24" t="s">
-        <v>396</v>
-      </c>
       <c r="D9" s="19" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E9" s="22"/>
       <c r="F9" s="20" t="s">
+        <v>396</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="H9" s="21" t="s">
         <v>397</v>
-      </c>
-      <c r="G9" s="20" t="s">
-        <v>355</v>
-      </c>
-      <c r="H9" s="21" t="s">
-        <v>398</v>
       </c>
       <c r="I9" s="19"/>
       <c r="J9" s="19" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="K9" s="19"/>
       <c r="L9" s="19" t="s">
+        <v>398</v>
+      </c>
+      <c r="M9" s="19" t="s">
+        <v>357</v>
+      </c>
+      <c r="N9" s="18" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="23" t="s">
         <v>399</v>
       </c>
-      <c r="M9" s="19" t="s">
-        <v>358</v>
-      </c>
-      <c r="N9" s="18" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="23" t="s">
+      <c r="B10" s="18" t="s">
         <v>400</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="C10" s="25" t="s">
         <v>401</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="D10" s="19" t="s">
+        <v>366</v>
+      </c>
+      <c r="E10" s="31" t="s">
         <v>402</v>
       </c>
-      <c r="D10" s="19" t="s">
-        <v>367</v>
-      </c>
-      <c r="E10" s="31" t="s">
+      <c r="F10" s="20" t="s">
         <v>403</v>
       </c>
-      <c r="F10" s="20" t="s">
+      <c r="G10" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="H10" s="21" t="s">
         <v>404</v>
-      </c>
-      <c r="G10" s="20" t="s">
-        <v>355</v>
-      </c>
-      <c r="H10" s="21" t="s">
-        <v>405</v>
       </c>
       <c r="I10" s="19"/>
       <c r="J10" s="19" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="K10" s="19"/>
       <c r="L10" s="21" t="s">
+        <v>405</v>
+      </c>
+      <c r="M10" s="19" t="s">
+        <v>357</v>
+      </c>
+      <c r="N10" s="18" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11" s="23" t="s">
         <v>406</v>
       </c>
-      <c r="M10" s="19" t="s">
-        <v>358</v>
-      </c>
-      <c r="N10" s="18" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="23" t="s">
+      <c r="B11" s="18" t="s">
         <v>407</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="C11" s="24" t="s">
         <v>408</v>
       </c>
-      <c r="C11" s="24" t="s">
-        <v>409</v>
-      </c>
       <c r="D11" s="19" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E11" s="22"/>
       <c r="F11" s="20" t="s">
+        <v>409</v>
+      </c>
+      <c r="G11" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="H11" s="21" t="s">
         <v>410</v>
-      </c>
-      <c r="G11" s="20" t="s">
-        <v>355</v>
-      </c>
-      <c r="H11" s="21" t="s">
-        <v>411</v>
       </c>
       <c r="I11" s="19"/>
       <c r="J11" s="19" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="K11" s="19"/>
       <c r="L11" s="19" t="s">
+        <v>411</v>
+      </c>
+      <c r="M11" s="19" t="s">
+        <v>357</v>
+      </c>
+      <c r="N11" s="18" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12" s="23" t="s">
         <v>412</v>
       </c>
-      <c r="M11" s="19" t="s">
-        <v>358</v>
-      </c>
-      <c r="N11" s="18" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A12" s="23" t="s">
+      <c r="B12" s="18" t="s">
         <v>413</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="C12" s="25" t="s">
         <v>414</v>
       </c>
-      <c r="C12" s="25" t="s">
+      <c r="D12" s="19" t="s">
+        <v>366</v>
+      </c>
+      <c r="E12" s="31" t="s">
         <v>415</v>
       </c>
-      <c r="D12" s="19" t="s">
-        <v>367</v>
-      </c>
-      <c r="E12" s="31" t="s">
+      <c r="F12" s="20" t="s">
         <v>416</v>
       </c>
-      <c r="F12" s="20" t="s">
+      <c r="G12" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="H12" s="21" t="s">
         <v>417</v>
-      </c>
-      <c r="G12" s="20" t="s">
-        <v>355</v>
-      </c>
-      <c r="H12" s="21" t="s">
-        <v>418</v>
       </c>
       <c r="I12" s="19"/>
       <c r="J12" s="19" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="K12" s="19"/>
       <c r="L12" s="21" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="M12" s="19" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N12" s="18" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
       <c r="B13" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="C13" s="25" t="s">
         <v>420</v>
       </c>
-      <c r="C13" s="25" t="s">
-        <v>421</v>
-      </c>
       <c r="D13" s="19" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E13" s="22"/>
       <c r="F13" s="20" t="s">
+        <v>421</v>
+      </c>
+      <c r="G13" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="H13" s="21" t="s">
         <v>422</v>
-      </c>
-      <c r="G13" s="20" t="s">
-        <v>355</v>
-      </c>
-      <c r="H13" s="21" t="s">
-        <v>423</v>
       </c>
       <c r="I13" s="19"/>
       <c r="J13" s="19" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="K13" s="19"/>
       <c r="L13" s="21" t="s">
+        <v>423</v>
+      </c>
+      <c r="M13" s="19" t="s">
+        <v>357</v>
+      </c>
+      <c r="N13" s="18" t="s">
+        <v>243</v>
+      </c>
+      <c r="O13" s="63" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="32" t="s">
         <v>424</v>
       </c>
-      <c r="M13" s="19" t="s">
-        <v>358</v>
-      </c>
-      <c r="N13" s="18" t="s">
-        <v>244</v>
-      </c>
-      <c r="O13" s="63" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="32" t="s">
+      <c r="B14" s="18" t="s">
         <v>425</v>
       </c>
-      <c r="B14" s="18" t="s">
-        <v>426</v>
-      </c>
       <c r="C14" s="25" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E14" s="22"/>
       <c r="F14" s="20" t="s">
+        <v>421</v>
+      </c>
+      <c r="G14" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="H14" s="21" t="s">
         <v>422</v>
-      </c>
-      <c r="G14" s="20" t="s">
-        <v>355</v>
-      </c>
-      <c r="H14" s="21" t="s">
-        <v>423</v>
       </c>
       <c r="I14" s="19"/>
       <c r="J14" s="19" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="K14" s="19"/>
       <c r="L14" s="21" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="M14" s="19" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N14" s="18" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -4298,29 +4297,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.6640625" customWidth="1"/>
-    <col min="2" max="2" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="59.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.44140625" customWidth="1"/>
-    <col min="6" max="6" width="30.6640625" customWidth="1"/>
-    <col min="7" max="7" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.33203125" customWidth="1"/>
-    <col min="9" max="9" width="16.88671875" customWidth="1"/>
-    <col min="10" max="10" width="16.33203125" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="38.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="17.109375" customWidth="1"/>
-    <col min="15" max="15" width="18.109375" customWidth="1"/>
+    <col min="1" max="1" width="34.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="59.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.42578125" customWidth="1"/>
+    <col min="6" max="6" width="30.7109375" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.28515625" customWidth="1"/>
+    <col min="9" max="9" width="16.85546875" customWidth="1"/>
+    <col min="10" max="10" width="16.28515625" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="38.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="17.140625" customWidth="1"/>
+    <col min="15" max="15" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="33" customFormat="1" ht="42.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" s="33" customFormat="1" ht="42.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="34"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -4362,271 +4361,271 @@
         <v>55</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
+        <v>426</v>
+      </c>
+      <c r="B2" s="33" t="s">
         <v>427</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="C2" s="33" t="s">
         <v>428</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="D2" s="33" t="s">
         <v>429</v>
-      </c>
-      <c r="D2" s="33" t="s">
-        <v>430</v>
       </c>
       <c r="E2" s="33"/>
       <c r="F2" s="20" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="G2" s="14"/>
       <c r="H2" s="34" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="I2" s="33"/>
       <c r="J2" s="33" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="K2" s="33"/>
       <c r="L2" s="33" t="s">
+        <v>432</v>
+      </c>
+      <c r="M2" s="33" t="s">
+        <v>357</v>
+      </c>
+      <c r="N2" s="33" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="32" t="s">
         <v>433</v>
       </c>
-      <c r="M2" s="33" t="s">
-        <v>358</v>
-      </c>
-      <c r="N2" s="33" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="32" t="s">
+      <c r="B3" s="33" t="s">
         <v>434</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="C3" s="33" t="s">
         <v>435</v>
       </c>
-      <c r="C3" s="33" t="s">
-        <v>436</v>
-      </c>
       <c r="D3" s="33" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E3" s="33"/>
       <c r="F3" s="20" t="s">
+        <v>436</v>
+      </c>
+      <c r="H3" s="34" t="s">
         <v>437</v>
       </c>
-      <c r="H3" s="34" t="s">
+      <c r="J3" t="s">
+        <v>370</v>
+      </c>
+      <c r="L3" t="s">
         <v>438</v>
       </c>
-      <c r="J3" t="s">
-        <v>371</v>
-      </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
+        <v>357</v>
+      </c>
+      <c r="N3" s="33" t="s">
+        <v>657</v>
+      </c>
+      <c r="O3" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="32" t="s">
         <v>439</v>
       </c>
-      <c r="M3" t="s">
-        <v>358</v>
-      </c>
-      <c r="N3" s="33" t="s">
+      <c r="B4" s="33" t="s">
+        <v>440</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>441</v>
+      </c>
+      <c r="D4" s="33" t="s">
+        <v>442</v>
+      </c>
+      <c r="E4" s="33" t="s">
+        <v>443</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>444</v>
+      </c>
+      <c r="G4" s="21" t="s">
+        <v>354</v>
+      </c>
+      <c r="H4" s="34" t="s">
+        <v>431</v>
+      </c>
+      <c r="J4" t="s">
+        <v>370</v>
+      </c>
+      <c r="L4" t="s">
+        <v>445</v>
+      </c>
+      <c r="M4" t="s">
+        <v>357</v>
+      </c>
+      <c r="N4" s="33" t="s">
+        <v>657</v>
+      </c>
+      <c r="O4" t="s">
         <v>658</v>
       </c>
-      <c r="O3" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="32" t="s">
-        <v>440</v>
-      </c>
-      <c r="B4" s="33" t="s">
-        <v>441</v>
-      </c>
-      <c r="C4" s="33" t="s">
+    </row>
+    <row r="5" spans="1:15" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="32" t="s">
+        <v>446</v>
+      </c>
+      <c r="B5" s="33" t="s">
+        <v>447</v>
+      </c>
+      <c r="C5" s="35" t="s">
+        <v>448</v>
+      </c>
+      <c r="D5" s="33" t="s">
         <v>442</v>
       </c>
-      <c r="D4" s="33" t="s">
+      <c r="E5" s="33" t="s">
         <v>443</v>
       </c>
-      <c r="E4" s="33" t="s">
-        <v>444</v>
-      </c>
-      <c r="F4" s="20" t="s">
-        <v>445</v>
-      </c>
-      <c r="G4" s="21" t="s">
-        <v>355</v>
-      </c>
-      <c r="H4" s="34" t="s">
-        <v>432</v>
-      </c>
-      <c r="J4" t="s">
-        <v>371</v>
-      </c>
-      <c r="L4" t="s">
-        <v>446</v>
-      </c>
-      <c r="M4" t="s">
-        <v>358</v>
-      </c>
-      <c r="N4" s="33" t="s">
-        <v>658</v>
-      </c>
-      <c r="O4" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="32" t="s">
-        <v>447</v>
-      </c>
-      <c r="B5" s="33" t="s">
-        <v>448</v>
-      </c>
-      <c r="C5" s="35" t="s">
+      <c r="F5" s="20" t="s">
         <v>449</v>
       </c>
-      <c r="D5" s="33" t="s">
+      <c r="G5" s="21" t="s">
+        <v>354</v>
+      </c>
+      <c r="H5" s="35" t="s">
+        <v>450</v>
+      </c>
+      <c r="J5" t="s">
+        <v>356</v>
+      </c>
+      <c r="L5" t="s">
+        <v>451</v>
+      </c>
+      <c r="M5" t="s">
+        <v>357</v>
+      </c>
+      <c r="N5" s="33" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="32" t="s">
+        <v>452</v>
+      </c>
+      <c r="B6" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="C6" s="36" t="s">
+        <v>454</v>
+      </c>
+      <c r="D6" s="33" t="s">
+        <v>442</v>
+      </c>
+      <c r="E6" s="33" t="s">
         <v>443</v>
       </c>
-      <c r="E5" s="33" t="s">
-        <v>444</v>
-      </c>
-      <c r="F5" s="20" t="s">
-        <v>450</v>
-      </c>
-      <c r="G5" s="21" t="s">
-        <v>355</v>
-      </c>
-      <c r="H5" s="35" t="s">
+      <c r="F6" s="20" t="s">
+        <v>455</v>
+      </c>
+      <c r="G6" s="21" t="s">
+        <v>354</v>
+      </c>
+      <c r="H6" s="35" t="s">
+        <v>456</v>
+      </c>
+      <c r="J6" t="s">
+        <v>356</v>
+      </c>
+      <c r="L6" t="s">
+        <v>457</v>
+      </c>
+      <c r="M6" t="s">
+        <v>357</v>
+      </c>
+      <c r="N6" s="33" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="32" t="s">
+        <v>458</v>
+      </c>
+      <c r="B7" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="C7" s="34" t="s">
+        <v>460</v>
+      </c>
+      <c r="D7" s="33" t="s">
+        <v>442</v>
+      </c>
+      <c r="E7" s="33" t="s">
+        <v>443</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>461</v>
+      </c>
+      <c r="G7" s="21" t="s">
+        <v>354</v>
+      </c>
+      <c r="H7" s="35" t="s">
+        <v>462</v>
+      </c>
+      <c r="J7" t="s">
+        <v>356</v>
+      </c>
+      <c r="L7" t="s">
         <v>451</v>
       </c>
-      <c r="J5" t="s">
+      <c r="M7" t="s">
         <v>357</v>
       </c>
-      <c r="L5" t="s">
-        <v>452</v>
-      </c>
-      <c r="M5" t="s">
-        <v>358</v>
-      </c>
-      <c r="N5" s="33" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="32" t="s">
-        <v>453</v>
-      </c>
-      <c r="B6" s="33" t="s">
-        <v>454</v>
-      </c>
-      <c r="C6" s="36" t="s">
-        <v>455</v>
-      </c>
-      <c r="D6" s="33" t="s">
-        <v>443</v>
-      </c>
-      <c r="E6" s="33" t="s">
-        <v>444</v>
-      </c>
-      <c r="F6" s="20" t="s">
-        <v>456</v>
-      </c>
-      <c r="G6" s="21" t="s">
-        <v>355</v>
-      </c>
-      <c r="H6" s="35" t="s">
-        <v>457</v>
-      </c>
-      <c r="J6" t="s">
-        <v>357</v>
-      </c>
-      <c r="L6" t="s">
-        <v>458</v>
-      </c>
-      <c r="M6" t="s">
-        <v>358</v>
-      </c>
-      <c r="N6" s="33" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="32" t="s">
-        <v>459</v>
-      </c>
-      <c r="B7" s="33" t="s">
-        <v>460</v>
-      </c>
-      <c r="C7" s="34" t="s">
-        <v>461</v>
-      </c>
-      <c r="D7" s="33" t="s">
-        <v>443</v>
-      </c>
-      <c r="E7" s="33" t="s">
-        <v>444</v>
-      </c>
-      <c r="F7" s="20" t="s">
-        <v>462</v>
-      </c>
-      <c r="G7" s="21" t="s">
-        <v>355</v>
-      </c>
-      <c r="H7" s="35" t="s">
-        <v>463</v>
-      </c>
-      <c r="J7" t="s">
-        <v>357</v>
-      </c>
-      <c r="L7" t="s">
-        <v>452</v>
-      </c>
-      <c r="M7" t="s">
-        <v>358</v>
-      </c>
       <c r="N7" s="33" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="115.2" x14ac:dyDescent="0.3">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="120" x14ac:dyDescent="0.25">
       <c r="A8" s="37"/>
       <c r="B8" s="38" t="s">
+        <v>463</v>
+      </c>
+      <c r="C8" s="39" t="s">
         <v>464</v>
       </c>
-      <c r="C8" s="39" t="s">
+      <c r="D8" s="38" t="s">
         <v>465</v>
-      </c>
-      <c r="D8" s="38" t="s">
-        <v>466</v>
       </c>
       <c r="E8" s="38"/>
       <c r="F8" s="30" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="G8" s="37"/>
       <c r="H8" s="39" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="I8" s="37"/>
       <c r="J8" s="37" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="K8" s="37"/>
       <c r="L8" s="37" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="M8" s="37" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N8" s="33" t="s">
+        <v>657</v>
+      </c>
+      <c r="O8" t="s">
         <v>658</v>
-      </c>
-      <c r="O8" t="s">
-        <v>659</v>
       </c>
     </row>
   </sheetData>
@@ -4645,22 +4644,22 @@
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="32.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.88671875" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="32.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="42" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="42" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -4695,138 +4694,138 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A2" s="56" t="s">
+        <v>587</v>
+      </c>
+      <c r="B2" s="56" t="s">
         <v>588</v>
-      </c>
-      <c r="B2" s="56" t="s">
-        <v>589</v>
       </c>
       <c r="C2" s="56" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="57" t="s">
+        <v>589</v>
+      </c>
+      <c r="E2" s="57" t="s">
         <v>590</v>
       </c>
-      <c r="E2" s="57" t="s">
+      <c r="F2" s="57" t="s">
         <v>591</v>
       </c>
-      <c r="F2" s="57" t="s">
+      <c r="G2" s="56" t="s">
         <v>592</v>
-      </c>
-      <c r="G2" s="56" t="s">
-        <v>593</v>
       </c>
       <c r="H2" s="56"/>
       <c r="I2" s="56" t="s">
+        <v>593</v>
+      </c>
+      <c r="J2" s="56" t="s">
+        <v>243</v>
+      </c>
+      <c r="K2" s="56" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3" s="58" t="s">
         <v>594</v>
       </c>
-      <c r="J2" s="56" t="s">
-        <v>244</v>
-      </c>
-      <c r="K2" s="56" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="72" x14ac:dyDescent="0.3">
-      <c r="A3" s="58" t="s">
+      <c r="B3" s="58" t="s">
         <v>595</v>
-      </c>
-      <c r="B3" s="58" t="s">
-        <v>596</v>
       </c>
       <c r="C3" s="58" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="59" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="E3" s="59" t="s">
+        <v>596</v>
+      </c>
+      <c r="F3" s="59" t="s">
         <v>597</v>
       </c>
-      <c r="F3" s="59" t="s">
+      <c r="G3" s="58" t="s">
         <v>598</v>
       </c>
-      <c r="G3" s="58" t="s">
+      <c r="H3" s="54" t="s">
+        <v>574</v>
+      </c>
+      <c r="I3" s="58" t="s">
         <v>599</v>
       </c>
-      <c r="H3" s="54" t="s">
-        <v>575</v>
-      </c>
-      <c r="I3" s="58" t="s">
+      <c r="J3" s="58" t="s">
+        <v>243</v>
+      </c>
+      <c r="K3" s="58" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="56" t="s">
         <v>600</v>
       </c>
-      <c r="J3" s="58" t="s">
-        <v>244</v>
-      </c>
-      <c r="K3" s="58" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="56" t="s">
+      <c r="B4" s="56" t="s">
         <v>601</v>
-      </c>
-      <c r="B4" s="56" t="s">
-        <v>602</v>
       </c>
       <c r="C4" s="56" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="57" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="E4" s="57" t="s">
+        <v>602</v>
+      </c>
+      <c r="F4" s="57" t="s">
         <v>603</v>
       </c>
-      <c r="F4" s="57" t="s">
-        <v>604</v>
-      </c>
       <c r="G4" s="56" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H4" s="56"/>
       <c r="I4" s="56" t="s">
+        <v>604</v>
+      </c>
+      <c r="J4" s="56" t="s">
+        <v>243</v>
+      </c>
+      <c r="K4" s="56" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="56" t="s">
         <v>605</v>
       </c>
-      <c r="J4" s="56" t="s">
-        <v>244</v>
-      </c>
-      <c r="K4" s="56" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="56" t="s">
+      <c r="B5" s="56" t="s">
         <v>606</v>
-      </c>
-      <c r="B5" s="56" t="s">
-        <v>607</v>
       </c>
       <c r="C5" s="56" t="s">
         <v>12</v>
       </c>
       <c r="D5" s="57" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="E5" s="57" t="s">
+        <v>607</v>
+      </c>
+      <c r="F5" s="57" t="s">
         <v>608</v>
       </c>
-      <c r="F5" s="57" t="s">
-        <v>609</v>
-      </c>
       <c r="G5" s="56" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H5" s="56"/>
       <c r="I5" s="56" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="J5" s="56" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="K5" s="56" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
   </sheetData>
@@ -4838,28 +4837,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K56"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G48" sqref="G48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.88671875" style="40" customWidth="1"/>
-    <col min="2" max="2" width="51.109375" style="40" customWidth="1"/>
+    <col min="1" max="1" width="24.85546875" style="40" customWidth="1"/>
+    <col min="2" max="2" width="51.140625" style="40" customWidth="1"/>
     <col min="3" max="3" width="26" style="31" customWidth="1"/>
     <col min="4" max="4" width="26" style="40" customWidth="1"/>
-    <col min="5" max="5" width="56.6640625" style="40" customWidth="1"/>
-    <col min="6" max="6" width="50.5546875" style="40" customWidth="1"/>
-    <col min="7" max="7" width="26.44140625" style="31" customWidth="1"/>
+    <col min="5" max="5" width="56.7109375" style="40" customWidth="1"/>
+    <col min="6" max="6" width="50.5703125" style="40" customWidth="1"/>
+    <col min="7" max="7" width="26.42578125" style="31" customWidth="1"/>
     <col min="8" max="8" width="24" style="40" customWidth="1"/>
-    <col min="9" max="9" width="31.88671875" style="40" customWidth="1"/>
+    <col min="9" max="9" width="31.85546875" style="40" customWidth="1"/>
     <col min="10" max="10" width="23" style="40" customWidth="1"/>
     <col min="11" max="11" width="19" style="40" customWidth="1"/>
-    <col min="12" max="16384" width="9.109375" style="40"/>
+    <col min="12" max="16384" width="9.140625" style="40"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4894,33 +4893,33 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="43" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" s="43" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="43" t="s">
         <v>59</v>
       </c>
       <c r="B2" s="43" t="s">
-        <v>73</v>
+        <v>659</v>
       </c>
       <c r="C2" s="48" t="s">
         <v>71</v>
       </c>
       <c r="E2" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="F2" s="43" t="s">
         <v>74</v>
       </c>
-      <c r="F2" s="43" t="s">
-        <v>75</v>
-      </c>
       <c r="G2" s="48" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="I2" s="43" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="J2" s="43" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="43" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" s="43" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="43" t="s">
         <v>60</v>
       </c>
@@ -4931,689 +4930,689 @@
         <v>12</v>
       </c>
       <c r="E3" s="43" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F3" s="43" t="s">
+        <v>520</v>
+      </c>
+      <c r="G3" s="48" t="s">
+        <v>506</v>
+      </c>
+      <c r="I3" s="43" t="s">
         <v>521</v>
-      </c>
-      <c r="G3" s="48" t="s">
-        <v>507</v>
-      </c>
-      <c r="I3" s="43" t="s">
-        <v>522</v>
       </c>
       <c r="J3" s="43" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="46" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" s="46" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" s="46" t="s">
         <v>61</v>
       </c>
       <c r="B4" s="46" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C4" s="47" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="46" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F4" s="46" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G4" s="47" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="J4" s="46" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="43" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" s="43" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" s="43" t="s">
         <v>62</v>
       </c>
       <c r="B5" s="43" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C5" s="48" t="s">
         <v>12</v>
       </c>
       <c r="E5" s="43" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F5" s="43" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G5" s="48" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H5" s="49"/>
       <c r="I5" s="49" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="J5" s="43" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="43" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" s="43" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A6" s="43" t="s">
         <v>63</v>
       </c>
       <c r="B6" s="43" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C6" s="48" t="s">
         <v>12</v>
       </c>
       <c r="E6" s="43" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F6" s="43" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G6" s="48" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="I6" s="49" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="J6" s="43" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="46" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" s="46" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A7" s="46" t="s">
         <v>64</v>
       </c>
       <c r="B7" s="46" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C7" s="47" t="s">
         <v>12</v>
       </c>
       <c r="E7" s="46" t="s">
+        <v>82</v>
+      </c>
+      <c r="F7" s="46" t="s">
         <v>83</v>
       </c>
-      <c r="F7" s="46" t="s">
-        <v>84</v>
-      </c>
       <c r="G7" s="47" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="J7" s="46" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="46" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" s="46" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A8" s="46" t="s">
         <v>65</v>
       </c>
       <c r="B8" s="46" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C8" s="47" t="s">
         <v>12</v>
       </c>
       <c r="E8" s="46" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F8" s="46" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G8" s="47" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="J8" s="46" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="43" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" s="43" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A9" s="43" t="s">
         <v>66</v>
       </c>
       <c r="B9" s="43" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C9" s="48" t="s">
         <v>12</v>
       </c>
       <c r="E9" s="43" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F9" s="43" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G9" s="48" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="I9" s="49" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="J9" s="43" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="46" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" s="46" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A10" s="46" t="s">
         <v>67</v>
       </c>
       <c r="B10" s="46" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C10" s="47" t="s">
         <v>12</v>
       </c>
       <c r="E10" s="46" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F10" s="46" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G10" s="47" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="J10" s="46" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="43" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" s="43" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A11" s="43" t="s">
         <v>68</v>
       </c>
       <c r="B11" s="43" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C11" s="48" t="s">
         <v>12</v>
       </c>
       <c r="E11" s="43" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F11" s="43" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G11" s="48" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="I11" s="43" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="J11" s="43" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="46" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" s="46" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A12" s="46" t="s">
         <v>69</v>
       </c>
       <c r="B12" s="46" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C12" s="47" t="s">
         <v>12</v>
       </c>
       <c r="E12" s="46" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F12" s="46" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G12" s="47" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="J12" s="46" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="43" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" s="43" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A13" s="43" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B13" s="43" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C13" s="48" t="s">
         <v>12</v>
       </c>
       <c r="E13" s="43" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F13" s="43" t="s">
+        <v>526</v>
+      </c>
+      <c r="G13" s="48" t="s">
+        <v>506</v>
+      </c>
+      <c r="I13" s="43" t="s">
         <v>527</v>
-      </c>
-      <c r="G13" s="48" t="s">
-        <v>507</v>
-      </c>
-      <c r="I13" s="43" t="s">
-        <v>528</v>
       </c>
       <c r="J13" s="43" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="46" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" s="46" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A14" s="46" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B14" s="46" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C14" s="47" t="s">
         <v>12</v>
       </c>
       <c r="E14" s="46" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F14" s="46" t="s">
+        <v>528</v>
+      </c>
+      <c r="G14" s="47" t="s">
+        <v>509</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>538</v>
+      </c>
+      <c r="I14" s="46" t="s">
         <v>529</v>
-      </c>
-      <c r="G14" s="47" t="s">
-        <v>510</v>
-      </c>
-      <c r="H14" s="11" t="s">
-        <v>539</v>
-      </c>
-      <c r="I14" s="46" t="s">
-        <v>530</v>
       </c>
       <c r="J14" s="46" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:11" s="43" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" s="43" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A15" s="43" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B15" s="43" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C15" s="48" t="s">
         <v>12</v>
       </c>
       <c r="E15" s="43" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F15" s="43" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G15" s="48" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="I15" s="43" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="J15" s="43" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:11" s="43" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" s="43" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A16" s="43" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B16" s="43" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C16" s="48" t="s">
         <v>12</v>
       </c>
       <c r="E16" s="43" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F16" s="43" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G16" s="48" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="I16" s="43" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="J16" s="43" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:10" s="46" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" s="46" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A17" s="46" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B17" s="46" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C17" s="47" t="s">
         <v>12</v>
       </c>
       <c r="E17" s="46" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F17" s="46" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G17" s="47" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="I17" s="11" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="J17" s="46" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:10" s="46" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" s="46" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A18" s="46" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B18" s="46" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C18" s="47" t="s">
         <v>12</v>
       </c>
       <c r="E18" s="46" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F18" s="46" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G18" s="47" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="J18" s="46" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:10" s="46" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" s="46" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A19" s="46" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B19" s="46" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C19" s="47" t="s">
         <v>12</v>
       </c>
       <c r="E19" s="46" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F19" s="46" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G19" s="47" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="I19" s="11" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="J19" s="46" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:10" s="46" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" s="46" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A20" s="46" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B20" s="46" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C20" s="47" t="s">
         <v>12</v>
       </c>
       <c r="E20" s="46" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F20" s="46" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G20" s="47" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="I20" s="11" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="J20" s="46" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:10" s="46" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+    <row r